--- a/Raport.xlsx
+++ b/Raport.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Pobrane\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Talib\Tokyo-Garden-Restaurant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7500FF8F-4ADE-492F-AFA0-1895D8555696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE4F89CD-8098-4C0C-A259-4ABA4104B438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,9 +60,6 @@
     <t>clasa1.cs</t>
   </si>
   <si>
-    <t>clasa2.cs</t>
-  </si>
-  <si>
     <t>clasa3.cs</t>
   </si>
   <si>
@@ -76,6 +73,9 @@
   </si>
   <si>
     <t>Szymon Czapla</t>
+  </si>
+  <si>
+    <t>diagram i funkcjonalnosci.docx</t>
   </si>
 </sst>
 </file>
@@ -636,7 +636,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -669,7 +669,7 @@
       </c>
       <c r="G3">
         <f>SUM(G7:G1001)</f>
-        <v>200</v>
+        <v>25</v>
       </c>
       <c r="J3">
         <f>SUM(J7:J1001)</f>
@@ -687,39 +687,39 @@
       <c r="B4" s="1"/>
       <c r="D4">
         <f>($B$2*D$3)/SUM($D$3:$AK$3)</f>
-        <v>0.5</v>
+        <v>0.64</v>
       </c>
       <c r="G4">
         <f>($B$2*G$3)/SUM($D$3:$AK$3)</f>
-        <v>1</v>
+        <v>0.16</v>
       </c>
       <c r="J4">
         <f>($B$2*J$3)/SUM($D$3:$AK$3)</f>
-        <v>1.5</v>
+        <v>1.92</v>
       </c>
       <c r="M4">
         <f>($B$2*M$3)/SUM($D$3:$AK$3)</f>
-        <v>1</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="B5" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
@@ -776,16 +776,16 @@
         <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G7">
-        <v>200</v>
+        <v>25</v>
       </c>
       <c r="H7" t="s">
         <v>7</v>
       </c>
       <c r="I7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J7">
         <v>300</v>
@@ -794,7 +794,7 @@
         <v>7</v>
       </c>
       <c r="L7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M7">
         <v>200</v>

--- a/Raport.xlsx
+++ b/Raport.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Talib\Tokyo-Garden-Restaurant\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Szymon\Documents\GitHub\Tokyo-Garden-Restaurant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE4F89CD-8098-4C0C-A259-4ABA4104B438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F772151-8516-4878-AEE5-01B9C4540143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -95,7 +95,8 @@
       <sz val="48"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -103,7 +104,8 @@
       <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -636,7 +638,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -677,7 +679,7 @@
       </c>
       <c r="M3">
         <f>SUM(M7:M1001)</f>
-        <v>200</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="24.95" customHeight="1">
@@ -687,19 +689,19 @@
       <c r="B4" s="1"/>
       <c r="D4">
         <f>($B$2*D$3)/SUM($D$3:$AK$3)</f>
-        <v>0.64</v>
+        <v>0.88888888888888884</v>
       </c>
       <c r="G4">
         <f>($B$2*G$3)/SUM($D$3:$AK$3)</f>
-        <v>0.16</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="J4">
         <f>($B$2*J$3)/SUM($D$3:$AK$3)</f>
-        <v>1.92</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="M4">
         <f>($B$2*M$3)/SUM($D$3:$AK$3)</f>
-        <v>1.28</v>
+        <v>0.22222222222222221</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -797,7 +799,7 @@
         <v>9</v>
       </c>
       <c r="M7">
-        <v>200</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Raport.xlsx
+++ b/Raport.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Szymon\Documents\GitHub\Tokyo-Garden-Restaurant\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\majer\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F772151-8516-4878-AEE5-01B9C4540143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D729D129-BC97-4A28-AB60-92F02E55D5FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
   <si>
     <t>Roport zaangażowania</t>
   </si>
@@ -55,9 +55,6 @@
   </si>
   <si>
     <t>01.04.2025</t>
-  </si>
-  <si>
-    <t>clasa1.cs</t>
   </si>
   <si>
     <t>clasa3.cs</t>
@@ -95,8 +92,7 @@
       <sz val="48"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -104,8 +100,7 @@
       <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -638,7 +633,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -667,7 +662,7 @@
       <c r="B3" s="1"/>
       <c r="D3">
         <f>SUM(D7:D1001)</f>
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="G3">
         <f>SUM(G7:G1001)</f>
@@ -689,39 +684,39 @@
       <c r="B4" s="1"/>
       <c r="D4">
         <f>($B$2*D$3)/SUM($D$3:$AK$3)</f>
-        <v>0.88888888888888884</v>
+        <v>0.26666666666666666</v>
       </c>
       <c r="G4">
         <f>($B$2*G$3)/SUM($D$3:$AK$3)</f>
-        <v>0.22222222222222221</v>
+        <v>0.26666666666666666</v>
       </c>
       <c r="J4">
         <f>($B$2*J$3)/SUM($D$3:$AK$3)</f>
-        <v>2.6666666666666665</v>
+        <v>3.2</v>
       </c>
       <c r="M4">
         <f>($B$2*M$3)/SUM($D$3:$AK$3)</f>
-        <v>0.22222222222222221</v>
+        <v>0.26666666666666666</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="B5" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
@@ -769,16 +764,16 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D7">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="E7" t="s">
         <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G7">
         <v>25</v>
@@ -787,7 +782,7 @@
         <v>7</v>
       </c>
       <c r="I7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J7">
         <v>300</v>
@@ -796,7 +791,7 @@
         <v>7</v>
       </c>
       <c r="L7" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="M7">
         <v>25</v>

--- a/Raport.xlsx
+++ b/Raport.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\majer\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dominik\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D729D129-BC97-4A28-AB60-92F02E55D5FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53888F81-A0EC-49F5-A70E-C86700713F25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="13">
   <si>
     <t>Roport zaangażowania</t>
   </si>
@@ -55,9 +55,6 @@
   </si>
   <si>
     <t>01.04.2025</t>
-  </si>
-  <si>
-    <t>clasa3.cs</t>
   </si>
   <si>
     <t>Jakub Majer</t>
@@ -633,21 +630,21 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="39.85546875" customWidth="1"/>
-    <col min="2" max="13" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="39.88671875" customWidth="1"/>
+    <col min="2" max="13" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="61.5">
+    <row r="1" spans="1:13" ht="61.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="23.25">
+    <row r="2" spans="1:13" ht="23.4">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -655,7 +652,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="61.5">
+    <row r="3" spans="1:13" ht="61.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -670,53 +667,53 @@
       </c>
       <c r="J3">
         <f>SUM(J7:J1001)</f>
-        <v>300</v>
+        <v>25</v>
       </c>
       <c r="M3">
         <f>SUM(M7:M1001)</f>
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="24.95" customHeight="1">
+    <row r="4" spans="1:13" ht="24.9" customHeight="1">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1"/>
       <c r="D4">
         <f>($B$2*D$3)/SUM($D$3:$AK$3)</f>
-        <v>0.26666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <f>($B$2*G$3)/SUM($D$3:$AK$3)</f>
-        <v>0.26666666666666666</v>
+        <v>1</v>
       </c>
       <c r="J4">
         <f>($B$2*J$3)/SUM($D$3:$AK$3)</f>
-        <v>3.2</v>
+        <v>1</v>
       </c>
       <c r="M4">
         <f>($B$2*M$3)/SUM($D$3:$AK$3)</f>
-        <v>0.26666666666666666</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="B5" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
@@ -764,7 +761,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7">
         <v>25</v>
@@ -773,7 +770,7 @@
         <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G7">
         <v>25</v>
@@ -782,16 +779,16 @@
         <v>7</v>
       </c>
       <c r="I7" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J7">
-        <v>300</v>
+        <v>25</v>
       </c>
       <c r="K7" t="s">
         <v>7</v>
       </c>
       <c r="L7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M7">
         <v>25</v>

--- a/Raport.xlsx
+++ b/Raport.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dominik\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\majer\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53888F81-A0EC-49F5-A70E-C86700713F25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11DBFF27-A74F-4C76-9450-4A4BF0B790B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
   <si>
     <t>Roport zaangażowania</t>
   </si>
@@ -123,7 +123,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -138,6 +138,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -630,21 +633,21 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="39.88671875" customWidth="1"/>
-    <col min="2" max="13" width="12.5546875" customWidth="1"/>
+    <col min="1" max="1" width="39.85546875" customWidth="1"/>
+    <col min="2" max="13" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="61.2">
+    <row r="1" spans="1:13" ht="61.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="23.4">
+    <row r="2" spans="1:13" ht="23.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -652,7 +655,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="61.2">
+    <row r="3" spans="1:13" ht="61.5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -674,7 +677,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="24.9" customHeight="1">
+    <row r="4" spans="1:13" ht="24.95" customHeight="1">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -757,8 +760,8 @@
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="B7" t="s">
-        <v>7</v>
+      <c r="B7" s="5">
+        <v>45754</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>

--- a/Raport.xlsx
+++ b/Raport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\majer\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11DBFF27-A74F-4C76-9450-4A4BF0B790B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{814D816D-F84A-45BB-B970-20410960C347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
   <si>
     <t>Roport zaangażowania</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>diagram i funkcjonalnosci.docx</t>
+  </si>
+  <si>
+    <t>diagram CMD.png</t>
   </si>
 </sst>
 </file>
@@ -133,14 +136,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -630,16 +633,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="39.85546875" customWidth="1"/>
-    <col min="2" max="13" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="13" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="61.5">
@@ -662,7 +667,7 @@
       <c r="B3" s="1"/>
       <c r="D3">
         <f>SUM(D7:D1001)</f>
-        <v>25</v>
+        <v>125</v>
       </c>
       <c r="G3">
         <f>SUM(G7:G1001)</f>
@@ -684,42 +689,42 @@
       <c r="B4" s="1"/>
       <c r="D4">
         <f>($B$2*D$3)/SUM($D$3:$AK$3)</f>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="G4">
         <f>($B$2*G$3)/SUM($D$3:$AK$3)</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J4">
         <f>($B$2*J$3)/SUM($D$3:$AK$3)</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M4">
         <f>($B$2*M$3)/SUM($D$3:$AK$3)</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="4" t="s">
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4" t="s">
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4" t="s">
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
     </row>
     <row r="6" spans="1:13">
       <c r="B6" t="s">
@@ -760,7 +765,7 @@
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="B7" s="5">
+      <c r="B7" s="3">
         <v>45754</v>
       </c>
       <c r="C7" t="s">
@@ -795,6 +800,17 @@
       </c>
       <c r="M7">
         <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="B8" s="3">
+        <v>45754</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Raport.xlsx
+++ b/Raport.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\majer\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Talib\Tokyo-Garden-Restaurant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{814D816D-F84A-45BB-B970-20410960C347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{996E8B9C-982E-4419-BC8B-BB11F5DC117A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
   <si>
     <t>Roport zaangażowania</t>
   </si>
@@ -73,6 +73,12 @@
   </si>
   <si>
     <t>diagram CMD.png</t>
+  </si>
+  <si>
+    <t>Diagram PDM.png</t>
+  </si>
+  <si>
+    <t>funkcjonalnosci.docx</t>
   </si>
 </sst>
 </file>
@@ -636,7 +642,7 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -671,7 +677,7 @@
       </c>
       <c r="G3">
         <f>SUM(G7:G1001)</f>
-        <v>25</v>
+        <v>125</v>
       </c>
       <c r="J3">
         <f>SUM(J7:J1001)</f>
@@ -689,19 +695,19 @@
       <c r="B4" s="1"/>
       <c r="D4">
         <f>($B$2*D$3)/SUM($D$3:$AK$3)</f>
-        <v>2.5</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="G4">
         <f>($B$2*G$3)/SUM($D$3:$AK$3)</f>
-        <v>0.5</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="J4">
         <f>($B$2*J$3)/SUM($D$3:$AK$3)</f>
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="M4">
         <f>($B$2*M$3)/SUM($D$3:$AK$3)</f>
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -778,7 +784,7 @@
         <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G7">
         <v>25</v>
@@ -810,6 +816,12 @@
         <v>13</v>
       </c>
       <c r="D8">
+        <v>100</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8">
         <v>100</v>
       </c>
     </row>

--- a/Raport.xlsx
+++ b/Raport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Talib\Tokyo-Garden-Restaurant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{996E8B9C-982E-4419-BC8B-BB11F5DC117A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45AE5F30-4173-4C42-9357-0B08CC32531B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
   <si>
     <t>Roport zaangażowania</t>
   </si>
@@ -76,9 +76,6 @@
   </si>
   <si>
     <t>Diagram PDM.png</t>
-  </si>
-  <si>
-    <t>funkcjonalnosci.docx</t>
   </si>
 </sst>
 </file>
@@ -642,7 +639,7 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -784,7 +781,7 @@
         <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G7">
         <v>25</v>

--- a/Raport.xlsx
+++ b/Raport.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Talib\Tokyo-Garden-Restaurant\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dominik\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45AE5F30-4173-4C42-9357-0B08CC32531B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C2AE7AE-EF50-424E-BE85-2AC2533FA993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
   <si>
     <t>Roport zaangażowania</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>Diagram PDM.png</t>
+  </si>
+  <si>
+    <t>ModelEntityFramework.cs</t>
   </si>
 </sst>
 </file>
@@ -129,7 +132,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -147,6 +150,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -639,23 +645,25 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="39.85546875" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="39.88671875" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="13" width="12.5703125" customWidth="1"/>
+    <col min="4" max="5" width="12.5546875" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" customWidth="1"/>
+    <col min="7" max="13" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="61.5">
+    <row r="1" spans="1:13" ht="61.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="23.25">
+    <row r="2" spans="1:13" ht="23.4">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -663,7 +671,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="61.5">
+    <row r="3" spans="1:13" ht="61.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -678,33 +686,33 @@
       </c>
       <c r="J3">
         <f>SUM(J7:J1001)</f>
-        <v>25</v>
+        <v>125</v>
       </c>
       <c r="M3">
         <f>SUM(M7:M1001)</f>
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="24.95" customHeight="1">
+    <row r="4" spans="1:13" ht="24.9" customHeight="1">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1"/>
       <c r="D4">
         <f>($B$2*D$3)/SUM($D$3:$AK$3)</f>
-        <v>1.6666666666666667</v>
+        <v>1.25</v>
       </c>
       <c r="G4">
         <f>($B$2*G$3)/SUM($D$3:$AK$3)</f>
-        <v>1.6666666666666667</v>
+        <v>1.25</v>
       </c>
       <c r="J4">
         <f>($B$2*J$3)/SUM($D$3:$AK$3)</f>
-        <v>0.33333333333333331</v>
+        <v>1.25</v>
       </c>
       <c r="M4">
         <f>($B$2*M$3)/SUM($D$3:$AK$3)</f>
-        <v>0.33333333333333331</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -819,6 +827,15 @@
         <v>14</v>
       </c>
       <c r="G8">
+        <v>100</v>
+      </c>
+      <c r="H8" s="6">
+        <v>45754</v>
+      </c>
+      <c r="I8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8">
         <v>100</v>
       </c>
     </row>

--- a/Raport.xlsx
+++ b/Raport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dominik\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C2AE7AE-EF50-424E-BE85-2AC2533FA993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F4DB0D-9D8F-4A3B-B49F-695629D56783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="17">
   <si>
     <t>Roport zaangażowania</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>ModelEntityFramework.cs</t>
+  </si>
+  <si>
+    <t>Tworzenie klas</t>
   </si>
 </sst>
 </file>
@@ -145,14 +148,14 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -642,10 +645,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
@@ -655,7 +658,9 @@
     <col min="3" max="3" width="16" customWidth="1"/>
     <col min="4" max="5" width="12.5546875" customWidth="1"/>
     <col min="6" max="6" width="15.88671875" customWidth="1"/>
-    <col min="7" max="13" width="12.5546875" customWidth="1"/>
+    <col min="7" max="8" width="12.5546875" customWidth="1"/>
+    <col min="9" max="9" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="61.2">
@@ -686,7 +691,7 @@
       </c>
       <c r="J3">
         <f>SUM(J7:J1001)</f>
-        <v>125</v>
+        <v>243</v>
       </c>
       <c r="M3">
         <f>SUM(M7:M1001)</f>
@@ -700,42 +705,42 @@
       <c r="B4" s="1"/>
       <c r="D4">
         <f>($B$2*D$3)/SUM($D$3:$AK$3)</f>
-        <v>1.25</v>
+        <v>0.96525096525096521</v>
       </c>
       <c r="G4">
         <f>($B$2*G$3)/SUM($D$3:$AK$3)</f>
-        <v>1.25</v>
+        <v>0.96525096525096521</v>
       </c>
       <c r="J4">
         <f>($B$2*J$3)/SUM($D$3:$AK$3)</f>
-        <v>1.25</v>
+        <v>1.8764478764478765</v>
       </c>
       <c r="M4">
         <f>($B$2*M$3)/SUM($D$3:$AK$3)</f>
-        <v>0.25</v>
+        <v>0.19305019305019305</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="5" t="s">
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5" t="s">
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5" t="s">
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
     </row>
     <row r="6" spans="1:13">
       <c r="B6" t="s">
@@ -829,7 +834,7 @@
       <c r="G8">
         <v>100</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="4">
         <v>45754</v>
       </c>
       <c r="I8" t="s">
@@ -837,6 +842,17 @@
       </c>
       <c r="J8">
         <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="H9" s="3">
+        <v>45770</v>
+      </c>
+      <c r="I9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9">
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/Raport.xlsx
+++ b/Raport.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dominik\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Szymon\Documents\GitHub\Tokyo-Garden-Restaurant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F4DB0D-9D8F-4A3B-B49F-695629D56783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2EB10EC-9112-41E1-B103-C04CAD587265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="54">
   <si>
     <t>Roport zaangażowania</t>
   </si>
@@ -82,13 +82,124 @@
   </si>
   <si>
     <t>Tworzenie klas</t>
+  </si>
+  <si>
+    <t>BL/ObslugaAdresow.cs</t>
+  </si>
+  <si>
+    <t>BL/ObslugaAlergenPozycjaMenu.cs</t>
+  </si>
+  <si>
+    <t>BL/ObslugaKategorii.cs</t>
+  </si>
+  <si>
+    <t>BL/ObslugaPozycjiMenu.cs</t>
+  </si>
+  <si>
+    <t>BL/ObslugaPozycjiZamowienia.cs</t>
+  </si>
+  <si>
+    <t>BL/ObslugaUzytkownikow.cs</t>
+  </si>
+  <si>
+    <t>BL/ObslugaZamowien.cs</t>
+  </si>
+  <si>
+    <t>BL/ObsługaAlergenow.cs</t>
+  </si>
+  <si>
+    <t>DAL/AdresyRepository.cs</t>
+  </si>
+  <si>
+    <t>DAL/AlergenPozycjaMenuRepository.cs</t>
+  </si>
+  <si>
+    <t>DAL/AlergenyRepository.cs</t>
+  </si>
+  <si>
+    <t>DAL/DbTokyoGarden.cs</t>
+  </si>
+  <si>
+    <t>DAL/KategoriaRepository.cs</t>
+  </si>
+  <si>
+    <t>DAL/PozycjaMenuRepository.cs</t>
+  </si>
+  <si>
+    <t>DAL/PozycjaZamowieniaRepository.cs</t>
+  </si>
+  <si>
+    <t>DAL/UnitOfWork.cs</t>
+  </si>
+  <si>
+    <t>DAL/UzytkownicyRepository.cs</t>
+  </si>
+  <si>
+    <t>DAL/ZamowienieRepository.cs</t>
+  </si>
+  <si>
+    <t>IBL/IObslugaAlergenPozycjaMenu.cs</t>
+  </si>
+  <si>
+    <t>IBL/IObslugaKategorii.cs</t>
+  </si>
+  <si>
+    <t>IBL/IObslugaPozycjiMenu.cs</t>
+  </si>
+  <si>
+    <t>IBL/IObslugaPozycjiZamowienia.cs</t>
+  </si>
+  <si>
+    <t>IBL/IObslugaZamowien.cs</t>
+  </si>
+  <si>
+    <t>IDAL/IAlergenPozycjaMenuRepository.cs</t>
+  </si>
+  <si>
+    <t>IDAL/IKategoriaRepository.cs</t>
+  </si>
+  <si>
+    <t>IDAL/IPozycjaMenuRepository.cs</t>
+  </si>
+  <si>
+    <t>IDAL/IPozycjaZamowieniaRepository.cs</t>
+  </si>
+  <si>
+    <t>IDAL/IUnitOfWork.cs</t>
+  </si>
+  <si>
+    <t>IDAL/IZamowienieRepository.cs</t>
+  </si>
+  <si>
+    <t>Model/Adresy.cs</t>
+  </si>
+  <si>
+    <t>Model/AlergenPozycjaMenu.cs</t>
+  </si>
+  <si>
+    <t>Model/Alergeny.cs</t>
+  </si>
+  <si>
+    <t>Model/Kategoria.cs</t>
+  </si>
+  <si>
+    <t>Model/PozycjaMenu.cs</t>
+  </si>
+  <si>
+    <t>Model/PozycjaZamowienia.cs</t>
+  </si>
+  <si>
+    <t>Model/Uzytkownik.cs</t>
+  </si>
+  <si>
+    <t>Model/Zamowienie.cs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,11 +208,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="48"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -109,7 +229,8 @@
       <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -135,14 +256,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -155,6 +276,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -645,30 +772,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="39.88671875" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" customWidth="1"/>
+    <col min="1" max="1" width="39.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="5" width="12.5546875" customWidth="1"/>
-    <col min="6" max="6" width="15.88671875" customWidth="1"/>
-    <col min="7" max="8" width="12.5546875" customWidth="1"/>
-    <col min="9" max="9" width="26.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="12.5546875" customWidth="1"/>
+    <col min="4" max="5" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1"/>
+    <col min="7" max="8" width="12.5703125" customWidth="1"/>
+    <col min="9" max="9" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="12.5703125" customWidth="1"/>
+    <col min="12" max="12" width="38.28515625" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="61.2">
+    <row r="1" spans="1:13" ht="61.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="23.4">
+    <row r="2" spans="1:13" ht="23.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -676,7 +805,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="61.2">
+    <row r="3" spans="1:13" ht="61.5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -695,29 +824,29 @@
       </c>
       <c r="M3">
         <f>SUM(M7:M1001)</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="24.9" customHeight="1">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="24.95" customHeight="1">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1"/>
       <c r="D4">
         <f>($B$2*D$3)/SUM($D$3:$AK$3)</f>
-        <v>0.96525096525096521</v>
+        <v>0.51020408163265307</v>
       </c>
       <c r="G4">
         <f>($B$2*G$3)/SUM($D$3:$AK$3)</f>
-        <v>0.96525096525096521</v>
+        <v>0.51020408163265307</v>
       </c>
       <c r="J4">
         <f>($B$2*J$3)/SUM($D$3:$AK$3)</f>
-        <v>1.8764478764478765</v>
+        <v>0.99183673469387756</v>
       </c>
       <c r="M4">
         <f>($B$2*M$3)/SUM($D$3:$AK$3)</f>
-        <v>0.19305019305019305</v>
+        <v>1.9877551020408164</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -843,6 +972,15 @@
       <c r="J8">
         <v>100</v>
       </c>
+      <c r="K8" s="8">
+        <v>45772</v>
+      </c>
+      <c r="L8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:13">
       <c r="H9" s="3">
@@ -854,13 +992,336 @@
       <c r="J9">
         <v>118</v>
       </c>
+      <c r="K9" s="8"/>
+      <c r="L9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="K10" s="8"/>
+      <c r="L10" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="K11" s="8"/>
+      <c r="L11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M11">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="K12" s="8"/>
+      <c r="L12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M12">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="K13" s="8"/>
+      <c r="L13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="K14" s="8"/>
+      <c r="L14" t="s">
+        <v>23</v>
+      </c>
+      <c r="M14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="K15" s="8"/>
+      <c r="L15" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="K16" s="8"/>
+      <c r="L16" t="s">
+        <v>25</v>
+      </c>
+      <c r="M16">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="11:13">
+      <c r="K17" s="8"/>
+      <c r="L17" t="s">
+        <v>26</v>
+      </c>
+      <c r="M17">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="11:13">
+      <c r="K18" s="8"/>
+      <c r="L18" t="s">
+        <v>27</v>
+      </c>
+      <c r="M18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="11:13">
+      <c r="K19" s="8"/>
+      <c r="L19" t="s">
+        <v>28</v>
+      </c>
+      <c r="M19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="11:13">
+      <c r="K20" s="8"/>
+      <c r="L20" t="s">
+        <v>29</v>
+      </c>
+      <c r="M20">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="11:13">
+      <c r="K21" s="8"/>
+      <c r="L21" t="s">
+        <v>30</v>
+      </c>
+      <c r="M21">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="11:13">
+      <c r="K22" s="8"/>
+      <c r="L22" t="s">
+        <v>31</v>
+      </c>
+      <c r="M22">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="11:13">
+      <c r="K23" s="8"/>
+      <c r="L23" t="s">
+        <v>32</v>
+      </c>
+      <c r="M23">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="11:13">
+      <c r="K24" s="8"/>
+      <c r="L24" t="s">
+        <v>33</v>
+      </c>
+      <c r="M24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="11:13">
+      <c r="K25" s="8"/>
+      <c r="L25" t="s">
+        <v>34</v>
+      </c>
+      <c r="M25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="11:13">
+      <c r="K26" s="8"/>
+      <c r="L26" t="s">
+        <v>35</v>
+      </c>
+      <c r="M26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="11:13">
+      <c r="K27" s="8"/>
+      <c r="L27" t="s">
+        <v>36</v>
+      </c>
+      <c r="M27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="11:13">
+      <c r="K28" s="8"/>
+      <c r="L28" t="s">
+        <v>37</v>
+      </c>
+      <c r="M28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="11:13">
+      <c r="K29" s="8"/>
+      <c r="L29" t="s">
+        <v>38</v>
+      </c>
+      <c r="M29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="11:13">
+      <c r="K30" s="8"/>
+      <c r="L30" t="s">
+        <v>39</v>
+      </c>
+      <c r="M30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="11:13">
+      <c r="K31" s="8"/>
+      <c r="L31" t="s">
+        <v>40</v>
+      </c>
+      <c r="M31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="11:13">
+      <c r="K32" s="8"/>
+      <c r="L32" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="M32">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="11:13">
+      <c r="K33" s="8"/>
+      <c r="L33" t="s">
+        <v>42</v>
+      </c>
+      <c r="M33">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="11:13">
+      <c r="K34" s="8"/>
+      <c r="L34" t="s">
+        <v>43</v>
+      </c>
+      <c r="M34">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="11:13">
+      <c r="K35" s="8"/>
+      <c r="L35" t="s">
+        <v>44</v>
+      </c>
+      <c r="M35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="11:13">
+      <c r="K36" s="8"/>
+      <c r="L36" t="s">
+        <v>45</v>
+      </c>
+      <c r="M36">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="11:13">
+      <c r="K37" s="8"/>
+      <c r="L37" t="s">
+        <v>46</v>
+      </c>
+      <c r="M37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="11:13">
+      <c r="K38" s="8"/>
+      <c r="L38" t="s">
+        <v>47</v>
+      </c>
+      <c r="M38">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="11:13">
+      <c r="K39" s="8"/>
+      <c r="L39" t="s">
+        <v>48</v>
+      </c>
+      <c r="M39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="11:13">
+      <c r="K40" s="8"/>
+      <c r="L40" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M40">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="11:13">
+      <c r="K41" s="8"/>
+      <c r="L41" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M41">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="11:13">
+      <c r="K42" s="8"/>
+      <c r="L42" t="s">
+        <v>51</v>
+      </c>
+      <c r="M42">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="11:13">
+      <c r="K43" s="8"/>
+      <c r="L43" t="s">
+        <v>52</v>
+      </c>
+      <c r="M43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="11:13">
+      <c r="K44" s="8"/>
+      <c r="L44" t="s">
+        <v>53</v>
+      </c>
+      <c r="M44">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="H5:J5"/>
     <mergeCell ref="K5:M5"/>
+    <mergeCell ref="K8:K44"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Raport.xlsx
+++ b/Raport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Szymon\Documents\GitHub\Tokyo-Garden-Restaurant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2EB10EC-9112-41E1-B103-C04CAD587265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{479907EF-E212-4400-A52A-27BC8DB55A92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="330" yWindow="2640" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="56">
   <si>
     <t>Roport zaangażowania</t>
   </si>
@@ -193,6 +193,12 @@
   </si>
   <si>
     <t>Model/Zamowienie.cs</t>
+  </si>
+  <si>
+    <t>TestyJednostkowe/AdresyRepositoryTests.cs</t>
+  </si>
+  <si>
+    <t>TestyJednostkowe/ObslugaAdresowTests.cs</t>
   </si>
 </sst>
 </file>
@@ -272,14 +278,14 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -772,10 +778,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M44"/>
+  <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" topLeftCell="C18" workbookViewId="0">
+      <selection activeCell="P51" sqref="P51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -788,7 +794,7 @@
     <col min="7" max="8" width="12.5703125" customWidth="1"/>
     <col min="9" max="9" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="12.5703125" customWidth="1"/>
-    <col min="12" max="12" width="38.28515625" customWidth="1"/>
+    <col min="12" max="12" width="41.28515625" customWidth="1"/>
     <col min="13" max="13" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -824,7 +830,7 @@
       </c>
       <c r="M3">
         <f>SUM(M7:M1001)</f>
-        <v>487</v>
+        <v>559</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="24.95" customHeight="1">
@@ -834,42 +840,42 @@
       <c r="B4" s="1"/>
       <c r="D4">
         <f>($B$2*D$3)/SUM($D$3:$AK$3)</f>
-        <v>0.51020408163265307</v>
+        <v>0.47528517110266161</v>
       </c>
       <c r="G4">
         <f>($B$2*G$3)/SUM($D$3:$AK$3)</f>
-        <v>0.51020408163265307</v>
+        <v>0.47528517110266161</v>
       </c>
       <c r="J4">
         <f>($B$2*J$3)/SUM($D$3:$AK$3)</f>
-        <v>0.99183673469387756</v>
+        <v>0.92395437262357416</v>
       </c>
       <c r="M4">
         <f>($B$2*M$3)/SUM($D$3:$AK$3)</f>
-        <v>1.9877551020408164</v>
+        <v>2.1254752851711025</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="6" t="s">
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6" t="s">
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6" t="s">
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
     </row>
     <row r="6" spans="1:13">
       <c r="B6" t="s">
@@ -993,7 +999,7 @@
         <v>118</v>
       </c>
       <c r="K9" s="8"/>
-      <c r="L9" s="7" t="s">
+      <c r="L9" s="5" t="s">
         <v>18</v>
       </c>
       <c r="M9">
@@ -1029,7 +1035,7 @@
     </row>
     <row r="13" spans="1:13">
       <c r="K13" s="8"/>
-      <c r="L13" s="7" t="s">
+      <c r="L13" s="5" t="s">
         <v>22</v>
       </c>
       <c r="M13">
@@ -1047,7 +1053,7 @@
     </row>
     <row r="15" spans="1:13">
       <c r="K15" s="8"/>
-      <c r="L15" s="7" t="s">
+      <c r="L15" s="5" t="s">
         <v>24</v>
       </c>
       <c r="M15">
@@ -1200,7 +1206,7 @@
     </row>
     <row r="32" spans="11:13">
       <c r="K32" s="8"/>
-      <c r="L32" s="7" t="s">
+      <c r="L32" s="5" t="s">
         <v>41</v>
       </c>
       <c r="M32">
@@ -1272,7 +1278,7 @@
     </row>
     <row r="40" spans="11:13">
       <c r="K40" s="8"/>
-      <c r="L40" s="7" t="s">
+      <c r="L40" s="5" t="s">
         <v>49</v>
       </c>
       <c r="M40">
@@ -1281,7 +1287,7 @@
     </row>
     <row r="41" spans="11:13">
       <c r="K41" s="8"/>
-      <c r="L41" s="7" t="s">
+      <c r="L41" s="5" t="s">
         <v>50</v>
       </c>
       <c r="M41">
@@ -1313,6 +1319,22 @@
       </c>
       <c r="M44">
         <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="11:13">
+      <c r="L45" t="s">
+        <v>54</v>
+      </c>
+      <c r="M45">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="11:13">
+      <c r="L46" t="s">
+        <v>55</v>
+      </c>
+      <c r="M46">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/Raport.xlsx
+++ b/Raport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Szymon\Documents\GitHub\Tokyo-Garden-Restaurant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{479907EF-E212-4400-A52A-27BC8DB55A92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BACD82C-CADD-49E2-929D-4E00B964427F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="330" yWindow="2640" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -780,8 +780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C18" workbookViewId="0">
-      <selection activeCell="P51" sqref="P51"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -1322,6 +1322,7 @@
       </c>
     </row>
     <row r="45" spans="11:13">
+      <c r="K45" s="8"/>
       <c r="L45" t="s">
         <v>54</v>
       </c>
@@ -1330,6 +1331,7 @@
       </c>
     </row>
     <row r="46" spans="11:13">
+      <c r="K46" s="8"/>
       <c r="L46" t="s">
         <v>55</v>
       </c>
@@ -1343,7 +1345,7 @@
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="H5:J5"/>
     <mergeCell ref="K5:M5"/>
-    <mergeCell ref="K8:K44"/>
+    <mergeCell ref="K8:K46"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Raport.xlsx
+++ b/Raport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Szymon\Documents\GitHub\Tokyo-Garden-Restaurant\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Talib\Tokyo-Garden-Restaurant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BACD82C-CADD-49E2-929D-4E00B964427F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{963DD355-ACDC-4F49-88C1-C39689790736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="330" yWindow="2640" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="64">
   <si>
     <t>Roport zaangażowania</t>
   </si>
@@ -195,10 +195,34 @@
     <t>Model/Zamowienie.cs</t>
   </si>
   <si>
-    <t>TestyJednostkowe/AdresyRepositoryTests.cs</t>
-  </si>
-  <si>
-    <t>TestyJednostkowe/ObslugaAdresowTests.cs</t>
+    <t>DbTokyoGaredn.cs</t>
+  </si>
+  <si>
+    <t>AdresyRepositoryTest.cs</t>
+  </si>
+  <si>
+    <t>AlergenPozycjaMenuRepositoryTests.cs</t>
+  </si>
+  <si>
+    <t>AlergenyRepositoryTests.cs</t>
+  </si>
+  <si>
+    <t>KategoriaRepositoryTests.cs</t>
+  </si>
+  <si>
+    <t>PozycjaMenuRepositoryTests.cs</t>
+  </si>
+  <si>
+    <t>PozycjaZamowieniaRepositoryTests.cs</t>
+  </si>
+  <si>
+    <t>TestyJednostkowe.csproj</t>
+  </si>
+  <si>
+    <t>UzytkownikRepositoryTests.cs</t>
+  </si>
+  <si>
+    <t>ZamowienieRepositoryTests.cs</t>
   </si>
 </sst>
 </file>
@@ -240,12 +264,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -262,7 +292,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -289,6 +319,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -780,8 +813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -790,7 +823,7 @@
     <col min="2" max="2" width="12.5703125" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
     <col min="4" max="5" width="12.5703125" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="37" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="12.5703125" customWidth="1"/>
     <col min="9" max="9" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="12.5703125" customWidth="1"/>
@@ -822,7 +855,7 @@
       </c>
       <c r="G3">
         <f>SUM(G7:G1001)</f>
-        <v>125</v>
+        <v>629</v>
       </c>
       <c r="J3">
         <f>SUM(J7:J1001)</f>
@@ -830,7 +863,7 @@
       </c>
       <c r="M3">
         <f>SUM(M7:M1001)</f>
-        <v>559</v>
+        <v>487</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="24.95" customHeight="1">
@@ -840,19 +873,19 @@
       <c r="B4" s="1"/>
       <c r="D4">
         <f>($B$2*D$3)/SUM($D$3:$AK$3)</f>
-        <v>0.47528517110266161</v>
+        <v>0.33692722371967654</v>
       </c>
       <c r="G4">
         <f>($B$2*G$3)/SUM($D$3:$AK$3)</f>
-        <v>0.47528517110266161</v>
+        <v>1.6954177897574123</v>
       </c>
       <c r="J4">
         <f>($B$2*J$3)/SUM($D$3:$AK$3)</f>
-        <v>0.92395437262357416</v>
+        <v>0.65498652291105119</v>
       </c>
       <c r="M4">
         <f>($B$2*M$3)/SUM($D$3:$AK$3)</f>
-        <v>2.1254752851711025</v>
+        <v>1.3126684636118597</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -963,6 +996,9 @@
       <c r="D8">
         <v>100</v>
       </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
       <c r="F8" t="s">
         <v>14</v>
       </c>
@@ -989,6 +1025,15 @@
       </c>
     </row>
     <row r="9" spans="1:13">
+      <c r="E9" s="3">
+        <v>45785</v>
+      </c>
+      <c r="F9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9">
+        <v>13</v>
+      </c>
       <c r="H9" s="3">
         <v>45770</v>
       </c>
@@ -1007,6 +1052,12 @@
       </c>
     </row>
     <row r="10" spans="1:13">
+      <c r="F10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10">
+        <v>57</v>
+      </c>
       <c r="K10" s="8"/>
       <c r="L10" t="s">
         <v>19</v>
@@ -1016,6 +1067,12 @@
       </c>
     </row>
     <row r="11" spans="1:13">
+      <c r="F11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11">
+        <v>59</v>
+      </c>
       <c r="K11" s="8"/>
       <c r="L11" t="s">
         <v>20</v>
@@ -1025,6 +1082,12 @@
       </c>
     </row>
     <row r="12" spans="1:13">
+      <c r="F12" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12">
+        <v>58</v>
+      </c>
       <c r="K12" s="8"/>
       <c r="L12" t="s">
         <v>21</v>
@@ -1034,6 +1097,12 @@
       </c>
     </row>
     <row r="13" spans="1:13">
+      <c r="F13" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13">
+        <v>57</v>
+      </c>
       <c r="K13" s="8"/>
       <c r="L13" s="5" t="s">
         <v>22</v>
@@ -1043,6 +1112,12 @@
       </c>
     </row>
     <row r="14" spans="1:13">
+      <c r="F14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14">
+        <v>61</v>
+      </c>
       <c r="K14" s="8"/>
       <c r="L14" t="s">
         <v>23</v>
@@ -1052,6 +1127,12 @@
       </c>
     </row>
     <row r="15" spans="1:13">
+      <c r="F15" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15">
+        <v>60</v>
+      </c>
       <c r="K15" s="8"/>
       <c r="L15" s="5" t="s">
         <v>24</v>
@@ -1061,6 +1142,12 @@
       </c>
     </row>
     <row r="16" spans="1:13">
+      <c r="F16" t="s">
+        <v>61</v>
+      </c>
+      <c r="G16">
+        <v>16</v>
+      </c>
       <c r="K16" s="8"/>
       <c r="L16" t="s">
         <v>25</v>
@@ -1069,7 +1156,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="11:13">
+    <row r="17" spans="6:13">
+      <c r="F17" t="s">
+        <v>62</v>
+      </c>
+      <c r="G17">
+        <v>59</v>
+      </c>
       <c r="K17" s="8"/>
       <c r="L17" t="s">
         <v>26</v>
@@ -1078,7 +1171,13 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="11:13">
+    <row r="18" spans="6:13">
+      <c r="F18" t="s">
+        <v>63</v>
+      </c>
+      <c r="G18">
+        <v>64</v>
+      </c>
       <c r="K18" s="8"/>
       <c r="L18" t="s">
         <v>27</v>
@@ -1087,7 +1186,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="11:13">
+    <row r="19" spans="6:13">
       <c r="K19" s="8"/>
       <c r="L19" t="s">
         <v>28</v>
@@ -1096,7 +1195,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="11:13">
+    <row r="20" spans="6:13">
       <c r="K20" s="8"/>
       <c r="L20" t="s">
         <v>29</v>
@@ -1105,7 +1204,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="11:13">
+    <row r="21" spans="6:13">
       <c r="K21" s="8"/>
       <c r="L21" t="s">
         <v>30</v>
@@ -1114,7 +1213,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="11:13">
+    <row r="22" spans="6:13">
       <c r="K22" s="8"/>
       <c r="L22" t="s">
         <v>31</v>
@@ -1123,7 +1222,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="11:13">
+    <row r="23" spans="6:13">
       <c r="K23" s="8"/>
       <c r="L23" t="s">
         <v>32</v>
@@ -1132,7 +1231,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="11:13">
+    <row r="24" spans="6:13">
       <c r="K24" s="8"/>
       <c r="L24" t="s">
         <v>33</v>
@@ -1141,7 +1240,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="11:13">
+    <row r="25" spans="6:13">
       <c r="K25" s="8"/>
       <c r="L25" t="s">
         <v>34</v>
@@ -1150,7 +1249,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="11:13">
+    <row r="26" spans="6:13">
       <c r="K26" s="8"/>
       <c r="L26" t="s">
         <v>35</v>
@@ -1159,7 +1258,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="11:13">
+    <row r="27" spans="6:13">
       <c r="K27" s="8"/>
       <c r="L27" t="s">
         <v>36</v>
@@ -1168,7 +1267,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="11:13">
+    <row r="28" spans="6:13">
       <c r="K28" s="8"/>
       <c r="L28" t="s">
         <v>37</v>
@@ -1177,7 +1276,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="11:13">
+    <row r="29" spans="6:13">
       <c r="K29" s="8"/>
       <c r="L29" t="s">
         <v>38</v>
@@ -1186,7 +1285,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="11:13">
+    <row r="30" spans="6:13">
       <c r="K30" s="8"/>
       <c r="L30" t="s">
         <v>39</v>
@@ -1195,7 +1294,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="11:13">
+    <row r="31" spans="6:13">
       <c r="K31" s="8"/>
       <c r="L31" t="s">
         <v>40</v>
@@ -1204,7 +1303,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="11:13">
+    <row r="32" spans="6:13">
       <c r="K32" s="8"/>
       <c r="L32" s="5" t="s">
         <v>41</v>
@@ -1323,21 +1422,11 @@
     </row>
     <row r="45" spans="11:13">
       <c r="K45" s="8"/>
-      <c r="L45" t="s">
-        <v>54</v>
-      </c>
-      <c r="M45">
-        <v>31</v>
-      </c>
+      <c r="L45" s="9"/>
     </row>
     <row r="46" spans="11:13">
       <c r="K46" s="8"/>
-      <c r="L46" t="s">
-        <v>55</v>
-      </c>
-      <c r="M46">
-        <v>41</v>
-      </c>
+      <c r="L46" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/Raport.xlsx
+++ b/Raport.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Talib\Tokyo-Garden-Restaurant\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\majer\Desktop\Tokyo-Garden-Restaurant-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{963DD355-ACDC-4F49-88C1-C39689790736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06BC3F25-2EE7-4432-836C-2948E6D4CA0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -31,10 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="64">
-  <si>
-    <t>Roport zaangażowania</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="73">
   <si>
     <t>Liczba członków zespołu</t>
   </si>
@@ -223,6 +220,36 @@
   </si>
   <si>
     <t>ZamowienieRepositoryTests.cs</t>
+  </si>
+  <si>
+    <t>CustomDummyTest.cs</t>
+  </si>
+  <si>
+    <t>CustomFakeTest.cs</t>
+  </si>
+  <si>
+    <t>CustomMockTest.cs</t>
+  </si>
+  <si>
+    <t>CustomSpyTest.cs</t>
+  </si>
+  <si>
+    <t>CustomStubTest.cs</t>
+  </si>
+  <si>
+    <t>MoqDummyTest.cs</t>
+  </si>
+  <si>
+    <t>MoqMockTest.cs</t>
+  </si>
+  <si>
+    <t>MoqStubTest.cs</t>
+  </si>
+  <si>
+    <t>TestyJednostkoweBLL.csproj</t>
+  </si>
+  <si>
+    <t>Raport zaangażowania</t>
   </si>
 </sst>
 </file>
@@ -311,6 +338,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -319,9 +349,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -814,14 +841,14 @@
   <dimension ref="A1:M46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="39.85546875" customWidth="1"/>
     <col min="2" max="2" width="12.5703125" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" customWidth="1"/>
     <col min="4" max="5" width="12.5703125" customWidth="1"/>
     <col min="6" max="6" width="37" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="12.5703125" customWidth="1"/>
@@ -833,12 +860,12 @@
   <sheetData>
     <row r="1" spans="1:13" ht="61.5">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="23.25">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2">
         <v>4</v>
@@ -846,12 +873,12 @@
     </row>
     <row r="3" spans="1:13" ht="61.5">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1"/>
       <c r="D3">
         <f>SUM(D7:D1001)</f>
-        <v>125</v>
+        <v>427</v>
       </c>
       <c r="G3">
         <f>SUM(G7:G1001)</f>
@@ -868,84 +895,84 @@
     </row>
     <row r="4" spans="1:13" ht="24.95" customHeight="1">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1"/>
       <c r="D4">
         <f>($B$2*D$3)/SUM($D$3:$AK$3)</f>
-        <v>0.33692722371967654</v>
+        <v>0.95632698768197089</v>
       </c>
       <c r="G4">
         <f>($B$2*G$3)/SUM($D$3:$AK$3)</f>
-        <v>1.6954177897574123</v>
+        <v>1.4087346024636058</v>
       </c>
       <c r="J4">
         <f>($B$2*J$3)/SUM($D$3:$AK$3)</f>
-        <v>0.65498652291105119</v>
+        <v>0.54423292273236279</v>
       </c>
       <c r="M4">
         <f>($B$2*M$3)/SUM($D$3:$AK$3)</f>
-        <v>1.3126684636118597</v>
+        <v>1.0907054871220605</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="7" t="s">
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7" t="s">
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
     </row>
     <row r="6" spans="1:13">
       <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>5</v>
       </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
       <c r="E6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
         <v>4</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>5</v>
       </c>
-      <c r="G6" t="s">
-        <v>6</v>
-      </c>
       <c r="H6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" t="s">
         <v>4</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>5</v>
       </c>
-      <c r="J6" t="s">
-        <v>6</v>
-      </c>
       <c r="K6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L6" t="s">
         <v>4</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>5</v>
-      </c>
-      <c r="M6" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -953,34 +980,34 @@
         <v>45754</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7">
         <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G7">
         <v>25</v>
       </c>
       <c r="H7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J7">
         <v>25</v>
       </c>
       <c r="K7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M7">
         <v>25</v>
@@ -991,16 +1018,16 @@
         <v>45754</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8">
         <v>100</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G8">
         <v>100</v>
@@ -1009,27 +1036,36 @@
         <v>45754</v>
       </c>
       <c r="I8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J8">
         <v>100</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K8" s="9">
         <v>45772</v>
       </c>
       <c r="L8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M8">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:13">
+      <c r="B9" s="9">
+        <v>45785</v>
+      </c>
+      <c r="C9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9">
+        <v>37</v>
+      </c>
       <c r="E9" s="3">
         <v>45785</v>
       </c>
       <c r="F9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G9">
         <v>13</v>
@@ -1038,403 +1074,460 @@
         <v>45770</v>
       </c>
       <c r="I9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J9">
         <v>118</v>
       </c>
-      <c r="K9" s="8"/>
+      <c r="K9" s="9"/>
       <c r="L9" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M9">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:13">
+      <c r="B10" s="9"/>
+      <c r="C10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10">
+        <v>41</v>
+      </c>
       <c r="F10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G10">
         <v>57</v>
       </c>
-      <c r="K10" s="8"/>
+      <c r="K10" s="9"/>
       <c r="L10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M10">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:13">
+      <c r="B11" s="9"/>
+      <c r="C11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11">
+        <v>43</v>
+      </c>
       <c r="F11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G11">
         <v>59</v>
       </c>
-      <c r="K11" s="8"/>
+      <c r="K11" s="9"/>
       <c r="L11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M11">
         <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:13">
+      <c r="B12" s="9"/>
+      <c r="C12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12">
+        <v>44</v>
+      </c>
       <c r="F12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G12">
         <v>58</v>
       </c>
-      <c r="K12" s="8"/>
+      <c r="K12" s="9"/>
       <c r="L12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M12">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:13">
+      <c r="B13" s="9"/>
+      <c r="C13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13">
+        <v>36</v>
+      </c>
       <c r="F13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G13">
         <v>57</v>
       </c>
-      <c r="K13" s="8"/>
+      <c r="K13" s="9"/>
       <c r="L13" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M13">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:13">
+      <c r="B14" s="9"/>
+      <c r="C14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14">
+        <v>22</v>
+      </c>
       <c r="F14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G14">
         <v>61</v>
       </c>
-      <c r="K14" s="8"/>
+      <c r="K14" s="9"/>
       <c r="L14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M14">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:13">
+      <c r="B15" s="9"/>
+      <c r="C15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15">
+        <v>23</v>
+      </c>
       <c r="F15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G15">
         <v>60</v>
       </c>
-      <c r="K15" s="8"/>
+      <c r="K15" s="9"/>
       <c r="L15" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M15">
         <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:13">
+      <c r="B16" s="9"/>
+      <c r="C16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16">
+        <v>26</v>
+      </c>
       <c r="F16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G16">
         <v>16</v>
       </c>
-      <c r="K16" s="8"/>
+      <c r="K16" s="9"/>
       <c r="L16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M16">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="6:13">
+    <row r="17" spans="2:13">
+      <c r="B17" s="9"/>
+      <c r="C17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17">
+        <v>30</v>
+      </c>
       <c r="F17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G17">
         <v>59</v>
       </c>
-      <c r="K17" s="8"/>
+      <c r="K17" s="9"/>
       <c r="L17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M17">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="6:13">
+    <row r="18" spans="2:13">
       <c r="F18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G18">
         <v>64</v>
       </c>
-      <c r="K18" s="8"/>
+      <c r="K18" s="9"/>
       <c r="L18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M18">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="6:13">
-      <c r="K19" s="8"/>
+    <row r="19" spans="2:13">
+      <c r="K19" s="9"/>
       <c r="L19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M19">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="6:13">
-      <c r="K20" s="8"/>
+    <row r="20" spans="2:13">
+      <c r="K20" s="9"/>
       <c r="L20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M20">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="6:13">
-      <c r="K21" s="8"/>
+    <row r="21" spans="2:13">
+      <c r="K21" s="9"/>
       <c r="L21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M21">
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="6:13">
-      <c r="K22" s="8"/>
+    <row r="22" spans="2:13">
+      <c r="K22" s="9"/>
       <c r="L22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M22">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="6:13">
-      <c r="K23" s="8"/>
+    <row r="23" spans="2:13">
+      <c r="K23" s="9"/>
       <c r="L23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M23">
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="6:13">
-      <c r="K24" s="8"/>
+    <row r="24" spans="2:13">
+      <c r="K24" s="9"/>
       <c r="L24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M24">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="6:13">
-      <c r="K25" s="8"/>
+    <row r="25" spans="2:13">
+      <c r="K25" s="9"/>
       <c r="L25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="6:13">
-      <c r="K26" s="8"/>
+    <row r="26" spans="2:13">
+      <c r="K26" s="9"/>
       <c r="L26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M26">
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="6:13">
-      <c r="K27" s="8"/>
+    <row r="27" spans="2:13">
+      <c r="K27" s="9"/>
       <c r="L27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M27">
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="6:13">
-      <c r="K28" s="8"/>
+    <row r="28" spans="2:13">
+      <c r="K28" s="9"/>
       <c r="L28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M28">
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="6:13">
-      <c r="K29" s="8"/>
+    <row r="29" spans="2:13">
+      <c r="K29" s="9"/>
       <c r="L29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M29">
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="6:13">
-      <c r="K30" s="8"/>
+    <row r="30" spans="2:13">
+      <c r="K30" s="9"/>
       <c r="L30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M30">
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="6:13">
-      <c r="K31" s="8"/>
+    <row r="31" spans="2:13">
+      <c r="K31" s="9"/>
       <c r="L31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M31">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="6:13">
-      <c r="K32" s="8"/>
+    <row r="32" spans="2:13">
+      <c r="K32" s="9"/>
       <c r="L32" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M32">
         <v>11</v>
       </c>
     </row>
     <row r="33" spans="11:13">
-      <c r="K33" s="8"/>
+      <c r="K33" s="9"/>
       <c r="L33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M33">
         <v>11</v>
       </c>
     </row>
     <row r="34" spans="11:13">
-      <c r="K34" s="8"/>
+      <c r="K34" s="9"/>
       <c r="L34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M34">
         <v>11</v>
       </c>
     </row>
     <row r="35" spans="11:13">
-      <c r="K35" s="8"/>
+      <c r="K35" s="9"/>
       <c r="L35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M35">
         <v>12</v>
       </c>
     </row>
     <row r="36" spans="11:13">
-      <c r="K36" s="8"/>
+      <c r="K36" s="9"/>
       <c r="L36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M36">
         <v>11</v>
       </c>
     </row>
     <row r="37" spans="11:13">
-      <c r="K37" s="8"/>
+      <c r="K37" s="9"/>
       <c r="L37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M37">
         <v>3</v>
       </c>
     </row>
     <row r="38" spans="11:13">
-      <c r="K38" s="8"/>
+      <c r="K38" s="9"/>
       <c r="L38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M38">
         <v>12</v>
       </c>
     </row>
     <row r="39" spans="11:13">
-      <c r="K39" s="8"/>
+      <c r="K39" s="9"/>
       <c r="L39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M39">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="11:13">
-      <c r="K40" s="8"/>
+      <c r="K40" s="9"/>
       <c r="L40" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M40">
         <v>13</v>
       </c>
     </row>
     <row r="41" spans="11:13">
-      <c r="K41" s="8"/>
+      <c r="K41" s="9"/>
       <c r="L41" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M41">
         <v>20</v>
       </c>
     </row>
     <row r="42" spans="11:13">
-      <c r="K42" s="8"/>
+      <c r="K42" s="9"/>
       <c r="L42" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M42">
         <v>16</v>
       </c>
     </row>
     <row r="43" spans="11:13">
-      <c r="K43" s="8"/>
+      <c r="K43" s="9"/>
       <c r="L43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M43">
         <v>2</v>
       </c>
     </row>
     <row r="44" spans="11:13">
-      <c r="K44" s="8"/>
+      <c r="K44" s="9"/>
       <c r="L44" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M44">
         <v>25</v>
       </c>
     </row>
     <row r="45" spans="11:13">
-      <c r="K45" s="8"/>
-      <c r="L45" s="9"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="6"/>
     </row>
     <row r="46" spans="11:13">
-      <c r="K46" s="8"/>
-      <c r="L46" s="9"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="H5:J5"/>
     <mergeCell ref="K5:M5"/>
     <mergeCell ref="K8:K46"/>
+    <mergeCell ref="B9:B17"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Raport.xlsx
+++ b/Raport.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\majer\Desktop\Tokyo-Garden-Restaurant-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dominik\Downloads\Tokyo-Garden-Restaurant-main\Tokyo-Garden-Restaurant-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06BC3F25-2EE7-4432-836C-2948E6D4CA0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC28A72-0798-44CE-A02D-ABF2D0CA2716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="74">
   <si>
     <t>Liczba członków zespołu</t>
   </si>
@@ -250,6 +250,9 @@
   </si>
   <si>
     <t>Raport zaangażowania</t>
+  </si>
+  <si>
+    <t>Dodanie dodatkowych funkcji do klas</t>
   </si>
 </sst>
 </file>
@@ -840,30 +843,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="39.85546875" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
-    <col min="3" max="3" width="25.85546875" customWidth="1"/>
-    <col min="4" max="5" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="39.88671875" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" customWidth="1"/>
+    <col min="3" max="3" width="25.88671875" customWidth="1"/>
+    <col min="4" max="5" width="12.5546875" customWidth="1"/>
     <col min="6" max="6" width="37" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12.5703125" customWidth="1"/>
-    <col min="9" max="9" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="12.5703125" customWidth="1"/>
-    <col min="12" max="12" width="41.28515625" customWidth="1"/>
-    <col min="13" max="13" width="12.5703125" customWidth="1"/>
+    <col min="7" max="8" width="12.5546875" customWidth="1"/>
+    <col min="9" max="9" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="12.5546875" customWidth="1"/>
+    <col min="12" max="12" width="41.33203125" customWidth="1"/>
+    <col min="13" max="13" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="61.5">
+    <row r="1" spans="1:13" ht="61.2">
       <c r="A1" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="23.25">
+    <row r="2" spans="1:13" ht="23.4">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -871,7 +874,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="61.5">
+    <row r="3" spans="1:13" ht="61.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -886,33 +889,33 @@
       </c>
       <c r="J3">
         <f>SUM(J7:J1001)</f>
-        <v>243</v>
+        <v>313</v>
       </c>
       <c r="M3">
         <f>SUM(M7:M1001)</f>
         <v>487</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="24.95" customHeight="1">
+    <row r="4" spans="1:13" ht="24.9" customHeight="1">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1"/>
       <c r="D4">
         <f>($B$2*D$3)/SUM($D$3:$AK$3)</f>
-        <v>0.95632698768197089</v>
+        <v>0.92025862068965514</v>
       </c>
       <c r="G4">
         <f>($B$2*G$3)/SUM($D$3:$AK$3)</f>
-        <v>1.4087346024636058</v>
+        <v>1.3556034482758621</v>
       </c>
       <c r="J4">
         <f>($B$2*J$3)/SUM($D$3:$AK$3)</f>
-        <v>0.54423292273236279</v>
+        <v>0.67456896551724133</v>
       </c>
       <c r="M4">
         <f>($B$2*M$3)/SUM($D$3:$AK$3)</f>
-        <v>1.0907054871220605</v>
+        <v>1.0495689655172413</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1100,6 +1103,15 @@
       </c>
       <c r="G10">
         <v>57</v>
+      </c>
+      <c r="H10" s="3">
+        <v>45834</v>
+      </c>
+      <c r="I10" t="s">
+        <v>73</v>
+      </c>
+      <c r="J10">
+        <v>70</v>
       </c>
       <c r="K10" s="9"/>
       <c r="L10" t="s">

--- a/Raport.xlsx
+++ b/Raport.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dominik\Downloads\Tokyo-Garden-Restaurant-main\Tokyo-Garden-Restaurant-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dominik\source\repos\WEB_API\WEB_API\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC28A72-0798-44CE-A02D-ABF2D0CA2716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A132FCB-597C-45E9-908C-B8D41949C403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
+    <sheet name="Arkusz2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="83">
   <si>
     <t>Liczba członków zespołu</t>
   </si>
@@ -253,6 +254,33 @@
   </si>
   <si>
     <t>Dodanie dodatkowych funkcji do klas</t>
+  </si>
+  <si>
+    <t>KategoriaController.cs</t>
+  </si>
+  <si>
+    <t>AdresyKontroler.cs</t>
+  </si>
+  <si>
+    <t>AlergenPozycjaMenuKontroller.cs</t>
+  </si>
+  <si>
+    <t>AlergenyKontroller.cs</t>
+  </si>
+  <si>
+    <t>PozycjeMenuController.cs</t>
+  </si>
+  <si>
+    <t>PozycjeZamowieniaController.cs</t>
+  </si>
+  <si>
+    <t>UzytkownikController.cs</t>
+  </si>
+  <si>
+    <t>ZamowieniaController.cs</t>
+  </si>
+  <si>
+    <t>Poprawienie pliku program.cs</t>
   </si>
 </sst>
 </file>
@@ -843,8 +871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
@@ -889,7 +917,7 @@
       </c>
       <c r="J3">
         <f>SUM(J7:J1001)</f>
-        <v>313</v>
+        <v>546</v>
       </c>
       <c r="M3">
         <f>SUM(M7:M1001)</f>
@@ -903,19 +931,19 @@
       <c r="B4" s="1"/>
       <c r="D4">
         <f>($B$2*D$3)/SUM($D$3:$AK$3)</f>
-        <v>0.92025862068965514</v>
+        <v>0.81761608425083776</v>
       </c>
       <c r="G4">
         <f>($B$2*G$3)/SUM($D$3:$AK$3)</f>
-        <v>1.3556034482758621</v>
+        <v>1.2044040210627094</v>
       </c>
       <c r="J4">
         <f>($B$2*J$3)/SUM($D$3:$AK$3)</f>
-        <v>0.67456896551724133</v>
+        <v>1.0454763044518909</v>
       </c>
       <c r="M4">
         <f>($B$2*M$3)/SUM($D$3:$AK$3)</f>
-        <v>1.0495689655172413</v>
+        <v>0.93250359023456197</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1104,8 +1132,8 @@
       <c r="G10">
         <v>57</v>
       </c>
-      <c r="H10" s="3">
-        <v>45834</v>
+      <c r="H10" s="9">
+        <v>45803</v>
       </c>
       <c r="I10" t="s">
         <v>73</v>
@@ -1135,6 +1163,13 @@
       <c r="G11">
         <v>59</v>
       </c>
+      <c r="H11" s="9"/>
+      <c r="I11" t="s">
+        <v>75</v>
+      </c>
+      <c r="J11">
+        <v>23</v>
+      </c>
       <c r="K11" s="9"/>
       <c r="L11" t="s">
         <v>19</v>
@@ -1157,6 +1192,13 @@
       <c r="G12">
         <v>58</v>
       </c>
+      <c r="H12" s="9"/>
+      <c r="I12" t="s">
+        <v>77</v>
+      </c>
+      <c r="J12">
+        <v>23</v>
+      </c>
       <c r="K12" s="9"/>
       <c r="L12" t="s">
         <v>20</v>
@@ -1179,6 +1221,13 @@
       <c r="G13">
         <v>57</v>
       </c>
+      <c r="H13" s="9"/>
+      <c r="I13" t="s">
+        <v>76</v>
+      </c>
+      <c r="J13">
+        <v>27</v>
+      </c>
       <c r="K13" s="9"/>
       <c r="L13" s="5" t="s">
         <v>21</v>
@@ -1201,6 +1250,13 @@
       <c r="G14">
         <v>61</v>
       </c>
+      <c r="H14" s="9"/>
+      <c r="I14" t="s">
+        <v>74</v>
+      </c>
+      <c r="J14">
+        <v>24</v>
+      </c>
       <c r="K14" s="9"/>
       <c r="L14" t="s">
         <v>22</v>
@@ -1223,6 +1279,13 @@
       <c r="G15">
         <v>60</v>
       </c>
+      <c r="H15" s="9"/>
+      <c r="I15" t="s">
+        <v>78</v>
+      </c>
+      <c r="J15">
+        <v>27</v>
+      </c>
       <c r="K15" s="9"/>
       <c r="L15" s="5" t="s">
         <v>23</v>
@@ -1245,6 +1308,13 @@
       <c r="G16">
         <v>16</v>
       </c>
+      <c r="H16" s="9"/>
+      <c r="I16" t="s">
+        <v>79</v>
+      </c>
+      <c r="J16">
+        <v>27</v>
+      </c>
       <c r="K16" s="9"/>
       <c r="L16" t="s">
         <v>24</v>
@@ -1267,6 +1337,13 @@
       <c r="G17">
         <v>59</v>
       </c>
+      <c r="H17" s="9"/>
+      <c r="I17" t="s">
+        <v>80</v>
+      </c>
+      <c r="J17">
+        <v>27</v>
+      </c>
       <c r="K17" s="9"/>
       <c r="L17" t="s">
         <v>25</v>
@@ -1282,6 +1359,13 @@
       <c r="G18">
         <v>64</v>
       </c>
+      <c r="H18" s="9"/>
+      <c r="I18" t="s">
+        <v>81</v>
+      </c>
+      <c r="J18">
+        <v>27</v>
+      </c>
       <c r="K18" s="9"/>
       <c r="L18" t="s">
         <v>26</v>
@@ -1291,6 +1375,13 @@
       </c>
     </row>
     <row r="19" spans="2:13">
+      <c r="H19" s="9"/>
+      <c r="I19" t="s">
+        <v>82</v>
+      </c>
+      <c r="J19">
+        <v>28</v>
+      </c>
       <c r="K19" s="9"/>
       <c r="L19" t="s">
         <v>27</v>
@@ -1533,14 +1624,39 @@
       <c r="L46" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="H5:J5"/>
     <mergeCell ref="K5:M5"/>
     <mergeCell ref="K8:K46"/>
     <mergeCell ref="B9:B17"/>
+    <mergeCell ref="H10:H19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B92F9BC-6318-413C-87D9-FEE5073A822A}">
+  <dimension ref="E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="28.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="5:5">
+      <c r="E1">
+        <f>SUM(B:B)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Raport.xlsx
+++ b/Raport.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dominik\source\repos\WEB_API\WEB_API\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dominik\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A132FCB-597C-45E9-908C-B8D41949C403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18AD502E-5A02-4BDA-98BC-1D6063834FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="84">
   <si>
     <t>Liczba członków zespołu</t>
   </si>
@@ -281,6 +281,9 @@
   </si>
   <si>
     <t>Poprawienie pliku program.cs</t>
+  </si>
+  <si>
+    <t>AdresyControllerTests.cs</t>
   </si>
 </sst>
 </file>
@@ -871,8 +874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
@@ -917,7 +920,7 @@
       </c>
       <c r="J3">
         <f>SUM(J7:J1001)</f>
-        <v>546</v>
+        <v>580</v>
       </c>
       <c r="M3">
         <f>SUM(M7:M1001)</f>
@@ -931,19 +934,19 @@
       <c r="B4" s="1"/>
       <c r="D4">
         <f>($B$2*D$3)/SUM($D$3:$AK$3)</f>
-        <v>0.81761608425083776</v>
+        <v>0.80452190296749881</v>
       </c>
       <c r="G4">
         <f>($B$2*G$3)/SUM($D$3:$AK$3)</f>
-        <v>1.2044040210627094</v>
+        <v>1.185115402731983</v>
       </c>
       <c r="J4">
         <f>($B$2*J$3)/SUM($D$3:$AK$3)</f>
-        <v>1.0454763044518909</v>
+        <v>1.0927932171455488</v>
       </c>
       <c r="M4">
         <f>($B$2*M$3)/SUM($D$3:$AK$3)</f>
-        <v>0.93250359023456197</v>
+        <v>0.91756947715496939</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1391,6 +1394,13 @@
       </c>
     </row>
     <row r="20" spans="2:13">
+      <c r="H20" s="9"/>
+      <c r="I20" t="s">
+        <v>83</v>
+      </c>
+      <c r="J20">
+        <v>34</v>
+      </c>
       <c r="K20" s="9"/>
       <c r="L20" t="s">
         <v>28</v>
@@ -1631,7 +1641,7 @@
     <mergeCell ref="K5:M5"/>
     <mergeCell ref="K8:K46"/>
     <mergeCell ref="B9:B17"/>
-    <mergeCell ref="H10:H19"/>
+    <mergeCell ref="H10:H20"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Raport.xlsx
+++ b/Raport.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dominik\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\majer\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18AD502E-5A02-4BDA-98BC-1D6063834FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7EA02F18-B631-43C7-873D-7C163B25A71A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="101">
   <si>
     <t>Liczba członków zespołu</t>
   </si>
@@ -284,6 +284,57 @@
   </si>
   <si>
     <t>AdresyControllerTests.cs</t>
+  </si>
+  <si>
+    <t>templates/cart.html</t>
+  </si>
+  <si>
+    <t>templates/home.html</t>
+  </si>
+  <si>
+    <t>templates/menu2.html</t>
+  </si>
+  <si>
+    <t>templates/login.html</t>
+  </si>
+  <si>
+    <t>templates/orders.html</t>
+  </si>
+  <si>
+    <t>templates/register.html</t>
+  </si>
+  <si>
+    <t>templates/user/user_profile.html</t>
+  </si>
+  <si>
+    <t>templates/user/user_edit_form.html</t>
+  </si>
+  <si>
+    <t>templates/admin/alergen_edit_form.html</t>
+  </si>
+  <si>
+    <t>templates/admin/alergen_form.html</t>
+  </si>
+  <si>
+    <t>templates/admin/alergen_list.html</t>
+  </si>
+  <si>
+    <t>templates/admin/kategoria_edit_form.html</t>
+  </si>
+  <si>
+    <t>templates/admin/kategoria_form.html</t>
+  </si>
+  <si>
+    <t>templates/admin/kategoria_list.html</t>
+  </si>
+  <si>
+    <t>templates/admin/pozycja_edit_form.html</t>
+  </si>
+  <si>
+    <t>templates/admin/pozycja_form.html</t>
+  </si>
+  <si>
+    <t>templates/admin/pozycje_list.html</t>
   </si>
 </sst>
 </file>
@@ -353,7 +404,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -383,6 +434,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -874,30 +928,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="39.88671875" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" customWidth="1"/>
-    <col min="3" max="3" width="25.88671875" customWidth="1"/>
-    <col min="4" max="5" width="12.5546875" customWidth="1"/>
+    <col min="1" max="1" width="39.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="39.5703125" customWidth="1"/>
+    <col min="4" max="5" width="12.5703125" customWidth="1"/>
     <col min="6" max="6" width="37" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12.5546875" customWidth="1"/>
-    <col min="9" max="9" width="26.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="12.5546875" customWidth="1"/>
-    <col min="12" max="12" width="41.33203125" customWidth="1"/>
-    <col min="13" max="13" width="12.5546875" customWidth="1"/>
+    <col min="7" max="8" width="12.5703125" customWidth="1"/>
+    <col min="9" max="9" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="12.5703125" customWidth="1"/>
+    <col min="12" max="12" width="41.28515625" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="61.2">
+    <row r="1" spans="1:13" ht="61.5">
       <c r="A1" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="23.4">
+    <row r="2" spans="1:13" ht="23.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -905,14 +959,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="61.2">
+    <row r="3" spans="1:13" ht="61.5">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1"/>
       <c r="D3">
         <f>SUM(D7:D1001)</f>
-        <v>427</v>
+        <v>1287</v>
       </c>
       <c r="G3">
         <f>SUM(G7:G1001)</f>
@@ -927,26 +981,26 @@
         <v>487</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="24.9" customHeight="1">
+    <row r="4" spans="1:13" ht="24.95" customHeight="1">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1"/>
       <c r="D4">
         <f>($B$2*D$3)/SUM($D$3:$AK$3)</f>
-        <v>0.80452190296749881</v>
+        <v>1.7257794166946028</v>
       </c>
       <c r="G4">
         <f>($B$2*G$3)/SUM($D$3:$AK$3)</f>
-        <v>1.185115402731983</v>
+        <v>0.84344619510559837</v>
       </c>
       <c r="J4">
         <f>($B$2*J$3)/SUM($D$3:$AK$3)</f>
-        <v>1.0927932171455488</v>
+        <v>0.77774052966811935</v>
       </c>
       <c r="M4">
         <f>($B$2*M$3)/SUM($D$3:$AK$3)</f>
-        <v>0.91756947715496939</v>
+        <v>0.6530338585316795</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1356,6 +1410,15 @@
       </c>
     </row>
     <row r="18" spans="2:13">
+      <c r="B18" s="9">
+        <v>45803</v>
+      </c>
+      <c r="C18" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18">
+        <v>26</v>
+      </c>
       <c r="F18" t="s">
         <v>62</v>
       </c>
@@ -1378,6 +1441,13 @@
       </c>
     </row>
     <row r="19" spans="2:13">
+      <c r="B19" s="9"/>
+      <c r="C19" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19">
+        <v>144</v>
+      </c>
       <c r="H19" s="9"/>
       <c r="I19" t="s">
         <v>82</v>
@@ -1394,6 +1464,13 @@
       </c>
     </row>
     <row r="20" spans="2:13">
+      <c r="B20" s="9"/>
+      <c r="C20" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20">
+        <v>164</v>
+      </c>
       <c r="H20" s="9"/>
       <c r="I20" t="s">
         <v>83</v>
@@ -1410,6 +1487,13 @@
       </c>
     </row>
     <row r="21" spans="2:13">
+      <c r="B21" s="9"/>
+      <c r="C21" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D21">
+        <v>58</v>
+      </c>
       <c r="K21" s="9"/>
       <c r="L21" t="s">
         <v>29</v>
@@ -1419,6 +1503,13 @@
       </c>
     </row>
     <row r="22" spans="2:13">
+      <c r="B22" s="9"/>
+      <c r="C22" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22">
+        <v>92</v>
+      </c>
       <c r="K22" s="9"/>
       <c r="L22" t="s">
         <v>30</v>
@@ -1428,6 +1519,13 @@
       </c>
     </row>
     <row r="23" spans="2:13">
+      <c r="B23" s="9"/>
+      <c r="C23" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23">
+        <v>64</v>
+      </c>
       <c r="K23" s="9"/>
       <c r="L23" t="s">
         <v>31</v>
@@ -1437,6 +1535,13 @@
       </c>
     </row>
     <row r="24" spans="2:13">
+      <c r="B24" s="9"/>
+      <c r="C24" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24">
+        <v>20</v>
+      </c>
       <c r="K24" s="9"/>
       <c r="L24" t="s">
         <v>32</v>
@@ -1446,6 +1551,13 @@
       </c>
     </row>
     <row r="25" spans="2:13">
+      <c r="B25" s="9"/>
+      <c r="C25" t="s">
+        <v>91</v>
+      </c>
+      <c r="D25">
+        <v>57</v>
+      </c>
       <c r="K25" s="9"/>
       <c r="L25" t="s">
         <v>33</v>
@@ -1455,6 +1567,13 @@
       </c>
     </row>
     <row r="26" spans="2:13">
+      <c r="B26" s="9"/>
+      <c r="C26" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26">
+        <v>28</v>
+      </c>
       <c r="K26" s="9"/>
       <c r="L26" t="s">
         <v>34</v>
@@ -1464,6 +1583,13 @@
       </c>
     </row>
     <row r="27" spans="2:13">
+      <c r="B27" s="9"/>
+      <c r="C27" t="s">
+        <v>93</v>
+      </c>
+      <c r="D27">
+        <v>26</v>
+      </c>
       <c r="K27" s="9"/>
       <c r="L27" t="s">
         <v>35</v>
@@ -1473,6 +1599,13 @@
       </c>
     </row>
     <row r="28" spans="2:13">
+      <c r="B28" s="9"/>
+      <c r="C28" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28">
+        <v>16</v>
+      </c>
       <c r="K28" s="9"/>
       <c r="L28" t="s">
         <v>36</v>
@@ -1482,6 +1615,13 @@
       </c>
     </row>
     <row r="29" spans="2:13">
+      <c r="B29" s="9"/>
+      <c r="C29" t="s">
+        <v>95</v>
+      </c>
+      <c r="D29">
+        <v>18</v>
+      </c>
       <c r="K29" s="9"/>
       <c r="L29" t="s">
         <v>37</v>
@@ -1491,6 +1631,13 @@
       </c>
     </row>
     <row r="30" spans="2:13">
+      <c r="B30" s="9"/>
+      <c r="C30" t="s">
+        <v>96</v>
+      </c>
+      <c r="D30">
+        <v>15</v>
+      </c>
       <c r="K30" s="9"/>
       <c r="L30" t="s">
         <v>38</v>
@@ -1500,6 +1647,13 @@
       </c>
     </row>
     <row r="31" spans="2:13">
+      <c r="B31" s="9"/>
+      <c r="C31" t="s">
+        <v>97</v>
+      </c>
+      <c r="D31">
+        <v>17</v>
+      </c>
       <c r="K31" s="9"/>
       <c r="L31" t="s">
         <v>39</v>
@@ -1509,6 +1663,13 @@
       </c>
     </row>
     <row r="32" spans="2:13">
+      <c r="B32" s="9"/>
+      <c r="C32" t="s">
+        <v>98</v>
+      </c>
+      <c r="D32">
+        <v>44</v>
+      </c>
       <c r="K32" s="9"/>
       <c r="L32" s="5" t="s">
         <v>40</v>
@@ -1517,7 +1678,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="11:13">
+    <row r="33" spans="2:13">
+      <c r="B33" s="9"/>
+      <c r="C33" t="s">
+        <v>99</v>
+      </c>
+      <c r="D33">
+        <v>43</v>
+      </c>
       <c r="K33" s="9"/>
       <c r="L33" t="s">
         <v>41</v>
@@ -1526,7 +1694,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="11:13">
+    <row r="34" spans="2:13">
+      <c r="B34" s="9"/>
+      <c r="C34" t="s">
+        <v>100</v>
+      </c>
+      <c r="D34">
+        <v>28</v>
+      </c>
       <c r="K34" s="9"/>
       <c r="L34" t="s">
         <v>42</v>
@@ -1535,7 +1710,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="11:13">
+    <row r="35" spans="2:13">
       <c r="K35" s="9"/>
       <c r="L35" t="s">
         <v>43</v>
@@ -1544,7 +1719,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="11:13">
+    <row r="36" spans="2:13">
       <c r="K36" s="9"/>
       <c r="L36" t="s">
         <v>44</v>
@@ -1553,7 +1728,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="11:13">
+    <row r="37" spans="2:13">
       <c r="K37" s="9"/>
       <c r="L37" t="s">
         <v>45</v>
@@ -1562,7 +1737,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="11:13">
+    <row r="38" spans="2:13">
       <c r="K38" s="9"/>
       <c r="L38" t="s">
         <v>46</v>
@@ -1571,7 +1746,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="11:13">
+    <row r="39" spans="2:13">
       <c r="K39" s="9"/>
       <c r="L39" t="s">
         <v>47</v>
@@ -1580,7 +1755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="11:13">
+    <row r="40" spans="2:13">
       <c r="K40" s="9"/>
       <c r="L40" s="5" t="s">
         <v>48</v>
@@ -1589,7 +1764,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="11:13">
+    <row r="41" spans="2:13">
       <c r="K41" s="9"/>
       <c r="L41" s="5" t="s">
         <v>49</v>
@@ -1598,7 +1773,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="11:13">
+    <row r="42" spans="2:13">
       <c r="K42" s="9"/>
       <c r="L42" t="s">
         <v>50</v>
@@ -1607,7 +1782,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="11:13">
+    <row r="43" spans="2:13">
       <c r="K43" s="9"/>
       <c r="L43" t="s">
         <v>51</v>
@@ -1616,7 +1791,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="11:13">
+    <row r="44" spans="2:13">
       <c r="K44" s="9"/>
       <c r="L44" t="s">
         <v>52</v>
@@ -1625,16 +1800,16 @@
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="11:13">
+    <row r="45" spans="2:13">
       <c r="K45" s="9"/>
       <c r="L45" s="6"/>
     </row>
-    <row r="46" spans="11:13">
+    <row r="46" spans="2:13">
       <c r="K46" s="9"/>
       <c r="L46" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="H5:J5"/>
@@ -1642,6 +1817,7 @@
     <mergeCell ref="K8:K46"/>
     <mergeCell ref="B9:B17"/>
     <mergeCell ref="H10:H20"/>
+    <mergeCell ref="B18:B34"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1655,9 +1831,9 @@
       <selection sqref="A1:A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="5:5">

--- a/Raport.xlsx
+++ b/Raport.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\majer\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wojciech\Desktop\talip\Tokyo-Garden-Restaurant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7EA02F18-B631-43C7-873D-7C163B25A71A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB6AA4DD-DBF8-4E78-8FC2-0585D93A15E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="110">
   <si>
     <t>Liczba członków zespołu</t>
   </si>
@@ -335,6 +335,33 @@
   </si>
   <si>
     <t>templates/admin/pozycje_list.html</t>
+  </si>
+  <si>
+    <t>admin_list.css</t>
+  </si>
+  <si>
+    <t>admin.css</t>
+  </si>
+  <si>
+    <t>cart.css</t>
+  </si>
+  <si>
+    <t>login.css</t>
+  </si>
+  <si>
+    <t>menu.css</t>
+  </si>
+  <si>
+    <t>orders.cs</t>
+  </si>
+  <si>
+    <t>register.css</t>
+  </si>
+  <si>
+    <t>style.css</t>
+  </si>
+  <si>
+    <t>user-edit.css</t>
   </si>
 </sst>
 </file>
@@ -404,7 +431,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -435,7 +462,10 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -929,7 +959,7 @@
   <dimension ref="A1:M46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -970,7 +1000,7 @@
       </c>
       <c r="G3">
         <f>SUM(G7:G1001)</f>
-        <v>629</v>
+        <v>1539</v>
       </c>
       <c r="J3">
         <f>SUM(J7:J1001)</f>
@@ -988,19 +1018,19 @@
       <c r="B4" s="1"/>
       <c r="D4">
         <f>($B$2*D$3)/SUM($D$3:$AK$3)</f>
-        <v>1.7257794166946028</v>
+        <v>1.3223734908810685</v>
       </c>
       <c r="G4">
         <f>($B$2*G$3)/SUM($D$3:$AK$3)</f>
-        <v>0.84344619510559837</v>
+        <v>1.5812997688158232</v>
       </c>
       <c r="J4">
         <f>($B$2*J$3)/SUM($D$3:$AK$3)</f>
-        <v>0.77774052966811935</v>
+        <v>0.59594143334189575</v>
       </c>
       <c r="M4">
         <f>($B$2*M$3)/SUM($D$3:$AK$3)</f>
-        <v>0.6530338585316795</v>
+        <v>0.50038530696121242</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1442,7 +1472,7 @@
     </row>
     <row r="19" spans="2:13">
       <c r="B19" s="9"/>
-      <c r="C19" s="10" t="s">
+      <c r="C19" t="s">
         <v>85</v>
       </c>
       <c r="D19">
@@ -1465,7 +1495,7 @@
     </row>
     <row r="20" spans="2:13">
       <c r="B20" s="9"/>
-      <c r="C20" s="10" t="s">
+      <c r="C20" t="s">
         <v>86</v>
       </c>
       <c r="D20">
@@ -1488,11 +1518,20 @@
     </row>
     <row r="21" spans="2:13">
       <c r="B21" s="9"/>
-      <c r="C21" s="10" t="s">
+      <c r="C21" t="s">
         <v>87</v>
       </c>
       <c r="D21">
         <v>58</v>
+      </c>
+      <c r="F21" t="s">
+        <v>101</v>
+      </c>
+      <c r="G21">
+        <v>81</v>
+      </c>
+      <c r="H21" s="10">
+        <v>45804</v>
       </c>
       <c r="K21" s="9"/>
       <c r="L21" t="s">
@@ -1504,12 +1543,19 @@
     </row>
     <row r="22" spans="2:13">
       <c r="B22" s="9"/>
-      <c r="C22" s="10" t="s">
+      <c r="C22" t="s">
         <v>88</v>
       </c>
       <c r="D22">
         <v>92</v>
       </c>
+      <c r="F22" t="s">
+        <v>102</v>
+      </c>
+      <c r="G22">
+        <v>69</v>
+      </c>
+      <c r="H22" s="11"/>
       <c r="K22" s="9"/>
       <c r="L22" t="s">
         <v>30</v>
@@ -1520,12 +1566,19 @@
     </row>
     <row r="23" spans="2:13">
       <c r="B23" s="9"/>
-      <c r="C23" s="10" t="s">
+      <c r="C23" t="s">
         <v>89</v>
       </c>
       <c r="D23">
         <v>64</v>
       </c>
+      <c r="F23" t="s">
+        <v>103</v>
+      </c>
+      <c r="G23">
+        <v>75</v>
+      </c>
+      <c r="H23" s="11"/>
       <c r="K23" s="9"/>
       <c r="L23" t="s">
         <v>31</v>
@@ -1542,6 +1595,13 @@
       <c r="D24">
         <v>20</v>
       </c>
+      <c r="F24" t="s">
+        <v>104</v>
+      </c>
+      <c r="G24">
+        <v>126</v>
+      </c>
+      <c r="H24" s="11"/>
       <c r="K24" s="9"/>
       <c r="L24" t="s">
         <v>32</v>
@@ -1558,6 +1618,13 @@
       <c r="D25">
         <v>57</v>
       </c>
+      <c r="F25" t="s">
+        <v>105</v>
+      </c>
+      <c r="G25">
+        <v>65</v>
+      </c>
+      <c r="H25" s="11"/>
       <c r="K25" s="9"/>
       <c r="L25" t="s">
         <v>33</v>
@@ -1574,6 +1641,13 @@
       <c r="D26">
         <v>28</v>
       </c>
+      <c r="F26" t="s">
+        <v>106</v>
+      </c>
+      <c r="G26">
+        <v>82</v>
+      </c>
+      <c r="H26" s="11"/>
       <c r="K26" s="9"/>
       <c r="L26" t="s">
         <v>34</v>
@@ -1590,6 +1664,13 @@
       <c r="D27">
         <v>26</v>
       </c>
+      <c r="F27" t="s">
+        <v>107</v>
+      </c>
+      <c r="G27">
+        <v>75</v>
+      </c>
+      <c r="H27" s="11"/>
       <c r="K27" s="9"/>
       <c r="L27" t="s">
         <v>35</v>
@@ -1606,6 +1687,13 @@
       <c r="D28">
         <v>16</v>
       </c>
+      <c r="F28" t="s">
+        <v>108</v>
+      </c>
+      <c r="G28">
+        <v>266</v>
+      </c>
+      <c r="H28" s="11"/>
       <c r="K28" s="9"/>
       <c r="L28" t="s">
         <v>36</v>
@@ -1622,6 +1710,13 @@
       <c r="D29">
         <v>18</v>
       </c>
+      <c r="F29" t="s">
+        <v>109</v>
+      </c>
+      <c r="G29">
+        <v>71</v>
+      </c>
+      <c r="H29" s="11"/>
       <c r="K29" s="9"/>
       <c r="L29" t="s">
         <v>37</v>
@@ -1809,7 +1904,7 @@
       <c r="L46" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="H5:J5"/>
@@ -1818,6 +1913,7 @@
     <mergeCell ref="B9:B17"/>
     <mergeCell ref="H10:H20"/>
     <mergeCell ref="B18:B34"/>
+    <mergeCell ref="H21:H29"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Raport.xlsx
+++ b/Raport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wojciech\Desktop\talip\Tokyo-Garden-Restaurant\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dominik\Downloads\Tokyo-Garden-Restaurant-main\Tokyo-Garden-Restaurant-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB6AA4DD-DBF8-4E78-8FC2-0585D93A15E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC1F9CD-A570-4297-B0EE-005FFD878EA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="124">
   <si>
     <t>Liczba członków zespołu</t>
   </si>
@@ -362,6 +362,48 @@
   </si>
   <si>
     <t>user-edit.css</t>
+  </si>
+  <si>
+    <t>IObslugaAdresow.cs</t>
+  </si>
+  <si>
+    <t>ObslugaAdresow.cs</t>
+  </si>
+  <si>
+    <t>IObslugaAlergenPozycjaMenu.cs</t>
+  </si>
+  <si>
+    <t>ObslugaAlergenPozycjaMenu.cs</t>
+  </si>
+  <si>
+    <t>IObslugaAlergenow.cs</t>
+  </si>
+  <si>
+    <t>IObslugaKategorii.cs</t>
+  </si>
+  <si>
+    <t>ObslugaKategorii.cs</t>
+  </si>
+  <si>
+    <t>IObslugaPozycjiMenu.cs</t>
+  </si>
+  <si>
+    <t>ObslugaPozycjiMenu.cs</t>
+  </si>
+  <si>
+    <t>IObslugaPozycjiZamowienia.cs</t>
+  </si>
+  <si>
+    <t>ObslugaPozycjiZamowienia.cs</t>
+  </si>
+  <si>
+    <t>IObslugaUzytkownik.cs</t>
+  </si>
+  <si>
+    <t>IObslugaZamowien.cs</t>
+  </si>
+  <si>
+    <t>ObslugaZamowien.cs</t>
   </si>
 </sst>
 </file>
@@ -431,7 +473,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -462,12 +504,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -959,29 +996,29 @@
   <dimension ref="A1:M46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="39.85546875" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
-    <col min="3" max="3" width="39.5703125" customWidth="1"/>
-    <col min="4" max="5" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="39.88671875" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" customWidth="1"/>
+    <col min="3" max="3" width="39.5546875" customWidth="1"/>
+    <col min="4" max="5" width="12.5546875" customWidth="1"/>
     <col min="6" max="6" width="37" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12.5703125" customWidth="1"/>
-    <col min="9" max="9" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="12.5703125" customWidth="1"/>
-    <col min="12" max="12" width="41.28515625" customWidth="1"/>
-    <col min="13" max="13" width="12.5703125" customWidth="1"/>
+    <col min="7" max="8" width="12.5546875" customWidth="1"/>
+    <col min="9" max="9" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="12.5546875" customWidth="1"/>
+    <col min="12" max="12" width="41.33203125" customWidth="1"/>
+    <col min="13" max="13" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="61.5">
+    <row r="1" spans="1:13" ht="61.2">
       <c r="A1" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="23.25">
+    <row r="2" spans="1:13" ht="23.4">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -989,7 +1026,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="61.5">
+    <row r="3" spans="1:13" ht="61.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1004,33 +1041,33 @@
       </c>
       <c r="J3">
         <f>SUM(J7:J1001)</f>
-        <v>580</v>
+        <v>650</v>
       </c>
       <c r="M3">
         <f>SUM(M7:M1001)</f>
         <v>487</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="24.95" customHeight="1">
+    <row r="4" spans="1:13" ht="24.9" customHeight="1">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1"/>
       <c r="D4">
         <f>($B$2*D$3)/SUM($D$3:$AK$3)</f>
-        <v>1.3223734908810685</v>
+        <v>1.299015897047691</v>
       </c>
       <c r="G4">
         <f>($B$2*G$3)/SUM($D$3:$AK$3)</f>
-        <v>1.5812997688158232</v>
+        <v>1.5533686601059804</v>
       </c>
       <c r="J4">
         <f>($B$2*J$3)/SUM($D$3:$AK$3)</f>
-        <v>0.59594143334189575</v>
+        <v>0.65606863487257128</v>
       </c>
       <c r="M4">
         <f>($B$2*M$3)/SUM($D$3:$AK$3)</f>
-        <v>0.50038530696121242</v>
+        <v>0.49154680797375727</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1524,14 +1561,23 @@
       <c r="D21">
         <v>58</v>
       </c>
+      <c r="E21" s="9">
+        <v>45804</v>
+      </c>
       <c r="F21" t="s">
         <v>101</v>
       </c>
       <c r="G21">
         <v>81</v>
       </c>
-      <c r="H21" s="10">
-        <v>45804</v>
+      <c r="H21" s="9">
+        <v>45817</v>
+      </c>
+      <c r="I21" t="s">
+        <v>110</v>
+      </c>
+      <c r="J21" s="10">
+        <v>3</v>
       </c>
       <c r="K21" s="9"/>
       <c r="L21" t="s">
@@ -1549,13 +1595,20 @@
       <c r="D22">
         <v>92</v>
       </c>
+      <c r="E22" s="8"/>
       <c r="F22" t="s">
         <v>102</v>
       </c>
       <c r="G22">
         <v>69</v>
       </c>
-      <c r="H22" s="11"/>
+      <c r="H22" s="9"/>
+      <c r="I22" t="s">
+        <v>111</v>
+      </c>
+      <c r="J22" s="10">
+        <v>6</v>
+      </c>
       <c r="K22" s="9"/>
       <c r="L22" t="s">
         <v>30</v>
@@ -1572,13 +1625,20 @@
       <c r="D23">
         <v>64</v>
       </c>
+      <c r="E23" s="8"/>
       <c r="F23" t="s">
         <v>103</v>
       </c>
       <c r="G23">
         <v>75</v>
       </c>
-      <c r="H23" s="11"/>
+      <c r="H23" s="9"/>
+      <c r="I23" t="s">
+        <v>112</v>
+      </c>
+      <c r="J23" s="10">
+        <v>3</v>
+      </c>
       <c r="K23" s="9"/>
       <c r="L23" t="s">
         <v>31</v>
@@ -1595,13 +1655,20 @@
       <c r="D24">
         <v>20</v>
       </c>
+      <c r="E24" s="8"/>
       <c r="F24" t="s">
         <v>104</v>
       </c>
       <c r="G24">
         <v>126</v>
       </c>
-      <c r="H24" s="11"/>
+      <c r="H24" s="9"/>
+      <c r="I24" t="s">
+        <v>113</v>
+      </c>
+      <c r="J24" s="10">
+        <v>6</v>
+      </c>
       <c r="K24" s="9"/>
       <c r="L24" t="s">
         <v>32</v>
@@ -1618,13 +1685,20 @@
       <c r="D25">
         <v>57</v>
       </c>
+      <c r="E25" s="8"/>
       <c r="F25" t="s">
         <v>105</v>
       </c>
       <c r="G25">
         <v>65</v>
       </c>
-      <c r="H25" s="11"/>
+      <c r="H25" s="9"/>
+      <c r="I25" t="s">
+        <v>114</v>
+      </c>
+      <c r="J25" s="10">
+        <v>4</v>
+      </c>
       <c r="K25" s="9"/>
       <c r="L25" t="s">
         <v>33</v>
@@ -1641,13 +1715,20 @@
       <c r="D26">
         <v>28</v>
       </c>
+      <c r="E26" s="8"/>
       <c r="F26" t="s">
         <v>106</v>
       </c>
       <c r="G26">
         <v>82</v>
       </c>
-      <c r="H26" s="11"/>
+      <c r="H26" s="9"/>
+      <c r="I26" t="s">
+        <v>115</v>
+      </c>
+      <c r="J26" s="10">
+        <v>2</v>
+      </c>
       <c r="K26" s="9"/>
       <c r="L26" t="s">
         <v>34</v>
@@ -1664,13 +1745,20 @@
       <c r="D27">
         <v>26</v>
       </c>
+      <c r="E27" s="8"/>
       <c r="F27" t="s">
         <v>107</v>
       </c>
       <c r="G27">
         <v>75</v>
       </c>
-      <c r="H27" s="11"/>
+      <c r="H27" s="9"/>
+      <c r="I27" t="s">
+        <v>116</v>
+      </c>
+      <c r="J27" s="10">
+        <v>8</v>
+      </c>
       <c r="K27" s="9"/>
       <c r="L27" t="s">
         <v>35</v>
@@ -1687,13 +1775,20 @@
       <c r="D28">
         <v>16</v>
       </c>
+      <c r="E28" s="8"/>
       <c r="F28" t="s">
         <v>108</v>
       </c>
       <c r="G28">
         <v>266</v>
       </c>
-      <c r="H28" s="11"/>
+      <c r="H28" s="9"/>
+      <c r="I28" t="s">
+        <v>117</v>
+      </c>
+      <c r="J28" s="10">
+        <v>3</v>
+      </c>
       <c r="K28" s="9"/>
       <c r="L28" t="s">
         <v>36</v>
@@ -1710,13 +1805,20 @@
       <c r="D29">
         <v>18</v>
       </c>
+      <c r="E29" s="8"/>
       <c r="F29" t="s">
         <v>109</v>
       </c>
       <c r="G29">
         <v>71</v>
       </c>
-      <c r="H29" s="11"/>
+      <c r="H29" s="9"/>
+      <c r="I29" t="s">
+        <v>118</v>
+      </c>
+      <c r="J29" s="10">
+        <v>12</v>
+      </c>
       <c r="K29" s="9"/>
       <c r="L29" t="s">
         <v>37</v>
@@ -1733,6 +1835,13 @@
       <c r="D30">
         <v>15</v>
       </c>
+      <c r="H30" s="9"/>
+      <c r="I30" t="s">
+        <v>119</v>
+      </c>
+      <c r="J30" s="10">
+        <v>3</v>
+      </c>
       <c r="K30" s="9"/>
       <c r="L30" t="s">
         <v>38</v>
@@ -1749,6 +1858,13 @@
       <c r="D31">
         <v>17</v>
       </c>
+      <c r="H31" s="9"/>
+      <c r="I31" t="s">
+        <v>120</v>
+      </c>
+      <c r="J31" s="10">
+        <v>6</v>
+      </c>
       <c r="K31" s="9"/>
       <c r="L31" t="s">
         <v>39</v>
@@ -1765,6 +1881,13 @@
       <c r="D32">
         <v>44</v>
       </c>
+      <c r="H32" s="9"/>
+      <c r="I32" t="s">
+        <v>121</v>
+      </c>
+      <c r="J32" s="10">
+        <v>2</v>
+      </c>
       <c r="K32" s="9"/>
       <c r="L32" s="5" t="s">
         <v>40</v>
@@ -1781,6 +1904,13 @@
       <c r="D33">
         <v>43</v>
       </c>
+      <c r="H33" s="9"/>
+      <c r="I33" t="s">
+        <v>122</v>
+      </c>
+      <c r="J33" s="10">
+        <v>4</v>
+      </c>
       <c r="K33" s="9"/>
       <c r="L33" t="s">
         <v>41</v>
@@ -1797,6 +1927,13 @@
       <c r="D34">
         <v>28</v>
       </c>
+      <c r="H34" s="9"/>
+      <c r="I34" t="s">
+        <v>123</v>
+      </c>
+      <c r="J34" s="10">
+        <v>8</v>
+      </c>
       <c r="K34" s="9"/>
       <c r="L34" t="s">
         <v>42</v>
@@ -1904,7 +2041,7 @@
       <c r="L46" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="H5:J5"/>
@@ -1913,7 +2050,8 @@
     <mergeCell ref="B9:B17"/>
     <mergeCell ref="H10:H20"/>
     <mergeCell ref="B18:B34"/>
-    <mergeCell ref="H21:H29"/>
+    <mergeCell ref="H21:H34"/>
+    <mergeCell ref="E21:E29"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1927,9 +2065,9 @@
       <selection sqref="A1:A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="5:5">

--- a/Raport.xlsx
+++ b/Raport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dominik\Downloads\Tokyo-Garden-Restaurant-main\Tokyo-Garden-Restaurant-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Szymon\Documents\GitHub\Tokyo-Garden-Restaurant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC1F9CD-A570-4297-B0EE-005FFD878EA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{295EA8D4-A4E8-4CC7-AADC-29EA25270280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="227">
   <si>
     <t>Liczba członków zespołu</t>
   </si>
@@ -404,18 +404,335 @@
   </si>
   <si>
     <t>ObslugaZamowien.cs</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/TokyoGarden.Api/Controllers/AdresyController.cs</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/TokyoGarden.Api/Controllers/AlergenyController.cs</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/TokyoGarden.Api/Controllers/BaseCrudController.cs</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/TokyoGarden.Api/Controllers/KategorieController.cs</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/TokyoGarden.Api/Controllers/PozycjeMenuController.cs</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/TokyoGarden.Api/Controllers/PozycjeZamowieniaController.cs</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/TokyoGarden.Api/Controllers/UzytkownicyController.cs</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/TokyoGarden.Api/Controllers/ZamowieniaController.cs</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/TokyoGarden.Api/DTOs/AdresDto.cs</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/TokyoGarden.Api/DTOs/AlergenDto.cs</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/TokyoGarden.Api/DTOs/KategoriaDto.cs</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/TokyoGarden.Api/DTOs/PozycjaMenuDto.cs</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/TokyoGarden.Api/DTOs/PozycjaZamowieniaDto.cs</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/TokyoGarden.Api/DTOs/UzytkownikDto.cs</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/TokyoGarden.Api/DTOs/ZamowienieDto.cs</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/TokyoGarden.Api/Mapping/DtoMapper.cs</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/TokyoGarden.Api/Program.cs</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/TokyoGarden.BL/AdresyService.cs</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/TokyoGarden.BL/AlergenyService.cs</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/TokyoGarden.BL/KategorieService.cs</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/TokyoGarden.BL/PozycjeMenuService.cs</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/TokyoGarden.BL/PozycjeZamowieniaService.cs</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/TokyoGarden.BL/UzytkownikService.cs</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/TokyoGarden.BL/ZamowieniaService.cs</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/TokyoGarden.DAL/AdresyRepository.cs</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/TokyoGarden.DAL/AlergenyRepository.cs</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/TokyoGarden.DAL/DbTokyoGarden.cs</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/TokyoGarden.DAL/KategorieRepository.cs</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/TokyoGarden.DAL/PozycjeMenuRepository.cs</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/TokyoGarden.DAL/PozycjeZamowieniaRepository.cs</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/TokyoGarden.DAL/Repository.cs</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/TokyoGarden.DAL/UnitOfWork.cs</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/TokyoGarden.DAL/UzytkownikRepository.cs</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/TokyoGarden.DAL/ZamowieniaRepository.cs</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/TokyoGarden.IBL/IAdresyService.cs</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/TokyoGarden.IBL/IAlergenyService.cs</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/TokyoGarden.IBL/IKategorieService.cs</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/TokyoGarden.IBL/IPozycjeMenuService.cs</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/TokyoGarden.IBL/IPozycjeZamowieniaService.cs</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/TokyoGarden.IBL/IUzykownikService.cs</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/TokyoGarden.IBL/IZamowieniaService.cs</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/TokyoGarden.IDAL/IAdresyRepository.cs</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/TokyoGarden.IDAL/IAlergenyRepository.cs</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/TokyoGarden.IDAL/IKategorieRepository.cs</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/TokyoGarden.IDAL/IPozycjeMenuRepository.cs</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/TokyoGarden.IDAL/IPozycjeZamowieniaRepository.cs</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/TokyoGarden.IDAL/IRepository.cs</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/TokyoGarden.IDAL/IUnitOfWork.cs</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/TokyoGarden.IDAL/IUzytkownikRepository.cs</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/TokyoGarden.IDAL/IZamowieniaRepository.cs</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/TokyoGarden.Model/Adresy.cs</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/TokyoGarden.Model/Alergeny.cs</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/TokyoGarden.Model/Kategorie.cs</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/TokyoGarden.Model/Pozycje_Menu.cs</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/TokyoGarden.Model/Pozycje_Zamowienia.cs</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/TokyoGarden.Model/Uzytkownicy.cs</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/TokyoGarden.Model/Zamowienia.cs</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/tokyo-garden-frontend/proxy.conf.json</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/tokyo-garden-frontend/src/app/admin/alergen-form/alergen-form.component.html</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/tokyo-garden-frontend/src/app/admin/alergen-form/alergen-form.component.ts</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/tokyo-garden-frontend/src/app/admin/alergen-list/alergen-list.component.html</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/tokyo-garden-frontend/src/app/admin/alergen-list/alergen-list.component.ts</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/tokyo-garden-frontend/src/app/admin/kategoria-form/kategoria-form.component.html</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/tokyo-garden-frontend/src/app/admin/kategoria-form/kategoria-form.component.ts</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/tokyo-garden-frontend/src/app/admin/kategoria-list/kategoria-list.component.html</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/tokyo-garden-frontend/src/app/admin/kategoria-list/kategoria-list.component.ts</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/tokyo-garden-frontend/src/app/admin/pozycja-form/pozycja-form.component.html</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/tokyo-garden-frontend/src/app/admin/pozycja-form/pozycja-form.component.ts</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/tokyo-garden-frontend/src/app/admin/pozycja-list/pozycja-list.component.html</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/tokyo-garden-frontend/src/app/admin/pozycja-list/pozycja-list.component.ts</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/tokyo-garden-frontend/src/app/app.component.html</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/tokyo-garden-frontend/src/app/app.component.ts</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/tokyo-garden-frontend/src/app/app.routes.ts</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/tokyo-garden-frontend/src/app/pages/about/about.component.html</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/tokyo-garden-frontend/src/app/pages/about/about.component.ts</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/tokyo-garden-frontend/src/app/pages/contact/contact.component.html</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/tokyo-garden-frontend/src/app/pages/contact/contact.component.ts</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/tokyo-garden-frontend/src/app/services/alergen.service.ts</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/tokyo-garden-frontend/src/app/services/auth.interceptor.ts</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/tokyo-garden-frontend/src/app/services/auth.service.ts</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/tokyo-garden-frontend/src/app/services/cart.service.ts</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/tokyo-garden-frontend/src/app/services/kategoria.service.ts</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/tokyo-garden-frontend/src/app/services/menu.service.ts</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/tokyo-garden-frontend/src/app/services/pozycja.service.ts</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/tokyo-garden-frontend/src/app/services/user.service.ts</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/tokyo-garden-frontend/src/app/shared/header/header.component.html</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/tokyo-garden-frontend/src/app/shared/header/header.component.ts</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/tokyo-garden-frontend/src/app/shared/menu/menu.component.html</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/tokyo-garden-frontend/src/app/shared/menu/menu.component.ts</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/tokyo-garden-frontend/src/app/user/cart/cart.component.html</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/tokyo-garden-frontend/src/app/user/cart/cart.component.ts</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/tokyo-garden-frontend/src/app/user/home/home.component.html</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/tokyo-garden-frontend/src/app/user/home/home.component.ts</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/tokyo-garden-frontend/src/app/user/login/login.component.html</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/tokyo-garden-frontend/src/app/user/login/login.component.ts</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/tokyo-garden-frontend/src/app/user/orders/orders.component.html</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/tokyo-garden-frontend/src/app/user/orders/orders.component.ts</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/tokyo-garden-frontend/src/app/user/register/register.component.html</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/tokyo-garden-frontend/src/app/user/register/register.component.ts</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/tokyo-garden-frontend/src/app/user/user-edit/user-edit.component.html</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/tokyo-garden-frontend/src/app/user/user-edit/user-edit.component.ts</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/tokyo-garden-frontend/src/index.html</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/tokyo-garden-frontend/src/main.ts</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -473,14 +790,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -489,12 +806,10 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -504,7 +819,12 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -993,32 +1313,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M46"/>
+  <dimension ref="A1:M147"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="39.88671875" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" customWidth="1"/>
-    <col min="3" max="3" width="39.5546875" customWidth="1"/>
-    <col min="4" max="5" width="12.5546875" customWidth="1"/>
+    <col min="1" max="1" width="39.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="39.5703125" customWidth="1"/>
+    <col min="4" max="5" width="12.5703125" customWidth="1"/>
     <col min="6" max="6" width="37" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12.5546875" customWidth="1"/>
-    <col min="9" max="9" width="26.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="12.5546875" customWidth="1"/>
-    <col min="12" max="12" width="41.33203125" customWidth="1"/>
-    <col min="13" max="13" width="12.5546875" customWidth="1"/>
+    <col min="7" max="8" width="12.5703125" customWidth="1"/>
+    <col min="9" max="9" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="12.5703125" customWidth="1"/>
+    <col min="12" max="12" width="41.28515625" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="61.2">
+    <row r="1" spans="1:13" ht="61.5">
       <c r="A1" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="23.4">
+    <row r="2" spans="1:13" ht="23.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1026,7 +1346,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="61.2">
+    <row r="3" spans="1:13" ht="61.5">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1045,29 +1365,29 @@
       </c>
       <c r="M3">
         <f>SUM(M7:M1001)</f>
-        <v>487</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="24.9" customHeight="1">
+        <v>3142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="24.95" customHeight="1">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1"/>
       <c r="D4">
         <f>($B$2*D$3)/SUM($D$3:$AK$3)</f>
-        <v>1.299015897047691</v>
+        <v>0.77787851314596557</v>
       </c>
       <c r="G4">
         <f>($B$2*G$3)/SUM($D$3:$AK$3)</f>
-        <v>1.5533686601059804</v>
+        <v>0.93019038984587488</v>
       </c>
       <c r="J4">
         <f>($B$2*J$3)/SUM($D$3:$AK$3)</f>
-        <v>0.65606863487257128</v>
+        <v>0.39286793593230585</v>
       </c>
       <c r="M4">
         <f>($B$2*M$3)/SUM($D$3:$AK$3)</f>
-        <v>0.49154680797375727</v>
+        <v>1.8990631610758537</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1576,7 +1896,7 @@
       <c r="I21" t="s">
         <v>110</v>
       </c>
-      <c r="J21" s="10">
+      <c r="J21" s="6">
         <v>3</v>
       </c>
       <c r="K21" s="9"/>
@@ -1606,7 +1926,7 @@
       <c r="I22" t="s">
         <v>111</v>
       </c>
-      <c r="J22" s="10">
+      <c r="J22" s="6">
         <v>6</v>
       </c>
       <c r="K22" s="9"/>
@@ -1636,7 +1956,7 @@
       <c r="I23" t="s">
         <v>112</v>
       </c>
-      <c r="J23" s="10">
+      <c r="J23" s="6">
         <v>3</v>
       </c>
       <c r="K23" s="9"/>
@@ -1666,7 +1986,7 @@
       <c r="I24" t="s">
         <v>113</v>
       </c>
-      <c r="J24" s="10">
+      <c r="J24" s="6">
         <v>6</v>
       </c>
       <c r="K24" s="9"/>
@@ -1696,7 +2016,7 @@
       <c r="I25" t="s">
         <v>114</v>
       </c>
-      <c r="J25" s="10">
+      <c r="J25" s="6">
         <v>4</v>
       </c>
       <c r="K25" s="9"/>
@@ -1726,7 +2046,7 @@
       <c r="I26" t="s">
         <v>115</v>
       </c>
-      <c r="J26" s="10">
+      <c r="J26" s="6">
         <v>2</v>
       </c>
       <c r="K26" s="9"/>
@@ -1756,7 +2076,7 @@
       <c r="I27" t="s">
         <v>116</v>
       </c>
-      <c r="J27" s="10">
+      <c r="J27" s="6">
         <v>8</v>
       </c>
       <c r="K27" s="9"/>
@@ -1786,7 +2106,7 @@
       <c r="I28" t="s">
         <v>117</v>
       </c>
-      <c r="J28" s="10">
+      <c r="J28" s="6">
         <v>3</v>
       </c>
       <c r="K28" s="9"/>
@@ -1816,7 +2136,7 @@
       <c r="I29" t="s">
         <v>118</v>
       </c>
-      <c r="J29" s="10">
+      <c r="J29" s="6">
         <v>12</v>
       </c>
       <c r="K29" s="9"/>
@@ -1839,7 +2159,7 @@
       <c r="I30" t="s">
         <v>119</v>
       </c>
-      <c r="J30" s="10">
+      <c r="J30" s="6">
         <v>3</v>
       </c>
       <c r="K30" s="9"/>
@@ -1862,7 +2182,7 @@
       <c r="I31" t="s">
         <v>120</v>
       </c>
-      <c r="J31" s="10">
+      <c r="J31" s="6">
         <v>6</v>
       </c>
       <c r="K31" s="9"/>
@@ -1885,7 +2205,7 @@
       <c r="I32" t="s">
         <v>121</v>
       </c>
-      <c r="J32" s="10">
+      <c r="J32" s="6">
         <v>2</v>
       </c>
       <c r="K32" s="9"/>
@@ -1908,7 +2228,7 @@
       <c r="I33" t="s">
         <v>122</v>
       </c>
-      <c r="J33" s="10">
+      <c r="J33" s="6">
         <v>4</v>
       </c>
       <c r="K33" s="9"/>
@@ -1931,7 +2251,7 @@
       <c r="I34" t="s">
         <v>123</v>
       </c>
-      <c r="J34" s="10">
+      <c r="J34" s="6">
         <v>8</v>
       </c>
       <c r="K34" s="9"/>
@@ -2034,11 +2354,829 @@
     </row>
     <row r="45" spans="2:13">
       <c r="K45" s="9"/>
-      <c r="L45" s="6"/>
+      <c r="L45" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="M45">
+        <v>33</v>
+      </c>
     </row>
     <row r="46" spans="2:13">
       <c r="K46" s="9"/>
-      <c r="L46" s="6"/>
+      <c r="L46" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="M46">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13">
+      <c r="L47" t="s">
+        <v>126</v>
+      </c>
+      <c r="M47">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13">
+      <c r="L48" t="s">
+        <v>127</v>
+      </c>
+      <c r="M48">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="49" spans="12:13">
+      <c r="L49" t="s">
+        <v>128</v>
+      </c>
+      <c r="M49">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50" spans="12:13">
+      <c r="L50" t="s">
+        <v>129</v>
+      </c>
+      <c r="M50">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="51" spans="12:13">
+      <c r="L51" t="s">
+        <v>130</v>
+      </c>
+      <c r="M51">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="52" spans="12:13">
+      <c r="L52" t="s">
+        <v>131</v>
+      </c>
+      <c r="M52">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="53" spans="12:13">
+      <c r="L53" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="M53">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="12:13">
+      <c r="L54" t="s">
+        <v>133</v>
+      </c>
+      <c r="M54">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="12:13">
+      <c r="L55" t="s">
+        <v>134</v>
+      </c>
+      <c r="M55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="12:13">
+      <c r="L56" t="s">
+        <v>135</v>
+      </c>
+      <c r="M56">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="12:13">
+      <c r="L57" t="s">
+        <v>136</v>
+      </c>
+      <c r="M57">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="12:13">
+      <c r="L58" t="s">
+        <v>137</v>
+      </c>
+      <c r="M58">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="12:13">
+      <c r="L59" t="s">
+        <v>138</v>
+      </c>
+      <c r="M59">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="12:13">
+      <c r="L60" t="s">
+        <v>139</v>
+      </c>
+      <c r="M60">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="61" spans="12:13">
+      <c r="L61" t="s">
+        <v>140</v>
+      </c>
+      <c r="M61">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="62" spans="12:13">
+      <c r="L62" t="s">
+        <v>141</v>
+      </c>
+      <c r="M62">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="12:13">
+      <c r="L63" t="s">
+        <v>142</v>
+      </c>
+      <c r="M63">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="12:13">
+      <c r="L64" t="s">
+        <v>143</v>
+      </c>
+      <c r="M64">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="12:13">
+      <c r="L65" t="s">
+        <v>144</v>
+      </c>
+      <c r="M65">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="12:13">
+      <c r="L66" t="s">
+        <v>145</v>
+      </c>
+      <c r="M66">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="12:13">
+      <c r="L67" t="s">
+        <v>146</v>
+      </c>
+      <c r="M67">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" spans="12:13">
+      <c r="L68" t="s">
+        <v>147</v>
+      </c>
+      <c r="M68">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="69" spans="12:13">
+      <c r="L69" t="s">
+        <v>148</v>
+      </c>
+      <c r="M69">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="12:13">
+      <c r="L70" t="s">
+        <v>149</v>
+      </c>
+      <c r="M70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="12:13">
+      <c r="L71" t="s">
+        <v>150</v>
+      </c>
+      <c r="M71">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="12:13">
+      <c r="L72" t="s">
+        <v>151</v>
+      </c>
+      <c r="M72">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="12:13">
+      <c r="L73" t="s">
+        <v>152</v>
+      </c>
+      <c r="M73">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="74" spans="12:13">
+      <c r="L74" t="s">
+        <v>153</v>
+      </c>
+      <c r="M74">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" spans="12:13">
+      <c r="L75" t="s">
+        <v>154</v>
+      </c>
+      <c r="M75">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="76" spans="12:13">
+      <c r="L76" t="s">
+        <v>155</v>
+      </c>
+      <c r="M76">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="12:13">
+      <c r="L77" t="s">
+        <v>156</v>
+      </c>
+      <c r="M77">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="12:13">
+      <c r="L78" t="s">
+        <v>157</v>
+      </c>
+      <c r="M78">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="79" spans="12:13">
+      <c r="L79" t="s">
+        <v>158</v>
+      </c>
+      <c r="M79">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="12:13">
+      <c r="L80" t="s">
+        <v>159</v>
+      </c>
+      <c r="M80">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="12:13">
+      <c r="L81" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="M81">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="12:13">
+      <c r="L82" t="s">
+        <v>161</v>
+      </c>
+      <c r="M82">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" spans="12:13">
+      <c r="L83" t="s">
+        <v>162</v>
+      </c>
+      <c r="M83">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="12:13">
+      <c r="L84" t="s">
+        <v>163</v>
+      </c>
+      <c r="M84">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="12:13">
+      <c r="L85" t="s">
+        <v>164</v>
+      </c>
+      <c r="M85">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" spans="12:13">
+      <c r="L86" t="s">
+        <v>165</v>
+      </c>
+      <c r="M86">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="12:13">
+      <c r="L87" t="s">
+        <v>166</v>
+      </c>
+      <c r="M87">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="12:13">
+      <c r="L88" t="s">
+        <v>167</v>
+      </c>
+      <c r="M88">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="12:13">
+      <c r="L89" t="s">
+        <v>168</v>
+      </c>
+      <c r="M89">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="12:13">
+      <c r="L90" t="s">
+        <v>169</v>
+      </c>
+      <c r="M90">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="12:13">
+      <c r="L91" t="s">
+        <v>170</v>
+      </c>
+      <c r="M91">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="12:13">
+      <c r="L92" t="s">
+        <v>171</v>
+      </c>
+      <c r="M92">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="12:13">
+      <c r="L93" t="s">
+        <v>172</v>
+      </c>
+      <c r="M93">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="12:13">
+      <c r="L94" t="s">
+        <v>173</v>
+      </c>
+      <c r="M94">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="12:13">
+      <c r="L95" t="s">
+        <v>174</v>
+      </c>
+      <c r="M95">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="12:13">
+      <c r="L96" t="s">
+        <v>175</v>
+      </c>
+      <c r="M96">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="12:13">
+      <c r="L97" t="s">
+        <v>176</v>
+      </c>
+      <c r="M97">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="12:13">
+      <c r="L98" t="s">
+        <v>177</v>
+      </c>
+      <c r="M98">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="99" spans="12:13">
+      <c r="L99" t="s">
+        <v>178</v>
+      </c>
+      <c r="M99">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" spans="12:13">
+      <c r="L100" t="s">
+        <v>179</v>
+      </c>
+      <c r="M100">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="12:13">
+      <c r="L101" t="s">
+        <v>180</v>
+      </c>
+      <c r="M101">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" spans="12:13">
+      <c r="L102" t="s">
+        <v>181</v>
+      </c>
+      <c r="M102">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="12:13">
+      <c r="L103" t="s">
+        <v>182</v>
+      </c>
+      <c r="M103">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="104" spans="12:13">
+      <c r="L104" t="s">
+        <v>183</v>
+      </c>
+      <c r="M104">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="105" spans="12:13">
+      <c r="L105" t="s">
+        <v>184</v>
+      </c>
+      <c r="M105">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="106" spans="12:13">
+      <c r="L106" t="s">
+        <v>185</v>
+      </c>
+      <c r="M106">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="107" spans="12:13">
+      <c r="L107" t="s">
+        <v>186</v>
+      </c>
+      <c r="M107">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="108" spans="12:13">
+      <c r="L108" t="s">
+        <v>187</v>
+      </c>
+      <c r="M108">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="109" spans="12:13">
+      <c r="L109" t="s">
+        <v>188</v>
+      </c>
+      <c r="M109">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="110" spans="12:13">
+      <c r="L110" t="s">
+        <v>189</v>
+      </c>
+      <c r="M110">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="111" spans="12:13">
+      <c r="L111" t="s">
+        <v>190</v>
+      </c>
+      <c r="M111">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="112" spans="12:13">
+      <c r="L112" t="s">
+        <v>191</v>
+      </c>
+      <c r="M112">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="113" spans="12:13">
+      <c r="L113" t="s">
+        <v>192</v>
+      </c>
+      <c r="M113">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="114" spans="12:13">
+      <c r="L114" t="s">
+        <v>193</v>
+      </c>
+      <c r="M114">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="115" spans="12:13">
+      <c r="L115" t="s">
+        <v>194</v>
+      </c>
+      <c r="M115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="12:13">
+      <c r="L116" t="s">
+        <v>195</v>
+      </c>
+      <c r="M116">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="117" spans="12:13">
+      <c r="L117" t="s">
+        <v>196</v>
+      </c>
+      <c r="M117">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="118" spans="12:13">
+      <c r="L118" t="s">
+        <v>197</v>
+      </c>
+      <c r="M118">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="119" spans="12:13">
+      <c r="L119" t="s">
+        <v>198</v>
+      </c>
+      <c r="M119">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="120" spans="12:13">
+      <c r="L120" t="s">
+        <v>199</v>
+      </c>
+      <c r="M120">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="121" spans="12:13">
+      <c r="L121" t="s">
+        <v>200</v>
+      </c>
+      <c r="M121">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="122" spans="12:13">
+      <c r="L122" t="s">
+        <v>201</v>
+      </c>
+      <c r="M122">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="123" spans="12:13">
+      <c r="L123" t="s">
+        <v>202</v>
+      </c>
+      <c r="M123">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="124" spans="12:13">
+      <c r="L124" t="s">
+        <v>203</v>
+      </c>
+      <c r="M124">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="125" spans="12:13">
+      <c r="L125" t="s">
+        <v>204</v>
+      </c>
+      <c r="M125">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="126" spans="12:13">
+      <c r="L126" t="s">
+        <v>205</v>
+      </c>
+      <c r="M126">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="127" spans="12:13">
+      <c r="L127" t="s">
+        <v>206</v>
+      </c>
+      <c r="M127">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="128" spans="12:13">
+      <c r="L128" t="s">
+        <v>207</v>
+      </c>
+      <c r="M128">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="129" spans="12:13">
+      <c r="L129" t="s">
+        <v>208</v>
+      </c>
+      <c r="M129">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="130" spans="12:13">
+      <c r="L130" t="s">
+        <v>209</v>
+      </c>
+      <c r="M130">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="131" spans="12:13">
+      <c r="L131" t="s">
+        <v>210</v>
+      </c>
+      <c r="M131">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="132" spans="12:13">
+      <c r="L132" t="s">
+        <v>211</v>
+      </c>
+      <c r="M132">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="133" spans="12:13">
+      <c r="L133" t="s">
+        <v>212</v>
+      </c>
+      <c r="M133">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="134" spans="12:13">
+      <c r="L134" t="s">
+        <v>213</v>
+      </c>
+      <c r="M134">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="135" spans="12:13">
+      <c r="L135" t="s">
+        <v>214</v>
+      </c>
+      <c r="M135">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="136" spans="12:13">
+      <c r="L136" t="s">
+        <v>215</v>
+      </c>
+      <c r="M136">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="137" spans="12:13">
+      <c r="L137" t="s">
+        <v>216</v>
+      </c>
+      <c r="M137">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="138" spans="12:13">
+      <c r="L138" t="s">
+        <v>217</v>
+      </c>
+      <c r="M138">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="139" spans="12:13">
+      <c r="L139" t="s">
+        <v>218</v>
+      </c>
+      <c r="M139">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="140" spans="12:13">
+      <c r="L140" t="s">
+        <v>219</v>
+      </c>
+      <c r="M140">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="141" spans="12:13">
+      <c r="L141" t="s">
+        <v>220</v>
+      </c>
+      <c r="M141">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="142" spans="12:13">
+      <c r="L142" t="s">
+        <v>221</v>
+      </c>
+      <c r="M142">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="143" spans="12:13">
+      <c r="L143" t="s">
+        <v>222</v>
+      </c>
+      <c r="M143">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="144" spans="12:13">
+      <c r="L144" t="s">
+        <v>223</v>
+      </c>
+      <c r="M144">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="145" spans="12:13">
+      <c r="L145" t="s">
+        <v>224</v>
+      </c>
+      <c r="M145">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="146" spans="12:13">
+      <c r="L146" t="s">
+        <v>225</v>
+      </c>
+      <c r="M146">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="147" spans="12:13">
+      <c r="L147" t="s">
+        <v>226</v>
+      </c>
+      <c r="M147">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -2065,9 +3203,9 @@
       <selection sqref="A1:A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="5:5">

--- a/Raport.xlsx
+++ b/Raport.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Szymon\Documents\GitHub\Tokyo-Garden-Restaurant\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dominik\Desktop\zrobione na nowo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{295EA8D4-A4E8-4CC7-AADC-29EA25270280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{263BB067-3F14-4332-9984-32EA36AF03A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="229">
   <si>
     <t>Liczba członków zespołu</t>
   </si>
@@ -713,18 +713,32 @@
   </si>
   <si>
     <t>zrobione na nowo/tokyo-garden-frontend/src/main.ts</t>
+  </si>
+  <si>
+    <t>Dodanie hashowania hasła</t>
+  </si>
+  <si>
+    <t>Dodanie komentarzy do pliku UzytkownicyController.cs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -790,14 +804,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -806,10 +820,16 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -818,9 +838,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1315,8 +1332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M147"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H82" sqref="H82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -1361,7 +1378,7 @@
       </c>
       <c r="J3">
         <f>SUM(J7:J1001)</f>
-        <v>650</v>
+        <v>670</v>
       </c>
       <c r="M3">
         <f>SUM(M7:M1001)</f>
@@ -1375,42 +1392,42 @@
       <c r="B4" s="1"/>
       <c r="D4">
         <f>($B$2*D$3)/SUM($D$3:$AK$3)</f>
-        <v>0.77787851314596557</v>
+        <v>0.77553479963844529</v>
       </c>
       <c r="G4">
         <f>($B$2*G$3)/SUM($D$3:$AK$3)</f>
-        <v>0.93019038984587488</v>
+        <v>0.92738776739981921</v>
       </c>
       <c r="J4">
         <f>($B$2*J$3)/SUM($D$3:$AK$3)</f>
-        <v>0.39286793593230585</v>
+        <v>0.40373606507984333</v>
       </c>
       <c r="M4">
         <f>($B$2*M$3)/SUM($D$3:$AK$3)</f>
-        <v>1.8990631610758537</v>
+        <v>1.8933413678818922</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="8" t="s">
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8" t="s">
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8" t="s">
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
     </row>
     <row r="6" spans="1:13">
       <c r="B6" t="s">
@@ -1516,7 +1533,7 @@
       <c r="J8">
         <v>100</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K8" s="11">
         <v>45772</v>
       </c>
       <c r="L8" t="s">
@@ -1527,7 +1544,7 @@
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="B9" s="9">
+      <c r="B9" s="11">
         <v>45785</v>
       </c>
       <c r="C9" t="s">
@@ -1554,7 +1571,7 @@
       <c r="J9">
         <v>118</v>
       </c>
-      <c r="K9" s="9"/>
+      <c r="K9" s="11"/>
       <c r="L9" s="5" t="s">
         <v>17</v>
       </c>
@@ -1563,7 +1580,7 @@
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="B10" s="9"/>
+      <c r="B10" s="11"/>
       <c r="C10" t="s">
         <v>64</v>
       </c>
@@ -1576,7 +1593,7 @@
       <c r="G10">
         <v>57</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="11">
         <v>45803</v>
       </c>
       <c r="I10" t="s">
@@ -1585,7 +1602,7 @@
       <c r="J10">
         <v>70</v>
       </c>
-      <c r="K10" s="9"/>
+      <c r="K10" s="11"/>
       <c r="L10" t="s">
         <v>18</v>
       </c>
@@ -1594,7 +1611,7 @@
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="B11" s="9"/>
+      <c r="B11" s="11"/>
       <c r="C11" t="s">
         <v>65</v>
       </c>
@@ -1607,14 +1624,14 @@
       <c r="G11">
         <v>59</v>
       </c>
-      <c r="H11" s="9"/>
+      <c r="H11" s="11"/>
       <c r="I11" t="s">
         <v>75</v>
       </c>
       <c r="J11">
         <v>23</v>
       </c>
-      <c r="K11" s="9"/>
+      <c r="K11" s="11"/>
       <c r="L11" t="s">
         <v>19</v>
       </c>
@@ -1623,7 +1640,7 @@
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="B12" s="9"/>
+      <c r="B12" s="11"/>
       <c r="C12" t="s">
         <v>66</v>
       </c>
@@ -1636,14 +1653,14 @@
       <c r="G12">
         <v>58</v>
       </c>
-      <c r="H12" s="9"/>
+      <c r="H12" s="11"/>
       <c r="I12" t="s">
         <v>77</v>
       </c>
       <c r="J12">
         <v>23</v>
       </c>
-      <c r="K12" s="9"/>
+      <c r="K12" s="11"/>
       <c r="L12" t="s">
         <v>20</v>
       </c>
@@ -1652,7 +1669,7 @@
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="B13" s="9"/>
+      <c r="B13" s="11"/>
       <c r="C13" t="s">
         <v>67</v>
       </c>
@@ -1665,14 +1682,14 @@
       <c r="G13">
         <v>57</v>
       </c>
-      <c r="H13" s="9"/>
+      <c r="H13" s="11"/>
       <c r="I13" t="s">
         <v>76</v>
       </c>
       <c r="J13">
         <v>27</v>
       </c>
-      <c r="K13" s="9"/>
+      <c r="K13" s="11"/>
       <c r="L13" s="5" t="s">
         <v>21</v>
       </c>
@@ -1681,7 +1698,7 @@
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="B14" s="9"/>
+      <c r="B14" s="11"/>
       <c r="C14" t="s">
         <v>68</v>
       </c>
@@ -1694,14 +1711,14 @@
       <c r="G14">
         <v>61</v>
       </c>
-      <c r="H14" s="9"/>
+      <c r="H14" s="11"/>
       <c r="I14" t="s">
         <v>74</v>
       </c>
       <c r="J14">
         <v>24</v>
       </c>
-      <c r="K14" s="9"/>
+      <c r="K14" s="11"/>
       <c r="L14" t="s">
         <v>22</v>
       </c>
@@ -1710,7 +1727,7 @@
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="B15" s="9"/>
+      <c r="B15" s="11"/>
       <c r="C15" t="s">
         <v>69</v>
       </c>
@@ -1723,14 +1740,14 @@
       <c r="G15">
         <v>60</v>
       </c>
-      <c r="H15" s="9"/>
+      <c r="H15" s="11"/>
       <c r="I15" t="s">
         <v>78</v>
       </c>
       <c r="J15">
         <v>27</v>
       </c>
-      <c r="K15" s="9"/>
+      <c r="K15" s="11"/>
       <c r="L15" s="5" t="s">
         <v>23</v>
       </c>
@@ -1739,7 +1756,7 @@
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="B16" s="9"/>
+      <c r="B16" s="11"/>
       <c r="C16" t="s">
         <v>70</v>
       </c>
@@ -1752,14 +1769,14 @@
       <c r="G16">
         <v>16</v>
       </c>
-      <c r="H16" s="9"/>
+      <c r="H16" s="11"/>
       <c r="I16" t="s">
         <v>79</v>
       </c>
       <c r="J16">
         <v>27</v>
       </c>
-      <c r="K16" s="9"/>
+      <c r="K16" s="11"/>
       <c r="L16" t="s">
         <v>24</v>
       </c>
@@ -1768,7 +1785,7 @@
       </c>
     </row>
     <row r="17" spans="2:13">
-      <c r="B17" s="9"/>
+      <c r="B17" s="11"/>
       <c r="C17" t="s">
         <v>71</v>
       </c>
@@ -1781,14 +1798,14 @@
       <c r="G17">
         <v>59</v>
       </c>
-      <c r="H17" s="9"/>
+      <c r="H17" s="11"/>
       <c r="I17" t="s">
         <v>80</v>
       </c>
       <c r="J17">
         <v>27</v>
       </c>
-      <c r="K17" s="9"/>
+      <c r="K17" s="11"/>
       <c r="L17" t="s">
         <v>25</v>
       </c>
@@ -1797,7 +1814,7 @@
       </c>
     </row>
     <row r="18" spans="2:13">
-      <c r="B18" s="9">
+      <c r="B18" s="11">
         <v>45803</v>
       </c>
       <c r="C18" t="s">
@@ -1812,14 +1829,14 @@
       <c r="G18">
         <v>64</v>
       </c>
-      <c r="H18" s="9"/>
+      <c r="H18" s="11"/>
       <c r="I18" t="s">
         <v>81</v>
       </c>
       <c r="J18">
         <v>27</v>
       </c>
-      <c r="K18" s="9"/>
+      <c r="K18" s="11"/>
       <c r="L18" t="s">
         <v>26</v>
       </c>
@@ -1828,21 +1845,21 @@
       </c>
     </row>
     <row r="19" spans="2:13">
-      <c r="B19" s="9"/>
+      <c r="B19" s="11"/>
       <c r="C19" t="s">
         <v>85</v>
       </c>
       <c r="D19">
         <v>144</v>
       </c>
-      <c r="H19" s="9"/>
+      <c r="H19" s="11"/>
       <c r="I19" t="s">
         <v>82</v>
       </c>
       <c r="J19">
         <v>28</v>
       </c>
-      <c r="K19" s="9"/>
+      <c r="K19" s="11"/>
       <c r="L19" t="s">
         <v>27</v>
       </c>
@@ -1851,21 +1868,21 @@
       </c>
     </row>
     <row r="20" spans="2:13">
-      <c r="B20" s="9"/>
+      <c r="B20" s="11"/>
       <c r="C20" t="s">
         <v>86</v>
       </c>
       <c r="D20">
         <v>164</v>
       </c>
-      <c r="H20" s="9"/>
+      <c r="H20" s="11"/>
       <c r="I20" t="s">
         <v>83</v>
       </c>
       <c r="J20">
         <v>34</v>
       </c>
-      <c r="K20" s="9"/>
+      <c r="K20" s="11"/>
       <c r="L20" t="s">
         <v>28</v>
       </c>
@@ -1874,14 +1891,14 @@
       </c>
     </row>
     <row r="21" spans="2:13">
-      <c r="B21" s="9"/>
+      <c r="B21" s="11"/>
       <c r="C21" t="s">
         <v>87</v>
       </c>
       <c r="D21">
         <v>58</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="11">
         <v>45804</v>
       </c>
       <c r="F21" t="s">
@@ -1890,7 +1907,7 @@
       <c r="G21">
         <v>81</v>
       </c>
-      <c r="H21" s="9">
+      <c r="H21" s="11">
         <v>45817</v>
       </c>
       <c r="I21" t="s">
@@ -1899,7 +1916,7 @@
       <c r="J21" s="6">
         <v>3</v>
       </c>
-      <c r="K21" s="9"/>
+      <c r="K21" s="11"/>
       <c r="L21" t="s">
         <v>29</v>
       </c>
@@ -1908,28 +1925,28 @@
       </c>
     </row>
     <row r="22" spans="2:13">
-      <c r="B22" s="9"/>
+      <c r="B22" s="11"/>
       <c r="C22" t="s">
         <v>88</v>
       </c>
       <c r="D22">
         <v>92</v>
       </c>
-      <c r="E22" s="8"/>
+      <c r="E22" s="10"/>
       <c r="F22" t="s">
         <v>102</v>
       </c>
       <c r="G22">
         <v>69</v>
       </c>
-      <c r="H22" s="9"/>
+      <c r="H22" s="11"/>
       <c r="I22" t="s">
         <v>111</v>
       </c>
       <c r="J22" s="6">
         <v>6</v>
       </c>
-      <c r="K22" s="9"/>
+      <c r="K22" s="11"/>
       <c r="L22" t="s">
         <v>30</v>
       </c>
@@ -1938,28 +1955,28 @@
       </c>
     </row>
     <row r="23" spans="2:13">
-      <c r="B23" s="9"/>
+      <c r="B23" s="11"/>
       <c r="C23" t="s">
         <v>89</v>
       </c>
       <c r="D23">
         <v>64</v>
       </c>
-      <c r="E23" s="8"/>
+      <c r="E23" s="10"/>
       <c r="F23" t="s">
         <v>103</v>
       </c>
       <c r="G23">
         <v>75</v>
       </c>
-      <c r="H23" s="9"/>
+      <c r="H23" s="11"/>
       <c r="I23" t="s">
         <v>112</v>
       </c>
       <c r="J23" s="6">
         <v>3</v>
       </c>
-      <c r="K23" s="9"/>
+      <c r="K23" s="11"/>
       <c r="L23" t="s">
         <v>31</v>
       </c>
@@ -1968,28 +1985,28 @@
       </c>
     </row>
     <row r="24" spans="2:13">
-      <c r="B24" s="9"/>
+      <c r="B24" s="11"/>
       <c r="C24" t="s">
         <v>90</v>
       </c>
       <c r="D24">
         <v>20</v>
       </c>
-      <c r="E24" s="8"/>
+      <c r="E24" s="10"/>
       <c r="F24" t="s">
         <v>104</v>
       </c>
       <c r="G24">
         <v>126</v>
       </c>
-      <c r="H24" s="9"/>
+      <c r="H24" s="11"/>
       <c r="I24" t="s">
         <v>113</v>
       </c>
       <c r="J24" s="6">
         <v>6</v>
       </c>
-      <c r="K24" s="9"/>
+      <c r="K24" s="11"/>
       <c r="L24" t="s">
         <v>32</v>
       </c>
@@ -1998,28 +2015,28 @@
       </c>
     </row>
     <row r="25" spans="2:13">
-      <c r="B25" s="9"/>
+      <c r="B25" s="11"/>
       <c r="C25" t="s">
         <v>91</v>
       </c>
       <c r="D25">
         <v>57</v>
       </c>
-      <c r="E25" s="8"/>
+      <c r="E25" s="10"/>
       <c r="F25" t="s">
         <v>105</v>
       </c>
       <c r="G25">
         <v>65</v>
       </c>
-      <c r="H25" s="9"/>
+      <c r="H25" s="11"/>
       <c r="I25" t="s">
         <v>114</v>
       </c>
       <c r="J25" s="6">
         <v>4</v>
       </c>
-      <c r="K25" s="9"/>
+      <c r="K25" s="11"/>
       <c r="L25" t="s">
         <v>33</v>
       </c>
@@ -2028,28 +2045,28 @@
       </c>
     </row>
     <row r="26" spans="2:13">
-      <c r="B26" s="9"/>
+      <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>92</v>
       </c>
       <c r="D26">
         <v>28</v>
       </c>
-      <c r="E26" s="8"/>
+      <c r="E26" s="10"/>
       <c r="F26" t="s">
         <v>106</v>
       </c>
       <c r="G26">
         <v>82</v>
       </c>
-      <c r="H26" s="9"/>
+      <c r="H26" s="11"/>
       <c r="I26" t="s">
         <v>115</v>
       </c>
       <c r="J26" s="6">
         <v>2</v>
       </c>
-      <c r="K26" s="9"/>
+      <c r="K26" s="11"/>
       <c r="L26" t="s">
         <v>34</v>
       </c>
@@ -2058,28 +2075,28 @@
       </c>
     </row>
     <row r="27" spans="2:13">
-      <c r="B27" s="9"/>
+      <c r="B27" s="11"/>
       <c r="C27" t="s">
         <v>93</v>
       </c>
       <c r="D27">
         <v>26</v>
       </c>
-      <c r="E27" s="8"/>
+      <c r="E27" s="10"/>
       <c r="F27" t="s">
         <v>107</v>
       </c>
       <c r="G27">
         <v>75</v>
       </c>
-      <c r="H27" s="9"/>
+      <c r="H27" s="11"/>
       <c r="I27" t="s">
         <v>116</v>
       </c>
       <c r="J27" s="6">
         <v>8</v>
       </c>
-      <c r="K27" s="9"/>
+      <c r="K27" s="11"/>
       <c r="L27" t="s">
         <v>35</v>
       </c>
@@ -2088,28 +2105,28 @@
       </c>
     </row>
     <row r="28" spans="2:13">
-      <c r="B28" s="9"/>
+      <c r="B28" s="11"/>
       <c r="C28" t="s">
         <v>94</v>
       </c>
       <c r="D28">
         <v>16</v>
       </c>
-      <c r="E28" s="8"/>
+      <c r="E28" s="10"/>
       <c r="F28" t="s">
         <v>108</v>
       </c>
       <c r="G28">
         <v>266</v>
       </c>
-      <c r="H28" s="9"/>
+      <c r="H28" s="11"/>
       <c r="I28" t="s">
         <v>117</v>
       </c>
       <c r="J28" s="6">
         <v>3</v>
       </c>
-      <c r="K28" s="9"/>
+      <c r="K28" s="11"/>
       <c r="L28" t="s">
         <v>36</v>
       </c>
@@ -2118,28 +2135,28 @@
       </c>
     </row>
     <row r="29" spans="2:13">
-      <c r="B29" s="9"/>
+      <c r="B29" s="11"/>
       <c r="C29" t="s">
         <v>95</v>
       </c>
       <c r="D29">
         <v>18</v>
       </c>
-      <c r="E29" s="8"/>
+      <c r="E29" s="10"/>
       <c r="F29" t="s">
         <v>109</v>
       </c>
       <c r="G29">
         <v>71</v>
       </c>
-      <c r="H29" s="9"/>
+      <c r="H29" s="11"/>
       <c r="I29" t="s">
         <v>118</v>
       </c>
       <c r="J29" s="6">
         <v>12</v>
       </c>
-      <c r="K29" s="9"/>
+      <c r="K29" s="11"/>
       <c r="L29" t="s">
         <v>37</v>
       </c>
@@ -2148,21 +2165,21 @@
       </c>
     </row>
     <row r="30" spans="2:13">
-      <c r="B30" s="9"/>
+      <c r="B30" s="11"/>
       <c r="C30" t="s">
         <v>96</v>
       </c>
       <c r="D30">
         <v>15</v>
       </c>
-      <c r="H30" s="9"/>
+      <c r="H30" s="11"/>
       <c r="I30" t="s">
         <v>119</v>
       </c>
       <c r="J30" s="6">
         <v>3</v>
       </c>
-      <c r="K30" s="9"/>
+      <c r="K30" s="11"/>
       <c r="L30" t="s">
         <v>38</v>
       </c>
@@ -2171,21 +2188,21 @@
       </c>
     </row>
     <row r="31" spans="2:13">
-      <c r="B31" s="9"/>
+      <c r="B31" s="11"/>
       <c r="C31" t="s">
         <v>97</v>
       </c>
       <c r="D31">
         <v>17</v>
       </c>
-      <c r="H31" s="9"/>
+      <c r="H31" s="11"/>
       <c r="I31" t="s">
         <v>120</v>
       </c>
       <c r="J31" s="6">
         <v>6</v>
       </c>
-      <c r="K31" s="9"/>
+      <c r="K31" s="11"/>
       <c r="L31" t="s">
         <v>39</v>
       </c>
@@ -2194,21 +2211,21 @@
       </c>
     </row>
     <row r="32" spans="2:13">
-      <c r="B32" s="9"/>
+      <c r="B32" s="11"/>
       <c r="C32" t="s">
         <v>98</v>
       </c>
       <c r="D32">
         <v>44</v>
       </c>
-      <c r="H32" s="9"/>
+      <c r="H32" s="11"/>
       <c r="I32" t="s">
         <v>121</v>
       </c>
       <c r="J32" s="6">
         <v>2</v>
       </c>
-      <c r="K32" s="9"/>
+      <c r="K32" s="11"/>
       <c r="L32" s="5" t="s">
         <v>40</v>
       </c>
@@ -2217,21 +2234,21 @@
       </c>
     </row>
     <row r="33" spans="2:13">
-      <c r="B33" s="9"/>
+      <c r="B33" s="11"/>
       <c r="C33" t="s">
         <v>99</v>
       </c>
       <c r="D33">
         <v>43</v>
       </c>
-      <c r="H33" s="9"/>
+      <c r="H33" s="11"/>
       <c r="I33" t="s">
         <v>122</v>
       </c>
       <c r="J33" s="6">
         <v>4</v>
       </c>
-      <c r="K33" s="9"/>
+      <c r="K33" s="11"/>
       <c r="L33" t="s">
         <v>41</v>
       </c>
@@ -2240,21 +2257,21 @@
       </c>
     </row>
     <row r="34" spans="2:13">
-      <c r="B34" s="9"/>
+      <c r="B34" s="11"/>
       <c r="C34" t="s">
         <v>100</v>
       </c>
       <c r="D34">
         <v>28</v>
       </c>
-      <c r="H34" s="9"/>
+      <c r="H34" s="11"/>
       <c r="I34" t="s">
         <v>123</v>
       </c>
       <c r="J34" s="6">
         <v>8</v>
       </c>
-      <c r="K34" s="9"/>
+      <c r="K34" s="11"/>
       <c r="L34" t="s">
         <v>42</v>
       </c>
@@ -2263,7 +2280,16 @@
       </c>
     </row>
     <row r="35" spans="2:13">
-      <c r="K35" s="9"/>
+      <c r="H35" s="11">
+        <v>45898</v>
+      </c>
+      <c r="I35" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="J35" s="6">
+        <v>5</v>
+      </c>
+      <c r="K35" s="11"/>
       <c r="L35" t="s">
         <v>43</v>
       </c>
@@ -2272,7 +2298,14 @@
       </c>
     </row>
     <row r="36" spans="2:13">
-      <c r="K36" s="9"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="J36" s="6">
+        <v>15</v>
+      </c>
+      <c r="K36" s="11"/>
       <c r="L36" t="s">
         <v>44</v>
       </c>
@@ -2281,7 +2314,7 @@
       </c>
     </row>
     <row r="37" spans="2:13">
-      <c r="K37" s="9"/>
+      <c r="K37" s="11"/>
       <c r="L37" t="s">
         <v>45</v>
       </c>
@@ -2290,7 +2323,7 @@
       </c>
     </row>
     <row r="38" spans="2:13">
-      <c r="K38" s="9"/>
+      <c r="K38" s="11"/>
       <c r="L38" t="s">
         <v>46</v>
       </c>
@@ -2299,7 +2332,7 @@
       </c>
     </row>
     <row r="39" spans="2:13">
-      <c r="K39" s="9"/>
+      <c r="K39" s="11"/>
       <c r="L39" t="s">
         <v>47</v>
       </c>
@@ -2308,7 +2341,7 @@
       </c>
     </row>
     <row r="40" spans="2:13">
-      <c r="K40" s="9"/>
+      <c r="K40" s="11"/>
       <c r="L40" s="5" t="s">
         <v>48</v>
       </c>
@@ -2317,7 +2350,7 @@
       </c>
     </row>
     <row r="41" spans="2:13">
-      <c r="K41" s="9"/>
+      <c r="K41" s="11"/>
       <c r="L41" s="5" t="s">
         <v>49</v>
       </c>
@@ -2326,7 +2359,7 @@
       </c>
     </row>
     <row r="42" spans="2:13">
-      <c r="K42" s="9"/>
+      <c r="K42" s="11"/>
       <c r="L42" t="s">
         <v>50</v>
       </c>
@@ -2335,7 +2368,7 @@
       </c>
     </row>
     <row r="43" spans="2:13">
-      <c r="K43" s="9"/>
+      <c r="K43" s="11"/>
       <c r="L43" t="s">
         <v>51</v>
       </c>
@@ -2344,7 +2377,7 @@
       </c>
     </row>
     <row r="44" spans="2:13">
-      <c r="K44" s="9"/>
+      <c r="K44" s="11"/>
       <c r="L44" t="s">
         <v>52</v>
       </c>
@@ -2353,8 +2386,10 @@
       </c>
     </row>
     <row r="45" spans="2:13">
-      <c r="K45" s="9"/>
-      <c r="L45" s="10" t="s">
+      <c r="K45" s="11">
+        <v>45898</v>
+      </c>
+      <c r="L45" s="7" t="s">
         <v>124</v>
       </c>
       <c r="M45">
@@ -2362,8 +2397,8 @@
       </c>
     </row>
     <row r="46" spans="2:13">
-      <c r="K46" s="9"/>
-      <c r="L46" s="10" t="s">
+      <c r="K46" s="11"/>
+      <c r="L46" s="7" t="s">
         <v>125</v>
       </c>
       <c r="M46">
@@ -2371,6 +2406,7 @@
       </c>
     </row>
     <row r="47" spans="2:13">
+      <c r="K47" s="11"/>
       <c r="L47" t="s">
         <v>126</v>
       </c>
@@ -2379,6 +2415,7 @@
       </c>
     </row>
     <row r="48" spans="2:13">
+      <c r="K48" s="11"/>
       <c r="L48" t="s">
         <v>127</v>
       </c>
@@ -2386,7 +2423,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="49" spans="12:13">
+    <row r="49" spans="11:13">
+      <c r="K49" s="11"/>
       <c r="L49" t="s">
         <v>128</v>
       </c>
@@ -2394,7 +2432,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="12:13">
+    <row r="50" spans="11:13">
+      <c r="K50" s="11"/>
       <c r="L50" t="s">
         <v>129</v>
       </c>
@@ -2402,7 +2441,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="12:13">
+    <row r="51" spans="11:13">
+      <c r="K51" s="11"/>
       <c r="L51" t="s">
         <v>130</v>
       </c>
@@ -2410,7 +2450,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="12:13">
+    <row r="52" spans="11:13">
+      <c r="K52" s="11"/>
       <c r="L52" t="s">
         <v>131</v>
       </c>
@@ -2418,15 +2459,17 @@
         <v>41</v>
       </c>
     </row>
-    <row r="53" spans="12:13">
-      <c r="L53" s="11" t="s">
+    <row r="53" spans="11:13">
+      <c r="K53" s="11"/>
+      <c r="L53" s="8" t="s">
         <v>132</v>
       </c>
       <c r="M53">
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="12:13">
+    <row r="54" spans="11:13">
+      <c r="K54" s="11"/>
       <c r="L54" t="s">
         <v>133</v>
       </c>
@@ -2434,7 +2477,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="12:13">
+    <row r="55" spans="11:13">
+      <c r="K55" s="11"/>
       <c r="L55" t="s">
         <v>134</v>
       </c>
@@ -2442,7 +2486,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="12:13">
+    <row r="56" spans="11:13">
+      <c r="K56" s="11"/>
       <c r="L56" t="s">
         <v>135</v>
       </c>
@@ -2450,7 +2495,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="12:13">
+    <row r="57" spans="11:13">
+      <c r="K57" s="11"/>
       <c r="L57" t="s">
         <v>136</v>
       </c>
@@ -2458,7 +2504,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="12:13">
+    <row r="58" spans="11:13">
+      <c r="K58" s="11"/>
       <c r="L58" t="s">
         <v>137</v>
       </c>
@@ -2466,7 +2513,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="12:13">
+    <row r="59" spans="11:13">
+      <c r="K59" s="11"/>
       <c r="L59" t="s">
         <v>138</v>
       </c>
@@ -2474,7 +2522,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="12:13">
+    <row r="60" spans="11:13">
+      <c r="K60" s="11"/>
       <c r="L60" t="s">
         <v>139</v>
       </c>
@@ -2482,7 +2531,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="61" spans="12:13">
+    <row r="61" spans="11:13">
+      <c r="K61" s="11"/>
       <c r="L61" t="s">
         <v>140</v>
       </c>
@@ -2490,7 +2540,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="62" spans="12:13">
+    <row r="62" spans="11:13">
+      <c r="K62" s="11"/>
       <c r="L62" t="s">
         <v>141</v>
       </c>
@@ -2498,7 +2549,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="12:13">
+    <row r="63" spans="11:13">
+      <c r="K63" s="11"/>
       <c r="L63" t="s">
         <v>142</v>
       </c>
@@ -2506,7 +2558,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="12:13">
+    <row r="64" spans="11:13">
+      <c r="K64" s="11"/>
       <c r="L64" t="s">
         <v>143</v>
       </c>
@@ -2514,7 +2567,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="12:13">
+    <row r="65" spans="11:13">
+      <c r="K65" s="11"/>
       <c r="L65" t="s">
         <v>144</v>
       </c>
@@ -2522,7 +2576,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="12:13">
+    <row r="66" spans="11:13">
+      <c r="K66" s="11"/>
       <c r="L66" t="s">
         <v>145</v>
       </c>
@@ -2530,7 +2585,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="12:13">
+    <row r="67" spans="11:13">
+      <c r="K67" s="11"/>
       <c r="L67" t="s">
         <v>146</v>
       </c>
@@ -2538,7 +2594,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="12:13">
+    <row r="68" spans="11:13">
+      <c r="K68" s="11"/>
       <c r="L68" t="s">
         <v>147</v>
       </c>
@@ -2546,7 +2603,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="69" spans="12:13">
+    <row r="69" spans="11:13">
+      <c r="K69" s="11"/>
       <c r="L69" t="s">
         <v>148</v>
       </c>
@@ -2554,7 +2612,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="12:13">
+    <row r="70" spans="11:13">
+      <c r="K70" s="11"/>
       <c r="L70" t="s">
         <v>149</v>
       </c>
@@ -2562,7 +2621,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="12:13">
+    <row r="71" spans="11:13">
+      <c r="K71" s="11"/>
       <c r="L71" t="s">
         <v>150</v>
       </c>
@@ -2570,7 +2630,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="12:13">
+    <row r="72" spans="11:13">
+      <c r="K72" s="11"/>
       <c r="L72" t="s">
         <v>151</v>
       </c>
@@ -2578,7 +2639,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="12:13">
+    <row r="73" spans="11:13">
+      <c r="K73" s="11"/>
       <c r="L73" t="s">
         <v>152</v>
       </c>
@@ -2586,7 +2648,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="74" spans="12:13">
+    <row r="74" spans="11:13">
+      <c r="K74" s="11"/>
       <c r="L74" t="s">
         <v>153</v>
       </c>
@@ -2594,7 +2657,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="75" spans="12:13">
+    <row r="75" spans="11:13">
+      <c r="K75" s="11"/>
       <c r="L75" t="s">
         <v>154</v>
       </c>
@@ -2602,7 +2666,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="76" spans="12:13">
+    <row r="76" spans="11:13">
+      <c r="K76" s="11"/>
       <c r="L76" t="s">
         <v>155</v>
       </c>
@@ -2610,7 +2675,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="12:13">
+    <row r="77" spans="11:13">
+      <c r="K77" s="11"/>
       <c r="L77" t="s">
         <v>156</v>
       </c>
@@ -2618,7 +2684,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="12:13">
+    <row r="78" spans="11:13">
+      <c r="K78" s="11"/>
       <c r="L78" t="s">
         <v>157</v>
       </c>
@@ -2626,7 +2693,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="79" spans="12:13">
+    <row r="79" spans="11:13">
+      <c r="K79" s="11"/>
       <c r="L79" t="s">
         <v>158</v>
       </c>
@@ -2634,7 +2702,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="12:13">
+    <row r="80" spans="11:13">
+      <c r="K80" s="11"/>
       <c r="L80" t="s">
         <v>159</v>
       </c>
@@ -2642,15 +2711,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="12:13">
-      <c r="L81" s="11" t="s">
+    <row r="81" spans="11:13">
+      <c r="K81" s="11"/>
+      <c r="L81" s="8" t="s">
         <v>160</v>
       </c>
       <c r="M81">
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="12:13">
+    <row r="82" spans="11:13">
+      <c r="K82" s="11"/>
       <c r="L82" t="s">
         <v>161</v>
       </c>
@@ -2658,7 +2729,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="12:13">
+    <row r="83" spans="11:13">
+      <c r="K83" s="11"/>
       <c r="L83" t="s">
         <v>162</v>
       </c>
@@ -2666,7 +2738,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="12:13">
+    <row r="84" spans="11:13">
+      <c r="K84" s="11"/>
       <c r="L84" t="s">
         <v>163</v>
       </c>
@@ -2674,7 +2747,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="12:13">
+    <row r="85" spans="11:13">
+      <c r="K85" s="11"/>
       <c r="L85" t="s">
         <v>164</v>
       </c>
@@ -2682,7 +2756,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="86" spans="12:13">
+    <row r="86" spans="11:13">
+      <c r="K86" s="11"/>
       <c r="L86" t="s">
         <v>165</v>
       </c>
@@ -2690,7 +2765,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="12:13">
+    <row r="87" spans="11:13">
+      <c r="K87" s="11"/>
       <c r="L87" t="s">
         <v>166</v>
       </c>
@@ -2698,7 +2774,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="12:13">
+    <row r="88" spans="11:13">
+      <c r="K88" s="11"/>
       <c r="L88" t="s">
         <v>167</v>
       </c>
@@ -2706,7 +2783,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="12:13">
+    <row r="89" spans="11:13">
+      <c r="K89" s="11"/>
       <c r="L89" t="s">
         <v>168</v>
       </c>
@@ -2714,7 +2792,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="12:13">
+    <row r="90" spans="11:13">
+      <c r="K90" s="11"/>
       <c r="L90" t="s">
         <v>169</v>
       </c>
@@ -2722,7 +2801,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="12:13">
+    <row r="91" spans="11:13">
+      <c r="K91" s="11"/>
       <c r="L91" t="s">
         <v>170</v>
       </c>
@@ -2730,7 +2810,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="12:13">
+    <row r="92" spans="11:13">
+      <c r="K92" s="11"/>
       <c r="L92" t="s">
         <v>171</v>
       </c>
@@ -2738,7 +2819,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="12:13">
+    <row r="93" spans="11:13">
+      <c r="K93" s="11"/>
       <c r="L93" t="s">
         <v>172</v>
       </c>
@@ -2746,7 +2828,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="12:13">
+    <row r="94" spans="11:13">
+      <c r="K94" s="11"/>
       <c r="L94" t="s">
         <v>173</v>
       </c>
@@ -2754,7 +2837,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="12:13">
+    <row r="95" spans="11:13">
+      <c r="K95" s="11"/>
       <c r="L95" t="s">
         <v>174</v>
       </c>
@@ -2762,7 +2846,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="12:13">
+    <row r="96" spans="11:13">
+      <c r="K96" s="11"/>
       <c r="L96" t="s">
         <v>175</v>
       </c>
@@ -2770,7 +2855,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="12:13">
+    <row r="97" spans="11:13">
+      <c r="K97" s="11"/>
       <c r="L97" t="s">
         <v>176</v>
       </c>
@@ -2778,7 +2864,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="12:13">
+    <row r="98" spans="11:13">
+      <c r="K98" s="11"/>
       <c r="L98" t="s">
         <v>177</v>
       </c>
@@ -2786,7 +2873,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="99" spans="12:13">
+    <row r="99" spans="11:13">
+      <c r="K99" s="11"/>
       <c r="L99" t="s">
         <v>178</v>
       </c>
@@ -2794,7 +2882,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="12:13">
+    <row r="100" spans="11:13">
+      <c r="K100" s="11"/>
       <c r="L100" t="s">
         <v>179</v>
       </c>
@@ -2802,7 +2891,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="12:13">
+    <row r="101" spans="11:13">
+      <c r="K101" s="11"/>
       <c r="L101" t="s">
         <v>180</v>
       </c>
@@ -2810,7 +2900,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="102" spans="12:13">
+    <row r="102" spans="11:13">
+      <c r="K102" s="11"/>
       <c r="L102" t="s">
         <v>181</v>
       </c>
@@ -2818,7 +2909,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="12:13">
+    <row r="103" spans="11:13">
+      <c r="K103" s="11"/>
       <c r="L103" t="s">
         <v>182</v>
       </c>
@@ -2826,7 +2918,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="104" spans="12:13">
+    <row r="104" spans="11:13">
+      <c r="K104" s="11"/>
       <c r="L104" t="s">
         <v>183</v>
       </c>
@@ -2834,7 +2927,8 @@
         <v>64</v>
       </c>
     </row>
-    <row r="105" spans="12:13">
+    <row r="105" spans="11:13">
+      <c r="K105" s="11"/>
       <c r="L105" t="s">
         <v>184</v>
       </c>
@@ -2842,7 +2936,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="106" spans="12:13">
+    <row r="106" spans="11:13">
+      <c r="K106" s="11"/>
       <c r="L106" t="s">
         <v>185</v>
       </c>
@@ -2850,7 +2945,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="107" spans="12:13">
+    <row r="107" spans="11:13">
+      <c r="K107" s="11"/>
       <c r="L107" t="s">
         <v>186</v>
       </c>
@@ -2858,7 +2954,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="108" spans="12:13">
+    <row r="108" spans="11:13">
+      <c r="K108" s="11"/>
       <c r="L108" t="s">
         <v>187</v>
       </c>
@@ -2866,7 +2963,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="109" spans="12:13">
+    <row r="109" spans="11:13">
+      <c r="K109" s="11"/>
       <c r="L109" t="s">
         <v>188</v>
       </c>
@@ -2874,7 +2972,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="110" spans="12:13">
+    <row r="110" spans="11:13">
+      <c r="K110" s="11"/>
       <c r="L110" t="s">
         <v>189</v>
       </c>
@@ -2882,7 +2981,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="111" spans="12:13">
+    <row r="111" spans="11:13">
+      <c r="K111" s="11"/>
       <c r="L111" t="s">
         <v>190</v>
       </c>
@@ -2890,7 +2990,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="112" spans="12:13">
+    <row r="112" spans="11:13">
+      <c r="K112" s="11"/>
       <c r="L112" t="s">
         <v>191</v>
       </c>
@@ -2898,7 +2999,8 @@
         <v>129</v>
       </c>
     </row>
-    <row r="113" spans="12:13">
+    <row r="113" spans="11:13">
+      <c r="K113" s="11"/>
       <c r="L113" t="s">
         <v>192</v>
       </c>
@@ -2906,7 +3008,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="114" spans="12:13">
+    <row r="114" spans="11:13">
+      <c r="K114" s="11"/>
       <c r="L114" t="s">
         <v>193</v>
       </c>
@@ -2914,7 +3017,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="115" spans="12:13">
+    <row r="115" spans="11:13">
+      <c r="K115" s="11"/>
       <c r="L115" t="s">
         <v>194</v>
       </c>
@@ -2922,7 +3026,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="12:13">
+    <row r="116" spans="11:13">
+      <c r="K116" s="11"/>
       <c r="L116" t="s">
         <v>195</v>
       </c>
@@ -2930,7 +3035,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="117" spans="12:13">
+    <row r="117" spans="11:13">
+      <c r="K117" s="11"/>
       <c r="L117" t="s">
         <v>196</v>
       </c>
@@ -2938,7 +3044,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="118" spans="12:13">
+    <row r="118" spans="11:13">
+      <c r="K118" s="11"/>
       <c r="L118" t="s">
         <v>197</v>
       </c>
@@ -2946,7 +3053,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="119" spans="12:13">
+    <row r="119" spans="11:13">
+      <c r="K119" s="11"/>
       <c r="L119" t="s">
         <v>198</v>
       </c>
@@ -2954,7 +3062,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="120" spans="12:13">
+    <row r="120" spans="11:13">
+      <c r="K120" s="11"/>
       <c r="L120" t="s">
         <v>199</v>
       </c>
@@ -2962,7 +3071,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="121" spans="12:13">
+    <row r="121" spans="11:13">
+      <c r="K121" s="11"/>
       <c r="L121" t="s">
         <v>200</v>
       </c>
@@ -2970,7 +3080,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="122" spans="12:13">
+    <row r="122" spans="11:13">
+      <c r="K122" s="11"/>
       <c r="L122" t="s">
         <v>201</v>
       </c>
@@ -2978,7 +3089,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="123" spans="12:13">
+    <row r="123" spans="11:13">
+      <c r="K123" s="11"/>
       <c r="L123" t="s">
         <v>202</v>
       </c>
@@ -2986,7 +3098,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="124" spans="12:13">
+    <row r="124" spans="11:13">
+      <c r="K124" s="11"/>
       <c r="L124" t="s">
         <v>203</v>
       </c>
@@ -2994,7 +3107,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="125" spans="12:13">
+    <row r="125" spans="11:13">
+      <c r="K125" s="11"/>
       <c r="L125" t="s">
         <v>204</v>
       </c>
@@ -3002,7 +3116,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="126" spans="12:13">
+    <row r="126" spans="11:13">
+      <c r="K126" s="11"/>
       <c r="L126" t="s">
         <v>205</v>
       </c>
@@ -3010,7 +3125,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="127" spans="12:13">
+    <row r="127" spans="11:13">
+      <c r="K127" s="11"/>
       <c r="L127" t="s">
         <v>206</v>
       </c>
@@ -3018,7 +3134,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="128" spans="12:13">
+    <row r="128" spans="11:13">
+      <c r="K128" s="11"/>
       <c r="L128" t="s">
         <v>207</v>
       </c>
@@ -3026,7 +3143,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="129" spans="12:13">
+    <row r="129" spans="11:13">
+      <c r="K129" s="11"/>
       <c r="L129" t="s">
         <v>208</v>
       </c>
@@ -3034,7 +3152,8 @@
         <v>65</v>
       </c>
     </row>
-    <row r="130" spans="12:13">
+    <row r="130" spans="11:13">
+      <c r="K130" s="11"/>
       <c r="L130" t="s">
         <v>209</v>
       </c>
@@ -3042,7 +3161,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="131" spans="12:13">
+    <row r="131" spans="11:13">
+      <c r="K131" s="11"/>
       <c r="L131" t="s">
         <v>210</v>
       </c>
@@ -3050,7 +3170,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="132" spans="12:13">
+    <row r="132" spans="11:13">
+      <c r="K132" s="11"/>
       <c r="L132" t="s">
         <v>211</v>
       </c>
@@ -3058,7 +3179,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="133" spans="12:13">
+    <row r="133" spans="11:13">
+      <c r="K133" s="11"/>
       <c r="L133" t="s">
         <v>212</v>
       </c>
@@ -3066,7 +3188,8 @@
         <v>55</v>
       </c>
     </row>
-    <row r="134" spans="12:13">
+    <row r="134" spans="11:13">
+      <c r="K134" s="11"/>
       <c r="L134" t="s">
         <v>213</v>
       </c>
@@ -3074,7 +3197,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="135" spans="12:13">
+    <row r="135" spans="11:13">
+      <c r="K135" s="11"/>
       <c r="L135" t="s">
         <v>214</v>
       </c>
@@ -3082,7 +3206,8 @@
         <v>66</v>
       </c>
     </row>
-    <row r="136" spans="12:13">
+    <row r="136" spans="11:13">
+      <c r="K136" s="11"/>
       <c r="L136" t="s">
         <v>215</v>
       </c>
@@ -3090,7 +3215,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="137" spans="12:13">
+    <row r="137" spans="11:13">
+      <c r="K137" s="11"/>
       <c r="L137" t="s">
         <v>216</v>
       </c>
@@ -3098,7 +3224,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="138" spans="12:13">
+    <row r="138" spans="11:13">
+      <c r="K138" s="11"/>
       <c r="L138" t="s">
         <v>217</v>
       </c>
@@ -3106,7 +3233,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="139" spans="12:13">
+    <row r="139" spans="11:13">
+      <c r="K139" s="11"/>
       <c r="L139" t="s">
         <v>218</v>
       </c>
@@ -3114,7 +3242,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="140" spans="12:13">
+    <row r="140" spans="11:13">
+      <c r="K140" s="11"/>
       <c r="L140" t="s">
         <v>219</v>
       </c>
@@ -3122,7 +3251,8 @@
         <v>67</v>
       </c>
     </row>
-    <row r="141" spans="12:13">
+    <row r="141" spans="11:13">
+      <c r="K141" s="11"/>
       <c r="L141" t="s">
         <v>220</v>
       </c>
@@ -3130,7 +3260,8 @@
         <v>114</v>
       </c>
     </row>
-    <row r="142" spans="12:13">
+    <row r="142" spans="11:13">
+      <c r="K142" s="11"/>
       <c r="L142" t="s">
         <v>221</v>
       </c>
@@ -3138,7 +3269,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="143" spans="12:13">
+    <row r="143" spans="11:13">
+      <c r="K143" s="11"/>
       <c r="L143" t="s">
         <v>222</v>
       </c>
@@ -3146,7 +3278,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="144" spans="12:13">
+    <row r="144" spans="11:13">
+      <c r="K144" s="11"/>
       <c r="L144" t="s">
         <v>223</v>
       </c>
@@ -3154,7 +3287,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="145" spans="12:13">
+    <row r="145" spans="11:13">
+      <c r="K145" s="11"/>
       <c r="L145" t="s">
         <v>224</v>
       </c>
@@ -3162,7 +3296,8 @@
         <v>79</v>
       </c>
     </row>
-    <row r="146" spans="12:13">
+    <row r="146" spans="11:13">
+      <c r="K146" s="11"/>
       <c r="L146" t="s">
         <v>225</v>
       </c>
@@ -3170,7 +3305,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="147" spans="12:13">
+    <row r="147" spans="11:13">
+      <c r="K147" s="11"/>
       <c r="L147" t="s">
         <v>226</v>
       </c>
@@ -3179,17 +3315,19 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="12">
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="H5:J5"/>
     <mergeCell ref="K5:M5"/>
-    <mergeCell ref="K8:K46"/>
     <mergeCell ref="B9:B17"/>
     <mergeCell ref="H10:H20"/>
     <mergeCell ref="B18:B34"/>
     <mergeCell ref="H21:H34"/>
     <mergeCell ref="E21:E29"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="K8:K44"/>
+    <mergeCell ref="K45:K147"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Raport.xlsx
+++ b/Raport.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dominik\Desktop\zrobione na nowo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dominik\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{263BB067-3F14-4332-9984-32EA36AF03A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E681275F-531E-43CD-89AE-59F11BDC0B6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="237">
   <si>
     <t>Liczba członków zespołu</t>
   </si>
@@ -719,18 +719,50 @@
   </si>
   <si>
     <t>Dodanie komentarzy do pliku UzytkownicyController.cs</t>
+  </si>
+  <si>
+    <t>Dodanie komentarzy do pliku Program.cs</t>
+  </si>
+  <si>
+    <t>Dodanie komentarzy do pliku AdresyController.cs</t>
+  </si>
+  <si>
+    <t>Dodanie komentarzy do pliku AlergenyController.cs</t>
+  </si>
+  <si>
+    <t>Dodanie komentarzy do pliku KategorieController.cs</t>
+  </si>
+  <si>
+    <t>Dodanie komentarzy do pliku PozycjeMenuController.cs</t>
+  </si>
+  <si>
+    <t>Dodanie komentarzy do pliku PozycjeZamowieniaController.cs</t>
+  </si>
+  <si>
+    <t>Dodanie komentarzy do pliku ZamowieniaController.cs</t>
+  </si>
+  <si>
+    <t>Dodanie komentarzy do pliku dtoMapper.cs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -804,14 +836,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -820,11 +852,14 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1332,8 +1367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H82" sqref="H82"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37:H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -1344,7 +1379,7 @@
     <col min="4" max="5" width="12.5703125" customWidth="1"/>
     <col min="6" max="6" width="37" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="12.5703125" customWidth="1"/>
-    <col min="9" max="9" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="59.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="12.5703125" customWidth="1"/>
     <col min="12" max="12" width="41.28515625" customWidth="1"/>
     <col min="13" max="13" width="12.5703125" customWidth="1"/>
@@ -1378,7 +1413,7 @@
       </c>
       <c r="J3">
         <f>SUM(J7:J1001)</f>
-        <v>670</v>
+        <v>748</v>
       </c>
       <c r="M3">
         <f>SUM(M7:M1001)</f>
@@ -1392,42 +1427,42 @@
       <c r="B4" s="1"/>
       <c r="D4">
         <f>($B$2*D$3)/SUM($D$3:$AK$3)</f>
-        <v>0.77553479963844529</v>
+        <v>0.76652769505658125</v>
       </c>
       <c r="G4">
         <f>($B$2*G$3)/SUM($D$3:$AK$3)</f>
-        <v>0.92738776739981921</v>
+        <v>0.91661703394877903</v>
       </c>
       <c r="J4">
         <f>($B$2*J$3)/SUM($D$3:$AK$3)</f>
-        <v>0.40373606507984333</v>
+        <v>0.44550327575938059</v>
       </c>
       <c r="M4">
         <f>($B$2*M$3)/SUM($D$3:$AK$3)</f>
-        <v>1.8933413678818922</v>
+        <v>1.8713519952352591</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10" t="s">
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10" t="s">
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10" t="s">
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
     </row>
     <row r="6" spans="1:13">
       <c r="B6" t="s">
@@ -1533,7 +1568,7 @@
       <c r="J8">
         <v>100</v>
       </c>
-      <c r="K8" s="11">
+      <c r="K8" s="12">
         <v>45772</v>
       </c>
       <c r="L8" t="s">
@@ -1544,7 +1579,7 @@
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="B9" s="11">
+      <c r="B9" s="12">
         <v>45785</v>
       </c>
       <c r="C9" t="s">
@@ -1571,7 +1606,7 @@
       <c r="J9">
         <v>118</v>
       </c>
-      <c r="K9" s="11"/>
+      <c r="K9" s="12"/>
       <c r="L9" s="5" t="s">
         <v>17</v>
       </c>
@@ -1580,7 +1615,7 @@
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="B10" s="11"/>
+      <c r="B10" s="12"/>
       <c r="C10" t="s">
         <v>64</v>
       </c>
@@ -1593,7 +1628,7 @@
       <c r="G10">
         <v>57</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" s="12">
         <v>45803</v>
       </c>
       <c r="I10" t="s">
@@ -1602,7 +1637,7 @@
       <c r="J10">
         <v>70</v>
       </c>
-      <c r="K10" s="11"/>
+      <c r="K10" s="12"/>
       <c r="L10" t="s">
         <v>18</v>
       </c>
@@ -1611,7 +1646,7 @@
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="B11" s="11"/>
+      <c r="B11" s="12"/>
       <c r="C11" t="s">
         <v>65</v>
       </c>
@@ -1624,14 +1659,14 @@
       <c r="G11">
         <v>59</v>
       </c>
-      <c r="H11" s="11"/>
+      <c r="H11" s="12"/>
       <c r="I11" t="s">
         <v>75</v>
       </c>
       <c r="J11">
         <v>23</v>
       </c>
-      <c r="K11" s="11"/>
+      <c r="K11" s="12"/>
       <c r="L11" t="s">
         <v>19</v>
       </c>
@@ -1640,7 +1675,7 @@
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="B12" s="11"/>
+      <c r="B12" s="12"/>
       <c r="C12" t="s">
         <v>66</v>
       </c>
@@ -1653,14 +1688,14 @@
       <c r="G12">
         <v>58</v>
       </c>
-      <c r="H12" s="11"/>
+      <c r="H12" s="12"/>
       <c r="I12" t="s">
         <v>77</v>
       </c>
       <c r="J12">
         <v>23</v>
       </c>
-      <c r="K12" s="11"/>
+      <c r="K12" s="12"/>
       <c r="L12" t="s">
         <v>20</v>
       </c>
@@ -1669,7 +1704,7 @@
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="B13" s="11"/>
+      <c r="B13" s="12"/>
       <c r="C13" t="s">
         <v>67</v>
       </c>
@@ -1682,14 +1717,14 @@
       <c r="G13">
         <v>57</v>
       </c>
-      <c r="H13" s="11"/>
+      <c r="H13" s="12"/>
       <c r="I13" t="s">
         <v>76</v>
       </c>
       <c r="J13">
         <v>27</v>
       </c>
-      <c r="K13" s="11"/>
+      <c r="K13" s="12"/>
       <c r="L13" s="5" t="s">
         <v>21</v>
       </c>
@@ -1698,7 +1733,7 @@
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="B14" s="11"/>
+      <c r="B14" s="12"/>
       <c r="C14" t="s">
         <v>68</v>
       </c>
@@ -1711,14 +1746,14 @@
       <c r="G14">
         <v>61</v>
       </c>
-      <c r="H14" s="11"/>
+      <c r="H14" s="12"/>
       <c r="I14" t="s">
         <v>74</v>
       </c>
       <c r="J14">
         <v>24</v>
       </c>
-      <c r="K14" s="11"/>
+      <c r="K14" s="12"/>
       <c r="L14" t="s">
         <v>22</v>
       </c>
@@ -1727,7 +1762,7 @@
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="B15" s="11"/>
+      <c r="B15" s="12"/>
       <c r="C15" t="s">
         <v>69</v>
       </c>
@@ -1740,14 +1775,14 @@
       <c r="G15">
         <v>60</v>
       </c>
-      <c r="H15" s="11"/>
+      <c r="H15" s="12"/>
       <c r="I15" t="s">
         <v>78</v>
       </c>
       <c r="J15">
         <v>27</v>
       </c>
-      <c r="K15" s="11"/>
+      <c r="K15" s="12"/>
       <c r="L15" s="5" t="s">
         <v>23</v>
       </c>
@@ -1756,7 +1791,7 @@
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="B16" s="11"/>
+      <c r="B16" s="12"/>
       <c r="C16" t="s">
         <v>70</v>
       </c>
@@ -1769,14 +1804,14 @@
       <c r="G16">
         <v>16</v>
       </c>
-      <c r="H16" s="11"/>
+      <c r="H16" s="12"/>
       <c r="I16" t="s">
         <v>79</v>
       </c>
       <c r="J16">
         <v>27</v>
       </c>
-      <c r="K16" s="11"/>
+      <c r="K16" s="12"/>
       <c r="L16" t="s">
         <v>24</v>
       </c>
@@ -1785,7 +1820,7 @@
       </c>
     </row>
     <row r="17" spans="2:13">
-      <c r="B17" s="11"/>
+      <c r="B17" s="12"/>
       <c r="C17" t="s">
         <v>71</v>
       </c>
@@ -1798,14 +1833,14 @@
       <c r="G17">
         <v>59</v>
       </c>
-      <c r="H17" s="11"/>
+      <c r="H17" s="12"/>
       <c r="I17" t="s">
         <v>80</v>
       </c>
       <c r="J17">
         <v>27</v>
       </c>
-      <c r="K17" s="11"/>
+      <c r="K17" s="12"/>
       <c r="L17" t="s">
         <v>25</v>
       </c>
@@ -1814,7 +1849,7 @@
       </c>
     </row>
     <row r="18" spans="2:13">
-      <c r="B18" s="11">
+      <c r="B18" s="12">
         <v>45803</v>
       </c>
       <c r="C18" t="s">
@@ -1829,14 +1864,14 @@
       <c r="G18">
         <v>64</v>
       </c>
-      <c r="H18" s="11"/>
+      <c r="H18" s="12"/>
       <c r="I18" t="s">
         <v>81</v>
       </c>
       <c r="J18">
         <v>27</v>
       </c>
-      <c r="K18" s="11"/>
+      <c r="K18" s="12"/>
       <c r="L18" t="s">
         <v>26</v>
       </c>
@@ -1845,21 +1880,21 @@
       </c>
     </row>
     <row r="19" spans="2:13">
-      <c r="B19" s="11"/>
+      <c r="B19" s="12"/>
       <c r="C19" t="s">
         <v>85</v>
       </c>
       <c r="D19">
         <v>144</v>
       </c>
-      <c r="H19" s="11"/>
+      <c r="H19" s="12"/>
       <c r="I19" t="s">
         <v>82</v>
       </c>
       <c r="J19">
         <v>28</v>
       </c>
-      <c r="K19" s="11"/>
+      <c r="K19" s="12"/>
       <c r="L19" t="s">
         <v>27</v>
       </c>
@@ -1868,21 +1903,21 @@
       </c>
     </row>
     <row r="20" spans="2:13">
-      <c r="B20" s="11"/>
+      <c r="B20" s="12"/>
       <c r="C20" t="s">
         <v>86</v>
       </c>
       <c r="D20">
         <v>164</v>
       </c>
-      <c r="H20" s="11"/>
+      <c r="H20" s="12"/>
       <c r="I20" t="s">
         <v>83</v>
       </c>
       <c r="J20">
         <v>34</v>
       </c>
-      <c r="K20" s="11"/>
+      <c r="K20" s="12"/>
       <c r="L20" t="s">
         <v>28</v>
       </c>
@@ -1891,14 +1926,14 @@
       </c>
     </row>
     <row r="21" spans="2:13">
-      <c r="B21" s="11"/>
+      <c r="B21" s="12"/>
       <c r="C21" t="s">
         <v>87</v>
       </c>
       <c r="D21">
         <v>58</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="12">
         <v>45804</v>
       </c>
       <c r="F21" t="s">
@@ -1907,7 +1942,7 @@
       <c r="G21">
         <v>81</v>
       </c>
-      <c r="H21" s="11">
+      <c r="H21" s="12">
         <v>45817</v>
       </c>
       <c r="I21" t="s">
@@ -1916,7 +1951,7 @@
       <c r="J21" s="6">
         <v>3</v>
       </c>
-      <c r="K21" s="11"/>
+      <c r="K21" s="12"/>
       <c r="L21" t="s">
         <v>29</v>
       </c>
@@ -1925,28 +1960,28 @@
       </c>
     </row>
     <row r="22" spans="2:13">
-      <c r="B22" s="11"/>
+      <c r="B22" s="12"/>
       <c r="C22" t="s">
         <v>88</v>
       </c>
       <c r="D22">
         <v>92</v>
       </c>
-      <c r="E22" s="10"/>
+      <c r="E22" s="11"/>
       <c r="F22" t="s">
         <v>102</v>
       </c>
       <c r="G22">
         <v>69</v>
       </c>
-      <c r="H22" s="11"/>
+      <c r="H22" s="12"/>
       <c r="I22" t="s">
         <v>111</v>
       </c>
       <c r="J22" s="6">
         <v>6</v>
       </c>
-      <c r="K22" s="11"/>
+      <c r="K22" s="12"/>
       <c r="L22" t="s">
         <v>30</v>
       </c>
@@ -1955,28 +1990,28 @@
       </c>
     </row>
     <row r="23" spans="2:13">
-      <c r="B23" s="11"/>
+      <c r="B23" s="12"/>
       <c r="C23" t="s">
         <v>89</v>
       </c>
       <c r="D23">
         <v>64</v>
       </c>
-      <c r="E23" s="10"/>
+      <c r="E23" s="11"/>
       <c r="F23" t="s">
         <v>103</v>
       </c>
       <c r="G23">
         <v>75</v>
       </c>
-      <c r="H23" s="11"/>
+      <c r="H23" s="12"/>
       <c r="I23" t="s">
         <v>112</v>
       </c>
       <c r="J23" s="6">
         <v>3</v>
       </c>
-      <c r="K23" s="11"/>
+      <c r="K23" s="12"/>
       <c r="L23" t="s">
         <v>31</v>
       </c>
@@ -1985,28 +2020,28 @@
       </c>
     </row>
     <row r="24" spans="2:13">
-      <c r="B24" s="11"/>
+      <c r="B24" s="12"/>
       <c r="C24" t="s">
         <v>90</v>
       </c>
       <c r="D24">
         <v>20</v>
       </c>
-      <c r="E24" s="10"/>
+      <c r="E24" s="11"/>
       <c r="F24" t="s">
         <v>104</v>
       </c>
       <c r="G24">
         <v>126</v>
       </c>
-      <c r="H24" s="11"/>
+      <c r="H24" s="12"/>
       <c r="I24" t="s">
         <v>113</v>
       </c>
       <c r="J24" s="6">
         <v>6</v>
       </c>
-      <c r="K24" s="11"/>
+      <c r="K24" s="12"/>
       <c r="L24" t="s">
         <v>32</v>
       </c>
@@ -2015,28 +2050,28 @@
       </c>
     </row>
     <row r="25" spans="2:13">
-      <c r="B25" s="11"/>
+      <c r="B25" s="12"/>
       <c r="C25" t="s">
         <v>91</v>
       </c>
       <c r="D25">
         <v>57</v>
       </c>
-      <c r="E25" s="10"/>
+      <c r="E25" s="11"/>
       <c r="F25" t="s">
         <v>105</v>
       </c>
       <c r="G25">
         <v>65</v>
       </c>
-      <c r="H25" s="11"/>
+      <c r="H25" s="12"/>
       <c r="I25" t="s">
         <v>114</v>
       </c>
       <c r="J25" s="6">
         <v>4</v>
       </c>
-      <c r="K25" s="11"/>
+      <c r="K25" s="12"/>
       <c r="L25" t="s">
         <v>33</v>
       </c>
@@ -2045,28 +2080,28 @@
       </c>
     </row>
     <row r="26" spans="2:13">
-      <c r="B26" s="11"/>
+      <c r="B26" s="12"/>
       <c r="C26" t="s">
         <v>92</v>
       </c>
       <c r="D26">
         <v>28</v>
       </c>
-      <c r="E26" s="10"/>
+      <c r="E26" s="11"/>
       <c r="F26" t="s">
         <v>106</v>
       </c>
       <c r="G26">
         <v>82</v>
       </c>
-      <c r="H26" s="11"/>
+      <c r="H26" s="12"/>
       <c r="I26" t="s">
         <v>115</v>
       </c>
       <c r="J26" s="6">
         <v>2</v>
       </c>
-      <c r="K26" s="11"/>
+      <c r="K26" s="12"/>
       <c r="L26" t="s">
         <v>34</v>
       </c>
@@ -2075,28 +2110,28 @@
       </c>
     </row>
     <row r="27" spans="2:13">
-      <c r="B27" s="11"/>
+      <c r="B27" s="12"/>
       <c r="C27" t="s">
         <v>93</v>
       </c>
       <c r="D27">
         <v>26</v>
       </c>
-      <c r="E27" s="10"/>
+      <c r="E27" s="11"/>
       <c r="F27" t="s">
         <v>107</v>
       </c>
       <c r="G27">
         <v>75</v>
       </c>
-      <c r="H27" s="11"/>
+      <c r="H27" s="12"/>
       <c r="I27" t="s">
         <v>116</v>
       </c>
       <c r="J27" s="6">
         <v>8</v>
       </c>
-      <c r="K27" s="11"/>
+      <c r="K27" s="12"/>
       <c r="L27" t="s">
         <v>35</v>
       </c>
@@ -2105,28 +2140,28 @@
       </c>
     </row>
     <row r="28" spans="2:13">
-      <c r="B28" s="11"/>
+      <c r="B28" s="12"/>
       <c r="C28" t="s">
         <v>94</v>
       </c>
       <c r="D28">
         <v>16</v>
       </c>
-      <c r="E28" s="10"/>
+      <c r="E28" s="11"/>
       <c r="F28" t="s">
         <v>108</v>
       </c>
       <c r="G28">
         <v>266</v>
       </c>
-      <c r="H28" s="11"/>
+      <c r="H28" s="12"/>
       <c r="I28" t="s">
         <v>117</v>
       </c>
       <c r="J28" s="6">
         <v>3</v>
       </c>
-      <c r="K28" s="11"/>
+      <c r="K28" s="12"/>
       <c r="L28" t="s">
         <v>36</v>
       </c>
@@ -2135,28 +2170,28 @@
       </c>
     </row>
     <row r="29" spans="2:13">
-      <c r="B29" s="11"/>
+      <c r="B29" s="12"/>
       <c r="C29" t="s">
         <v>95</v>
       </c>
       <c r="D29">
         <v>18</v>
       </c>
-      <c r="E29" s="10"/>
+      <c r="E29" s="11"/>
       <c r="F29" t="s">
         <v>109</v>
       </c>
       <c r="G29">
         <v>71</v>
       </c>
-      <c r="H29" s="11"/>
+      <c r="H29" s="12"/>
       <c r="I29" t="s">
         <v>118</v>
       </c>
       <c r="J29" s="6">
         <v>12</v>
       </c>
-      <c r="K29" s="11"/>
+      <c r="K29" s="12"/>
       <c r="L29" t="s">
         <v>37</v>
       </c>
@@ -2165,21 +2200,21 @@
       </c>
     </row>
     <row r="30" spans="2:13">
-      <c r="B30" s="11"/>
+      <c r="B30" s="12"/>
       <c r="C30" t="s">
         <v>96</v>
       </c>
       <c r="D30">
         <v>15</v>
       </c>
-      <c r="H30" s="11"/>
+      <c r="H30" s="12"/>
       <c r="I30" t="s">
         <v>119</v>
       </c>
       <c r="J30" s="6">
         <v>3</v>
       </c>
-      <c r="K30" s="11"/>
+      <c r="K30" s="12"/>
       <c r="L30" t="s">
         <v>38</v>
       </c>
@@ -2188,21 +2223,21 @@
       </c>
     </row>
     <row r="31" spans="2:13">
-      <c r="B31" s="11"/>
+      <c r="B31" s="12"/>
       <c r="C31" t="s">
         <v>97</v>
       </c>
       <c r="D31">
         <v>17</v>
       </c>
-      <c r="H31" s="11"/>
+      <c r="H31" s="12"/>
       <c r="I31" t="s">
         <v>120</v>
       </c>
       <c r="J31" s="6">
         <v>6</v>
       </c>
-      <c r="K31" s="11"/>
+      <c r="K31" s="12"/>
       <c r="L31" t="s">
         <v>39</v>
       </c>
@@ -2211,21 +2246,21 @@
       </c>
     </row>
     <row r="32" spans="2:13">
-      <c r="B32" s="11"/>
+      <c r="B32" s="12"/>
       <c r="C32" t="s">
         <v>98</v>
       </c>
       <c r="D32">
         <v>44</v>
       </c>
-      <c r="H32" s="11"/>
+      <c r="H32" s="12"/>
       <c r="I32" t="s">
         <v>121</v>
       </c>
       <c r="J32" s="6">
         <v>2</v>
       </c>
-      <c r="K32" s="11"/>
+      <c r="K32" s="12"/>
       <c r="L32" s="5" t="s">
         <v>40</v>
       </c>
@@ -2234,21 +2269,21 @@
       </c>
     </row>
     <row r="33" spans="2:13">
-      <c r="B33" s="11"/>
+      <c r="B33" s="12"/>
       <c r="C33" t="s">
         <v>99</v>
       </c>
       <c r="D33">
         <v>43</v>
       </c>
-      <c r="H33" s="11"/>
+      <c r="H33" s="12"/>
       <c r="I33" t="s">
         <v>122</v>
       </c>
       <c r="J33" s="6">
         <v>4</v>
       </c>
-      <c r="K33" s="11"/>
+      <c r="K33" s="12"/>
       <c r="L33" t="s">
         <v>41</v>
       </c>
@@ -2257,21 +2292,21 @@
       </c>
     </row>
     <row r="34" spans="2:13">
-      <c r="B34" s="11"/>
+      <c r="B34" s="12"/>
       <c r="C34" t="s">
         <v>100</v>
       </c>
       <c r="D34">
         <v>28</v>
       </c>
-      <c r="H34" s="11"/>
+      <c r="H34" s="12"/>
       <c r="I34" t="s">
         <v>123</v>
       </c>
       <c r="J34" s="6">
         <v>8</v>
       </c>
-      <c r="K34" s="11"/>
+      <c r="K34" s="12"/>
       <c r="L34" t="s">
         <v>42</v>
       </c>
@@ -2280,16 +2315,16 @@
       </c>
     </row>
     <row r="35" spans="2:13">
-      <c r="H35" s="11">
+      <c r="H35" s="12">
         <v>45898</v>
       </c>
-      <c r="I35" s="12" t="s">
+      <c r="I35" s="9" t="s">
         <v>227</v>
       </c>
       <c r="J35" s="6">
         <v>5</v>
       </c>
-      <c r="K35" s="11"/>
+      <c r="K35" s="12"/>
       <c r="L35" t="s">
         <v>43</v>
       </c>
@@ -2298,14 +2333,14 @@
       </c>
     </row>
     <row r="36" spans="2:13">
-      <c r="H36" s="10"/>
-      <c r="I36" s="12" t="s">
+      <c r="H36" s="11"/>
+      <c r="I36" s="9" t="s">
         <v>228</v>
       </c>
       <c r="J36" s="6">
         <v>15</v>
       </c>
-      <c r="K36" s="11"/>
+      <c r="K36" s="12"/>
       <c r="L36" t="s">
         <v>44</v>
       </c>
@@ -2314,7 +2349,16 @@
       </c>
     </row>
     <row r="37" spans="2:13">
-      <c r="K37" s="11"/>
+      <c r="H37" s="12">
+        <v>45899</v>
+      </c>
+      <c r="I37" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="J37" s="6">
+        <v>18</v>
+      </c>
+      <c r="K37" s="12"/>
       <c r="L37" t="s">
         <v>45</v>
       </c>
@@ -2323,7 +2367,14 @@
       </c>
     </row>
     <row r="38" spans="2:13">
-      <c r="K38" s="11"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="J38" s="6">
+        <v>8</v>
+      </c>
+      <c r="K38" s="12"/>
       <c r="L38" t="s">
         <v>46</v>
       </c>
@@ -2332,7 +2383,14 @@
       </c>
     </row>
     <row r="39" spans="2:13">
-      <c r="K39" s="11"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="J39" s="6">
+        <v>8</v>
+      </c>
+      <c r="K39" s="12"/>
       <c r="L39" t="s">
         <v>47</v>
       </c>
@@ -2341,7 +2399,14 @@
       </c>
     </row>
     <row r="40" spans="2:13">
-      <c r="K40" s="11"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="J40" s="6">
+        <v>8</v>
+      </c>
+      <c r="K40" s="12"/>
       <c r="L40" s="5" t="s">
         <v>48</v>
       </c>
@@ -2350,7 +2415,14 @@
       </c>
     </row>
     <row r="41" spans="2:13">
-      <c r="K41" s="11"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="J41" s="6">
+        <v>10</v>
+      </c>
+      <c r="K41" s="12"/>
       <c r="L41" s="5" t="s">
         <v>49</v>
       </c>
@@ -2359,7 +2431,14 @@
       </c>
     </row>
     <row r="42" spans="2:13">
-      <c r="K42" s="11"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="J42" s="6">
+        <v>8</v>
+      </c>
+      <c r="K42" s="12"/>
       <c r="L42" t="s">
         <v>50</v>
       </c>
@@ -2368,7 +2447,14 @@
       </c>
     </row>
     <row r="43" spans="2:13">
-      <c r="K43" s="11"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="J43" s="6">
+        <v>10</v>
+      </c>
+      <c r="K43" s="12"/>
       <c r="L43" t="s">
         <v>51</v>
       </c>
@@ -2377,7 +2463,14 @@
       </c>
     </row>
     <row r="44" spans="2:13">
-      <c r="K44" s="11"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="J44" s="6">
+        <v>8</v>
+      </c>
+      <c r="K44" s="12"/>
       <c r="L44" t="s">
         <v>52</v>
       </c>
@@ -2386,7 +2479,7 @@
       </c>
     </row>
     <row r="45" spans="2:13">
-      <c r="K45" s="11">
+      <c r="K45" s="12">
         <v>45898</v>
       </c>
       <c r="L45" s="7" t="s">
@@ -2397,7 +2490,7 @@
       </c>
     </row>
     <row r="46" spans="2:13">
-      <c r="K46" s="11"/>
+      <c r="K46" s="12"/>
       <c r="L46" s="7" t="s">
         <v>125</v>
       </c>
@@ -2406,7 +2499,7 @@
       </c>
     </row>
     <row r="47" spans="2:13">
-      <c r="K47" s="11"/>
+      <c r="K47" s="12"/>
       <c r="L47" t="s">
         <v>126</v>
       </c>
@@ -2415,7 +2508,7 @@
       </c>
     </row>
     <row r="48" spans="2:13">
-      <c r="K48" s="11"/>
+      <c r="K48" s="12"/>
       <c r="L48" t="s">
         <v>127</v>
       </c>
@@ -2424,7 +2517,7 @@
       </c>
     </row>
     <row r="49" spans="11:13">
-      <c r="K49" s="11"/>
+      <c r="K49" s="12"/>
       <c r="L49" t="s">
         <v>128</v>
       </c>
@@ -2433,7 +2526,7 @@
       </c>
     </row>
     <row r="50" spans="11:13">
-      <c r="K50" s="11"/>
+      <c r="K50" s="12"/>
       <c r="L50" t="s">
         <v>129</v>
       </c>
@@ -2442,7 +2535,7 @@
       </c>
     </row>
     <row r="51" spans="11:13">
-      <c r="K51" s="11"/>
+      <c r="K51" s="12"/>
       <c r="L51" t="s">
         <v>130</v>
       </c>
@@ -2451,7 +2544,7 @@
       </c>
     </row>
     <row r="52" spans="11:13">
-      <c r="K52" s="11"/>
+      <c r="K52" s="12"/>
       <c r="L52" t="s">
         <v>131</v>
       </c>
@@ -2460,7 +2553,7 @@
       </c>
     </row>
     <row r="53" spans="11:13">
-      <c r="K53" s="11"/>
+      <c r="K53" s="12"/>
       <c r="L53" s="8" t="s">
         <v>132</v>
       </c>
@@ -2469,7 +2562,7 @@
       </c>
     </row>
     <row r="54" spans="11:13">
-      <c r="K54" s="11"/>
+      <c r="K54" s="12"/>
       <c r="L54" t="s">
         <v>133</v>
       </c>
@@ -2478,7 +2571,7 @@
       </c>
     </row>
     <row r="55" spans="11:13">
-      <c r="K55" s="11"/>
+      <c r="K55" s="12"/>
       <c r="L55" t="s">
         <v>134</v>
       </c>
@@ -2487,7 +2580,7 @@
       </c>
     </row>
     <row r="56" spans="11:13">
-      <c r="K56" s="11"/>
+      <c r="K56" s="12"/>
       <c r="L56" t="s">
         <v>135</v>
       </c>
@@ -2496,7 +2589,7 @@
       </c>
     </row>
     <row r="57" spans="11:13">
-      <c r="K57" s="11"/>
+      <c r="K57" s="12"/>
       <c r="L57" t="s">
         <v>136</v>
       </c>
@@ -2505,7 +2598,7 @@
       </c>
     </row>
     <row r="58" spans="11:13">
-      <c r="K58" s="11"/>
+      <c r="K58" s="12"/>
       <c r="L58" t="s">
         <v>137</v>
       </c>
@@ -2514,7 +2607,7 @@
       </c>
     </row>
     <row r="59" spans="11:13">
-      <c r="K59" s="11"/>
+      <c r="K59" s="12"/>
       <c r="L59" t="s">
         <v>138</v>
       </c>
@@ -2523,7 +2616,7 @@
       </c>
     </row>
     <row r="60" spans="11:13">
-      <c r="K60" s="11"/>
+      <c r="K60" s="12"/>
       <c r="L60" t="s">
         <v>139</v>
       </c>
@@ -2532,7 +2625,7 @@
       </c>
     </row>
     <row r="61" spans="11:13">
-      <c r="K61" s="11"/>
+      <c r="K61" s="12"/>
       <c r="L61" t="s">
         <v>140</v>
       </c>
@@ -2541,7 +2634,7 @@
       </c>
     </row>
     <row r="62" spans="11:13">
-      <c r="K62" s="11"/>
+      <c r="K62" s="12"/>
       <c r="L62" t="s">
         <v>141</v>
       </c>
@@ -2550,7 +2643,7 @@
       </c>
     </row>
     <row r="63" spans="11:13">
-      <c r="K63" s="11"/>
+      <c r="K63" s="12"/>
       <c r="L63" t="s">
         <v>142</v>
       </c>
@@ -2559,7 +2652,7 @@
       </c>
     </row>
     <row r="64" spans="11:13">
-      <c r="K64" s="11"/>
+      <c r="K64" s="12"/>
       <c r="L64" t="s">
         <v>143</v>
       </c>
@@ -2568,7 +2661,7 @@
       </c>
     </row>
     <row r="65" spans="11:13">
-      <c r="K65" s="11"/>
+      <c r="K65" s="12"/>
       <c r="L65" t="s">
         <v>144</v>
       </c>
@@ -2577,7 +2670,7 @@
       </c>
     </row>
     <row r="66" spans="11:13">
-      <c r="K66" s="11"/>
+      <c r="K66" s="12"/>
       <c r="L66" t="s">
         <v>145</v>
       </c>
@@ -2586,7 +2679,7 @@
       </c>
     </row>
     <row r="67" spans="11:13">
-      <c r="K67" s="11"/>
+      <c r="K67" s="12"/>
       <c r="L67" t="s">
         <v>146</v>
       </c>
@@ -2595,7 +2688,7 @@
       </c>
     </row>
     <row r="68" spans="11:13">
-      <c r="K68" s="11"/>
+      <c r="K68" s="12"/>
       <c r="L68" t="s">
         <v>147</v>
       </c>
@@ -2604,7 +2697,7 @@
       </c>
     </row>
     <row r="69" spans="11:13">
-      <c r="K69" s="11"/>
+      <c r="K69" s="12"/>
       <c r="L69" t="s">
         <v>148</v>
       </c>
@@ -2613,7 +2706,7 @@
       </c>
     </row>
     <row r="70" spans="11:13">
-      <c r="K70" s="11"/>
+      <c r="K70" s="12"/>
       <c r="L70" t="s">
         <v>149</v>
       </c>
@@ -2622,7 +2715,7 @@
       </c>
     </row>
     <row r="71" spans="11:13">
-      <c r="K71" s="11"/>
+      <c r="K71" s="12"/>
       <c r="L71" t="s">
         <v>150</v>
       </c>
@@ -2631,7 +2724,7 @@
       </c>
     </row>
     <row r="72" spans="11:13">
-      <c r="K72" s="11"/>
+      <c r="K72" s="12"/>
       <c r="L72" t="s">
         <v>151</v>
       </c>
@@ -2640,7 +2733,7 @@
       </c>
     </row>
     <row r="73" spans="11:13">
-      <c r="K73" s="11"/>
+      <c r="K73" s="12"/>
       <c r="L73" t="s">
         <v>152</v>
       </c>
@@ -2649,7 +2742,7 @@
       </c>
     </row>
     <row r="74" spans="11:13">
-      <c r="K74" s="11"/>
+      <c r="K74" s="12"/>
       <c r="L74" t="s">
         <v>153</v>
       </c>
@@ -2658,7 +2751,7 @@
       </c>
     </row>
     <row r="75" spans="11:13">
-      <c r="K75" s="11"/>
+      <c r="K75" s="12"/>
       <c r="L75" t="s">
         <v>154</v>
       </c>
@@ -2667,7 +2760,7 @@
       </c>
     </row>
     <row r="76" spans="11:13">
-      <c r="K76" s="11"/>
+      <c r="K76" s="12"/>
       <c r="L76" t="s">
         <v>155</v>
       </c>
@@ -2676,7 +2769,7 @@
       </c>
     </row>
     <row r="77" spans="11:13">
-      <c r="K77" s="11"/>
+      <c r="K77" s="12"/>
       <c r="L77" t="s">
         <v>156</v>
       </c>
@@ -2685,7 +2778,7 @@
       </c>
     </row>
     <row r="78" spans="11:13">
-      <c r="K78" s="11"/>
+      <c r="K78" s="12"/>
       <c r="L78" t="s">
         <v>157</v>
       </c>
@@ -2694,7 +2787,7 @@
       </c>
     </row>
     <row r="79" spans="11:13">
-      <c r="K79" s="11"/>
+      <c r="K79" s="12"/>
       <c r="L79" t="s">
         <v>158</v>
       </c>
@@ -2703,7 +2796,7 @@
       </c>
     </row>
     <row r="80" spans="11:13">
-      <c r="K80" s="11"/>
+      <c r="K80" s="12"/>
       <c r="L80" t="s">
         <v>159</v>
       </c>
@@ -2712,7 +2805,7 @@
       </c>
     </row>
     <row r="81" spans="11:13">
-      <c r="K81" s="11"/>
+      <c r="K81" s="12"/>
       <c r="L81" s="8" t="s">
         <v>160</v>
       </c>
@@ -2721,7 +2814,7 @@
       </c>
     </row>
     <row r="82" spans="11:13">
-      <c r="K82" s="11"/>
+      <c r="K82" s="12"/>
       <c r="L82" t="s">
         <v>161</v>
       </c>
@@ -2730,7 +2823,7 @@
       </c>
     </row>
     <row r="83" spans="11:13">
-      <c r="K83" s="11"/>
+      <c r="K83" s="12"/>
       <c r="L83" t="s">
         <v>162</v>
       </c>
@@ -2739,7 +2832,7 @@
       </c>
     </row>
     <row r="84" spans="11:13">
-      <c r="K84" s="11"/>
+      <c r="K84" s="12"/>
       <c r="L84" t="s">
         <v>163</v>
       </c>
@@ -2748,7 +2841,7 @@
       </c>
     </row>
     <row r="85" spans="11:13">
-      <c r="K85" s="11"/>
+      <c r="K85" s="12"/>
       <c r="L85" t="s">
         <v>164</v>
       </c>
@@ -2757,7 +2850,7 @@
       </c>
     </row>
     <row r="86" spans="11:13">
-      <c r="K86" s="11"/>
+      <c r="K86" s="12"/>
       <c r="L86" t="s">
         <v>165</v>
       </c>
@@ -2766,7 +2859,7 @@
       </c>
     </row>
     <row r="87" spans="11:13">
-      <c r="K87" s="11"/>
+      <c r="K87" s="12"/>
       <c r="L87" t="s">
         <v>166</v>
       </c>
@@ -2775,7 +2868,7 @@
       </c>
     </row>
     <row r="88" spans="11:13">
-      <c r="K88" s="11"/>
+      <c r="K88" s="12"/>
       <c r="L88" t="s">
         <v>167</v>
       </c>
@@ -2784,7 +2877,7 @@
       </c>
     </row>
     <row r="89" spans="11:13">
-      <c r="K89" s="11"/>
+      <c r="K89" s="12"/>
       <c r="L89" t="s">
         <v>168</v>
       </c>
@@ -2793,7 +2886,7 @@
       </c>
     </row>
     <row r="90" spans="11:13">
-      <c r="K90" s="11"/>
+      <c r="K90" s="12"/>
       <c r="L90" t="s">
         <v>169</v>
       </c>
@@ -2802,7 +2895,7 @@
       </c>
     </row>
     <row r="91" spans="11:13">
-      <c r="K91" s="11"/>
+      <c r="K91" s="12"/>
       <c r="L91" t="s">
         <v>170</v>
       </c>
@@ -2811,7 +2904,7 @@
       </c>
     </row>
     <row r="92" spans="11:13">
-      <c r="K92" s="11"/>
+      <c r="K92" s="12"/>
       <c r="L92" t="s">
         <v>171</v>
       </c>
@@ -2820,7 +2913,7 @@
       </c>
     </row>
     <row r="93" spans="11:13">
-      <c r="K93" s="11"/>
+      <c r="K93" s="12"/>
       <c r="L93" t="s">
         <v>172</v>
       </c>
@@ -2829,7 +2922,7 @@
       </c>
     </row>
     <row r="94" spans="11:13">
-      <c r="K94" s="11"/>
+      <c r="K94" s="12"/>
       <c r="L94" t="s">
         <v>173</v>
       </c>
@@ -2838,7 +2931,7 @@
       </c>
     </row>
     <row r="95" spans="11:13">
-      <c r="K95" s="11"/>
+      <c r="K95" s="12"/>
       <c r="L95" t="s">
         <v>174</v>
       </c>
@@ -2847,7 +2940,7 @@
       </c>
     </row>
     <row r="96" spans="11:13">
-      <c r="K96" s="11"/>
+      <c r="K96" s="12"/>
       <c r="L96" t="s">
         <v>175</v>
       </c>
@@ -2856,7 +2949,7 @@
       </c>
     </row>
     <row r="97" spans="11:13">
-      <c r="K97" s="11"/>
+      <c r="K97" s="12"/>
       <c r="L97" t="s">
         <v>176</v>
       </c>
@@ -2865,7 +2958,7 @@
       </c>
     </row>
     <row r="98" spans="11:13">
-      <c r="K98" s="11"/>
+      <c r="K98" s="12"/>
       <c r="L98" t="s">
         <v>177</v>
       </c>
@@ -2874,7 +2967,7 @@
       </c>
     </row>
     <row r="99" spans="11:13">
-      <c r="K99" s="11"/>
+      <c r="K99" s="12"/>
       <c r="L99" t="s">
         <v>178</v>
       </c>
@@ -2883,7 +2976,7 @@
       </c>
     </row>
     <row r="100" spans="11:13">
-      <c r="K100" s="11"/>
+      <c r="K100" s="12"/>
       <c r="L100" t="s">
         <v>179</v>
       </c>
@@ -2892,7 +2985,7 @@
       </c>
     </row>
     <row r="101" spans="11:13">
-      <c r="K101" s="11"/>
+      <c r="K101" s="12"/>
       <c r="L101" t="s">
         <v>180</v>
       </c>
@@ -2901,7 +2994,7 @@
       </c>
     </row>
     <row r="102" spans="11:13">
-      <c r="K102" s="11"/>
+      <c r="K102" s="12"/>
       <c r="L102" t="s">
         <v>181</v>
       </c>
@@ -2910,7 +3003,7 @@
       </c>
     </row>
     <row r="103" spans="11:13">
-      <c r="K103" s="11"/>
+      <c r="K103" s="12"/>
       <c r="L103" t="s">
         <v>182</v>
       </c>
@@ -2919,7 +3012,7 @@
       </c>
     </row>
     <row r="104" spans="11:13">
-      <c r="K104" s="11"/>
+      <c r="K104" s="12"/>
       <c r="L104" t="s">
         <v>183</v>
       </c>
@@ -2928,7 +3021,7 @@
       </c>
     </row>
     <row r="105" spans="11:13">
-      <c r="K105" s="11"/>
+      <c r="K105" s="12"/>
       <c r="L105" t="s">
         <v>184</v>
       </c>
@@ -2937,7 +3030,7 @@
       </c>
     </row>
     <row r="106" spans="11:13">
-      <c r="K106" s="11"/>
+      <c r="K106" s="12"/>
       <c r="L106" t="s">
         <v>185</v>
       </c>
@@ -2946,7 +3039,7 @@
       </c>
     </row>
     <row r="107" spans="11:13">
-      <c r="K107" s="11"/>
+      <c r="K107" s="12"/>
       <c r="L107" t="s">
         <v>186</v>
       </c>
@@ -2955,7 +3048,7 @@
       </c>
     </row>
     <row r="108" spans="11:13">
-      <c r="K108" s="11"/>
+      <c r="K108" s="12"/>
       <c r="L108" t="s">
         <v>187</v>
       </c>
@@ -2964,7 +3057,7 @@
       </c>
     </row>
     <row r="109" spans="11:13">
-      <c r="K109" s="11"/>
+      <c r="K109" s="12"/>
       <c r="L109" t="s">
         <v>188</v>
       </c>
@@ -2973,7 +3066,7 @@
       </c>
     </row>
     <row r="110" spans="11:13">
-      <c r="K110" s="11"/>
+      <c r="K110" s="12"/>
       <c r="L110" t="s">
         <v>189</v>
       </c>
@@ -2982,7 +3075,7 @@
       </c>
     </row>
     <row r="111" spans="11:13">
-      <c r="K111" s="11"/>
+      <c r="K111" s="12"/>
       <c r="L111" t="s">
         <v>190</v>
       </c>
@@ -2991,7 +3084,7 @@
       </c>
     </row>
     <row r="112" spans="11:13">
-      <c r="K112" s="11"/>
+      <c r="K112" s="12"/>
       <c r="L112" t="s">
         <v>191</v>
       </c>
@@ -3000,7 +3093,7 @@
       </c>
     </row>
     <row r="113" spans="11:13">
-      <c r="K113" s="11"/>
+      <c r="K113" s="12"/>
       <c r="L113" t="s">
         <v>192</v>
       </c>
@@ -3009,7 +3102,7 @@
       </c>
     </row>
     <row r="114" spans="11:13">
-      <c r="K114" s="11"/>
+      <c r="K114" s="12"/>
       <c r="L114" t="s">
         <v>193</v>
       </c>
@@ -3018,7 +3111,7 @@
       </c>
     </row>
     <row r="115" spans="11:13">
-      <c r="K115" s="11"/>
+      <c r="K115" s="12"/>
       <c r="L115" t="s">
         <v>194</v>
       </c>
@@ -3027,7 +3120,7 @@
       </c>
     </row>
     <row r="116" spans="11:13">
-      <c r="K116" s="11"/>
+      <c r="K116" s="12"/>
       <c r="L116" t="s">
         <v>195</v>
       </c>
@@ -3036,7 +3129,7 @@
       </c>
     </row>
     <row r="117" spans="11:13">
-      <c r="K117" s="11"/>
+      <c r="K117" s="12"/>
       <c r="L117" t="s">
         <v>196</v>
       </c>
@@ -3045,7 +3138,7 @@
       </c>
     </row>
     <row r="118" spans="11:13">
-      <c r="K118" s="11"/>
+      <c r="K118" s="12"/>
       <c r="L118" t="s">
         <v>197</v>
       </c>
@@ -3054,7 +3147,7 @@
       </c>
     </row>
     <row r="119" spans="11:13">
-      <c r="K119" s="11"/>
+      <c r="K119" s="12"/>
       <c r="L119" t="s">
         <v>198</v>
       </c>
@@ -3063,7 +3156,7 @@
       </c>
     </row>
     <row r="120" spans="11:13">
-      <c r="K120" s="11"/>
+      <c r="K120" s="12"/>
       <c r="L120" t="s">
         <v>199</v>
       </c>
@@ -3072,7 +3165,7 @@
       </c>
     </row>
     <row r="121" spans="11:13">
-      <c r="K121" s="11"/>
+      <c r="K121" s="12"/>
       <c r="L121" t="s">
         <v>200</v>
       </c>
@@ -3081,7 +3174,7 @@
       </c>
     </row>
     <row r="122" spans="11:13">
-      <c r="K122" s="11"/>
+      <c r="K122" s="12"/>
       <c r="L122" t="s">
         <v>201</v>
       </c>
@@ -3090,7 +3183,7 @@
       </c>
     </row>
     <row r="123" spans="11:13">
-      <c r="K123" s="11"/>
+      <c r="K123" s="12"/>
       <c r="L123" t="s">
         <v>202</v>
       </c>
@@ -3099,7 +3192,7 @@
       </c>
     </row>
     <row r="124" spans="11:13">
-      <c r="K124" s="11"/>
+      <c r="K124" s="12"/>
       <c r="L124" t="s">
         <v>203</v>
       </c>
@@ -3108,7 +3201,7 @@
       </c>
     </row>
     <row r="125" spans="11:13">
-      <c r="K125" s="11"/>
+      <c r="K125" s="12"/>
       <c r="L125" t="s">
         <v>204</v>
       </c>
@@ -3117,7 +3210,7 @@
       </c>
     </row>
     <row r="126" spans="11:13">
-      <c r="K126" s="11"/>
+      <c r="K126" s="12"/>
       <c r="L126" t="s">
         <v>205</v>
       </c>
@@ -3126,7 +3219,7 @@
       </c>
     </row>
     <row r="127" spans="11:13">
-      <c r="K127" s="11"/>
+      <c r="K127" s="12"/>
       <c r="L127" t="s">
         <v>206</v>
       </c>
@@ -3135,7 +3228,7 @@
       </c>
     </row>
     <row r="128" spans="11:13">
-      <c r="K128" s="11"/>
+      <c r="K128" s="12"/>
       <c r="L128" t="s">
         <v>207</v>
       </c>
@@ -3144,7 +3237,7 @@
       </c>
     </row>
     <row r="129" spans="11:13">
-      <c r="K129" s="11"/>
+      <c r="K129" s="12"/>
       <c r="L129" t="s">
         <v>208</v>
       </c>
@@ -3153,7 +3246,7 @@
       </c>
     </row>
     <row r="130" spans="11:13">
-      <c r="K130" s="11"/>
+      <c r="K130" s="12"/>
       <c r="L130" t="s">
         <v>209</v>
       </c>
@@ -3162,7 +3255,7 @@
       </c>
     </row>
     <row r="131" spans="11:13">
-      <c r="K131" s="11"/>
+      <c r="K131" s="12"/>
       <c r="L131" t="s">
         <v>210</v>
       </c>
@@ -3171,7 +3264,7 @@
       </c>
     </row>
     <row r="132" spans="11:13">
-      <c r="K132" s="11"/>
+      <c r="K132" s="12"/>
       <c r="L132" t="s">
         <v>211</v>
       </c>
@@ -3180,7 +3273,7 @@
       </c>
     </row>
     <row r="133" spans="11:13">
-      <c r="K133" s="11"/>
+      <c r="K133" s="12"/>
       <c r="L133" t="s">
         <v>212</v>
       </c>
@@ -3189,7 +3282,7 @@
       </c>
     </row>
     <row r="134" spans="11:13">
-      <c r="K134" s="11"/>
+      <c r="K134" s="12"/>
       <c r="L134" t="s">
         <v>213</v>
       </c>
@@ -3198,7 +3291,7 @@
       </c>
     </row>
     <row r="135" spans="11:13">
-      <c r="K135" s="11"/>
+      <c r="K135" s="12"/>
       <c r="L135" t="s">
         <v>214</v>
       </c>
@@ -3207,7 +3300,7 @@
       </c>
     </row>
     <row r="136" spans="11:13">
-      <c r="K136" s="11"/>
+      <c r="K136" s="12"/>
       <c r="L136" t="s">
         <v>215</v>
       </c>
@@ -3216,7 +3309,7 @@
       </c>
     </row>
     <row r="137" spans="11:13">
-      <c r="K137" s="11"/>
+      <c r="K137" s="12"/>
       <c r="L137" t="s">
         <v>216</v>
       </c>
@@ -3225,7 +3318,7 @@
       </c>
     </row>
     <row r="138" spans="11:13">
-      <c r="K138" s="11"/>
+      <c r="K138" s="12"/>
       <c r="L138" t="s">
         <v>217</v>
       </c>
@@ -3234,7 +3327,7 @@
       </c>
     </row>
     <row r="139" spans="11:13">
-      <c r="K139" s="11"/>
+      <c r="K139" s="12"/>
       <c r="L139" t="s">
         <v>218</v>
       </c>
@@ -3243,7 +3336,7 @@
       </c>
     </row>
     <row r="140" spans="11:13">
-      <c r="K140" s="11"/>
+      <c r="K140" s="12"/>
       <c r="L140" t="s">
         <v>219</v>
       </c>
@@ -3252,7 +3345,7 @@
       </c>
     </row>
     <row r="141" spans="11:13">
-      <c r="K141" s="11"/>
+      <c r="K141" s="12"/>
       <c r="L141" t="s">
         <v>220</v>
       </c>
@@ -3261,7 +3354,7 @@
       </c>
     </row>
     <row r="142" spans="11:13">
-      <c r="K142" s="11"/>
+      <c r="K142" s="12"/>
       <c r="L142" t="s">
         <v>221</v>
       </c>
@@ -3270,7 +3363,7 @@
       </c>
     </row>
     <row r="143" spans="11:13">
-      <c r="K143" s="11"/>
+      <c r="K143" s="12"/>
       <c r="L143" t="s">
         <v>222</v>
       </c>
@@ -3279,7 +3372,7 @@
       </c>
     </row>
     <row r="144" spans="11:13">
-      <c r="K144" s="11"/>
+      <c r="K144" s="12"/>
       <c r="L144" t="s">
         <v>223</v>
       </c>
@@ -3288,7 +3381,7 @@
       </c>
     </row>
     <row r="145" spans="11:13">
-      <c r="K145" s="11"/>
+      <c r="K145" s="12"/>
       <c r="L145" t="s">
         <v>224</v>
       </c>
@@ -3297,7 +3390,7 @@
       </c>
     </row>
     <row r="146" spans="11:13">
-      <c r="K146" s="11"/>
+      <c r="K146" s="12"/>
       <c r="L146" t="s">
         <v>225</v>
       </c>
@@ -3306,7 +3399,7 @@
       </c>
     </row>
     <row r="147" spans="11:13">
-      <c r="K147" s="11"/>
+      <c r="K147" s="12"/>
       <c r="L147" t="s">
         <v>226</v>
       </c>
@@ -3315,7 +3408,11 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="K8:K44"/>
+    <mergeCell ref="K45:K147"/>
+    <mergeCell ref="H37:H44"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="H5:J5"/>
@@ -3325,9 +3422,6 @@
     <mergeCell ref="B18:B34"/>
     <mergeCell ref="H21:H34"/>
     <mergeCell ref="E21:E29"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="K8:K44"/>
-    <mergeCell ref="K45:K147"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Raport.xlsx
+++ b/Raport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dominik\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E681275F-531E-43CD-89AE-59F11BDC0B6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{337988E2-9732-412D-8AB8-A85F694D329C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="247">
   <si>
     <t>Liczba członków zespołu</t>
   </si>
@@ -743,18 +743,56 @@
   </si>
   <si>
     <t>Dodanie komentarzy do pliku dtoMapper.cs</t>
+  </si>
+  <si>
+    <t>Dodanie linijek kodu w cart.service.ts</t>
+  </si>
+  <si>
+    <t>Dodanie linijek kodu w cart.component.ts:</t>
+  </si>
+  <si>
+    <t>Dodanie linijek kodu w cart.component.html</t>
+  </si>
+  <si>
+    <t>Dodanie linijek kodu w menu.component.ts:</t>
+  </si>
+  <si>
+    <t>Dodanie komentarzy w cart.service.ts</t>
+  </si>
+  <si>
+    <t>Dodawanie komentarzy w cart.component.ts</t>
+  </si>
+  <si>
+    <t>Dodawanie komentarzy w register.component.ts</t>
+  </si>
+  <si>
+    <t>Dodawanie komentarzy w login.component.ts</t>
+  </si>
+  <si>
+    <t>Dodanie linii kodu w menu.component.ts</t>
+  </si>
+  <si>
+    <t>Dodawanie komentarzy w menu.component.ts</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -836,14 +874,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -852,11 +890,14 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -865,17 +906,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1367,8 +1408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M147"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37:H44"/>
+    <sheetView tabSelected="1" topLeftCell="G23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37:H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -1413,7 +1454,7 @@
       </c>
       <c r="J3">
         <f>SUM(J7:J1001)</f>
-        <v>748</v>
+        <v>876</v>
       </c>
       <c r="M3">
         <f>SUM(M7:M1001)</f>
@@ -1427,42 +1468,42 @@
       <c r="B4" s="1"/>
       <c r="D4">
         <f>($B$2*D$3)/SUM($D$3:$AK$3)</f>
-        <v>0.76652769505658125</v>
+        <v>0.75219170075978958</v>
       </c>
       <c r="G4">
         <f>($B$2*G$3)/SUM($D$3:$AK$3)</f>
-        <v>0.91661703394877903</v>
+        <v>0.89947399181765053</v>
       </c>
       <c r="J4">
         <f>($B$2*J$3)/SUM($D$3:$AK$3)</f>
-        <v>0.44550327575938059</v>
+        <v>0.51198129748684984</v>
       </c>
       <c r="M4">
         <f>($B$2*M$3)/SUM($D$3:$AK$3)</f>
-        <v>1.8713519952352591</v>
+        <v>1.8363530099357102</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11" t="s">
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11" t="s">
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11" t="s">
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
     </row>
     <row r="6" spans="1:13">
       <c r="B6" t="s">
@@ -1967,7 +2008,7 @@
       <c r="D22">
         <v>92</v>
       </c>
-      <c r="E22" s="11"/>
+      <c r="E22" s="13"/>
       <c r="F22" t="s">
         <v>102</v>
       </c>
@@ -1997,7 +2038,7 @@
       <c r="D23">
         <v>64</v>
       </c>
-      <c r="E23" s="11"/>
+      <c r="E23" s="13"/>
       <c r="F23" t="s">
         <v>103</v>
       </c>
@@ -2027,7 +2068,7 @@
       <c r="D24">
         <v>20</v>
       </c>
-      <c r="E24" s="11"/>
+      <c r="E24" s="13"/>
       <c r="F24" t="s">
         <v>104</v>
       </c>
@@ -2057,7 +2098,7 @@
       <c r="D25">
         <v>57</v>
       </c>
-      <c r="E25" s="11"/>
+      <c r="E25" s="13"/>
       <c r="F25" t="s">
         <v>105</v>
       </c>
@@ -2087,7 +2128,7 @@
       <c r="D26">
         <v>28</v>
       </c>
-      <c r="E26" s="11"/>
+      <c r="E26" s="13"/>
       <c r="F26" t="s">
         <v>106</v>
       </c>
@@ -2117,7 +2158,7 @@
       <c r="D27">
         <v>26</v>
       </c>
-      <c r="E27" s="11"/>
+      <c r="E27" s="13"/>
       <c r="F27" t="s">
         <v>107</v>
       </c>
@@ -2147,7 +2188,7 @@
       <c r="D28">
         <v>16</v>
       </c>
-      <c r="E28" s="11"/>
+      <c r="E28" s="13"/>
       <c r="F28" t="s">
         <v>108</v>
       </c>
@@ -2177,7 +2218,7 @@
       <c r="D29">
         <v>18</v>
       </c>
-      <c r="E29" s="11"/>
+      <c r="E29" s="13"/>
       <c r="F29" t="s">
         <v>109</v>
       </c>
@@ -2333,7 +2374,7 @@
       </c>
     </row>
     <row r="36" spans="2:13">
-      <c r="H36" s="11"/>
+      <c r="H36" s="13"/>
       <c r="I36" s="9" t="s">
         <v>228</v>
       </c>
@@ -2352,7 +2393,7 @@
       <c r="H37" s="12">
         <v>45899</v>
       </c>
-      <c r="I37" s="13" t="s">
+      <c r="I37" s="10" t="s">
         <v>229</v>
       </c>
       <c r="J37" s="6">
@@ -2368,7 +2409,7 @@
     </row>
     <row r="38" spans="2:13">
       <c r="H38" s="12"/>
-      <c r="I38" s="13" t="s">
+      <c r="I38" s="10" t="s">
         <v>230</v>
       </c>
       <c r="J38" s="6">
@@ -2384,7 +2425,7 @@
     </row>
     <row r="39" spans="2:13">
       <c r="H39" s="12"/>
-      <c r="I39" s="13" t="s">
+      <c r="I39" s="10" t="s">
         <v>231</v>
       </c>
       <c r="J39" s="6">
@@ -2400,7 +2441,7 @@
     </row>
     <row r="40" spans="2:13">
       <c r="H40" s="12"/>
-      <c r="I40" s="13" t="s">
+      <c r="I40" s="10" t="s">
         <v>232</v>
       </c>
       <c r="J40" s="6">
@@ -2416,7 +2457,7 @@
     </row>
     <row r="41" spans="2:13">
       <c r="H41" s="12"/>
-      <c r="I41" s="13" t="s">
+      <c r="I41" s="10" t="s">
         <v>233</v>
       </c>
       <c r="J41" s="6">
@@ -2432,7 +2473,7 @@
     </row>
     <row r="42" spans="2:13">
       <c r="H42" s="12"/>
-      <c r="I42" s="13" t="s">
+      <c r="I42" s="10" t="s">
         <v>234</v>
       </c>
       <c r="J42" s="6">
@@ -2448,7 +2489,7 @@
     </row>
     <row r="43" spans="2:13">
       <c r="H43" s="12"/>
-      <c r="I43" s="13" t="s">
+      <c r="I43" s="10" t="s">
         <v>235</v>
       </c>
       <c r="J43" s="6">
@@ -2464,7 +2505,7 @@
     </row>
     <row r="44" spans="2:13">
       <c r="H44" s="12"/>
-      <c r="I44" s="13" t="s">
+      <c r="I44" s="10" t="s">
         <v>236</v>
       </c>
       <c r="J44" s="6">
@@ -2479,6 +2520,13 @@
       </c>
     </row>
     <row r="45" spans="2:13">
+      <c r="H45" s="12"/>
+      <c r="I45" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="J45" s="6">
+        <v>21</v>
+      </c>
       <c r="K45" s="12">
         <v>45898</v>
       </c>
@@ -2490,6 +2538,13 @@
       </c>
     </row>
     <row r="46" spans="2:13">
+      <c r="H46" s="12"/>
+      <c r="I46" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="J46" s="6">
+        <v>17</v>
+      </c>
       <c r="K46" s="12"/>
       <c r="L46" s="7" t="s">
         <v>125</v>
@@ -2499,6 +2554,13 @@
       </c>
     </row>
     <row r="47" spans="2:13">
+      <c r="H47" s="12"/>
+      <c r="I47" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="J47" s="6">
+        <v>12</v>
+      </c>
       <c r="K47" s="12"/>
       <c r="L47" t="s">
         <v>126</v>
@@ -2508,6 +2570,13 @@
       </c>
     </row>
     <row r="48" spans="2:13">
+      <c r="H48" s="12"/>
+      <c r="I48" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="J48" s="6">
+        <v>7</v>
+      </c>
       <c r="K48" s="12"/>
       <c r="L48" t="s">
         <v>127</v>
@@ -2516,7 +2585,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="49" spans="11:13">
+    <row r="49" spans="8:13">
+      <c r="H49" s="12"/>
+      <c r="I49" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="J49" s="6">
+        <v>12</v>
+      </c>
       <c r="K49" s="12"/>
       <c r="L49" t="s">
         <v>128</v>
@@ -2525,7 +2601,14 @@
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="11:13">
+    <row r="50" spans="8:13">
+      <c r="H50" s="12"/>
+      <c r="I50" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="J50" s="6">
+        <v>13</v>
+      </c>
       <c r="K50" s="12"/>
       <c r="L50" t="s">
         <v>129</v>
@@ -2534,7 +2617,14 @@
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="11:13">
+    <row r="51" spans="8:13">
+      <c r="H51" s="12"/>
+      <c r="I51" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="J51" s="6">
+        <v>14</v>
+      </c>
       <c r="K51" s="12"/>
       <c r="L51" t="s">
         <v>130</v>
@@ -2543,7 +2633,14 @@
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="11:13">
+    <row r="52" spans="8:13">
+      <c r="H52" s="12"/>
+      <c r="I52" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="J52" s="6">
+        <v>14</v>
+      </c>
       <c r="K52" s="12"/>
       <c r="L52" t="s">
         <v>131</v>
@@ -2552,7 +2649,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="53" spans="11:13">
+    <row r="53" spans="8:13">
+      <c r="H53" s="12"/>
+      <c r="I53" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="J53" s="11">
+        <v>8</v>
+      </c>
       <c r="K53" s="12"/>
       <c r="L53" s="8" t="s">
         <v>132</v>
@@ -2561,7 +2665,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="11:13">
+    <row r="54" spans="8:13">
+      <c r="H54" s="12"/>
+      <c r="I54" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="J54" s="6">
+        <v>10</v>
+      </c>
       <c r="K54" s="12"/>
       <c r="L54" t="s">
         <v>133</v>
@@ -2570,7 +2681,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="11:13">
+    <row r="55" spans="8:13">
       <c r="K55" s="12"/>
       <c r="L55" t="s">
         <v>134</v>
@@ -2579,7 +2690,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="11:13">
+    <row r="56" spans="8:13">
       <c r="K56" s="12"/>
       <c r="L56" t="s">
         <v>135</v>
@@ -2588,7 +2699,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="11:13">
+    <row r="57" spans="8:13">
       <c r="K57" s="12"/>
       <c r="L57" t="s">
         <v>136</v>
@@ -2597,7 +2708,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="11:13">
+    <row r="58" spans="8:13">
       <c r="K58" s="12"/>
       <c r="L58" t="s">
         <v>137</v>
@@ -2606,7 +2717,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="11:13">
+    <row r="59" spans="8:13">
       <c r="K59" s="12"/>
       <c r="L59" t="s">
         <v>138</v>
@@ -2615,7 +2726,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="11:13">
+    <row r="60" spans="8:13">
       <c r="K60" s="12"/>
       <c r="L60" t="s">
         <v>139</v>
@@ -2624,7 +2735,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="61" spans="11:13">
+    <row r="61" spans="8:13">
       <c r="K61" s="12"/>
       <c r="L61" t="s">
         <v>140</v>
@@ -2633,7 +2744,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="62" spans="11:13">
+    <row r="62" spans="8:13">
       <c r="K62" s="12"/>
       <c r="L62" t="s">
         <v>141</v>
@@ -2642,7 +2753,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="11:13">
+    <row r="63" spans="8:13">
       <c r="K63" s="12"/>
       <c r="L63" t="s">
         <v>142</v>
@@ -2651,7 +2762,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="11:13">
+    <row r="64" spans="8:13">
       <c r="K64" s="12"/>
       <c r="L64" t="s">
         <v>143</v>
@@ -3409,10 +3520,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="K8:K44"/>
-    <mergeCell ref="K45:K147"/>
-    <mergeCell ref="H37:H44"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="H5:J5"/>
@@ -3422,6 +3529,10 @@
     <mergeCell ref="B18:B34"/>
     <mergeCell ref="H21:H34"/>
     <mergeCell ref="E21:E29"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="K8:K44"/>
+    <mergeCell ref="K45:K147"/>
+    <mergeCell ref="H37:H54"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Raport.xlsx
+++ b/Raport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dominik\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{337988E2-9732-412D-8AB8-A85F694D329C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E11BA313-FB6F-4D0F-8B4A-14E196F7A3BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="263">
   <si>
     <t>Liczba członków zespołu</t>
   </si>
@@ -773,18 +773,74 @@
   </si>
   <si>
     <t>Dodawanie komentarzy w menu.component.ts</t>
+  </si>
+  <si>
+    <t>Plik user-profile.component.ts</t>
+  </si>
+  <si>
+    <t>Kuba</t>
+  </si>
+  <si>
+    <t>Dominik</t>
+  </si>
+  <si>
+    <t>Szymon</t>
+  </si>
+  <si>
+    <t>Wojciech</t>
+  </si>
+  <si>
+    <t>"zaangażowanie":</t>
+  </si>
+  <si>
+    <t>Dodanie user-profile do routingu</t>
+  </si>
+  <si>
+    <t>Dodanie linii kodu w user-profile.component.html</t>
+  </si>
+  <si>
+    <t>Plik user-profile.component.css</t>
+  </si>
+  <si>
+    <t>Dodanie admin-panel do routingu</t>
+  </si>
+  <si>
+    <t>Dodanie funkcji login i admin w auth.service.ts</t>
+  </si>
+  <si>
+    <t>Zawartość pliku admin-panel.component.css:</t>
+  </si>
+  <si>
+    <t>Zawartosc pliku uzytkownik-dto.ts</t>
+  </si>
+  <si>
+    <t>Dodanie pliku admin-panel.component.ts:</t>
+  </si>
+  <si>
+    <t>Dodanie pliku admin-panel.component.html:</t>
+  </si>
+  <si>
+    <t>Dodanie "&lt;base href="/"&gt;" w index.html</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -874,14 +930,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -890,11 +946,14 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -906,17 +965,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1408,30 +1467,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37:H54"/>
+    <sheetView tabSelected="1" topLeftCell="C25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K45" sqref="K45:K147"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="39.85546875" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
-    <col min="3" max="3" width="39.5703125" customWidth="1"/>
-    <col min="4" max="5" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="39.88671875" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" customWidth="1"/>
+    <col min="3" max="3" width="39.5546875" customWidth="1"/>
+    <col min="4" max="5" width="12.5546875" customWidth="1"/>
     <col min="6" max="6" width="37" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12.5703125" customWidth="1"/>
-    <col min="9" max="9" width="59.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="12.5703125" customWidth="1"/>
-    <col min="12" max="12" width="41.28515625" customWidth="1"/>
-    <col min="13" max="13" width="12.5703125" customWidth="1"/>
+    <col min="7" max="8" width="12.5546875" customWidth="1"/>
+    <col min="9" max="9" width="59.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="12.5546875" customWidth="1"/>
+    <col min="12" max="12" width="92.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="61.5">
+    <row r="1" spans="1:13" ht="61.2">
       <c r="A1" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="23.25">
+    <row r="2" spans="1:13" ht="23.4">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1439,7 +1498,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="61.5">
+    <row r="3" spans="1:13" ht="61.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1454,41 +1513,41 @@
       </c>
       <c r="J3">
         <f>SUM(J7:J1001)</f>
-        <v>876</v>
+        <v>1104</v>
       </c>
       <c r="M3">
         <f>SUM(M7:M1001)</f>
         <v>3142</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="24.95" customHeight="1">
+    <row r="4" spans="1:13" ht="24.9" customHeight="1">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1"/>
       <c r="D4">
         <f>($B$2*D$3)/SUM($D$3:$AK$3)</f>
-        <v>0.75219170075978958</v>
+        <v>0.7279411764705882</v>
       </c>
       <c r="G4">
         <f>($B$2*G$3)/SUM($D$3:$AK$3)</f>
-        <v>0.89947399181765053</v>
+        <v>0.87047511312217196</v>
       </c>
       <c r="J4">
         <f>($B$2*J$3)/SUM($D$3:$AK$3)</f>
-        <v>0.51198129748684984</v>
+        <v>0.6244343891402715</v>
       </c>
       <c r="M4">
         <f>($B$2*M$3)/SUM($D$3:$AK$3)</f>
-        <v>1.8363530099357102</v>
+        <v>1.7771493212669682</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
       <c r="E5" s="13" t="s">
         <v>8</v>
       </c>
@@ -1609,7 +1668,7 @@
       <c r="J8">
         <v>100</v>
       </c>
-      <c r="K8" s="12">
+      <c r="K8" s="14">
         <v>45772</v>
       </c>
       <c r="L8" t="s">
@@ -1620,7 +1679,7 @@
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="B9" s="12">
+      <c r="B9" s="14">
         <v>45785</v>
       </c>
       <c r="C9" t="s">
@@ -1647,7 +1706,7 @@
       <c r="J9">
         <v>118</v>
       </c>
-      <c r="K9" s="12"/>
+      <c r="K9" s="14"/>
       <c r="L9" s="5" t="s">
         <v>17</v>
       </c>
@@ -1656,7 +1715,7 @@
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="B10" s="12"/>
+      <c r="B10" s="14"/>
       <c r="C10" t="s">
         <v>64</v>
       </c>
@@ -1669,7 +1728,7 @@
       <c r="G10">
         <v>57</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="14">
         <v>45803</v>
       </c>
       <c r="I10" t="s">
@@ -1678,7 +1737,7 @@
       <c r="J10">
         <v>70</v>
       </c>
-      <c r="K10" s="12"/>
+      <c r="K10" s="14"/>
       <c r="L10" t="s">
         <v>18</v>
       </c>
@@ -1687,7 +1746,7 @@
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="B11" s="12"/>
+      <c r="B11" s="14"/>
       <c r="C11" t="s">
         <v>65</v>
       </c>
@@ -1700,14 +1759,14 @@
       <c r="G11">
         <v>59</v>
       </c>
-      <c r="H11" s="12"/>
+      <c r="H11" s="14"/>
       <c r="I11" t="s">
         <v>75</v>
       </c>
       <c r="J11">
         <v>23</v>
       </c>
-      <c r="K11" s="12"/>
+      <c r="K11" s="14"/>
       <c r="L11" t="s">
         <v>19</v>
       </c>
@@ -1716,7 +1775,7 @@
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="B12" s="12"/>
+      <c r="B12" s="14"/>
       <c r="C12" t="s">
         <v>66</v>
       </c>
@@ -1729,14 +1788,14 @@
       <c r="G12">
         <v>58</v>
       </c>
-      <c r="H12" s="12"/>
+      <c r="H12" s="14"/>
       <c r="I12" t="s">
         <v>77</v>
       </c>
       <c r="J12">
         <v>23</v>
       </c>
-      <c r="K12" s="12"/>
+      <c r="K12" s="14"/>
       <c r="L12" t="s">
         <v>20</v>
       </c>
@@ -1745,7 +1804,7 @@
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="B13" s="12"/>
+      <c r="B13" s="14"/>
       <c r="C13" t="s">
         <v>67</v>
       </c>
@@ -1758,14 +1817,14 @@
       <c r="G13">
         <v>57</v>
       </c>
-      <c r="H13" s="12"/>
+      <c r="H13" s="14"/>
       <c r="I13" t="s">
         <v>76</v>
       </c>
       <c r="J13">
         <v>27</v>
       </c>
-      <c r="K13" s="12"/>
+      <c r="K13" s="14"/>
       <c r="L13" s="5" t="s">
         <v>21</v>
       </c>
@@ -1774,7 +1833,7 @@
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="B14" s="12"/>
+      <c r="B14" s="14"/>
       <c r="C14" t="s">
         <v>68</v>
       </c>
@@ -1787,14 +1846,14 @@
       <c r="G14">
         <v>61</v>
       </c>
-      <c r="H14" s="12"/>
+      <c r="H14" s="14"/>
       <c r="I14" t="s">
         <v>74</v>
       </c>
       <c r="J14">
         <v>24</v>
       </c>
-      <c r="K14" s="12"/>
+      <c r="K14" s="14"/>
       <c r="L14" t="s">
         <v>22</v>
       </c>
@@ -1803,7 +1862,7 @@
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="B15" s="12"/>
+      <c r="B15" s="14"/>
       <c r="C15" t="s">
         <v>69</v>
       </c>
@@ -1816,14 +1875,14 @@
       <c r="G15">
         <v>60</v>
       </c>
-      <c r="H15" s="12"/>
+      <c r="H15" s="14"/>
       <c r="I15" t="s">
         <v>78</v>
       </c>
       <c r="J15">
         <v>27</v>
       </c>
-      <c r="K15" s="12"/>
+      <c r="K15" s="14"/>
       <c r="L15" s="5" t="s">
         <v>23</v>
       </c>
@@ -1832,7 +1891,7 @@
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="B16" s="12"/>
+      <c r="B16" s="14"/>
       <c r="C16" t="s">
         <v>70</v>
       </c>
@@ -1845,14 +1904,14 @@
       <c r="G16">
         <v>16</v>
       </c>
-      <c r="H16" s="12"/>
+      <c r="H16" s="14"/>
       <c r="I16" t="s">
         <v>79</v>
       </c>
       <c r="J16">
         <v>27</v>
       </c>
-      <c r="K16" s="12"/>
+      <c r="K16" s="14"/>
       <c r="L16" t="s">
         <v>24</v>
       </c>
@@ -1861,7 +1920,7 @@
       </c>
     </row>
     <row r="17" spans="2:13">
-      <c r="B17" s="12"/>
+      <c r="B17" s="14"/>
       <c r="C17" t="s">
         <v>71</v>
       </c>
@@ -1874,14 +1933,14 @@
       <c r="G17">
         <v>59</v>
       </c>
-      <c r="H17" s="12"/>
+      <c r="H17" s="14"/>
       <c r="I17" t="s">
         <v>80</v>
       </c>
       <c r="J17">
         <v>27</v>
       </c>
-      <c r="K17" s="12"/>
+      <c r="K17" s="14"/>
       <c r="L17" t="s">
         <v>25</v>
       </c>
@@ -1890,7 +1949,7 @@
       </c>
     </row>
     <row r="18" spans="2:13">
-      <c r="B18" s="12">
+      <c r="B18" s="14">
         <v>45803</v>
       </c>
       <c r="C18" t="s">
@@ -1905,14 +1964,14 @@
       <c r="G18">
         <v>64</v>
       </c>
-      <c r="H18" s="12"/>
+      <c r="H18" s="14"/>
       <c r="I18" t="s">
         <v>81</v>
       </c>
       <c r="J18">
         <v>27</v>
       </c>
-      <c r="K18" s="12"/>
+      <c r="K18" s="14"/>
       <c r="L18" t="s">
         <v>26</v>
       </c>
@@ -1921,21 +1980,21 @@
       </c>
     </row>
     <row r="19" spans="2:13">
-      <c r="B19" s="12"/>
+      <c r="B19" s="14"/>
       <c r="C19" t="s">
         <v>85</v>
       </c>
       <c r="D19">
         <v>144</v>
       </c>
-      <c r="H19" s="12"/>
+      <c r="H19" s="14"/>
       <c r="I19" t="s">
         <v>82</v>
       </c>
       <c r="J19">
         <v>28</v>
       </c>
-      <c r="K19" s="12"/>
+      <c r="K19" s="14"/>
       <c r="L19" t="s">
         <v>27</v>
       </c>
@@ -1944,21 +2003,21 @@
       </c>
     </row>
     <row r="20" spans="2:13">
-      <c r="B20" s="12"/>
+      <c r="B20" s="14"/>
       <c r="C20" t="s">
         <v>86</v>
       </c>
       <c r="D20">
         <v>164</v>
       </c>
-      <c r="H20" s="12"/>
+      <c r="H20" s="14"/>
       <c r="I20" t="s">
         <v>83</v>
       </c>
       <c r="J20">
         <v>34</v>
       </c>
-      <c r="K20" s="12"/>
+      <c r="K20" s="14"/>
       <c r="L20" t="s">
         <v>28</v>
       </c>
@@ -1967,14 +2026,14 @@
       </c>
     </row>
     <row r="21" spans="2:13">
-      <c r="B21" s="12"/>
+      <c r="B21" s="14"/>
       <c r="C21" t="s">
         <v>87</v>
       </c>
       <c r="D21">
         <v>58</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="14">
         <v>45804</v>
       </c>
       <c r="F21" t="s">
@@ -1983,16 +2042,16 @@
       <c r="G21">
         <v>81</v>
       </c>
-      <c r="H21" s="12">
+      <c r="H21" s="14">
         <v>45817</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I21" s="15" t="s">
         <v>110</v>
       </c>
       <c r="J21" s="6">
         <v>3</v>
       </c>
-      <c r="K21" s="12"/>
+      <c r="K21" s="14"/>
       <c r="L21" t="s">
         <v>29</v>
       </c>
@@ -2001,7 +2060,7 @@
       </c>
     </row>
     <row r="22" spans="2:13">
-      <c r="B22" s="12"/>
+      <c r="B22" s="14"/>
       <c r="C22" t="s">
         <v>88</v>
       </c>
@@ -2015,14 +2074,14 @@
       <c r="G22">
         <v>69</v>
       </c>
-      <c r="H22" s="12"/>
+      <c r="H22" s="14"/>
       <c r="I22" t="s">
         <v>111</v>
       </c>
       <c r="J22" s="6">
         <v>6</v>
       </c>
-      <c r="K22" s="12"/>
+      <c r="K22" s="14"/>
       <c r="L22" t="s">
         <v>30</v>
       </c>
@@ -2031,7 +2090,7 @@
       </c>
     </row>
     <row r="23" spans="2:13">
-      <c r="B23" s="12"/>
+      <c r="B23" s="14"/>
       <c r="C23" t="s">
         <v>89</v>
       </c>
@@ -2045,14 +2104,14 @@
       <c r="G23">
         <v>75</v>
       </c>
-      <c r="H23" s="12"/>
+      <c r="H23" s="14"/>
       <c r="I23" t="s">
         <v>112</v>
       </c>
       <c r="J23" s="6">
         <v>3</v>
       </c>
-      <c r="K23" s="12"/>
+      <c r="K23" s="14"/>
       <c r="L23" t="s">
         <v>31</v>
       </c>
@@ -2061,7 +2120,7 @@
       </c>
     </row>
     <row r="24" spans="2:13">
-      <c r="B24" s="12"/>
+      <c r="B24" s="14"/>
       <c r="C24" t="s">
         <v>90</v>
       </c>
@@ -2075,14 +2134,14 @@
       <c r="G24">
         <v>126</v>
       </c>
-      <c r="H24" s="12"/>
+      <c r="H24" s="14"/>
       <c r="I24" t="s">
         <v>113</v>
       </c>
       <c r="J24" s="6">
         <v>6</v>
       </c>
-      <c r="K24" s="12"/>
+      <c r="K24" s="14"/>
       <c r="L24" t="s">
         <v>32</v>
       </c>
@@ -2091,7 +2150,7 @@
       </c>
     </row>
     <row r="25" spans="2:13">
-      <c r="B25" s="12"/>
+      <c r="B25" s="14"/>
       <c r="C25" t="s">
         <v>91</v>
       </c>
@@ -2105,14 +2164,14 @@
       <c r="G25">
         <v>65</v>
       </c>
-      <c r="H25" s="12"/>
+      <c r="H25" s="14"/>
       <c r="I25" t="s">
         <v>114</v>
       </c>
       <c r="J25" s="6">
         <v>4</v>
       </c>
-      <c r="K25" s="12"/>
+      <c r="K25" s="14"/>
       <c r="L25" t="s">
         <v>33</v>
       </c>
@@ -2121,7 +2180,7 @@
       </c>
     </row>
     <row r="26" spans="2:13">
-      <c r="B26" s="12"/>
+      <c r="B26" s="14"/>
       <c r="C26" t="s">
         <v>92</v>
       </c>
@@ -2135,14 +2194,14 @@
       <c r="G26">
         <v>82</v>
       </c>
-      <c r="H26" s="12"/>
-      <c r="I26" t="s">
+      <c r="H26" s="14"/>
+      <c r="I26" s="15" t="s">
         <v>115</v>
       </c>
       <c r="J26" s="6">
         <v>2</v>
       </c>
-      <c r="K26" s="12"/>
+      <c r="K26" s="14"/>
       <c r="L26" t="s">
         <v>34</v>
       </c>
@@ -2151,7 +2210,7 @@
       </c>
     </row>
     <row r="27" spans="2:13">
-      <c r="B27" s="12"/>
+      <c r="B27" s="14"/>
       <c r="C27" t="s">
         <v>93</v>
       </c>
@@ -2165,14 +2224,14 @@
       <c r="G27">
         <v>75</v>
       </c>
-      <c r="H27" s="12"/>
+      <c r="H27" s="14"/>
       <c r="I27" t="s">
         <v>116</v>
       </c>
       <c r="J27" s="6">
         <v>8</v>
       </c>
-      <c r="K27" s="12"/>
+      <c r="K27" s="14"/>
       <c r="L27" t="s">
         <v>35</v>
       </c>
@@ -2181,7 +2240,7 @@
       </c>
     </row>
     <row r="28" spans="2:13">
-      <c r="B28" s="12"/>
+      <c r="B28" s="14"/>
       <c r="C28" t="s">
         <v>94</v>
       </c>
@@ -2195,14 +2254,14 @@
       <c r="G28">
         <v>266</v>
       </c>
-      <c r="H28" s="12"/>
+      <c r="H28" s="14"/>
       <c r="I28" t="s">
         <v>117</v>
       </c>
       <c r="J28" s="6">
         <v>3</v>
       </c>
-      <c r="K28" s="12"/>
+      <c r="K28" s="14"/>
       <c r="L28" t="s">
         <v>36</v>
       </c>
@@ -2211,7 +2270,7 @@
       </c>
     </row>
     <row r="29" spans="2:13">
-      <c r="B29" s="12"/>
+      <c r="B29" s="14"/>
       <c r="C29" t="s">
         <v>95</v>
       </c>
@@ -2225,14 +2284,14 @@
       <c r="G29">
         <v>71</v>
       </c>
-      <c r="H29" s="12"/>
+      <c r="H29" s="14"/>
       <c r="I29" t="s">
         <v>118</v>
       </c>
       <c r="J29" s="6">
         <v>12</v>
       </c>
-      <c r="K29" s="12"/>
+      <c r="K29" s="14"/>
       <c r="L29" t="s">
         <v>37</v>
       </c>
@@ -2241,21 +2300,21 @@
       </c>
     </row>
     <row r="30" spans="2:13">
-      <c r="B30" s="12"/>
+      <c r="B30" s="14"/>
       <c r="C30" t="s">
         <v>96</v>
       </c>
       <c r="D30">
         <v>15</v>
       </c>
-      <c r="H30" s="12"/>
+      <c r="H30" s="14"/>
       <c r="I30" t="s">
         <v>119</v>
       </c>
       <c r="J30" s="6">
         <v>3</v>
       </c>
-      <c r="K30" s="12"/>
+      <c r="K30" s="14"/>
       <c r="L30" t="s">
         <v>38</v>
       </c>
@@ -2264,21 +2323,21 @@
       </c>
     </row>
     <row r="31" spans="2:13">
-      <c r="B31" s="12"/>
+      <c r="B31" s="14"/>
       <c r="C31" t="s">
         <v>97</v>
       </c>
       <c r="D31">
         <v>17</v>
       </c>
-      <c r="H31" s="12"/>
+      <c r="H31" s="14"/>
       <c r="I31" t="s">
         <v>120</v>
       </c>
       <c r="J31" s="6">
         <v>6</v>
       </c>
-      <c r="K31" s="12"/>
+      <c r="K31" s="14"/>
       <c r="L31" t="s">
         <v>39</v>
       </c>
@@ -2287,21 +2346,21 @@
       </c>
     </row>
     <row r="32" spans="2:13">
-      <c r="B32" s="12"/>
+      <c r="B32" s="14"/>
       <c r="C32" t="s">
         <v>98</v>
       </c>
       <c r="D32">
         <v>44</v>
       </c>
-      <c r="H32" s="12"/>
+      <c r="H32" s="14"/>
       <c r="I32" t="s">
         <v>121</v>
       </c>
       <c r="J32" s="6">
         <v>2</v>
       </c>
-      <c r="K32" s="12"/>
+      <c r="K32" s="14"/>
       <c r="L32" s="5" t="s">
         <v>40</v>
       </c>
@@ -2310,21 +2369,21 @@
       </c>
     </row>
     <row r="33" spans="2:13">
-      <c r="B33" s="12"/>
+      <c r="B33" s="14"/>
       <c r="C33" t="s">
         <v>99</v>
       </c>
       <c r="D33">
         <v>43</v>
       </c>
-      <c r="H33" s="12"/>
+      <c r="H33" s="14"/>
       <c r="I33" t="s">
         <v>122</v>
       </c>
       <c r="J33" s="6">
         <v>4</v>
       </c>
-      <c r="K33" s="12"/>
+      <c r="K33" s="14"/>
       <c r="L33" t="s">
         <v>41</v>
       </c>
@@ -2333,21 +2392,21 @@
       </c>
     </row>
     <row r="34" spans="2:13">
-      <c r="B34" s="12"/>
+      <c r="B34" s="14"/>
       <c r="C34" t="s">
         <v>100</v>
       </c>
       <c r="D34">
         <v>28</v>
       </c>
-      <c r="H34" s="12"/>
+      <c r="H34" s="14"/>
       <c r="I34" t="s">
         <v>123</v>
       </c>
       <c r="J34" s="6">
         <v>8</v>
       </c>
-      <c r="K34" s="12"/>
+      <c r="K34" s="14"/>
       <c r="L34" t="s">
         <v>42</v>
       </c>
@@ -2356,7 +2415,7 @@
       </c>
     </row>
     <row r="35" spans="2:13">
-      <c r="H35" s="12">
+      <c r="H35" s="14">
         <v>45898</v>
       </c>
       <c r="I35" s="9" t="s">
@@ -2365,7 +2424,7 @@
       <c r="J35" s="6">
         <v>5</v>
       </c>
-      <c r="K35" s="12"/>
+      <c r="K35" s="14"/>
       <c r="L35" t="s">
         <v>43</v>
       </c>
@@ -2381,7 +2440,7 @@
       <c r="J36" s="6">
         <v>15</v>
       </c>
-      <c r="K36" s="12"/>
+      <c r="K36" s="14"/>
       <c r="L36" t="s">
         <v>44</v>
       </c>
@@ -2390,7 +2449,7 @@
       </c>
     </row>
     <row r="37" spans="2:13">
-      <c r="H37" s="12">
+      <c r="H37" s="14">
         <v>45899</v>
       </c>
       <c r="I37" s="10" t="s">
@@ -2399,7 +2458,7 @@
       <c r="J37" s="6">
         <v>18</v>
       </c>
-      <c r="K37" s="12"/>
+      <c r="K37" s="14"/>
       <c r="L37" t="s">
         <v>45</v>
       </c>
@@ -2408,14 +2467,14 @@
       </c>
     </row>
     <row r="38" spans="2:13">
-      <c r="H38" s="12"/>
+      <c r="H38" s="14"/>
       <c r="I38" s="10" t="s">
         <v>230</v>
       </c>
       <c r="J38" s="6">
         <v>8</v>
       </c>
-      <c r="K38" s="12"/>
+      <c r="K38" s="14"/>
       <c r="L38" t="s">
         <v>46</v>
       </c>
@@ -2424,14 +2483,14 @@
       </c>
     </row>
     <row r="39" spans="2:13">
-      <c r="H39" s="12"/>
+      <c r="H39" s="14"/>
       <c r="I39" s="10" t="s">
         <v>231</v>
       </c>
       <c r="J39" s="6">
         <v>8</v>
       </c>
-      <c r="K39" s="12"/>
+      <c r="K39" s="14"/>
       <c r="L39" t="s">
         <v>47</v>
       </c>
@@ -2440,14 +2499,14 @@
       </c>
     </row>
     <row r="40" spans="2:13">
-      <c r="H40" s="12"/>
+      <c r="H40" s="14"/>
       <c r="I40" s="10" t="s">
         <v>232</v>
       </c>
       <c r="J40" s="6">
         <v>8</v>
       </c>
-      <c r="K40" s="12"/>
+      <c r="K40" s="14"/>
       <c r="L40" s="5" t="s">
         <v>48</v>
       </c>
@@ -2456,14 +2515,14 @@
       </c>
     </row>
     <row r="41" spans="2:13">
-      <c r="H41" s="12"/>
+      <c r="H41" s="14"/>
       <c r="I41" s="10" t="s">
         <v>233</v>
       </c>
       <c r="J41" s="6">
         <v>10</v>
       </c>
-      <c r="K41" s="12"/>
+      <c r="K41" s="14"/>
       <c r="L41" s="5" t="s">
         <v>49</v>
       </c>
@@ -2472,14 +2531,14 @@
       </c>
     </row>
     <row r="42" spans="2:13">
-      <c r="H42" s="12"/>
+      <c r="H42" s="14"/>
       <c r="I42" s="10" t="s">
         <v>234</v>
       </c>
       <c r="J42" s="6">
         <v>8</v>
       </c>
-      <c r="K42" s="12"/>
+      <c r="K42" s="14"/>
       <c r="L42" t="s">
         <v>50</v>
       </c>
@@ -2488,14 +2547,14 @@
       </c>
     </row>
     <row r="43" spans="2:13">
-      <c r="H43" s="12"/>
+      <c r="H43" s="14"/>
       <c r="I43" s="10" t="s">
         <v>235</v>
       </c>
       <c r="J43" s="6">
         <v>10</v>
       </c>
-      <c r="K43" s="12"/>
+      <c r="K43" s="14"/>
       <c r="L43" t="s">
         <v>51</v>
       </c>
@@ -2504,14 +2563,14 @@
       </c>
     </row>
     <row r="44" spans="2:13">
-      <c r="H44" s="12"/>
+      <c r="H44" s="14"/>
       <c r="I44" s="10" t="s">
         <v>236</v>
       </c>
       <c r="J44" s="6">
         <v>8</v>
       </c>
-      <c r="K44" s="12"/>
+      <c r="K44" s="14"/>
       <c r="L44" t="s">
         <v>52</v>
       </c>
@@ -2520,14 +2579,14 @@
       </c>
     </row>
     <row r="45" spans="2:13">
-      <c r="H45" s="12"/>
+      <c r="H45" s="14"/>
       <c r="I45" s="11" t="s">
         <v>237</v>
       </c>
       <c r="J45" s="6">
         <v>21</v>
       </c>
-      <c r="K45" s="12">
+      <c r="K45" s="14">
         <v>45898</v>
       </c>
       <c r="L45" s="7" t="s">
@@ -2538,14 +2597,14 @@
       </c>
     </row>
     <row r="46" spans="2:13">
-      <c r="H46" s="12"/>
+      <c r="H46" s="14"/>
       <c r="I46" s="11" t="s">
         <v>238</v>
       </c>
       <c r="J46" s="6">
         <v>17</v>
       </c>
-      <c r="K46" s="12"/>
+      <c r="K46" s="14"/>
       <c r="L46" s="7" t="s">
         <v>125</v>
       </c>
@@ -2554,14 +2613,14 @@
       </c>
     </row>
     <row r="47" spans="2:13">
-      <c r="H47" s="12"/>
+      <c r="H47" s="14"/>
       <c r="I47" s="11" t="s">
         <v>239</v>
       </c>
       <c r="J47" s="6">
         <v>12</v>
       </c>
-      <c r="K47" s="12"/>
+      <c r="K47" s="14"/>
       <c r="L47" t="s">
         <v>126</v>
       </c>
@@ -2570,14 +2629,14 @@
       </c>
     </row>
     <row r="48" spans="2:13">
-      <c r="H48" s="12"/>
+      <c r="H48" s="14"/>
       <c r="I48" s="11" t="s">
         <v>240</v>
       </c>
       <c r="J48" s="6">
         <v>7</v>
       </c>
-      <c r="K48" s="12"/>
+      <c r="K48" s="14"/>
       <c r="L48" t="s">
         <v>127</v>
       </c>
@@ -2586,14 +2645,14 @@
       </c>
     </row>
     <row r="49" spans="8:13">
-      <c r="H49" s="12"/>
+      <c r="H49" s="14"/>
       <c r="I49" s="11" t="s">
         <v>241</v>
       </c>
       <c r="J49" s="6">
         <v>12</v>
       </c>
-      <c r="K49" s="12"/>
+      <c r="K49" s="14"/>
       <c r="L49" t="s">
         <v>128</v>
       </c>
@@ -2602,14 +2661,14 @@
       </c>
     </row>
     <row r="50" spans="8:13">
-      <c r="H50" s="12"/>
+      <c r="H50" s="14"/>
       <c r="I50" s="11" t="s">
         <v>242</v>
       </c>
       <c r="J50" s="6">
         <v>13</v>
       </c>
-      <c r="K50" s="12"/>
+      <c r="K50" s="14"/>
       <c r="L50" t="s">
         <v>129</v>
       </c>
@@ -2618,14 +2677,14 @@
       </c>
     </row>
     <row r="51" spans="8:13">
-      <c r="H51" s="12"/>
+      <c r="H51" s="14"/>
       <c r="I51" s="11" t="s">
         <v>243</v>
       </c>
       <c r="J51" s="6">
         <v>14</v>
       </c>
-      <c r="K51" s="12"/>
+      <c r="K51" s="14"/>
       <c r="L51" t="s">
         <v>130</v>
       </c>
@@ -2634,14 +2693,14 @@
       </c>
     </row>
     <row r="52" spans="8:13">
-      <c r="H52" s="12"/>
+      <c r="H52" s="14"/>
       <c r="I52" s="11" t="s">
         <v>244</v>
       </c>
       <c r="J52" s="6">
         <v>14</v>
       </c>
-      <c r="K52" s="12"/>
+      <c r="K52" s="14"/>
       <c r="L52" t="s">
         <v>131</v>
       </c>
@@ -2650,14 +2709,14 @@
       </c>
     </row>
     <row r="53" spans="8:13">
-      <c r="H53" s="12"/>
+      <c r="H53" s="14"/>
       <c r="I53" s="11" t="s">
         <v>245</v>
       </c>
       <c r="J53" s="11">
         <v>8</v>
       </c>
-      <c r="K53" s="12"/>
+      <c r="K53" s="14"/>
       <c r="L53" s="8" t="s">
         <v>132</v>
       </c>
@@ -2666,14 +2725,14 @@
       </c>
     </row>
     <row r="54" spans="8:13">
-      <c r="H54" s="12"/>
+      <c r="H54" s="14"/>
       <c r="I54" s="11" t="s">
         <v>246</v>
       </c>
       <c r="J54" s="6">
         <v>10</v>
       </c>
-      <c r="K54" s="12"/>
+      <c r="K54" s="14"/>
       <c r="L54" t="s">
         <v>133</v>
       </c>
@@ -2682,7 +2741,16 @@
       </c>
     </row>
     <row r="55" spans="8:13">
-      <c r="K55" s="12"/>
+      <c r="H55" s="14">
+        <v>45900</v>
+      </c>
+      <c r="I55" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="J55" s="6">
+        <v>44</v>
+      </c>
+      <c r="K55" s="14"/>
       <c r="L55" t="s">
         <v>134</v>
       </c>
@@ -2691,7 +2759,14 @@
       </c>
     </row>
     <row r="56" spans="8:13">
-      <c r="K56" s="12"/>
+      <c r="H56" s="14"/>
+      <c r="I56" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="J56" s="6">
+        <v>1</v>
+      </c>
+      <c r="K56" s="14"/>
       <c r="L56" t="s">
         <v>135</v>
       </c>
@@ -2700,7 +2775,14 @@
       </c>
     </row>
     <row r="57" spans="8:13">
-      <c r="K57" s="12"/>
+      <c r="H57" s="14"/>
+      <c r="I57" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="J57" s="15">
+        <v>15</v>
+      </c>
+      <c r="K57" s="14"/>
       <c r="L57" t="s">
         <v>136</v>
       </c>
@@ -2709,7 +2791,14 @@
       </c>
     </row>
     <row r="58" spans="8:13">
-      <c r="K58" s="12"/>
+      <c r="H58" s="14"/>
+      <c r="I58" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="J58" s="15">
+        <v>35</v>
+      </c>
+      <c r="K58" s="14"/>
       <c r="L58" t="s">
         <v>137</v>
       </c>
@@ -2718,7 +2807,14 @@
       </c>
     </row>
     <row r="59" spans="8:13">
-      <c r="K59" s="12"/>
+      <c r="H59" s="14"/>
+      <c r="I59" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="J59" s="6">
+        <v>1</v>
+      </c>
+      <c r="K59" s="14"/>
       <c r="L59" t="s">
         <v>138</v>
       </c>
@@ -2727,7 +2823,14 @@
       </c>
     </row>
     <row r="60" spans="8:13">
-      <c r="K60" s="12"/>
+      <c r="H60" s="14"/>
+      <c r="I60" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J60" s="6">
+        <v>12</v>
+      </c>
+      <c r="K60" s="14"/>
       <c r="L60" t="s">
         <v>139</v>
       </c>
@@ -2736,7 +2839,14 @@
       </c>
     </row>
     <row r="61" spans="8:13">
-      <c r="K61" s="12"/>
+      <c r="H61" s="14"/>
+      <c r="I61" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="J61" s="6">
+        <v>5</v>
+      </c>
+      <c r="K61" s="14"/>
       <c r="L61" t="s">
         <v>140</v>
       </c>
@@ -2745,7 +2855,14 @@
       </c>
     </row>
     <row r="62" spans="8:13">
-      <c r="K62" s="12"/>
+      <c r="H62" s="14"/>
+      <c r="I62" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="J62" s="15">
+        <v>51</v>
+      </c>
+      <c r="K62" s="14"/>
       <c r="L62" t="s">
         <v>141</v>
       </c>
@@ -2754,7 +2871,14 @@
       </c>
     </row>
     <row r="63" spans="8:13">
-      <c r="K63" s="12"/>
+      <c r="H63" s="14"/>
+      <c r="I63" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="J63" s="15">
+        <v>35</v>
+      </c>
+      <c r="K63" s="14"/>
       <c r="L63" t="s">
         <v>142</v>
       </c>
@@ -2763,7 +2887,14 @@
       </c>
     </row>
     <row r="64" spans="8:13">
-      <c r="K64" s="12"/>
+      <c r="H64" s="14"/>
+      <c r="I64" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="J64" s="6">
+        <v>28</v>
+      </c>
+      <c r="K64" s="14"/>
       <c r="L64" t="s">
         <v>143</v>
       </c>
@@ -2771,8 +2902,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="11:13">
-      <c r="K65" s="12"/>
+    <row r="65" spans="8:13">
+      <c r="H65" s="14"/>
+      <c r="I65" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="J65" s="6">
+        <v>1</v>
+      </c>
+      <c r="K65" s="14"/>
       <c r="L65" t="s">
         <v>144</v>
       </c>
@@ -2780,8 +2918,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="11:13">
-      <c r="K66" s="12"/>
+    <row r="66" spans="8:13">
+      <c r="K66" s="14"/>
       <c r="L66" t="s">
         <v>145</v>
       </c>
@@ -2789,8 +2927,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="11:13">
-      <c r="K67" s="12"/>
+    <row r="67" spans="8:13">
+      <c r="K67" s="14"/>
       <c r="L67" t="s">
         <v>146</v>
       </c>
@@ -2798,8 +2936,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="11:13">
-      <c r="K68" s="12"/>
+    <row r="68" spans="8:13">
+      <c r="K68" s="14"/>
       <c r="L68" t="s">
         <v>147</v>
       </c>
@@ -2807,8 +2945,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="69" spans="11:13">
-      <c r="K69" s="12"/>
+    <row r="69" spans="8:13">
+      <c r="K69" s="14"/>
       <c r="L69" t="s">
         <v>148</v>
       </c>
@@ -2816,8 +2954,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="11:13">
-      <c r="K70" s="12"/>
+    <row r="70" spans="8:13">
+      <c r="K70" s="14"/>
       <c r="L70" t="s">
         <v>149</v>
       </c>
@@ -2825,8 +2963,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="11:13">
-      <c r="K71" s="12"/>
+    <row r="71" spans="8:13">
+      <c r="K71" s="14"/>
       <c r="L71" t="s">
         <v>150</v>
       </c>
@@ -2834,8 +2972,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="11:13">
-      <c r="K72" s="12"/>
+    <row r="72" spans="8:13">
+      <c r="K72" s="14"/>
       <c r="L72" t="s">
         <v>151</v>
       </c>
@@ -2843,8 +2981,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="11:13">
-      <c r="K73" s="12"/>
+    <row r="73" spans="8:13">
+      <c r="K73" s="14"/>
       <c r="L73" t="s">
         <v>152</v>
       </c>
@@ -2852,8 +2990,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="74" spans="11:13">
-      <c r="K74" s="12"/>
+    <row r="74" spans="8:13">
+      <c r="K74" s="14"/>
       <c r="L74" t="s">
         <v>153</v>
       </c>
@@ -2861,8 +2999,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="75" spans="11:13">
-      <c r="K75" s="12"/>
+    <row r="75" spans="8:13">
+      <c r="K75" s="14"/>
       <c r="L75" t="s">
         <v>154</v>
       </c>
@@ -2870,8 +3008,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="76" spans="11:13">
-      <c r="K76" s="12"/>
+    <row r="76" spans="8:13">
+      <c r="K76" s="14"/>
       <c r="L76" t="s">
         <v>155</v>
       </c>
@@ -2879,8 +3017,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="11:13">
-      <c r="K77" s="12"/>
+    <row r="77" spans="8:13">
+      <c r="K77" s="14"/>
       <c r="L77" t="s">
         <v>156</v>
       </c>
@@ -2888,8 +3026,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="11:13">
-      <c r="K78" s="12"/>
+    <row r="78" spans="8:13">
+      <c r="K78" s="14"/>
       <c r="L78" t="s">
         <v>157</v>
       </c>
@@ -2897,8 +3035,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="79" spans="11:13">
-      <c r="K79" s="12"/>
+    <row r="79" spans="8:13">
+      <c r="K79" s="14"/>
       <c r="L79" t="s">
         <v>158</v>
       </c>
@@ -2906,8 +3044,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="11:13">
-      <c r="K80" s="12"/>
+    <row r="80" spans="8:13">
+      <c r="K80" s="14"/>
       <c r="L80" t="s">
         <v>159</v>
       </c>
@@ -2916,7 +3054,7 @@
       </c>
     </row>
     <row r="81" spans="11:13">
-      <c r="K81" s="12"/>
+      <c r="K81" s="14"/>
       <c r="L81" s="8" t="s">
         <v>160</v>
       </c>
@@ -2925,7 +3063,7 @@
       </c>
     </row>
     <row r="82" spans="11:13">
-      <c r="K82" s="12"/>
+      <c r="K82" s="14"/>
       <c r="L82" t="s">
         <v>161</v>
       </c>
@@ -2934,7 +3072,7 @@
       </c>
     </row>
     <row r="83" spans="11:13">
-      <c r="K83" s="12"/>
+      <c r="K83" s="14"/>
       <c r="L83" t="s">
         <v>162</v>
       </c>
@@ -2943,7 +3081,7 @@
       </c>
     </row>
     <row r="84" spans="11:13">
-      <c r="K84" s="12"/>
+      <c r="K84" s="14"/>
       <c r="L84" t="s">
         <v>163</v>
       </c>
@@ -2952,7 +3090,7 @@
       </c>
     </row>
     <row r="85" spans="11:13">
-      <c r="K85" s="12"/>
+      <c r="K85" s="14"/>
       <c r="L85" t="s">
         <v>164</v>
       </c>
@@ -2961,7 +3099,7 @@
       </c>
     </row>
     <row r="86" spans="11:13">
-      <c r="K86" s="12"/>
+      <c r="K86" s="14"/>
       <c r="L86" t="s">
         <v>165</v>
       </c>
@@ -2970,7 +3108,7 @@
       </c>
     </row>
     <row r="87" spans="11:13">
-      <c r="K87" s="12"/>
+      <c r="K87" s="14"/>
       <c r="L87" t="s">
         <v>166</v>
       </c>
@@ -2979,7 +3117,7 @@
       </c>
     </row>
     <row r="88" spans="11:13">
-      <c r="K88" s="12"/>
+      <c r="K88" s="14"/>
       <c r="L88" t="s">
         <v>167</v>
       </c>
@@ -2988,7 +3126,7 @@
       </c>
     </row>
     <row r="89" spans="11:13">
-      <c r="K89" s="12"/>
+      <c r="K89" s="14"/>
       <c r="L89" t="s">
         <v>168</v>
       </c>
@@ -2997,7 +3135,7 @@
       </c>
     </row>
     <row r="90" spans="11:13">
-      <c r="K90" s="12"/>
+      <c r="K90" s="14"/>
       <c r="L90" t="s">
         <v>169</v>
       </c>
@@ -3006,7 +3144,7 @@
       </c>
     </row>
     <row r="91" spans="11:13">
-      <c r="K91" s="12"/>
+      <c r="K91" s="14"/>
       <c r="L91" t="s">
         <v>170</v>
       </c>
@@ -3015,7 +3153,7 @@
       </c>
     </row>
     <row r="92" spans="11:13">
-      <c r="K92" s="12"/>
+      <c r="K92" s="14"/>
       <c r="L92" t="s">
         <v>171</v>
       </c>
@@ -3024,7 +3162,7 @@
       </c>
     </row>
     <row r="93" spans="11:13">
-      <c r="K93" s="12"/>
+      <c r="K93" s="14"/>
       <c r="L93" t="s">
         <v>172</v>
       </c>
@@ -3033,7 +3171,7 @@
       </c>
     </row>
     <row r="94" spans="11:13">
-      <c r="K94" s="12"/>
+      <c r="K94" s="14"/>
       <c r="L94" t="s">
         <v>173</v>
       </c>
@@ -3042,7 +3180,7 @@
       </c>
     </row>
     <row r="95" spans="11:13">
-      <c r="K95" s="12"/>
+      <c r="K95" s="14"/>
       <c r="L95" t="s">
         <v>174</v>
       </c>
@@ -3051,7 +3189,7 @@
       </c>
     </row>
     <row r="96" spans="11:13">
-      <c r="K96" s="12"/>
+      <c r="K96" s="14"/>
       <c r="L96" t="s">
         <v>175</v>
       </c>
@@ -3060,7 +3198,7 @@
       </c>
     </row>
     <row r="97" spans="11:13">
-      <c r="K97" s="12"/>
+      <c r="K97" s="14"/>
       <c r="L97" t="s">
         <v>176</v>
       </c>
@@ -3069,7 +3207,7 @@
       </c>
     </row>
     <row r="98" spans="11:13">
-      <c r="K98" s="12"/>
+      <c r="K98" s="14"/>
       <c r="L98" t="s">
         <v>177</v>
       </c>
@@ -3078,7 +3216,7 @@
       </c>
     </row>
     <row r="99" spans="11:13">
-      <c r="K99" s="12"/>
+      <c r="K99" s="14"/>
       <c r="L99" t="s">
         <v>178</v>
       </c>
@@ -3087,7 +3225,7 @@
       </c>
     </row>
     <row r="100" spans="11:13">
-      <c r="K100" s="12"/>
+      <c r="K100" s="14"/>
       <c r="L100" t="s">
         <v>179</v>
       </c>
@@ -3096,7 +3234,7 @@
       </c>
     </row>
     <row r="101" spans="11:13">
-      <c r="K101" s="12"/>
+      <c r="K101" s="14"/>
       <c r="L101" t="s">
         <v>180</v>
       </c>
@@ -3105,7 +3243,7 @@
       </c>
     </row>
     <row r="102" spans="11:13">
-      <c r="K102" s="12"/>
+      <c r="K102" s="14"/>
       <c r="L102" t="s">
         <v>181</v>
       </c>
@@ -3114,7 +3252,7 @@
       </c>
     </row>
     <row r="103" spans="11:13">
-      <c r="K103" s="12"/>
+      <c r="K103" s="14"/>
       <c r="L103" t="s">
         <v>182</v>
       </c>
@@ -3123,7 +3261,7 @@
       </c>
     </row>
     <row r="104" spans="11:13">
-      <c r="K104" s="12"/>
+      <c r="K104" s="14"/>
       <c r="L104" t="s">
         <v>183</v>
       </c>
@@ -3132,7 +3270,7 @@
       </c>
     </row>
     <row r="105" spans="11:13">
-      <c r="K105" s="12"/>
+      <c r="K105" s="14"/>
       <c r="L105" t="s">
         <v>184</v>
       </c>
@@ -3141,7 +3279,7 @@
       </c>
     </row>
     <row r="106" spans="11:13">
-      <c r="K106" s="12"/>
+      <c r="K106" s="14"/>
       <c r="L106" t="s">
         <v>185</v>
       </c>
@@ -3150,7 +3288,7 @@
       </c>
     </row>
     <row r="107" spans="11:13">
-      <c r="K107" s="12"/>
+      <c r="K107" s="14"/>
       <c r="L107" t="s">
         <v>186</v>
       </c>
@@ -3159,7 +3297,7 @@
       </c>
     </row>
     <row r="108" spans="11:13">
-      <c r="K108" s="12"/>
+      <c r="K108" s="14"/>
       <c r="L108" t="s">
         <v>187</v>
       </c>
@@ -3168,7 +3306,7 @@
       </c>
     </row>
     <row r="109" spans="11:13">
-      <c r="K109" s="12"/>
+      <c r="K109" s="14"/>
       <c r="L109" t="s">
         <v>188</v>
       </c>
@@ -3177,7 +3315,7 @@
       </c>
     </row>
     <row r="110" spans="11:13">
-      <c r="K110" s="12"/>
+      <c r="K110" s="14"/>
       <c r="L110" t="s">
         <v>189</v>
       </c>
@@ -3186,7 +3324,7 @@
       </c>
     </row>
     <row r="111" spans="11:13">
-      <c r="K111" s="12"/>
+      <c r="K111" s="14"/>
       <c r="L111" t="s">
         <v>190</v>
       </c>
@@ -3195,7 +3333,7 @@
       </c>
     </row>
     <row r="112" spans="11:13">
-      <c r="K112" s="12"/>
+      <c r="K112" s="14"/>
       <c r="L112" t="s">
         <v>191</v>
       </c>
@@ -3204,7 +3342,7 @@
       </c>
     </row>
     <row r="113" spans="11:13">
-      <c r="K113" s="12"/>
+      <c r="K113" s="14"/>
       <c r="L113" t="s">
         <v>192</v>
       </c>
@@ -3213,7 +3351,7 @@
       </c>
     </row>
     <row r="114" spans="11:13">
-      <c r="K114" s="12"/>
+      <c r="K114" s="14"/>
       <c r="L114" t="s">
         <v>193</v>
       </c>
@@ -3222,7 +3360,7 @@
       </c>
     </row>
     <row r="115" spans="11:13">
-      <c r="K115" s="12"/>
+      <c r="K115" s="14"/>
       <c r="L115" t="s">
         <v>194</v>
       </c>
@@ -3231,7 +3369,7 @@
       </c>
     </row>
     <row r="116" spans="11:13">
-      <c r="K116" s="12"/>
+      <c r="K116" s="14"/>
       <c r="L116" t="s">
         <v>195</v>
       </c>
@@ -3240,7 +3378,7 @@
       </c>
     </row>
     <row r="117" spans="11:13">
-      <c r="K117" s="12"/>
+      <c r="K117" s="14"/>
       <c r="L117" t="s">
         <v>196</v>
       </c>
@@ -3249,7 +3387,7 @@
       </c>
     </row>
     <row r="118" spans="11:13">
-      <c r="K118" s="12"/>
+      <c r="K118" s="14"/>
       <c r="L118" t="s">
         <v>197</v>
       </c>
@@ -3258,7 +3396,7 @@
       </c>
     </row>
     <row r="119" spans="11:13">
-      <c r="K119" s="12"/>
+      <c r="K119" s="14"/>
       <c r="L119" t="s">
         <v>198</v>
       </c>
@@ -3267,7 +3405,7 @@
       </c>
     </row>
     <row r="120" spans="11:13">
-      <c r="K120" s="12"/>
+      <c r="K120" s="14"/>
       <c r="L120" t="s">
         <v>199</v>
       </c>
@@ -3276,7 +3414,7 @@
       </c>
     </row>
     <row r="121" spans="11:13">
-      <c r="K121" s="12"/>
+      <c r="K121" s="14"/>
       <c r="L121" t="s">
         <v>200</v>
       </c>
@@ -3285,7 +3423,7 @@
       </c>
     </row>
     <row r="122" spans="11:13">
-      <c r="K122" s="12"/>
+      <c r="K122" s="14"/>
       <c r="L122" t="s">
         <v>201</v>
       </c>
@@ -3294,7 +3432,7 @@
       </c>
     </row>
     <row r="123" spans="11:13">
-      <c r="K123" s="12"/>
+      <c r="K123" s="14"/>
       <c r="L123" t="s">
         <v>202</v>
       </c>
@@ -3303,7 +3441,7 @@
       </c>
     </row>
     <row r="124" spans="11:13">
-      <c r="K124" s="12"/>
+      <c r="K124" s="14"/>
       <c r="L124" t="s">
         <v>203</v>
       </c>
@@ -3312,7 +3450,7 @@
       </c>
     </row>
     <row r="125" spans="11:13">
-      <c r="K125" s="12"/>
+      <c r="K125" s="14"/>
       <c r="L125" t="s">
         <v>204</v>
       </c>
@@ -3321,7 +3459,7 @@
       </c>
     </row>
     <row r="126" spans="11:13">
-      <c r="K126" s="12"/>
+      <c r="K126" s="14"/>
       <c r="L126" t="s">
         <v>205</v>
       </c>
@@ -3330,7 +3468,7 @@
       </c>
     </row>
     <row r="127" spans="11:13">
-      <c r="K127" s="12"/>
+      <c r="K127" s="14"/>
       <c r="L127" t="s">
         <v>206</v>
       </c>
@@ -3339,7 +3477,7 @@
       </c>
     </row>
     <row r="128" spans="11:13">
-      <c r="K128" s="12"/>
+      <c r="K128" s="14"/>
       <c r="L128" t="s">
         <v>207</v>
       </c>
@@ -3348,7 +3486,7 @@
       </c>
     </row>
     <row r="129" spans="11:13">
-      <c r="K129" s="12"/>
+      <c r="K129" s="14"/>
       <c r="L129" t="s">
         <v>208</v>
       </c>
@@ -3357,7 +3495,7 @@
       </c>
     </row>
     <row r="130" spans="11:13">
-      <c r="K130" s="12"/>
+      <c r="K130" s="14"/>
       <c r="L130" t="s">
         <v>209</v>
       </c>
@@ -3366,7 +3504,7 @@
       </c>
     </row>
     <row r="131" spans="11:13">
-      <c r="K131" s="12"/>
+      <c r="K131" s="14"/>
       <c r="L131" t="s">
         <v>210</v>
       </c>
@@ -3375,7 +3513,7 @@
       </c>
     </row>
     <row r="132" spans="11:13">
-      <c r="K132" s="12"/>
+      <c r="K132" s="14"/>
       <c r="L132" t="s">
         <v>211</v>
       </c>
@@ -3384,7 +3522,7 @@
       </c>
     </row>
     <row r="133" spans="11:13">
-      <c r="K133" s="12"/>
+      <c r="K133" s="14"/>
       <c r="L133" t="s">
         <v>212</v>
       </c>
@@ -3393,7 +3531,7 @@
       </c>
     </row>
     <row r="134" spans="11:13">
-      <c r="K134" s="12"/>
+      <c r="K134" s="14"/>
       <c r="L134" t="s">
         <v>213</v>
       </c>
@@ -3402,7 +3540,7 @@
       </c>
     </row>
     <row r="135" spans="11:13">
-      <c r="K135" s="12"/>
+      <c r="K135" s="14"/>
       <c r="L135" t="s">
         <v>214</v>
       </c>
@@ -3411,7 +3549,7 @@
       </c>
     </row>
     <row r="136" spans="11:13">
-      <c r="K136" s="12"/>
+      <c r="K136" s="14"/>
       <c r="L136" t="s">
         <v>215</v>
       </c>
@@ -3420,7 +3558,7 @@
       </c>
     </row>
     <row r="137" spans="11:13">
-      <c r="K137" s="12"/>
+      <c r="K137" s="14"/>
       <c r="L137" t="s">
         <v>216</v>
       </c>
@@ -3429,7 +3567,7 @@
       </c>
     </row>
     <row r="138" spans="11:13">
-      <c r="K138" s="12"/>
+      <c r="K138" s="14"/>
       <c r="L138" t="s">
         <v>217</v>
       </c>
@@ -3438,7 +3576,7 @@
       </c>
     </row>
     <row r="139" spans="11:13">
-      <c r="K139" s="12"/>
+      <c r="K139" s="14"/>
       <c r="L139" t="s">
         <v>218</v>
       </c>
@@ -3447,7 +3585,7 @@
       </c>
     </row>
     <row r="140" spans="11:13">
-      <c r="K140" s="12"/>
+      <c r="K140" s="14"/>
       <c r="L140" t="s">
         <v>219</v>
       </c>
@@ -3456,7 +3594,7 @@
       </c>
     </row>
     <row r="141" spans="11:13">
-      <c r="K141" s="12"/>
+      <c r="K141" s="14"/>
       <c r="L141" t="s">
         <v>220</v>
       </c>
@@ -3465,7 +3603,7 @@
       </c>
     </row>
     <row r="142" spans="11:13">
-      <c r="K142" s="12"/>
+      <c r="K142" s="14"/>
       <c r="L142" t="s">
         <v>221</v>
       </c>
@@ -3474,7 +3612,7 @@
       </c>
     </row>
     <row r="143" spans="11:13">
-      <c r="K143" s="12"/>
+      <c r="K143" s="14"/>
       <c r="L143" t="s">
         <v>222</v>
       </c>
@@ -3483,7 +3621,7 @@
       </c>
     </row>
     <row r="144" spans="11:13">
-      <c r="K144" s="12"/>
+      <c r="K144" s="14"/>
       <c r="L144" t="s">
         <v>223</v>
       </c>
@@ -3492,7 +3630,7 @@
       </c>
     </row>
     <row r="145" spans="11:13">
-      <c r="K145" s="12"/>
+      <c r="K145" s="14"/>
       <c r="L145" t="s">
         <v>224</v>
       </c>
@@ -3501,7 +3639,7 @@
       </c>
     </row>
     <row r="146" spans="11:13">
-      <c r="K146" s="12"/>
+      <c r="K146" s="14"/>
       <c r="L146" t="s">
         <v>225</v>
       </c>
@@ -3510,7 +3648,7 @@
       </c>
     </row>
     <row r="147" spans="11:13">
-      <c r="K147" s="12"/>
+      <c r="K147" s="14"/>
       <c r="L147" t="s">
         <v>226</v>
       </c>
@@ -3519,7 +3657,12 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="K8:K44"/>
+    <mergeCell ref="K45:K147"/>
+    <mergeCell ref="H37:H54"/>
+    <mergeCell ref="H55:H65"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="H5:J5"/>
@@ -3529,10 +3672,6 @@
     <mergeCell ref="B18:B34"/>
     <mergeCell ref="H21:H34"/>
     <mergeCell ref="E21:E29"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="K8:K44"/>
-    <mergeCell ref="K45:K147"/>
-    <mergeCell ref="H37:H54"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3540,21 +3679,236 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B92F9BC-6318-413C-87D9-FEE5073A822A}">
-  <dimension ref="E1"/>
+  <dimension ref="A2:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A9"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:5">
-      <c r="E1">
-        <f>SUM(B:B)</f>
-        <v>0</v>
+    <row r="2" spans="1:10">
+      <c r="B2" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="B3">
+        <f>Arkusz1!D4</f>
+        <v>0.7279411764705882</v>
+      </c>
+      <c r="C3">
+        <f>Arkusz1!G4</f>
+        <v>0.87047511312217196</v>
+      </c>
+      <c r="D3">
+        <f>Arkusz1!J4</f>
+        <v>0.6244343891402715</v>
+      </c>
+      <c r="E3">
+        <f>Arkusz1!M4</f>
+        <v>1.7771493212669682</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="str">
+        <f>IF((B$3*$A4)&gt;=3,"Zaliczenie","Warunek")</f>
+        <v>Warunek</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" ref="C4:E8" si="0">IF((C$3*$A4)&gt;=3,"Zaliczenie","Warunek")</f>
+        <v>Warunek</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>Warunek</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>Zaliczenie</v>
+      </c>
+      <c r="G4">
+        <f>B$3*$A4</f>
+        <v>2.1838235294117645</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:J4" si="1">C$3*$A4</f>
+        <v>2.6114253393665159</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>1.8733031674208145</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="1"/>
+        <v>5.3314479638009047</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5">
+        <v>3.5</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" ref="B5:B8" si="2">IF((B$3*$A5)&gt;=3,"Zaliczenie","Warunek")</f>
+        <v>Warunek</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>Zaliczenie</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>Warunek</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>Zaliczenie</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ref="G5:G8" si="3">B$3*$A5</f>
+        <v>2.5477941176470589</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ref="H5:H8" si="4">C$3*$A5</f>
+        <v>3.0466628959276019</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ref="I5:I8" si="5">D$3*$A5</f>
+        <v>2.1855203619909505</v>
+      </c>
+      <c r="J5">
+        <f t="shared" ref="J5:J8" si="6">E$3*$A5</f>
+        <v>6.2200226244343888</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="2"/>
+        <v>Warunek</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>Zaliczenie</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>Warunek</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>Zaliczenie</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="3"/>
+        <v>2.9117647058823528</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="4"/>
+        <v>3.4819004524886878</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="5"/>
+        <v>2.497737556561086</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="6"/>
+        <v>7.1085972850678729</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7">
+        <v>4.5</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="2"/>
+        <v>Zaliczenie</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>Zaliczenie</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>Warunek</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>Zaliczenie</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="3"/>
+        <v>3.2757352941176467</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="4"/>
+        <v>3.9171380090497738</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="5"/>
+        <v>2.8099547511312215</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="6"/>
+        <v>7.997171945701357</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="2"/>
+        <v>Zaliczenie</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>Zaliczenie</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>Zaliczenie</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>Zaliczenie</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="3"/>
+        <v>3.6397058823529411</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="4"/>
+        <v>4.3523755656108598</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="5"/>
+        <v>3.1221719457013575</v>
+      </c>
+      <c r="J8">
+        <f>E$3*$A8</f>
+        <v>8.8857466063348411</v>
       </c>
     </row>
   </sheetData>

--- a/Raport.xlsx
+++ b/Raport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dominik\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E11BA313-FB6F-4D0F-8B4A-14E196F7A3BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9142EE6E-EE3B-486E-8EF2-BE9B8A9516C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="275">
   <si>
     <t>Liczba członków zespołu</t>
   </si>
@@ -821,18 +821,62 @@
   </si>
   <si>
     <t>Dodanie "&lt;base href="/"&gt;" w index.html</t>
+  </si>
+  <si>
+    <t>Dodanie kodu w alergen-form.component.ts</t>
+  </si>
+  <si>
+    <t>Dodanie kodu w alergen-list.component.ts</t>
+  </si>
+  <si>
+    <t>Dodanie kodu w kategorie-form.component.ts</t>
+  </si>
+  <si>
+    <t>Dodanie kodu w kategorie-list.component.ts</t>
+  </si>
+  <si>
+    <t>Dodanie kodu w pozycja-form.component.ts</t>
+  </si>
+  <si>
+    <t>Dodanie kodu w pozycja-list.component.ts</t>
+  </si>
+  <si>
+    <t>Dodanie kodu w alergen-form.component.html</t>
+  </si>
+  <si>
+    <t>Dodanie kodu w alergen-list.component.html</t>
+  </si>
+  <si>
+    <t>Dodanie kodu w kategorie-form.component.html</t>
+  </si>
+  <si>
+    <t>Dodanie kodu w kategorie-list.component.html</t>
+  </si>
+  <si>
+    <t>Dodanie kodu w pozycja-form.component.html</t>
+  </si>
+  <si>
+    <t>Dodanie kodu w pozycja-list.component.html</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -930,14 +974,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -946,11 +990,14 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -965,14 +1012,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1467,30 +1514,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K45" sqref="K45:K147"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="39.88671875" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" customWidth="1"/>
-    <col min="3" max="3" width="39.5546875" customWidth="1"/>
-    <col min="4" max="5" width="12.5546875" customWidth="1"/>
+    <col min="1" max="1" width="39.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="39.5703125" customWidth="1"/>
+    <col min="4" max="5" width="12.5703125" customWidth="1"/>
     <col min="6" max="6" width="37" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12.5546875" customWidth="1"/>
-    <col min="9" max="9" width="59.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="12.5546875" customWidth="1"/>
-    <col min="12" max="12" width="92.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.5546875" customWidth="1"/>
+    <col min="7" max="8" width="12.5703125" customWidth="1"/>
+    <col min="9" max="9" width="59.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="12.5703125" customWidth="1"/>
+    <col min="12" max="12" width="92.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="61.2">
+    <row r="1" spans="1:13" ht="61.5">
       <c r="A1" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="23.4">
+    <row r="2" spans="1:13" ht="23.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1498,7 +1545,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="61.2">
+    <row r="3" spans="1:13" ht="61.5">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1513,56 +1560,56 @@
       </c>
       <c r="J3">
         <f>SUM(J7:J1001)</f>
-        <v>1104</v>
+        <v>1280</v>
       </c>
       <c r="M3">
         <f>SUM(M7:M1001)</f>
         <v>3142</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="24.9" customHeight="1">
+    <row r="4" spans="1:13" ht="24.95" customHeight="1">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1"/>
       <c r="D4">
         <f>($B$2*D$3)/SUM($D$3:$AK$3)</f>
-        <v>0.7279411764705882</v>
+        <v>0.71026490066225167</v>
       </c>
       <c r="G4">
         <f>($B$2*G$3)/SUM($D$3:$AK$3)</f>
-        <v>0.87047511312217196</v>
+        <v>0.84933774834437081</v>
       </c>
       <c r="J4">
         <f>($B$2*J$3)/SUM($D$3:$AK$3)</f>
-        <v>0.6244343891402715</v>
+        <v>0.70640176600441507</v>
       </c>
       <c r="M4">
         <f>($B$2*M$3)/SUM($D$3:$AK$3)</f>
-        <v>1.7771493212669682</v>
+        <v>1.7339955849889626</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="13" t="s">
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13" t="s">
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13" t="s">
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
     </row>
     <row r="6" spans="1:13">
       <c r="B6" t="s">
@@ -1668,7 +1715,7 @@
       <c r="J8">
         <v>100</v>
       </c>
-      <c r="K8" s="14">
+      <c r="K8" s="13">
         <v>45772</v>
       </c>
       <c r="L8" t="s">
@@ -1679,7 +1726,7 @@
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="B9" s="14">
+      <c r="B9" s="13">
         <v>45785</v>
       </c>
       <c r="C9" t="s">
@@ -1706,7 +1753,7 @@
       <c r="J9">
         <v>118</v>
       </c>
-      <c r="K9" s="14"/>
+      <c r="K9" s="13"/>
       <c r="L9" s="5" t="s">
         <v>17</v>
       </c>
@@ -1715,7 +1762,7 @@
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="B10" s="14"/>
+      <c r="B10" s="13"/>
       <c r="C10" t="s">
         <v>64</v>
       </c>
@@ -1728,7 +1775,7 @@
       <c r="G10">
         <v>57</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="13">
         <v>45803</v>
       </c>
       <c r="I10" t="s">
@@ -1737,7 +1784,7 @@
       <c r="J10">
         <v>70</v>
       </c>
-      <c r="K10" s="14"/>
+      <c r="K10" s="13"/>
       <c r="L10" t="s">
         <v>18</v>
       </c>
@@ -1746,7 +1793,7 @@
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="B11" s="14"/>
+      <c r="B11" s="13"/>
       <c r="C11" t="s">
         <v>65</v>
       </c>
@@ -1759,14 +1806,14 @@
       <c r="G11">
         <v>59</v>
       </c>
-      <c r="H11" s="14"/>
+      <c r="H11" s="13"/>
       <c r="I11" t="s">
         <v>75</v>
       </c>
       <c r="J11">
         <v>23</v>
       </c>
-      <c r="K11" s="14"/>
+      <c r="K11" s="13"/>
       <c r="L11" t="s">
         <v>19</v>
       </c>
@@ -1775,7 +1822,7 @@
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="B12" s="14"/>
+      <c r="B12" s="13"/>
       <c r="C12" t="s">
         <v>66</v>
       </c>
@@ -1788,14 +1835,14 @@
       <c r="G12">
         <v>58</v>
       </c>
-      <c r="H12" s="14"/>
+      <c r="H12" s="13"/>
       <c r="I12" t="s">
         <v>77</v>
       </c>
       <c r="J12">
         <v>23</v>
       </c>
-      <c r="K12" s="14"/>
+      <c r="K12" s="13"/>
       <c r="L12" t="s">
         <v>20</v>
       </c>
@@ -1804,7 +1851,7 @@
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="B13" s="14"/>
+      <c r="B13" s="13"/>
       <c r="C13" t="s">
         <v>67</v>
       </c>
@@ -1817,14 +1864,14 @@
       <c r="G13">
         <v>57</v>
       </c>
-      <c r="H13" s="14"/>
+      <c r="H13" s="13"/>
       <c r="I13" t="s">
         <v>76</v>
       </c>
       <c r="J13">
         <v>27</v>
       </c>
-      <c r="K13" s="14"/>
+      <c r="K13" s="13"/>
       <c r="L13" s="5" t="s">
         <v>21</v>
       </c>
@@ -1833,7 +1880,7 @@
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="B14" s="14"/>
+      <c r="B14" s="13"/>
       <c r="C14" t="s">
         <v>68</v>
       </c>
@@ -1846,14 +1893,14 @@
       <c r="G14">
         <v>61</v>
       </c>
-      <c r="H14" s="14"/>
+      <c r="H14" s="13"/>
       <c r="I14" t="s">
         <v>74</v>
       </c>
       <c r="J14">
         <v>24</v>
       </c>
-      <c r="K14" s="14"/>
+      <c r="K14" s="13"/>
       <c r="L14" t="s">
         <v>22</v>
       </c>
@@ -1862,7 +1909,7 @@
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="B15" s="14"/>
+      <c r="B15" s="13"/>
       <c r="C15" t="s">
         <v>69</v>
       </c>
@@ -1875,14 +1922,14 @@
       <c r="G15">
         <v>60</v>
       </c>
-      <c r="H15" s="14"/>
+      <c r="H15" s="13"/>
       <c r="I15" t="s">
         <v>78</v>
       </c>
       <c r="J15">
         <v>27</v>
       </c>
-      <c r="K15" s="14"/>
+      <c r="K15" s="13"/>
       <c r="L15" s="5" t="s">
         <v>23</v>
       </c>
@@ -1891,7 +1938,7 @@
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="B16" s="14"/>
+      <c r="B16" s="13"/>
       <c r="C16" t="s">
         <v>70</v>
       </c>
@@ -1904,14 +1951,14 @@
       <c r="G16">
         <v>16</v>
       </c>
-      <c r="H16" s="14"/>
+      <c r="H16" s="13"/>
       <c r="I16" t="s">
         <v>79</v>
       </c>
       <c r="J16">
         <v>27</v>
       </c>
-      <c r="K16" s="14"/>
+      <c r="K16" s="13"/>
       <c r="L16" t="s">
         <v>24</v>
       </c>
@@ -1920,7 +1967,7 @@
       </c>
     </row>
     <row r="17" spans="2:13">
-      <c r="B17" s="14"/>
+      <c r="B17" s="13"/>
       <c r="C17" t="s">
         <v>71</v>
       </c>
@@ -1933,14 +1980,14 @@
       <c r="G17">
         <v>59</v>
       </c>
-      <c r="H17" s="14"/>
+      <c r="H17" s="13"/>
       <c r="I17" t="s">
         <v>80</v>
       </c>
       <c r="J17">
         <v>27</v>
       </c>
-      <c r="K17" s="14"/>
+      <c r="K17" s="13"/>
       <c r="L17" t="s">
         <v>25</v>
       </c>
@@ -1949,7 +1996,7 @@
       </c>
     </row>
     <row r="18" spans="2:13">
-      <c r="B18" s="14">
+      <c r="B18" s="13">
         <v>45803</v>
       </c>
       <c r="C18" t="s">
@@ -1964,14 +2011,14 @@
       <c r="G18">
         <v>64</v>
       </c>
-      <c r="H18" s="14"/>
+      <c r="H18" s="13"/>
       <c r="I18" t="s">
         <v>81</v>
       </c>
       <c r="J18">
         <v>27</v>
       </c>
-      <c r="K18" s="14"/>
+      <c r="K18" s="13"/>
       <c r="L18" t="s">
         <v>26</v>
       </c>
@@ -1980,21 +2027,21 @@
       </c>
     </row>
     <row r="19" spans="2:13">
-      <c r="B19" s="14"/>
+      <c r="B19" s="13"/>
       <c r="C19" t="s">
         <v>85</v>
       </c>
       <c r="D19">
         <v>144</v>
       </c>
-      <c r="H19" s="14"/>
+      <c r="H19" s="13"/>
       <c r="I19" t="s">
         <v>82</v>
       </c>
       <c r="J19">
         <v>28</v>
       </c>
-      <c r="K19" s="14"/>
+      <c r="K19" s="13"/>
       <c r="L19" t="s">
         <v>27</v>
       </c>
@@ -2003,21 +2050,21 @@
       </c>
     </row>
     <row r="20" spans="2:13">
-      <c r="B20" s="14"/>
+      <c r="B20" s="13"/>
       <c r="C20" t="s">
         <v>86</v>
       </c>
       <c r="D20">
         <v>164</v>
       </c>
-      <c r="H20" s="14"/>
+      <c r="H20" s="13"/>
       <c r="I20" t="s">
         <v>83</v>
       </c>
       <c r="J20">
         <v>34</v>
       </c>
-      <c r="K20" s="14"/>
+      <c r="K20" s="13"/>
       <c r="L20" t="s">
         <v>28</v>
       </c>
@@ -2026,14 +2073,14 @@
       </c>
     </row>
     <row r="21" spans="2:13">
-      <c r="B21" s="14"/>
+      <c r="B21" s="13"/>
       <c r="C21" t="s">
         <v>87</v>
       </c>
       <c r="D21">
         <v>58</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E21" s="13">
         <v>45804</v>
       </c>
       <c r="F21" t="s">
@@ -2042,16 +2089,16 @@
       <c r="G21">
         <v>81</v>
       </c>
-      <c r="H21" s="14">
+      <c r="H21" s="13">
         <v>45817</v>
       </c>
-      <c r="I21" s="15" t="s">
+      <c r="I21" s="12" t="s">
         <v>110</v>
       </c>
       <c r="J21" s="6">
         <v>3</v>
       </c>
-      <c r="K21" s="14"/>
+      <c r="K21" s="13"/>
       <c r="L21" t="s">
         <v>29</v>
       </c>
@@ -2060,28 +2107,28 @@
       </c>
     </row>
     <row r="22" spans="2:13">
-      <c r="B22" s="14"/>
+      <c r="B22" s="13"/>
       <c r="C22" t="s">
         <v>88</v>
       </c>
       <c r="D22">
         <v>92</v>
       </c>
-      <c r="E22" s="13"/>
+      <c r="E22" s="14"/>
       <c r="F22" t="s">
         <v>102</v>
       </c>
       <c r="G22">
         <v>69</v>
       </c>
-      <c r="H22" s="14"/>
+      <c r="H22" s="13"/>
       <c r="I22" t="s">
         <v>111</v>
       </c>
       <c r="J22" s="6">
         <v>6</v>
       </c>
-      <c r="K22" s="14"/>
+      <c r="K22" s="13"/>
       <c r="L22" t="s">
         <v>30</v>
       </c>
@@ -2090,28 +2137,28 @@
       </c>
     </row>
     <row r="23" spans="2:13">
-      <c r="B23" s="14"/>
+      <c r="B23" s="13"/>
       <c r="C23" t="s">
         <v>89</v>
       </c>
       <c r="D23">
         <v>64</v>
       </c>
-      <c r="E23" s="13"/>
+      <c r="E23" s="14"/>
       <c r="F23" t="s">
         <v>103</v>
       </c>
       <c r="G23">
         <v>75</v>
       </c>
-      <c r="H23" s="14"/>
+      <c r="H23" s="13"/>
       <c r="I23" t="s">
         <v>112</v>
       </c>
       <c r="J23" s="6">
         <v>3</v>
       </c>
-      <c r="K23" s="14"/>
+      <c r="K23" s="13"/>
       <c r="L23" t="s">
         <v>31</v>
       </c>
@@ -2120,28 +2167,28 @@
       </c>
     </row>
     <row r="24" spans="2:13">
-      <c r="B24" s="14"/>
+      <c r="B24" s="13"/>
       <c r="C24" t="s">
         <v>90</v>
       </c>
       <c r="D24">
         <v>20</v>
       </c>
-      <c r="E24" s="13"/>
+      <c r="E24" s="14"/>
       <c r="F24" t="s">
         <v>104</v>
       </c>
       <c r="G24">
         <v>126</v>
       </c>
-      <c r="H24" s="14"/>
+      <c r="H24" s="13"/>
       <c r="I24" t="s">
         <v>113</v>
       </c>
       <c r="J24" s="6">
         <v>6</v>
       </c>
-      <c r="K24" s="14"/>
+      <c r="K24" s="13"/>
       <c r="L24" t="s">
         <v>32</v>
       </c>
@@ -2150,28 +2197,28 @@
       </c>
     </row>
     <row r="25" spans="2:13">
-      <c r="B25" s="14"/>
+      <c r="B25" s="13"/>
       <c r="C25" t="s">
         <v>91</v>
       </c>
       <c r="D25">
         <v>57</v>
       </c>
-      <c r="E25" s="13"/>
+      <c r="E25" s="14"/>
       <c r="F25" t="s">
         <v>105</v>
       </c>
       <c r="G25">
         <v>65</v>
       </c>
-      <c r="H25" s="14"/>
+      <c r="H25" s="13"/>
       <c r="I25" t="s">
         <v>114</v>
       </c>
       <c r="J25" s="6">
         <v>4</v>
       </c>
-      <c r="K25" s="14"/>
+      <c r="K25" s="13"/>
       <c r="L25" t="s">
         <v>33</v>
       </c>
@@ -2180,28 +2227,28 @@
       </c>
     </row>
     <row r="26" spans="2:13">
-      <c r="B26" s="14"/>
+      <c r="B26" s="13"/>
       <c r="C26" t="s">
         <v>92</v>
       </c>
       <c r="D26">
         <v>28</v>
       </c>
-      <c r="E26" s="13"/>
+      <c r="E26" s="14"/>
       <c r="F26" t="s">
         <v>106</v>
       </c>
       <c r="G26">
         <v>82</v>
       </c>
-      <c r="H26" s="14"/>
-      <c r="I26" s="15" t="s">
+      <c r="H26" s="13"/>
+      <c r="I26" s="12" t="s">
         <v>115</v>
       </c>
       <c r="J26" s="6">
         <v>2</v>
       </c>
-      <c r="K26" s="14"/>
+      <c r="K26" s="13"/>
       <c r="L26" t="s">
         <v>34</v>
       </c>
@@ -2210,28 +2257,28 @@
       </c>
     </row>
     <row r="27" spans="2:13">
-      <c r="B27" s="14"/>
+      <c r="B27" s="13"/>
       <c r="C27" t="s">
         <v>93</v>
       </c>
       <c r="D27">
         <v>26</v>
       </c>
-      <c r="E27" s="13"/>
+      <c r="E27" s="14"/>
       <c r="F27" t="s">
         <v>107</v>
       </c>
       <c r="G27">
         <v>75</v>
       </c>
-      <c r="H27" s="14"/>
+      <c r="H27" s="13"/>
       <c r="I27" t="s">
         <v>116</v>
       </c>
       <c r="J27" s="6">
         <v>8</v>
       </c>
-      <c r="K27" s="14"/>
+      <c r="K27" s="13"/>
       <c r="L27" t="s">
         <v>35</v>
       </c>
@@ -2240,28 +2287,28 @@
       </c>
     </row>
     <row r="28" spans="2:13">
-      <c r="B28" s="14"/>
+      <c r="B28" s="13"/>
       <c r="C28" t="s">
         <v>94</v>
       </c>
       <c r="D28">
         <v>16</v>
       </c>
-      <c r="E28" s="13"/>
+      <c r="E28" s="14"/>
       <c r="F28" t="s">
         <v>108</v>
       </c>
       <c r="G28">
         <v>266</v>
       </c>
-      <c r="H28" s="14"/>
+      <c r="H28" s="13"/>
       <c r="I28" t="s">
         <v>117</v>
       </c>
       <c r="J28" s="6">
         <v>3</v>
       </c>
-      <c r="K28" s="14"/>
+      <c r="K28" s="13"/>
       <c r="L28" t="s">
         <v>36</v>
       </c>
@@ -2270,28 +2317,28 @@
       </c>
     </row>
     <row r="29" spans="2:13">
-      <c r="B29" s="14"/>
+      <c r="B29" s="13"/>
       <c r="C29" t="s">
         <v>95</v>
       </c>
       <c r="D29">
         <v>18</v>
       </c>
-      <c r="E29" s="13"/>
+      <c r="E29" s="14"/>
       <c r="F29" t="s">
         <v>109</v>
       </c>
       <c r="G29">
         <v>71</v>
       </c>
-      <c r="H29" s="14"/>
+      <c r="H29" s="13"/>
       <c r="I29" t="s">
         <v>118</v>
       </c>
       <c r="J29" s="6">
         <v>12</v>
       </c>
-      <c r="K29" s="14"/>
+      <c r="K29" s="13"/>
       <c r="L29" t="s">
         <v>37</v>
       </c>
@@ -2300,21 +2347,21 @@
       </c>
     </row>
     <row r="30" spans="2:13">
-      <c r="B30" s="14"/>
+      <c r="B30" s="13"/>
       <c r="C30" t="s">
         <v>96</v>
       </c>
       <c r="D30">
         <v>15</v>
       </c>
-      <c r="H30" s="14"/>
+      <c r="H30" s="13"/>
       <c r="I30" t="s">
         <v>119</v>
       </c>
       <c r="J30" s="6">
         <v>3</v>
       </c>
-      <c r="K30" s="14"/>
+      <c r="K30" s="13"/>
       <c r="L30" t="s">
         <v>38</v>
       </c>
@@ -2323,21 +2370,21 @@
       </c>
     </row>
     <row r="31" spans="2:13">
-      <c r="B31" s="14"/>
+      <c r="B31" s="13"/>
       <c r="C31" t="s">
         <v>97</v>
       </c>
       <c r="D31">
         <v>17</v>
       </c>
-      <c r="H31" s="14"/>
+      <c r="H31" s="13"/>
       <c r="I31" t="s">
         <v>120</v>
       </c>
       <c r="J31" s="6">
         <v>6</v>
       </c>
-      <c r="K31" s="14"/>
+      <c r="K31" s="13"/>
       <c r="L31" t="s">
         <v>39</v>
       </c>
@@ -2346,21 +2393,21 @@
       </c>
     </row>
     <row r="32" spans="2:13">
-      <c r="B32" s="14"/>
+      <c r="B32" s="13"/>
       <c r="C32" t="s">
         <v>98</v>
       </c>
       <c r="D32">
         <v>44</v>
       </c>
-      <c r="H32" s="14"/>
+      <c r="H32" s="13"/>
       <c r="I32" t="s">
         <v>121</v>
       </c>
       <c r="J32" s="6">
         <v>2</v>
       </c>
-      <c r="K32" s="14"/>
+      <c r="K32" s="13"/>
       <c r="L32" s="5" t="s">
         <v>40</v>
       </c>
@@ -2369,21 +2416,21 @@
       </c>
     </row>
     <row r="33" spans="2:13">
-      <c r="B33" s="14"/>
+      <c r="B33" s="13"/>
       <c r="C33" t="s">
         <v>99</v>
       </c>
       <c r="D33">
         <v>43</v>
       </c>
-      <c r="H33" s="14"/>
+      <c r="H33" s="13"/>
       <c r="I33" t="s">
         <v>122</v>
       </c>
       <c r="J33" s="6">
         <v>4</v>
       </c>
-      <c r="K33" s="14"/>
+      <c r="K33" s="13"/>
       <c r="L33" t="s">
         <v>41</v>
       </c>
@@ -2392,21 +2439,21 @@
       </c>
     </row>
     <row r="34" spans="2:13">
-      <c r="B34" s="14"/>
+      <c r="B34" s="13"/>
       <c r="C34" t="s">
         <v>100</v>
       </c>
       <c r="D34">
         <v>28</v>
       </c>
-      <c r="H34" s="14"/>
+      <c r="H34" s="13"/>
       <c r="I34" t="s">
         <v>123</v>
       </c>
       <c r="J34" s="6">
         <v>8</v>
       </c>
-      <c r="K34" s="14"/>
+      <c r="K34" s="13"/>
       <c r="L34" t="s">
         <v>42</v>
       </c>
@@ -2415,7 +2462,7 @@
       </c>
     </row>
     <row r="35" spans="2:13">
-      <c r="H35" s="14">
+      <c r="H35" s="13">
         <v>45898</v>
       </c>
       <c r="I35" s="9" t="s">
@@ -2424,7 +2471,7 @@
       <c r="J35" s="6">
         <v>5</v>
       </c>
-      <c r="K35" s="14"/>
+      <c r="K35" s="13"/>
       <c r="L35" t="s">
         <v>43</v>
       </c>
@@ -2433,14 +2480,14 @@
       </c>
     </row>
     <row r="36" spans="2:13">
-      <c r="H36" s="13"/>
+      <c r="H36" s="14"/>
       <c r="I36" s="9" t="s">
         <v>228</v>
       </c>
       <c r="J36" s="6">
         <v>15</v>
       </c>
-      <c r="K36" s="14"/>
+      <c r="K36" s="13"/>
       <c r="L36" t="s">
         <v>44</v>
       </c>
@@ -2449,7 +2496,7 @@
       </c>
     </row>
     <row r="37" spans="2:13">
-      <c r="H37" s="14">
+      <c r="H37" s="13">
         <v>45899</v>
       </c>
       <c r="I37" s="10" t="s">
@@ -2458,7 +2505,7 @@
       <c r="J37" s="6">
         <v>18</v>
       </c>
-      <c r="K37" s="14"/>
+      <c r="K37" s="13"/>
       <c r="L37" t="s">
         <v>45</v>
       </c>
@@ -2467,14 +2514,14 @@
       </c>
     </row>
     <row r="38" spans="2:13">
-      <c r="H38" s="14"/>
+      <c r="H38" s="13"/>
       <c r="I38" s="10" t="s">
         <v>230</v>
       </c>
       <c r="J38" s="6">
         <v>8</v>
       </c>
-      <c r="K38" s="14"/>
+      <c r="K38" s="13"/>
       <c r="L38" t="s">
         <v>46</v>
       </c>
@@ -2483,14 +2530,14 @@
       </c>
     </row>
     <row r="39" spans="2:13">
-      <c r="H39" s="14"/>
+      <c r="H39" s="13"/>
       <c r="I39" s="10" t="s">
         <v>231</v>
       </c>
       <c r="J39" s="6">
         <v>8</v>
       </c>
-      <c r="K39" s="14"/>
+      <c r="K39" s="13"/>
       <c r="L39" t="s">
         <v>47</v>
       </c>
@@ -2499,14 +2546,14 @@
       </c>
     </row>
     <row r="40" spans="2:13">
-      <c r="H40" s="14"/>
+      <c r="H40" s="13"/>
       <c r="I40" s="10" t="s">
         <v>232</v>
       </c>
       <c r="J40" s="6">
         <v>8</v>
       </c>
-      <c r="K40" s="14"/>
+      <c r="K40" s="13"/>
       <c r="L40" s="5" t="s">
         <v>48</v>
       </c>
@@ -2515,14 +2562,14 @@
       </c>
     </row>
     <row r="41" spans="2:13">
-      <c r="H41" s="14"/>
+      <c r="H41" s="13"/>
       <c r="I41" s="10" t="s">
         <v>233</v>
       </c>
       <c r="J41" s="6">
         <v>10</v>
       </c>
-      <c r="K41" s="14"/>
+      <c r="K41" s="13"/>
       <c r="L41" s="5" t="s">
         <v>49</v>
       </c>
@@ -2531,14 +2578,14 @@
       </c>
     </row>
     <row r="42" spans="2:13">
-      <c r="H42" s="14"/>
+      <c r="H42" s="13"/>
       <c r="I42" s="10" t="s">
         <v>234</v>
       </c>
       <c r="J42" s="6">
         <v>8</v>
       </c>
-      <c r="K42" s="14"/>
+      <c r="K42" s="13"/>
       <c r="L42" t="s">
         <v>50</v>
       </c>
@@ -2547,14 +2594,14 @@
       </c>
     </row>
     <row r="43" spans="2:13">
-      <c r="H43" s="14"/>
+      <c r="H43" s="13"/>
       <c r="I43" s="10" t="s">
         <v>235</v>
       </c>
       <c r="J43" s="6">
         <v>10</v>
       </c>
-      <c r="K43" s="14"/>
+      <c r="K43" s="13"/>
       <c r="L43" t="s">
         <v>51</v>
       </c>
@@ -2563,14 +2610,14 @@
       </c>
     </row>
     <row r="44" spans="2:13">
-      <c r="H44" s="14"/>
+      <c r="H44" s="13"/>
       <c r="I44" s="10" t="s">
         <v>236</v>
       </c>
       <c r="J44" s="6">
         <v>8</v>
       </c>
-      <c r="K44" s="14"/>
+      <c r="K44" s="13"/>
       <c r="L44" t="s">
         <v>52</v>
       </c>
@@ -2579,14 +2626,14 @@
       </c>
     </row>
     <row r="45" spans="2:13">
-      <c r="H45" s="14"/>
+      <c r="H45" s="13"/>
       <c r="I45" s="11" t="s">
         <v>237</v>
       </c>
       <c r="J45" s="6">
         <v>21</v>
       </c>
-      <c r="K45" s="14">
+      <c r="K45" s="13">
         <v>45898</v>
       </c>
       <c r="L45" s="7" t="s">
@@ -2597,14 +2644,14 @@
       </c>
     </row>
     <row r="46" spans="2:13">
-      <c r="H46" s="14"/>
+      <c r="H46" s="13"/>
       <c r="I46" s="11" t="s">
         <v>238</v>
       </c>
       <c r="J46" s="6">
         <v>17</v>
       </c>
-      <c r="K46" s="14"/>
+      <c r="K46" s="13"/>
       <c r="L46" s="7" t="s">
         <v>125</v>
       </c>
@@ -2613,14 +2660,14 @@
       </c>
     </row>
     <row r="47" spans="2:13">
-      <c r="H47" s="14"/>
+      <c r="H47" s="13"/>
       <c r="I47" s="11" t="s">
         <v>239</v>
       </c>
       <c r="J47" s="6">
         <v>12</v>
       </c>
-      <c r="K47" s="14"/>
+      <c r="K47" s="13"/>
       <c r="L47" t="s">
         <v>126</v>
       </c>
@@ -2629,14 +2676,14 @@
       </c>
     </row>
     <row r="48" spans="2:13">
-      <c r="H48" s="14"/>
+      <c r="H48" s="13"/>
       <c r="I48" s="11" t="s">
         <v>240</v>
       </c>
       <c r="J48" s="6">
         <v>7</v>
       </c>
-      <c r="K48" s="14"/>
+      <c r="K48" s="13"/>
       <c r="L48" t="s">
         <v>127</v>
       </c>
@@ -2645,14 +2692,14 @@
       </c>
     </row>
     <row r="49" spans="8:13">
-      <c r="H49" s="14"/>
+      <c r="H49" s="13"/>
       <c r="I49" s="11" t="s">
         <v>241</v>
       </c>
       <c r="J49" s="6">
         <v>12</v>
       </c>
-      <c r="K49" s="14"/>
+      <c r="K49" s="13"/>
       <c r="L49" t="s">
         <v>128</v>
       </c>
@@ -2661,14 +2708,14 @@
       </c>
     </row>
     <row r="50" spans="8:13">
-      <c r="H50" s="14"/>
+      <c r="H50" s="13"/>
       <c r="I50" s="11" t="s">
         <v>242</v>
       </c>
       <c r="J50" s="6">
         <v>13</v>
       </c>
-      <c r="K50" s="14"/>
+      <c r="K50" s="13"/>
       <c r="L50" t="s">
         <v>129</v>
       </c>
@@ -2677,14 +2724,14 @@
       </c>
     </row>
     <row r="51" spans="8:13">
-      <c r="H51" s="14"/>
+      <c r="H51" s="13"/>
       <c r="I51" s="11" t="s">
         <v>243</v>
       </c>
       <c r="J51" s="6">
         <v>14</v>
       </c>
-      <c r="K51" s="14"/>
+      <c r="K51" s="13"/>
       <c r="L51" t="s">
         <v>130</v>
       </c>
@@ -2693,14 +2740,14 @@
       </c>
     </row>
     <row r="52" spans="8:13">
-      <c r="H52" s="14"/>
+      <c r="H52" s="13"/>
       <c r="I52" s="11" t="s">
         <v>244</v>
       </c>
       <c r="J52" s="6">
         <v>14</v>
       </c>
-      <c r="K52" s="14"/>
+      <c r="K52" s="13"/>
       <c r="L52" t="s">
         <v>131</v>
       </c>
@@ -2709,14 +2756,14 @@
       </c>
     </row>
     <row r="53" spans="8:13">
-      <c r="H53" s="14"/>
+      <c r="H53" s="13"/>
       <c r="I53" s="11" t="s">
         <v>245</v>
       </c>
       <c r="J53" s="11">
         <v>8</v>
       </c>
-      <c r="K53" s="14"/>
+      <c r="K53" s="13"/>
       <c r="L53" s="8" t="s">
         <v>132</v>
       </c>
@@ -2725,14 +2772,14 @@
       </c>
     </row>
     <row r="54" spans="8:13">
-      <c r="H54" s="14"/>
+      <c r="H54" s="13"/>
       <c r="I54" s="11" t="s">
         <v>246</v>
       </c>
       <c r="J54" s="6">
         <v>10</v>
       </c>
-      <c r="K54" s="14"/>
+      <c r="K54" s="13"/>
       <c r="L54" t="s">
         <v>133</v>
       </c>
@@ -2741,16 +2788,16 @@
       </c>
     </row>
     <row r="55" spans="8:13">
-      <c r="H55" s="14">
+      <c r="H55" s="13">
         <v>45900</v>
       </c>
-      <c r="I55" s="15" t="s">
+      <c r="I55" s="12" t="s">
         <v>255</v>
       </c>
       <c r="J55" s="6">
         <v>44</v>
       </c>
-      <c r="K55" s="14"/>
+      <c r="K55" s="13"/>
       <c r="L55" t="s">
         <v>134</v>
       </c>
@@ -2759,14 +2806,14 @@
       </c>
     </row>
     <row r="56" spans="8:13">
-      <c r="H56" s="14"/>
-      <c r="I56" s="15" t="s">
+      <c r="H56" s="13"/>
+      <c r="I56" s="12" t="s">
         <v>253</v>
       </c>
       <c r="J56" s="6">
         <v>1</v>
       </c>
-      <c r="K56" s="14"/>
+      <c r="K56" s="13"/>
       <c r="L56" t="s">
         <v>135</v>
       </c>
@@ -2775,14 +2822,14 @@
       </c>
     </row>
     <row r="57" spans="8:13">
-      <c r="H57" s="14"/>
-      <c r="I57" s="15" t="s">
+      <c r="H57" s="13"/>
+      <c r="I57" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="J57" s="15">
+      <c r="J57" s="12">
         <v>15</v>
       </c>
-      <c r="K57" s="14"/>
+      <c r="K57" s="13"/>
       <c r="L57" t="s">
         <v>136</v>
       </c>
@@ -2791,14 +2838,14 @@
       </c>
     </row>
     <row r="58" spans="8:13">
-      <c r="H58" s="14"/>
-      <c r="I58" s="15" t="s">
+      <c r="H58" s="13"/>
+      <c r="I58" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="J58" s="15">
+      <c r="J58" s="12">
         <v>35</v>
       </c>
-      <c r="K58" s="14"/>
+      <c r="K58" s="13"/>
       <c r="L58" t="s">
         <v>137</v>
       </c>
@@ -2807,14 +2854,14 @@
       </c>
     </row>
     <row r="59" spans="8:13">
-      <c r="H59" s="14"/>
-      <c r="I59" s="15" t="s">
+      <c r="H59" s="13"/>
+      <c r="I59" s="12" t="s">
         <v>256</v>
       </c>
       <c r="J59" s="6">
         <v>1</v>
       </c>
-      <c r="K59" s="14"/>
+      <c r="K59" s="13"/>
       <c r="L59" t="s">
         <v>138</v>
       </c>
@@ -2823,14 +2870,14 @@
       </c>
     </row>
     <row r="60" spans="8:13">
-      <c r="H60" s="14"/>
-      <c r="I60" s="15" t="s">
+      <c r="H60" s="13"/>
+      <c r="I60" s="12" t="s">
         <v>257</v>
       </c>
       <c r="J60" s="6">
         <v>12</v>
       </c>
-      <c r="K60" s="14"/>
+      <c r="K60" s="13"/>
       <c r="L60" t="s">
         <v>139</v>
       </c>
@@ -2839,14 +2886,14 @@
       </c>
     </row>
     <row r="61" spans="8:13">
-      <c r="H61" s="14"/>
-      <c r="I61" s="15" t="s">
+      <c r="H61" s="13"/>
+      <c r="I61" s="12" t="s">
         <v>259</v>
       </c>
       <c r="J61" s="6">
         <v>5</v>
       </c>
-      <c r="K61" s="14"/>
+      <c r="K61" s="13"/>
       <c r="L61" t="s">
         <v>140</v>
       </c>
@@ -2855,14 +2902,14 @@
       </c>
     </row>
     <row r="62" spans="8:13">
-      <c r="H62" s="14"/>
-      <c r="I62" s="15" t="s">
+      <c r="H62" s="13"/>
+      <c r="I62" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="J62" s="15">
+      <c r="J62" s="12">
         <v>51</v>
       </c>
-      <c r="K62" s="14"/>
+      <c r="K62" s="13"/>
       <c r="L62" t="s">
         <v>141</v>
       </c>
@@ -2871,14 +2918,14 @@
       </c>
     </row>
     <row r="63" spans="8:13">
-      <c r="H63" s="14"/>
-      <c r="I63" s="15" t="s">
+      <c r="H63" s="13"/>
+      <c r="I63" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="J63" s="15">
+      <c r="J63" s="12">
         <v>35</v>
       </c>
-      <c r="K63" s="14"/>
+      <c r="K63" s="13"/>
       <c r="L63" t="s">
         <v>142</v>
       </c>
@@ -2887,14 +2934,14 @@
       </c>
     </row>
     <row r="64" spans="8:13">
-      <c r="H64" s="14"/>
-      <c r="I64" s="15" t="s">
+      <c r="H64" s="13"/>
+      <c r="I64" s="12" t="s">
         <v>261</v>
       </c>
       <c r="J64" s="6">
         <v>28</v>
       </c>
-      <c r="K64" s="14"/>
+      <c r="K64" s="13"/>
       <c r="L64" t="s">
         <v>143</v>
       </c>
@@ -2903,14 +2950,14 @@
       </c>
     </row>
     <row r="65" spans="8:13">
-      <c r="H65" s="14"/>
-      <c r="I65" s="15" t="s">
+      <c r="H65" s="13"/>
+      <c r="I65" s="12" t="s">
         <v>262</v>
       </c>
       <c r="J65" s="6">
         <v>1</v>
       </c>
-      <c r="K65" s="14"/>
+      <c r="K65" s="13"/>
       <c r="L65" t="s">
         <v>144</v>
       </c>
@@ -2919,7 +2966,16 @@
       </c>
     </row>
     <row r="66" spans="8:13">
-      <c r="K66" s="14"/>
+      <c r="H66" s="13">
+        <v>45901</v>
+      </c>
+      <c r="I66" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="J66" s="6">
+        <v>24</v>
+      </c>
+      <c r="K66" s="13"/>
       <c r="L66" t="s">
         <v>145</v>
       </c>
@@ -2928,7 +2984,14 @@
       </c>
     </row>
     <row r="67" spans="8:13">
-      <c r="K67" s="14"/>
+      <c r="H67" s="13"/>
+      <c r="I67" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="J67" s="6">
+        <v>24</v>
+      </c>
+      <c r="K67" s="13"/>
       <c r="L67" t="s">
         <v>146</v>
       </c>
@@ -2937,7 +3000,14 @@
       </c>
     </row>
     <row r="68" spans="8:13">
-      <c r="K68" s="14"/>
+      <c r="H68" s="13"/>
+      <c r="I68" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="J68" s="6">
+        <v>34</v>
+      </c>
+      <c r="K68" s="13"/>
       <c r="L68" t="s">
         <v>147</v>
       </c>
@@ -2946,7 +3016,14 @@
       </c>
     </row>
     <row r="69" spans="8:13">
-      <c r="K69" s="14"/>
+      <c r="H69" s="13"/>
+      <c r="I69" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="J69" s="6">
+        <v>33</v>
+      </c>
+      <c r="K69" s="13"/>
       <c r="L69" t="s">
         <v>148</v>
       </c>
@@ -2955,7 +3032,14 @@
       </c>
     </row>
     <row r="70" spans="8:13">
-      <c r="K70" s="14"/>
+      <c r="H70" s="13"/>
+      <c r="I70" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="J70" s="6">
+        <v>45</v>
+      </c>
+      <c r="K70" s="13"/>
       <c r="L70" t="s">
         <v>149</v>
       </c>
@@ -2964,7 +3048,14 @@
       </c>
     </row>
     <row r="71" spans="8:13">
-      <c r="K71" s="14"/>
+      <c r="H71" s="13"/>
+      <c r="I71" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="J71" s="6">
+        <v>10</v>
+      </c>
+      <c r="K71" s="13"/>
       <c r="L71" t="s">
         <v>150</v>
       </c>
@@ -2973,7 +3064,14 @@
       </c>
     </row>
     <row r="72" spans="8:13">
-      <c r="K72" s="14"/>
+      <c r="H72" s="13"/>
+      <c r="I72" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="J72" s="6">
+        <v>1</v>
+      </c>
+      <c r="K72" s="13"/>
       <c r="L72" t="s">
         <v>151</v>
       </c>
@@ -2982,7 +3080,14 @@
       </c>
     </row>
     <row r="73" spans="8:13">
-      <c r="K73" s="14"/>
+      <c r="H73" s="13"/>
+      <c r="I73" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="J73" s="6">
+        <v>1</v>
+      </c>
+      <c r="K73" s="13"/>
       <c r="L73" t="s">
         <v>152</v>
       </c>
@@ -2991,7 +3096,14 @@
       </c>
     </row>
     <row r="74" spans="8:13">
-      <c r="K74" s="14"/>
+      <c r="H74" s="13"/>
+      <c r="I74" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="J74" s="6">
+        <v>1</v>
+      </c>
+      <c r="K74" s="13"/>
       <c r="L74" t="s">
         <v>153</v>
       </c>
@@ -3000,7 +3112,14 @@
       </c>
     </row>
     <row r="75" spans="8:13">
-      <c r="K75" s="14"/>
+      <c r="H75" s="13"/>
+      <c r="I75" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="J75" s="6">
+        <v>1</v>
+      </c>
+      <c r="K75" s="13"/>
       <c r="L75" t="s">
         <v>154</v>
       </c>
@@ -3009,7 +3128,14 @@
       </c>
     </row>
     <row r="76" spans="8:13">
-      <c r="K76" s="14"/>
+      <c r="H76" s="13"/>
+      <c r="I76" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="J76" s="6">
+        <v>1</v>
+      </c>
+      <c r="K76" s="13"/>
       <c r="L76" t="s">
         <v>155</v>
       </c>
@@ -3018,7 +3144,14 @@
       </c>
     </row>
     <row r="77" spans="8:13">
-      <c r="K77" s="14"/>
+      <c r="H77" s="13"/>
+      <c r="I77" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="J77" s="6">
+        <v>1</v>
+      </c>
+      <c r="K77" s="13"/>
       <c r="L77" t="s">
         <v>156</v>
       </c>
@@ -3027,7 +3160,7 @@
       </c>
     </row>
     <row r="78" spans="8:13">
-      <c r="K78" s="14"/>
+      <c r="K78" s="13"/>
       <c r="L78" t="s">
         <v>157</v>
       </c>
@@ -3036,7 +3169,7 @@
       </c>
     </row>
     <row r="79" spans="8:13">
-      <c r="K79" s="14"/>
+      <c r="K79" s="13"/>
       <c r="L79" t="s">
         <v>158</v>
       </c>
@@ -3045,7 +3178,7 @@
       </c>
     </row>
     <row r="80" spans="8:13">
-      <c r="K80" s="14"/>
+      <c r="K80" s="13"/>
       <c r="L80" t="s">
         <v>159</v>
       </c>
@@ -3054,7 +3187,7 @@
       </c>
     </row>
     <row r="81" spans="11:13">
-      <c r="K81" s="14"/>
+      <c r="K81" s="13"/>
       <c r="L81" s="8" t="s">
         <v>160</v>
       </c>
@@ -3063,7 +3196,7 @@
       </c>
     </row>
     <row r="82" spans="11:13">
-      <c r="K82" s="14"/>
+      <c r="K82" s="13"/>
       <c r="L82" t="s">
         <v>161</v>
       </c>
@@ -3072,7 +3205,7 @@
       </c>
     </row>
     <row r="83" spans="11:13">
-      <c r="K83" s="14"/>
+      <c r="K83" s="13"/>
       <c r="L83" t="s">
         <v>162</v>
       </c>
@@ -3081,7 +3214,7 @@
       </c>
     </row>
     <row r="84" spans="11:13">
-      <c r="K84" s="14"/>
+      <c r="K84" s="13"/>
       <c r="L84" t="s">
         <v>163</v>
       </c>
@@ -3090,7 +3223,7 @@
       </c>
     </row>
     <row r="85" spans="11:13">
-      <c r="K85" s="14"/>
+      <c r="K85" s="13"/>
       <c r="L85" t="s">
         <v>164</v>
       </c>
@@ -3099,7 +3232,7 @@
       </c>
     </row>
     <row r="86" spans="11:13">
-      <c r="K86" s="14"/>
+      <c r="K86" s="13"/>
       <c r="L86" t="s">
         <v>165</v>
       </c>
@@ -3108,7 +3241,7 @@
       </c>
     </row>
     <row r="87" spans="11:13">
-      <c r="K87" s="14"/>
+      <c r="K87" s="13"/>
       <c r="L87" t="s">
         <v>166</v>
       </c>
@@ -3117,7 +3250,7 @@
       </c>
     </row>
     <row r="88" spans="11:13">
-      <c r="K88" s="14"/>
+      <c r="K88" s="13"/>
       <c r="L88" t="s">
         <v>167</v>
       </c>
@@ -3126,7 +3259,7 @@
       </c>
     </row>
     <row r="89" spans="11:13">
-      <c r="K89" s="14"/>
+      <c r="K89" s="13"/>
       <c r="L89" t="s">
         <v>168</v>
       </c>
@@ -3135,7 +3268,7 @@
       </c>
     </row>
     <row r="90" spans="11:13">
-      <c r="K90" s="14"/>
+      <c r="K90" s="13"/>
       <c r="L90" t="s">
         <v>169</v>
       </c>
@@ -3144,7 +3277,7 @@
       </c>
     </row>
     <row r="91" spans="11:13">
-      <c r="K91" s="14"/>
+      <c r="K91" s="13"/>
       <c r="L91" t="s">
         <v>170</v>
       </c>
@@ -3153,7 +3286,7 @@
       </c>
     </row>
     <row r="92" spans="11:13">
-      <c r="K92" s="14"/>
+      <c r="K92" s="13"/>
       <c r="L92" t="s">
         <v>171</v>
       </c>
@@ -3162,7 +3295,7 @@
       </c>
     </row>
     <row r="93" spans="11:13">
-      <c r="K93" s="14"/>
+      <c r="K93" s="13"/>
       <c r="L93" t="s">
         <v>172</v>
       </c>
@@ -3171,7 +3304,7 @@
       </c>
     </row>
     <row r="94" spans="11:13">
-      <c r="K94" s="14"/>
+      <c r="K94" s="13"/>
       <c r="L94" t="s">
         <v>173</v>
       </c>
@@ -3180,7 +3313,7 @@
       </c>
     </row>
     <row r="95" spans="11:13">
-      <c r="K95" s="14"/>
+      <c r="K95" s="13"/>
       <c r="L95" t="s">
         <v>174</v>
       </c>
@@ -3189,7 +3322,7 @@
       </c>
     </row>
     <row r="96" spans="11:13">
-      <c r="K96" s="14"/>
+      <c r="K96" s="13"/>
       <c r="L96" t="s">
         <v>175</v>
       </c>
@@ -3198,7 +3331,7 @@
       </c>
     </row>
     <row r="97" spans="11:13">
-      <c r="K97" s="14"/>
+      <c r="K97" s="13"/>
       <c r="L97" t="s">
         <v>176</v>
       </c>
@@ -3207,7 +3340,7 @@
       </c>
     </row>
     <row r="98" spans="11:13">
-      <c r="K98" s="14"/>
+      <c r="K98" s="13"/>
       <c r="L98" t="s">
         <v>177</v>
       </c>
@@ -3216,7 +3349,7 @@
       </c>
     </row>
     <row r="99" spans="11:13">
-      <c r="K99" s="14"/>
+      <c r="K99" s="13"/>
       <c r="L99" t="s">
         <v>178</v>
       </c>
@@ -3225,7 +3358,7 @@
       </c>
     </row>
     <row r="100" spans="11:13">
-      <c r="K100" s="14"/>
+      <c r="K100" s="13"/>
       <c r="L100" t="s">
         <v>179</v>
       </c>
@@ -3234,7 +3367,7 @@
       </c>
     </row>
     <row r="101" spans="11:13">
-      <c r="K101" s="14"/>
+      <c r="K101" s="13"/>
       <c r="L101" t="s">
         <v>180</v>
       </c>
@@ -3243,7 +3376,7 @@
       </c>
     </row>
     <row r="102" spans="11:13">
-      <c r="K102" s="14"/>
+      <c r="K102" s="13"/>
       <c r="L102" t="s">
         <v>181</v>
       </c>
@@ -3252,7 +3385,7 @@
       </c>
     </row>
     <row r="103" spans="11:13">
-      <c r="K103" s="14"/>
+      <c r="K103" s="13"/>
       <c r="L103" t="s">
         <v>182</v>
       </c>
@@ -3261,7 +3394,7 @@
       </c>
     </row>
     <row r="104" spans="11:13">
-      <c r="K104" s="14"/>
+      <c r="K104" s="13"/>
       <c r="L104" t="s">
         <v>183</v>
       </c>
@@ -3270,7 +3403,7 @@
       </c>
     </row>
     <row r="105" spans="11:13">
-      <c r="K105" s="14"/>
+      <c r="K105" s="13"/>
       <c r="L105" t="s">
         <v>184</v>
       </c>
@@ -3279,7 +3412,7 @@
       </c>
     </row>
     <row r="106" spans="11:13">
-      <c r="K106" s="14"/>
+      <c r="K106" s="13"/>
       <c r="L106" t="s">
         <v>185</v>
       </c>
@@ -3288,7 +3421,7 @@
       </c>
     </row>
     <row r="107" spans="11:13">
-      <c r="K107" s="14"/>
+      <c r="K107" s="13"/>
       <c r="L107" t="s">
         <v>186</v>
       </c>
@@ -3297,7 +3430,7 @@
       </c>
     </row>
     <row r="108" spans="11:13">
-      <c r="K108" s="14"/>
+      <c r="K108" s="13"/>
       <c r="L108" t="s">
         <v>187</v>
       </c>
@@ -3306,7 +3439,7 @@
       </c>
     </row>
     <row r="109" spans="11:13">
-      <c r="K109" s="14"/>
+      <c r="K109" s="13"/>
       <c r="L109" t="s">
         <v>188</v>
       </c>
@@ -3315,7 +3448,7 @@
       </c>
     </row>
     <row r="110" spans="11:13">
-      <c r="K110" s="14"/>
+      <c r="K110" s="13"/>
       <c r="L110" t="s">
         <v>189</v>
       </c>
@@ -3324,7 +3457,7 @@
       </c>
     </row>
     <row r="111" spans="11:13">
-      <c r="K111" s="14"/>
+      <c r="K111" s="13"/>
       <c r="L111" t="s">
         <v>190</v>
       </c>
@@ -3333,7 +3466,7 @@
       </c>
     </row>
     <row r="112" spans="11:13">
-      <c r="K112" s="14"/>
+      <c r="K112" s="13"/>
       <c r="L112" t="s">
         <v>191</v>
       </c>
@@ -3342,7 +3475,7 @@
       </c>
     </row>
     <row r="113" spans="11:13">
-      <c r="K113" s="14"/>
+      <c r="K113" s="13"/>
       <c r="L113" t="s">
         <v>192</v>
       </c>
@@ -3351,7 +3484,7 @@
       </c>
     </row>
     <row r="114" spans="11:13">
-      <c r="K114" s="14"/>
+      <c r="K114" s="13"/>
       <c r="L114" t="s">
         <v>193</v>
       </c>
@@ -3360,7 +3493,7 @@
       </c>
     </row>
     <row r="115" spans="11:13">
-      <c r="K115" s="14"/>
+      <c r="K115" s="13"/>
       <c r="L115" t="s">
         <v>194</v>
       </c>
@@ -3369,7 +3502,7 @@
       </c>
     </row>
     <row r="116" spans="11:13">
-      <c r="K116" s="14"/>
+      <c r="K116" s="13"/>
       <c r="L116" t="s">
         <v>195</v>
       </c>
@@ -3378,7 +3511,7 @@
       </c>
     </row>
     <row r="117" spans="11:13">
-      <c r="K117" s="14"/>
+      <c r="K117" s="13"/>
       <c r="L117" t="s">
         <v>196</v>
       </c>
@@ -3387,7 +3520,7 @@
       </c>
     </row>
     <row r="118" spans="11:13">
-      <c r="K118" s="14"/>
+      <c r="K118" s="13"/>
       <c r="L118" t="s">
         <v>197</v>
       </c>
@@ -3396,7 +3529,7 @@
       </c>
     </row>
     <row r="119" spans="11:13">
-      <c r="K119" s="14"/>
+      <c r="K119" s="13"/>
       <c r="L119" t="s">
         <v>198</v>
       </c>
@@ -3405,7 +3538,7 @@
       </c>
     </row>
     <row r="120" spans="11:13">
-      <c r="K120" s="14"/>
+      <c r="K120" s="13"/>
       <c r="L120" t="s">
         <v>199</v>
       </c>
@@ -3414,7 +3547,7 @@
       </c>
     </row>
     <row r="121" spans="11:13">
-      <c r="K121" s="14"/>
+      <c r="K121" s="13"/>
       <c r="L121" t="s">
         <v>200</v>
       </c>
@@ -3423,7 +3556,7 @@
       </c>
     </row>
     <row r="122" spans="11:13">
-      <c r="K122" s="14"/>
+      <c r="K122" s="13"/>
       <c r="L122" t="s">
         <v>201</v>
       </c>
@@ -3432,7 +3565,7 @@
       </c>
     </row>
     <row r="123" spans="11:13">
-      <c r="K123" s="14"/>
+      <c r="K123" s="13"/>
       <c r="L123" t="s">
         <v>202</v>
       </c>
@@ -3441,7 +3574,7 @@
       </c>
     </row>
     <row r="124" spans="11:13">
-      <c r="K124" s="14"/>
+      <c r="K124" s="13"/>
       <c r="L124" t="s">
         <v>203</v>
       </c>
@@ -3450,7 +3583,7 @@
       </c>
     </row>
     <row r="125" spans="11:13">
-      <c r="K125" s="14"/>
+      <c r="K125" s="13"/>
       <c r="L125" t="s">
         <v>204</v>
       </c>
@@ -3459,7 +3592,7 @@
       </c>
     </row>
     <row r="126" spans="11:13">
-      <c r="K126" s="14"/>
+      <c r="K126" s="13"/>
       <c r="L126" t="s">
         <v>205</v>
       </c>
@@ -3468,7 +3601,7 @@
       </c>
     </row>
     <row r="127" spans="11:13">
-      <c r="K127" s="14"/>
+      <c r="K127" s="13"/>
       <c r="L127" t="s">
         <v>206</v>
       </c>
@@ -3477,7 +3610,7 @@
       </c>
     </row>
     <row r="128" spans="11:13">
-      <c r="K128" s="14"/>
+      <c r="K128" s="13"/>
       <c r="L128" t="s">
         <v>207</v>
       </c>
@@ -3486,7 +3619,7 @@
       </c>
     </row>
     <row r="129" spans="11:13">
-      <c r="K129" s="14"/>
+      <c r="K129" s="13"/>
       <c r="L129" t="s">
         <v>208</v>
       </c>
@@ -3495,7 +3628,7 @@
       </c>
     </row>
     <row r="130" spans="11:13">
-      <c r="K130" s="14"/>
+      <c r="K130" s="13"/>
       <c r="L130" t="s">
         <v>209</v>
       </c>
@@ -3504,7 +3637,7 @@
       </c>
     </row>
     <row r="131" spans="11:13">
-      <c r="K131" s="14"/>
+      <c r="K131" s="13"/>
       <c r="L131" t="s">
         <v>210</v>
       </c>
@@ -3513,7 +3646,7 @@
       </c>
     </row>
     <row r="132" spans="11:13">
-      <c r="K132" s="14"/>
+      <c r="K132" s="13"/>
       <c r="L132" t="s">
         <v>211</v>
       </c>
@@ -3522,7 +3655,7 @@
       </c>
     </row>
     <row r="133" spans="11:13">
-      <c r="K133" s="14"/>
+      <c r="K133" s="13"/>
       <c r="L133" t="s">
         <v>212</v>
       </c>
@@ -3531,7 +3664,7 @@
       </c>
     </row>
     <row r="134" spans="11:13">
-      <c r="K134" s="14"/>
+      <c r="K134" s="13"/>
       <c r="L134" t="s">
         <v>213</v>
       </c>
@@ -3540,7 +3673,7 @@
       </c>
     </row>
     <row r="135" spans="11:13">
-      <c r="K135" s="14"/>
+      <c r="K135" s="13"/>
       <c r="L135" t="s">
         <v>214</v>
       </c>
@@ -3549,7 +3682,7 @@
       </c>
     </row>
     <row r="136" spans="11:13">
-      <c r="K136" s="14"/>
+      <c r="K136" s="13"/>
       <c r="L136" t="s">
         <v>215</v>
       </c>
@@ -3558,7 +3691,7 @@
       </c>
     </row>
     <row r="137" spans="11:13">
-      <c r="K137" s="14"/>
+      <c r="K137" s="13"/>
       <c r="L137" t="s">
         <v>216</v>
       </c>
@@ -3567,7 +3700,7 @@
       </c>
     </row>
     <row r="138" spans="11:13">
-      <c r="K138" s="14"/>
+      <c r="K138" s="13"/>
       <c r="L138" t="s">
         <v>217</v>
       </c>
@@ -3576,7 +3709,7 @@
       </c>
     </row>
     <row r="139" spans="11:13">
-      <c r="K139" s="14"/>
+      <c r="K139" s="13"/>
       <c r="L139" t="s">
         <v>218</v>
       </c>
@@ -3585,7 +3718,7 @@
       </c>
     </row>
     <row r="140" spans="11:13">
-      <c r="K140" s="14"/>
+      <c r="K140" s="13"/>
       <c r="L140" t="s">
         <v>219</v>
       </c>
@@ -3594,7 +3727,7 @@
       </c>
     </row>
     <row r="141" spans="11:13">
-      <c r="K141" s="14"/>
+      <c r="K141" s="13"/>
       <c r="L141" t="s">
         <v>220</v>
       </c>
@@ -3603,7 +3736,7 @@
       </c>
     </row>
     <row r="142" spans="11:13">
-      <c r="K142" s="14"/>
+      <c r="K142" s="13"/>
       <c r="L142" t="s">
         <v>221</v>
       </c>
@@ -3612,7 +3745,7 @@
       </c>
     </row>
     <row r="143" spans="11:13">
-      <c r="K143" s="14"/>
+      <c r="K143" s="13"/>
       <c r="L143" t="s">
         <v>222</v>
       </c>
@@ -3621,7 +3754,7 @@
       </c>
     </row>
     <row r="144" spans="11:13">
-      <c r="K144" s="14"/>
+      <c r="K144" s="13"/>
       <c r="L144" t="s">
         <v>223</v>
       </c>
@@ -3630,7 +3763,7 @@
       </c>
     </row>
     <row r="145" spans="11:13">
-      <c r="K145" s="14"/>
+      <c r="K145" s="13"/>
       <c r="L145" t="s">
         <v>224</v>
       </c>
@@ -3639,7 +3772,7 @@
       </c>
     </row>
     <row r="146" spans="11:13">
-      <c r="K146" s="14"/>
+      <c r="K146" s="13"/>
       <c r="L146" t="s">
         <v>225</v>
       </c>
@@ -3648,7 +3781,7 @@
       </c>
     </row>
     <row r="147" spans="11:13">
-      <c r="K147" s="14"/>
+      <c r="K147" s="13"/>
       <c r="L147" t="s">
         <v>226</v>
       </c>
@@ -3657,12 +3790,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="K8:K44"/>
-    <mergeCell ref="K45:K147"/>
-    <mergeCell ref="H37:H54"/>
-    <mergeCell ref="H55:H65"/>
+  <mergeCells count="15">
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="H5:J5"/>
@@ -3672,6 +3800,12 @@
     <mergeCell ref="B18:B34"/>
     <mergeCell ref="H21:H34"/>
     <mergeCell ref="E21:E29"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="K8:K44"/>
+    <mergeCell ref="K45:K147"/>
+    <mergeCell ref="H37:H54"/>
+    <mergeCell ref="H55:H65"/>
+    <mergeCell ref="H66:H77"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3685,45 +3819,45 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="12" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="12" t="s">
         <v>252</v>
       </c>
       <c r="B3">
         <f>Arkusz1!D4</f>
-        <v>0.7279411764705882</v>
+        <v>0.71026490066225167</v>
       </c>
       <c r="C3">
         <f>Arkusz1!G4</f>
-        <v>0.87047511312217196</v>
+        <v>0.84933774834437081</v>
       </c>
       <c r="D3">
         <f>Arkusz1!J4</f>
-        <v>0.6244343891402715</v>
+        <v>0.70640176600441507</v>
       </c>
       <c r="E3">
         <f>Arkusz1!M4</f>
-        <v>1.7771493212669682</v>
+        <v>1.7339955849889626</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -3748,19 +3882,19 @@
       </c>
       <c r="G4">
         <f>B$3*$A4</f>
-        <v>2.1838235294117645</v>
+        <v>2.1307947019867548</v>
       </c>
       <c r="H4">
         <f t="shared" ref="H4:J4" si="1">C$3*$A4</f>
-        <v>2.6114253393665159</v>
+        <v>2.5480132450331126</v>
       </c>
       <c r="I4">
         <f t="shared" si="1"/>
-        <v>1.8733031674208145</v>
+        <v>2.1192052980132452</v>
       </c>
       <c r="J4">
         <f t="shared" si="1"/>
-        <v>5.3314479638009047</v>
+        <v>5.2019867549668879</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -3773,7 +3907,7 @@
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
-        <v>Zaliczenie</v>
+        <v>Warunek</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
@@ -3785,19 +3919,19 @@
       </c>
       <c r="G5">
         <f t="shared" ref="G5:G8" si="3">B$3*$A5</f>
-        <v>2.5477941176470589</v>
+        <v>2.4859271523178808</v>
       </c>
       <c r="H5">
         <f t="shared" ref="H5:H8" si="4">C$3*$A5</f>
-        <v>3.0466628959276019</v>
+        <v>2.9726821192052979</v>
       </c>
       <c r="I5">
         <f t="shared" ref="I5:I8" si="5">D$3*$A5</f>
-        <v>2.1855203619909505</v>
+        <v>2.4724061810154527</v>
       </c>
       <c r="J5">
-        <f t="shared" ref="J5:J8" si="6">E$3*$A5</f>
-        <v>6.2200226244343888</v>
+        <f t="shared" ref="J5:J7" si="6">E$3*$A5</f>
+        <v>6.0689845474613691</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -3822,19 +3956,19 @@
       </c>
       <c r="G6">
         <f t="shared" si="3"/>
-        <v>2.9117647058823528</v>
+        <v>2.8410596026490067</v>
       </c>
       <c r="H6">
         <f t="shared" si="4"/>
-        <v>3.4819004524886878</v>
+        <v>3.3973509933774833</v>
       </c>
       <c r="I6">
         <f t="shared" si="5"/>
-        <v>2.497737556561086</v>
+        <v>2.8256070640176603</v>
       </c>
       <c r="J6">
         <f t="shared" si="6"/>
-        <v>7.1085972850678729</v>
+        <v>6.9359823399558502</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -3851,7 +3985,7 @@
       </c>
       <c r="D7" t="str">
         <f t="shared" si="0"/>
-        <v>Warunek</v>
+        <v>Zaliczenie</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" si="0"/>
@@ -3859,19 +3993,19 @@
       </c>
       <c r="G7">
         <f t="shared" si="3"/>
-        <v>3.2757352941176467</v>
+        <v>3.1961920529801326</v>
       </c>
       <c r="H7">
         <f t="shared" si="4"/>
-        <v>3.9171380090497738</v>
+        <v>3.8220198675496686</v>
       </c>
       <c r="I7">
         <f t="shared" si="5"/>
-        <v>2.8099547511312215</v>
+        <v>3.1788079470198678</v>
       </c>
       <c r="J7">
         <f t="shared" si="6"/>
-        <v>7.997171945701357</v>
+        <v>7.8029801324503314</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -3896,19 +4030,19 @@
       </c>
       <c r="G8">
         <f t="shared" si="3"/>
-        <v>3.6397058823529411</v>
+        <v>3.5513245033112586</v>
       </c>
       <c r="H8">
         <f t="shared" si="4"/>
-        <v>4.3523755656108598</v>
+        <v>4.2466887417218544</v>
       </c>
       <c r="I8">
         <f t="shared" si="5"/>
-        <v>3.1221719457013575</v>
+        <v>3.5320088300220753</v>
       </c>
       <c r="J8">
         <f>E$3*$A8</f>
-        <v>8.8857466063348411</v>
+        <v>8.6699779249448135</v>
       </c>
     </row>
   </sheetData>

--- a/Raport.xlsx
+++ b/Raport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dominik\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9142EE6E-EE3B-486E-8EF2-BE9B8A9516C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEBC64BE-6DB7-4D98-8C35-0B4C59EF72BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="293">
   <si>
     <t>Liczba członków zespołu</t>
   </si>
@@ -841,34 +841,96 @@
     <t>Dodanie kodu w pozycja-list.component.ts</t>
   </si>
   <si>
-    <t>Dodanie kodu w alergen-form.component.html</t>
-  </si>
-  <si>
-    <t>Dodanie kodu w alergen-list.component.html</t>
-  </si>
-  <si>
-    <t>Dodanie kodu w kategorie-form.component.html</t>
-  </si>
-  <si>
-    <t>Dodanie kodu w kategorie-list.component.html</t>
-  </si>
-  <si>
-    <t>Dodanie kodu w pozycja-form.component.html</t>
-  </si>
-  <si>
-    <t>Dodanie kodu w pozycja-list.component.html</t>
+    <t>Dodanie kodu w alergen-form.component.html (wyjście do panelu administratora)</t>
+  </si>
+  <si>
+    <t>Dodanie kodu w alergen-list.component.html (wyjście do panelu administratora)</t>
+  </si>
+  <si>
+    <t>Dodanie kodu w kategorie-form.component.html (wyjście do panelu administratora)</t>
+  </si>
+  <si>
+    <t>Dodanie kodu w kategorie-list.component.html (wyjście do panelu administratora)</t>
+  </si>
+  <si>
+    <t>Dodanie kodu w pozycja-form.component.html (wyjście do panelu administratora)</t>
+  </si>
+  <si>
+    <t>Dodanie kodu w pozycja-list.component.html (wyjście do panelu administratora)</t>
+  </si>
+  <si>
+    <t>menu-component.ts</t>
+  </si>
+  <si>
+    <t>menu-component.html</t>
+  </si>
+  <si>
+    <t>cart.service.ts</t>
+  </si>
+  <si>
+    <t>header.component.ts</t>
+  </si>
+  <si>
+    <t>header.component.html</t>
+  </si>
+  <si>
+    <t>cart.component.html</t>
+  </si>
+  <si>
+    <t>cart.component.ts</t>
+  </si>
+  <si>
+    <t>orders.component.html</t>
+  </si>
+  <si>
+    <t>orders.component.ts</t>
+  </si>
+  <si>
+    <t>menu.service.ts</t>
+  </si>
+  <si>
+    <t>alergen-list.component.ts:</t>
+  </si>
+  <si>
+    <t>alergen.service.ts:</t>
+  </si>
+  <si>
+    <t>kategoria-list.component.ts:</t>
+  </si>
+  <si>
+    <t>pozycja-list.component.ts:</t>
+  </si>
+  <si>
+    <t>pozycja-form.component.html</t>
+  </si>
+  <si>
+    <t>pozycja-form.component.ts</t>
+  </si>
+  <si>
+    <t>styles.css</t>
+  </si>
+  <si>
+    <t>cart.component.css</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -974,14 +1036,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -990,11 +1052,14 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1012,17 +1077,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1514,8 +1582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M147"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G93" sqref="G93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -1560,7 +1628,7 @@
       </c>
       <c r="J3">
         <f>SUM(J7:J1001)</f>
-        <v>1280</v>
+        <v>1524</v>
       </c>
       <c r="M3">
         <f>SUM(M7:M1001)</f>
@@ -1574,42 +1642,42 @@
       <c r="B4" s="1"/>
       <c r="D4">
         <f>($B$2*D$3)/SUM($D$3:$AK$3)</f>
-        <v>0.71026490066225167</v>
+        <v>0.68713294180459161</v>
       </c>
       <c r="G4">
         <f>($B$2*G$3)/SUM($D$3:$AK$3)</f>
-        <v>0.84933774834437081</v>
+        <v>0.82167645488521091</v>
       </c>
       <c r="J4">
         <f>($B$2*J$3)/SUM($D$3:$AK$3)</f>
-        <v>0.70640176600441507</v>
+        <v>0.81366791243993597</v>
       </c>
       <c r="M4">
         <f>($B$2*M$3)/SUM($D$3:$AK$3)</f>
-        <v>1.7339955849889626</v>
+        <v>1.6775226908702616</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="14" t="s">
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14" t="s">
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14" t="s">
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
     </row>
     <row r="6" spans="1:13">
       <c r="B6" t="s">
@@ -1715,7 +1783,7 @@
       <c r="J8">
         <v>100</v>
       </c>
-      <c r="K8" s="13">
+      <c r="K8" s="16">
         <v>45772</v>
       </c>
       <c r="L8" t="s">
@@ -1726,7 +1794,7 @@
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="B9" s="13">
+      <c r="B9" s="16">
         <v>45785</v>
       </c>
       <c r="C9" t="s">
@@ -1753,7 +1821,7 @@
       <c r="J9">
         <v>118</v>
       </c>
-      <c r="K9" s="13"/>
+      <c r="K9" s="16"/>
       <c r="L9" s="5" t="s">
         <v>17</v>
       </c>
@@ -1762,7 +1830,7 @@
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="B10" s="13"/>
+      <c r="B10" s="16"/>
       <c r="C10" t="s">
         <v>64</v>
       </c>
@@ -1775,7 +1843,7 @@
       <c r="G10">
         <v>57</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="16">
         <v>45803</v>
       </c>
       <c r="I10" t="s">
@@ -1784,7 +1852,7 @@
       <c r="J10">
         <v>70</v>
       </c>
-      <c r="K10" s="13"/>
+      <c r="K10" s="16"/>
       <c r="L10" t="s">
         <v>18</v>
       </c>
@@ -1793,7 +1861,7 @@
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="B11" s="13"/>
+      <c r="B11" s="16"/>
       <c r="C11" t="s">
         <v>65</v>
       </c>
@@ -1806,14 +1874,14 @@
       <c r="G11">
         <v>59</v>
       </c>
-      <c r="H11" s="13"/>
+      <c r="H11" s="16"/>
       <c r="I11" t="s">
         <v>75</v>
       </c>
       <c r="J11">
         <v>23</v>
       </c>
-      <c r="K11" s="13"/>
+      <c r="K11" s="16"/>
       <c r="L11" t="s">
         <v>19</v>
       </c>
@@ -1822,7 +1890,7 @@
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="B12" s="13"/>
+      <c r="B12" s="16"/>
       <c r="C12" t="s">
         <v>66</v>
       </c>
@@ -1835,14 +1903,14 @@
       <c r="G12">
         <v>58</v>
       </c>
-      <c r="H12" s="13"/>
+      <c r="H12" s="16"/>
       <c r="I12" t="s">
         <v>77</v>
       </c>
       <c r="J12">
         <v>23</v>
       </c>
-      <c r="K12" s="13"/>
+      <c r="K12" s="16"/>
       <c r="L12" t="s">
         <v>20</v>
       </c>
@@ -1851,7 +1919,7 @@
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="B13" s="13"/>
+      <c r="B13" s="16"/>
       <c r="C13" t="s">
         <v>67</v>
       </c>
@@ -1864,14 +1932,14 @@
       <c r="G13">
         <v>57</v>
       </c>
-      <c r="H13" s="13"/>
+      <c r="H13" s="16"/>
       <c r="I13" t="s">
         <v>76</v>
       </c>
       <c r="J13">
         <v>27</v>
       </c>
-      <c r="K13" s="13"/>
+      <c r="K13" s="16"/>
       <c r="L13" s="5" t="s">
         <v>21</v>
       </c>
@@ -1880,7 +1948,7 @@
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="B14" s="13"/>
+      <c r="B14" s="16"/>
       <c r="C14" t="s">
         <v>68</v>
       </c>
@@ -1893,14 +1961,14 @@
       <c r="G14">
         <v>61</v>
       </c>
-      <c r="H14" s="13"/>
+      <c r="H14" s="16"/>
       <c r="I14" t="s">
         <v>74</v>
       </c>
       <c r="J14">
         <v>24</v>
       </c>
-      <c r="K14" s="13"/>
+      <c r="K14" s="16"/>
       <c r="L14" t="s">
         <v>22</v>
       </c>
@@ -1909,7 +1977,7 @@
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="B15" s="13"/>
+      <c r="B15" s="16"/>
       <c r="C15" t="s">
         <v>69</v>
       </c>
@@ -1922,14 +1990,14 @@
       <c r="G15">
         <v>60</v>
       </c>
-      <c r="H15" s="13"/>
+      <c r="H15" s="16"/>
       <c r="I15" t="s">
         <v>78</v>
       </c>
       <c r="J15">
         <v>27</v>
       </c>
-      <c r="K15" s="13"/>
+      <c r="K15" s="16"/>
       <c r="L15" s="5" t="s">
         <v>23</v>
       </c>
@@ -1938,7 +2006,7 @@
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="B16" s="13"/>
+      <c r="B16" s="16"/>
       <c r="C16" t="s">
         <v>70</v>
       </c>
@@ -1951,14 +2019,14 @@
       <c r="G16">
         <v>16</v>
       </c>
-      <c r="H16" s="13"/>
+      <c r="H16" s="16"/>
       <c r="I16" t="s">
         <v>79</v>
       </c>
       <c r="J16">
         <v>27</v>
       </c>
-      <c r="K16" s="13"/>
+      <c r="K16" s="16"/>
       <c r="L16" t="s">
         <v>24</v>
       </c>
@@ -1967,7 +2035,7 @@
       </c>
     </row>
     <row r="17" spans="2:13">
-      <c r="B17" s="13"/>
+      <c r="B17" s="16"/>
       <c r="C17" t="s">
         <v>71</v>
       </c>
@@ -1980,14 +2048,14 @@
       <c r="G17">
         <v>59</v>
       </c>
-      <c r="H17" s="13"/>
+      <c r="H17" s="16"/>
       <c r="I17" t="s">
         <v>80</v>
       </c>
       <c r="J17">
         <v>27</v>
       </c>
-      <c r="K17" s="13"/>
+      <c r="K17" s="16"/>
       <c r="L17" t="s">
         <v>25</v>
       </c>
@@ -1996,7 +2064,7 @@
       </c>
     </row>
     <row r="18" spans="2:13">
-      <c r="B18" s="13">
+      <c r="B18" s="16">
         <v>45803</v>
       </c>
       <c r="C18" t="s">
@@ -2011,14 +2079,14 @@
       <c r="G18">
         <v>64</v>
       </c>
-      <c r="H18" s="13"/>
+      <c r="H18" s="16"/>
       <c r="I18" t="s">
         <v>81</v>
       </c>
       <c r="J18">
         <v>27</v>
       </c>
-      <c r="K18" s="13"/>
+      <c r="K18" s="16"/>
       <c r="L18" t="s">
         <v>26</v>
       </c>
@@ -2027,21 +2095,21 @@
       </c>
     </row>
     <row r="19" spans="2:13">
-      <c r="B19" s="13"/>
+      <c r="B19" s="16"/>
       <c r="C19" t="s">
         <v>85</v>
       </c>
       <c r="D19">
         <v>144</v>
       </c>
-      <c r="H19" s="13"/>
+      <c r="H19" s="16"/>
       <c r="I19" t="s">
         <v>82</v>
       </c>
       <c r="J19">
         <v>28</v>
       </c>
-      <c r="K19" s="13"/>
+      <c r="K19" s="16"/>
       <c r="L19" t="s">
         <v>27</v>
       </c>
@@ -2050,21 +2118,21 @@
       </c>
     </row>
     <row r="20" spans="2:13">
-      <c r="B20" s="13"/>
+      <c r="B20" s="16"/>
       <c r="C20" t="s">
         <v>86</v>
       </c>
       <c r="D20">
         <v>164</v>
       </c>
-      <c r="H20" s="13"/>
+      <c r="H20" s="16"/>
       <c r="I20" t="s">
         <v>83</v>
       </c>
       <c r="J20">
         <v>34</v>
       </c>
-      <c r="K20" s="13"/>
+      <c r="K20" s="16"/>
       <c r="L20" t="s">
         <v>28</v>
       </c>
@@ -2073,14 +2141,14 @@
       </c>
     </row>
     <row r="21" spans="2:13">
-      <c r="B21" s="13"/>
+      <c r="B21" s="16"/>
       <c r="C21" t="s">
         <v>87</v>
       </c>
       <c r="D21">
         <v>58</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E21" s="16">
         <v>45804</v>
       </c>
       <c r="F21" t="s">
@@ -2089,7 +2157,7 @@
       <c r="G21">
         <v>81</v>
       </c>
-      <c r="H21" s="13">
+      <c r="H21" s="16">
         <v>45817</v>
       </c>
       <c r="I21" s="12" t="s">
@@ -2098,7 +2166,7 @@
       <c r="J21" s="6">
         <v>3</v>
       </c>
-      <c r="K21" s="13"/>
+      <c r="K21" s="16"/>
       <c r="L21" t="s">
         <v>29</v>
       </c>
@@ -2107,28 +2175,28 @@
       </c>
     </row>
     <row r="22" spans="2:13">
-      <c r="B22" s="13"/>
+      <c r="B22" s="16"/>
       <c r="C22" t="s">
         <v>88</v>
       </c>
       <c r="D22">
         <v>92</v>
       </c>
-      <c r="E22" s="14"/>
+      <c r="E22" s="15"/>
       <c r="F22" t="s">
         <v>102</v>
       </c>
       <c r="G22">
         <v>69</v>
       </c>
-      <c r="H22" s="13"/>
+      <c r="H22" s="16"/>
       <c r="I22" t="s">
         <v>111</v>
       </c>
       <c r="J22" s="6">
         <v>6</v>
       </c>
-      <c r="K22" s="13"/>
+      <c r="K22" s="16"/>
       <c r="L22" t="s">
         <v>30</v>
       </c>
@@ -2137,28 +2205,28 @@
       </c>
     </row>
     <row r="23" spans="2:13">
-      <c r="B23" s="13"/>
+      <c r="B23" s="16"/>
       <c r="C23" t="s">
         <v>89</v>
       </c>
       <c r="D23">
         <v>64</v>
       </c>
-      <c r="E23" s="14"/>
+      <c r="E23" s="15"/>
       <c r="F23" t="s">
         <v>103</v>
       </c>
       <c r="G23">
         <v>75</v>
       </c>
-      <c r="H23" s="13"/>
+      <c r="H23" s="16"/>
       <c r="I23" t="s">
         <v>112</v>
       </c>
       <c r="J23" s="6">
         <v>3</v>
       </c>
-      <c r="K23" s="13"/>
+      <c r="K23" s="16"/>
       <c r="L23" t="s">
         <v>31</v>
       </c>
@@ -2167,28 +2235,28 @@
       </c>
     </row>
     <row r="24" spans="2:13">
-      <c r="B24" s="13"/>
+      <c r="B24" s="16"/>
       <c r="C24" t="s">
         <v>90</v>
       </c>
       <c r="D24">
         <v>20</v>
       </c>
-      <c r="E24" s="14"/>
+      <c r="E24" s="15"/>
       <c r="F24" t="s">
         <v>104</v>
       </c>
       <c r="G24">
         <v>126</v>
       </c>
-      <c r="H24" s="13"/>
+      <c r="H24" s="16"/>
       <c r="I24" t="s">
         <v>113</v>
       </c>
       <c r="J24" s="6">
         <v>6</v>
       </c>
-      <c r="K24" s="13"/>
+      <c r="K24" s="16"/>
       <c r="L24" t="s">
         <v>32</v>
       </c>
@@ -2197,28 +2265,28 @@
       </c>
     </row>
     <row r="25" spans="2:13">
-      <c r="B25" s="13"/>
+      <c r="B25" s="16"/>
       <c r="C25" t="s">
         <v>91</v>
       </c>
       <c r="D25">
         <v>57</v>
       </c>
-      <c r="E25" s="14"/>
+      <c r="E25" s="15"/>
       <c r="F25" t="s">
         <v>105</v>
       </c>
       <c r="G25">
         <v>65</v>
       </c>
-      <c r="H25" s="13"/>
+      <c r="H25" s="16"/>
       <c r="I25" t="s">
         <v>114</v>
       </c>
       <c r="J25" s="6">
         <v>4</v>
       </c>
-      <c r="K25" s="13"/>
+      <c r="K25" s="16"/>
       <c r="L25" t="s">
         <v>33</v>
       </c>
@@ -2227,28 +2295,28 @@
       </c>
     </row>
     <row r="26" spans="2:13">
-      <c r="B26" s="13"/>
+      <c r="B26" s="16"/>
       <c r="C26" t="s">
         <v>92</v>
       </c>
       <c r="D26">
         <v>28</v>
       </c>
-      <c r="E26" s="14"/>
+      <c r="E26" s="15"/>
       <c r="F26" t="s">
         <v>106</v>
       </c>
       <c r="G26">
         <v>82</v>
       </c>
-      <c r="H26" s="13"/>
+      <c r="H26" s="16"/>
       <c r="I26" s="12" t="s">
         <v>115</v>
       </c>
       <c r="J26" s="6">
         <v>2</v>
       </c>
-      <c r="K26" s="13"/>
+      <c r="K26" s="16"/>
       <c r="L26" t="s">
         <v>34</v>
       </c>
@@ -2257,28 +2325,28 @@
       </c>
     </row>
     <row r="27" spans="2:13">
-      <c r="B27" s="13"/>
+      <c r="B27" s="16"/>
       <c r="C27" t="s">
         <v>93</v>
       </c>
       <c r="D27">
         <v>26</v>
       </c>
-      <c r="E27" s="14"/>
+      <c r="E27" s="15"/>
       <c r="F27" t="s">
         <v>107</v>
       </c>
       <c r="G27">
         <v>75</v>
       </c>
-      <c r="H27" s="13"/>
+      <c r="H27" s="16"/>
       <c r="I27" t="s">
         <v>116</v>
       </c>
       <c r="J27" s="6">
         <v>8</v>
       </c>
-      <c r="K27" s="13"/>
+      <c r="K27" s="16"/>
       <c r="L27" t="s">
         <v>35</v>
       </c>
@@ -2287,28 +2355,28 @@
       </c>
     </row>
     <row r="28" spans="2:13">
-      <c r="B28" s="13"/>
+      <c r="B28" s="16"/>
       <c r="C28" t="s">
         <v>94</v>
       </c>
       <c r="D28">
         <v>16</v>
       </c>
-      <c r="E28" s="14"/>
+      <c r="E28" s="15"/>
       <c r="F28" t="s">
         <v>108</v>
       </c>
       <c r="G28">
         <v>266</v>
       </c>
-      <c r="H28" s="13"/>
+      <c r="H28" s="16"/>
       <c r="I28" t="s">
         <v>117</v>
       </c>
       <c r="J28" s="6">
         <v>3</v>
       </c>
-      <c r="K28" s="13"/>
+      <c r="K28" s="16"/>
       <c r="L28" t="s">
         <v>36</v>
       </c>
@@ -2317,28 +2385,28 @@
       </c>
     </row>
     <row r="29" spans="2:13">
-      <c r="B29" s="13"/>
+      <c r="B29" s="16"/>
       <c r="C29" t="s">
         <v>95</v>
       </c>
       <c r="D29">
         <v>18</v>
       </c>
-      <c r="E29" s="14"/>
+      <c r="E29" s="15"/>
       <c r="F29" t="s">
         <v>109</v>
       </c>
       <c r="G29">
         <v>71</v>
       </c>
-      <c r="H29" s="13"/>
+      <c r="H29" s="16"/>
       <c r="I29" t="s">
         <v>118</v>
       </c>
       <c r="J29" s="6">
         <v>12</v>
       </c>
-      <c r="K29" s="13"/>
+      <c r="K29" s="16"/>
       <c r="L29" t="s">
         <v>37</v>
       </c>
@@ -2347,21 +2415,21 @@
       </c>
     </row>
     <row r="30" spans="2:13">
-      <c r="B30" s="13"/>
+      <c r="B30" s="16"/>
       <c r="C30" t="s">
         <v>96</v>
       </c>
       <c r="D30">
         <v>15</v>
       </c>
-      <c r="H30" s="13"/>
+      <c r="H30" s="16"/>
       <c r="I30" t="s">
         <v>119</v>
       </c>
       <c r="J30" s="6">
         <v>3</v>
       </c>
-      <c r="K30" s="13"/>
+      <c r="K30" s="16"/>
       <c r="L30" t="s">
         <v>38</v>
       </c>
@@ -2370,21 +2438,21 @@
       </c>
     </row>
     <row r="31" spans="2:13">
-      <c r="B31" s="13"/>
+      <c r="B31" s="16"/>
       <c r="C31" t="s">
         <v>97</v>
       </c>
       <c r="D31">
         <v>17</v>
       </c>
-      <c r="H31" s="13"/>
+      <c r="H31" s="16"/>
       <c r="I31" t="s">
         <v>120</v>
       </c>
       <c r="J31" s="6">
         <v>6</v>
       </c>
-      <c r="K31" s="13"/>
+      <c r="K31" s="16"/>
       <c r="L31" t="s">
         <v>39</v>
       </c>
@@ -2393,21 +2461,21 @@
       </c>
     </row>
     <row r="32" spans="2:13">
-      <c r="B32" s="13"/>
+      <c r="B32" s="16"/>
       <c r="C32" t="s">
         <v>98</v>
       </c>
       <c r="D32">
         <v>44</v>
       </c>
-      <c r="H32" s="13"/>
+      <c r="H32" s="16"/>
       <c r="I32" t="s">
         <v>121</v>
       </c>
       <c r="J32" s="6">
         <v>2</v>
       </c>
-      <c r="K32" s="13"/>
+      <c r="K32" s="16"/>
       <c r="L32" s="5" t="s">
         <v>40</v>
       </c>
@@ -2416,21 +2484,21 @@
       </c>
     </row>
     <row r="33" spans="2:13">
-      <c r="B33" s="13"/>
+      <c r="B33" s="16"/>
       <c r="C33" t="s">
         <v>99</v>
       </c>
       <c r="D33">
         <v>43</v>
       </c>
-      <c r="H33" s="13"/>
+      <c r="H33" s="16"/>
       <c r="I33" t="s">
         <v>122</v>
       </c>
       <c r="J33" s="6">
         <v>4</v>
       </c>
-      <c r="K33" s="13"/>
+      <c r="K33" s="16"/>
       <c r="L33" t="s">
         <v>41</v>
       </c>
@@ -2439,21 +2507,21 @@
       </c>
     </row>
     <row r="34" spans="2:13">
-      <c r="B34" s="13"/>
+      <c r="B34" s="16"/>
       <c r="C34" t="s">
         <v>100</v>
       </c>
       <c r="D34">
         <v>28</v>
       </c>
-      <c r="H34" s="13"/>
+      <c r="H34" s="16"/>
       <c r="I34" t="s">
         <v>123</v>
       </c>
       <c r="J34" s="6">
         <v>8</v>
       </c>
-      <c r="K34" s="13"/>
+      <c r="K34" s="16"/>
       <c r="L34" t="s">
         <v>42</v>
       </c>
@@ -2462,7 +2530,7 @@
       </c>
     </row>
     <row r="35" spans="2:13">
-      <c r="H35" s="13">
+      <c r="H35" s="16">
         <v>45898</v>
       </c>
       <c r="I35" s="9" t="s">
@@ -2471,7 +2539,7 @@
       <c r="J35" s="6">
         <v>5</v>
       </c>
-      <c r="K35" s="13"/>
+      <c r="K35" s="16"/>
       <c r="L35" t="s">
         <v>43</v>
       </c>
@@ -2480,14 +2548,14 @@
       </c>
     </row>
     <row r="36" spans="2:13">
-      <c r="H36" s="14"/>
+      <c r="H36" s="15"/>
       <c r="I36" s="9" t="s">
         <v>228</v>
       </c>
       <c r="J36" s="6">
         <v>15</v>
       </c>
-      <c r="K36" s="13"/>
+      <c r="K36" s="16"/>
       <c r="L36" t="s">
         <v>44</v>
       </c>
@@ -2496,7 +2564,7 @@
       </c>
     </row>
     <row r="37" spans="2:13">
-      <c r="H37" s="13">
+      <c r="H37" s="16">
         <v>45899</v>
       </c>
       <c r="I37" s="10" t="s">
@@ -2505,7 +2573,7 @@
       <c r="J37" s="6">
         <v>18</v>
       </c>
-      <c r="K37" s="13"/>
+      <c r="K37" s="16"/>
       <c r="L37" t="s">
         <v>45</v>
       </c>
@@ -2514,14 +2582,14 @@
       </c>
     </row>
     <row r="38" spans="2:13">
-      <c r="H38" s="13"/>
+      <c r="H38" s="16"/>
       <c r="I38" s="10" t="s">
         <v>230</v>
       </c>
       <c r="J38" s="6">
         <v>8</v>
       </c>
-      <c r="K38" s="13"/>
+      <c r="K38" s="16"/>
       <c r="L38" t="s">
         <v>46</v>
       </c>
@@ -2530,14 +2598,14 @@
       </c>
     </row>
     <row r="39" spans="2:13">
-      <c r="H39" s="13"/>
+      <c r="H39" s="16"/>
       <c r="I39" s="10" t="s">
         <v>231</v>
       </c>
       <c r="J39" s="6">
         <v>8</v>
       </c>
-      <c r="K39" s="13"/>
+      <c r="K39" s="16"/>
       <c r="L39" t="s">
         <v>47</v>
       </c>
@@ -2546,14 +2614,14 @@
       </c>
     </row>
     <row r="40" spans="2:13">
-      <c r="H40" s="13"/>
+      <c r="H40" s="16"/>
       <c r="I40" s="10" t="s">
         <v>232</v>
       </c>
       <c r="J40" s="6">
         <v>8</v>
       </c>
-      <c r="K40" s="13"/>
+      <c r="K40" s="16"/>
       <c r="L40" s="5" t="s">
         <v>48</v>
       </c>
@@ -2562,14 +2630,14 @@
       </c>
     </row>
     <row r="41" spans="2:13">
-      <c r="H41" s="13"/>
+      <c r="H41" s="16"/>
       <c r="I41" s="10" t="s">
         <v>233</v>
       </c>
       <c r="J41" s="6">
         <v>10</v>
       </c>
-      <c r="K41" s="13"/>
+      <c r="K41" s="16"/>
       <c r="L41" s="5" t="s">
         <v>49</v>
       </c>
@@ -2578,14 +2646,14 @@
       </c>
     </row>
     <row r="42" spans="2:13">
-      <c r="H42" s="13"/>
+      <c r="H42" s="16"/>
       <c r="I42" s="10" t="s">
         <v>234</v>
       </c>
       <c r="J42" s="6">
         <v>8</v>
       </c>
-      <c r="K42" s="13"/>
+      <c r="K42" s="16"/>
       <c r="L42" t="s">
         <v>50</v>
       </c>
@@ -2594,14 +2662,14 @@
       </c>
     </row>
     <row r="43" spans="2:13">
-      <c r="H43" s="13"/>
+      <c r="H43" s="16"/>
       <c r="I43" s="10" t="s">
         <v>235</v>
       </c>
       <c r="J43" s="6">
         <v>10</v>
       </c>
-      <c r="K43" s="13"/>
+      <c r="K43" s="16"/>
       <c r="L43" t="s">
         <v>51</v>
       </c>
@@ -2610,14 +2678,14 @@
       </c>
     </row>
     <row r="44" spans="2:13">
-      <c r="H44" s="13"/>
+      <c r="H44" s="16"/>
       <c r="I44" s="10" t="s">
         <v>236</v>
       </c>
       <c r="J44" s="6">
         <v>8</v>
       </c>
-      <c r="K44" s="13"/>
+      <c r="K44" s="16"/>
       <c r="L44" t="s">
         <v>52</v>
       </c>
@@ -2626,14 +2694,14 @@
       </c>
     </row>
     <row r="45" spans="2:13">
-      <c r="H45" s="13"/>
+      <c r="H45" s="16"/>
       <c r="I45" s="11" t="s">
         <v>237</v>
       </c>
       <c r="J45" s="6">
         <v>21</v>
       </c>
-      <c r="K45" s="13">
+      <c r="K45" s="16">
         <v>45898</v>
       </c>
       <c r="L45" s="7" t="s">
@@ -2644,14 +2712,14 @@
       </c>
     </row>
     <row r="46" spans="2:13">
-      <c r="H46" s="13"/>
+      <c r="H46" s="16"/>
       <c r="I46" s="11" t="s">
         <v>238</v>
       </c>
       <c r="J46" s="6">
         <v>17</v>
       </c>
-      <c r="K46" s="13"/>
+      <c r="K46" s="16"/>
       <c r="L46" s="7" t="s">
         <v>125</v>
       </c>
@@ -2660,14 +2728,14 @@
       </c>
     </row>
     <row r="47" spans="2:13">
-      <c r="H47" s="13"/>
+      <c r="H47" s="16"/>
       <c r="I47" s="11" t="s">
         <v>239</v>
       </c>
       <c r="J47" s="6">
         <v>12</v>
       </c>
-      <c r="K47" s="13"/>
+      <c r="K47" s="16"/>
       <c r="L47" t="s">
         <v>126</v>
       </c>
@@ -2676,14 +2744,14 @@
       </c>
     </row>
     <row r="48" spans="2:13">
-      <c r="H48" s="13"/>
+      <c r="H48" s="16"/>
       <c r="I48" s="11" t="s">
         <v>240</v>
       </c>
       <c r="J48" s="6">
         <v>7</v>
       </c>
-      <c r="K48" s="13"/>
+      <c r="K48" s="16"/>
       <c r="L48" t="s">
         <v>127</v>
       </c>
@@ -2692,14 +2760,14 @@
       </c>
     </row>
     <row r="49" spans="8:13">
-      <c r="H49" s="13"/>
+      <c r="H49" s="16"/>
       <c r="I49" s="11" t="s">
         <v>241</v>
       </c>
       <c r="J49" s="6">
         <v>12</v>
       </c>
-      <c r="K49" s="13"/>
+      <c r="K49" s="16"/>
       <c r="L49" t="s">
         <v>128</v>
       </c>
@@ -2708,14 +2776,14 @@
       </c>
     </row>
     <row r="50" spans="8:13">
-      <c r="H50" s="13"/>
+      <c r="H50" s="16"/>
       <c r="I50" s="11" t="s">
         <v>242</v>
       </c>
       <c r="J50" s="6">
         <v>13</v>
       </c>
-      <c r="K50" s="13"/>
+      <c r="K50" s="16"/>
       <c r="L50" t="s">
         <v>129</v>
       </c>
@@ -2724,14 +2792,14 @@
       </c>
     </row>
     <row r="51" spans="8:13">
-      <c r="H51" s="13"/>
+      <c r="H51" s="16"/>
       <c r="I51" s="11" t="s">
         <v>243</v>
       </c>
       <c r="J51" s="6">
         <v>14</v>
       </c>
-      <c r="K51" s="13"/>
+      <c r="K51" s="16"/>
       <c r="L51" t="s">
         <v>130</v>
       </c>
@@ -2740,14 +2808,14 @@
       </c>
     </row>
     <row r="52" spans="8:13">
-      <c r="H52" s="13"/>
+      <c r="H52" s="16"/>
       <c r="I52" s="11" t="s">
         <v>244</v>
       </c>
       <c r="J52" s="6">
         <v>14</v>
       </c>
-      <c r="K52" s="13"/>
+      <c r="K52" s="16"/>
       <c r="L52" t="s">
         <v>131</v>
       </c>
@@ -2756,14 +2824,14 @@
       </c>
     </row>
     <row r="53" spans="8:13">
-      <c r="H53" s="13"/>
+      <c r="H53" s="16"/>
       <c r="I53" s="11" t="s">
         <v>245</v>
       </c>
       <c r="J53" s="11">
         <v>8</v>
       </c>
-      <c r="K53" s="13"/>
+      <c r="K53" s="16"/>
       <c r="L53" s="8" t="s">
         <v>132</v>
       </c>
@@ -2772,14 +2840,14 @@
       </c>
     </row>
     <row r="54" spans="8:13">
-      <c r="H54" s="13"/>
+      <c r="H54" s="16"/>
       <c r="I54" s="11" t="s">
         <v>246</v>
       </c>
       <c r="J54" s="6">
         <v>10</v>
       </c>
-      <c r="K54" s="13"/>
+      <c r="K54" s="16"/>
       <c r="L54" t="s">
         <v>133</v>
       </c>
@@ -2788,7 +2856,7 @@
       </c>
     </row>
     <row r="55" spans="8:13">
-      <c r="H55" s="13">
+      <c r="H55" s="16">
         <v>45900</v>
       </c>
       <c r="I55" s="12" t="s">
@@ -2797,7 +2865,7 @@
       <c r="J55" s="6">
         <v>44</v>
       </c>
-      <c r="K55" s="13"/>
+      <c r="K55" s="16"/>
       <c r="L55" t="s">
         <v>134</v>
       </c>
@@ -2806,14 +2874,14 @@
       </c>
     </row>
     <row r="56" spans="8:13">
-      <c r="H56" s="13"/>
+      <c r="H56" s="16"/>
       <c r="I56" s="12" t="s">
         <v>253</v>
       </c>
       <c r="J56" s="6">
         <v>1</v>
       </c>
-      <c r="K56" s="13"/>
+      <c r="K56" s="16"/>
       <c r="L56" t="s">
         <v>135</v>
       </c>
@@ -2822,14 +2890,14 @@
       </c>
     </row>
     <row r="57" spans="8:13">
-      <c r="H57" s="13"/>
+      <c r="H57" s="16"/>
       <c r="I57" s="12" t="s">
         <v>254</v>
       </c>
       <c r="J57" s="12">
         <v>15</v>
       </c>
-      <c r="K57" s="13"/>
+      <c r="K57" s="16"/>
       <c r="L57" t="s">
         <v>136</v>
       </c>
@@ -2838,14 +2906,14 @@
       </c>
     </row>
     <row r="58" spans="8:13">
-      <c r="H58" s="13"/>
+      <c r="H58" s="16"/>
       <c r="I58" s="12" t="s">
         <v>247</v>
       </c>
       <c r="J58" s="12">
         <v>35</v>
       </c>
-      <c r="K58" s="13"/>
+      <c r="K58" s="16"/>
       <c r="L58" t="s">
         <v>137</v>
       </c>
@@ -2854,14 +2922,14 @@
       </c>
     </row>
     <row r="59" spans="8:13">
-      <c r="H59" s="13"/>
+      <c r="H59" s="16"/>
       <c r="I59" s="12" t="s">
         <v>256</v>
       </c>
       <c r="J59" s="6">
         <v>1</v>
       </c>
-      <c r="K59" s="13"/>
+      <c r="K59" s="16"/>
       <c r="L59" t="s">
         <v>138</v>
       </c>
@@ -2870,14 +2938,14 @@
       </c>
     </row>
     <row r="60" spans="8:13">
-      <c r="H60" s="13"/>
+      <c r="H60" s="16"/>
       <c r="I60" s="12" t="s">
         <v>257</v>
       </c>
       <c r="J60" s="6">
         <v>12</v>
       </c>
-      <c r="K60" s="13"/>
+      <c r="K60" s="16"/>
       <c r="L60" t="s">
         <v>139</v>
       </c>
@@ -2886,14 +2954,14 @@
       </c>
     </row>
     <row r="61" spans="8:13">
-      <c r="H61" s="13"/>
+      <c r="H61" s="16"/>
       <c r="I61" s="12" t="s">
         <v>259</v>
       </c>
       <c r="J61" s="6">
         <v>5</v>
       </c>
-      <c r="K61" s="13"/>
+      <c r="K61" s="16"/>
       <c r="L61" t="s">
         <v>140</v>
       </c>
@@ -2902,14 +2970,14 @@
       </c>
     </row>
     <row r="62" spans="8:13">
-      <c r="H62" s="13"/>
+      <c r="H62" s="16"/>
       <c r="I62" s="12" t="s">
         <v>258</v>
       </c>
       <c r="J62" s="12">
         <v>51</v>
       </c>
-      <c r="K62" s="13"/>
+      <c r="K62" s="16"/>
       <c r="L62" t="s">
         <v>141</v>
       </c>
@@ -2918,14 +2986,14 @@
       </c>
     </row>
     <row r="63" spans="8:13">
-      <c r="H63" s="13"/>
+      <c r="H63" s="16"/>
       <c r="I63" s="12" t="s">
         <v>260</v>
       </c>
       <c r="J63" s="12">
         <v>35</v>
       </c>
-      <c r="K63" s="13"/>
+      <c r="K63" s="16"/>
       <c r="L63" t="s">
         <v>142</v>
       </c>
@@ -2934,14 +3002,14 @@
       </c>
     </row>
     <row r="64" spans="8:13">
-      <c r="H64" s="13"/>
+      <c r="H64" s="16"/>
       <c r="I64" s="12" t="s">
         <v>261</v>
       </c>
       <c r="J64" s="6">
         <v>28</v>
       </c>
-      <c r="K64" s="13"/>
+      <c r="K64" s="16"/>
       <c r="L64" t="s">
         <v>143</v>
       </c>
@@ -2950,14 +3018,14 @@
       </c>
     </row>
     <row r="65" spans="8:13">
-      <c r="H65" s="13"/>
+      <c r="H65" s="16"/>
       <c r="I65" s="12" t="s">
         <v>262</v>
       </c>
       <c r="J65" s="6">
         <v>1</v>
       </c>
-      <c r="K65" s="13"/>
+      <c r="K65" s="16"/>
       <c r="L65" t="s">
         <v>144</v>
       </c>
@@ -2966,16 +3034,16 @@
       </c>
     </row>
     <row r="66" spans="8:13">
-      <c r="H66" s="13">
+      <c r="H66" s="16">
         <v>45901</v>
       </c>
-      <c r="I66" s="16" t="s">
+      <c r="I66" s="13" t="s">
         <v>263</v>
       </c>
       <c r="J66" s="6">
         <v>24</v>
       </c>
-      <c r="K66" s="13"/>
+      <c r="K66" s="16"/>
       <c r="L66" t="s">
         <v>145</v>
       </c>
@@ -2984,14 +3052,14 @@
       </c>
     </row>
     <row r="67" spans="8:13">
-      <c r="H67" s="13"/>
-      <c r="I67" s="16" t="s">
+      <c r="H67" s="16"/>
+      <c r="I67" s="13" t="s">
         <v>264</v>
       </c>
       <c r="J67" s="6">
         <v>24</v>
       </c>
-      <c r="K67" s="13"/>
+      <c r="K67" s="16"/>
       <c r="L67" t="s">
         <v>146</v>
       </c>
@@ -3000,14 +3068,14 @@
       </c>
     </row>
     <row r="68" spans="8:13">
-      <c r="H68" s="13"/>
-      <c r="I68" s="16" t="s">
+      <c r="H68" s="16"/>
+      <c r="I68" s="13" t="s">
         <v>265</v>
       </c>
       <c r="J68" s="6">
         <v>34</v>
       </c>
-      <c r="K68" s="13"/>
+      <c r="K68" s="16"/>
       <c r="L68" t="s">
         <v>147</v>
       </c>
@@ -3016,14 +3084,14 @@
       </c>
     </row>
     <row r="69" spans="8:13">
-      <c r="H69" s="13"/>
-      <c r="I69" s="16" t="s">
+      <c r="H69" s="16"/>
+      <c r="I69" s="13" t="s">
         <v>266</v>
       </c>
       <c r="J69" s="6">
         <v>33</v>
       </c>
-      <c r="K69" s="13"/>
+      <c r="K69" s="16"/>
       <c r="L69" t="s">
         <v>148</v>
       </c>
@@ -3032,14 +3100,14 @@
       </c>
     </row>
     <row r="70" spans="8:13">
-      <c r="H70" s="13"/>
-      <c r="I70" s="16" t="s">
+      <c r="H70" s="16"/>
+      <c r="I70" s="13" t="s">
         <v>267</v>
       </c>
       <c r="J70" s="6">
         <v>45</v>
       </c>
-      <c r="K70" s="13"/>
+      <c r="K70" s="16"/>
       <c r="L70" t="s">
         <v>149</v>
       </c>
@@ -3048,14 +3116,14 @@
       </c>
     </row>
     <row r="71" spans="8:13">
-      <c r="H71" s="13"/>
-      <c r="I71" s="16" t="s">
+      <c r="H71" s="16"/>
+      <c r="I71" s="13" t="s">
         <v>268</v>
       </c>
       <c r="J71" s="6">
         <v>10</v>
       </c>
-      <c r="K71" s="13"/>
+      <c r="K71" s="16"/>
       <c r="L71" t="s">
         <v>150</v>
       </c>
@@ -3064,14 +3132,14 @@
       </c>
     </row>
     <row r="72" spans="8:13">
-      <c r="H72" s="13"/>
-      <c r="I72" s="16" t="s">
+      <c r="H72" s="16"/>
+      <c r="I72" s="17" t="s">
         <v>269</v>
       </c>
       <c r="J72" s="6">
         <v>1</v>
       </c>
-      <c r="K72" s="13"/>
+      <c r="K72" s="16"/>
       <c r="L72" t="s">
         <v>151</v>
       </c>
@@ -3080,14 +3148,14 @@
       </c>
     </row>
     <row r="73" spans="8:13">
-      <c r="H73" s="13"/>
-      <c r="I73" s="16" t="s">
+      <c r="H73" s="16"/>
+      <c r="I73" s="17" t="s">
         <v>270</v>
       </c>
       <c r="J73" s="6">
         <v>1</v>
       </c>
-      <c r="K73" s="13"/>
+      <c r="K73" s="16"/>
       <c r="L73" t="s">
         <v>152</v>
       </c>
@@ -3096,14 +3164,14 @@
       </c>
     </row>
     <row r="74" spans="8:13">
-      <c r="H74" s="13"/>
-      <c r="I74" s="16" t="s">
+      <c r="H74" s="16"/>
+      <c r="I74" s="17" t="s">
         <v>271</v>
       </c>
       <c r="J74" s="6">
         <v>1</v>
       </c>
-      <c r="K74" s="13"/>
+      <c r="K74" s="16"/>
       <c r="L74" t="s">
         <v>153</v>
       </c>
@@ -3112,14 +3180,14 @@
       </c>
     </row>
     <row r="75" spans="8:13">
-      <c r="H75" s="13"/>
-      <c r="I75" s="16" t="s">
+      <c r="H75" s="16"/>
+      <c r="I75" s="17" t="s">
         <v>272</v>
       </c>
       <c r="J75" s="6">
         <v>1</v>
       </c>
-      <c r="K75" s="13"/>
+      <c r="K75" s="16"/>
       <c r="L75" t="s">
         <v>154</v>
       </c>
@@ -3128,14 +3196,14 @@
       </c>
     </row>
     <row r="76" spans="8:13">
-      <c r="H76" s="13"/>
-      <c r="I76" s="16" t="s">
+      <c r="H76" s="16"/>
+      <c r="I76" s="17" t="s">
         <v>273</v>
       </c>
       <c r="J76" s="6">
         <v>1</v>
       </c>
-      <c r="K76" s="13"/>
+      <c r="K76" s="16"/>
       <c r="L76" t="s">
         <v>155</v>
       </c>
@@ -3144,14 +3212,14 @@
       </c>
     </row>
     <row r="77" spans="8:13">
-      <c r="H77" s="13"/>
-      <c r="I77" s="16" t="s">
+      <c r="H77" s="16"/>
+      <c r="I77" s="17" t="s">
         <v>274</v>
       </c>
       <c r="J77" s="6">
         <v>1</v>
       </c>
-      <c r="K77" s="13"/>
+      <c r="K77" s="16"/>
       <c r="L77" t="s">
         <v>156</v>
       </c>
@@ -3160,7 +3228,16 @@
       </c>
     </row>
     <row r="78" spans="8:13">
-      <c r="K78" s="13"/>
+      <c r="H78" s="16">
+        <v>45902</v>
+      </c>
+      <c r="I78" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="J78" s="6">
+        <v>19</v>
+      </c>
+      <c r="K78" s="16"/>
       <c r="L78" t="s">
         <v>157</v>
       </c>
@@ -3169,7 +3246,14 @@
       </c>
     </row>
     <row r="79" spans="8:13">
-      <c r="K79" s="13"/>
+      <c r="H79" s="16"/>
+      <c r="I79" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="J79" s="6">
+        <v>3</v>
+      </c>
+      <c r="K79" s="16"/>
       <c r="L79" t="s">
         <v>158</v>
       </c>
@@ -3178,7 +3262,14 @@
       </c>
     </row>
     <row r="80" spans="8:13">
-      <c r="K80" s="13"/>
+      <c r="H80" s="16"/>
+      <c r="I80" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="J80" s="6">
+        <v>10</v>
+      </c>
+      <c r="K80" s="16"/>
       <c r="L80" t="s">
         <v>159</v>
       </c>
@@ -3186,8 +3277,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="11:13">
-      <c r="K81" s="13"/>
+    <row r="81" spans="8:13">
+      <c r="H81" s="16"/>
+      <c r="I81" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="J81" s="6">
+        <v>16</v>
+      </c>
+      <c r="K81" s="16"/>
       <c r="L81" s="8" t="s">
         <v>160</v>
       </c>
@@ -3195,8 +3293,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="11:13">
-      <c r="K82" s="13"/>
+    <row r="82" spans="8:13">
+      <c r="H82" s="16"/>
+      <c r="I82" s="17" t="s">
+        <v>279</v>
+      </c>
+      <c r="J82" s="6">
+        <v>15</v>
+      </c>
+      <c r="K82" s="16"/>
       <c r="L82" t="s">
         <v>161</v>
       </c>
@@ -3204,8 +3309,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="11:13">
-      <c r="K83" s="13"/>
+    <row r="83" spans="8:13">
+      <c r="H83" s="16"/>
+      <c r="I83" s="17" t="s">
+        <v>280</v>
+      </c>
+      <c r="J83" s="6">
+        <v>20</v>
+      </c>
+      <c r="K83" s="16"/>
       <c r="L83" t="s">
         <v>162</v>
       </c>
@@ -3213,8 +3325,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="11:13">
-      <c r="K84" s="13"/>
+    <row r="84" spans="8:13">
+      <c r="H84" s="16"/>
+      <c r="I84" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="J84" s="6">
+        <v>8</v>
+      </c>
+      <c r="K84" s="16"/>
       <c r="L84" t="s">
         <v>163</v>
       </c>
@@ -3222,8 +3341,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="11:13">
-      <c r="K85" s="13"/>
+    <row r="85" spans="8:13">
+      <c r="H85" s="16"/>
+      <c r="I85" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="J85" s="6">
+        <v>20</v>
+      </c>
+      <c r="K85" s="16"/>
       <c r="L85" t="s">
         <v>164</v>
       </c>
@@ -3231,8 +3357,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="86" spans="11:13">
-      <c r="K86" s="13"/>
+    <row r="86" spans="8:13">
+      <c r="H86" s="16"/>
+      <c r="I86" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="J86" s="6">
+        <v>37</v>
+      </c>
+      <c r="K86" s="16"/>
       <c r="L86" t="s">
         <v>165</v>
       </c>
@@ -3240,8 +3373,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="11:13">
-      <c r="K87" s="13"/>
+    <row r="87" spans="8:13">
+      <c r="H87" s="16"/>
+      <c r="I87" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="J87" s="6">
+        <v>6</v>
+      </c>
+      <c r="K87" s="16"/>
       <c r="L87" t="s">
         <v>166</v>
       </c>
@@ -3249,8 +3389,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="11:13">
-      <c r="K88" s="13"/>
+    <row r="88" spans="8:13">
+      <c r="H88" s="16"/>
+      <c r="I88" t="s">
+        <v>285</v>
+      </c>
+      <c r="J88" s="6">
+        <v>10</v>
+      </c>
+      <c r="K88" s="16"/>
       <c r="L88" t="s">
         <v>167</v>
       </c>
@@ -3258,8 +3405,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="11:13">
-      <c r="K89" s="13"/>
+    <row r="89" spans="8:13">
+      <c r="H89" s="16"/>
+      <c r="I89" t="s">
+        <v>286</v>
+      </c>
+      <c r="J89" s="6">
+        <v>0</v>
+      </c>
+      <c r="K89" s="16"/>
       <c r="L89" t="s">
         <v>168</v>
       </c>
@@ -3267,8 +3421,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="11:13">
-      <c r="K90" s="13"/>
+    <row r="90" spans="8:13">
+      <c r="H90" s="16"/>
+      <c r="I90" s="17" t="s">
+        <v>287</v>
+      </c>
+      <c r="J90" s="6">
+        <v>8</v>
+      </c>
+      <c r="K90" s="16"/>
       <c r="L90" t="s">
         <v>169</v>
       </c>
@@ -3276,8 +3437,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="11:13">
-      <c r="K91" s="13"/>
+    <row r="91" spans="8:13">
+      <c r="H91" s="16"/>
+      <c r="I91" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="J91" s="6">
+        <v>8</v>
+      </c>
+      <c r="K91" s="16"/>
       <c r="L91" t="s">
         <v>170</v>
       </c>
@@ -3285,8 +3453,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="11:13">
-      <c r="K92" s="13"/>
+    <row r="92" spans="8:13">
+      <c r="H92" s="16"/>
+      <c r="I92" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="J92" s="6">
+        <v>4</v>
+      </c>
+      <c r="K92" s="16"/>
       <c r="L92" t="s">
         <v>171</v>
       </c>
@@ -3294,8 +3469,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="11:13">
-      <c r="K93" s="13"/>
+    <row r="93" spans="8:13">
+      <c r="H93" s="16"/>
+      <c r="I93" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="J93" s="6">
+        <v>8</v>
+      </c>
+      <c r="K93" s="16"/>
       <c r="L93" t="s">
         <v>172</v>
       </c>
@@ -3303,8 +3485,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="11:13">
-      <c r="K94" s="13"/>
+    <row r="94" spans="8:13">
+      <c r="H94" s="16"/>
+      <c r="I94" s="17" t="s">
+        <v>291</v>
+      </c>
+      <c r="J94" s="6">
+        <v>28</v>
+      </c>
+      <c r="K94" s="16"/>
       <c r="L94" t="s">
         <v>173</v>
       </c>
@@ -3312,8 +3501,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="11:13">
-      <c r="K95" s="13"/>
+    <row r="95" spans="8:13">
+      <c r="H95" s="16"/>
+      <c r="I95" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="J95" s="6">
+        <v>24</v>
+      </c>
+      <c r="K95" s="16"/>
       <c r="L95" t="s">
         <v>174</v>
       </c>
@@ -3321,8 +3517,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="11:13">
-      <c r="K96" s="13"/>
+    <row r="96" spans="8:13">
+      <c r="K96" s="16"/>
       <c r="L96" t="s">
         <v>175</v>
       </c>
@@ -3331,7 +3527,7 @@
       </c>
     </row>
     <row r="97" spans="11:13">
-      <c r="K97" s="13"/>
+      <c r="K97" s="16"/>
       <c r="L97" t="s">
         <v>176</v>
       </c>
@@ -3340,7 +3536,7 @@
       </c>
     </row>
     <row r="98" spans="11:13">
-      <c r="K98" s="13"/>
+      <c r="K98" s="16"/>
       <c r="L98" t="s">
         <v>177</v>
       </c>
@@ -3349,7 +3545,7 @@
       </c>
     </row>
     <row r="99" spans="11:13">
-      <c r="K99" s="13"/>
+      <c r="K99" s="16"/>
       <c r="L99" t="s">
         <v>178</v>
       </c>
@@ -3358,7 +3554,7 @@
       </c>
     </row>
     <row r="100" spans="11:13">
-      <c r="K100" s="13"/>
+      <c r="K100" s="16"/>
       <c r="L100" t="s">
         <v>179</v>
       </c>
@@ -3367,7 +3563,7 @@
       </c>
     </row>
     <row r="101" spans="11:13">
-      <c r="K101" s="13"/>
+      <c r="K101" s="16"/>
       <c r="L101" t="s">
         <v>180</v>
       </c>
@@ -3376,7 +3572,7 @@
       </c>
     </row>
     <row r="102" spans="11:13">
-      <c r="K102" s="13"/>
+      <c r="K102" s="16"/>
       <c r="L102" t="s">
         <v>181</v>
       </c>
@@ -3385,7 +3581,7 @@
       </c>
     </row>
     <row r="103" spans="11:13">
-      <c r="K103" s="13"/>
+      <c r="K103" s="16"/>
       <c r="L103" t="s">
         <v>182</v>
       </c>
@@ -3394,7 +3590,7 @@
       </c>
     </row>
     <row r="104" spans="11:13">
-      <c r="K104" s="13"/>
+      <c r="K104" s="16"/>
       <c r="L104" t="s">
         <v>183</v>
       </c>
@@ -3403,7 +3599,7 @@
       </c>
     </row>
     <row r="105" spans="11:13">
-      <c r="K105" s="13"/>
+      <c r="K105" s="16"/>
       <c r="L105" t="s">
         <v>184</v>
       </c>
@@ -3412,7 +3608,7 @@
       </c>
     </row>
     <row r="106" spans="11:13">
-      <c r="K106" s="13"/>
+      <c r="K106" s="16"/>
       <c r="L106" t="s">
         <v>185</v>
       </c>
@@ -3421,7 +3617,7 @@
       </c>
     </row>
     <row r="107" spans="11:13">
-      <c r="K107" s="13"/>
+      <c r="K107" s="16"/>
       <c r="L107" t="s">
         <v>186</v>
       </c>
@@ -3430,7 +3626,7 @@
       </c>
     </row>
     <row r="108" spans="11:13">
-      <c r="K108" s="13"/>
+      <c r="K108" s="16"/>
       <c r="L108" t="s">
         <v>187</v>
       </c>
@@ -3439,7 +3635,7 @@
       </c>
     </row>
     <row r="109" spans="11:13">
-      <c r="K109" s="13"/>
+      <c r="K109" s="16"/>
       <c r="L109" t="s">
         <v>188</v>
       </c>
@@ -3448,7 +3644,7 @@
       </c>
     </row>
     <row r="110" spans="11:13">
-      <c r="K110" s="13"/>
+      <c r="K110" s="16"/>
       <c r="L110" t="s">
         <v>189</v>
       </c>
@@ -3457,7 +3653,7 @@
       </c>
     </row>
     <row r="111" spans="11:13">
-      <c r="K111" s="13"/>
+      <c r="K111" s="16"/>
       <c r="L111" t="s">
         <v>190</v>
       </c>
@@ -3466,7 +3662,7 @@
       </c>
     </row>
     <row r="112" spans="11:13">
-      <c r="K112" s="13"/>
+      <c r="K112" s="16"/>
       <c r="L112" t="s">
         <v>191</v>
       </c>
@@ -3475,7 +3671,7 @@
       </c>
     </row>
     <row r="113" spans="11:13">
-      <c r="K113" s="13"/>
+      <c r="K113" s="16"/>
       <c r="L113" t="s">
         <v>192</v>
       </c>
@@ -3484,7 +3680,7 @@
       </c>
     </row>
     <row r="114" spans="11:13">
-      <c r="K114" s="13"/>
+      <c r="K114" s="16"/>
       <c r="L114" t="s">
         <v>193</v>
       </c>
@@ -3493,7 +3689,7 @@
       </c>
     </row>
     <row r="115" spans="11:13">
-      <c r="K115" s="13"/>
+      <c r="K115" s="16"/>
       <c r="L115" t="s">
         <v>194</v>
       </c>
@@ -3502,7 +3698,7 @@
       </c>
     </row>
     <row r="116" spans="11:13">
-      <c r="K116" s="13"/>
+      <c r="K116" s="16"/>
       <c r="L116" t="s">
         <v>195</v>
       </c>
@@ -3511,7 +3707,7 @@
       </c>
     </row>
     <row r="117" spans="11:13">
-      <c r="K117" s="13"/>
+      <c r="K117" s="16"/>
       <c r="L117" t="s">
         <v>196</v>
       </c>
@@ -3520,7 +3716,7 @@
       </c>
     </row>
     <row r="118" spans="11:13">
-      <c r="K118" s="13"/>
+      <c r="K118" s="16"/>
       <c r="L118" t="s">
         <v>197</v>
       </c>
@@ -3529,7 +3725,7 @@
       </c>
     </row>
     <row r="119" spans="11:13">
-      <c r="K119" s="13"/>
+      <c r="K119" s="16"/>
       <c r="L119" t="s">
         <v>198</v>
       </c>
@@ -3538,7 +3734,7 @@
       </c>
     </row>
     <row r="120" spans="11:13">
-      <c r="K120" s="13"/>
+      <c r="K120" s="16"/>
       <c r="L120" t="s">
         <v>199</v>
       </c>
@@ -3547,7 +3743,7 @@
       </c>
     </row>
     <row r="121" spans="11:13">
-      <c r="K121" s="13"/>
+      <c r="K121" s="16"/>
       <c r="L121" t="s">
         <v>200</v>
       </c>
@@ -3556,7 +3752,7 @@
       </c>
     </row>
     <row r="122" spans="11:13">
-      <c r="K122" s="13"/>
+      <c r="K122" s="16"/>
       <c r="L122" t="s">
         <v>201</v>
       </c>
@@ -3565,7 +3761,7 @@
       </c>
     </row>
     <row r="123" spans="11:13">
-      <c r="K123" s="13"/>
+      <c r="K123" s="16"/>
       <c r="L123" t="s">
         <v>202</v>
       </c>
@@ -3574,7 +3770,7 @@
       </c>
     </row>
     <row r="124" spans="11:13">
-      <c r="K124" s="13"/>
+      <c r="K124" s="16"/>
       <c r="L124" t="s">
         <v>203</v>
       </c>
@@ -3583,7 +3779,7 @@
       </c>
     </row>
     <row r="125" spans="11:13">
-      <c r="K125" s="13"/>
+      <c r="K125" s="16"/>
       <c r="L125" t="s">
         <v>204</v>
       </c>
@@ -3592,7 +3788,7 @@
       </c>
     </row>
     <row r="126" spans="11:13">
-      <c r="K126" s="13"/>
+      <c r="K126" s="16"/>
       <c r="L126" t="s">
         <v>205</v>
       </c>
@@ -3601,7 +3797,7 @@
       </c>
     </row>
     <row r="127" spans="11:13">
-      <c r="K127" s="13"/>
+      <c r="K127" s="16"/>
       <c r="L127" t="s">
         <v>206</v>
       </c>
@@ -3610,7 +3806,7 @@
       </c>
     </row>
     <row r="128" spans="11:13">
-      <c r="K128" s="13"/>
+      <c r="K128" s="16"/>
       <c r="L128" t="s">
         <v>207</v>
       </c>
@@ -3619,7 +3815,7 @@
       </c>
     </row>
     <row r="129" spans="11:13">
-      <c r="K129" s="13"/>
+      <c r="K129" s="16"/>
       <c r="L129" t="s">
         <v>208</v>
       </c>
@@ -3628,7 +3824,7 @@
       </c>
     </row>
     <row r="130" spans="11:13">
-      <c r="K130" s="13"/>
+      <c r="K130" s="16"/>
       <c r="L130" t="s">
         <v>209</v>
       </c>
@@ -3637,7 +3833,7 @@
       </c>
     </row>
     <row r="131" spans="11:13">
-      <c r="K131" s="13"/>
+      <c r="K131" s="16"/>
       <c r="L131" t="s">
         <v>210</v>
       </c>
@@ -3646,7 +3842,7 @@
       </c>
     </row>
     <row r="132" spans="11:13">
-      <c r="K132" s="13"/>
+      <c r="K132" s="16"/>
       <c r="L132" t="s">
         <v>211</v>
       </c>
@@ -3655,7 +3851,7 @@
       </c>
     </row>
     <row r="133" spans="11:13">
-      <c r="K133" s="13"/>
+      <c r="K133" s="16"/>
       <c r="L133" t="s">
         <v>212</v>
       </c>
@@ -3664,7 +3860,7 @@
       </c>
     </row>
     <row r="134" spans="11:13">
-      <c r="K134" s="13"/>
+      <c r="K134" s="16"/>
       <c r="L134" t="s">
         <v>213</v>
       </c>
@@ -3673,7 +3869,7 @@
       </c>
     </row>
     <row r="135" spans="11:13">
-      <c r="K135" s="13"/>
+      <c r="K135" s="16"/>
       <c r="L135" t="s">
         <v>214</v>
       </c>
@@ -3682,7 +3878,7 @@
       </c>
     </row>
     <row r="136" spans="11:13">
-      <c r="K136" s="13"/>
+      <c r="K136" s="16"/>
       <c r="L136" t="s">
         <v>215</v>
       </c>
@@ -3691,7 +3887,7 @@
       </c>
     </row>
     <row r="137" spans="11:13">
-      <c r="K137" s="13"/>
+      <c r="K137" s="16"/>
       <c r="L137" t="s">
         <v>216</v>
       </c>
@@ -3700,7 +3896,7 @@
       </c>
     </row>
     <row r="138" spans="11:13">
-      <c r="K138" s="13"/>
+      <c r="K138" s="16"/>
       <c r="L138" t="s">
         <v>217</v>
       </c>
@@ -3709,7 +3905,7 @@
       </c>
     </row>
     <row r="139" spans="11:13">
-      <c r="K139" s="13"/>
+      <c r="K139" s="16"/>
       <c r="L139" t="s">
         <v>218</v>
       </c>
@@ -3718,7 +3914,7 @@
       </c>
     </row>
     <row r="140" spans="11:13">
-      <c r="K140" s="13"/>
+      <c r="K140" s="16"/>
       <c r="L140" t="s">
         <v>219</v>
       </c>
@@ -3727,7 +3923,7 @@
       </c>
     </row>
     <row r="141" spans="11:13">
-      <c r="K141" s="13"/>
+      <c r="K141" s="16"/>
       <c r="L141" t="s">
         <v>220</v>
       </c>
@@ -3736,7 +3932,7 @@
       </c>
     </row>
     <row r="142" spans="11:13">
-      <c r="K142" s="13"/>
+      <c r="K142" s="16"/>
       <c r="L142" t="s">
         <v>221</v>
       </c>
@@ -3745,7 +3941,7 @@
       </c>
     </row>
     <row r="143" spans="11:13">
-      <c r="K143" s="13"/>
+      <c r="K143" s="16"/>
       <c r="L143" t="s">
         <v>222</v>
       </c>
@@ -3754,7 +3950,7 @@
       </c>
     </row>
     <row r="144" spans="11:13">
-      <c r="K144" s="13"/>
+      <c r="K144" s="16"/>
       <c r="L144" t="s">
         <v>223</v>
       </c>
@@ -3763,7 +3959,7 @@
       </c>
     </row>
     <row r="145" spans="11:13">
-      <c r="K145" s="13"/>
+      <c r="K145" s="16"/>
       <c r="L145" t="s">
         <v>224</v>
       </c>
@@ -3772,7 +3968,7 @@
       </c>
     </row>
     <row r="146" spans="11:13">
-      <c r="K146" s="13"/>
+      <c r="K146" s="16"/>
       <c r="L146" t="s">
         <v>225</v>
       </c>
@@ -3781,7 +3977,7 @@
       </c>
     </row>
     <row r="147" spans="11:13">
-      <c r="K147" s="13"/>
+      <c r="K147" s="16"/>
       <c r="L147" t="s">
         <v>226</v>
       </c>
@@ -3790,7 +3986,14 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="16">
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="K8:K44"/>
+    <mergeCell ref="K45:K147"/>
+    <mergeCell ref="H37:H54"/>
+    <mergeCell ref="H55:H65"/>
+    <mergeCell ref="H66:H77"/>
+    <mergeCell ref="H78:H95"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="H5:J5"/>
@@ -3800,12 +4003,6 @@
     <mergeCell ref="B18:B34"/>
     <mergeCell ref="H21:H34"/>
     <mergeCell ref="E21:E29"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="K8:K44"/>
-    <mergeCell ref="K45:K147"/>
-    <mergeCell ref="H37:H54"/>
-    <mergeCell ref="H55:H65"/>
-    <mergeCell ref="H66:H77"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3813,54 +4010,69 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B92F9BC-6318-413C-87D9-FEE5073A822A}">
-  <dimension ref="A2:J8"/>
+  <dimension ref="A2:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10">
-      <c r="B2" s="12" t="s">
+    <row r="2" spans="1:9">
+      <c r="B2" s="18" t="s">
         <v>248</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="18"/>
+      <c r="D2" s="18" t="s">
         <v>251</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="E2" s="18"/>
+      <c r="F2" s="18" t="s">
         <v>249</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="G2" s="18"/>
+      <c r="H2" s="18" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="I2" s="18"/>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="15">
         <f>Arkusz1!D4</f>
-        <v>0.71026490066225167</v>
-      </c>
-      <c r="C3">
+        <v>0.68713294180459161</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15">
         <f>Arkusz1!G4</f>
-        <v>0.84933774834437081</v>
-      </c>
-      <c r="D3">
+        <v>0.82167645488521091</v>
+      </c>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15">
         <f>Arkusz1!J4</f>
-        <v>0.70640176600441507</v>
-      </c>
-      <c r="E3">
+        <v>0.81366791243993597</v>
+      </c>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15">
         <f>Arkusz1!M4</f>
-        <v>1.7339955849889626</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>1.6775226908702616</v>
+      </c>
+      <c r="I3" s="15"/>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3868,184 +4080,197 @@
         <f>IF((B$3*$A4)&gt;=3,"Zaliczenie","Warunek")</f>
         <v>Warunek</v>
       </c>
-      <c r="C4" t="str">
-        <f t="shared" ref="C4:E8" si="0">IF((C$3*$A4)&gt;=3,"Zaliczenie","Warunek")</f>
+      <c r="C4">
+        <f>B$3*$A4</f>
+        <v>2.0613988254137747</v>
+      </c>
+      <c r="D4" t="str">
+        <f>IF((D$3*$A4)&gt;=3,"Zaliczenie","Warunek")</f>
         <v>Warunek</v>
       </c>
-      <c r="D4" t="str">
+      <c r="E4">
+        <f>D$3*$A4</f>
+        <v>2.4650293646556327</v>
+      </c>
+      <c r="F4" t="str">
+        <f>IF((F$3*$A4)&gt;=3,"Zaliczenie","Warunek")</f>
+        <v>Warunek</v>
+      </c>
+      <c r="G4">
+        <f>F$3*$A4</f>
+        <v>2.4410037373198081</v>
+      </c>
+      <c r="H4" t="str">
+        <f>IF((H$3*$A4)&gt;=3,"Zaliczenie","Warunek")</f>
+        <v>Zaliczenie</v>
+      </c>
+      <c r="I4">
+        <f>H$3*$A4</f>
+        <v>5.0325680726107844</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
+        <v>3.5</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" ref="B5:B8" si="0">IF((B$3*$A5)&gt;=3,"Zaliczenie","Warunek")</f>
+        <v>Warunek</v>
+      </c>
+      <c r="C5">
+        <f>B$3*$A5</f>
+        <v>2.4049652963160706</v>
+      </c>
+      <c r="D5" t="str">
+        <f>IF((D$3*$A5)&gt;=3,"Zaliczenie","Warunek")</f>
+        <v>Warunek</v>
+      </c>
+      <c r="E5">
+        <f>D$3*$A5</f>
+        <v>2.8758675920982384</v>
+      </c>
+      <c r="F5" t="str">
+        <f>IF((F$3*$A5)&gt;=3,"Zaliczenie","Warunek")</f>
+        <v>Warunek</v>
+      </c>
+      <c r="G5">
+        <f>F$3*$A5</f>
+        <v>2.847837693539776</v>
+      </c>
+      <c r="H5" t="str">
+        <f>IF((H$3*$A5)&gt;=3,"Zaliczenie","Warunek")</f>
+        <v>Zaliczenie</v>
+      </c>
+      <c r="I5">
+        <f>H$3*$A5</f>
+        <v>5.8713294180459155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="str">
         <f t="shared" si="0"/>
         <v>Warunek</v>
       </c>
-      <c r="E4" t="str">
+      <c r="C6">
+        <f>B$3*$A6</f>
+        <v>2.7485317672183665</v>
+      </c>
+      <c r="D6" t="str">
+        <f>IF((D$3*$A6)&gt;=3,"Zaliczenie","Warunek")</f>
+        <v>Zaliczenie</v>
+      </c>
+      <c r="E6">
+        <f>D$3*$A6</f>
+        <v>3.2867058195408436</v>
+      </c>
+      <c r="F6" t="str">
+        <f>IF((F$3*$A6)&gt;=3,"Zaliczenie","Warunek")</f>
+        <v>Zaliczenie</v>
+      </c>
+      <c r="G6">
+        <f>F$3*$A6</f>
+        <v>3.2546716497597439</v>
+      </c>
+      <c r="H6" t="str">
+        <f>IF((H$3*$A6)&gt;=3,"Zaliczenie","Warunek")</f>
+        <v>Zaliczenie</v>
+      </c>
+      <c r="I6">
+        <f>H$3*$A6</f>
+        <v>6.7100907634810465</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
+        <v>4.5</v>
+      </c>
+      <c r="B7" t="str">
         <f t="shared" si="0"/>
         <v>Zaliczenie</v>
       </c>
-      <c r="G4">
-        <f>B$3*$A4</f>
-        <v>2.1307947019867548</v>
-      </c>
-      <c r="H4">
-        <f t="shared" ref="H4:J4" si="1">C$3*$A4</f>
-        <v>2.5480132450331126</v>
-      </c>
-      <c r="I4">
-        <f t="shared" si="1"/>
-        <v>2.1192052980132452</v>
-      </c>
-      <c r="J4">
-        <f t="shared" si="1"/>
-        <v>5.2019867549668879</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5">
-        <v>3.5</v>
-      </c>
-      <c r="B5" t="str">
-        <f t="shared" ref="B5:B8" si="2">IF((B$3*$A5)&gt;=3,"Zaliczenie","Warunek")</f>
-        <v>Warunek</v>
-      </c>
-      <c r="C5" t="str">
-        <f t="shared" si="0"/>
-        <v>Warunek</v>
-      </c>
-      <c r="D5" t="str">
-        <f t="shared" si="0"/>
-        <v>Warunek</v>
-      </c>
-      <c r="E5" t="str">
+      <c r="C7">
+        <f>B$3*$A7</f>
+        <v>3.0920982381206623</v>
+      </c>
+      <c r="D7" t="str">
+        <f>IF((D$3*$A7)&gt;=3,"Zaliczenie","Warunek")</f>
+        <v>Zaliczenie</v>
+      </c>
+      <c r="E7">
+        <f>D$3*$A7</f>
+        <v>3.6975440469834489</v>
+      </c>
+      <c r="F7" t="str">
+        <f>IF((F$3*$A7)&gt;=3,"Zaliczenie","Warunek")</f>
+        <v>Zaliczenie</v>
+      </c>
+      <c r="G7">
+        <f>F$3*$A7</f>
+        <v>3.6615056059797118</v>
+      </c>
+      <c r="H7" t="str">
+        <f>IF((H$3*$A7)&gt;=3,"Zaliczenie","Warunek")</f>
+        <v>Zaliczenie</v>
+      </c>
+      <c r="I7">
+        <f>H$3*$A7</f>
+        <v>7.5488521089161775</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="str">
         <f t="shared" si="0"/>
         <v>Zaliczenie</v>
       </c>
-      <c r="G5">
-        <f t="shared" ref="G5:G8" si="3">B$3*$A5</f>
-        <v>2.4859271523178808</v>
-      </c>
-      <c r="H5">
-        <f t="shared" ref="H5:H8" si="4">C$3*$A5</f>
-        <v>2.9726821192052979</v>
-      </c>
-      <c r="I5">
-        <f t="shared" ref="I5:I8" si="5">D$3*$A5</f>
-        <v>2.4724061810154527</v>
-      </c>
-      <c r="J5">
-        <f t="shared" ref="J5:J7" si="6">E$3*$A5</f>
-        <v>6.0689845474613691</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="str">
-        <f t="shared" si="2"/>
-        <v>Warunek</v>
-      </c>
-      <c r="C6" t="str">
-        <f t="shared" si="0"/>
+      <c r="C8">
+        <f>B$3*$A8</f>
+        <v>3.4356647090229582</v>
+      </c>
+      <c r="D8" t="str">
+        <f>IF((D$3*$A8)&gt;=3,"Zaliczenie","Warunek")</f>
         <v>Zaliczenie</v>
       </c>
-      <c r="D6" t="str">
-        <f t="shared" si="0"/>
-        <v>Warunek</v>
-      </c>
-      <c r="E6" t="str">
-        <f t="shared" si="0"/>
+      <c r="E8">
+        <f>D$3*$A8</f>
+        <v>4.1083822744260541</v>
+      </c>
+      <c r="F8" t="str">
+        <f>IF((F$3*$A8)&gt;=3,"Zaliczenie","Warunek")</f>
         <v>Zaliczenie</v>
       </c>
-      <c r="G6">
-        <f t="shared" si="3"/>
-        <v>2.8410596026490067</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="4"/>
-        <v>3.3973509933774833</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="5"/>
-        <v>2.8256070640176603</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="6"/>
-        <v>6.9359823399558502</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7">
-        <v>4.5</v>
-      </c>
-      <c r="B7" t="str">
-        <f t="shared" si="2"/>
+      <c r="G8">
+        <f>F$3*$A8</f>
+        <v>4.0683395621996796</v>
+      </c>
+      <c r="H8" t="str">
+        <f>IF((H$3*$A8)&gt;=3,"Zaliczenie","Warunek")</f>
         <v>Zaliczenie</v>
       </c>
-      <c r="C7" t="str">
-        <f t="shared" si="0"/>
-        <v>Zaliczenie</v>
-      </c>
-      <c r="D7" t="str">
-        <f t="shared" si="0"/>
-        <v>Zaliczenie</v>
-      </c>
-      <c r="E7" t="str">
-        <f t="shared" si="0"/>
-        <v>Zaliczenie</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="3"/>
-        <v>3.1961920529801326</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="4"/>
-        <v>3.8220198675496686</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="5"/>
-        <v>3.1788079470198678</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="6"/>
-        <v>7.8029801324503314</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8">
-        <v>5</v>
-      </c>
-      <c r="B8" t="str">
-        <f t="shared" si="2"/>
-        <v>Zaliczenie</v>
-      </c>
-      <c r="C8" t="str">
-        <f t="shared" si="0"/>
-        <v>Zaliczenie</v>
-      </c>
-      <c r="D8" t="str">
-        <f t="shared" si="0"/>
-        <v>Zaliczenie</v>
-      </c>
-      <c r="E8" t="str">
-        <f t="shared" si="0"/>
-        <v>Zaliczenie</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="3"/>
-        <v>3.5513245033112586</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="4"/>
-        <v>4.2466887417218544</v>
-      </c>
       <c r="I8">
-        <f t="shared" si="5"/>
-        <v>3.5320088300220753</v>
-      </c>
-      <c r="J8">
-        <f>E$3*$A8</f>
-        <v>8.6699779249448135</v>
+        <f>H$3*$A8</f>
+        <v>8.3876134543513086</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="C4:C8 D4:D8 E4:E8 G4:G8 F4:F8 H4:H8" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/Raport.xlsx
+++ b/Raport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dominik\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEBC64BE-6DB7-4D98-8C35-0B4C59EF72BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB5FD51-A441-4621-BBE6-EA7B98F53F4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="259">
   <si>
     <t>Liczba członków zespołu</t>
   </si>
@@ -715,69 +715,6 @@
     <t>zrobione na nowo/tokyo-garden-frontend/src/main.ts</t>
   </si>
   <si>
-    <t>Dodanie hashowania hasła</t>
-  </si>
-  <si>
-    <t>Dodanie komentarzy do pliku UzytkownicyController.cs</t>
-  </si>
-  <si>
-    <t>Dodanie komentarzy do pliku Program.cs</t>
-  </si>
-  <si>
-    <t>Dodanie komentarzy do pliku AdresyController.cs</t>
-  </si>
-  <si>
-    <t>Dodanie komentarzy do pliku AlergenyController.cs</t>
-  </si>
-  <si>
-    <t>Dodanie komentarzy do pliku KategorieController.cs</t>
-  </si>
-  <si>
-    <t>Dodanie komentarzy do pliku PozycjeMenuController.cs</t>
-  </si>
-  <si>
-    <t>Dodanie komentarzy do pliku PozycjeZamowieniaController.cs</t>
-  </si>
-  <si>
-    <t>Dodanie komentarzy do pliku ZamowieniaController.cs</t>
-  </si>
-  <si>
-    <t>Dodanie komentarzy do pliku dtoMapper.cs</t>
-  </si>
-  <si>
-    <t>Dodanie linijek kodu w cart.service.ts</t>
-  </si>
-  <si>
-    <t>Dodanie linijek kodu w cart.component.ts:</t>
-  </si>
-  <si>
-    <t>Dodanie linijek kodu w cart.component.html</t>
-  </si>
-  <si>
-    <t>Dodanie linijek kodu w menu.component.ts:</t>
-  </si>
-  <si>
-    <t>Dodanie komentarzy w cart.service.ts</t>
-  </si>
-  <si>
-    <t>Dodawanie komentarzy w cart.component.ts</t>
-  </si>
-  <si>
-    <t>Dodawanie komentarzy w register.component.ts</t>
-  </si>
-  <si>
-    <t>Dodawanie komentarzy w login.component.ts</t>
-  </si>
-  <si>
-    <t>Dodanie linii kodu w menu.component.ts</t>
-  </si>
-  <si>
-    <t>Dodawanie komentarzy w menu.component.ts</t>
-  </si>
-  <si>
-    <t>Plik user-profile.component.ts</t>
-  </si>
-  <si>
     <t>Kuba</t>
   </si>
   <si>
@@ -793,152 +730,97 @@
     <t>"zaangażowanie":</t>
   </si>
   <si>
-    <t>Dodanie user-profile do routingu</t>
-  </si>
-  <si>
-    <t>Dodanie linii kodu w user-profile.component.html</t>
-  </si>
-  <si>
-    <t>Plik user-profile.component.css</t>
-  </si>
-  <si>
-    <t>Dodanie admin-panel do routingu</t>
-  </si>
-  <si>
-    <t>Dodanie funkcji login i admin w auth.service.ts</t>
-  </si>
-  <si>
-    <t>Zawartość pliku admin-panel.component.css:</t>
-  </si>
-  <si>
-    <t>Zawartosc pliku uzytkownik-dto.ts</t>
-  </si>
-  <si>
-    <t>Dodanie pliku admin-panel.component.ts:</t>
-  </si>
-  <si>
-    <t>Dodanie pliku admin-panel.component.html:</t>
-  </si>
-  <si>
-    <t>Dodanie "&lt;base href="/"&gt;" w index.html</t>
-  </si>
-  <si>
-    <t>Dodanie kodu w alergen-form.component.ts</t>
-  </si>
-  <si>
-    <t>Dodanie kodu w alergen-list.component.ts</t>
-  </si>
-  <si>
-    <t>Dodanie kodu w kategorie-form.component.ts</t>
-  </si>
-  <si>
-    <t>Dodanie kodu w kategorie-list.component.ts</t>
-  </si>
-  <si>
-    <t>Dodanie kodu w pozycja-form.component.ts</t>
-  </si>
-  <si>
-    <t>Dodanie kodu w pozycja-list.component.ts</t>
-  </si>
-  <si>
-    <t>Dodanie kodu w alergen-form.component.html (wyjście do panelu administratora)</t>
-  </si>
-  <si>
-    <t>Dodanie kodu w alergen-list.component.html (wyjście do panelu administratora)</t>
-  </si>
-  <si>
-    <t>Dodanie kodu w kategorie-form.component.html (wyjście do panelu administratora)</t>
-  </si>
-  <si>
-    <t>Dodanie kodu w kategorie-list.component.html (wyjście do panelu administratora)</t>
-  </si>
-  <si>
-    <t>Dodanie kodu w pozycja-form.component.html (wyjście do panelu administratora)</t>
-  </si>
-  <si>
-    <t>Dodanie kodu w pozycja-list.component.html (wyjście do panelu administratora)</t>
-  </si>
-  <si>
-    <t>menu-component.ts</t>
-  </si>
-  <si>
-    <t>menu-component.html</t>
-  </si>
-  <si>
-    <t>cart.service.ts</t>
-  </si>
-  <si>
-    <t>header.component.ts</t>
-  </si>
-  <si>
-    <t>header.component.html</t>
-  </si>
-  <si>
-    <t>cart.component.html</t>
-  </si>
-  <si>
-    <t>cart.component.ts</t>
-  </si>
-  <si>
-    <t>orders.component.html</t>
-  </si>
-  <si>
-    <t>orders.component.ts</t>
-  </si>
-  <si>
-    <t>menu.service.ts</t>
-  </si>
-  <si>
-    <t>alergen-list.component.ts:</t>
-  </si>
-  <si>
-    <t>alergen.service.ts:</t>
-  </si>
-  <si>
-    <t>kategoria-list.component.ts:</t>
-  </si>
-  <si>
-    <t>pozycja-list.component.ts:</t>
-  </si>
-  <si>
-    <t>pozycja-form.component.html</t>
-  </si>
-  <si>
-    <t>pozycja-form.component.ts</t>
-  </si>
-  <si>
-    <t>styles.css</t>
-  </si>
-  <si>
-    <t>cart.component.css</t>
+    <t>zrobione na nowo/tokyo-garden-frontend/src/app/admin/admin-panel.component.css</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/tokyo-garden-frontend/src/app/admin/admin-panel.component.html</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/tokyo-garden-frontend/src/app/admin/admin-panel.component.ts</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/tokyo-garden-frontend/src/app/admin/alergen-form.component.html</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/tokyo-garden-frontend/src/app/admin/alergen-form.component.ts</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/tokyo-garden-frontend/src/app/admin/alergen-list.component.html</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/tokyo-garden-frontend/src/app/admin/alergen-list.component.ts</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/tokyo-garden-frontend/src/app/admin/kategoria-form.component.html</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/tokyo-garden-frontend/src/app/admin/kategoria-form.component.ts</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/tokyo-garden-frontend/src/app/admin/kategoria-list.component.html</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/tokyo-garden-frontend/src/app/admin/kategoria-list.component.ts</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/tokyo-garden-frontend/src/app/admin/pozycja-form.component.html</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/tokyo-garden-frontend/src/app/admin/pozycja-form.component.ts</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/tokyo-garden-frontend/src/app/admin/pozycja-list.component.html</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/tokyo-garden-frontend/src/app/admin/pozycja-list.component.ts</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/tokyo-garden-frontend/src/app/admin/order-status.component.css</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/tokyo-garden-frontend/src/app/admin/order-status.component.html</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/tokyo-garden-frontend/src/app/admin/order-status.component.ts</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/tokyo-garden-frontend/src/app/models/cart-item.ts</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/tokyo-garden-frontend/src/app/models/uzytkownik-dto.ts</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/tokyo-garden-frontend/src/app/services/adres.service.ts</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/tokyo-garden-frontend/src/app/services/order.service.ts</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/tokyo-garden-frontend/src/app/user/orders/orders.component.css</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/tokyo-garden-frontend/src/app/user/user-edit/user-profile.component.css</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/tokyo-garden-frontend/src/app/user/user-edit/user-profle.component.html</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/tokyo-garden-frontend/src/app/user/user-edit/user-profle.component.ts</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/tokyo-garden-frontend/src/style.css</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="11">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1036,14 +918,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1052,17 +934,11 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1077,20 +953,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1582,8 +1461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G93" sqref="G93"/>
+    <sheetView tabSelected="1" topLeftCell="A110" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I139" sqref="I139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -1594,9 +1473,9 @@
     <col min="4" max="5" width="12.5703125" customWidth="1"/>
     <col min="6" max="6" width="37" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="12.5703125" customWidth="1"/>
-    <col min="9" max="9" width="59.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="90.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="12.5703125" customWidth="1"/>
-    <col min="12" max="12" width="92.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="101.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1628,7 +1507,7 @@
       </c>
       <c r="J3">
         <f>SUM(J7:J1001)</f>
-        <v>1524</v>
+        <v>1792</v>
       </c>
       <c r="M3">
         <f>SUM(M7:M1001)</f>
@@ -1642,42 +1521,42 @@
       <c r="B4" s="1"/>
       <c r="D4">
         <f>($B$2*D$3)/SUM($D$3:$AK$3)</f>
-        <v>0.68713294180459161</v>
+        <v>0.66340206185567008</v>
       </c>
       <c r="G4">
         <f>($B$2*G$3)/SUM($D$3:$AK$3)</f>
-        <v>0.82167645488521091</v>
+        <v>0.79329896907216491</v>
       </c>
       <c r="J4">
         <f>($B$2*J$3)/SUM($D$3:$AK$3)</f>
-        <v>0.81366791243993597</v>
+        <v>0.92371134020618562</v>
       </c>
       <c r="M4">
         <f>($B$2*M$3)/SUM($D$3:$AK$3)</f>
-        <v>1.6775226908702616</v>
+        <v>1.6195876288659794</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="15" t="s">
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15" t="s">
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15" t="s">
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
     </row>
     <row r="6" spans="1:13">
       <c r="B6" t="s">
@@ -1783,7 +1662,7 @@
       <c r="J8">
         <v>100</v>
       </c>
-      <c r="K8" s="16">
+      <c r="K8" s="12">
         <v>45772</v>
       </c>
       <c r="L8" t="s">
@@ -1794,7 +1673,7 @@
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="B9" s="16">
+      <c r="B9" s="12">
         <v>45785</v>
       </c>
       <c r="C9" t="s">
@@ -1821,7 +1700,7 @@
       <c r="J9">
         <v>118</v>
       </c>
-      <c r="K9" s="16"/>
+      <c r="K9" s="12"/>
       <c r="L9" s="5" t="s">
         <v>17</v>
       </c>
@@ -1830,7 +1709,7 @@
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="B10" s="16"/>
+      <c r="B10" s="12"/>
       <c r="C10" t="s">
         <v>64</v>
       </c>
@@ -1843,7 +1722,7 @@
       <c r="G10">
         <v>57</v>
       </c>
-      <c r="H10" s="16">
+      <c r="H10" s="12">
         <v>45803</v>
       </c>
       <c r="I10" t="s">
@@ -1852,7 +1731,7 @@
       <c r="J10">
         <v>70</v>
       </c>
-      <c r="K10" s="16"/>
+      <c r="K10" s="12"/>
       <c r="L10" t="s">
         <v>18</v>
       </c>
@@ -1861,7 +1740,7 @@
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="B11" s="16"/>
+      <c r="B11" s="12"/>
       <c r="C11" t="s">
         <v>65</v>
       </c>
@@ -1874,14 +1753,14 @@
       <c r="G11">
         <v>59</v>
       </c>
-      <c r="H11" s="16"/>
+      <c r="H11" s="12"/>
       <c r="I11" t="s">
         <v>75</v>
       </c>
       <c r="J11">
         <v>23</v>
       </c>
-      <c r="K11" s="16"/>
+      <c r="K11" s="12"/>
       <c r="L11" t="s">
         <v>19</v>
       </c>
@@ -1890,7 +1769,7 @@
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="B12" s="16"/>
+      <c r="B12" s="12"/>
       <c r="C12" t="s">
         <v>66</v>
       </c>
@@ -1903,14 +1782,14 @@
       <c r="G12">
         <v>58</v>
       </c>
-      <c r="H12" s="16"/>
+      <c r="H12" s="12"/>
       <c r="I12" t="s">
         <v>77</v>
       </c>
       <c r="J12">
         <v>23</v>
       </c>
-      <c r="K12" s="16"/>
+      <c r="K12" s="12"/>
       <c r="L12" t="s">
         <v>20</v>
       </c>
@@ -1919,7 +1798,7 @@
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="B13" s="16"/>
+      <c r="B13" s="12"/>
       <c r="C13" t="s">
         <v>67</v>
       </c>
@@ -1932,14 +1811,14 @@
       <c r="G13">
         <v>57</v>
       </c>
-      <c r="H13" s="16"/>
+      <c r="H13" s="12"/>
       <c r="I13" t="s">
         <v>76</v>
       </c>
       <c r="J13">
         <v>27</v>
       </c>
-      <c r="K13" s="16"/>
+      <c r="K13" s="12"/>
       <c r="L13" s="5" t="s">
         <v>21</v>
       </c>
@@ -1948,7 +1827,7 @@
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="B14" s="16"/>
+      <c r="B14" s="12"/>
       <c r="C14" t="s">
         <v>68</v>
       </c>
@@ -1961,14 +1840,14 @@
       <c r="G14">
         <v>61</v>
       </c>
-      <c r="H14" s="16"/>
+      <c r="H14" s="12"/>
       <c r="I14" t="s">
         <v>74</v>
       </c>
       <c r="J14">
         <v>24</v>
       </c>
-      <c r="K14" s="16"/>
+      <c r="K14" s="12"/>
       <c r="L14" t="s">
         <v>22</v>
       </c>
@@ -1977,7 +1856,7 @@
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="B15" s="16"/>
+      <c r="B15" s="12"/>
       <c r="C15" t="s">
         <v>69</v>
       </c>
@@ -1990,14 +1869,14 @@
       <c r="G15">
         <v>60</v>
       </c>
-      <c r="H15" s="16"/>
+      <c r="H15" s="12"/>
       <c r="I15" t="s">
         <v>78</v>
       </c>
       <c r="J15">
         <v>27</v>
       </c>
-      <c r="K15" s="16"/>
+      <c r="K15" s="12"/>
       <c r="L15" s="5" t="s">
         <v>23</v>
       </c>
@@ -2006,7 +1885,7 @@
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="B16" s="16"/>
+      <c r="B16" s="12"/>
       <c r="C16" t="s">
         <v>70</v>
       </c>
@@ -2019,14 +1898,14 @@
       <c r="G16">
         <v>16</v>
       </c>
-      <c r="H16" s="16"/>
+      <c r="H16" s="12"/>
       <c r="I16" t="s">
         <v>79</v>
       </c>
       <c r="J16">
         <v>27</v>
       </c>
-      <c r="K16" s="16"/>
+      <c r="K16" s="12"/>
       <c r="L16" t="s">
         <v>24</v>
       </c>
@@ -2035,7 +1914,7 @@
       </c>
     </row>
     <row r="17" spans="2:13">
-      <c r="B17" s="16"/>
+      <c r="B17" s="12"/>
       <c r="C17" t="s">
         <v>71</v>
       </c>
@@ -2048,14 +1927,14 @@
       <c r="G17">
         <v>59</v>
       </c>
-      <c r="H17" s="16"/>
+      <c r="H17" s="12"/>
       <c r="I17" t="s">
         <v>80</v>
       </c>
       <c r="J17">
         <v>27</v>
       </c>
-      <c r="K17" s="16"/>
+      <c r="K17" s="12"/>
       <c r="L17" t="s">
         <v>25</v>
       </c>
@@ -2064,7 +1943,7 @@
       </c>
     </row>
     <row r="18" spans="2:13">
-      <c r="B18" s="16">
+      <c r="B18" s="12">
         <v>45803</v>
       </c>
       <c r="C18" t="s">
@@ -2079,14 +1958,14 @@
       <c r="G18">
         <v>64</v>
       </c>
-      <c r="H18" s="16"/>
+      <c r="H18" s="12"/>
       <c r="I18" t="s">
         <v>81</v>
       </c>
       <c r="J18">
         <v>27</v>
       </c>
-      <c r="K18" s="16"/>
+      <c r="K18" s="12"/>
       <c r="L18" t="s">
         <v>26</v>
       </c>
@@ -2095,21 +1974,21 @@
       </c>
     </row>
     <row r="19" spans="2:13">
-      <c r="B19" s="16"/>
+      <c r="B19" s="12"/>
       <c r="C19" t="s">
         <v>85</v>
       </c>
       <c r="D19">
         <v>144</v>
       </c>
-      <c r="H19" s="16"/>
+      <c r="H19" s="12"/>
       <c r="I19" t="s">
         <v>82</v>
       </c>
       <c r="J19">
         <v>28</v>
       </c>
-      <c r="K19" s="16"/>
+      <c r="K19" s="12"/>
       <c r="L19" t="s">
         <v>27</v>
       </c>
@@ -2118,21 +1997,21 @@
       </c>
     </row>
     <row r="20" spans="2:13">
-      <c r="B20" s="16"/>
+      <c r="B20" s="12"/>
       <c r="C20" t="s">
         <v>86</v>
       </c>
       <c r="D20">
         <v>164</v>
       </c>
-      <c r="H20" s="16"/>
+      <c r="H20" s="12"/>
       <c r="I20" t="s">
         <v>83</v>
       </c>
       <c r="J20">
         <v>34</v>
       </c>
-      <c r="K20" s="16"/>
+      <c r="K20" s="12"/>
       <c r="L20" t="s">
         <v>28</v>
       </c>
@@ -2141,14 +2020,14 @@
       </c>
     </row>
     <row r="21" spans="2:13">
-      <c r="B21" s="16"/>
+      <c r="B21" s="12"/>
       <c r="C21" t="s">
         <v>87</v>
       </c>
       <c r="D21">
         <v>58</v>
       </c>
-      <c r="E21" s="16">
+      <c r="E21" s="12">
         <v>45804</v>
       </c>
       <c r="F21" t="s">
@@ -2157,16 +2036,16 @@
       <c r="G21">
         <v>81</v>
       </c>
-      <c r="H21" s="16">
+      <c r="H21" s="12">
         <v>45817</v>
       </c>
-      <c r="I21" s="12" t="s">
+      <c r="I21" s="10" t="s">
         <v>110</v>
       </c>
       <c r="J21" s="6">
         <v>3</v>
       </c>
-      <c r="K21" s="16"/>
+      <c r="K21" s="12"/>
       <c r="L21" t="s">
         <v>29</v>
       </c>
@@ -2175,28 +2054,28 @@
       </c>
     </row>
     <row r="22" spans="2:13">
-      <c r="B22" s="16"/>
+      <c r="B22" s="12"/>
       <c r="C22" t="s">
         <v>88</v>
       </c>
       <c r="D22">
         <v>92</v>
       </c>
-      <c r="E22" s="15"/>
+      <c r="E22" s="14"/>
       <c r="F22" t="s">
         <v>102</v>
       </c>
       <c r="G22">
         <v>69</v>
       </c>
-      <c r="H22" s="16"/>
+      <c r="H22" s="12"/>
       <c r="I22" t="s">
         <v>111</v>
       </c>
       <c r="J22" s="6">
         <v>6</v>
       </c>
-      <c r="K22" s="16"/>
+      <c r="K22" s="12"/>
       <c r="L22" t="s">
         <v>30</v>
       </c>
@@ -2205,28 +2084,28 @@
       </c>
     </row>
     <row r="23" spans="2:13">
-      <c r="B23" s="16"/>
+      <c r="B23" s="12"/>
       <c r="C23" t="s">
         <v>89</v>
       </c>
       <c r="D23">
         <v>64</v>
       </c>
-      <c r="E23" s="15"/>
+      <c r="E23" s="14"/>
       <c r="F23" t="s">
         <v>103</v>
       </c>
       <c r="G23">
         <v>75</v>
       </c>
-      <c r="H23" s="16"/>
+      <c r="H23" s="12"/>
       <c r="I23" t="s">
         <v>112</v>
       </c>
       <c r="J23" s="6">
         <v>3</v>
       </c>
-      <c r="K23" s="16"/>
+      <c r="K23" s="12"/>
       <c r="L23" t="s">
         <v>31</v>
       </c>
@@ -2235,28 +2114,28 @@
       </c>
     </row>
     <row r="24" spans="2:13">
-      <c r="B24" s="16"/>
+      <c r="B24" s="12"/>
       <c r="C24" t="s">
         <v>90</v>
       </c>
       <c r="D24">
         <v>20</v>
       </c>
-      <c r="E24" s="15"/>
+      <c r="E24" s="14"/>
       <c r="F24" t="s">
         <v>104</v>
       </c>
       <c r="G24">
         <v>126</v>
       </c>
-      <c r="H24" s="16"/>
+      <c r="H24" s="12"/>
       <c r="I24" t="s">
         <v>113</v>
       </c>
       <c r="J24" s="6">
         <v>6</v>
       </c>
-      <c r="K24" s="16"/>
+      <c r="K24" s="12"/>
       <c r="L24" t="s">
         <v>32</v>
       </c>
@@ -2265,28 +2144,28 @@
       </c>
     </row>
     <row r="25" spans="2:13">
-      <c r="B25" s="16"/>
+      <c r="B25" s="12"/>
       <c r="C25" t="s">
         <v>91</v>
       </c>
       <c r="D25">
         <v>57</v>
       </c>
-      <c r="E25" s="15"/>
+      <c r="E25" s="14"/>
       <c r="F25" t="s">
         <v>105</v>
       </c>
       <c r="G25">
         <v>65</v>
       </c>
-      <c r="H25" s="16"/>
+      <c r="H25" s="12"/>
       <c r="I25" t="s">
         <v>114</v>
       </c>
       <c r="J25" s="6">
         <v>4</v>
       </c>
-      <c r="K25" s="16"/>
+      <c r="K25" s="12"/>
       <c r="L25" t="s">
         <v>33</v>
       </c>
@@ -2295,28 +2174,28 @@
       </c>
     </row>
     <row r="26" spans="2:13">
-      <c r="B26" s="16"/>
+      <c r="B26" s="12"/>
       <c r="C26" t="s">
         <v>92</v>
       </c>
       <c r="D26">
         <v>28</v>
       </c>
-      <c r="E26" s="15"/>
+      <c r="E26" s="14"/>
       <c r="F26" t="s">
         <v>106</v>
       </c>
       <c r="G26">
         <v>82</v>
       </c>
-      <c r="H26" s="16"/>
-      <c r="I26" s="12" t="s">
+      <c r="H26" s="12"/>
+      <c r="I26" s="10" t="s">
         <v>115</v>
       </c>
       <c r="J26" s="6">
         <v>2</v>
       </c>
-      <c r="K26" s="16"/>
+      <c r="K26" s="12"/>
       <c r="L26" t="s">
         <v>34</v>
       </c>
@@ -2325,28 +2204,28 @@
       </c>
     </row>
     <row r="27" spans="2:13">
-      <c r="B27" s="16"/>
+      <c r="B27" s="12"/>
       <c r="C27" t="s">
         <v>93</v>
       </c>
       <c r="D27">
         <v>26</v>
       </c>
-      <c r="E27" s="15"/>
+      <c r="E27" s="14"/>
       <c r="F27" t="s">
         <v>107</v>
       </c>
       <c r="G27">
         <v>75</v>
       </c>
-      <c r="H27" s="16"/>
+      <c r="H27" s="12"/>
       <c r="I27" t="s">
         <v>116</v>
       </c>
       <c r="J27" s="6">
         <v>8</v>
       </c>
-      <c r="K27" s="16"/>
+      <c r="K27" s="12"/>
       <c r="L27" t="s">
         <v>35</v>
       </c>
@@ -2355,28 +2234,28 @@
       </c>
     </row>
     <row r="28" spans="2:13">
-      <c r="B28" s="16"/>
+      <c r="B28" s="12"/>
       <c r="C28" t="s">
         <v>94</v>
       </c>
       <c r="D28">
         <v>16</v>
       </c>
-      <c r="E28" s="15"/>
+      <c r="E28" s="14"/>
       <c r="F28" t="s">
         <v>108</v>
       </c>
       <c r="G28">
         <v>266</v>
       </c>
-      <c r="H28" s="16"/>
+      <c r="H28" s="12"/>
       <c r="I28" t="s">
         <v>117</v>
       </c>
       <c r="J28" s="6">
         <v>3</v>
       </c>
-      <c r="K28" s="16"/>
+      <c r="K28" s="12"/>
       <c r="L28" t="s">
         <v>36</v>
       </c>
@@ -2385,28 +2264,28 @@
       </c>
     </row>
     <row r="29" spans="2:13">
-      <c r="B29" s="16"/>
+      <c r="B29" s="12"/>
       <c r="C29" t="s">
         <v>95</v>
       </c>
       <c r="D29">
         <v>18</v>
       </c>
-      <c r="E29" s="15"/>
+      <c r="E29" s="14"/>
       <c r="F29" t="s">
         <v>109</v>
       </c>
       <c r="G29">
         <v>71</v>
       </c>
-      <c r="H29" s="16"/>
+      <c r="H29" s="12"/>
       <c r="I29" t="s">
         <v>118</v>
       </c>
       <c r="J29" s="6">
         <v>12</v>
       </c>
-      <c r="K29" s="16"/>
+      <c r="K29" s="12"/>
       <c r="L29" t="s">
         <v>37</v>
       </c>
@@ -2415,21 +2294,21 @@
       </c>
     </row>
     <row r="30" spans="2:13">
-      <c r="B30" s="16"/>
+      <c r="B30" s="12"/>
       <c r="C30" t="s">
         <v>96</v>
       </c>
       <c r="D30">
         <v>15</v>
       </c>
-      <c r="H30" s="16"/>
+      <c r="H30" s="12"/>
       <c r="I30" t="s">
         <v>119</v>
       </c>
       <c r="J30" s="6">
         <v>3</v>
       </c>
-      <c r="K30" s="16"/>
+      <c r="K30" s="12"/>
       <c r="L30" t="s">
         <v>38</v>
       </c>
@@ -2438,21 +2317,21 @@
       </c>
     </row>
     <row r="31" spans="2:13">
-      <c r="B31" s="16"/>
+      <c r="B31" s="12"/>
       <c r="C31" t="s">
         <v>97</v>
       </c>
       <c r="D31">
         <v>17</v>
       </c>
-      <c r="H31" s="16"/>
+      <c r="H31" s="12"/>
       <c r="I31" t="s">
         <v>120</v>
       </c>
       <c r="J31" s="6">
         <v>6</v>
       </c>
-      <c r="K31" s="16"/>
+      <c r="K31" s="12"/>
       <c r="L31" t="s">
         <v>39</v>
       </c>
@@ -2461,21 +2340,21 @@
       </c>
     </row>
     <row r="32" spans="2:13">
-      <c r="B32" s="16"/>
+      <c r="B32" s="12"/>
       <c r="C32" t="s">
         <v>98</v>
       </c>
       <c r="D32">
         <v>44</v>
       </c>
-      <c r="H32" s="16"/>
+      <c r="H32" s="12"/>
       <c r="I32" t="s">
         <v>121</v>
       </c>
       <c r="J32" s="6">
         <v>2</v>
       </c>
-      <c r="K32" s="16"/>
+      <c r="K32" s="12"/>
       <c r="L32" s="5" t="s">
         <v>40</v>
       </c>
@@ -2484,21 +2363,21 @@
       </c>
     </row>
     <row r="33" spans="2:13">
-      <c r="B33" s="16"/>
+      <c r="B33" s="12"/>
       <c r="C33" t="s">
         <v>99</v>
       </c>
       <c r="D33">
         <v>43</v>
       </c>
-      <c r="H33" s="16"/>
+      <c r="H33" s="12"/>
       <c r="I33" t="s">
         <v>122</v>
       </c>
       <c r="J33" s="6">
         <v>4</v>
       </c>
-      <c r="K33" s="16"/>
+      <c r="K33" s="12"/>
       <c r="L33" t="s">
         <v>41</v>
       </c>
@@ -2507,21 +2386,21 @@
       </c>
     </row>
     <row r="34" spans="2:13">
-      <c r="B34" s="16"/>
+      <c r="B34" s="12"/>
       <c r="C34" t="s">
         <v>100</v>
       </c>
       <c r="D34">
         <v>28</v>
       </c>
-      <c r="H34" s="16"/>
+      <c r="H34" s="12"/>
       <c r="I34" t="s">
         <v>123</v>
       </c>
       <c r="J34" s="6">
         <v>8</v>
       </c>
-      <c r="K34" s="16"/>
+      <c r="K34" s="12"/>
       <c r="L34" t="s">
         <v>42</v>
       </c>
@@ -2530,16 +2409,16 @@
       </c>
     </row>
     <row r="35" spans="2:13">
-      <c r="H35" s="16">
-        <v>45898</v>
-      </c>
-      <c r="I35" s="9" t="s">
-        <v>227</v>
+      <c r="H35" s="12">
+        <v>45906</v>
+      </c>
+      <c r="I35" s="16" t="s">
+        <v>124</v>
       </c>
       <c r="J35" s="6">
-        <v>5</v>
-      </c>
-      <c r="K35" s="16"/>
+        <v>17</v>
+      </c>
+      <c r="K35" s="12"/>
       <c r="L35" t="s">
         <v>43</v>
       </c>
@@ -2548,14 +2427,14 @@
       </c>
     </row>
     <row r="36" spans="2:13">
-      <c r="H36" s="15"/>
-      <c r="I36" s="9" t="s">
-        <v>228</v>
+      <c r="H36" s="12"/>
+      <c r="I36" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="J36" s="6">
-        <v>15</v>
-      </c>
-      <c r="K36" s="16"/>
+        <v>8</v>
+      </c>
+      <c r="K36" s="12"/>
       <c r="L36" t="s">
         <v>44</v>
       </c>
@@ -2564,16 +2443,14 @@
       </c>
     </row>
     <row r="37" spans="2:13">
-      <c r="H37" s="16">
-        <v>45899</v>
-      </c>
-      <c r="I37" s="10" t="s">
-        <v>229</v>
+      <c r="H37" s="12"/>
+      <c r="I37" t="s">
+        <v>127</v>
       </c>
       <c r="J37" s="6">
-        <v>18</v>
-      </c>
-      <c r="K37" s="16"/>
+        <v>9</v>
+      </c>
+      <c r="K37" s="12"/>
       <c r="L37" t="s">
         <v>45</v>
       </c>
@@ -2582,14 +2459,14 @@
       </c>
     </row>
     <row r="38" spans="2:13">
-      <c r="H38" s="16"/>
-      <c r="I38" s="10" t="s">
-        <v>230</v>
+      <c r="H38" s="12"/>
+      <c r="I38" t="s">
+        <v>128</v>
       </c>
       <c r="J38" s="6">
-        <v>8</v>
-      </c>
-      <c r="K38" s="16"/>
+        <v>36</v>
+      </c>
+      <c r="K38" s="12"/>
       <c r="L38" t="s">
         <v>46</v>
       </c>
@@ -2598,14 +2475,14 @@
       </c>
     </row>
     <row r="39" spans="2:13">
-      <c r="H39" s="16"/>
-      <c r="I39" s="10" t="s">
-        <v>231</v>
+      <c r="H39" s="12"/>
+      <c r="I39" t="s">
+        <v>129</v>
       </c>
       <c r="J39" s="6">
-        <v>8</v>
-      </c>
-      <c r="K39" s="16"/>
+        <v>9</v>
+      </c>
+      <c r="K39" s="12"/>
       <c r="L39" t="s">
         <v>47</v>
       </c>
@@ -2614,14 +2491,14 @@
       </c>
     </row>
     <row r="40" spans="2:13">
-      <c r="H40" s="16"/>
-      <c r="I40" s="10" t="s">
-        <v>232</v>
+      <c r="H40" s="12"/>
+      <c r="I40" t="s">
+        <v>130</v>
       </c>
       <c r="J40" s="6">
-        <v>8</v>
-      </c>
-      <c r="K40" s="16"/>
+        <v>37</v>
+      </c>
+      <c r="K40" s="12"/>
       <c r="L40" s="5" t="s">
         <v>48</v>
       </c>
@@ -2630,14 +2507,14 @@
       </c>
     </row>
     <row r="41" spans="2:13">
-      <c r="H41" s="16"/>
-      <c r="I41" s="10" t="s">
-        <v>233</v>
+      <c r="H41" s="12"/>
+      <c r="I41" t="s">
+        <v>131</v>
       </c>
       <c r="J41" s="6">
-        <v>10</v>
-      </c>
-      <c r="K41" s="16"/>
+        <v>67</v>
+      </c>
+      <c r="K41" s="12"/>
       <c r="L41" s="5" t="s">
         <v>49</v>
       </c>
@@ -2646,14 +2523,14 @@
       </c>
     </row>
     <row r="42" spans="2:13">
-      <c r="H42" s="16"/>
-      <c r="I42" s="10" t="s">
-        <v>234</v>
+      <c r="H42" s="12"/>
+      <c r="I42" t="s">
+        <v>134</v>
       </c>
       <c r="J42" s="6">
-        <v>8</v>
-      </c>
-      <c r="K42" s="16"/>
+        <v>1</v>
+      </c>
+      <c r="K42" s="12"/>
       <c r="L42" t="s">
         <v>50</v>
       </c>
@@ -2662,14 +2539,14 @@
       </c>
     </row>
     <row r="43" spans="2:13">
-      <c r="H43" s="16"/>
-      <c r="I43" s="10" t="s">
-        <v>235</v>
+      <c r="H43" s="12"/>
+      <c r="I43" t="s">
+        <v>139</v>
       </c>
       <c r="J43" s="6">
-        <v>10</v>
-      </c>
-      <c r="K43" s="16"/>
+        <v>9</v>
+      </c>
+      <c r="K43" s="12"/>
       <c r="L43" t="s">
         <v>51</v>
       </c>
@@ -2678,14 +2555,14 @@
       </c>
     </row>
     <row r="44" spans="2:13">
-      <c r="H44" s="16"/>
-      <c r="I44" s="10" t="s">
-        <v>236</v>
+      <c r="H44" s="12"/>
+      <c r="I44" t="s">
+        <v>140</v>
       </c>
       <c r="J44" s="6">
-        <v>8</v>
-      </c>
-      <c r="K44" s="16"/>
+        <v>21</v>
+      </c>
+      <c r="K44" s="12"/>
       <c r="L44" t="s">
         <v>52</v>
       </c>
@@ -2694,17 +2571,17 @@
       </c>
     </row>
     <row r="45" spans="2:13">
-      <c r="H45" s="16"/>
-      <c r="I45" s="11" t="s">
-        <v>237</v>
+      <c r="H45" s="12"/>
+      <c r="I45" t="s">
+        <v>147</v>
       </c>
       <c r="J45" s="6">
-        <v>21</v>
-      </c>
-      <c r="K45" s="16">
+        <v>2</v>
+      </c>
+      <c r="K45" s="12">
         <v>45898</v>
       </c>
-      <c r="L45" s="7" t="s">
+      <c r="L45" s="16" t="s">
         <v>124</v>
       </c>
       <c r="M45">
@@ -2712,14 +2589,14 @@
       </c>
     </row>
     <row r="46" spans="2:13">
-      <c r="H46" s="16"/>
-      <c r="I46" s="11" t="s">
-        <v>238</v>
+      <c r="H46" s="12"/>
+      <c r="I46" s="17" t="s">
+        <v>225</v>
       </c>
       <c r="J46" s="6">
-        <v>17</v>
-      </c>
-      <c r="K46" s="16"/>
+        <v>1</v>
+      </c>
+      <c r="K46" s="12"/>
       <c r="L46" s="7" t="s">
         <v>125</v>
       </c>
@@ -2728,14 +2605,14 @@
       </c>
     </row>
     <row r="47" spans="2:13">
-      <c r="H47" s="16"/>
-      <c r="I47" s="11" t="s">
-        <v>239</v>
+      <c r="H47" s="12"/>
+      <c r="I47" s="17" t="s">
+        <v>258</v>
       </c>
       <c r="J47" s="6">
-        <v>12</v>
-      </c>
-      <c r="K47" s="16"/>
+        <v>15</v>
+      </c>
+      <c r="K47" s="12"/>
       <c r="L47" t="s">
         <v>126</v>
       </c>
@@ -2744,14 +2621,14 @@
       </c>
     </row>
     <row r="48" spans="2:13">
-      <c r="H48" s="16"/>
-      <c r="I48" s="11" t="s">
-        <v>240</v>
+      <c r="H48" s="12"/>
+      <c r="I48" s="17" t="s">
+        <v>250</v>
       </c>
       <c r="J48" s="6">
-        <v>7</v>
-      </c>
-      <c r="K48" s="16"/>
+        <v>5</v>
+      </c>
+      <c r="K48" s="12"/>
       <c r="L48" t="s">
         <v>127</v>
       </c>
@@ -2760,14 +2637,14 @@
       </c>
     </row>
     <row r="49" spans="8:13">
-      <c r="H49" s="16"/>
-      <c r="I49" s="11" t="s">
-        <v>241</v>
+      <c r="H49" s="12"/>
+      <c r="I49" s="17" t="s">
+        <v>251</v>
       </c>
       <c r="J49" s="6">
-        <v>12</v>
-      </c>
-      <c r="K49" s="16"/>
+        <v>5</v>
+      </c>
+      <c r="K49" s="12"/>
       <c r="L49" t="s">
         <v>128</v>
       </c>
@@ -2776,14 +2653,14 @@
       </c>
     </row>
     <row r="50" spans="8:13">
-      <c r="H50" s="16"/>
-      <c r="I50" s="11" t="s">
-        <v>242</v>
+      <c r="H50" s="12"/>
+      <c r="I50" s="17" t="s">
+        <v>232</v>
       </c>
       <c r="J50" s="6">
-        <v>13</v>
-      </c>
-      <c r="K50" s="16"/>
+        <v>45</v>
+      </c>
+      <c r="K50" s="12"/>
       <c r="L50" t="s">
         <v>129</v>
       </c>
@@ -2792,14 +2669,14 @@
       </c>
     </row>
     <row r="51" spans="8:13">
-      <c r="H51" s="16"/>
-      <c r="I51" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="J51" s="6">
-        <v>14</v>
-      </c>
-      <c r="K51" s="16"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="J51" s="11">
+        <v>24</v>
+      </c>
+      <c r="K51" s="12"/>
       <c r="L51" t="s">
         <v>130</v>
       </c>
@@ -2808,14 +2685,14 @@
       </c>
     </row>
     <row r="52" spans="8:13">
-      <c r="H52" s="16"/>
-      <c r="I52" s="11" t="s">
-        <v>244</v>
+      <c r="H52" s="12"/>
+      <c r="I52" s="17" t="s">
+        <v>234</v>
       </c>
       <c r="J52" s="6">
-        <v>14</v>
-      </c>
-      <c r="K52" s="16"/>
+        <v>26</v>
+      </c>
+      <c r="K52" s="12"/>
       <c r="L52" t="s">
         <v>131</v>
       </c>
@@ -2824,14 +2701,14 @@
       </c>
     </row>
     <row r="53" spans="8:13">
-      <c r="H53" s="16"/>
-      <c r="I53" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="J53" s="11">
-        <v>8</v>
-      </c>
-      <c r="K53" s="16"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="J53" s="9">
+        <v>1</v>
+      </c>
+      <c r="K53" s="12"/>
       <c r="L53" s="8" t="s">
         <v>132</v>
       </c>
@@ -2840,14 +2717,14 @@
       </c>
     </row>
     <row r="54" spans="8:13">
-      <c r="H54" s="16"/>
-      <c r="I54" s="11" t="s">
-        <v>246</v>
+      <c r="H54" s="12"/>
+      <c r="I54" s="17" t="s">
+        <v>236</v>
       </c>
       <c r="J54" s="6">
-        <v>10</v>
-      </c>
-      <c r="K54" s="16"/>
+        <v>18</v>
+      </c>
+      <c r="K54" s="12"/>
       <c r="L54" t="s">
         <v>133</v>
       </c>
@@ -2856,16 +2733,14 @@
       </c>
     </row>
     <row r="55" spans="8:13">
-      <c r="H55" s="16">
-        <v>45900</v>
-      </c>
-      <c r="I55" s="12" t="s">
-        <v>255</v>
+      <c r="H55" s="12"/>
+      <c r="I55" s="17" t="s">
+        <v>237</v>
       </c>
       <c r="J55" s="6">
-        <v>44</v>
-      </c>
-      <c r="K55" s="16"/>
+        <v>1</v>
+      </c>
+      <c r="K55" s="12"/>
       <c r="L55" t="s">
         <v>134</v>
       </c>
@@ -2874,14 +2749,14 @@
       </c>
     </row>
     <row r="56" spans="8:13">
-      <c r="H56" s="16"/>
-      <c r="I56" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="J56" s="6">
-        <v>1</v>
-      </c>
-      <c r="K56" s="16"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="J56" s="10">
+        <v>32</v>
+      </c>
+      <c r="K56" s="12"/>
       <c r="L56" t="s">
         <v>135</v>
       </c>
@@ -2890,14 +2765,14 @@
       </c>
     </row>
     <row r="57" spans="8:13">
-      <c r="H57" s="16"/>
-      <c r="I57" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="J57" s="12">
-        <v>15</v>
-      </c>
-      <c r="K57" s="16"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="J57" s="11">
+        <v>1</v>
+      </c>
+      <c r="K57" s="12"/>
       <c r="L57" t="s">
         <v>136</v>
       </c>
@@ -2906,14 +2781,14 @@
       </c>
     </row>
     <row r="58" spans="8:13">
-      <c r="H58" s="16"/>
-      <c r="I58" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="J58" s="12">
-        <v>35</v>
-      </c>
-      <c r="K58" s="16"/>
+      <c r="H58" s="12"/>
+      <c r="I58" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="J58" s="11">
+        <v>18</v>
+      </c>
+      <c r="K58" s="12"/>
       <c r="L58" t="s">
         <v>137</v>
       </c>
@@ -2922,14 +2797,14 @@
       </c>
     </row>
     <row r="59" spans="8:13">
-      <c r="H59" s="16"/>
-      <c r="I59" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="J59" s="6">
+      <c r="H59" s="12"/>
+      <c r="I59" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="J59" s="10">
         <v>1</v>
       </c>
-      <c r="K59" s="16"/>
+      <c r="K59" s="12"/>
       <c r="L59" t="s">
         <v>138</v>
       </c>
@@ -2938,14 +2813,14 @@
       </c>
     </row>
     <row r="60" spans="8:13">
-      <c r="H60" s="16"/>
-      <c r="I60" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="J60" s="6">
-        <v>12</v>
-      </c>
-      <c r="K60" s="16"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="J60" s="10">
+        <v>14</v>
+      </c>
+      <c r="K60" s="12"/>
       <c r="L60" t="s">
         <v>139</v>
       </c>
@@ -2954,14 +2829,14 @@
       </c>
     </row>
     <row r="61" spans="8:13">
-      <c r="H61" s="16"/>
-      <c r="I61" s="12" t="s">
-        <v>259</v>
-      </c>
-      <c r="J61" s="6">
-        <v>5</v>
-      </c>
-      <c r="K61" s="16"/>
+      <c r="H61" s="12"/>
+      <c r="I61" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="J61" s="11">
+        <v>2</v>
+      </c>
+      <c r="K61" s="12"/>
       <c r="L61" t="s">
         <v>140</v>
       </c>
@@ -2970,14 +2845,14 @@
       </c>
     </row>
     <row r="62" spans="8:13">
-      <c r="H62" s="16"/>
-      <c r="I62" s="12" t="s">
-        <v>258</v>
-      </c>
-      <c r="J62" s="12">
-        <v>51</v>
-      </c>
-      <c r="K62" s="16"/>
+      <c r="H62" s="12"/>
+      <c r="I62" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="J62" s="11">
+        <v>17</v>
+      </c>
+      <c r="K62" s="12"/>
       <c r="L62" t="s">
         <v>141</v>
       </c>
@@ -2986,14 +2861,14 @@
       </c>
     </row>
     <row r="63" spans="8:13">
-      <c r="H63" s="16"/>
-      <c r="I63" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="J63" s="12">
-        <v>35</v>
-      </c>
-      <c r="K63" s="16"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="J63" s="11">
+        <v>1</v>
+      </c>
+      <c r="K63" s="12"/>
       <c r="L63" t="s">
         <v>142</v>
       </c>
@@ -3002,14 +2877,14 @@
       </c>
     </row>
     <row r="64" spans="8:13">
-      <c r="H64" s="16"/>
-      <c r="I64" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="J64" s="6">
-        <v>28</v>
-      </c>
-      <c r="K64" s="16"/>
+      <c r="H64" s="12"/>
+      <c r="I64" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="J64" s="11">
+        <v>12</v>
+      </c>
+      <c r="K64" s="12"/>
       <c r="L64" t="s">
         <v>143</v>
       </c>
@@ -3018,14 +2893,14 @@
       </c>
     </row>
     <row r="65" spans="8:13">
-      <c r="H65" s="16"/>
-      <c r="I65" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="J65" s="6">
-        <v>1</v>
-      </c>
-      <c r="K65" s="16"/>
+      <c r="H65" s="12"/>
+      <c r="I65" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="J65" s="11">
+        <v>43</v>
+      </c>
+      <c r="K65" s="12"/>
       <c r="L65" t="s">
         <v>144</v>
       </c>
@@ -3034,16 +2909,14 @@
       </c>
     </row>
     <row r="66" spans="8:13">
-      <c r="H66" s="16">
-        <v>45901</v>
-      </c>
-      <c r="I66" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="J66" s="6">
-        <v>24</v>
-      </c>
-      <c r="K66" s="16"/>
+      <c r="H66" s="12"/>
+      <c r="I66" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="J66" s="11">
+        <v>53</v>
+      </c>
+      <c r="K66" s="12"/>
       <c r="L66" t="s">
         <v>145</v>
       </c>
@@ -3052,14 +2925,14 @@
       </c>
     </row>
     <row r="67" spans="8:13">
-      <c r="H67" s="16"/>
-      <c r="I67" s="13" t="s">
-        <v>264</v>
-      </c>
-      <c r="J67" s="6">
-        <v>24</v>
-      </c>
-      <c r="K67" s="16"/>
+      <c r="H67" s="12"/>
+      <c r="I67" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="J67" s="11">
+        <v>66</v>
+      </c>
+      <c r="K67" s="12"/>
       <c r="L67" t="s">
         <v>146</v>
       </c>
@@ -3068,14 +2941,14 @@
       </c>
     </row>
     <row r="68" spans="8:13">
-      <c r="H68" s="16"/>
-      <c r="I68" s="13" t="s">
-        <v>265</v>
-      </c>
-      <c r="J68" s="6">
-        <v>34</v>
-      </c>
-      <c r="K68" s="16"/>
+      <c r="H68" s="12"/>
+      <c r="I68" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="J68" s="11">
+        <v>13</v>
+      </c>
+      <c r="K68" s="12"/>
       <c r="L68" t="s">
         <v>147</v>
       </c>
@@ -3084,14 +2957,14 @@
       </c>
     </row>
     <row r="69" spans="8:13">
-      <c r="H69" s="16"/>
-      <c r="I69" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="J69" s="6">
-        <v>33</v>
-      </c>
-      <c r="K69" s="16"/>
+      <c r="H69" s="12"/>
+      <c r="I69" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="J69" s="11">
+        <v>10</v>
+      </c>
+      <c r="K69" s="12"/>
       <c r="L69" t="s">
         <v>148</v>
       </c>
@@ -3100,14 +2973,14 @@
       </c>
     </row>
     <row r="70" spans="8:13">
-      <c r="H70" s="16"/>
-      <c r="I70" s="13" t="s">
-        <v>267</v>
-      </c>
-      <c r="J70" s="6">
-        <v>45</v>
-      </c>
-      <c r="K70" s="16"/>
+      <c r="H70" s="12"/>
+      <c r="I70" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="J70" s="11">
+        <v>40</v>
+      </c>
+      <c r="K70" s="12"/>
       <c r="L70" t="s">
         <v>149</v>
       </c>
@@ -3116,14 +2989,14 @@
       </c>
     </row>
     <row r="71" spans="8:13">
-      <c r="H71" s="16"/>
-      <c r="I71" s="13" t="s">
-        <v>268</v>
-      </c>
-      <c r="J71" s="6">
-        <v>10</v>
-      </c>
-      <c r="K71" s="16"/>
+      <c r="H71" s="12"/>
+      <c r="I71" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="J71" s="11">
+        <v>15</v>
+      </c>
+      <c r="K71" s="12"/>
       <c r="L71" t="s">
         <v>150</v>
       </c>
@@ -3132,14 +3005,14 @@
       </c>
     </row>
     <row r="72" spans="8:13">
-      <c r="H72" s="16"/>
+      <c r="H72" s="12"/>
       <c r="I72" s="17" t="s">
-        <v>269</v>
-      </c>
-      <c r="J72" s="6">
-        <v>1</v>
-      </c>
-      <c r="K72" s="16"/>
+        <v>208</v>
+      </c>
+      <c r="J72" s="11">
+        <v>8</v>
+      </c>
+      <c r="K72" s="12"/>
       <c r="L72" t="s">
         <v>151</v>
       </c>
@@ -3148,14 +3021,14 @@
       </c>
     </row>
     <row r="73" spans="8:13">
-      <c r="H73" s="16"/>
+      <c r="H73" s="12"/>
       <c r="I73" s="17" t="s">
-        <v>270</v>
-      </c>
-      <c r="J73" s="6">
-        <v>1</v>
-      </c>
-      <c r="K73" s="16"/>
+        <v>209</v>
+      </c>
+      <c r="J73" s="11">
+        <v>19</v>
+      </c>
+      <c r="K73" s="12"/>
       <c r="L73" t="s">
         <v>152</v>
       </c>
@@ -3164,14 +3037,14 @@
       </c>
     </row>
     <row r="74" spans="8:13">
-      <c r="H74" s="16"/>
+      <c r="H74" s="12"/>
       <c r="I74" s="17" t="s">
-        <v>271</v>
-      </c>
-      <c r="J74" s="6">
-        <v>1</v>
-      </c>
-      <c r="K74" s="16"/>
+        <v>210</v>
+      </c>
+      <c r="J74" s="11">
+        <v>14</v>
+      </c>
+      <c r="K74" s="12"/>
       <c r="L74" t="s">
         <v>153</v>
       </c>
@@ -3180,14 +3053,14 @@
       </c>
     </row>
     <row r="75" spans="8:13">
-      <c r="H75" s="16"/>
-      <c r="I75" s="17" t="s">
-        <v>272</v>
-      </c>
-      <c r="J75" s="6">
-        <v>1</v>
-      </c>
-      <c r="K75" s="16"/>
+      <c r="H75" s="12"/>
+      <c r="I75" t="s">
+        <v>211</v>
+      </c>
+      <c r="J75" s="11">
+        <v>2</v>
+      </c>
+      <c r="K75" s="12"/>
       <c r="L75" t="s">
         <v>154</v>
       </c>
@@ -3196,14 +3069,14 @@
       </c>
     </row>
     <row r="76" spans="8:13">
-      <c r="H76" s="16"/>
-      <c r="I76" s="17" t="s">
-        <v>273</v>
-      </c>
-      <c r="J76" s="6">
-        <v>1</v>
-      </c>
-      <c r="K76" s="16"/>
+      <c r="H76" s="12"/>
+      <c r="I76" t="s">
+        <v>212</v>
+      </c>
+      <c r="J76" s="11">
+        <v>22</v>
+      </c>
+      <c r="K76" s="12"/>
       <c r="L76" t="s">
         <v>155</v>
       </c>
@@ -3212,14 +3085,14 @@
       </c>
     </row>
     <row r="77" spans="8:13">
-      <c r="H77" s="16"/>
+      <c r="H77" s="12"/>
       <c r="I77" s="17" t="s">
-        <v>274</v>
-      </c>
-      <c r="J77" s="6">
-        <v>1</v>
-      </c>
-      <c r="K77" s="16"/>
+        <v>213</v>
+      </c>
+      <c r="J77" s="11">
+        <v>11</v>
+      </c>
+      <c r="K77" s="12"/>
       <c r="L77" t="s">
         <v>156</v>
       </c>
@@ -3228,16 +3101,14 @@
       </c>
     </row>
     <row r="78" spans="8:13">
-      <c r="H78" s="16">
-        <v>45902</v>
-      </c>
-      <c r="I78" s="17" t="s">
-        <v>275</v>
-      </c>
-      <c r="J78" s="6">
-        <v>19</v>
-      </c>
-      <c r="K78" s="16"/>
+      <c r="H78" s="12"/>
+      <c r="I78" t="s">
+        <v>214</v>
+      </c>
+      <c r="J78" s="11">
+        <v>9</v>
+      </c>
+      <c r="K78" s="12"/>
       <c r="L78" t="s">
         <v>157</v>
       </c>
@@ -3246,14 +3117,14 @@
       </c>
     </row>
     <row r="79" spans="8:13">
-      <c r="H79" s="16"/>
-      <c r="I79" s="17" t="s">
-        <v>276</v>
-      </c>
-      <c r="J79" s="6">
-        <v>3</v>
-      </c>
-      <c r="K79" s="16"/>
+      <c r="H79" s="12"/>
+      <c r="I79" t="s">
+        <v>215</v>
+      </c>
+      <c r="J79" s="11">
+        <v>33</v>
+      </c>
+      <c r="K79" s="12"/>
       <c r="L79" t="s">
         <v>158</v>
       </c>
@@ -3262,14 +3133,14 @@
       </c>
     </row>
     <row r="80" spans="8:13">
-      <c r="H80" s="16"/>
+      <c r="H80" s="12"/>
       <c r="I80" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="J80" s="6">
-        <v>10</v>
-      </c>
-      <c r="K80" s="16"/>
+        <v>218</v>
+      </c>
+      <c r="J80" s="11">
+        <v>15</v>
+      </c>
+      <c r="K80" s="12"/>
       <c r="L80" t="s">
         <v>159</v>
       </c>
@@ -3278,14 +3149,14 @@
       </c>
     </row>
     <row r="81" spans="8:13">
-      <c r="H81" s="16"/>
+      <c r="H81" s="12"/>
       <c r="I81" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="J81" s="6">
-        <v>16</v>
-      </c>
-      <c r="K81" s="16"/>
+        <v>254</v>
+      </c>
+      <c r="J81" s="11">
+        <v>7</v>
+      </c>
+      <c r="K81" s="12"/>
       <c r="L81" s="8" t="s">
         <v>160</v>
       </c>
@@ -3294,14 +3165,14 @@
       </c>
     </row>
     <row r="82" spans="8:13">
-      <c r="H82" s="16"/>
+      <c r="H82" s="12"/>
       <c r="I82" s="17" t="s">
-        <v>279</v>
-      </c>
-      <c r="J82" s="6">
-        <v>15</v>
-      </c>
-      <c r="K82" s="16"/>
+        <v>219</v>
+      </c>
+      <c r="J82" s="11">
+        <v>12</v>
+      </c>
+      <c r="K82" s="12"/>
       <c r="L82" t="s">
         <v>161</v>
       </c>
@@ -3310,14 +3181,14 @@
       </c>
     </row>
     <row r="83" spans="8:13">
-      <c r="H83" s="16"/>
+      <c r="H83" s="12"/>
       <c r="I83" s="17" t="s">
-        <v>280</v>
-      </c>
-      <c r="J83" s="6">
-        <v>20</v>
-      </c>
-      <c r="K83" s="16"/>
+        <v>220</v>
+      </c>
+      <c r="J83" s="11">
+        <v>107</v>
+      </c>
+      <c r="K83" s="12"/>
       <c r="L83" t="s">
         <v>162</v>
       </c>
@@ -3326,14 +3197,14 @@
       </c>
     </row>
     <row r="84" spans="8:13">
-      <c r="H84" s="16"/>
+      <c r="H84" s="12"/>
       <c r="I84" s="17" t="s">
-        <v>281</v>
-      </c>
-      <c r="J84" s="6">
-        <v>8</v>
-      </c>
-      <c r="K84" s="16"/>
+        <v>222</v>
+      </c>
+      <c r="J84" s="11">
+        <v>12</v>
+      </c>
+      <c r="K84" s="12"/>
       <c r="L84" t="s">
         <v>163</v>
       </c>
@@ -3342,14 +3213,14 @@
       </c>
     </row>
     <row r="85" spans="8:13">
-      <c r="H85" s="16"/>
-      <c r="I85" s="17" t="s">
-        <v>282</v>
-      </c>
-      <c r="J85" s="6">
-        <v>20</v>
-      </c>
-      <c r="K85" s="16"/>
+      <c r="H85" s="12"/>
+      <c r="I85" t="s">
+        <v>223</v>
+      </c>
+      <c r="J85" s="11">
+        <v>6</v>
+      </c>
+      <c r="K85" s="12"/>
       <c r="L85" t="s">
         <v>164</v>
       </c>
@@ -3358,14 +3229,14 @@
       </c>
     </row>
     <row r="86" spans="8:13">
-      <c r="H86" s="16"/>
+      <c r="H86" s="12"/>
       <c r="I86" s="17" t="s">
-        <v>283</v>
-      </c>
-      <c r="J86" s="6">
-        <v>37</v>
-      </c>
-      <c r="K86" s="16"/>
+        <v>224</v>
+      </c>
+      <c r="J86" s="11">
+        <v>24</v>
+      </c>
+      <c r="K86" s="12"/>
       <c r="L86" t="s">
         <v>165</v>
       </c>
@@ -3374,14 +3245,14 @@
       </c>
     </row>
     <row r="87" spans="8:13">
-      <c r="H87" s="16"/>
+      <c r="H87" s="12"/>
       <c r="I87" s="17" t="s">
-        <v>284</v>
-      </c>
-      <c r="J87" s="6">
-        <v>6</v>
-      </c>
-      <c r="K87" s="16"/>
+        <v>255</v>
+      </c>
+      <c r="J87" s="11">
+        <v>64</v>
+      </c>
+      <c r="K87" s="12"/>
       <c r="L87" t="s">
         <v>166</v>
       </c>
@@ -3390,14 +3261,14 @@
       </c>
     </row>
     <row r="88" spans="8:13">
-      <c r="H88" s="16"/>
-      <c r="I88" t="s">
-        <v>285</v>
-      </c>
-      <c r="J88" s="6">
-        <v>10</v>
-      </c>
-      <c r="K88" s="16"/>
+      <c r="H88" s="12"/>
+      <c r="I88" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="J88" s="11">
+        <v>38</v>
+      </c>
+      <c r="K88" s="12"/>
       <c r="L88" t="s">
         <v>167</v>
       </c>
@@ -3406,14 +3277,14 @@
       </c>
     </row>
     <row r="89" spans="8:13">
-      <c r="H89" s="16"/>
-      <c r="I89" t="s">
-        <v>286</v>
-      </c>
-      <c r="J89" s="6">
-        <v>0</v>
-      </c>
-      <c r="K89" s="16"/>
+      <c r="H89" s="12"/>
+      <c r="I89" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="J89" s="11">
+        <v>42</v>
+      </c>
+      <c r="K89" s="12"/>
       <c r="L89" t="s">
         <v>168</v>
       </c>
@@ -3422,14 +3293,14 @@
       </c>
     </row>
     <row r="90" spans="8:13">
-      <c r="H90" s="16"/>
-      <c r="I90" s="17" t="s">
-        <v>287</v>
-      </c>
-      <c r="J90" s="6">
-        <v>8</v>
-      </c>
-      <c r="K90" s="16"/>
+      <c r="H90" s="12"/>
+      <c r="I90" t="s">
+        <v>196</v>
+      </c>
+      <c r="J90" s="11">
+        <v>2</v>
+      </c>
+      <c r="K90" s="12"/>
       <c r="L90" t="s">
         <v>169</v>
       </c>
@@ -3438,14 +3309,9 @@
       </c>
     </row>
     <row r="91" spans="8:13">
-      <c r="H91" s="16"/>
-      <c r="I91" s="17" t="s">
-        <v>288</v>
-      </c>
-      <c r="J91" s="6">
-        <v>8</v>
-      </c>
-      <c r="K91" s="16"/>
+      <c r="H91" s="3"/>
+      <c r="J91" s="6"/>
+      <c r="K91" s="12"/>
       <c r="L91" t="s">
         <v>170</v>
       </c>
@@ -3454,14 +3320,9 @@
       </c>
     </row>
     <row r="92" spans="8:13">
-      <c r="H92" s="16"/>
-      <c r="I92" s="17" t="s">
-        <v>289</v>
-      </c>
-      <c r="J92" s="6">
-        <v>4</v>
-      </c>
-      <c r="K92" s="16"/>
+      <c r="H92" s="3"/>
+      <c r="J92" s="6"/>
+      <c r="K92" s="12"/>
       <c r="L92" t="s">
         <v>171</v>
       </c>
@@ -3470,14 +3331,9 @@
       </c>
     </row>
     <row r="93" spans="8:13">
-      <c r="H93" s="16"/>
-      <c r="I93" s="17" t="s">
-        <v>290</v>
-      </c>
-      <c r="J93" s="6">
-        <v>8</v>
-      </c>
-      <c r="K93" s="16"/>
+      <c r="H93" s="3"/>
+      <c r="J93" s="6"/>
+      <c r="K93" s="12"/>
       <c r="L93" t="s">
         <v>172</v>
       </c>
@@ -3486,14 +3342,9 @@
       </c>
     </row>
     <row r="94" spans="8:13">
-      <c r="H94" s="16"/>
-      <c r="I94" s="17" t="s">
-        <v>291</v>
-      </c>
-      <c r="J94" s="6">
-        <v>28</v>
-      </c>
-      <c r="K94" s="16"/>
+      <c r="H94" s="3"/>
+      <c r="J94" s="6"/>
+      <c r="K94" s="12"/>
       <c r="L94" t="s">
         <v>173</v>
       </c>
@@ -3502,14 +3353,9 @@
       </c>
     </row>
     <row r="95" spans="8:13">
-      <c r="H95" s="16"/>
-      <c r="I95" s="17" t="s">
-        <v>292</v>
-      </c>
-      <c r="J95" s="6">
-        <v>24</v>
-      </c>
-      <c r="K95" s="16"/>
+      <c r="H95" s="3"/>
+      <c r="J95" s="6"/>
+      <c r="K95" s="12"/>
       <c r="L95" t="s">
         <v>174</v>
       </c>
@@ -3518,7 +3364,8 @@
       </c>
     </row>
     <row r="96" spans="8:13">
-      <c r="K96" s="16"/>
+      <c r="H96" s="3"/>
+      <c r="K96" s="12"/>
       <c r="L96" t="s">
         <v>175</v>
       </c>
@@ -3527,7 +3374,7 @@
       </c>
     </row>
     <row r="97" spans="11:13">
-      <c r="K97" s="16"/>
+      <c r="K97" s="12"/>
       <c r="L97" t="s">
         <v>176</v>
       </c>
@@ -3536,7 +3383,7 @@
       </c>
     </row>
     <row r="98" spans="11:13">
-      <c r="K98" s="16"/>
+      <c r="K98" s="12"/>
       <c r="L98" t="s">
         <v>177</v>
       </c>
@@ -3545,7 +3392,7 @@
       </c>
     </row>
     <row r="99" spans="11:13">
-      <c r="K99" s="16"/>
+      <c r="K99" s="12"/>
       <c r="L99" t="s">
         <v>178</v>
       </c>
@@ -3554,7 +3401,7 @@
       </c>
     </row>
     <row r="100" spans="11:13">
-      <c r="K100" s="16"/>
+      <c r="K100" s="12"/>
       <c r="L100" t="s">
         <v>179</v>
       </c>
@@ -3563,7 +3410,7 @@
       </c>
     </row>
     <row r="101" spans="11:13">
-      <c r="K101" s="16"/>
+      <c r="K101" s="12"/>
       <c r="L101" t="s">
         <v>180</v>
       </c>
@@ -3572,7 +3419,7 @@
       </c>
     </row>
     <row r="102" spans="11:13">
-      <c r="K102" s="16"/>
+      <c r="K102" s="12"/>
       <c r="L102" t="s">
         <v>181</v>
       </c>
@@ -3581,8 +3428,8 @@
       </c>
     </row>
     <row r="103" spans="11:13">
-      <c r="K103" s="16"/>
-      <c r="L103" t="s">
+      <c r="K103" s="12"/>
+      <c r="L103" s="17" t="s">
         <v>182</v>
       </c>
       <c r="M103">
@@ -3590,7 +3437,7 @@
       </c>
     </row>
     <row r="104" spans="11:13">
-      <c r="K104" s="16"/>
+      <c r="K104" s="12"/>
       <c r="L104" t="s">
         <v>183</v>
       </c>
@@ -3599,7 +3446,7 @@
       </c>
     </row>
     <row r="105" spans="11:13">
-      <c r="K105" s="16"/>
+      <c r="K105" s="12"/>
       <c r="L105" t="s">
         <v>184</v>
       </c>
@@ -3608,7 +3455,7 @@
       </c>
     </row>
     <row r="106" spans="11:13">
-      <c r="K106" s="16"/>
+      <c r="K106" s="12"/>
       <c r="L106" t="s">
         <v>185</v>
       </c>
@@ -3617,7 +3464,7 @@
       </c>
     </row>
     <row r="107" spans="11:13">
-      <c r="K107" s="16"/>
+      <c r="K107" s="12"/>
       <c r="L107" t="s">
         <v>186</v>
       </c>
@@ -3626,7 +3473,7 @@
       </c>
     </row>
     <row r="108" spans="11:13">
-      <c r="K108" s="16"/>
+      <c r="K108" s="12"/>
       <c r="L108" t="s">
         <v>187</v>
       </c>
@@ -3635,7 +3482,7 @@
       </c>
     </row>
     <row r="109" spans="11:13">
-      <c r="K109" s="16"/>
+      <c r="K109" s="12"/>
       <c r="L109" t="s">
         <v>188</v>
       </c>
@@ -3644,7 +3491,7 @@
       </c>
     </row>
     <row r="110" spans="11:13">
-      <c r="K110" s="16"/>
+      <c r="K110" s="12"/>
       <c r="L110" t="s">
         <v>189</v>
       </c>
@@ -3653,7 +3500,7 @@
       </c>
     </row>
     <row r="111" spans="11:13">
-      <c r="K111" s="16"/>
+      <c r="K111" s="12"/>
       <c r="L111" t="s">
         <v>190</v>
       </c>
@@ -3662,7 +3509,7 @@
       </c>
     </row>
     <row r="112" spans="11:13">
-      <c r="K112" s="16"/>
+      <c r="K112" s="12"/>
       <c r="L112" t="s">
         <v>191</v>
       </c>
@@ -3671,7 +3518,7 @@
       </c>
     </row>
     <row r="113" spans="11:13">
-      <c r="K113" s="16"/>
+      <c r="K113" s="12"/>
       <c r="L113" t="s">
         <v>192</v>
       </c>
@@ -3680,7 +3527,7 @@
       </c>
     </row>
     <row r="114" spans="11:13">
-      <c r="K114" s="16"/>
+      <c r="K114" s="12"/>
       <c r="L114" t="s">
         <v>193</v>
       </c>
@@ -3689,7 +3536,7 @@
       </c>
     </row>
     <row r="115" spans="11:13">
-      <c r="K115" s="16"/>
+      <c r="K115" s="12"/>
       <c r="L115" t="s">
         <v>194</v>
       </c>
@@ -3698,7 +3545,7 @@
       </c>
     </row>
     <row r="116" spans="11:13">
-      <c r="K116" s="16"/>
+      <c r="K116" s="12"/>
       <c r="L116" t="s">
         <v>195</v>
       </c>
@@ -3707,7 +3554,7 @@
       </c>
     </row>
     <row r="117" spans="11:13">
-      <c r="K117" s="16"/>
+      <c r="K117" s="12"/>
       <c r="L117" t="s">
         <v>196</v>
       </c>
@@ -3716,7 +3563,7 @@
       </c>
     </row>
     <row r="118" spans="11:13">
-      <c r="K118" s="16"/>
+      <c r="K118" s="12"/>
       <c r="L118" t="s">
         <v>197</v>
       </c>
@@ -3725,7 +3572,7 @@
       </c>
     </row>
     <row r="119" spans="11:13">
-      <c r="K119" s="16"/>
+      <c r="K119" s="12"/>
       <c r="L119" t="s">
         <v>198</v>
       </c>
@@ -3734,7 +3581,7 @@
       </c>
     </row>
     <row r="120" spans="11:13">
-      <c r="K120" s="16"/>
+      <c r="K120" s="12"/>
       <c r="L120" t="s">
         <v>199</v>
       </c>
@@ -3743,7 +3590,7 @@
       </c>
     </row>
     <row r="121" spans="11:13">
-      <c r="K121" s="16"/>
+      <c r="K121" s="12"/>
       <c r="L121" t="s">
         <v>200</v>
       </c>
@@ -3752,8 +3599,8 @@
       </c>
     </row>
     <row r="122" spans="11:13">
-      <c r="K122" s="16"/>
-      <c r="L122" t="s">
+      <c r="K122" s="12"/>
+      <c r="L122" s="17" t="s">
         <v>201</v>
       </c>
       <c r="M122">
@@ -3761,7 +3608,7 @@
       </c>
     </row>
     <row r="123" spans="11:13">
-      <c r="K123" s="16"/>
+      <c r="K123" s="12"/>
       <c r="L123" t="s">
         <v>202</v>
       </c>
@@ -3770,7 +3617,7 @@
       </c>
     </row>
     <row r="124" spans="11:13">
-      <c r="K124" s="16"/>
+      <c r="K124" s="12"/>
       <c r="L124" t="s">
         <v>203</v>
       </c>
@@ -3779,7 +3626,7 @@
       </c>
     </row>
     <row r="125" spans="11:13">
-      <c r="K125" s="16"/>
+      <c r="K125" s="12"/>
       <c r="L125" t="s">
         <v>204</v>
       </c>
@@ -3788,7 +3635,7 @@
       </c>
     </row>
     <row r="126" spans="11:13">
-      <c r="K126" s="16"/>
+      <c r="K126" s="12"/>
       <c r="L126" t="s">
         <v>205</v>
       </c>
@@ -3797,7 +3644,7 @@
       </c>
     </row>
     <row r="127" spans="11:13">
-      <c r="K127" s="16"/>
+      <c r="K127" s="12"/>
       <c r="L127" t="s">
         <v>206</v>
       </c>
@@ -3806,7 +3653,7 @@
       </c>
     </row>
     <row r="128" spans="11:13">
-      <c r="K128" s="16"/>
+      <c r="K128" s="12"/>
       <c r="L128" t="s">
         <v>207</v>
       </c>
@@ -3815,7 +3662,7 @@
       </c>
     </row>
     <row r="129" spans="11:13">
-      <c r="K129" s="16"/>
+      <c r="K129" s="12"/>
       <c r="L129" t="s">
         <v>208</v>
       </c>
@@ -3824,7 +3671,7 @@
       </c>
     </row>
     <row r="130" spans="11:13">
-      <c r="K130" s="16"/>
+      <c r="K130" s="12"/>
       <c r="L130" t="s">
         <v>209</v>
       </c>
@@ -3833,7 +3680,7 @@
       </c>
     </row>
     <row r="131" spans="11:13">
-      <c r="K131" s="16"/>
+      <c r="K131" s="12"/>
       <c r="L131" t="s">
         <v>210</v>
       </c>
@@ -3842,7 +3689,7 @@
       </c>
     </row>
     <row r="132" spans="11:13">
-      <c r="K132" s="16"/>
+      <c r="K132" s="12"/>
       <c r="L132" t="s">
         <v>211</v>
       </c>
@@ -3851,7 +3698,7 @@
       </c>
     </row>
     <row r="133" spans="11:13">
-      <c r="K133" s="16"/>
+      <c r="K133" s="12"/>
       <c r="L133" t="s">
         <v>212</v>
       </c>
@@ -3860,7 +3707,7 @@
       </c>
     </row>
     <row r="134" spans="11:13">
-      <c r="K134" s="16"/>
+      <c r="K134" s="12"/>
       <c r="L134" t="s">
         <v>213</v>
       </c>
@@ -3869,7 +3716,7 @@
       </c>
     </row>
     <row r="135" spans="11:13">
-      <c r="K135" s="16"/>
+      <c r="K135" s="12"/>
       <c r="L135" t="s">
         <v>214</v>
       </c>
@@ -3878,7 +3725,7 @@
       </c>
     </row>
     <row r="136" spans="11:13">
-      <c r="K136" s="16"/>
+      <c r="K136" s="12"/>
       <c r="L136" t="s">
         <v>215</v>
       </c>
@@ -3887,7 +3734,7 @@
       </c>
     </row>
     <row r="137" spans="11:13">
-      <c r="K137" s="16"/>
+      <c r="K137" s="12"/>
       <c r="L137" t="s">
         <v>216</v>
       </c>
@@ -3896,7 +3743,7 @@
       </c>
     </row>
     <row r="138" spans="11:13">
-      <c r="K138" s="16"/>
+      <c r="K138" s="12"/>
       <c r="L138" t="s">
         <v>217</v>
       </c>
@@ -3905,7 +3752,7 @@
       </c>
     </row>
     <row r="139" spans="11:13">
-      <c r="K139" s="16"/>
+      <c r="K139" s="12"/>
       <c r="L139" t="s">
         <v>218</v>
       </c>
@@ -3914,7 +3761,7 @@
       </c>
     </row>
     <row r="140" spans="11:13">
-      <c r="K140" s="16"/>
+      <c r="K140" s="12"/>
       <c r="L140" t="s">
         <v>219</v>
       </c>
@@ -3923,7 +3770,7 @@
       </c>
     </row>
     <row r="141" spans="11:13">
-      <c r="K141" s="16"/>
+      <c r="K141" s="12"/>
       <c r="L141" t="s">
         <v>220</v>
       </c>
@@ -3932,7 +3779,7 @@
       </c>
     </row>
     <row r="142" spans="11:13">
-      <c r="K142" s="16"/>
+      <c r="K142" s="12"/>
       <c r="L142" t="s">
         <v>221</v>
       </c>
@@ -3941,7 +3788,7 @@
       </c>
     </row>
     <row r="143" spans="11:13">
-      <c r="K143" s="16"/>
+      <c r="K143" s="12"/>
       <c r="L143" t="s">
         <v>222</v>
       </c>
@@ -3950,7 +3797,7 @@
       </c>
     </row>
     <row r="144" spans="11:13">
-      <c r="K144" s="16"/>
+      <c r="K144" s="12"/>
       <c r="L144" t="s">
         <v>223</v>
       </c>
@@ -3959,7 +3806,7 @@
       </c>
     </row>
     <row r="145" spans="11:13">
-      <c r="K145" s="16"/>
+      <c r="K145" s="12"/>
       <c r="L145" t="s">
         <v>224</v>
       </c>
@@ -3968,8 +3815,8 @@
       </c>
     </row>
     <row r="146" spans="11:13">
-      <c r="K146" s="16"/>
-      <c r="L146" t="s">
+      <c r="K146" s="12"/>
+      <c r="L146" s="17" t="s">
         <v>225</v>
       </c>
       <c r="M146">
@@ -3977,7 +3824,7 @@
       </c>
     </row>
     <row r="147" spans="11:13">
-      <c r="K147" s="16"/>
+      <c r="K147" s="12"/>
       <c r="L147" t="s">
         <v>226</v>
       </c>
@@ -3986,14 +3833,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="H35:H36"/>
+  <mergeCells count="12">
     <mergeCell ref="K8:K44"/>
     <mergeCell ref="K45:K147"/>
-    <mergeCell ref="H37:H54"/>
-    <mergeCell ref="H55:H65"/>
-    <mergeCell ref="H66:H77"/>
-    <mergeCell ref="H78:H95"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="H5:J5"/>
@@ -4003,6 +3845,7 @@
     <mergeCell ref="B18:B34"/>
     <mergeCell ref="H21:H34"/>
     <mergeCell ref="E21:E29"/>
+    <mergeCell ref="H35:H90"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4013,7 +3856,7 @@
   <dimension ref="A2:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4030,47 +3873,47 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9">
-      <c r="B2" s="18" t="s">
-        <v>248</v>
-      </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18" t="s">
-        <v>251</v>
-      </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18" t="s">
-        <v>249</v>
-      </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18" t="s">
-        <v>250</v>
-      </c>
-      <c r="I2" s="18"/>
+      <c r="B2" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="I2" s="15"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="B3" s="15">
+      <c r="A3" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="B3" s="14">
         <f>Arkusz1!D4</f>
-        <v>0.68713294180459161</v>
-      </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15">
+        <v>0.66340206185567008</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14">
         <f>Arkusz1!G4</f>
-        <v>0.82167645488521091</v>
-      </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15">
+        <v>0.79329896907216491</v>
+      </c>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14">
         <f>Arkusz1!J4</f>
-        <v>0.81366791243993597</v>
-      </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15">
+        <v>0.92371134020618562</v>
+      </c>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14">
         <f>Arkusz1!M4</f>
-        <v>1.6775226908702616</v>
-      </c>
-      <c r="I3" s="15"/>
+        <v>1.6195876288659794</v>
+      </c>
+      <c r="I3" s="14"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4">
@@ -4082,7 +3925,7 @@
       </c>
       <c r="C4">
         <f>B$3*$A4</f>
-        <v>2.0613988254137747</v>
+        <v>1.9902061855670103</v>
       </c>
       <c r="D4" t="str">
         <f>IF((D$3*$A4)&gt;=3,"Zaliczenie","Warunek")</f>
@@ -4090,7 +3933,7 @@
       </c>
       <c r="E4">
         <f>D$3*$A4</f>
-        <v>2.4650293646556327</v>
+        <v>2.3798969072164948</v>
       </c>
       <c r="F4" t="str">
         <f>IF((F$3*$A4)&gt;=3,"Zaliczenie","Warunek")</f>
@@ -4098,7 +3941,7 @@
       </c>
       <c r="G4">
         <f>F$3*$A4</f>
-        <v>2.4410037373198081</v>
+        <v>2.7711340206185566</v>
       </c>
       <c r="H4" t="str">
         <f>IF((H$3*$A4)&gt;=3,"Zaliczenie","Warunek")</f>
@@ -4106,7 +3949,7 @@
       </c>
       <c r="I4">
         <f>H$3*$A4</f>
-        <v>5.0325680726107844</v>
+        <v>4.8587628865979386</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -4119,7 +3962,7 @@
       </c>
       <c r="C5">
         <f>B$3*$A5</f>
-        <v>2.4049652963160706</v>
+        <v>2.3219072164948451</v>
       </c>
       <c r="D5" t="str">
         <f>IF((D$3*$A5)&gt;=3,"Zaliczenie","Warunek")</f>
@@ -4127,15 +3970,15 @@
       </c>
       <c r="E5">
         <f>D$3*$A5</f>
-        <v>2.8758675920982384</v>
+        <v>2.7765463917525772</v>
       </c>
       <c r="F5" t="str">
         <f>IF((F$3*$A5)&gt;=3,"Zaliczenie","Warunek")</f>
-        <v>Warunek</v>
+        <v>Zaliczenie</v>
       </c>
       <c r="G5">
         <f>F$3*$A5</f>
-        <v>2.847837693539776</v>
+        <v>3.2329896907216495</v>
       </c>
       <c r="H5" t="str">
         <f>IF((H$3*$A5)&gt;=3,"Zaliczenie","Warunek")</f>
@@ -4143,7 +3986,7 @@
       </c>
       <c r="I5">
         <f>H$3*$A5</f>
-        <v>5.8713294180459155</v>
+        <v>5.6685567010309281</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -4156,7 +3999,7 @@
       </c>
       <c r="C6">
         <f>B$3*$A6</f>
-        <v>2.7485317672183665</v>
+        <v>2.6536082474226803</v>
       </c>
       <c r="D6" t="str">
         <f>IF((D$3*$A6)&gt;=3,"Zaliczenie","Warunek")</f>
@@ -4164,7 +4007,7 @@
       </c>
       <c r="E6">
         <f>D$3*$A6</f>
-        <v>3.2867058195408436</v>
+        <v>3.1731958762886596</v>
       </c>
       <c r="F6" t="str">
         <f>IF((F$3*$A6)&gt;=3,"Zaliczenie","Warunek")</f>
@@ -4172,7 +4015,7 @@
       </c>
       <c r="G6">
         <f>F$3*$A6</f>
-        <v>3.2546716497597439</v>
+        <v>3.6948453608247425</v>
       </c>
       <c r="H6" t="str">
         <f>IF((H$3*$A6)&gt;=3,"Zaliczenie","Warunek")</f>
@@ -4180,7 +4023,7 @@
       </c>
       <c r="I6">
         <f>H$3*$A6</f>
-        <v>6.7100907634810465</v>
+        <v>6.4783505154639176</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -4189,11 +4032,11 @@
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
-        <v>Zaliczenie</v>
+        <v>Warunek</v>
       </c>
       <c r="C7">
         <f>B$3*$A7</f>
-        <v>3.0920982381206623</v>
+        <v>2.9853092783505155</v>
       </c>
       <c r="D7" t="str">
         <f>IF((D$3*$A7)&gt;=3,"Zaliczenie","Warunek")</f>
@@ -4201,7 +4044,7 @@
       </c>
       <c r="E7">
         <f>D$3*$A7</f>
-        <v>3.6975440469834489</v>
+        <v>3.569845360824742</v>
       </c>
       <c r="F7" t="str">
         <f>IF((F$3*$A7)&gt;=3,"Zaliczenie","Warunek")</f>
@@ -4209,7 +4052,7 @@
       </c>
       <c r="G7">
         <f>F$3*$A7</f>
-        <v>3.6615056059797118</v>
+        <v>4.1567010309278354</v>
       </c>
       <c r="H7" t="str">
         <f>IF((H$3*$A7)&gt;=3,"Zaliczenie","Warunek")</f>
@@ -4217,7 +4060,7 @@
       </c>
       <c r="I7">
         <f>H$3*$A7</f>
-        <v>7.5488521089161775</v>
+        <v>7.2881443298969071</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -4230,7 +4073,7 @@
       </c>
       <c r="C8">
         <f>B$3*$A8</f>
-        <v>3.4356647090229582</v>
+        <v>3.3170103092783503</v>
       </c>
       <c r="D8" t="str">
         <f>IF((D$3*$A8)&gt;=3,"Zaliczenie","Warunek")</f>
@@ -4238,7 +4081,7 @@
       </c>
       <c r="E8">
         <f>D$3*$A8</f>
-        <v>4.1083822744260541</v>
+        <v>3.9664948453608244</v>
       </c>
       <c r="F8" t="str">
         <f>IF((F$3*$A8)&gt;=3,"Zaliczenie","Warunek")</f>
@@ -4246,7 +4089,7 @@
       </c>
       <c r="G8">
         <f>F$3*$A8</f>
-        <v>4.0683395621996796</v>
+        <v>4.6185567010309283</v>
       </c>
       <c r="H8" t="str">
         <f>IF((H$3*$A8)&gt;=3,"Zaliczenie","Warunek")</f>
@@ -4254,7 +4097,7 @@
       </c>
       <c r="I8">
         <f>H$3*$A8</f>
-        <v>8.3876134543513086</v>
+        <v>8.0979381443298966</v>
       </c>
     </row>
   </sheetData>

--- a/Raport.xlsx
+++ b/Raport.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dominik\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\majer\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB5FD51-A441-4621-BBE6-EA7B98F53F4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F2D5D08-DB8E-43B8-973D-462389DA1EC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="273">
   <si>
     <t>Liczba członków zespołu</t>
   </si>
@@ -809,6 +809,48 @@
   </si>
   <si>
     <t>zrobione na nowo/tokyo-garden-frontend/src/style.css</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/TokyoGarden.Tests/TokyoGarden.Api.Tests/MoreControllersTests.cs</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/TokyoGarden.Tests/TokyoGarden.Api.Tests/PozycjeMenuControllerQueryTests.cs</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/TokyoGarden.Tests/TokyoGarden.Api.Tests/TokyoGarden.Api.Tests.csproj</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/TokyoGarden.Tests/TokyoGarden.Api.Tests/ZamowieniaControllerTests.cs</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/TokyoGarden.Tests/TokyoGarden.BL.Tests/MoreBLTests.cs</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/TokyoGarden.Tests/TokyoGarden.BL.Tests/PozycjeMenuServiceManualDoublesTests.cs</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/TokyoGarden.Tests/TokyoGarden.BL.Tests/TokyoGarden.BL.Tests.csproj</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/TokyoGarden.Tests/TokyoGarden.BL.Tests/UzytkownikAndPozycjeZamowieniaTests.cs</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/TokyoGarden.Tests/TokyoGarden.BL.Tests/ZamowieniaServiceMoqTests.cs</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/TokyoGarden.Tests/TokyoGarden.DAL.Tests/OtherRepositoriesInMemoryTests.cs</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/TokyoGarden.Tests/TokyoGarden.DAL.Tests/PozycjeMenuRepositoryQueryTests.cs</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/TokyoGarden.Tests/TokyoGarden.DAL.Tests/RepositoryInMemoryTests.cs</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/TokyoGarden.Tests/TokyoGarden.DAL.Tests/TokyoGarden.DAL.Tests.csproj</t>
+  </si>
+  <si>
+    <t>zrobione na nowo/TokyoGarden.Tests/TokyoGarden.DAL.Tests/ZamowieniaRepositoryInMemoryTests.cs</t>
   </si>
 </sst>
 </file>
@@ -953,6 +995,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -964,12 +1012,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1461,15 +1503,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I139" sqref="I139"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C53" sqref="C52:C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="39.85546875" customWidth="1"/>
     <col min="2" max="2" width="12.5703125" customWidth="1"/>
-    <col min="3" max="3" width="39.5703125" customWidth="1"/>
+    <col min="3" max="3" width="97" customWidth="1"/>
     <col min="4" max="5" width="12.5703125" customWidth="1"/>
     <col min="6" max="6" width="37" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="12.5703125" customWidth="1"/>
@@ -1499,7 +1541,7 @@
       <c r="B3" s="1"/>
       <c r="D3">
         <f>SUM(D7:D1001)</f>
-        <v>1287</v>
+        <v>2034</v>
       </c>
       <c r="G3">
         <f>SUM(G7:G1001)</f>
@@ -1521,42 +1563,42 @@
       <c r="B4" s="1"/>
       <c r="D4">
         <f>($B$2*D$3)/SUM($D$3:$AK$3)</f>
-        <v>0.66340206185567008</v>
+        <v>0.95638885623604086</v>
       </c>
       <c r="G4">
         <f>($B$2*G$3)/SUM($D$3:$AK$3)</f>
-        <v>0.79329896907216491</v>
+        <v>0.72363935582461503</v>
       </c>
       <c r="J4">
         <f>($B$2*J$3)/SUM($D$3:$AK$3)</f>
-        <v>0.92371134020618562</v>
+        <v>0.84260021159045495</v>
       </c>
       <c r="M4">
         <f>($B$2*M$3)/SUM($D$3:$AK$3)</f>
-        <v>1.6195876288659794</v>
+        <v>1.477371576348889</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="14" t="s">
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14" t="s">
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14" t="s">
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
     </row>
     <row r="6" spans="1:13">
       <c r="B6" t="s">
@@ -1662,7 +1704,7 @@
       <c r="J8">
         <v>100</v>
       </c>
-      <c r="K8" s="12">
+      <c r="K8" s="14">
         <v>45772</v>
       </c>
       <c r="L8" t="s">
@@ -1673,7 +1715,7 @@
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="B9" s="12">
+      <c r="B9" s="14">
         <v>45785</v>
       </c>
       <c r="C9" t="s">
@@ -1700,7 +1742,7 @@
       <c r="J9">
         <v>118</v>
       </c>
-      <c r="K9" s="12"/>
+      <c r="K9" s="14"/>
       <c r="L9" s="5" t="s">
         <v>17</v>
       </c>
@@ -1709,7 +1751,7 @@
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="B10" s="12"/>
+      <c r="B10" s="14"/>
       <c r="C10" t="s">
         <v>64</v>
       </c>
@@ -1722,7 +1764,7 @@
       <c r="G10">
         <v>57</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="14">
         <v>45803</v>
       </c>
       <c r="I10" t="s">
@@ -1731,7 +1773,7 @@
       <c r="J10">
         <v>70</v>
       </c>
-      <c r="K10" s="12"/>
+      <c r="K10" s="14"/>
       <c r="L10" t="s">
         <v>18</v>
       </c>
@@ -1740,7 +1782,7 @@
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="B11" s="12"/>
+      <c r="B11" s="14"/>
       <c r="C11" t="s">
         <v>65</v>
       </c>
@@ -1753,14 +1795,14 @@
       <c r="G11">
         <v>59</v>
       </c>
-      <c r="H11" s="12"/>
+      <c r="H11" s="14"/>
       <c r="I11" t="s">
         <v>75</v>
       </c>
       <c r="J11">
         <v>23</v>
       </c>
-      <c r="K11" s="12"/>
+      <c r="K11" s="14"/>
       <c r="L11" t="s">
         <v>19</v>
       </c>
@@ -1769,7 +1811,7 @@
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="B12" s="12"/>
+      <c r="B12" s="14"/>
       <c r="C12" t="s">
         <v>66</v>
       </c>
@@ -1782,14 +1824,14 @@
       <c r="G12">
         <v>58</v>
       </c>
-      <c r="H12" s="12"/>
+      <c r="H12" s="14"/>
       <c r="I12" t="s">
         <v>77</v>
       </c>
       <c r="J12">
         <v>23</v>
       </c>
-      <c r="K12" s="12"/>
+      <c r="K12" s="14"/>
       <c r="L12" t="s">
         <v>20</v>
       </c>
@@ -1798,7 +1840,7 @@
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="B13" s="12"/>
+      <c r="B13" s="14"/>
       <c r="C13" t="s">
         <v>67</v>
       </c>
@@ -1811,14 +1853,14 @@
       <c r="G13">
         <v>57</v>
       </c>
-      <c r="H13" s="12"/>
+      <c r="H13" s="14"/>
       <c r="I13" t="s">
         <v>76</v>
       </c>
       <c r="J13">
         <v>27</v>
       </c>
-      <c r="K13" s="12"/>
+      <c r="K13" s="14"/>
       <c r="L13" s="5" t="s">
         <v>21</v>
       </c>
@@ -1827,7 +1869,7 @@
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="B14" s="12"/>
+      <c r="B14" s="14"/>
       <c r="C14" t="s">
         <v>68</v>
       </c>
@@ -1840,14 +1882,14 @@
       <c r="G14">
         <v>61</v>
       </c>
-      <c r="H14" s="12"/>
+      <c r="H14" s="14"/>
       <c r="I14" t="s">
         <v>74</v>
       </c>
       <c r="J14">
         <v>24</v>
       </c>
-      <c r="K14" s="12"/>
+      <c r="K14" s="14"/>
       <c r="L14" t="s">
         <v>22</v>
       </c>
@@ -1856,7 +1898,7 @@
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="B15" s="12"/>
+      <c r="B15" s="14"/>
       <c r="C15" t="s">
         <v>69</v>
       </c>
@@ -1869,14 +1911,14 @@
       <c r="G15">
         <v>60</v>
       </c>
-      <c r="H15" s="12"/>
+      <c r="H15" s="14"/>
       <c r="I15" t="s">
         <v>78</v>
       </c>
       <c r="J15">
         <v>27</v>
       </c>
-      <c r="K15" s="12"/>
+      <c r="K15" s="14"/>
       <c r="L15" s="5" t="s">
         <v>23</v>
       </c>
@@ -1885,7 +1927,7 @@
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="B16" s="12"/>
+      <c r="B16" s="14"/>
       <c r="C16" t="s">
         <v>70</v>
       </c>
@@ -1898,14 +1940,14 @@
       <c r="G16">
         <v>16</v>
       </c>
-      <c r="H16" s="12"/>
+      <c r="H16" s="14"/>
       <c r="I16" t="s">
         <v>79</v>
       </c>
       <c r="J16">
         <v>27</v>
       </c>
-      <c r="K16" s="12"/>
+      <c r="K16" s="14"/>
       <c r="L16" t="s">
         <v>24</v>
       </c>
@@ -1914,7 +1956,7 @@
       </c>
     </row>
     <row r="17" spans="2:13">
-      <c r="B17" s="12"/>
+      <c r="B17" s="14"/>
       <c r="C17" t="s">
         <v>71</v>
       </c>
@@ -1927,14 +1969,14 @@
       <c r="G17">
         <v>59</v>
       </c>
-      <c r="H17" s="12"/>
+      <c r="H17" s="14"/>
       <c r="I17" t="s">
         <v>80</v>
       </c>
       <c r="J17">
         <v>27</v>
       </c>
-      <c r="K17" s="12"/>
+      <c r="K17" s="14"/>
       <c r="L17" t="s">
         <v>25</v>
       </c>
@@ -1943,7 +1985,7 @@
       </c>
     </row>
     <row r="18" spans="2:13">
-      <c r="B18" s="12">
+      <c r="B18" s="14">
         <v>45803</v>
       </c>
       <c r="C18" t="s">
@@ -1958,14 +2000,14 @@
       <c r="G18">
         <v>64</v>
       </c>
-      <c r="H18" s="12"/>
+      <c r="H18" s="14"/>
       <c r="I18" t="s">
         <v>81</v>
       </c>
       <c r="J18">
         <v>27</v>
       </c>
-      <c r="K18" s="12"/>
+      <c r="K18" s="14"/>
       <c r="L18" t="s">
         <v>26</v>
       </c>
@@ -1974,21 +2016,21 @@
       </c>
     </row>
     <row r="19" spans="2:13">
-      <c r="B19" s="12"/>
+      <c r="B19" s="14"/>
       <c r="C19" t="s">
         <v>85</v>
       </c>
       <c r="D19">
         <v>144</v>
       </c>
-      <c r="H19" s="12"/>
+      <c r="H19" s="14"/>
       <c r="I19" t="s">
         <v>82</v>
       </c>
       <c r="J19">
         <v>28</v>
       </c>
-      <c r="K19" s="12"/>
+      <c r="K19" s="14"/>
       <c r="L19" t="s">
         <v>27</v>
       </c>
@@ -1997,21 +2039,21 @@
       </c>
     </row>
     <row r="20" spans="2:13">
-      <c r="B20" s="12"/>
+      <c r="B20" s="14"/>
       <c r="C20" t="s">
         <v>86</v>
       </c>
       <c r="D20">
         <v>164</v>
       </c>
-      <c r="H20" s="12"/>
+      <c r="H20" s="14"/>
       <c r="I20" t="s">
         <v>83</v>
       </c>
       <c r="J20">
         <v>34</v>
       </c>
-      <c r="K20" s="12"/>
+      <c r="K20" s="14"/>
       <c r="L20" t="s">
         <v>28</v>
       </c>
@@ -2020,14 +2062,14 @@
       </c>
     </row>
     <row r="21" spans="2:13">
-      <c r="B21" s="12"/>
+      <c r="B21" s="14"/>
       <c r="C21" t="s">
         <v>87</v>
       </c>
       <c r="D21">
         <v>58</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="14">
         <v>45804</v>
       </c>
       <c r="F21" t="s">
@@ -2036,7 +2078,7 @@
       <c r="G21">
         <v>81</v>
       </c>
-      <c r="H21" s="12">
+      <c r="H21" s="14">
         <v>45817</v>
       </c>
       <c r="I21" s="10" t="s">
@@ -2045,7 +2087,7 @@
       <c r="J21" s="6">
         <v>3</v>
       </c>
-      <c r="K21" s="12"/>
+      <c r="K21" s="14"/>
       <c r="L21" t="s">
         <v>29</v>
       </c>
@@ -2054,28 +2096,28 @@
       </c>
     </row>
     <row r="22" spans="2:13">
-      <c r="B22" s="12"/>
+      <c r="B22" s="14"/>
       <c r="C22" t="s">
         <v>88</v>
       </c>
       <c r="D22">
         <v>92</v>
       </c>
-      <c r="E22" s="14"/>
+      <c r="E22" s="16"/>
       <c r="F22" t="s">
         <v>102</v>
       </c>
       <c r="G22">
         <v>69</v>
       </c>
-      <c r="H22" s="12"/>
+      <c r="H22" s="14"/>
       <c r="I22" t="s">
         <v>111</v>
       </c>
       <c r="J22" s="6">
         <v>6</v>
       </c>
-      <c r="K22" s="12"/>
+      <c r="K22" s="14"/>
       <c r="L22" t="s">
         <v>30</v>
       </c>
@@ -2084,28 +2126,28 @@
       </c>
     </row>
     <row r="23" spans="2:13">
-      <c r="B23" s="12"/>
+      <c r="B23" s="14"/>
       <c r="C23" t="s">
         <v>89</v>
       </c>
       <c r="D23">
         <v>64</v>
       </c>
-      <c r="E23" s="14"/>
+      <c r="E23" s="16"/>
       <c r="F23" t="s">
         <v>103</v>
       </c>
       <c r="G23">
         <v>75</v>
       </c>
-      <c r="H23" s="12"/>
+      <c r="H23" s="14"/>
       <c r="I23" t="s">
         <v>112</v>
       </c>
       <c r="J23" s="6">
         <v>3</v>
       </c>
-      <c r="K23" s="12"/>
+      <c r="K23" s="14"/>
       <c r="L23" t="s">
         <v>31</v>
       </c>
@@ -2114,28 +2156,28 @@
       </c>
     </row>
     <row r="24" spans="2:13">
-      <c r="B24" s="12"/>
+      <c r="B24" s="14"/>
       <c r="C24" t="s">
         <v>90</v>
       </c>
       <c r="D24">
         <v>20</v>
       </c>
-      <c r="E24" s="14"/>
+      <c r="E24" s="16"/>
       <c r="F24" t="s">
         <v>104</v>
       </c>
       <c r="G24">
         <v>126</v>
       </c>
-      <c r="H24" s="12"/>
+      <c r="H24" s="14"/>
       <c r="I24" t="s">
         <v>113</v>
       </c>
       <c r="J24" s="6">
         <v>6</v>
       </c>
-      <c r="K24" s="12"/>
+      <c r="K24" s="14"/>
       <c r="L24" t="s">
         <v>32</v>
       </c>
@@ -2144,28 +2186,28 @@
       </c>
     </row>
     <row r="25" spans="2:13">
-      <c r="B25" s="12"/>
+      <c r="B25" s="14"/>
       <c r="C25" t="s">
         <v>91</v>
       </c>
       <c r="D25">
         <v>57</v>
       </c>
-      <c r="E25" s="14"/>
+      <c r="E25" s="16"/>
       <c r="F25" t="s">
         <v>105</v>
       </c>
       <c r="G25">
         <v>65</v>
       </c>
-      <c r="H25" s="12"/>
+      <c r="H25" s="14"/>
       <c r="I25" t="s">
         <v>114</v>
       </c>
       <c r="J25" s="6">
         <v>4</v>
       </c>
-      <c r="K25" s="12"/>
+      <c r="K25" s="14"/>
       <c r="L25" t="s">
         <v>33</v>
       </c>
@@ -2174,28 +2216,28 @@
       </c>
     </row>
     <row r="26" spans="2:13">
-      <c r="B26" s="12"/>
+      <c r="B26" s="14"/>
       <c r="C26" t="s">
         <v>92</v>
       </c>
       <c r="D26">
         <v>28</v>
       </c>
-      <c r="E26" s="14"/>
+      <c r="E26" s="16"/>
       <c r="F26" t="s">
         <v>106</v>
       </c>
       <c r="G26">
         <v>82</v>
       </c>
-      <c r="H26" s="12"/>
+      <c r="H26" s="14"/>
       <c r="I26" s="10" t="s">
         <v>115</v>
       </c>
       <c r="J26" s="6">
         <v>2</v>
       </c>
-      <c r="K26" s="12"/>
+      <c r="K26" s="14"/>
       <c r="L26" t="s">
         <v>34</v>
       </c>
@@ -2204,28 +2246,28 @@
       </c>
     </row>
     <row r="27" spans="2:13">
-      <c r="B27" s="12"/>
+      <c r="B27" s="14"/>
       <c r="C27" t="s">
         <v>93</v>
       </c>
       <c r="D27">
         <v>26</v>
       </c>
-      <c r="E27" s="14"/>
+      <c r="E27" s="16"/>
       <c r="F27" t="s">
         <v>107</v>
       </c>
       <c r="G27">
         <v>75</v>
       </c>
-      <c r="H27" s="12"/>
+      <c r="H27" s="14"/>
       <c r="I27" t="s">
         <v>116</v>
       </c>
       <c r="J27" s="6">
         <v>8</v>
       </c>
-      <c r="K27" s="12"/>
+      <c r="K27" s="14"/>
       <c r="L27" t="s">
         <v>35</v>
       </c>
@@ -2234,28 +2276,28 @@
       </c>
     </row>
     <row r="28" spans="2:13">
-      <c r="B28" s="12"/>
+      <c r="B28" s="14"/>
       <c r="C28" t="s">
         <v>94</v>
       </c>
       <c r="D28">
         <v>16</v>
       </c>
-      <c r="E28" s="14"/>
+      <c r="E28" s="16"/>
       <c r="F28" t="s">
         <v>108</v>
       </c>
       <c r="G28">
         <v>266</v>
       </c>
-      <c r="H28" s="12"/>
+      <c r="H28" s="14"/>
       <c r="I28" t="s">
         <v>117</v>
       </c>
       <c r="J28" s="6">
         <v>3</v>
       </c>
-      <c r="K28" s="12"/>
+      <c r="K28" s="14"/>
       <c r="L28" t="s">
         <v>36</v>
       </c>
@@ -2264,28 +2306,28 @@
       </c>
     </row>
     <row r="29" spans="2:13">
-      <c r="B29" s="12"/>
+      <c r="B29" s="14"/>
       <c r="C29" t="s">
         <v>95</v>
       </c>
       <c r="D29">
         <v>18</v>
       </c>
-      <c r="E29" s="14"/>
+      <c r="E29" s="16"/>
       <c r="F29" t="s">
         <v>109</v>
       </c>
       <c r="G29">
         <v>71</v>
       </c>
-      <c r="H29" s="12"/>
+      <c r="H29" s="14"/>
       <c r="I29" t="s">
         <v>118</v>
       </c>
       <c r="J29" s="6">
         <v>12</v>
       </c>
-      <c r="K29" s="12"/>
+      <c r="K29" s="14"/>
       <c r="L29" t="s">
         <v>37</v>
       </c>
@@ -2294,21 +2336,21 @@
       </c>
     </row>
     <row r="30" spans="2:13">
-      <c r="B30" s="12"/>
+      <c r="B30" s="14"/>
       <c r="C30" t="s">
         <v>96</v>
       </c>
       <c r="D30">
         <v>15</v>
       </c>
-      <c r="H30" s="12"/>
+      <c r="H30" s="14"/>
       <c r="I30" t="s">
         <v>119</v>
       </c>
       <c r="J30" s="6">
         <v>3</v>
       </c>
-      <c r="K30" s="12"/>
+      <c r="K30" s="14"/>
       <c r="L30" t="s">
         <v>38</v>
       </c>
@@ -2317,21 +2359,21 @@
       </c>
     </row>
     <row r="31" spans="2:13">
-      <c r="B31" s="12"/>
+      <c r="B31" s="14"/>
       <c r="C31" t="s">
         <v>97</v>
       </c>
       <c r="D31">
         <v>17</v>
       </c>
-      <c r="H31" s="12"/>
+      <c r="H31" s="14"/>
       <c r="I31" t="s">
         <v>120</v>
       </c>
       <c r="J31" s="6">
         <v>6</v>
       </c>
-      <c r="K31" s="12"/>
+      <c r="K31" s="14"/>
       <c r="L31" t="s">
         <v>39</v>
       </c>
@@ -2340,21 +2382,21 @@
       </c>
     </row>
     <row r="32" spans="2:13">
-      <c r="B32" s="12"/>
+      <c r="B32" s="14"/>
       <c r="C32" t="s">
         <v>98</v>
       </c>
       <c r="D32">
         <v>44</v>
       </c>
-      <c r="H32" s="12"/>
+      <c r="H32" s="14"/>
       <c r="I32" t="s">
         <v>121</v>
       </c>
       <c r="J32" s="6">
         <v>2</v>
       </c>
-      <c r="K32" s="12"/>
+      <c r="K32" s="14"/>
       <c r="L32" s="5" t="s">
         <v>40</v>
       </c>
@@ -2363,21 +2405,21 @@
       </c>
     </row>
     <row r="33" spans="2:13">
-      <c r="B33" s="12"/>
+      <c r="B33" s="14"/>
       <c r="C33" t="s">
         <v>99</v>
       </c>
       <c r="D33">
         <v>43</v>
       </c>
-      <c r="H33" s="12"/>
+      <c r="H33" s="14"/>
       <c r="I33" t="s">
         <v>122</v>
       </c>
       <c r="J33" s="6">
         <v>4</v>
       </c>
-      <c r="K33" s="12"/>
+      <c r="K33" s="14"/>
       <c r="L33" t="s">
         <v>41</v>
       </c>
@@ -2386,21 +2428,21 @@
       </c>
     </row>
     <row r="34" spans="2:13">
-      <c r="B34" s="12"/>
+      <c r="B34" s="14"/>
       <c r="C34" t="s">
         <v>100</v>
       </c>
       <c r="D34">
         <v>28</v>
       </c>
-      <c r="H34" s="12"/>
+      <c r="H34" s="14"/>
       <c r="I34" t="s">
         <v>123</v>
       </c>
       <c r="J34" s="6">
         <v>8</v>
       </c>
-      <c r="K34" s="12"/>
+      <c r="K34" s="14"/>
       <c r="L34" t="s">
         <v>42</v>
       </c>
@@ -2409,16 +2451,25 @@
       </c>
     </row>
     <row r="35" spans="2:13">
-      <c r="H35" s="12">
+      <c r="B35" s="14">
+        <v>45907</v>
+      </c>
+      <c r="C35" t="s">
+        <v>259</v>
+      </c>
+      <c r="D35">
+        <v>65</v>
+      </c>
+      <c r="H35" s="14">
         <v>45906</v>
       </c>
-      <c r="I35" s="16" t="s">
+      <c r="I35" s="12" t="s">
         <v>124</v>
       </c>
       <c r="J35" s="6">
         <v>17</v>
       </c>
-      <c r="K35" s="12"/>
+      <c r="K35" s="14"/>
       <c r="L35" t="s">
         <v>43</v>
       </c>
@@ -2427,14 +2478,21 @@
       </c>
     </row>
     <row r="36" spans="2:13">
-      <c r="H36" s="12"/>
+      <c r="B36" s="16"/>
+      <c r="C36" t="s">
+        <v>260</v>
+      </c>
+      <c r="D36">
+        <v>54</v>
+      </c>
+      <c r="H36" s="14"/>
       <c r="I36" s="7" t="s">
         <v>125</v>
       </c>
       <c r="J36" s="6">
         <v>8</v>
       </c>
-      <c r="K36" s="12"/>
+      <c r="K36" s="14"/>
       <c r="L36" t="s">
         <v>44</v>
       </c>
@@ -2443,14 +2501,21 @@
       </c>
     </row>
     <row r="37" spans="2:13">
-      <c r="H37" s="12"/>
+      <c r="B37" s="16"/>
+      <c r="C37" t="s">
+        <v>261</v>
+      </c>
+      <c r="D37">
+        <v>23</v>
+      </c>
+      <c r="H37" s="14"/>
       <c r="I37" t="s">
         <v>127</v>
       </c>
       <c r="J37" s="6">
         <v>9</v>
       </c>
-      <c r="K37" s="12"/>
+      <c r="K37" s="14"/>
       <c r="L37" t="s">
         <v>45</v>
       </c>
@@ -2459,14 +2524,21 @@
       </c>
     </row>
     <row r="38" spans="2:13">
-      <c r="H38" s="12"/>
+      <c r="B38" s="16"/>
+      <c r="C38" t="s">
+        <v>262</v>
+      </c>
+      <c r="D38">
+        <v>60</v>
+      </c>
+      <c r="H38" s="14"/>
       <c r="I38" t="s">
         <v>128</v>
       </c>
       <c r="J38" s="6">
         <v>36</v>
       </c>
-      <c r="K38" s="12"/>
+      <c r="K38" s="14"/>
       <c r="L38" t="s">
         <v>46</v>
       </c>
@@ -2475,14 +2547,21 @@
       </c>
     </row>
     <row r="39" spans="2:13">
-      <c r="H39" s="12"/>
+      <c r="B39" s="16"/>
+      <c r="C39" t="s">
+        <v>263</v>
+      </c>
+      <c r="D39">
+        <v>55</v>
+      </c>
+      <c r="H39" s="14"/>
       <c r="I39" t="s">
         <v>129</v>
       </c>
       <c r="J39" s="6">
         <v>9</v>
       </c>
-      <c r="K39" s="12"/>
+      <c r="K39" s="14"/>
       <c r="L39" t="s">
         <v>47</v>
       </c>
@@ -2491,14 +2570,21 @@
       </c>
     </row>
     <row r="40" spans="2:13">
-      <c r="H40" s="12"/>
+      <c r="B40" s="16"/>
+      <c r="C40" t="s">
+        <v>264</v>
+      </c>
+      <c r="D40">
+        <v>87</v>
+      </c>
+      <c r="H40" s="14"/>
       <c r="I40" t="s">
         <v>130</v>
       </c>
       <c r="J40" s="6">
         <v>37</v>
       </c>
-      <c r="K40" s="12"/>
+      <c r="K40" s="14"/>
       <c r="L40" s="5" t="s">
         <v>48</v>
       </c>
@@ -2507,14 +2593,21 @@
       </c>
     </row>
     <row r="41" spans="2:13">
-      <c r="H41" s="12"/>
+      <c r="B41" s="16"/>
+      <c r="C41" t="s">
+        <v>265</v>
+      </c>
+      <c r="D41">
+        <v>23</v>
+      </c>
+      <c r="H41" s="14"/>
       <c r="I41" t="s">
         <v>131</v>
       </c>
       <c r="J41" s="6">
         <v>67</v>
       </c>
-      <c r="K41" s="12"/>
+      <c r="K41" s="14"/>
       <c r="L41" s="5" t="s">
         <v>49</v>
       </c>
@@ -2523,14 +2616,21 @@
       </c>
     </row>
     <row r="42" spans="2:13">
-      <c r="H42" s="12"/>
+      <c r="B42" s="16"/>
+      <c r="C42" t="s">
+        <v>266</v>
+      </c>
+      <c r="D42">
+        <v>55</v>
+      </c>
+      <c r="H42" s="14"/>
       <c r="I42" t="s">
         <v>134</v>
       </c>
       <c r="J42" s="6">
         <v>1</v>
       </c>
-      <c r="K42" s="12"/>
+      <c r="K42" s="14"/>
       <c r="L42" t="s">
         <v>50</v>
       </c>
@@ -2539,14 +2639,21 @@
       </c>
     </row>
     <row r="43" spans="2:13">
-      <c r="H43" s="12"/>
+      <c r="B43" s="16"/>
+      <c r="C43" t="s">
+        <v>267</v>
+      </c>
+      <c r="D43">
+        <v>60</v>
+      </c>
+      <c r="H43" s="14"/>
       <c r="I43" t="s">
         <v>139</v>
       </c>
       <c r="J43" s="6">
         <v>9</v>
       </c>
-      <c r="K43" s="12"/>
+      <c r="K43" s="14"/>
       <c r="L43" t="s">
         <v>51</v>
       </c>
@@ -2555,14 +2662,21 @@
       </c>
     </row>
     <row r="44" spans="2:13">
-      <c r="H44" s="12"/>
+      <c r="B44" s="16"/>
+      <c r="C44" t="s">
+        <v>268</v>
+      </c>
+      <c r="D44">
+        <v>57</v>
+      </c>
+      <c r="H44" s="14"/>
       <c r="I44" t="s">
         <v>140</v>
       </c>
       <c r="J44" s="6">
         <v>21</v>
       </c>
-      <c r="K44" s="12"/>
+      <c r="K44" s="14"/>
       <c r="L44" t="s">
         <v>52</v>
       </c>
@@ -2571,17 +2685,24 @@
       </c>
     </row>
     <row r="45" spans="2:13">
-      <c r="H45" s="12"/>
+      <c r="B45" s="16"/>
+      <c r="C45" t="s">
+        <v>269</v>
+      </c>
+      <c r="D45">
+        <v>61</v>
+      </c>
+      <c r="H45" s="14"/>
       <c r="I45" t="s">
         <v>147</v>
       </c>
       <c r="J45" s="6">
         <v>2</v>
       </c>
-      <c r="K45" s="12">
+      <c r="K45" s="14">
         <v>45898</v>
       </c>
-      <c r="L45" s="16" t="s">
+      <c r="L45" s="12" t="s">
         <v>124</v>
       </c>
       <c r="M45">
@@ -2589,14 +2710,21 @@
       </c>
     </row>
     <row r="46" spans="2:13">
-      <c r="H46" s="12"/>
-      <c r="I46" s="17" t="s">
+      <c r="B46" s="16"/>
+      <c r="C46" t="s">
+        <v>270</v>
+      </c>
+      <c r="D46">
+        <v>69</v>
+      </c>
+      <c r="H46" s="14"/>
+      <c r="I46" s="13" t="s">
         <v>225</v>
       </c>
       <c r="J46" s="6">
         <v>1</v>
       </c>
-      <c r="K46" s="12"/>
+      <c r="K46" s="14"/>
       <c r="L46" s="7" t="s">
         <v>125</v>
       </c>
@@ -2605,14 +2733,21 @@
       </c>
     </row>
     <row r="47" spans="2:13">
-      <c r="H47" s="12"/>
-      <c r="I47" s="17" t="s">
+      <c r="B47" s="16"/>
+      <c r="C47" t="s">
+        <v>271</v>
+      </c>
+      <c r="D47">
+        <v>23</v>
+      </c>
+      <c r="H47" s="14"/>
+      <c r="I47" s="13" t="s">
         <v>258</v>
       </c>
       <c r="J47" s="6">
         <v>15</v>
       </c>
-      <c r="K47" s="12"/>
+      <c r="K47" s="14"/>
       <c r="L47" t="s">
         <v>126</v>
       </c>
@@ -2621,14 +2756,21 @@
       </c>
     </row>
     <row r="48" spans="2:13">
-      <c r="H48" s="12"/>
-      <c r="I48" s="17" t="s">
+      <c r="B48" s="16"/>
+      <c r="C48" t="s">
+        <v>272</v>
+      </c>
+      <c r="D48">
+        <v>55</v>
+      </c>
+      <c r="H48" s="14"/>
+      <c r="I48" s="13" t="s">
         <v>250</v>
       </c>
       <c r="J48" s="6">
         <v>5</v>
       </c>
-      <c r="K48" s="12"/>
+      <c r="K48" s="14"/>
       <c r="L48" t="s">
         <v>127</v>
       </c>
@@ -2637,14 +2779,14 @@
       </c>
     </row>
     <row r="49" spans="8:13">
-      <c r="H49" s="12"/>
-      <c r="I49" s="17" t="s">
+      <c r="H49" s="14"/>
+      <c r="I49" s="13" t="s">
         <v>251</v>
       </c>
       <c r="J49" s="6">
         <v>5</v>
       </c>
-      <c r="K49" s="12"/>
+      <c r="K49" s="14"/>
       <c r="L49" t="s">
         <v>128</v>
       </c>
@@ -2653,14 +2795,14 @@
       </c>
     </row>
     <row r="50" spans="8:13">
-      <c r="H50" s="12"/>
-      <c r="I50" s="17" t="s">
+      <c r="H50" s="14"/>
+      <c r="I50" s="13" t="s">
         <v>232</v>
       </c>
       <c r="J50" s="6">
         <v>45</v>
       </c>
-      <c r="K50" s="12"/>
+      <c r="K50" s="14"/>
       <c r="L50" t="s">
         <v>129</v>
       </c>
@@ -2669,14 +2811,14 @@
       </c>
     </row>
     <row r="51" spans="8:13">
-      <c r="H51" s="12"/>
-      <c r="I51" s="17" t="s">
+      <c r="H51" s="14"/>
+      <c r="I51" s="13" t="s">
         <v>233</v>
       </c>
       <c r="J51" s="11">
         <v>24</v>
       </c>
-      <c r="K51" s="12"/>
+      <c r="K51" s="14"/>
       <c r="L51" t="s">
         <v>130</v>
       </c>
@@ -2685,14 +2827,14 @@
       </c>
     </row>
     <row r="52" spans="8:13">
-      <c r="H52" s="12"/>
-      <c r="I52" s="17" t="s">
+      <c r="H52" s="14"/>
+      <c r="I52" s="13" t="s">
         <v>234</v>
       </c>
       <c r="J52" s="6">
         <v>26</v>
       </c>
-      <c r="K52" s="12"/>
+      <c r="K52" s="14"/>
       <c r="L52" t="s">
         <v>131</v>
       </c>
@@ -2701,14 +2843,14 @@
       </c>
     </row>
     <row r="53" spans="8:13">
-      <c r="H53" s="12"/>
-      <c r="I53" s="17" t="s">
+      <c r="H53" s="14"/>
+      <c r="I53" s="13" t="s">
         <v>235</v>
       </c>
       <c r="J53" s="9">
         <v>1</v>
       </c>
-      <c r="K53" s="12"/>
+      <c r="K53" s="14"/>
       <c r="L53" s="8" t="s">
         <v>132</v>
       </c>
@@ -2717,14 +2859,14 @@
       </c>
     </row>
     <row r="54" spans="8:13">
-      <c r="H54" s="12"/>
-      <c r="I54" s="17" t="s">
+      <c r="H54" s="14"/>
+      <c r="I54" s="13" t="s">
         <v>236</v>
       </c>
       <c r="J54" s="6">
         <v>18</v>
       </c>
-      <c r="K54" s="12"/>
+      <c r="K54" s="14"/>
       <c r="L54" t="s">
         <v>133</v>
       </c>
@@ -2733,14 +2875,14 @@
       </c>
     </row>
     <row r="55" spans="8:13">
-      <c r="H55" s="12"/>
-      <c r="I55" s="17" t="s">
+      <c r="H55" s="14"/>
+      <c r="I55" s="13" t="s">
         <v>237</v>
       </c>
       <c r="J55" s="6">
         <v>1</v>
       </c>
-      <c r="K55" s="12"/>
+      <c r="K55" s="14"/>
       <c r="L55" t="s">
         <v>134</v>
       </c>
@@ -2749,14 +2891,14 @@
       </c>
     </row>
     <row r="56" spans="8:13">
-      <c r="H56" s="12"/>
-      <c r="I56" s="17" t="s">
+      <c r="H56" s="14"/>
+      <c r="I56" s="13" t="s">
         <v>238</v>
       </c>
       <c r="J56" s="10">
         <v>32</v>
       </c>
-      <c r="K56" s="12"/>
+      <c r="K56" s="14"/>
       <c r="L56" t="s">
         <v>135</v>
       </c>
@@ -2765,14 +2907,14 @@
       </c>
     </row>
     <row r="57" spans="8:13">
-      <c r="H57" s="12"/>
-      <c r="I57" s="17" t="s">
+      <c r="H57" s="14"/>
+      <c r="I57" s="13" t="s">
         <v>239</v>
       </c>
       <c r="J57" s="11">
         <v>1</v>
       </c>
-      <c r="K57" s="12"/>
+      <c r="K57" s="14"/>
       <c r="L57" t="s">
         <v>136</v>
       </c>
@@ -2781,14 +2923,14 @@
       </c>
     </row>
     <row r="58" spans="8:13">
-      <c r="H58" s="12"/>
-      <c r="I58" s="17" t="s">
+      <c r="H58" s="14"/>
+      <c r="I58" s="13" t="s">
         <v>240</v>
       </c>
       <c r="J58" s="11">
         <v>18</v>
       </c>
-      <c r="K58" s="12"/>
+      <c r="K58" s="14"/>
       <c r="L58" t="s">
         <v>137</v>
       </c>
@@ -2797,14 +2939,14 @@
       </c>
     </row>
     <row r="59" spans="8:13">
-      <c r="H59" s="12"/>
-      <c r="I59" s="17" t="s">
+      <c r="H59" s="14"/>
+      <c r="I59" s="13" t="s">
         <v>241</v>
       </c>
       <c r="J59" s="10">
         <v>1</v>
       </c>
-      <c r="K59" s="12"/>
+      <c r="K59" s="14"/>
       <c r="L59" t="s">
         <v>138</v>
       </c>
@@ -2813,14 +2955,14 @@
       </c>
     </row>
     <row r="60" spans="8:13">
-      <c r="H60" s="12"/>
-      <c r="I60" s="17" t="s">
+      <c r="H60" s="14"/>
+      <c r="I60" s="13" t="s">
         <v>242</v>
       </c>
       <c r="J60" s="10">
         <v>14</v>
       </c>
-      <c r="K60" s="12"/>
+      <c r="K60" s="14"/>
       <c r="L60" t="s">
         <v>139</v>
       </c>
@@ -2829,14 +2971,14 @@
       </c>
     </row>
     <row r="61" spans="8:13">
-      <c r="H61" s="12"/>
-      <c r="I61" s="17" t="s">
+      <c r="H61" s="14"/>
+      <c r="I61" s="13" t="s">
         <v>243</v>
       </c>
       <c r="J61" s="11">
         <v>2</v>
       </c>
-      <c r="K61" s="12"/>
+      <c r="K61" s="14"/>
       <c r="L61" t="s">
         <v>140</v>
       </c>
@@ -2845,14 +2987,14 @@
       </c>
     </row>
     <row r="62" spans="8:13">
-      <c r="H62" s="12"/>
-      <c r="I62" s="17" t="s">
+      <c r="H62" s="14"/>
+      <c r="I62" s="13" t="s">
         <v>244</v>
       </c>
       <c r="J62" s="11">
         <v>17</v>
       </c>
-      <c r="K62" s="12"/>
+      <c r="K62" s="14"/>
       <c r="L62" t="s">
         <v>141</v>
       </c>
@@ -2861,14 +3003,14 @@
       </c>
     </row>
     <row r="63" spans="8:13">
-      <c r="H63" s="12"/>
-      <c r="I63" s="17" t="s">
+      <c r="H63" s="14"/>
+      <c r="I63" s="13" t="s">
         <v>245</v>
       </c>
       <c r="J63" s="11">
         <v>1</v>
       </c>
-      <c r="K63" s="12"/>
+      <c r="K63" s="14"/>
       <c r="L63" t="s">
         <v>142</v>
       </c>
@@ -2877,14 +3019,14 @@
       </c>
     </row>
     <row r="64" spans="8:13">
-      <c r="H64" s="12"/>
-      <c r="I64" s="17" t="s">
+      <c r="H64" s="14"/>
+      <c r="I64" s="13" t="s">
         <v>246</v>
       </c>
       <c r="J64" s="11">
         <v>12</v>
       </c>
-      <c r="K64" s="12"/>
+      <c r="K64" s="14"/>
       <c r="L64" t="s">
         <v>143</v>
       </c>
@@ -2893,14 +3035,14 @@
       </c>
     </row>
     <row r="65" spans="8:13">
-      <c r="H65" s="12"/>
-      <c r="I65" s="17" t="s">
+      <c r="H65" s="14"/>
+      <c r="I65" s="13" t="s">
         <v>247</v>
       </c>
       <c r="J65" s="11">
         <v>43</v>
       </c>
-      <c r="K65" s="12"/>
+      <c r="K65" s="14"/>
       <c r="L65" t="s">
         <v>144</v>
       </c>
@@ -2909,14 +3051,14 @@
       </c>
     </row>
     <row r="66" spans="8:13">
-      <c r="H66" s="12"/>
-      <c r="I66" s="17" t="s">
+      <c r="H66" s="14"/>
+      <c r="I66" s="13" t="s">
         <v>248</v>
       </c>
       <c r="J66" s="11">
         <v>53</v>
       </c>
-      <c r="K66" s="12"/>
+      <c r="K66" s="14"/>
       <c r="L66" t="s">
         <v>145</v>
       </c>
@@ -2925,14 +3067,14 @@
       </c>
     </row>
     <row r="67" spans="8:13">
-      <c r="H67" s="12"/>
-      <c r="I67" s="17" t="s">
+      <c r="H67" s="14"/>
+      <c r="I67" s="13" t="s">
         <v>249</v>
       </c>
       <c r="J67" s="11">
         <v>66</v>
       </c>
-      <c r="K67" s="12"/>
+      <c r="K67" s="14"/>
       <c r="L67" t="s">
         <v>146</v>
       </c>
@@ -2941,14 +3083,14 @@
       </c>
     </row>
     <row r="68" spans="8:13">
-      <c r="H68" s="12"/>
-      <c r="I68" s="17" t="s">
+      <c r="H68" s="14"/>
+      <c r="I68" s="13" t="s">
         <v>252</v>
       </c>
       <c r="J68" s="11">
         <v>13</v>
       </c>
-      <c r="K68" s="12"/>
+      <c r="K68" s="14"/>
       <c r="L68" t="s">
         <v>147</v>
       </c>
@@ -2957,14 +3099,14 @@
       </c>
     </row>
     <row r="69" spans="8:13">
-      <c r="H69" s="12"/>
-      <c r="I69" s="17" t="s">
+      <c r="H69" s="14"/>
+      <c r="I69" s="13" t="s">
         <v>203</v>
       </c>
       <c r="J69" s="11">
         <v>10</v>
       </c>
-      <c r="K69" s="12"/>
+      <c r="K69" s="14"/>
       <c r="L69" t="s">
         <v>148</v>
       </c>
@@ -2973,14 +3115,14 @@
       </c>
     </row>
     <row r="70" spans="8:13">
-      <c r="H70" s="12"/>
-      <c r="I70" s="17" t="s">
+      <c r="H70" s="14"/>
+      <c r="I70" s="13" t="s">
         <v>204</v>
       </c>
       <c r="J70" s="11">
         <v>40</v>
       </c>
-      <c r="K70" s="12"/>
+      <c r="K70" s="14"/>
       <c r="L70" t="s">
         <v>149</v>
       </c>
@@ -2989,14 +3131,14 @@
       </c>
     </row>
     <row r="71" spans="8:13">
-      <c r="H71" s="12"/>
-      <c r="I71" s="17" t="s">
+      <c r="H71" s="14"/>
+      <c r="I71" s="13" t="s">
         <v>253</v>
       </c>
       <c r="J71" s="11">
         <v>15</v>
       </c>
-      <c r="K71" s="12"/>
+      <c r="K71" s="14"/>
       <c r="L71" t="s">
         <v>150</v>
       </c>
@@ -3005,14 +3147,14 @@
       </c>
     </row>
     <row r="72" spans="8:13">
-      <c r="H72" s="12"/>
-      <c r="I72" s="17" t="s">
+      <c r="H72" s="14"/>
+      <c r="I72" s="13" t="s">
         <v>208</v>
       </c>
       <c r="J72" s="11">
         <v>8</v>
       </c>
-      <c r="K72" s="12"/>
+      <c r="K72" s="14"/>
       <c r="L72" t="s">
         <v>151</v>
       </c>
@@ -3021,14 +3163,14 @@
       </c>
     </row>
     <row r="73" spans="8:13">
-      <c r="H73" s="12"/>
-      <c r="I73" s="17" t="s">
+      <c r="H73" s="14"/>
+      <c r="I73" s="13" t="s">
         <v>209</v>
       </c>
       <c r="J73" s="11">
         <v>19</v>
       </c>
-      <c r="K73" s="12"/>
+      <c r="K73" s="14"/>
       <c r="L73" t="s">
         <v>152</v>
       </c>
@@ -3037,14 +3179,14 @@
       </c>
     </row>
     <row r="74" spans="8:13">
-      <c r="H74" s="12"/>
-      <c r="I74" s="17" t="s">
+      <c r="H74" s="14"/>
+      <c r="I74" s="13" t="s">
         <v>210</v>
       </c>
       <c r="J74" s="11">
         <v>14</v>
       </c>
-      <c r="K74" s="12"/>
+      <c r="K74" s="14"/>
       <c r="L74" t="s">
         <v>153</v>
       </c>
@@ -3053,14 +3195,14 @@
       </c>
     </row>
     <row r="75" spans="8:13">
-      <c r="H75" s="12"/>
+      <c r="H75" s="14"/>
       <c r="I75" t="s">
         <v>211</v>
       </c>
       <c r="J75" s="11">
         <v>2</v>
       </c>
-      <c r="K75" s="12"/>
+      <c r="K75" s="14"/>
       <c r="L75" t="s">
         <v>154</v>
       </c>
@@ -3069,14 +3211,14 @@
       </c>
     </row>
     <row r="76" spans="8:13">
-      <c r="H76" s="12"/>
+      <c r="H76" s="14"/>
       <c r="I76" t="s">
         <v>212</v>
       </c>
       <c r="J76" s="11">
         <v>22</v>
       </c>
-      <c r="K76" s="12"/>
+      <c r="K76" s="14"/>
       <c r="L76" t="s">
         <v>155</v>
       </c>
@@ -3085,14 +3227,14 @@
       </c>
     </row>
     <row r="77" spans="8:13">
-      <c r="H77" s="12"/>
-      <c r="I77" s="17" t="s">
+      <c r="H77" s="14"/>
+      <c r="I77" s="13" t="s">
         <v>213</v>
       </c>
       <c r="J77" s="11">
         <v>11</v>
       </c>
-      <c r="K77" s="12"/>
+      <c r="K77" s="14"/>
       <c r="L77" t="s">
         <v>156</v>
       </c>
@@ -3101,14 +3243,14 @@
       </c>
     </row>
     <row r="78" spans="8:13">
-      <c r="H78" s="12"/>
+      <c r="H78" s="14"/>
       <c r="I78" t="s">
         <v>214</v>
       </c>
       <c r="J78" s="11">
         <v>9</v>
       </c>
-      <c r="K78" s="12"/>
+      <c r="K78" s="14"/>
       <c r="L78" t="s">
         <v>157</v>
       </c>
@@ -3117,14 +3259,14 @@
       </c>
     </row>
     <row r="79" spans="8:13">
-      <c r="H79" s="12"/>
+      <c r="H79" s="14"/>
       <c r="I79" t="s">
         <v>215</v>
       </c>
       <c r="J79" s="11">
         <v>33</v>
       </c>
-      <c r="K79" s="12"/>
+      <c r="K79" s="14"/>
       <c r="L79" t="s">
         <v>158</v>
       </c>
@@ -3133,14 +3275,14 @@
       </c>
     </row>
     <row r="80" spans="8:13">
-      <c r="H80" s="12"/>
-      <c r="I80" s="17" t="s">
+      <c r="H80" s="14"/>
+      <c r="I80" s="13" t="s">
         <v>218</v>
       </c>
       <c r="J80" s="11">
         <v>15</v>
       </c>
-      <c r="K80" s="12"/>
+      <c r="K80" s="14"/>
       <c r="L80" t="s">
         <v>159</v>
       </c>
@@ -3149,14 +3291,14 @@
       </c>
     </row>
     <row r="81" spans="8:13">
-      <c r="H81" s="12"/>
-      <c r="I81" s="17" t="s">
+      <c r="H81" s="14"/>
+      <c r="I81" s="13" t="s">
         <v>254</v>
       </c>
       <c r="J81" s="11">
         <v>7</v>
       </c>
-      <c r="K81" s="12"/>
+      <c r="K81" s="14"/>
       <c r="L81" s="8" t="s">
         <v>160</v>
       </c>
@@ -3165,14 +3307,14 @@
       </c>
     </row>
     <row r="82" spans="8:13">
-      <c r="H82" s="12"/>
-      <c r="I82" s="17" t="s">
+      <c r="H82" s="14"/>
+      <c r="I82" s="13" t="s">
         <v>219</v>
       </c>
       <c r="J82" s="11">
         <v>12</v>
       </c>
-      <c r="K82" s="12"/>
+      <c r="K82" s="14"/>
       <c r="L82" t="s">
         <v>161</v>
       </c>
@@ -3181,14 +3323,14 @@
       </c>
     </row>
     <row r="83" spans="8:13">
-      <c r="H83" s="12"/>
-      <c r="I83" s="17" t="s">
+      <c r="H83" s="14"/>
+      <c r="I83" s="13" t="s">
         <v>220</v>
       </c>
       <c r="J83" s="11">
         <v>107</v>
       </c>
-      <c r="K83" s="12"/>
+      <c r="K83" s="14"/>
       <c r="L83" t="s">
         <v>162</v>
       </c>
@@ -3197,14 +3339,14 @@
       </c>
     </row>
     <row r="84" spans="8:13">
-      <c r="H84" s="12"/>
-      <c r="I84" s="17" t="s">
+      <c r="H84" s="14"/>
+      <c r="I84" s="13" t="s">
         <v>222</v>
       </c>
       <c r="J84" s="11">
         <v>12</v>
       </c>
-      <c r="K84" s="12"/>
+      <c r="K84" s="14"/>
       <c r="L84" t="s">
         <v>163</v>
       </c>
@@ -3213,14 +3355,14 @@
       </c>
     </row>
     <row r="85" spans="8:13">
-      <c r="H85" s="12"/>
+      <c r="H85" s="14"/>
       <c r="I85" t="s">
         <v>223</v>
       </c>
       <c r="J85" s="11">
         <v>6</v>
       </c>
-      <c r="K85" s="12"/>
+      <c r="K85" s="14"/>
       <c r="L85" t="s">
         <v>164</v>
       </c>
@@ -3229,14 +3371,14 @@
       </c>
     </row>
     <row r="86" spans="8:13">
-      <c r="H86" s="12"/>
-      <c r="I86" s="17" t="s">
+      <c r="H86" s="14"/>
+      <c r="I86" s="13" t="s">
         <v>224</v>
       </c>
       <c r="J86" s="11">
         <v>24</v>
       </c>
-      <c r="K86" s="12"/>
+      <c r="K86" s="14"/>
       <c r="L86" t="s">
         <v>165</v>
       </c>
@@ -3245,14 +3387,14 @@
       </c>
     </row>
     <row r="87" spans="8:13">
-      <c r="H87" s="12"/>
-      <c r="I87" s="17" t="s">
+      <c r="H87" s="14"/>
+      <c r="I87" s="13" t="s">
         <v>255</v>
       </c>
       <c r="J87" s="11">
         <v>64</v>
       </c>
-      <c r="K87" s="12"/>
+      <c r="K87" s="14"/>
       <c r="L87" t="s">
         <v>166</v>
       </c>
@@ -3261,14 +3403,14 @@
       </c>
     </row>
     <row r="88" spans="8:13">
-      <c r="H88" s="12"/>
-      <c r="I88" s="17" t="s">
+      <c r="H88" s="14"/>
+      <c r="I88" s="13" t="s">
         <v>256</v>
       </c>
       <c r="J88" s="11">
         <v>38</v>
       </c>
-      <c r="K88" s="12"/>
+      <c r="K88" s="14"/>
       <c r="L88" t="s">
         <v>167</v>
       </c>
@@ -3277,14 +3419,14 @@
       </c>
     </row>
     <row r="89" spans="8:13">
-      <c r="H89" s="12"/>
-      <c r="I89" s="17" t="s">
+      <c r="H89" s="14"/>
+      <c r="I89" s="13" t="s">
         <v>257</v>
       </c>
       <c r="J89" s="11">
         <v>42</v>
       </c>
-      <c r="K89" s="12"/>
+      <c r="K89" s="14"/>
       <c r="L89" t="s">
         <v>168</v>
       </c>
@@ -3293,14 +3435,14 @@
       </c>
     </row>
     <row r="90" spans="8:13">
-      <c r="H90" s="12"/>
+      <c r="H90" s="14"/>
       <c r="I90" t="s">
         <v>196</v>
       </c>
       <c r="J90" s="11">
         <v>2</v>
       </c>
-      <c r="K90" s="12"/>
+      <c r="K90" s="14"/>
       <c r="L90" t="s">
         <v>169</v>
       </c>
@@ -3311,7 +3453,7 @@
     <row r="91" spans="8:13">
       <c r="H91" s="3"/>
       <c r="J91" s="6"/>
-      <c r="K91" s="12"/>
+      <c r="K91" s="14"/>
       <c r="L91" t="s">
         <v>170</v>
       </c>
@@ -3322,7 +3464,7 @@
     <row r="92" spans="8:13">
       <c r="H92" s="3"/>
       <c r="J92" s="6"/>
-      <c r="K92" s="12"/>
+      <c r="K92" s="14"/>
       <c r="L92" t="s">
         <v>171</v>
       </c>
@@ -3333,7 +3475,7 @@
     <row r="93" spans="8:13">
       <c r="H93" s="3"/>
       <c r="J93" s="6"/>
-      <c r="K93" s="12"/>
+      <c r="K93" s="14"/>
       <c r="L93" t="s">
         <v>172</v>
       </c>
@@ -3344,7 +3486,7 @@
     <row r="94" spans="8:13">
       <c r="H94" s="3"/>
       <c r="J94" s="6"/>
-      <c r="K94" s="12"/>
+      <c r="K94" s="14"/>
       <c r="L94" t="s">
         <v>173</v>
       </c>
@@ -3355,7 +3497,7 @@
     <row r="95" spans="8:13">
       <c r="H95" s="3"/>
       <c r="J95" s="6"/>
-      <c r="K95" s="12"/>
+      <c r="K95" s="14"/>
       <c r="L95" t="s">
         <v>174</v>
       </c>
@@ -3365,7 +3507,7 @@
     </row>
     <row r="96" spans="8:13">
       <c r="H96" s="3"/>
-      <c r="K96" s="12"/>
+      <c r="K96" s="14"/>
       <c r="L96" t="s">
         <v>175</v>
       </c>
@@ -3374,7 +3516,7 @@
       </c>
     </row>
     <row r="97" spans="11:13">
-      <c r="K97" s="12"/>
+      <c r="K97" s="14"/>
       <c r="L97" t="s">
         <v>176</v>
       </c>
@@ -3383,7 +3525,7 @@
       </c>
     </row>
     <row r="98" spans="11:13">
-      <c r="K98" s="12"/>
+      <c r="K98" s="14"/>
       <c r="L98" t="s">
         <v>177</v>
       </c>
@@ -3392,7 +3534,7 @@
       </c>
     </row>
     <row r="99" spans="11:13">
-      <c r="K99" s="12"/>
+      <c r="K99" s="14"/>
       <c r="L99" t="s">
         <v>178</v>
       </c>
@@ -3401,7 +3543,7 @@
       </c>
     </row>
     <row r="100" spans="11:13">
-      <c r="K100" s="12"/>
+      <c r="K100" s="14"/>
       <c r="L100" t="s">
         <v>179</v>
       </c>
@@ -3410,7 +3552,7 @@
       </c>
     </row>
     <row r="101" spans="11:13">
-      <c r="K101" s="12"/>
+      <c r="K101" s="14"/>
       <c r="L101" t="s">
         <v>180</v>
       </c>
@@ -3419,7 +3561,7 @@
       </c>
     </row>
     <row r="102" spans="11:13">
-      <c r="K102" s="12"/>
+      <c r="K102" s="14"/>
       <c r="L102" t="s">
         <v>181</v>
       </c>
@@ -3428,8 +3570,8 @@
       </c>
     </row>
     <row r="103" spans="11:13">
-      <c r="K103" s="12"/>
-      <c r="L103" s="17" t="s">
+      <c r="K103" s="14"/>
+      <c r="L103" s="13" t="s">
         <v>182</v>
       </c>
       <c r="M103">
@@ -3437,7 +3579,7 @@
       </c>
     </row>
     <row r="104" spans="11:13">
-      <c r="K104" s="12"/>
+      <c r="K104" s="14"/>
       <c r="L104" t="s">
         <v>183</v>
       </c>
@@ -3446,7 +3588,7 @@
       </c>
     </row>
     <row r="105" spans="11:13">
-      <c r="K105" s="12"/>
+      <c r="K105" s="14"/>
       <c r="L105" t="s">
         <v>184</v>
       </c>
@@ -3455,7 +3597,7 @@
       </c>
     </row>
     <row r="106" spans="11:13">
-      <c r="K106" s="12"/>
+      <c r="K106" s="14"/>
       <c r="L106" t="s">
         <v>185</v>
       </c>
@@ -3464,7 +3606,7 @@
       </c>
     </row>
     <row r="107" spans="11:13">
-      <c r="K107" s="12"/>
+      <c r="K107" s="14"/>
       <c r="L107" t="s">
         <v>186</v>
       </c>
@@ -3473,7 +3615,7 @@
       </c>
     </row>
     <row r="108" spans="11:13">
-      <c r="K108" s="12"/>
+      <c r="K108" s="14"/>
       <c r="L108" t="s">
         <v>187</v>
       </c>
@@ -3482,7 +3624,7 @@
       </c>
     </row>
     <row r="109" spans="11:13">
-      <c r="K109" s="12"/>
+      <c r="K109" s="14"/>
       <c r="L109" t="s">
         <v>188</v>
       </c>
@@ -3491,7 +3633,7 @@
       </c>
     </row>
     <row r="110" spans="11:13">
-      <c r="K110" s="12"/>
+      <c r="K110" s="14"/>
       <c r="L110" t="s">
         <v>189</v>
       </c>
@@ -3500,7 +3642,7 @@
       </c>
     </row>
     <row r="111" spans="11:13">
-      <c r="K111" s="12"/>
+      <c r="K111" s="14"/>
       <c r="L111" t="s">
         <v>190</v>
       </c>
@@ -3509,7 +3651,7 @@
       </c>
     </row>
     <row r="112" spans="11:13">
-      <c r="K112" s="12"/>
+      <c r="K112" s="14"/>
       <c r="L112" t="s">
         <v>191</v>
       </c>
@@ -3518,7 +3660,7 @@
       </c>
     </row>
     <row r="113" spans="11:13">
-      <c r="K113" s="12"/>
+      <c r="K113" s="14"/>
       <c r="L113" t="s">
         <v>192</v>
       </c>
@@ -3527,7 +3669,7 @@
       </c>
     </row>
     <row r="114" spans="11:13">
-      <c r="K114" s="12"/>
+      <c r="K114" s="14"/>
       <c r="L114" t="s">
         <v>193</v>
       </c>
@@ -3536,7 +3678,7 @@
       </c>
     </row>
     <row r="115" spans="11:13">
-      <c r="K115" s="12"/>
+      <c r="K115" s="14"/>
       <c r="L115" t="s">
         <v>194</v>
       </c>
@@ -3545,7 +3687,7 @@
       </c>
     </row>
     <row r="116" spans="11:13">
-      <c r="K116" s="12"/>
+      <c r="K116" s="14"/>
       <c r="L116" t="s">
         <v>195</v>
       </c>
@@ -3554,7 +3696,7 @@
       </c>
     </row>
     <row r="117" spans="11:13">
-      <c r="K117" s="12"/>
+      <c r="K117" s="14"/>
       <c r="L117" t="s">
         <v>196</v>
       </c>
@@ -3563,7 +3705,7 @@
       </c>
     </row>
     <row r="118" spans="11:13">
-      <c r="K118" s="12"/>
+      <c r="K118" s="14"/>
       <c r="L118" t="s">
         <v>197</v>
       </c>
@@ -3572,7 +3714,7 @@
       </c>
     </row>
     <row r="119" spans="11:13">
-      <c r="K119" s="12"/>
+      <c r="K119" s="14"/>
       <c r="L119" t="s">
         <v>198</v>
       </c>
@@ -3581,7 +3723,7 @@
       </c>
     </row>
     <row r="120" spans="11:13">
-      <c r="K120" s="12"/>
+      <c r="K120" s="14"/>
       <c r="L120" t="s">
         <v>199</v>
       </c>
@@ -3590,7 +3732,7 @@
       </c>
     </row>
     <row r="121" spans="11:13">
-      <c r="K121" s="12"/>
+      <c r="K121" s="14"/>
       <c r="L121" t="s">
         <v>200</v>
       </c>
@@ -3599,8 +3741,8 @@
       </c>
     </row>
     <row r="122" spans="11:13">
-      <c r="K122" s="12"/>
-      <c r="L122" s="17" t="s">
+      <c r="K122" s="14"/>
+      <c r="L122" s="13" t="s">
         <v>201</v>
       </c>
       <c r="M122">
@@ -3608,7 +3750,7 @@
       </c>
     </row>
     <row r="123" spans="11:13">
-      <c r="K123" s="12"/>
+      <c r="K123" s="14"/>
       <c r="L123" t="s">
         <v>202</v>
       </c>
@@ -3617,7 +3759,7 @@
       </c>
     </row>
     <row r="124" spans="11:13">
-      <c r="K124" s="12"/>
+      <c r="K124" s="14"/>
       <c r="L124" t="s">
         <v>203</v>
       </c>
@@ -3626,7 +3768,7 @@
       </c>
     </row>
     <row r="125" spans="11:13">
-      <c r="K125" s="12"/>
+      <c r="K125" s="14"/>
       <c r="L125" t="s">
         <v>204</v>
       </c>
@@ -3635,7 +3777,7 @@
       </c>
     </row>
     <row r="126" spans="11:13">
-      <c r="K126" s="12"/>
+      <c r="K126" s="14"/>
       <c r="L126" t="s">
         <v>205</v>
       </c>
@@ -3644,7 +3786,7 @@
       </c>
     </row>
     <row r="127" spans="11:13">
-      <c r="K127" s="12"/>
+      <c r="K127" s="14"/>
       <c r="L127" t="s">
         <v>206</v>
       </c>
@@ -3653,7 +3795,7 @@
       </c>
     </row>
     <row r="128" spans="11:13">
-      <c r="K128" s="12"/>
+      <c r="K128" s="14"/>
       <c r="L128" t="s">
         <v>207</v>
       </c>
@@ -3662,7 +3804,7 @@
       </c>
     </row>
     <row r="129" spans="11:13">
-      <c r="K129" s="12"/>
+      <c r="K129" s="14"/>
       <c r="L129" t="s">
         <v>208</v>
       </c>
@@ -3671,7 +3813,7 @@
       </c>
     </row>
     <row r="130" spans="11:13">
-      <c r="K130" s="12"/>
+      <c r="K130" s="14"/>
       <c r="L130" t="s">
         <v>209</v>
       </c>
@@ -3680,7 +3822,7 @@
       </c>
     </row>
     <row r="131" spans="11:13">
-      <c r="K131" s="12"/>
+      <c r="K131" s="14"/>
       <c r="L131" t="s">
         <v>210</v>
       </c>
@@ -3689,7 +3831,7 @@
       </c>
     </row>
     <row r="132" spans="11:13">
-      <c r="K132" s="12"/>
+      <c r="K132" s="14"/>
       <c r="L132" t="s">
         <v>211</v>
       </c>
@@ -3698,7 +3840,7 @@
       </c>
     </row>
     <row r="133" spans="11:13">
-      <c r="K133" s="12"/>
+      <c r="K133" s="14"/>
       <c r="L133" t="s">
         <v>212</v>
       </c>
@@ -3707,7 +3849,7 @@
       </c>
     </row>
     <row r="134" spans="11:13">
-      <c r="K134" s="12"/>
+      <c r="K134" s="14"/>
       <c r="L134" t="s">
         <v>213</v>
       </c>
@@ -3716,7 +3858,7 @@
       </c>
     </row>
     <row r="135" spans="11:13">
-      <c r="K135" s="12"/>
+      <c r="K135" s="14"/>
       <c r="L135" t="s">
         <v>214</v>
       </c>
@@ -3725,7 +3867,7 @@
       </c>
     </row>
     <row r="136" spans="11:13">
-      <c r="K136" s="12"/>
+      <c r="K136" s="14"/>
       <c r="L136" t="s">
         <v>215</v>
       </c>
@@ -3734,7 +3876,7 @@
       </c>
     </row>
     <row r="137" spans="11:13">
-      <c r="K137" s="12"/>
+      <c r="K137" s="14"/>
       <c r="L137" t="s">
         <v>216</v>
       </c>
@@ -3743,7 +3885,7 @@
       </c>
     </row>
     <row r="138" spans="11:13">
-      <c r="K138" s="12"/>
+      <c r="K138" s="14"/>
       <c r="L138" t="s">
         <v>217</v>
       </c>
@@ -3752,7 +3894,7 @@
       </c>
     </row>
     <row r="139" spans="11:13">
-      <c r="K139" s="12"/>
+      <c r="K139" s="14"/>
       <c r="L139" t="s">
         <v>218</v>
       </c>
@@ -3761,7 +3903,7 @@
       </c>
     </row>
     <row r="140" spans="11:13">
-      <c r="K140" s="12"/>
+      <c r="K140" s="14"/>
       <c r="L140" t="s">
         <v>219</v>
       </c>
@@ -3770,7 +3912,7 @@
       </c>
     </row>
     <row r="141" spans="11:13">
-      <c r="K141" s="12"/>
+      <c r="K141" s="14"/>
       <c r="L141" t="s">
         <v>220</v>
       </c>
@@ -3779,7 +3921,7 @@
       </c>
     </row>
     <row r="142" spans="11:13">
-      <c r="K142" s="12"/>
+      <c r="K142" s="14"/>
       <c r="L142" t="s">
         <v>221</v>
       </c>
@@ -3788,7 +3930,7 @@
       </c>
     </row>
     <row r="143" spans="11:13">
-      <c r="K143" s="12"/>
+      <c r="K143" s="14"/>
       <c r="L143" t="s">
         <v>222</v>
       </c>
@@ -3797,7 +3939,7 @@
       </c>
     </row>
     <row r="144" spans="11:13">
-      <c r="K144" s="12"/>
+      <c r="K144" s="14"/>
       <c r="L144" t="s">
         <v>223</v>
       </c>
@@ -3806,7 +3948,7 @@
       </c>
     </row>
     <row r="145" spans="11:13">
-      <c r="K145" s="12"/>
+      <c r="K145" s="14"/>
       <c r="L145" t="s">
         <v>224</v>
       </c>
@@ -3815,8 +3957,8 @@
       </c>
     </row>
     <row r="146" spans="11:13">
-      <c r="K146" s="12"/>
-      <c r="L146" s="17" t="s">
+      <c r="K146" s="14"/>
+      <c r="L146" s="13" t="s">
         <v>225</v>
       </c>
       <c r="M146">
@@ -3824,7 +3966,7 @@
       </c>
     </row>
     <row r="147" spans="11:13">
-      <c r="K147" s="12"/>
+      <c r="K147" s="14"/>
       <c r="L147" t="s">
         <v>226</v>
       </c>
@@ -3833,7 +3975,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
     <mergeCell ref="K8:K44"/>
     <mergeCell ref="K45:K147"/>
     <mergeCell ref="B5:D5"/>
@@ -3846,6 +3988,7 @@
     <mergeCell ref="H21:H34"/>
     <mergeCell ref="E21:E29"/>
     <mergeCell ref="H35:H90"/>
+    <mergeCell ref="B35:B48"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3873,47 +4016,47 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15" t="s">
+      <c r="E2" s="17"/>
+      <c r="F2" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15" t="s">
+      <c r="G2" s="17"/>
+      <c r="H2" s="17" t="s">
         <v>229</v>
       </c>
-      <c r="I2" s="15"/>
+      <c r="I2" s="17"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="16">
         <f>Arkusz1!D4</f>
-        <v>0.66340206185567008</v>
-      </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14">
+        <v>0.95638885623604086</v>
+      </c>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16">
         <f>Arkusz1!G4</f>
-        <v>0.79329896907216491</v>
-      </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14">
+        <v>0.72363935582461503</v>
+      </c>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16">
         <f>Arkusz1!J4</f>
-        <v>0.92371134020618562</v>
-      </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14">
+        <v>0.84260021159045495</v>
+      </c>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16">
         <f>Arkusz1!M4</f>
-        <v>1.6195876288659794</v>
-      </c>
-      <c r="I3" s="14"/>
+        <v>1.477371576348889</v>
+      </c>
+      <c r="I3" s="16"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4">
@@ -3925,7 +4068,7 @@
       </c>
       <c r="C4">
         <f>B$3*$A4</f>
-        <v>1.9902061855670103</v>
+        <v>2.8691665687081227</v>
       </c>
       <c r="D4" t="str">
         <f>IF((D$3*$A4)&gt;=3,"Zaliczenie","Warunek")</f>
@@ -3933,7 +4076,7 @@
       </c>
       <c r="E4">
         <f>D$3*$A4</f>
-        <v>2.3798969072164948</v>
+        <v>2.1709180674738451</v>
       </c>
       <c r="F4" t="str">
         <f>IF((F$3*$A4)&gt;=3,"Zaliczenie","Warunek")</f>
@@ -3941,7 +4084,7 @@
       </c>
       <c r="G4">
         <f>F$3*$A4</f>
-        <v>2.7711340206185566</v>
+        <v>2.5278006347713649</v>
       </c>
       <c r="H4" t="str">
         <f>IF((H$3*$A4)&gt;=3,"Zaliczenie","Warunek")</f>
@@ -3949,7 +4092,7 @@
       </c>
       <c r="I4">
         <f>H$3*$A4</f>
-        <v>4.8587628865979386</v>
+        <v>4.4321147290466669</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3958,11 +4101,11 @@
       </c>
       <c r="B5" t="str">
         <f t="shared" ref="B5:B8" si="0">IF((B$3*$A5)&gt;=3,"Zaliczenie","Warunek")</f>
-        <v>Warunek</v>
+        <v>Zaliczenie</v>
       </c>
       <c r="C5">
         <f>B$3*$A5</f>
-        <v>2.3219072164948451</v>
+        <v>3.3473609968261431</v>
       </c>
       <c r="D5" t="str">
         <f>IF((D$3*$A5)&gt;=3,"Zaliczenie","Warunek")</f>
@@ -3970,15 +4113,15 @@
       </c>
       <c r="E5">
         <f>D$3*$A5</f>
-        <v>2.7765463917525772</v>
+        <v>2.5327377453861528</v>
       </c>
       <c r="F5" t="str">
         <f>IF((F$3*$A5)&gt;=3,"Zaliczenie","Warunek")</f>
-        <v>Zaliczenie</v>
+        <v>Warunek</v>
       </c>
       <c r="G5">
         <f>F$3*$A5</f>
-        <v>3.2329896907216495</v>
+        <v>2.9491007405665925</v>
       </c>
       <c r="H5" t="str">
         <f>IF((H$3*$A5)&gt;=3,"Zaliczenie","Warunek")</f>
@@ -3986,7 +4129,7 @@
       </c>
       <c r="I5">
         <f>H$3*$A5</f>
-        <v>5.6685567010309281</v>
+        <v>5.170800517221112</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3995,19 +4138,19 @@
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
-        <v>Warunek</v>
+        <v>Zaliczenie</v>
       </c>
       <c r="C6">
         <f>B$3*$A6</f>
-        <v>2.6536082474226803</v>
+        <v>3.8255554249441635</v>
       </c>
       <c r="D6" t="str">
         <f>IF((D$3*$A6)&gt;=3,"Zaliczenie","Warunek")</f>
-        <v>Zaliczenie</v>
+        <v>Warunek</v>
       </c>
       <c r="E6">
         <f>D$3*$A6</f>
-        <v>3.1731958762886596</v>
+        <v>2.8945574232984601</v>
       </c>
       <c r="F6" t="str">
         <f>IF((F$3*$A6)&gt;=3,"Zaliczenie","Warunek")</f>
@@ -4015,7 +4158,7 @@
       </c>
       <c r="G6">
         <f>F$3*$A6</f>
-        <v>3.6948453608247425</v>
+        <v>3.3704008463618198</v>
       </c>
       <c r="H6" t="str">
         <f>IF((H$3*$A6)&gt;=3,"Zaliczenie","Warunek")</f>
@@ -4023,7 +4166,7 @@
       </c>
       <c r="I6">
         <f>H$3*$A6</f>
-        <v>6.4783505154639176</v>
+        <v>5.9094863053955562</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -4032,11 +4175,11 @@
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
-        <v>Warunek</v>
+        <v>Zaliczenie</v>
       </c>
       <c r="C7">
         <f>B$3*$A7</f>
-        <v>2.9853092783505155</v>
+        <v>4.3037498530621843</v>
       </c>
       <c r="D7" t="str">
         <f>IF((D$3*$A7)&gt;=3,"Zaliczenie","Warunek")</f>
@@ -4044,7 +4187,7 @@
       </c>
       <c r="E7">
         <f>D$3*$A7</f>
-        <v>3.569845360824742</v>
+        <v>3.2563771012107674</v>
       </c>
       <c r="F7" t="str">
         <f>IF((F$3*$A7)&gt;=3,"Zaliczenie","Warunek")</f>
@@ -4052,7 +4195,7 @@
       </c>
       <c r="G7">
         <f>F$3*$A7</f>
-        <v>4.1567010309278354</v>
+        <v>3.7917009521570471</v>
       </c>
       <c r="H7" t="str">
         <f>IF((H$3*$A7)&gt;=3,"Zaliczenie","Warunek")</f>
@@ -4060,7 +4203,7 @@
       </c>
       <c r="I7">
         <f>H$3*$A7</f>
-        <v>7.2881443298969071</v>
+        <v>6.6481720935700004</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -4073,7 +4216,7 @@
       </c>
       <c r="C8">
         <f>B$3*$A8</f>
-        <v>3.3170103092783503</v>
+        <v>4.7819442811802046</v>
       </c>
       <c r="D8" t="str">
         <f>IF((D$3*$A8)&gt;=3,"Zaliczenie","Warunek")</f>
@@ -4081,7 +4224,7 @@
       </c>
       <c r="E8">
         <f>D$3*$A8</f>
-        <v>3.9664948453608244</v>
+        <v>3.6181967791230751</v>
       </c>
       <c r="F8" t="str">
         <f>IF((F$3*$A8)&gt;=3,"Zaliczenie","Warunek")</f>
@@ -4089,7 +4232,7 @@
       </c>
       <c r="G8">
         <f>F$3*$A8</f>
-        <v>4.6185567010309283</v>
+        <v>4.2130010579522743</v>
       </c>
       <c r="H8" t="str">
         <f>IF((H$3*$A8)&gt;=3,"Zaliczenie","Warunek")</f>
@@ -4097,7 +4240,7 @@
       </c>
       <c r="I8">
         <f>H$3*$A8</f>
-        <v>8.0979381443298966</v>
+        <v>7.3868578817444455</v>
       </c>
     </row>
   </sheetData>

--- a/Raport.xlsx
+++ b/Raport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\majer\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F2D5D08-DB8E-43B8-973D-462389DA1EC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A136F589-5BCA-4FB5-A27A-E86719FACBEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="274">
   <si>
     <t>Liczba członków zespołu</t>
   </si>
@@ -851,18 +851,29 @@
   </si>
   <si>
     <t>zrobione na nowo/TokyoGarden.Tests/TokyoGarden.DAL.Tests/ZamowieniaRepositoryInMemoryTests.cs</t>
+  </si>
+  <si>
+    <t>Tokyo-Garden-Restaurant/Dokumentacja projektu Tokyo Garden.docx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -960,14 +971,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -976,11 +987,14 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -992,13 +1006,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1010,8 +1021,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1503,8 +1517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C53" sqref="C52:C53"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -1541,7 +1555,7 @@
       <c r="B3" s="1"/>
       <c r="D3">
         <f>SUM(D7:D1001)</f>
-        <v>2034</v>
+        <v>2165</v>
       </c>
       <c r="G3">
         <f>SUM(G7:G1001)</f>
@@ -1563,19 +1577,19 @@
       <c r="B4" s="1"/>
       <c r="D4">
         <f>($B$2*D$3)/SUM($D$3:$AK$3)</f>
-        <v>0.95638885623604086</v>
+        <v>1.0025468858532067</v>
       </c>
       <c r="G4">
         <f>($B$2*G$3)/SUM($D$3:$AK$3)</f>
-        <v>0.72363935582461503</v>
+        <v>0.71266496874276453</v>
       </c>
       <c r="J4">
         <f>($B$2*J$3)/SUM($D$3:$AK$3)</f>
-        <v>0.84260021159045495</v>
+        <v>0.82982171799027549</v>
       </c>
       <c r="M4">
         <f>($B$2*M$3)/SUM($D$3:$AK$3)</f>
-        <v>1.477371576348889</v>
+        <v>1.4549664274137533</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -2778,7 +2792,16 @@
         <v>31</v>
       </c>
     </row>
-    <row r="49" spans="8:13">
+    <row r="49" spans="2:13">
+      <c r="B49" s="3">
+        <v>45916</v>
+      </c>
+      <c r="C49" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="D49">
+        <v>131</v>
+      </c>
       <c r="H49" s="14"/>
       <c r="I49" s="13" t="s">
         <v>251</v>
@@ -2794,7 +2817,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="8:13">
+    <row r="50" spans="2:13">
       <c r="H50" s="14"/>
       <c r="I50" s="13" t="s">
         <v>232</v>
@@ -2810,7 +2833,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="8:13">
+    <row r="51" spans="2:13">
       <c r="H51" s="14"/>
       <c r="I51" s="13" t="s">
         <v>233</v>
@@ -2826,7 +2849,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="8:13">
+    <row r="52" spans="2:13">
       <c r="H52" s="14"/>
       <c r="I52" s="13" t="s">
         <v>234</v>
@@ -2842,7 +2865,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="53" spans="8:13">
+    <row r="53" spans="2:13">
       <c r="H53" s="14"/>
       <c r="I53" s="13" t="s">
         <v>235</v>
@@ -2858,7 +2881,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="8:13">
+    <row r="54" spans="2:13">
       <c r="H54" s="14"/>
       <c r="I54" s="13" t="s">
         <v>236</v>
@@ -2874,7 +2897,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="8:13">
+    <row r="55" spans="2:13">
       <c r="H55" s="14"/>
       <c r="I55" s="13" t="s">
         <v>237</v>
@@ -2890,7 +2913,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="8:13">
+    <row r="56" spans="2:13">
       <c r="H56" s="14"/>
       <c r="I56" s="13" t="s">
         <v>238</v>
@@ -2906,7 +2929,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="8:13">
+    <row r="57" spans="2:13">
       <c r="H57" s="14"/>
       <c r="I57" s="13" t="s">
         <v>239</v>
@@ -2922,7 +2945,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="8:13">
+    <row r="58" spans="2:13">
       <c r="H58" s="14"/>
       <c r="I58" s="13" t="s">
         <v>240</v>
@@ -2938,7 +2961,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="8:13">
+    <row r="59" spans="2:13">
       <c r="H59" s="14"/>
       <c r="I59" s="13" t="s">
         <v>241</v>
@@ -2954,7 +2977,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="8:13">
+    <row r="60" spans="2:13">
       <c r="H60" s="14"/>
       <c r="I60" s="13" t="s">
         <v>242</v>
@@ -2970,7 +2993,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="61" spans="8:13">
+    <row r="61" spans="2:13">
       <c r="H61" s="14"/>
       <c r="I61" s="13" t="s">
         <v>243</v>
@@ -2986,7 +3009,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="62" spans="8:13">
+    <row r="62" spans="2:13">
       <c r="H62" s="14"/>
       <c r="I62" s="13" t="s">
         <v>244</v>
@@ -3002,7 +3025,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="8:13">
+    <row r="63" spans="2:13">
       <c r="H63" s="14"/>
       <c r="I63" s="13" t="s">
         <v>245</v>
@@ -3018,7 +3041,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="8:13">
+    <row r="64" spans="2:13">
       <c r="H64" s="14"/>
       <c r="I64" s="13" t="s">
         <v>246</v>
@@ -4039,22 +4062,22 @@
       </c>
       <c r="B3" s="16">
         <f>Arkusz1!D4</f>
-        <v>0.95638885623604086</v>
+        <v>1.0025468858532067</v>
       </c>
       <c r="C3" s="16"/>
       <c r="D3" s="16">
         <f>Arkusz1!G4</f>
-        <v>0.72363935582461503</v>
+        <v>0.71266496874276453</v>
       </c>
       <c r="E3" s="16"/>
       <c r="F3" s="16">
         <f>Arkusz1!J4</f>
-        <v>0.84260021159045495</v>
+        <v>0.82982171799027549</v>
       </c>
       <c r="G3" s="16"/>
       <c r="H3" s="16">
         <f>Arkusz1!M4</f>
-        <v>1.477371576348889</v>
+        <v>1.4549664274137533</v>
       </c>
       <c r="I3" s="16"/>
     </row>
@@ -4064,11 +4087,11 @@
       </c>
       <c r="B4" t="str">
         <f>IF((B$3*$A4)&gt;=3,"Zaliczenie","Warunek")</f>
-        <v>Warunek</v>
+        <v>Zaliczenie</v>
       </c>
       <c r="C4">
         <f>B$3*$A4</f>
-        <v>2.8691665687081227</v>
+        <v>3.0076406575596204</v>
       </c>
       <c r="D4" t="str">
         <f>IF((D$3*$A4)&gt;=3,"Zaliczenie","Warunek")</f>
@@ -4076,7 +4099,7 @@
       </c>
       <c r="E4">
         <f>D$3*$A4</f>
-        <v>2.1709180674738451</v>
+        <v>2.1379949062282937</v>
       </c>
       <c r="F4" t="str">
         <f>IF((F$3*$A4)&gt;=3,"Zaliczenie","Warunek")</f>
@@ -4084,7 +4107,7 @@
       </c>
       <c r="G4">
         <f>F$3*$A4</f>
-        <v>2.5278006347713649</v>
+        <v>2.4894651539708263</v>
       </c>
       <c r="H4" t="str">
         <f>IF((H$3*$A4)&gt;=3,"Zaliczenie","Warunek")</f>
@@ -4092,7 +4115,7 @@
       </c>
       <c r="I4">
         <f>H$3*$A4</f>
-        <v>4.4321147290466669</v>
+        <v>4.36489928224126</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -4105,7 +4128,7 @@
       </c>
       <c r="C5">
         <f>B$3*$A5</f>
-        <v>3.3473609968261431</v>
+        <v>3.5089141004862237</v>
       </c>
       <c r="D5" t="str">
         <f>IF((D$3*$A5)&gt;=3,"Zaliczenie","Warunek")</f>
@@ -4113,7 +4136,7 @@
       </c>
       <c r="E5">
         <f>D$3*$A5</f>
-        <v>2.5327377453861528</v>
+        <v>2.4943273905996759</v>
       </c>
       <c r="F5" t="str">
         <f>IF((F$3*$A5)&gt;=3,"Zaliczenie","Warunek")</f>
@@ -4121,7 +4144,7 @@
       </c>
       <c r="G5">
         <f>F$3*$A5</f>
-        <v>2.9491007405665925</v>
+        <v>2.9043760129659644</v>
       </c>
       <c r="H5" t="str">
         <f>IF((H$3*$A5)&gt;=3,"Zaliczenie","Warunek")</f>
@@ -4129,7 +4152,7 @@
       </c>
       <c r="I5">
         <f>H$3*$A5</f>
-        <v>5.170800517221112</v>
+        <v>5.0923824959481365</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -4142,7 +4165,7 @@
       </c>
       <c r="C6">
         <f>B$3*$A6</f>
-        <v>3.8255554249441635</v>
+        <v>4.0101875434128269</v>
       </c>
       <c r="D6" t="str">
         <f>IF((D$3*$A6)&gt;=3,"Zaliczenie","Warunek")</f>
@@ -4150,7 +4173,7 @@
       </c>
       <c r="E6">
         <f>D$3*$A6</f>
-        <v>2.8945574232984601</v>
+        <v>2.8506598749710581</v>
       </c>
       <c r="F6" t="str">
         <f>IF((F$3*$A6)&gt;=3,"Zaliczenie","Warunek")</f>
@@ -4158,7 +4181,7 @@
       </c>
       <c r="G6">
         <f>F$3*$A6</f>
-        <v>3.3704008463618198</v>
+        <v>3.3192868719611019</v>
       </c>
       <c r="H6" t="str">
         <f>IF((H$3*$A6)&gt;=3,"Zaliczenie","Warunek")</f>
@@ -4166,7 +4189,7 @@
       </c>
       <c r="I6">
         <f>H$3*$A6</f>
-        <v>5.9094863053955562</v>
+        <v>5.819865709655013</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -4179,7 +4202,7 @@
       </c>
       <c r="C7">
         <f>B$3*$A7</f>
-        <v>4.3037498530621843</v>
+        <v>4.5114609863394302</v>
       </c>
       <c r="D7" t="str">
         <f>IF((D$3*$A7)&gt;=3,"Zaliczenie","Warunek")</f>
@@ -4187,7 +4210,7 @@
       </c>
       <c r="E7">
         <f>D$3*$A7</f>
-        <v>3.2563771012107674</v>
+        <v>3.2069923593424403</v>
       </c>
       <c r="F7" t="str">
         <f>IF((F$3*$A7)&gt;=3,"Zaliczenie","Warunek")</f>
@@ -4195,7 +4218,7 @@
       </c>
       <c r="G7">
         <f>F$3*$A7</f>
-        <v>3.7917009521570471</v>
+        <v>3.7341977309562395</v>
       </c>
       <c r="H7" t="str">
         <f>IF((H$3*$A7)&gt;=3,"Zaliczenie","Warunek")</f>
@@ -4203,7 +4226,7 @@
       </c>
       <c r="I7">
         <f>H$3*$A7</f>
-        <v>6.6481720935700004</v>
+        <v>6.5473489233618896</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -4216,7 +4239,7 @@
       </c>
       <c r="C8">
         <f>B$3*$A8</f>
-        <v>4.7819442811802046</v>
+        <v>5.0127344292660334</v>
       </c>
       <c r="D8" t="str">
         <f>IF((D$3*$A8)&gt;=3,"Zaliczenie","Warunek")</f>
@@ -4224,7 +4247,7 @@
       </c>
       <c r="E8">
         <f>D$3*$A8</f>
-        <v>3.6181967791230751</v>
+        <v>3.5633248437138225</v>
       </c>
       <c r="F8" t="str">
         <f>IF((F$3*$A8)&gt;=3,"Zaliczenie","Warunek")</f>
@@ -4232,7 +4255,7 @@
       </c>
       <c r="G8">
         <f>F$3*$A8</f>
-        <v>4.2130010579522743</v>
+        <v>4.1491085899513775</v>
       </c>
       <c r="H8" t="str">
         <f>IF((H$3*$A8)&gt;=3,"Zaliczenie","Warunek")</f>
@@ -4240,7 +4263,7 @@
       </c>
       <c r="I8">
         <f>H$3*$A8</f>
-        <v>7.3868578817444455</v>
+        <v>7.2748321370687661</v>
       </c>
     </row>
   </sheetData>

--- a/Raport.xlsx
+++ b/Raport.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\majer\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\ttt\Tokyo-Garden-Restaurant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A136F589-5BCA-4FB5-A27A-E86719FACBEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25C5EEE3-4393-45B3-853D-8FF5B0A308CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="280">
   <si>
     <t>Liczba członków zespołu</t>
   </si>
@@ -854,6 +854,24 @@
   </si>
   <si>
     <t>Tokyo-Garden-Restaurant/Dokumentacja projektu Tokyo Garden.docx</t>
+  </si>
+  <si>
+    <t>hosting</t>
+  </si>
+  <si>
+    <t>package.json</t>
+  </si>
+  <si>
+    <t>enviroments.ts</t>
+  </si>
+  <si>
+    <t>environemnt develop.ts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.nvmec </t>
+  </si>
+  <si>
+    <t>angular.json</t>
   </si>
 </sst>
 </file>
@@ -1012,6 +1030,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1023,9 +1044,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1517,8 +1535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView tabSelected="1" topLeftCell="B22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -1559,7 +1577,7 @@
       </c>
       <c r="G3">
         <f>SUM(G7:G1001)</f>
-        <v>1539</v>
+        <v>1857</v>
       </c>
       <c r="J3">
         <f>SUM(J7:J1001)</f>
@@ -1577,42 +1595,42 @@
       <c r="B4" s="1"/>
       <c r="D4">
         <f>($B$2*D$3)/SUM($D$3:$AK$3)</f>
-        <v>1.0025468858532067</v>
+        <v>0.96694953104064318</v>
       </c>
       <c r="G4">
         <f>($B$2*G$3)/SUM($D$3:$AK$3)</f>
-        <v>0.71266496874276453</v>
+        <v>0.829388119696293</v>
       </c>
       <c r="J4">
         <f>($B$2*J$3)/SUM($D$3:$AK$3)</f>
-        <v>0.82982171799027549</v>
+        <v>0.80035730236712821</v>
       </c>
       <c r="M4">
         <f>($B$2*M$3)/SUM($D$3:$AK$3)</f>
-        <v>1.4549664274137533</v>
+        <v>1.4033050468959356</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="16" t="s">
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16" t="s">
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16" t="s">
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
     </row>
     <row r="6" spans="1:13">
       <c r="B6" t="s">
@@ -1718,7 +1736,7 @@
       <c r="J8">
         <v>100</v>
       </c>
-      <c r="K8" s="14">
+      <c r="K8" s="15">
         <v>45772</v>
       </c>
       <c r="L8" t="s">
@@ -1729,7 +1747,7 @@
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="B9" s="14">
+      <c r="B9" s="15">
         <v>45785</v>
       </c>
       <c r="C9" t="s">
@@ -1756,7 +1774,7 @@
       <c r="J9">
         <v>118</v>
       </c>
-      <c r="K9" s="14"/>
+      <c r="K9" s="15"/>
       <c r="L9" s="5" t="s">
         <v>17</v>
       </c>
@@ -1765,7 +1783,7 @@
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="B10" s="14"/>
+      <c r="B10" s="15"/>
       <c r="C10" t="s">
         <v>64</v>
       </c>
@@ -1778,7 +1796,7 @@
       <c r="G10">
         <v>57</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="15">
         <v>45803</v>
       </c>
       <c r="I10" t="s">
@@ -1787,7 +1805,7 @@
       <c r="J10">
         <v>70</v>
       </c>
-      <c r="K10" s="14"/>
+      <c r="K10" s="15"/>
       <c r="L10" t="s">
         <v>18</v>
       </c>
@@ -1796,7 +1814,7 @@
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="B11" s="14"/>
+      <c r="B11" s="15"/>
       <c r="C11" t="s">
         <v>65</v>
       </c>
@@ -1809,14 +1827,14 @@
       <c r="G11">
         <v>59</v>
       </c>
-      <c r="H11" s="14"/>
+      <c r="H11" s="15"/>
       <c r="I11" t="s">
         <v>75</v>
       </c>
       <c r="J11">
         <v>23</v>
       </c>
-      <c r="K11" s="14"/>
+      <c r="K11" s="15"/>
       <c r="L11" t="s">
         <v>19</v>
       </c>
@@ -1825,7 +1843,7 @@
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="B12" s="14"/>
+      <c r="B12" s="15"/>
       <c r="C12" t="s">
         <v>66</v>
       </c>
@@ -1838,14 +1856,14 @@
       <c r="G12">
         <v>58</v>
       </c>
-      <c r="H12" s="14"/>
+      <c r="H12" s="15"/>
       <c r="I12" t="s">
         <v>77</v>
       </c>
       <c r="J12">
         <v>23</v>
       </c>
-      <c r="K12" s="14"/>
+      <c r="K12" s="15"/>
       <c r="L12" t="s">
         <v>20</v>
       </c>
@@ -1854,7 +1872,7 @@
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="B13" s="14"/>
+      <c r="B13" s="15"/>
       <c r="C13" t="s">
         <v>67</v>
       </c>
@@ -1867,14 +1885,14 @@
       <c r="G13">
         <v>57</v>
       </c>
-      <c r="H13" s="14"/>
+      <c r="H13" s="15"/>
       <c r="I13" t="s">
         <v>76</v>
       </c>
       <c r="J13">
         <v>27</v>
       </c>
-      <c r="K13" s="14"/>
+      <c r="K13" s="15"/>
       <c r="L13" s="5" t="s">
         <v>21</v>
       </c>
@@ -1883,7 +1901,7 @@
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="B14" s="14"/>
+      <c r="B14" s="15"/>
       <c r="C14" t="s">
         <v>68</v>
       </c>
@@ -1896,14 +1914,14 @@
       <c r="G14">
         <v>61</v>
       </c>
-      <c r="H14" s="14"/>
+      <c r="H14" s="15"/>
       <c r="I14" t="s">
         <v>74</v>
       </c>
       <c r="J14">
         <v>24</v>
       </c>
-      <c r="K14" s="14"/>
+      <c r="K14" s="15"/>
       <c r="L14" t="s">
         <v>22</v>
       </c>
@@ -1912,7 +1930,7 @@
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="B15" s="14"/>
+      <c r="B15" s="15"/>
       <c r="C15" t="s">
         <v>69</v>
       </c>
@@ -1925,14 +1943,14 @@
       <c r="G15">
         <v>60</v>
       </c>
-      <c r="H15" s="14"/>
+      <c r="H15" s="15"/>
       <c r="I15" t="s">
         <v>78</v>
       </c>
       <c r="J15">
         <v>27</v>
       </c>
-      <c r="K15" s="14"/>
+      <c r="K15" s="15"/>
       <c r="L15" s="5" t="s">
         <v>23</v>
       </c>
@@ -1941,7 +1959,7 @@
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="B16" s="14"/>
+      <c r="B16" s="15"/>
       <c r="C16" t="s">
         <v>70</v>
       </c>
@@ -1954,14 +1972,14 @@
       <c r="G16">
         <v>16</v>
       </c>
-      <c r="H16" s="14"/>
+      <c r="H16" s="15"/>
       <c r="I16" t="s">
         <v>79</v>
       </c>
       <c r="J16">
         <v>27</v>
       </c>
-      <c r="K16" s="14"/>
+      <c r="K16" s="15"/>
       <c r="L16" t="s">
         <v>24</v>
       </c>
@@ -1970,7 +1988,7 @@
       </c>
     </row>
     <row r="17" spans="2:13">
-      <c r="B17" s="14"/>
+      <c r="B17" s="15"/>
       <c r="C17" t="s">
         <v>71</v>
       </c>
@@ -1983,14 +2001,14 @@
       <c r="G17">
         <v>59</v>
       </c>
-      <c r="H17" s="14"/>
+      <c r="H17" s="15"/>
       <c r="I17" t="s">
         <v>80</v>
       </c>
       <c r="J17">
         <v>27</v>
       </c>
-      <c r="K17" s="14"/>
+      <c r="K17" s="15"/>
       <c r="L17" t="s">
         <v>25</v>
       </c>
@@ -1999,7 +2017,7 @@
       </c>
     </row>
     <row r="18" spans="2:13">
-      <c r="B18" s="14">
+      <c r="B18" s="15">
         <v>45803</v>
       </c>
       <c r="C18" t="s">
@@ -2014,14 +2032,14 @@
       <c r="G18">
         <v>64</v>
       </c>
-      <c r="H18" s="14"/>
+      <c r="H18" s="15"/>
       <c r="I18" t="s">
         <v>81</v>
       </c>
       <c r="J18">
         <v>27</v>
       </c>
-      <c r="K18" s="14"/>
+      <c r="K18" s="15"/>
       <c r="L18" t="s">
         <v>26</v>
       </c>
@@ -2030,21 +2048,21 @@
       </c>
     </row>
     <row r="19" spans="2:13">
-      <c r="B19" s="14"/>
+      <c r="B19" s="15"/>
       <c r="C19" t="s">
         <v>85</v>
       </c>
       <c r="D19">
         <v>144</v>
       </c>
-      <c r="H19" s="14"/>
+      <c r="H19" s="15"/>
       <c r="I19" t="s">
         <v>82</v>
       </c>
       <c r="J19">
         <v>28</v>
       </c>
-      <c r="K19" s="14"/>
+      <c r="K19" s="15"/>
       <c r="L19" t="s">
         <v>27</v>
       </c>
@@ -2053,21 +2071,21 @@
       </c>
     </row>
     <row r="20" spans="2:13">
-      <c r="B20" s="14"/>
+      <c r="B20" s="15"/>
       <c r="C20" t="s">
         <v>86</v>
       </c>
       <c r="D20">
         <v>164</v>
       </c>
-      <c r="H20" s="14"/>
+      <c r="H20" s="15"/>
       <c r="I20" t="s">
         <v>83</v>
       </c>
       <c r="J20">
         <v>34</v>
       </c>
-      <c r="K20" s="14"/>
+      <c r="K20" s="15"/>
       <c r="L20" t="s">
         <v>28</v>
       </c>
@@ -2076,14 +2094,14 @@
       </c>
     </row>
     <row r="21" spans="2:13">
-      <c r="B21" s="14"/>
+      <c r="B21" s="15"/>
       <c r="C21" t="s">
         <v>87</v>
       </c>
       <c r="D21">
         <v>58</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E21" s="15">
         <v>45804</v>
       </c>
       <c r="F21" t="s">
@@ -2092,7 +2110,7 @@
       <c r="G21">
         <v>81</v>
       </c>
-      <c r="H21" s="14">
+      <c r="H21" s="15">
         <v>45817</v>
       </c>
       <c r="I21" s="10" t="s">
@@ -2101,7 +2119,7 @@
       <c r="J21" s="6">
         <v>3</v>
       </c>
-      <c r="K21" s="14"/>
+      <c r="K21" s="15"/>
       <c r="L21" t="s">
         <v>29</v>
       </c>
@@ -2110,28 +2128,28 @@
       </c>
     </row>
     <row r="22" spans="2:13">
-      <c r="B22" s="14"/>
+      <c r="B22" s="15"/>
       <c r="C22" t="s">
         <v>88</v>
       </c>
       <c r="D22">
         <v>92</v>
       </c>
-      <c r="E22" s="16"/>
+      <c r="E22" s="17"/>
       <c r="F22" t="s">
         <v>102</v>
       </c>
       <c r="G22">
         <v>69</v>
       </c>
-      <c r="H22" s="14"/>
+      <c r="H22" s="15"/>
       <c r="I22" t="s">
         <v>111</v>
       </c>
       <c r="J22" s="6">
         <v>6</v>
       </c>
-      <c r="K22" s="14"/>
+      <c r="K22" s="15"/>
       <c r="L22" t="s">
         <v>30</v>
       </c>
@@ -2140,28 +2158,28 @@
       </c>
     </row>
     <row r="23" spans="2:13">
-      <c r="B23" s="14"/>
+      <c r="B23" s="15"/>
       <c r="C23" t="s">
         <v>89</v>
       </c>
       <c r="D23">
         <v>64</v>
       </c>
-      <c r="E23" s="16"/>
+      <c r="E23" s="17"/>
       <c r="F23" t="s">
         <v>103</v>
       </c>
       <c r="G23">
         <v>75</v>
       </c>
-      <c r="H23" s="14"/>
+      <c r="H23" s="15"/>
       <c r="I23" t="s">
         <v>112</v>
       </c>
       <c r="J23" s="6">
         <v>3</v>
       </c>
-      <c r="K23" s="14"/>
+      <c r="K23" s="15"/>
       <c r="L23" t="s">
         <v>31</v>
       </c>
@@ -2170,28 +2188,28 @@
       </c>
     </row>
     <row r="24" spans="2:13">
-      <c r="B24" s="14"/>
+      <c r="B24" s="15"/>
       <c r="C24" t="s">
         <v>90</v>
       </c>
       <c r="D24">
         <v>20</v>
       </c>
-      <c r="E24" s="16"/>
+      <c r="E24" s="17"/>
       <c r="F24" t="s">
         <v>104</v>
       </c>
       <c r="G24">
         <v>126</v>
       </c>
-      <c r="H24" s="14"/>
+      <c r="H24" s="15"/>
       <c r="I24" t="s">
         <v>113</v>
       </c>
       <c r="J24" s="6">
         <v>6</v>
       </c>
-      <c r="K24" s="14"/>
+      <c r="K24" s="15"/>
       <c r="L24" t="s">
         <v>32</v>
       </c>
@@ -2200,28 +2218,28 @@
       </c>
     </row>
     <row r="25" spans="2:13">
-      <c r="B25" s="14"/>
+      <c r="B25" s="15"/>
       <c r="C25" t="s">
         <v>91</v>
       </c>
       <c r="D25">
         <v>57</v>
       </c>
-      <c r="E25" s="16"/>
+      <c r="E25" s="17"/>
       <c r="F25" t="s">
         <v>105</v>
       </c>
       <c r="G25">
         <v>65</v>
       </c>
-      <c r="H25" s="14"/>
+      <c r="H25" s="15"/>
       <c r="I25" t="s">
         <v>114</v>
       </c>
       <c r="J25" s="6">
         <v>4</v>
       </c>
-      <c r="K25" s="14"/>
+      <c r="K25" s="15"/>
       <c r="L25" t="s">
         <v>33</v>
       </c>
@@ -2230,28 +2248,28 @@
       </c>
     </row>
     <row r="26" spans="2:13">
-      <c r="B26" s="14"/>
+      <c r="B26" s="15"/>
       <c r="C26" t="s">
         <v>92</v>
       </c>
       <c r="D26">
         <v>28</v>
       </c>
-      <c r="E26" s="16"/>
+      <c r="E26" s="17"/>
       <c r="F26" t="s">
         <v>106</v>
       </c>
       <c r="G26">
         <v>82</v>
       </c>
-      <c r="H26" s="14"/>
+      <c r="H26" s="15"/>
       <c r="I26" s="10" t="s">
         <v>115</v>
       </c>
       <c r="J26" s="6">
         <v>2</v>
       </c>
-      <c r="K26" s="14"/>
+      <c r="K26" s="15"/>
       <c r="L26" t="s">
         <v>34</v>
       </c>
@@ -2260,28 +2278,28 @@
       </c>
     </row>
     <row r="27" spans="2:13">
-      <c r="B27" s="14"/>
+      <c r="B27" s="15"/>
       <c r="C27" t="s">
         <v>93</v>
       </c>
       <c r="D27">
         <v>26</v>
       </c>
-      <c r="E27" s="16"/>
+      <c r="E27" s="17"/>
       <c r="F27" t="s">
         <v>107</v>
       </c>
       <c r="G27">
         <v>75</v>
       </c>
-      <c r="H27" s="14"/>
+      <c r="H27" s="15"/>
       <c r="I27" t="s">
         <v>116</v>
       </c>
       <c r="J27" s="6">
         <v>8</v>
       </c>
-      <c r="K27" s="14"/>
+      <c r="K27" s="15"/>
       <c r="L27" t="s">
         <v>35</v>
       </c>
@@ -2290,28 +2308,28 @@
       </c>
     </row>
     <row r="28" spans="2:13">
-      <c r="B28" s="14"/>
+      <c r="B28" s="15"/>
       <c r="C28" t="s">
         <v>94</v>
       </c>
       <c r="D28">
         <v>16</v>
       </c>
-      <c r="E28" s="16"/>
+      <c r="E28" s="17"/>
       <c r="F28" t="s">
         <v>108</v>
       </c>
       <c r="G28">
         <v>266</v>
       </c>
-      <c r="H28" s="14"/>
+      <c r="H28" s="15"/>
       <c r="I28" t="s">
         <v>117</v>
       </c>
       <c r="J28" s="6">
         <v>3</v>
       </c>
-      <c r="K28" s="14"/>
+      <c r="K28" s="15"/>
       <c r="L28" t="s">
         <v>36</v>
       </c>
@@ -2320,28 +2338,28 @@
       </c>
     </row>
     <row r="29" spans="2:13">
-      <c r="B29" s="14"/>
+      <c r="B29" s="15"/>
       <c r="C29" t="s">
         <v>95</v>
       </c>
       <c r="D29">
         <v>18</v>
       </c>
-      <c r="E29" s="16"/>
+      <c r="E29" s="17"/>
       <c r="F29" t="s">
         <v>109</v>
       </c>
       <c r="G29">
         <v>71</v>
       </c>
-      <c r="H29" s="14"/>
+      <c r="H29" s="15"/>
       <c r="I29" t="s">
         <v>118</v>
       </c>
       <c r="J29" s="6">
         <v>12</v>
       </c>
-      <c r="K29" s="14"/>
+      <c r="K29" s="15"/>
       <c r="L29" t="s">
         <v>37</v>
       </c>
@@ -2350,21 +2368,21 @@
       </c>
     </row>
     <row r="30" spans="2:13">
-      <c r="B30" s="14"/>
+      <c r="B30" s="15"/>
       <c r="C30" t="s">
         <v>96</v>
       </c>
       <c r="D30">
         <v>15</v>
       </c>
-      <c r="H30" s="14"/>
+      <c r="H30" s="15"/>
       <c r="I30" t="s">
         <v>119</v>
       </c>
       <c r="J30" s="6">
         <v>3</v>
       </c>
-      <c r="K30" s="14"/>
+      <c r="K30" s="15"/>
       <c r="L30" t="s">
         <v>38</v>
       </c>
@@ -2373,21 +2391,21 @@
       </c>
     </row>
     <row r="31" spans="2:13">
-      <c r="B31" s="14"/>
+      <c r="B31" s="15"/>
       <c r="C31" t="s">
         <v>97</v>
       </c>
       <c r="D31">
         <v>17</v>
       </c>
-      <c r="H31" s="14"/>
+      <c r="H31" s="15"/>
       <c r="I31" t="s">
         <v>120</v>
       </c>
       <c r="J31" s="6">
         <v>6</v>
       </c>
-      <c r="K31" s="14"/>
+      <c r="K31" s="15"/>
       <c r="L31" t="s">
         <v>39</v>
       </c>
@@ -2396,21 +2414,21 @@
       </c>
     </row>
     <row r="32" spans="2:13">
-      <c r="B32" s="14"/>
+      <c r="B32" s="15"/>
       <c r="C32" t="s">
         <v>98</v>
       </c>
       <c r="D32">
         <v>44</v>
       </c>
-      <c r="H32" s="14"/>
+      <c r="H32" s="15"/>
       <c r="I32" t="s">
         <v>121</v>
       </c>
       <c r="J32" s="6">
         <v>2</v>
       </c>
-      <c r="K32" s="14"/>
+      <c r="K32" s="15"/>
       <c r="L32" s="5" t="s">
         <v>40</v>
       </c>
@@ -2419,21 +2437,21 @@
       </c>
     </row>
     <row r="33" spans="2:13">
-      <c r="B33" s="14"/>
+      <c r="B33" s="15"/>
       <c r="C33" t="s">
         <v>99</v>
       </c>
       <c r="D33">
         <v>43</v>
       </c>
-      <c r="H33" s="14"/>
+      <c r="H33" s="15"/>
       <c r="I33" t="s">
         <v>122</v>
       </c>
       <c r="J33" s="6">
         <v>4</v>
       </c>
-      <c r="K33" s="14"/>
+      <c r="K33" s="15"/>
       <c r="L33" t="s">
         <v>41</v>
       </c>
@@ -2442,21 +2460,21 @@
       </c>
     </row>
     <row r="34" spans="2:13">
-      <c r="B34" s="14"/>
+      <c r="B34" s="15"/>
       <c r="C34" t="s">
         <v>100</v>
       </c>
       <c r="D34">
         <v>28</v>
       </c>
-      <c r="H34" s="14"/>
+      <c r="H34" s="15"/>
       <c r="I34" t="s">
         <v>123</v>
       </c>
       <c r="J34" s="6">
         <v>8</v>
       </c>
-      <c r="K34" s="14"/>
+      <c r="K34" s="15"/>
       <c r="L34" t="s">
         <v>42</v>
       </c>
@@ -2465,7 +2483,7 @@
       </c>
     </row>
     <row r="35" spans="2:13">
-      <c r="B35" s="14">
+      <c r="B35" s="15">
         <v>45907</v>
       </c>
       <c r="C35" t="s">
@@ -2474,8 +2492,14 @@
       <c r="D35">
         <v>65</v>
       </c>
-      <c r="H35" s="14">
-        <v>45906</v>
+      <c r="F35" t="s">
+        <v>274</v>
+      </c>
+      <c r="G35">
+        <v>300</v>
+      </c>
+      <c r="H35" s="3">
+        <v>45908</v>
       </c>
       <c r="I35" s="12" t="s">
         <v>124</v>
@@ -2483,7 +2507,7 @@
       <c r="J35" s="6">
         <v>17</v>
       </c>
-      <c r="K35" s="14"/>
+      <c r="K35" s="15"/>
       <c r="L35" t="s">
         <v>43</v>
       </c>
@@ -2492,21 +2516,27 @@
       </c>
     </row>
     <row r="36" spans="2:13">
-      <c r="B36" s="16"/>
+      <c r="B36" s="17"/>
       <c r="C36" t="s">
         <v>260</v>
       </c>
       <c r="D36">
         <v>54</v>
       </c>
-      <c r="H36" s="14"/>
+      <c r="F36" t="s">
+        <v>275</v>
+      </c>
+      <c r="G36">
+        <v>5</v>
+      </c>
+      <c r="H36" s="3"/>
       <c r="I36" s="7" t="s">
         <v>125</v>
       </c>
       <c r="J36" s="6">
         <v>8</v>
       </c>
-      <c r="K36" s="14"/>
+      <c r="K36" s="15"/>
       <c r="L36" t="s">
         <v>44</v>
       </c>
@@ -2515,21 +2545,27 @@
       </c>
     </row>
     <row r="37" spans="2:13">
-      <c r="B37" s="16"/>
+      <c r="B37" s="17"/>
       <c r="C37" t="s">
         <v>261</v>
       </c>
       <c r="D37">
         <v>23</v>
       </c>
-      <c r="H37" s="14"/>
+      <c r="F37" t="s">
+        <v>276</v>
+      </c>
+      <c r="G37">
+        <v>3</v>
+      </c>
+      <c r="H37" s="3"/>
       <c r="I37" t="s">
         <v>127</v>
       </c>
       <c r="J37" s="6">
         <v>9</v>
       </c>
-      <c r="K37" s="14"/>
+      <c r="K37" s="15"/>
       <c r="L37" t="s">
         <v>45</v>
       </c>
@@ -2538,21 +2574,27 @@
       </c>
     </row>
     <row r="38" spans="2:13">
-      <c r="B38" s="16"/>
+      <c r="B38" s="17"/>
       <c r="C38" t="s">
         <v>262</v>
       </c>
       <c r="D38">
         <v>60</v>
       </c>
-      <c r="H38" s="14"/>
+      <c r="F38" t="s">
+        <v>277</v>
+      </c>
+      <c r="G38">
+        <v>2</v>
+      </c>
+      <c r="H38" s="3"/>
       <c r="I38" t="s">
         <v>128</v>
       </c>
       <c r="J38" s="6">
         <v>36</v>
       </c>
-      <c r="K38" s="14"/>
+      <c r="K38" s="15"/>
       <c r="L38" t="s">
         <v>46</v>
       </c>
@@ -2561,21 +2603,27 @@
       </c>
     </row>
     <row r="39" spans="2:13">
-      <c r="B39" s="16"/>
+      <c r="B39" s="17"/>
       <c r="C39" t="s">
         <v>263</v>
       </c>
       <c r="D39">
         <v>55</v>
       </c>
-      <c r="H39" s="14"/>
+      <c r="F39" t="s">
+        <v>278</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39" s="3"/>
       <c r="I39" t="s">
         <v>129</v>
       </c>
       <c r="J39" s="6">
         <v>9</v>
       </c>
-      <c r="K39" s="14"/>
+      <c r="K39" s="15"/>
       <c r="L39" t="s">
         <v>47</v>
       </c>
@@ -2584,21 +2632,27 @@
       </c>
     </row>
     <row r="40" spans="2:13">
-      <c r="B40" s="16"/>
+      <c r="B40" s="17"/>
       <c r="C40" t="s">
         <v>264</v>
       </c>
       <c r="D40">
         <v>87</v>
       </c>
-      <c r="H40" s="14"/>
+      <c r="F40" t="s">
+        <v>279</v>
+      </c>
+      <c r="G40">
+        <v>7</v>
+      </c>
+      <c r="H40" s="3"/>
       <c r="I40" t="s">
         <v>130</v>
       </c>
       <c r="J40" s="6">
         <v>37</v>
       </c>
-      <c r="K40" s="14"/>
+      <c r="K40" s="15"/>
       <c r="L40" s="5" t="s">
         <v>48</v>
       </c>
@@ -2607,21 +2661,20 @@
       </c>
     </row>
     <row r="41" spans="2:13">
-      <c r="B41" s="16"/>
+      <c r="B41" s="17"/>
       <c r="C41" t="s">
         <v>265</v>
       </c>
       <c r="D41">
         <v>23</v>
       </c>
-      <c r="H41" s="14"/>
       <c r="I41" t="s">
         <v>131</v>
       </c>
       <c r="J41" s="6">
         <v>67</v>
       </c>
-      <c r="K41" s="14"/>
+      <c r="K41" s="15"/>
       <c r="L41" s="5" t="s">
         <v>49</v>
       </c>
@@ -2630,21 +2683,20 @@
       </c>
     </row>
     <row r="42" spans="2:13">
-      <c r="B42" s="16"/>
+      <c r="B42" s="17"/>
       <c r="C42" t="s">
         <v>266</v>
       </c>
       <c r="D42">
         <v>55</v>
       </c>
-      <c r="H42" s="14"/>
       <c r="I42" t="s">
         <v>134</v>
       </c>
       <c r="J42" s="6">
         <v>1</v>
       </c>
-      <c r="K42" s="14"/>
+      <c r="K42" s="15"/>
       <c r="L42" t="s">
         <v>50</v>
       </c>
@@ -2653,21 +2705,20 @@
       </c>
     </row>
     <row r="43" spans="2:13">
-      <c r="B43" s="16"/>
+      <c r="B43" s="17"/>
       <c r="C43" t="s">
         <v>267</v>
       </c>
       <c r="D43">
         <v>60</v>
       </c>
-      <c r="H43" s="14"/>
       <c r="I43" t="s">
         <v>139</v>
       </c>
       <c r="J43" s="6">
         <v>9</v>
       </c>
-      <c r="K43" s="14"/>
+      <c r="K43" s="15"/>
       <c r="L43" t="s">
         <v>51</v>
       </c>
@@ -2676,21 +2727,20 @@
       </c>
     </row>
     <row r="44" spans="2:13">
-      <c r="B44" s="16"/>
+      <c r="B44" s="17"/>
       <c r="C44" t="s">
         <v>268</v>
       </c>
       <c r="D44">
         <v>57</v>
       </c>
-      <c r="H44" s="14"/>
       <c r="I44" t="s">
         <v>140</v>
       </c>
       <c r="J44" s="6">
         <v>21</v>
       </c>
-      <c r="K44" s="14"/>
+      <c r="K44" s="15"/>
       <c r="L44" t="s">
         <v>52</v>
       </c>
@@ -2699,21 +2749,20 @@
       </c>
     </row>
     <row r="45" spans="2:13">
-      <c r="B45" s="16"/>
+      <c r="B45" s="17"/>
       <c r="C45" t="s">
         <v>269</v>
       </c>
       <c r="D45">
         <v>61</v>
       </c>
-      <c r="H45" s="14"/>
       <c r="I45" t="s">
         <v>147</v>
       </c>
       <c r="J45" s="6">
         <v>2</v>
       </c>
-      <c r="K45" s="14">
+      <c r="K45" s="15">
         <v>45898</v>
       </c>
       <c r="L45" s="12" t="s">
@@ -2724,21 +2773,20 @@
       </c>
     </row>
     <row r="46" spans="2:13">
-      <c r="B46" s="16"/>
+      <c r="B46" s="17"/>
       <c r="C46" t="s">
         <v>270</v>
       </c>
       <c r="D46">
         <v>69</v>
       </c>
-      <c r="H46" s="14"/>
       <c r="I46" s="13" t="s">
         <v>225</v>
       </c>
       <c r="J46" s="6">
         <v>1</v>
       </c>
-      <c r="K46" s="14"/>
+      <c r="K46" s="15"/>
       <c r="L46" s="7" t="s">
         <v>125</v>
       </c>
@@ -2747,21 +2795,20 @@
       </c>
     </row>
     <row r="47" spans="2:13">
-      <c r="B47" s="16"/>
+      <c r="B47" s="17"/>
       <c r="C47" t="s">
         <v>271</v>
       </c>
       <c r="D47">
         <v>23</v>
       </c>
-      <c r="H47" s="14"/>
       <c r="I47" s="13" t="s">
         <v>258</v>
       </c>
       <c r="J47" s="6">
         <v>15</v>
       </c>
-      <c r="K47" s="14"/>
+      <c r="K47" s="15"/>
       <c r="L47" t="s">
         <v>126</v>
       </c>
@@ -2770,21 +2817,20 @@
       </c>
     </row>
     <row r="48" spans="2:13">
-      <c r="B48" s="16"/>
+      <c r="B48" s="17"/>
       <c r="C48" t="s">
         <v>272</v>
       </c>
       <c r="D48">
         <v>55</v>
       </c>
-      <c r="H48" s="14"/>
       <c r="I48" s="13" t="s">
         <v>250</v>
       </c>
       <c r="J48" s="6">
         <v>5</v>
       </c>
-      <c r="K48" s="14"/>
+      <c r="K48" s="15"/>
       <c r="L48" t="s">
         <v>127</v>
       </c>
@@ -2796,20 +2842,19 @@
       <c r="B49" s="3">
         <v>45916</v>
       </c>
-      <c r="C49" s="18" t="s">
+      <c r="C49" s="14" t="s">
         <v>273</v>
       </c>
       <c r="D49">
         <v>131</v>
       </c>
-      <c r="H49" s="14"/>
       <c r="I49" s="13" t="s">
         <v>251</v>
       </c>
       <c r="J49" s="6">
         <v>5</v>
       </c>
-      <c r="K49" s="14"/>
+      <c r="K49" s="15"/>
       <c r="L49" t="s">
         <v>128</v>
       </c>
@@ -2818,14 +2863,13 @@
       </c>
     </row>
     <row r="50" spans="2:13">
-      <c r="H50" s="14"/>
       <c r="I50" s="13" t="s">
         <v>232</v>
       </c>
       <c r="J50" s="6">
         <v>45</v>
       </c>
-      <c r="K50" s="14"/>
+      <c r="K50" s="15"/>
       <c r="L50" t="s">
         <v>129</v>
       </c>
@@ -2834,14 +2878,13 @@
       </c>
     </row>
     <row r="51" spans="2:13">
-      <c r="H51" s="14"/>
       <c r="I51" s="13" t="s">
         <v>233</v>
       </c>
       <c r="J51" s="11">
         <v>24</v>
       </c>
-      <c r="K51" s="14"/>
+      <c r="K51" s="15"/>
       <c r="L51" t="s">
         <v>130</v>
       </c>
@@ -2850,14 +2893,13 @@
       </c>
     </row>
     <row r="52" spans="2:13">
-      <c r="H52" s="14"/>
       <c r="I52" s="13" t="s">
         <v>234</v>
       </c>
       <c r="J52" s="6">
         <v>26</v>
       </c>
-      <c r="K52" s="14"/>
+      <c r="K52" s="15"/>
       <c r="L52" t="s">
         <v>131</v>
       </c>
@@ -2866,14 +2908,13 @@
       </c>
     </row>
     <row r="53" spans="2:13">
-      <c r="H53" s="14"/>
       <c r="I53" s="13" t="s">
         <v>235</v>
       </c>
       <c r="J53" s="9">
         <v>1</v>
       </c>
-      <c r="K53" s="14"/>
+      <c r="K53" s="15"/>
       <c r="L53" s="8" t="s">
         <v>132</v>
       </c>
@@ -2882,14 +2923,13 @@
       </c>
     </row>
     <row r="54" spans="2:13">
-      <c r="H54" s="14"/>
       <c r="I54" s="13" t="s">
         <v>236</v>
       </c>
       <c r="J54" s="6">
         <v>18</v>
       </c>
-      <c r="K54" s="14"/>
+      <c r="K54" s="15"/>
       <c r="L54" t="s">
         <v>133</v>
       </c>
@@ -2898,14 +2938,13 @@
       </c>
     </row>
     <row r="55" spans="2:13">
-      <c r="H55" s="14"/>
       <c r="I55" s="13" t="s">
         <v>237</v>
       </c>
       <c r="J55" s="6">
         <v>1</v>
       </c>
-      <c r="K55" s="14"/>
+      <c r="K55" s="15"/>
       <c r="L55" t="s">
         <v>134</v>
       </c>
@@ -2914,14 +2953,13 @@
       </c>
     </row>
     <row r="56" spans="2:13">
-      <c r="H56" s="14"/>
       <c r="I56" s="13" t="s">
         <v>238</v>
       </c>
       <c r="J56" s="10">
         <v>32</v>
       </c>
-      <c r="K56" s="14"/>
+      <c r="K56" s="15"/>
       <c r="L56" t="s">
         <v>135</v>
       </c>
@@ -2930,14 +2968,13 @@
       </c>
     </row>
     <row r="57" spans="2:13">
-      <c r="H57" s="14"/>
       <c r="I57" s="13" t="s">
         <v>239</v>
       </c>
       <c r="J57" s="11">
         <v>1</v>
       </c>
-      <c r="K57" s="14"/>
+      <c r="K57" s="15"/>
       <c r="L57" t="s">
         <v>136</v>
       </c>
@@ -2946,14 +2983,13 @@
       </c>
     </row>
     <row r="58" spans="2:13">
-      <c r="H58" s="14"/>
       <c r="I58" s="13" t="s">
         <v>240</v>
       </c>
       <c r="J58" s="11">
         <v>18</v>
       </c>
-      <c r="K58" s="14"/>
+      <c r="K58" s="15"/>
       <c r="L58" t="s">
         <v>137</v>
       </c>
@@ -2962,14 +2998,13 @@
       </c>
     </row>
     <row r="59" spans="2:13">
-      <c r="H59" s="14"/>
       <c r="I59" s="13" t="s">
         <v>241</v>
       </c>
       <c r="J59" s="10">
         <v>1</v>
       </c>
-      <c r="K59" s="14"/>
+      <c r="K59" s="15"/>
       <c r="L59" t="s">
         <v>138</v>
       </c>
@@ -2978,14 +3013,13 @@
       </c>
     </row>
     <row r="60" spans="2:13">
-      <c r="H60" s="14"/>
       <c r="I60" s="13" t="s">
         <v>242</v>
       </c>
       <c r="J60" s="10">
         <v>14</v>
       </c>
-      <c r="K60" s="14"/>
+      <c r="K60" s="15"/>
       <c r="L60" t="s">
         <v>139</v>
       </c>
@@ -2994,14 +3028,13 @@
       </c>
     </row>
     <row r="61" spans="2:13">
-      <c r="H61" s="14"/>
       <c r="I61" s="13" t="s">
         <v>243</v>
       </c>
       <c r="J61" s="11">
         <v>2</v>
       </c>
-      <c r="K61" s="14"/>
+      <c r="K61" s="15"/>
       <c r="L61" t="s">
         <v>140</v>
       </c>
@@ -3010,14 +3043,13 @@
       </c>
     </row>
     <row r="62" spans="2:13">
-      <c r="H62" s="14"/>
       <c r="I62" s="13" t="s">
         <v>244</v>
       </c>
       <c r="J62" s="11">
         <v>17</v>
       </c>
-      <c r="K62" s="14"/>
+      <c r="K62" s="15"/>
       <c r="L62" t="s">
         <v>141</v>
       </c>
@@ -3026,14 +3058,13 @@
       </c>
     </row>
     <row r="63" spans="2:13">
-      <c r="H63" s="14"/>
       <c r="I63" s="13" t="s">
         <v>245</v>
       </c>
       <c r="J63" s="11">
         <v>1</v>
       </c>
-      <c r="K63" s="14"/>
+      <c r="K63" s="15"/>
       <c r="L63" t="s">
         <v>142</v>
       </c>
@@ -3042,14 +3073,13 @@
       </c>
     </row>
     <row r="64" spans="2:13">
-      <c r="H64" s="14"/>
       <c r="I64" s="13" t="s">
         <v>246</v>
       </c>
       <c r="J64" s="11">
         <v>12</v>
       </c>
-      <c r="K64" s="14"/>
+      <c r="K64" s="15"/>
       <c r="L64" t="s">
         <v>143</v>
       </c>
@@ -3057,15 +3087,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="8:13">
-      <c r="H65" s="14"/>
+    <row r="65" spans="9:13">
       <c r="I65" s="13" t="s">
         <v>247</v>
       </c>
       <c r="J65" s="11">
         <v>43</v>
       </c>
-      <c r="K65" s="14"/>
+      <c r="K65" s="15"/>
       <c r="L65" t="s">
         <v>144</v>
       </c>
@@ -3073,15 +3102,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="8:13">
-      <c r="H66" s="14"/>
+    <row r="66" spans="9:13">
       <c r="I66" s="13" t="s">
         <v>248</v>
       </c>
       <c r="J66" s="11">
         <v>53</v>
       </c>
-      <c r="K66" s="14"/>
+      <c r="K66" s="15"/>
       <c r="L66" t="s">
         <v>145</v>
       </c>
@@ -3089,15 +3117,14 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="8:13">
-      <c r="H67" s="14"/>
+    <row r="67" spans="9:13">
       <c r="I67" s="13" t="s">
         <v>249</v>
       </c>
       <c r="J67" s="11">
         <v>66</v>
       </c>
-      <c r="K67" s="14"/>
+      <c r="K67" s="15"/>
       <c r="L67" t="s">
         <v>146</v>
       </c>
@@ -3105,15 +3132,14 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="8:13">
-      <c r="H68" s="14"/>
+    <row r="68" spans="9:13">
       <c r="I68" s="13" t="s">
         <v>252</v>
       </c>
       <c r="J68" s="11">
         <v>13</v>
       </c>
-      <c r="K68" s="14"/>
+      <c r="K68" s="15"/>
       <c r="L68" t="s">
         <v>147</v>
       </c>
@@ -3121,15 +3147,14 @@
         <v>22</v>
       </c>
     </row>
-    <row r="69" spans="8:13">
-      <c r="H69" s="14"/>
+    <row r="69" spans="9:13">
       <c r="I69" s="13" t="s">
         <v>203</v>
       </c>
       <c r="J69" s="11">
         <v>10</v>
       </c>
-      <c r="K69" s="14"/>
+      <c r="K69" s="15"/>
       <c r="L69" t="s">
         <v>148</v>
       </c>
@@ -3137,15 +3162,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="8:13">
-      <c r="H70" s="14"/>
+    <row r="70" spans="9:13">
       <c r="I70" s="13" t="s">
         <v>204</v>
       </c>
       <c r="J70" s="11">
         <v>40</v>
       </c>
-      <c r="K70" s="14"/>
+      <c r="K70" s="15"/>
       <c r="L70" t="s">
         <v>149</v>
       </c>
@@ -3153,15 +3177,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="8:13">
-      <c r="H71" s="14"/>
+    <row r="71" spans="9:13">
       <c r="I71" s="13" t="s">
         <v>253</v>
       </c>
       <c r="J71" s="11">
         <v>15</v>
       </c>
-      <c r="K71" s="14"/>
+      <c r="K71" s="15"/>
       <c r="L71" t="s">
         <v>150</v>
       </c>
@@ -3169,15 +3192,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="8:13">
-      <c r="H72" s="14"/>
+    <row r="72" spans="9:13">
       <c r="I72" s="13" t="s">
         <v>208</v>
       </c>
       <c r="J72" s="11">
         <v>8</v>
       </c>
-      <c r="K72" s="14"/>
+      <c r="K72" s="15"/>
       <c r="L72" t="s">
         <v>151</v>
       </c>
@@ -3185,15 +3207,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="8:13">
-      <c r="H73" s="14"/>
+    <row r="73" spans="9:13">
       <c r="I73" s="13" t="s">
         <v>209</v>
       </c>
       <c r="J73" s="11">
         <v>19</v>
       </c>
-      <c r="K73" s="14"/>
+      <c r="K73" s="15"/>
       <c r="L73" t="s">
         <v>152</v>
       </c>
@@ -3201,15 +3222,14 @@
         <v>24</v>
       </c>
     </row>
-    <row r="74" spans="8:13">
-      <c r="H74" s="14"/>
+    <row r="74" spans="9:13">
       <c r="I74" s="13" t="s">
         <v>210</v>
       </c>
       <c r="J74" s="11">
         <v>14</v>
       </c>
-      <c r="K74" s="14"/>
+      <c r="K74" s="15"/>
       <c r="L74" t="s">
         <v>153</v>
       </c>
@@ -3217,15 +3237,14 @@
         <v>16</v>
       </c>
     </row>
-    <row r="75" spans="8:13">
-      <c r="H75" s="14"/>
+    <row r="75" spans="9:13">
       <c r="I75" t="s">
         <v>211</v>
       </c>
       <c r="J75" s="11">
         <v>2</v>
       </c>
-      <c r="K75" s="14"/>
+      <c r="K75" s="15"/>
       <c r="L75" t="s">
         <v>154</v>
       </c>
@@ -3233,15 +3252,14 @@
         <v>22</v>
       </c>
     </row>
-    <row r="76" spans="8:13">
-      <c r="H76" s="14"/>
+    <row r="76" spans="9:13">
       <c r="I76" t="s">
         <v>212</v>
       </c>
       <c r="J76" s="11">
         <v>22</v>
       </c>
-      <c r="K76" s="14"/>
+      <c r="K76" s="15"/>
       <c r="L76" t="s">
         <v>155</v>
       </c>
@@ -3249,15 +3267,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="8:13">
-      <c r="H77" s="14"/>
+    <row r="77" spans="9:13">
       <c r="I77" s="13" t="s">
         <v>213</v>
       </c>
       <c r="J77" s="11">
         <v>11</v>
       </c>
-      <c r="K77" s="14"/>
+      <c r="K77" s="15"/>
       <c r="L77" t="s">
         <v>156</v>
       </c>
@@ -3265,15 +3282,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="8:13">
-      <c r="H78" s="14"/>
+    <row r="78" spans="9:13">
       <c r="I78" t="s">
         <v>214</v>
       </c>
       <c r="J78" s="11">
         <v>9</v>
       </c>
-      <c r="K78" s="14"/>
+      <c r="K78" s="15"/>
       <c r="L78" t="s">
         <v>157</v>
       </c>
@@ -3281,15 +3297,14 @@
         <v>26</v>
       </c>
     </row>
-    <row r="79" spans="8:13">
-      <c r="H79" s="14"/>
+    <row r="79" spans="9:13">
       <c r="I79" t="s">
         <v>215</v>
       </c>
       <c r="J79" s="11">
         <v>33</v>
       </c>
-      <c r="K79" s="14"/>
+      <c r="K79" s="15"/>
       <c r="L79" t="s">
         <v>158</v>
       </c>
@@ -3297,15 +3312,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="8:13">
-      <c r="H80" s="14"/>
+    <row r="80" spans="9:13">
       <c r="I80" s="13" t="s">
         <v>218</v>
       </c>
       <c r="J80" s="11">
         <v>15</v>
       </c>
-      <c r="K80" s="14"/>
+      <c r="K80" s="15"/>
       <c r="L80" t="s">
         <v>159</v>
       </c>
@@ -3313,15 +3327,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="8:13">
-      <c r="H81" s="14"/>
+    <row r="81" spans="9:13">
       <c r="I81" s="13" t="s">
         <v>254</v>
       </c>
       <c r="J81" s="11">
         <v>7</v>
       </c>
-      <c r="K81" s="14"/>
+      <c r="K81" s="15"/>
       <c r="L81" s="8" t="s">
         <v>160</v>
       </c>
@@ -3329,15 +3342,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="8:13">
-      <c r="H82" s="14"/>
+    <row r="82" spans="9:13">
       <c r="I82" s="13" t="s">
         <v>219</v>
       </c>
       <c r="J82" s="11">
         <v>12</v>
       </c>
-      <c r="K82" s="14"/>
+      <c r="K82" s="15"/>
       <c r="L82" t="s">
         <v>161</v>
       </c>
@@ -3345,15 +3357,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="8:13">
-      <c r="H83" s="14"/>
+    <row r="83" spans="9:13">
       <c r="I83" s="13" t="s">
         <v>220</v>
       </c>
       <c r="J83" s="11">
         <v>107</v>
       </c>
-      <c r="K83" s="14"/>
+      <c r="K83" s="15"/>
       <c r="L83" t="s">
         <v>162</v>
       </c>
@@ -3361,15 +3372,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="8:13">
-      <c r="H84" s="14"/>
+    <row r="84" spans="9:13">
       <c r="I84" s="13" t="s">
         <v>222</v>
       </c>
       <c r="J84" s="11">
         <v>12</v>
       </c>
-      <c r="K84" s="14"/>
+      <c r="K84" s="15"/>
       <c r="L84" t="s">
         <v>163</v>
       </c>
@@ -3377,15 +3387,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="8:13">
-      <c r="H85" s="14"/>
+    <row r="85" spans="9:13">
       <c r="I85" t="s">
         <v>223</v>
       </c>
       <c r="J85" s="11">
         <v>6</v>
       </c>
-      <c r="K85" s="14"/>
+      <c r="K85" s="15"/>
       <c r="L85" t="s">
         <v>164</v>
       </c>
@@ -3393,15 +3402,14 @@
         <v>12</v>
       </c>
     </row>
-    <row r="86" spans="8:13">
-      <c r="H86" s="14"/>
+    <row r="86" spans="9:13">
       <c r="I86" s="13" t="s">
         <v>224</v>
       </c>
       <c r="J86" s="11">
         <v>24</v>
       </c>
-      <c r="K86" s="14"/>
+      <c r="K86" s="15"/>
       <c r="L86" t="s">
         <v>165</v>
       </c>
@@ -3409,15 +3417,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="8:13">
-      <c r="H87" s="14"/>
+    <row r="87" spans="9:13">
       <c r="I87" s="13" t="s">
         <v>255</v>
       </c>
       <c r="J87" s="11">
         <v>64</v>
       </c>
-      <c r="K87" s="14"/>
+      <c r="K87" s="15"/>
       <c r="L87" t="s">
         <v>166</v>
       </c>
@@ -3425,15 +3432,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="8:13">
-      <c r="H88" s="14"/>
+    <row r="88" spans="9:13">
       <c r="I88" s="13" t="s">
         <v>256</v>
       </c>
       <c r="J88" s="11">
         <v>38</v>
       </c>
-      <c r="K88" s="14"/>
+      <c r="K88" s="15"/>
       <c r="L88" t="s">
         <v>167</v>
       </c>
@@ -3441,15 +3447,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="8:13">
-      <c r="H89" s="14"/>
+    <row r="89" spans="9:13">
       <c r="I89" s="13" t="s">
         <v>257</v>
       </c>
       <c r="J89" s="11">
         <v>42</v>
       </c>
-      <c r="K89" s="14"/>
+      <c r="K89" s="15"/>
       <c r="L89" t="s">
         <v>168</v>
       </c>
@@ -3457,15 +3462,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="8:13">
-      <c r="H90" s="14"/>
+    <row r="90" spans="9:13">
       <c r="I90" t="s">
         <v>196</v>
       </c>
       <c r="J90" s="11">
         <v>2</v>
       </c>
-      <c r="K90" s="14"/>
+      <c r="K90" s="15"/>
       <c r="L90" t="s">
         <v>169</v>
       </c>
@@ -3473,10 +3477,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="8:13">
-      <c r="H91" s="3"/>
+    <row r="91" spans="9:13">
       <c r="J91" s="6"/>
-      <c r="K91" s="14"/>
+      <c r="K91" s="15"/>
       <c r="L91" t="s">
         <v>170</v>
       </c>
@@ -3484,10 +3487,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="8:13">
-      <c r="H92" s="3"/>
+    <row r="92" spans="9:13">
       <c r="J92" s="6"/>
-      <c r="K92" s="14"/>
+      <c r="K92" s="15"/>
       <c r="L92" t="s">
         <v>171</v>
       </c>
@@ -3495,10 +3497,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="8:13">
-      <c r="H93" s="3"/>
+    <row r="93" spans="9:13">
       <c r="J93" s="6"/>
-      <c r="K93" s="14"/>
+      <c r="K93" s="15"/>
       <c r="L93" t="s">
         <v>172</v>
       </c>
@@ -3506,10 +3507,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="8:13">
-      <c r="H94" s="3"/>
+    <row r="94" spans="9:13">
       <c r="J94" s="6"/>
-      <c r="K94" s="14"/>
+      <c r="K94" s="15"/>
       <c r="L94" t="s">
         <v>173</v>
       </c>
@@ -3517,10 +3517,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="8:13">
-      <c r="H95" s="3"/>
+    <row r="95" spans="9:13">
       <c r="J95" s="6"/>
-      <c r="K95" s="14"/>
+      <c r="K95" s="15"/>
       <c r="L95" t="s">
         <v>174</v>
       </c>
@@ -3528,9 +3527,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="8:13">
-      <c r="H96" s="3"/>
-      <c r="K96" s="14"/>
+    <row r="96" spans="9:13">
+      <c r="K96" s="15"/>
       <c r="L96" t="s">
         <v>175</v>
       </c>
@@ -3539,7 +3537,7 @@
       </c>
     </row>
     <row r="97" spans="11:13">
-      <c r="K97" s="14"/>
+      <c r="K97" s="15"/>
       <c r="L97" t="s">
         <v>176</v>
       </c>
@@ -3548,7 +3546,7 @@
       </c>
     </row>
     <row r="98" spans="11:13">
-      <c r="K98" s="14"/>
+      <c r="K98" s="15"/>
       <c r="L98" t="s">
         <v>177</v>
       </c>
@@ -3557,7 +3555,7 @@
       </c>
     </row>
     <row r="99" spans="11:13">
-      <c r="K99" s="14"/>
+      <c r="K99" s="15"/>
       <c r="L99" t="s">
         <v>178</v>
       </c>
@@ -3566,7 +3564,7 @@
       </c>
     </row>
     <row r="100" spans="11:13">
-      <c r="K100" s="14"/>
+      <c r="K100" s="15"/>
       <c r="L100" t="s">
         <v>179</v>
       </c>
@@ -3575,7 +3573,7 @@
       </c>
     </row>
     <row r="101" spans="11:13">
-      <c r="K101" s="14"/>
+      <c r="K101" s="15"/>
       <c r="L101" t="s">
         <v>180</v>
       </c>
@@ -3584,7 +3582,7 @@
       </c>
     </row>
     <row r="102" spans="11:13">
-      <c r="K102" s="14"/>
+      <c r="K102" s="15"/>
       <c r="L102" t="s">
         <v>181</v>
       </c>
@@ -3593,7 +3591,7 @@
       </c>
     </row>
     <row r="103" spans="11:13">
-      <c r="K103" s="14"/>
+      <c r="K103" s="15"/>
       <c r="L103" s="13" t="s">
         <v>182</v>
       </c>
@@ -3602,7 +3600,7 @@
       </c>
     </row>
     <row r="104" spans="11:13">
-      <c r="K104" s="14"/>
+      <c r="K104" s="15"/>
       <c r="L104" t="s">
         <v>183</v>
       </c>
@@ -3611,7 +3609,7 @@
       </c>
     </row>
     <row r="105" spans="11:13">
-      <c r="K105" s="14"/>
+      <c r="K105" s="15"/>
       <c r="L105" t="s">
         <v>184</v>
       </c>
@@ -3620,7 +3618,7 @@
       </c>
     </row>
     <row r="106" spans="11:13">
-      <c r="K106" s="14"/>
+      <c r="K106" s="15"/>
       <c r="L106" t="s">
         <v>185</v>
       </c>
@@ -3629,7 +3627,7 @@
       </c>
     </row>
     <row r="107" spans="11:13">
-      <c r="K107" s="14"/>
+      <c r="K107" s="15"/>
       <c r="L107" t="s">
         <v>186</v>
       </c>
@@ -3638,7 +3636,7 @@
       </c>
     </row>
     <row r="108" spans="11:13">
-      <c r="K108" s="14"/>
+      <c r="K108" s="15"/>
       <c r="L108" t="s">
         <v>187</v>
       </c>
@@ -3647,7 +3645,7 @@
       </c>
     </row>
     <row r="109" spans="11:13">
-      <c r="K109" s="14"/>
+      <c r="K109" s="15"/>
       <c r="L109" t="s">
         <v>188</v>
       </c>
@@ -3656,7 +3654,7 @@
       </c>
     </row>
     <row r="110" spans="11:13">
-      <c r="K110" s="14"/>
+      <c r="K110" s="15"/>
       <c r="L110" t="s">
         <v>189</v>
       </c>
@@ -3665,7 +3663,7 @@
       </c>
     </row>
     <row r="111" spans="11:13">
-      <c r="K111" s="14"/>
+      <c r="K111" s="15"/>
       <c r="L111" t="s">
         <v>190</v>
       </c>
@@ -3674,7 +3672,7 @@
       </c>
     </row>
     <row r="112" spans="11:13">
-      <c r="K112" s="14"/>
+      <c r="K112" s="15"/>
       <c r="L112" t="s">
         <v>191</v>
       </c>
@@ -3683,7 +3681,7 @@
       </c>
     </row>
     <row r="113" spans="11:13">
-      <c r="K113" s="14"/>
+      <c r="K113" s="15"/>
       <c r="L113" t="s">
         <v>192</v>
       </c>
@@ -3692,7 +3690,7 @@
       </c>
     </row>
     <row r="114" spans="11:13">
-      <c r="K114" s="14"/>
+      <c r="K114" s="15"/>
       <c r="L114" t="s">
         <v>193</v>
       </c>
@@ -3701,7 +3699,7 @@
       </c>
     </row>
     <row r="115" spans="11:13">
-      <c r="K115" s="14"/>
+      <c r="K115" s="15"/>
       <c r="L115" t="s">
         <v>194</v>
       </c>
@@ -3710,7 +3708,7 @@
       </c>
     </row>
     <row r="116" spans="11:13">
-      <c r="K116" s="14"/>
+      <c r="K116" s="15"/>
       <c r="L116" t="s">
         <v>195</v>
       </c>
@@ -3719,7 +3717,7 @@
       </c>
     </row>
     <row r="117" spans="11:13">
-      <c r="K117" s="14"/>
+      <c r="K117" s="15"/>
       <c r="L117" t="s">
         <v>196</v>
       </c>
@@ -3728,7 +3726,7 @@
       </c>
     </row>
     <row r="118" spans="11:13">
-      <c r="K118" s="14"/>
+      <c r="K118" s="15"/>
       <c r="L118" t="s">
         <v>197</v>
       </c>
@@ -3737,7 +3735,7 @@
       </c>
     </row>
     <row r="119" spans="11:13">
-      <c r="K119" s="14"/>
+      <c r="K119" s="15"/>
       <c r="L119" t="s">
         <v>198</v>
       </c>
@@ -3746,7 +3744,7 @@
       </c>
     </row>
     <row r="120" spans="11:13">
-      <c r="K120" s="14"/>
+      <c r="K120" s="15"/>
       <c r="L120" t="s">
         <v>199</v>
       </c>
@@ -3755,7 +3753,7 @@
       </c>
     </row>
     <row r="121" spans="11:13">
-      <c r="K121" s="14"/>
+      <c r="K121" s="15"/>
       <c r="L121" t="s">
         <v>200</v>
       </c>
@@ -3764,7 +3762,7 @@
       </c>
     </row>
     <row r="122" spans="11:13">
-      <c r="K122" s="14"/>
+      <c r="K122" s="15"/>
       <c r="L122" s="13" t="s">
         <v>201</v>
       </c>
@@ -3773,7 +3771,7 @@
       </c>
     </row>
     <row r="123" spans="11:13">
-      <c r="K123" s="14"/>
+      <c r="K123" s="15"/>
       <c r="L123" t="s">
         <v>202</v>
       </c>
@@ -3782,7 +3780,7 @@
       </c>
     </row>
     <row r="124" spans="11:13">
-      <c r="K124" s="14"/>
+      <c r="K124" s="15"/>
       <c r="L124" t="s">
         <v>203</v>
       </c>
@@ -3791,7 +3789,7 @@
       </c>
     </row>
     <row r="125" spans="11:13">
-      <c r="K125" s="14"/>
+      <c r="K125" s="15"/>
       <c r="L125" t="s">
         <v>204</v>
       </c>
@@ -3800,7 +3798,7 @@
       </c>
     </row>
     <row r="126" spans="11:13">
-      <c r="K126" s="14"/>
+      <c r="K126" s="15"/>
       <c r="L126" t="s">
         <v>205</v>
       </c>
@@ -3809,7 +3807,7 @@
       </c>
     </row>
     <row r="127" spans="11:13">
-      <c r="K127" s="14"/>
+      <c r="K127" s="15"/>
       <c r="L127" t="s">
         <v>206</v>
       </c>
@@ -3818,7 +3816,7 @@
       </c>
     </row>
     <row r="128" spans="11:13">
-      <c r="K128" s="14"/>
+      <c r="K128" s="15"/>
       <c r="L128" t="s">
         <v>207</v>
       </c>
@@ -3827,7 +3825,7 @@
       </c>
     </row>
     <row r="129" spans="11:13">
-      <c r="K129" s="14"/>
+      <c r="K129" s="15"/>
       <c r="L129" t="s">
         <v>208</v>
       </c>
@@ -3836,7 +3834,7 @@
       </c>
     </row>
     <row r="130" spans="11:13">
-      <c r="K130" s="14"/>
+      <c r="K130" s="15"/>
       <c r="L130" t="s">
         <v>209</v>
       </c>
@@ -3845,7 +3843,7 @@
       </c>
     </row>
     <row r="131" spans="11:13">
-      <c r="K131" s="14"/>
+      <c r="K131" s="15"/>
       <c r="L131" t="s">
         <v>210</v>
       </c>
@@ -3854,7 +3852,7 @@
       </c>
     </row>
     <row r="132" spans="11:13">
-      <c r="K132" s="14"/>
+      <c r="K132" s="15"/>
       <c r="L132" t="s">
         <v>211</v>
       </c>
@@ -3863,7 +3861,7 @@
       </c>
     </row>
     <row r="133" spans="11:13">
-      <c r="K133" s="14"/>
+      <c r="K133" s="15"/>
       <c r="L133" t="s">
         <v>212</v>
       </c>
@@ -3872,7 +3870,7 @@
       </c>
     </row>
     <row r="134" spans="11:13">
-      <c r="K134" s="14"/>
+      <c r="K134" s="15"/>
       <c r="L134" t="s">
         <v>213</v>
       </c>
@@ -3881,7 +3879,7 @@
       </c>
     </row>
     <row r="135" spans="11:13">
-      <c r="K135" s="14"/>
+      <c r="K135" s="15"/>
       <c r="L135" t="s">
         <v>214</v>
       </c>
@@ -3890,7 +3888,7 @@
       </c>
     </row>
     <row r="136" spans="11:13">
-      <c r="K136" s="14"/>
+      <c r="K136" s="15"/>
       <c r="L136" t="s">
         <v>215</v>
       </c>
@@ -3899,7 +3897,7 @@
       </c>
     </row>
     <row r="137" spans="11:13">
-      <c r="K137" s="14"/>
+      <c r="K137" s="15"/>
       <c r="L137" t="s">
         <v>216</v>
       </c>
@@ -3908,7 +3906,7 @@
       </c>
     </row>
     <row r="138" spans="11:13">
-      <c r="K138" s="14"/>
+      <c r="K138" s="15"/>
       <c r="L138" t="s">
         <v>217</v>
       </c>
@@ -3917,7 +3915,7 @@
       </c>
     </row>
     <row r="139" spans="11:13">
-      <c r="K139" s="14"/>
+      <c r="K139" s="15"/>
       <c r="L139" t="s">
         <v>218</v>
       </c>
@@ -3926,7 +3924,7 @@
       </c>
     </row>
     <row r="140" spans="11:13">
-      <c r="K140" s="14"/>
+      <c r="K140" s="15"/>
       <c r="L140" t="s">
         <v>219</v>
       </c>
@@ -3935,7 +3933,7 @@
       </c>
     </row>
     <row r="141" spans="11:13">
-      <c r="K141" s="14"/>
+      <c r="K141" s="15"/>
       <c r="L141" t="s">
         <v>220</v>
       </c>
@@ -3944,7 +3942,7 @@
       </c>
     </row>
     <row r="142" spans="11:13">
-      <c r="K142" s="14"/>
+      <c r="K142" s="15"/>
       <c r="L142" t="s">
         <v>221</v>
       </c>
@@ -3953,7 +3951,7 @@
       </c>
     </row>
     <row r="143" spans="11:13">
-      <c r="K143" s="14"/>
+      <c r="K143" s="15"/>
       <c r="L143" t="s">
         <v>222</v>
       </c>
@@ -3962,7 +3960,7 @@
       </c>
     </row>
     <row r="144" spans="11:13">
-      <c r="K144" s="14"/>
+      <c r="K144" s="15"/>
       <c r="L144" t="s">
         <v>223</v>
       </c>
@@ -3971,7 +3969,7 @@
       </c>
     </row>
     <row r="145" spans="11:13">
-      <c r="K145" s="14"/>
+      <c r="K145" s="15"/>
       <c r="L145" t="s">
         <v>224</v>
       </c>
@@ -3980,7 +3978,7 @@
       </c>
     </row>
     <row r="146" spans="11:13">
-      <c r="K146" s="14"/>
+      <c r="K146" s="15"/>
       <c r="L146" s="13" t="s">
         <v>225</v>
       </c>
@@ -3989,7 +3987,7 @@
       </c>
     </row>
     <row r="147" spans="11:13">
-      <c r="K147" s="14"/>
+      <c r="K147" s="15"/>
       <c r="L147" t="s">
         <v>226</v>
       </c>
@@ -3998,7 +3996,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="12">
     <mergeCell ref="K8:K44"/>
     <mergeCell ref="K45:K147"/>
     <mergeCell ref="B5:D5"/>
@@ -4010,7 +4008,6 @@
     <mergeCell ref="B18:B34"/>
     <mergeCell ref="H21:H34"/>
     <mergeCell ref="E21:E29"/>
-    <mergeCell ref="H35:H90"/>
     <mergeCell ref="B35:B48"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4039,47 +4036,47 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>227</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17" t="s">
+      <c r="C2" s="18"/>
+      <c r="D2" s="18" t="s">
         <v>230</v>
       </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17" t="s">
+      <c r="E2" s="18"/>
+      <c r="F2" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17" t="s">
+      <c r="G2" s="18"/>
+      <c r="H2" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="I2" s="17"/>
+      <c r="I2" s="18"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="17">
         <f>Arkusz1!D4</f>
-        <v>1.0025468858532067</v>
-      </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16">
+        <v>0.96694953104064318</v>
+      </c>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17">
         <f>Arkusz1!G4</f>
-        <v>0.71266496874276453</v>
-      </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16">
+        <v>0.829388119696293</v>
+      </c>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17">
         <f>Arkusz1!J4</f>
-        <v>0.82982171799027549</v>
-      </c>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16">
+        <v>0.80035730236712821</v>
+      </c>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17">
         <f>Arkusz1!M4</f>
-        <v>1.4549664274137533</v>
-      </c>
-      <c r="I3" s="16"/>
+        <v>1.4033050468959356</v>
+      </c>
+      <c r="I3" s="17"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4">
@@ -4087,11 +4084,11 @@
       </c>
       <c r="B4" t="str">
         <f>IF((B$3*$A4)&gt;=3,"Zaliczenie","Warunek")</f>
-        <v>Zaliczenie</v>
+        <v>Warunek</v>
       </c>
       <c r="C4">
         <f>B$3*$A4</f>
-        <v>3.0076406575596204</v>
+        <v>2.9008485931219297</v>
       </c>
       <c r="D4" t="str">
         <f>IF((D$3*$A4)&gt;=3,"Zaliczenie","Warunek")</f>
@@ -4099,7 +4096,7 @@
       </c>
       <c r="E4">
         <f>D$3*$A4</f>
-        <v>2.1379949062282937</v>
+        <v>2.4881643590888789</v>
       </c>
       <c r="F4" t="str">
         <f>IF((F$3*$A4)&gt;=3,"Zaliczenie","Warunek")</f>
@@ -4107,7 +4104,7 @@
       </c>
       <c r="G4">
         <f>F$3*$A4</f>
-        <v>2.4894651539708263</v>
+        <v>2.4010719071013846</v>
       </c>
       <c r="H4" t="str">
         <f>IF((H$3*$A4)&gt;=3,"Zaliczenie","Warunek")</f>
@@ -4115,7 +4112,7 @@
       </c>
       <c r="I4">
         <f>H$3*$A4</f>
-        <v>4.36489928224126</v>
+        <v>4.2099151406878068</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -4128,7 +4125,7 @@
       </c>
       <c r="C5">
         <f>B$3*$A5</f>
-        <v>3.5089141004862237</v>
+        <v>3.3843233586422512</v>
       </c>
       <c r="D5" t="str">
         <f>IF((D$3*$A5)&gt;=3,"Zaliczenie","Warunek")</f>
@@ -4136,7 +4133,7 @@
       </c>
       <c r="E5">
         <f>D$3*$A5</f>
-        <v>2.4943273905996759</v>
+        <v>2.9028584189370257</v>
       </c>
       <c r="F5" t="str">
         <f>IF((F$3*$A5)&gt;=3,"Zaliczenie","Warunek")</f>
@@ -4144,7 +4141,7 @@
       </c>
       <c r="G5">
         <f>F$3*$A5</f>
-        <v>2.9043760129659644</v>
+        <v>2.8012505582849485</v>
       </c>
       <c r="H5" t="str">
         <f>IF((H$3*$A5)&gt;=3,"Zaliczenie","Warunek")</f>
@@ -4152,7 +4149,7 @@
       </c>
       <c r="I5">
         <f>H$3*$A5</f>
-        <v>5.0923824959481365</v>
+        <v>4.9115676641357746</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -4165,15 +4162,15 @@
       </c>
       <c r="C6">
         <f>B$3*$A6</f>
-        <v>4.0101875434128269</v>
+        <v>3.8677981241625727</v>
       </c>
       <c r="D6" t="str">
         <f>IF((D$3*$A6)&gt;=3,"Zaliczenie","Warunek")</f>
-        <v>Warunek</v>
+        <v>Zaliczenie</v>
       </c>
       <c r="E6">
         <f>D$3*$A6</f>
-        <v>2.8506598749710581</v>
+        <v>3.317552478785172</v>
       </c>
       <c r="F6" t="str">
         <f>IF((F$3*$A6)&gt;=3,"Zaliczenie","Warunek")</f>
@@ -4181,7 +4178,7 @@
       </c>
       <c r="G6">
         <f>F$3*$A6</f>
-        <v>3.3192868719611019</v>
+        <v>3.2014292094685128</v>
       </c>
       <c r="H6" t="str">
         <f>IF((H$3*$A6)&gt;=3,"Zaliczenie","Warunek")</f>
@@ -4189,7 +4186,7 @@
       </c>
       <c r="I6">
         <f>H$3*$A6</f>
-        <v>5.819865709655013</v>
+        <v>5.6132201875837424</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -4202,7 +4199,7 @@
       </c>
       <c r="C7">
         <f>B$3*$A7</f>
-        <v>4.5114609863394302</v>
+        <v>4.3512728896828943</v>
       </c>
       <c r="D7" t="str">
         <f>IF((D$3*$A7)&gt;=3,"Zaliczenie","Warunek")</f>
@@ -4210,7 +4207,7 @@
       </c>
       <c r="E7">
         <f>D$3*$A7</f>
-        <v>3.2069923593424403</v>
+        <v>3.7322465386333183</v>
       </c>
       <c r="F7" t="str">
         <f>IF((F$3*$A7)&gt;=3,"Zaliczenie","Warunek")</f>
@@ -4218,7 +4215,7 @@
       </c>
       <c r="G7">
         <f>F$3*$A7</f>
-        <v>3.7341977309562395</v>
+        <v>3.6016078606520772</v>
       </c>
       <c r="H7" t="str">
         <f>IF((H$3*$A7)&gt;=3,"Zaliczenie","Warunek")</f>
@@ -4226,7 +4223,7 @@
       </c>
       <c r="I7">
         <f>H$3*$A7</f>
-        <v>6.5473489233618896</v>
+        <v>6.3148727110317102</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -4239,7 +4236,7 @@
       </c>
       <c r="C8">
         <f>B$3*$A8</f>
-        <v>5.0127344292660334</v>
+        <v>4.8347476552032163</v>
       </c>
       <c r="D8" t="str">
         <f>IF((D$3*$A8)&gt;=3,"Zaliczenie","Warunek")</f>
@@ -4247,7 +4244,7 @@
       </c>
       <c r="E8">
         <f>D$3*$A8</f>
-        <v>3.5633248437138225</v>
+        <v>4.1469405984814651</v>
       </c>
       <c r="F8" t="str">
         <f>IF((F$3*$A8)&gt;=3,"Zaliczenie","Warunek")</f>
@@ -4255,7 +4252,7 @@
       </c>
       <c r="G8">
         <f>F$3*$A8</f>
-        <v>4.1491085899513775</v>
+        <v>4.0017865118356415</v>
       </c>
       <c r="H8" t="str">
         <f>IF((H$3*$A8)&gt;=3,"Zaliczenie","Warunek")</f>
@@ -4263,7 +4260,7 @@
       </c>
       <c r="I8">
         <f>H$3*$A8</f>
-        <v>7.2748321370687661</v>
+        <v>7.016525234479678</v>
       </c>
     </row>
   </sheetData>

--- a/Raport.xlsx
+++ b/Raport.xlsx
@@ -5,16 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\ttt\Tokyo-Garden-Restaurant\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dominik\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25C5EEE3-4393-45B3-853D-8FF5B0A308CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CDB98F2-AE72-4A17-ADE5-D0FDC754929D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
-    <sheet name="Arkusz2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="275">
   <si>
     <t>Liczba członków zespołu</t>
   </si>
@@ -713,21 +712,6 @@
   </si>
   <si>
     <t>zrobione na nowo/tokyo-garden-frontend/src/main.ts</t>
-  </si>
-  <si>
-    <t>Kuba</t>
-  </si>
-  <si>
-    <t>Dominik</t>
-  </si>
-  <si>
-    <t>Szymon</t>
-  </si>
-  <si>
-    <t>Wojciech</t>
-  </si>
-  <si>
-    <t>"zaangażowanie":</t>
   </si>
   <si>
     <t>zrobione na nowo/tokyo-garden-frontend/src/app/admin/admin-panel.component.css</t>
@@ -878,12 +862,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -993,10 +985,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1005,11 +997,14 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1021,16 +1016,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1042,8 +1034,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1535,8 +1527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10:H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -1581,7 +1573,7 @@
       </c>
       <c r="J3">
         <f>SUM(J7:J1001)</f>
-        <v>1792</v>
+        <v>2210</v>
       </c>
       <c r="M3">
         <f>SUM(M7:M1001)</f>
@@ -1595,19 +1587,19 @@
       <c r="B4" s="1"/>
       <c r="D4">
         <f>($B$2*D$3)/SUM($D$3:$AK$3)</f>
-        <v>0.96694953104064318</v>
+        <v>0.92383187540004263</v>
       </c>
       <c r="G4">
         <f>($B$2*G$3)/SUM($D$3:$AK$3)</f>
-        <v>0.829388119696293</v>
+        <v>0.7924045231491359</v>
       </c>
       <c r="J4">
         <f>($B$2*J$3)/SUM($D$3:$AK$3)</f>
-        <v>0.80035730236712821</v>
+        <v>0.94303392361851934</v>
       </c>
       <c r="M4">
         <f>($B$2*M$3)/SUM($D$3:$AK$3)</f>
-        <v>1.4033050468959356</v>
+        <v>1.3407296778323021</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -2487,18 +2479,18 @@
         <v>45907</v>
       </c>
       <c r="C35" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D35">
         <v>65</v>
       </c>
       <c r="F35" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="G35">
         <v>300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="H35" s="15">
         <v>45908</v>
       </c>
       <c r="I35" s="12" t="s">
@@ -2518,18 +2510,18 @@
     <row r="36" spans="2:13">
       <c r="B36" s="17"/>
       <c r="C36" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D36">
         <v>54</v>
       </c>
       <c r="F36" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="G36">
         <v>5</v>
       </c>
-      <c r="H36" s="3"/>
+      <c r="H36" s="15"/>
       <c r="I36" s="7" t="s">
         <v>125</v>
       </c>
@@ -2547,18 +2539,18 @@
     <row r="37" spans="2:13">
       <c r="B37" s="17"/>
       <c r="C37" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D37">
         <v>23</v>
       </c>
       <c r="F37" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="G37">
         <v>3</v>
       </c>
-      <c r="H37" s="3"/>
+      <c r="H37" s="15"/>
       <c r="I37" t="s">
         <v>127</v>
       </c>
@@ -2576,18 +2568,18 @@
     <row r="38" spans="2:13">
       <c r="B38" s="17"/>
       <c r="C38" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D38">
         <v>60</v>
       </c>
       <c r="F38" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="G38">
         <v>2</v>
       </c>
-      <c r="H38" s="3"/>
+      <c r="H38" s="15"/>
       <c r="I38" t="s">
         <v>128</v>
       </c>
@@ -2605,18 +2597,18 @@
     <row r="39" spans="2:13">
       <c r="B39" s="17"/>
       <c r="C39" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D39">
         <v>55</v>
       </c>
       <c r="F39" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="G39">
         <v>1</v>
       </c>
-      <c r="H39" s="3"/>
+      <c r="H39" s="15"/>
       <c r="I39" t="s">
         <v>129</v>
       </c>
@@ -2634,18 +2626,18 @@
     <row r="40" spans="2:13">
       <c r="B40" s="17"/>
       <c r="C40" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D40">
         <v>87</v>
       </c>
       <c r="F40" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="G40">
         <v>7</v>
       </c>
-      <c r="H40" s="3"/>
+      <c r="H40" s="15"/>
       <c r="I40" t="s">
         <v>130</v>
       </c>
@@ -2663,11 +2655,12 @@
     <row r="41" spans="2:13">
       <c r="B41" s="17"/>
       <c r="C41" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D41">
         <v>23</v>
       </c>
+      <c r="H41" s="15"/>
       <c r="I41" t="s">
         <v>131</v>
       </c>
@@ -2685,11 +2678,12 @@
     <row r="42" spans="2:13">
       <c r="B42" s="17"/>
       <c r="C42" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D42">
         <v>55</v>
       </c>
+      <c r="H42" s="15"/>
       <c r="I42" t="s">
         <v>134</v>
       </c>
@@ -2707,11 +2701,12 @@
     <row r="43" spans="2:13">
       <c r="B43" s="17"/>
       <c r="C43" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D43">
         <v>60</v>
       </c>
+      <c r="H43" s="15"/>
       <c r="I43" t="s">
         <v>139</v>
       </c>
@@ -2729,11 +2724,12 @@
     <row r="44" spans="2:13">
       <c r="B44" s="17"/>
       <c r="C44" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D44">
         <v>57</v>
       </c>
+      <c r="H44" s="15"/>
       <c r="I44" t="s">
         <v>140</v>
       </c>
@@ -2751,11 +2747,12 @@
     <row r="45" spans="2:13">
       <c r="B45" s="17"/>
       <c r="C45" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="D45">
         <v>61</v>
       </c>
+      <c r="H45" s="15"/>
       <c r="I45" t="s">
         <v>147</v>
       </c>
@@ -2775,11 +2772,12 @@
     <row r="46" spans="2:13">
       <c r="B46" s="17"/>
       <c r="C46" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D46">
         <v>69</v>
       </c>
+      <c r="H46" s="15"/>
       <c r="I46" s="13" t="s">
         <v>225</v>
       </c>
@@ -2797,13 +2795,14 @@
     <row r="47" spans="2:13">
       <c r="B47" s="17"/>
       <c r="C47" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D47">
         <v>23</v>
       </c>
+      <c r="H47" s="15"/>
       <c r="I47" s="13" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="J47" s="6">
         <v>15</v>
@@ -2819,13 +2818,14 @@
     <row r="48" spans="2:13">
       <c r="B48" s="17"/>
       <c r="C48" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D48">
         <v>55</v>
       </c>
+      <c r="H48" s="15"/>
       <c r="I48" s="13" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="J48" s="6">
         <v>5</v>
@@ -2843,13 +2843,14 @@
         <v>45916</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D49">
         <v>131</v>
       </c>
+      <c r="H49" s="15"/>
       <c r="I49" s="13" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="J49" s="6">
         <v>5</v>
@@ -2863,8 +2864,9 @@
       </c>
     </row>
     <row r="50" spans="2:13">
+      <c r="H50" s="15"/>
       <c r="I50" s="13" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="J50" s="6">
         <v>45</v>
@@ -2878,8 +2880,9 @@
       </c>
     </row>
     <row r="51" spans="2:13">
+      <c r="H51" s="15"/>
       <c r="I51" s="13" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="J51" s="11">
         <v>24</v>
@@ -2893,8 +2896,9 @@
       </c>
     </row>
     <row r="52" spans="2:13">
+      <c r="H52" s="15"/>
       <c r="I52" s="13" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="J52" s="6">
         <v>26</v>
@@ -2908,8 +2912,9 @@
       </c>
     </row>
     <row r="53" spans="2:13">
+      <c r="H53" s="15"/>
       <c r="I53" s="13" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="J53" s="9">
         <v>1</v>
@@ -2923,8 +2928,9 @@
       </c>
     </row>
     <row r="54" spans="2:13">
+      <c r="H54" s="15"/>
       <c r="I54" s="13" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="J54" s="6">
         <v>18</v>
@@ -2938,8 +2944,9 @@
       </c>
     </row>
     <row r="55" spans="2:13">
+      <c r="H55" s="15"/>
       <c r="I55" s="13" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="J55" s="6">
         <v>1</v>
@@ -2953,8 +2960,9 @@
       </c>
     </row>
     <row r="56" spans="2:13">
+      <c r="H56" s="15"/>
       <c r="I56" s="13" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="J56" s="10">
         <v>32</v>
@@ -2968,8 +2976,9 @@
       </c>
     </row>
     <row r="57" spans="2:13">
+      <c r="H57" s="15"/>
       <c r="I57" s="13" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="J57" s="11">
         <v>1</v>
@@ -2983,8 +2992,9 @@
       </c>
     </row>
     <row r="58" spans="2:13">
+      <c r="H58" s="15"/>
       <c r="I58" s="13" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="J58" s="11">
         <v>18</v>
@@ -2998,8 +3008,9 @@
       </c>
     </row>
     <row r="59" spans="2:13">
+      <c r="H59" s="15"/>
       <c r="I59" s="13" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="J59" s="10">
         <v>1</v>
@@ -3013,8 +3024,9 @@
       </c>
     </row>
     <row r="60" spans="2:13">
+      <c r="H60" s="15"/>
       <c r="I60" s="13" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="J60" s="10">
         <v>14</v>
@@ -3028,8 +3040,9 @@
       </c>
     </row>
     <row r="61" spans="2:13">
+      <c r="H61" s="15"/>
       <c r="I61" s="13" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="J61" s="11">
         <v>2</v>
@@ -3043,8 +3056,9 @@
       </c>
     </row>
     <row r="62" spans="2:13">
+      <c r="H62" s="15"/>
       <c r="I62" s="13" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="J62" s="11">
         <v>17</v>
@@ -3058,8 +3072,9 @@
       </c>
     </row>
     <row r="63" spans="2:13">
+      <c r="H63" s="15"/>
       <c r="I63" s="13" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="J63" s="11">
         <v>1</v>
@@ -3073,8 +3088,9 @@
       </c>
     </row>
     <row r="64" spans="2:13">
+      <c r="H64" s="15"/>
       <c r="I64" s="13" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="J64" s="11">
         <v>12</v>
@@ -3087,9 +3103,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="9:13">
+    <row r="65" spans="8:13">
+      <c r="H65" s="15"/>
       <c r="I65" s="13" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="J65" s="11">
         <v>43</v>
@@ -3102,9 +3119,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="9:13">
+    <row r="66" spans="8:13">
+      <c r="H66" s="15"/>
       <c r="I66" s="13" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="J66" s="11">
         <v>53</v>
@@ -3117,9 +3135,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="9:13">
+    <row r="67" spans="8:13">
+      <c r="H67" s="15"/>
       <c r="I67" s="13" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="J67" s="11">
         <v>66</v>
@@ -3132,9 +3151,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="9:13">
+    <row r="68" spans="8:13">
+      <c r="H68" s="15"/>
       <c r="I68" s="13" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="J68" s="11">
         <v>13</v>
@@ -3147,7 +3167,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="69" spans="9:13">
+    <row r="69" spans="8:13">
+      <c r="H69" s="15"/>
       <c r="I69" s="13" t="s">
         <v>203</v>
       </c>
@@ -3162,7 +3183,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="9:13">
+    <row r="70" spans="8:13">
+      <c r="H70" s="15"/>
       <c r="I70" s="13" t="s">
         <v>204</v>
       </c>
@@ -3177,9 +3199,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="9:13">
+    <row r="71" spans="8:13">
+      <c r="H71" s="15"/>
       <c r="I71" s="13" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="J71" s="11">
         <v>15</v>
@@ -3192,7 +3215,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="9:13">
+    <row r="72" spans="8:13">
+      <c r="H72" s="15"/>
       <c r="I72" s="13" t="s">
         <v>208</v>
       </c>
@@ -3207,7 +3231,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="9:13">
+    <row r="73" spans="8:13">
+      <c r="H73" s="15"/>
       <c r="I73" s="13" t="s">
         <v>209</v>
       </c>
@@ -3222,7 +3247,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="74" spans="9:13">
+    <row r="74" spans="8:13">
+      <c r="H74" s="15"/>
       <c r="I74" s="13" t="s">
         <v>210</v>
       </c>
@@ -3237,7 +3263,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="75" spans="9:13">
+    <row r="75" spans="8:13">
+      <c r="H75" s="15"/>
       <c r="I75" t="s">
         <v>211</v>
       </c>
@@ -3252,7 +3279,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="76" spans="9:13">
+    <row r="76" spans="8:13">
+      <c r="H76" s="15"/>
       <c r="I76" t="s">
         <v>212</v>
       </c>
@@ -3267,7 +3295,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="9:13">
+    <row r="77" spans="8:13">
+      <c r="H77" s="15"/>
       <c r="I77" s="13" t="s">
         <v>213</v>
       </c>
@@ -3282,7 +3311,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="9:13">
+    <row r="78" spans="8:13">
+      <c r="H78" s="15"/>
       <c r="I78" t="s">
         <v>214</v>
       </c>
@@ -3297,7 +3327,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="79" spans="9:13">
+    <row r="79" spans="8:13">
+      <c r="H79" s="15"/>
       <c r="I79" t="s">
         <v>215</v>
       </c>
@@ -3312,7 +3343,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="9:13">
+    <row r="80" spans="8:13">
+      <c r="H80" s="15"/>
       <c r="I80" s="13" t="s">
         <v>218</v>
       </c>
@@ -3327,9 +3359,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="9:13">
+    <row r="81" spans="8:13">
+      <c r="H81" s="15"/>
       <c r="I81" s="13" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="J81" s="11">
         <v>7</v>
@@ -3342,7 +3375,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="9:13">
+    <row r="82" spans="8:13">
+      <c r="H82" s="15"/>
       <c r="I82" s="13" t="s">
         <v>219</v>
       </c>
@@ -3357,7 +3391,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="9:13">
+    <row r="83" spans="8:13">
+      <c r="H83" s="15"/>
       <c r="I83" s="13" t="s">
         <v>220</v>
       </c>
@@ -3372,7 +3407,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="9:13">
+    <row r="84" spans="8:13">
+      <c r="H84" s="15"/>
       <c r="I84" s="13" t="s">
         <v>222</v>
       </c>
@@ -3387,7 +3423,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="9:13">
+    <row r="85" spans="8:13">
+      <c r="H85" s="15"/>
       <c r="I85" t="s">
         <v>223</v>
       </c>
@@ -3402,7 +3439,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="86" spans="9:13">
+    <row r="86" spans="8:13">
+      <c r="H86" s="15"/>
       <c r="I86" s="13" t="s">
         <v>224</v>
       </c>
@@ -3417,9 +3455,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="9:13">
+    <row r="87" spans="8:13">
+      <c r="H87" s="15"/>
       <c r="I87" s="13" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="J87" s="11">
         <v>64</v>
@@ -3432,9 +3471,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="9:13">
+    <row r="88" spans="8:13">
+      <c r="H88" s="15"/>
       <c r="I88" s="13" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="J88" s="11">
         <v>38</v>
@@ -3447,9 +3487,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="9:13">
+    <row r="89" spans="8:13">
+      <c r="H89" s="15"/>
       <c r="I89" s="13" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="J89" s="11">
         <v>42</v>
@@ -3462,7 +3503,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="9:13">
+    <row r="90" spans="8:13">
+      <c r="H90" s="15"/>
       <c r="I90" t="s">
         <v>196</v>
       </c>
@@ -3477,8 +3519,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="9:13">
-      <c r="J91" s="6"/>
+    <row r="91" spans="8:13">
+      <c r="H91" s="3">
+        <v>45916</v>
+      </c>
+      <c r="I91" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="J91" s="18">
+        <v>418</v>
+      </c>
       <c r="K91" s="15"/>
       <c r="L91" t="s">
         <v>170</v>
@@ -3487,7 +3537,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="9:13">
+    <row r="92" spans="8:13">
       <c r="J92" s="6"/>
       <c r="K92" s="15"/>
       <c r="L92" t="s">
@@ -3497,7 +3547,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="9:13">
+    <row r="93" spans="8:13">
       <c r="J93" s="6"/>
       <c r="K93" s="15"/>
       <c r="L93" t="s">
@@ -3507,7 +3557,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="9:13">
+    <row r="94" spans="8:13">
       <c r="J94" s="6"/>
       <c r="K94" s="15"/>
       <c r="L94" t="s">
@@ -3517,7 +3567,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="9:13">
+    <row r="95" spans="8:13">
       <c r="J95" s="6"/>
       <c r="K95" s="15"/>
       <c r="L95" t="s">
@@ -3527,7 +3577,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="9:13">
+    <row r="96" spans="8:13">
       <c r="K96" s="15"/>
       <c r="L96" t="s">
         <v>175</v>
@@ -3996,7 +4046,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
     <mergeCell ref="K8:K44"/>
     <mergeCell ref="K45:K147"/>
     <mergeCell ref="B5:D5"/>
@@ -4009,274 +4059,8 @@
     <mergeCell ref="H21:H34"/>
     <mergeCell ref="E21:E29"/>
     <mergeCell ref="B35:B48"/>
+    <mergeCell ref="H35:H90"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B92F9BC-6318-413C-87D9-FEE5073A822A}">
-  <dimension ref="A2:I8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P28" sqref="P28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:9">
-      <c r="B2" s="18" t="s">
-        <v>227</v>
-      </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18" t="s">
-        <v>230</v>
-      </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18" t="s">
-        <v>228</v>
-      </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18" t="s">
-        <v>229</v>
-      </c>
-      <c r="I2" s="18"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="B3" s="17">
-        <f>Arkusz1!D4</f>
-        <v>0.96694953104064318</v>
-      </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17">
-        <f>Arkusz1!G4</f>
-        <v>0.829388119696293</v>
-      </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17">
-        <f>Arkusz1!J4</f>
-        <v>0.80035730236712821</v>
-      </c>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17">
-        <f>Arkusz1!M4</f>
-        <v>1.4033050468959356</v>
-      </c>
-      <c r="I3" s="17"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="str">
-        <f>IF((B$3*$A4)&gt;=3,"Zaliczenie","Warunek")</f>
-        <v>Warunek</v>
-      </c>
-      <c r="C4">
-        <f>B$3*$A4</f>
-        <v>2.9008485931219297</v>
-      </c>
-      <c r="D4" t="str">
-        <f>IF((D$3*$A4)&gt;=3,"Zaliczenie","Warunek")</f>
-        <v>Warunek</v>
-      </c>
-      <c r="E4">
-        <f>D$3*$A4</f>
-        <v>2.4881643590888789</v>
-      </c>
-      <c r="F4" t="str">
-        <f>IF((F$3*$A4)&gt;=3,"Zaliczenie","Warunek")</f>
-        <v>Warunek</v>
-      </c>
-      <c r="G4">
-        <f>F$3*$A4</f>
-        <v>2.4010719071013846</v>
-      </c>
-      <c r="H4" t="str">
-        <f>IF((H$3*$A4)&gt;=3,"Zaliczenie","Warunek")</f>
-        <v>Zaliczenie</v>
-      </c>
-      <c r="I4">
-        <f>H$3*$A4</f>
-        <v>4.2099151406878068</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5">
-        <v>3.5</v>
-      </c>
-      <c r="B5" t="str">
-        <f t="shared" ref="B5:B8" si="0">IF((B$3*$A5)&gt;=3,"Zaliczenie","Warunek")</f>
-        <v>Zaliczenie</v>
-      </c>
-      <c r="C5">
-        <f>B$3*$A5</f>
-        <v>3.3843233586422512</v>
-      </c>
-      <c r="D5" t="str">
-        <f>IF((D$3*$A5)&gt;=3,"Zaliczenie","Warunek")</f>
-        <v>Warunek</v>
-      </c>
-      <c r="E5">
-        <f>D$3*$A5</f>
-        <v>2.9028584189370257</v>
-      </c>
-      <c r="F5" t="str">
-        <f>IF((F$3*$A5)&gt;=3,"Zaliczenie","Warunek")</f>
-        <v>Warunek</v>
-      </c>
-      <c r="G5">
-        <f>F$3*$A5</f>
-        <v>2.8012505582849485</v>
-      </c>
-      <c r="H5" t="str">
-        <f>IF((H$3*$A5)&gt;=3,"Zaliczenie","Warunek")</f>
-        <v>Zaliczenie</v>
-      </c>
-      <c r="I5">
-        <f>H$3*$A5</f>
-        <v>4.9115676641357746</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="str">
-        <f t="shared" si="0"/>
-        <v>Zaliczenie</v>
-      </c>
-      <c r="C6">
-        <f>B$3*$A6</f>
-        <v>3.8677981241625727</v>
-      </c>
-      <c r="D6" t="str">
-        <f>IF((D$3*$A6)&gt;=3,"Zaliczenie","Warunek")</f>
-        <v>Zaliczenie</v>
-      </c>
-      <c r="E6">
-        <f>D$3*$A6</f>
-        <v>3.317552478785172</v>
-      </c>
-      <c r="F6" t="str">
-        <f>IF((F$3*$A6)&gt;=3,"Zaliczenie","Warunek")</f>
-        <v>Zaliczenie</v>
-      </c>
-      <c r="G6">
-        <f>F$3*$A6</f>
-        <v>3.2014292094685128</v>
-      </c>
-      <c r="H6" t="str">
-        <f>IF((H$3*$A6)&gt;=3,"Zaliczenie","Warunek")</f>
-        <v>Zaliczenie</v>
-      </c>
-      <c r="I6">
-        <f>H$3*$A6</f>
-        <v>5.6132201875837424</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7">
-        <v>4.5</v>
-      </c>
-      <c r="B7" t="str">
-        <f t="shared" si="0"/>
-        <v>Zaliczenie</v>
-      </c>
-      <c r="C7">
-        <f>B$3*$A7</f>
-        <v>4.3512728896828943</v>
-      </c>
-      <c r="D7" t="str">
-        <f>IF((D$3*$A7)&gt;=3,"Zaliczenie","Warunek")</f>
-        <v>Zaliczenie</v>
-      </c>
-      <c r="E7">
-        <f>D$3*$A7</f>
-        <v>3.7322465386333183</v>
-      </c>
-      <c r="F7" t="str">
-        <f>IF((F$3*$A7)&gt;=3,"Zaliczenie","Warunek")</f>
-        <v>Zaliczenie</v>
-      </c>
-      <c r="G7">
-        <f>F$3*$A7</f>
-        <v>3.6016078606520772</v>
-      </c>
-      <c r="H7" t="str">
-        <f>IF((H$3*$A7)&gt;=3,"Zaliczenie","Warunek")</f>
-        <v>Zaliczenie</v>
-      </c>
-      <c r="I7">
-        <f>H$3*$A7</f>
-        <v>6.3148727110317102</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8">
-        <v>5</v>
-      </c>
-      <c r="B8" t="str">
-        <f t="shared" si="0"/>
-        <v>Zaliczenie</v>
-      </c>
-      <c r="C8">
-        <f>B$3*$A8</f>
-        <v>4.8347476552032163</v>
-      </c>
-      <c r="D8" t="str">
-        <f>IF((D$3*$A8)&gt;=3,"Zaliczenie","Warunek")</f>
-        <v>Zaliczenie</v>
-      </c>
-      <c r="E8">
-        <f>D$3*$A8</f>
-        <v>4.1469405984814651</v>
-      </c>
-      <c r="F8" t="str">
-        <f>IF((F$3*$A8)&gt;=3,"Zaliczenie","Warunek")</f>
-        <v>Zaliczenie</v>
-      </c>
-      <c r="G8">
-        <f>F$3*$A8</f>
-        <v>4.0017865118356415</v>
-      </c>
-      <c r="H8" t="str">
-        <f>IF((H$3*$A8)&gt;=3,"Zaliczenie","Warunek")</f>
-        <v>Zaliczenie</v>
-      </c>
-      <c r="I8">
-        <f>H$3*$A8</f>
-        <v>7.016525234479678</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="C4:C8 D4:D8 E4:E8 G4:G8 F4:F8 H4:H8" formula="1"/>
-  </ignoredErrors>
-</worksheet>
 </file>
--- a/Raport.xlsx
+++ b/Raport.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dominik\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\majer\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CDB98F2-AE72-4A17-ADE5-D0FDC754929D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37048A8F-4FBE-4B76-98B7-A2DB7E3B38D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1025,6 +1025,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1033,9 +1036,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1527,8 +1527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10:H20"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -1565,7 +1565,7 @@
       <c r="B3" s="1"/>
       <c r="D3">
         <f>SUM(D7:D1001)</f>
-        <v>2165</v>
+        <v>2254</v>
       </c>
       <c r="G3">
         <f>SUM(G7:G1001)</f>
@@ -1587,42 +1587,42 @@
       <c r="B4" s="1"/>
       <c r="D4">
         <f>($B$2*D$3)/SUM($D$3:$AK$3)</f>
-        <v>0.92383187540004263</v>
+        <v>0.95276339427242951</v>
       </c>
       <c r="G4">
         <f>($B$2*G$3)/SUM($D$3:$AK$3)</f>
-        <v>0.7924045231491359</v>
+        <v>0.78495191799640707</v>
       </c>
       <c r="J4">
         <f>($B$2*J$3)/SUM($D$3:$AK$3)</f>
-        <v>0.94303392361851934</v>
+        <v>0.93416464123428089</v>
       </c>
       <c r="M4">
         <f>($B$2*M$3)/SUM($D$3:$AK$3)</f>
-        <v>1.3407296778323021</v>
+        <v>1.3281200464968825</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="17" t="s">
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17" t="s">
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17" t="s">
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
     </row>
     <row r="6" spans="1:13">
       <c r="B6" t="s">
@@ -1728,7 +1728,7 @@
       <c r="J8">
         <v>100</v>
       </c>
-      <c r="K8" s="15">
+      <c r="K8" s="16">
         <v>45772</v>
       </c>
       <c r="L8" t="s">
@@ -1739,7 +1739,7 @@
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="B9" s="15">
+      <c r="B9" s="16">
         <v>45785</v>
       </c>
       <c r="C9" t="s">
@@ -1766,7 +1766,7 @@
       <c r="J9">
         <v>118</v>
       </c>
-      <c r="K9" s="15"/>
+      <c r="K9" s="16"/>
       <c r="L9" s="5" t="s">
         <v>17</v>
       </c>
@@ -1775,7 +1775,7 @@
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="B10" s="15"/>
+      <c r="B10" s="16"/>
       <c r="C10" t="s">
         <v>64</v>
       </c>
@@ -1788,7 +1788,7 @@
       <c r="G10">
         <v>57</v>
       </c>
-      <c r="H10" s="15">
+      <c r="H10" s="16">
         <v>45803</v>
       </c>
       <c r="I10" t="s">
@@ -1797,7 +1797,7 @@
       <c r="J10">
         <v>70</v>
       </c>
-      <c r="K10" s="15"/>
+      <c r="K10" s="16"/>
       <c r="L10" t="s">
         <v>18</v>
       </c>
@@ -1806,7 +1806,7 @@
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="B11" s="15"/>
+      <c r="B11" s="16"/>
       <c r="C11" t="s">
         <v>65</v>
       </c>
@@ -1819,14 +1819,14 @@
       <c r="G11">
         <v>59</v>
       </c>
-      <c r="H11" s="15"/>
+      <c r="H11" s="16"/>
       <c r="I11" t="s">
         <v>75</v>
       </c>
       <c r="J11">
         <v>23</v>
       </c>
-      <c r="K11" s="15"/>
+      <c r="K11" s="16"/>
       <c r="L11" t="s">
         <v>19</v>
       </c>
@@ -1835,7 +1835,7 @@
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="B12" s="15"/>
+      <c r="B12" s="16"/>
       <c r="C12" t="s">
         <v>66</v>
       </c>
@@ -1848,14 +1848,14 @@
       <c r="G12">
         <v>58</v>
       </c>
-      <c r="H12" s="15"/>
+      <c r="H12" s="16"/>
       <c r="I12" t="s">
         <v>77</v>
       </c>
       <c r="J12">
         <v>23</v>
       </c>
-      <c r="K12" s="15"/>
+      <c r="K12" s="16"/>
       <c r="L12" t="s">
         <v>20</v>
       </c>
@@ -1864,7 +1864,7 @@
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="B13" s="15"/>
+      <c r="B13" s="16"/>
       <c r="C13" t="s">
         <v>67</v>
       </c>
@@ -1877,14 +1877,14 @@
       <c r="G13">
         <v>57</v>
       </c>
-      <c r="H13" s="15"/>
+      <c r="H13" s="16"/>
       <c r="I13" t="s">
         <v>76</v>
       </c>
       <c r="J13">
         <v>27</v>
       </c>
-      <c r="K13" s="15"/>
+      <c r="K13" s="16"/>
       <c r="L13" s="5" t="s">
         <v>21</v>
       </c>
@@ -1893,7 +1893,7 @@
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="B14" s="15"/>
+      <c r="B14" s="16"/>
       <c r="C14" t="s">
         <v>68</v>
       </c>
@@ -1906,14 +1906,14 @@
       <c r="G14">
         <v>61</v>
       </c>
-      <c r="H14" s="15"/>
+      <c r="H14" s="16"/>
       <c r="I14" t="s">
         <v>74</v>
       </c>
       <c r="J14">
         <v>24</v>
       </c>
-      <c r="K14" s="15"/>
+      <c r="K14" s="16"/>
       <c r="L14" t="s">
         <v>22</v>
       </c>
@@ -1922,7 +1922,7 @@
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="B15" s="15"/>
+      <c r="B15" s="16"/>
       <c r="C15" t="s">
         <v>69</v>
       </c>
@@ -1935,14 +1935,14 @@
       <c r="G15">
         <v>60</v>
       </c>
-      <c r="H15" s="15"/>
+      <c r="H15" s="16"/>
       <c r="I15" t="s">
         <v>78</v>
       </c>
       <c r="J15">
         <v>27</v>
       </c>
-      <c r="K15" s="15"/>
+      <c r="K15" s="16"/>
       <c r="L15" s="5" t="s">
         <v>23</v>
       </c>
@@ -1951,7 +1951,7 @@
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="B16" s="15"/>
+      <c r="B16" s="16"/>
       <c r="C16" t="s">
         <v>70</v>
       </c>
@@ -1964,14 +1964,14 @@
       <c r="G16">
         <v>16</v>
       </c>
-      <c r="H16" s="15"/>
+      <c r="H16" s="16"/>
       <c r="I16" t="s">
         <v>79</v>
       </c>
       <c r="J16">
         <v>27</v>
       </c>
-      <c r="K16" s="15"/>
+      <c r="K16" s="16"/>
       <c r="L16" t="s">
         <v>24</v>
       </c>
@@ -1980,7 +1980,7 @@
       </c>
     </row>
     <row r="17" spans="2:13">
-      <c r="B17" s="15"/>
+      <c r="B17" s="16"/>
       <c r="C17" t="s">
         <v>71</v>
       </c>
@@ -1993,14 +1993,14 @@
       <c r="G17">
         <v>59</v>
       </c>
-      <c r="H17" s="15"/>
+      <c r="H17" s="16"/>
       <c r="I17" t="s">
         <v>80</v>
       </c>
       <c r="J17">
         <v>27</v>
       </c>
-      <c r="K17" s="15"/>
+      <c r="K17" s="16"/>
       <c r="L17" t="s">
         <v>25</v>
       </c>
@@ -2009,7 +2009,7 @@
       </c>
     </row>
     <row r="18" spans="2:13">
-      <c r="B18" s="15">
+      <c r="B18" s="16">
         <v>45803</v>
       </c>
       <c r="C18" t="s">
@@ -2024,14 +2024,14 @@
       <c r="G18">
         <v>64</v>
       </c>
-      <c r="H18" s="15"/>
+      <c r="H18" s="16"/>
       <c r="I18" t="s">
         <v>81</v>
       </c>
       <c r="J18">
         <v>27</v>
       </c>
-      <c r="K18" s="15"/>
+      <c r="K18" s="16"/>
       <c r="L18" t="s">
         <v>26</v>
       </c>
@@ -2040,21 +2040,21 @@
       </c>
     </row>
     <row r="19" spans="2:13">
-      <c r="B19" s="15"/>
+      <c r="B19" s="16"/>
       <c r="C19" t="s">
         <v>85</v>
       </c>
       <c r="D19">
         <v>144</v>
       </c>
-      <c r="H19" s="15"/>
+      <c r="H19" s="16"/>
       <c r="I19" t="s">
         <v>82</v>
       </c>
       <c r="J19">
         <v>28</v>
       </c>
-      <c r="K19" s="15"/>
+      <c r="K19" s="16"/>
       <c r="L19" t="s">
         <v>27</v>
       </c>
@@ -2063,21 +2063,21 @@
       </c>
     </row>
     <row r="20" spans="2:13">
-      <c r="B20" s="15"/>
+      <c r="B20" s="16"/>
       <c r="C20" t="s">
         <v>86</v>
       </c>
       <c r="D20">
         <v>164</v>
       </c>
-      <c r="H20" s="15"/>
+      <c r="H20" s="16"/>
       <c r="I20" t="s">
         <v>83</v>
       </c>
       <c r="J20">
         <v>34</v>
       </c>
-      <c r="K20" s="15"/>
+      <c r="K20" s="16"/>
       <c r="L20" t="s">
         <v>28</v>
       </c>
@@ -2086,14 +2086,14 @@
       </c>
     </row>
     <row r="21" spans="2:13">
-      <c r="B21" s="15"/>
+      <c r="B21" s="16"/>
       <c r="C21" t="s">
         <v>87</v>
       </c>
       <c r="D21">
         <v>58</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E21" s="16">
         <v>45804</v>
       </c>
       <c r="F21" t="s">
@@ -2102,7 +2102,7 @@
       <c r="G21">
         <v>81</v>
       </c>
-      <c r="H21" s="15">
+      <c r="H21" s="16">
         <v>45817</v>
       </c>
       <c r="I21" s="10" t="s">
@@ -2111,7 +2111,7 @@
       <c r="J21" s="6">
         <v>3</v>
       </c>
-      <c r="K21" s="15"/>
+      <c r="K21" s="16"/>
       <c r="L21" t="s">
         <v>29</v>
       </c>
@@ -2120,28 +2120,28 @@
       </c>
     </row>
     <row r="22" spans="2:13">
-      <c r="B22" s="15"/>
+      <c r="B22" s="16"/>
       <c r="C22" t="s">
         <v>88</v>
       </c>
       <c r="D22">
         <v>92</v>
       </c>
-      <c r="E22" s="17"/>
+      <c r="E22" s="18"/>
       <c r="F22" t="s">
         <v>102</v>
       </c>
       <c r="G22">
         <v>69</v>
       </c>
-      <c r="H22" s="15"/>
+      <c r="H22" s="16"/>
       <c r="I22" t="s">
         <v>111</v>
       </c>
       <c r="J22" s="6">
         <v>6</v>
       </c>
-      <c r="K22" s="15"/>
+      <c r="K22" s="16"/>
       <c r="L22" t="s">
         <v>30</v>
       </c>
@@ -2150,28 +2150,28 @@
       </c>
     </row>
     <row r="23" spans="2:13">
-      <c r="B23" s="15"/>
+      <c r="B23" s="16"/>
       <c r="C23" t="s">
         <v>89</v>
       </c>
       <c r="D23">
         <v>64</v>
       </c>
-      <c r="E23" s="17"/>
+      <c r="E23" s="18"/>
       <c r="F23" t="s">
         <v>103</v>
       </c>
       <c r="G23">
         <v>75</v>
       </c>
-      <c r="H23" s="15"/>
+      <c r="H23" s="16"/>
       <c r="I23" t="s">
         <v>112</v>
       </c>
       <c r="J23" s="6">
         <v>3</v>
       </c>
-      <c r="K23" s="15"/>
+      <c r="K23" s="16"/>
       <c r="L23" t="s">
         <v>31</v>
       </c>
@@ -2180,28 +2180,28 @@
       </c>
     </row>
     <row r="24" spans="2:13">
-      <c r="B24" s="15"/>
+      <c r="B24" s="16"/>
       <c r="C24" t="s">
         <v>90</v>
       </c>
       <c r="D24">
         <v>20</v>
       </c>
-      <c r="E24" s="17"/>
+      <c r="E24" s="18"/>
       <c r="F24" t="s">
         <v>104</v>
       </c>
       <c r="G24">
         <v>126</v>
       </c>
-      <c r="H24" s="15"/>
+      <c r="H24" s="16"/>
       <c r="I24" t="s">
         <v>113</v>
       </c>
       <c r="J24" s="6">
         <v>6</v>
       </c>
-      <c r="K24" s="15"/>
+      <c r="K24" s="16"/>
       <c r="L24" t="s">
         <v>32</v>
       </c>
@@ -2210,28 +2210,28 @@
       </c>
     </row>
     <row r="25" spans="2:13">
-      <c r="B25" s="15"/>
+      <c r="B25" s="16"/>
       <c r="C25" t="s">
         <v>91</v>
       </c>
       <c r="D25">
         <v>57</v>
       </c>
-      <c r="E25" s="17"/>
+      <c r="E25" s="18"/>
       <c r="F25" t="s">
         <v>105</v>
       </c>
       <c r="G25">
         <v>65</v>
       </c>
-      <c r="H25" s="15"/>
+      <c r="H25" s="16"/>
       <c r="I25" t="s">
         <v>114</v>
       </c>
       <c r="J25" s="6">
         <v>4</v>
       </c>
-      <c r="K25" s="15"/>
+      <c r="K25" s="16"/>
       <c r="L25" t="s">
         <v>33</v>
       </c>
@@ -2240,28 +2240,28 @@
       </c>
     </row>
     <row r="26" spans="2:13">
-      <c r="B26" s="15"/>
+      <c r="B26" s="16"/>
       <c r="C26" t="s">
         <v>92</v>
       </c>
       <c r="D26">
         <v>28</v>
       </c>
-      <c r="E26" s="17"/>
+      <c r="E26" s="18"/>
       <c r="F26" t="s">
         <v>106</v>
       </c>
       <c r="G26">
         <v>82</v>
       </c>
-      <c r="H26" s="15"/>
+      <c r="H26" s="16"/>
       <c r="I26" s="10" t="s">
         <v>115</v>
       </c>
       <c r="J26" s="6">
         <v>2</v>
       </c>
-      <c r="K26" s="15"/>
+      <c r="K26" s="16"/>
       <c r="L26" t="s">
         <v>34</v>
       </c>
@@ -2270,28 +2270,28 @@
       </c>
     </row>
     <row r="27" spans="2:13">
-      <c r="B27" s="15"/>
+      <c r="B27" s="16"/>
       <c r="C27" t="s">
         <v>93</v>
       </c>
       <c r="D27">
         <v>26</v>
       </c>
-      <c r="E27" s="17"/>
+      <c r="E27" s="18"/>
       <c r="F27" t="s">
         <v>107</v>
       </c>
       <c r="G27">
         <v>75</v>
       </c>
-      <c r="H27" s="15"/>
+      <c r="H27" s="16"/>
       <c r="I27" t="s">
         <v>116</v>
       </c>
       <c r="J27" s="6">
         <v>8</v>
       </c>
-      <c r="K27" s="15"/>
+      <c r="K27" s="16"/>
       <c r="L27" t="s">
         <v>35</v>
       </c>
@@ -2300,28 +2300,28 @@
       </c>
     </row>
     <row r="28" spans="2:13">
-      <c r="B28" s="15"/>
+      <c r="B28" s="16"/>
       <c r="C28" t="s">
         <v>94</v>
       </c>
       <c r="D28">
         <v>16</v>
       </c>
-      <c r="E28" s="17"/>
+      <c r="E28" s="18"/>
       <c r="F28" t="s">
         <v>108</v>
       </c>
       <c r="G28">
         <v>266</v>
       </c>
-      <c r="H28" s="15"/>
+      <c r="H28" s="16"/>
       <c r="I28" t="s">
         <v>117</v>
       </c>
       <c r="J28" s="6">
         <v>3</v>
       </c>
-      <c r="K28" s="15"/>
+      <c r="K28" s="16"/>
       <c r="L28" t="s">
         <v>36</v>
       </c>
@@ -2330,28 +2330,28 @@
       </c>
     </row>
     <row r="29" spans="2:13">
-      <c r="B29" s="15"/>
+      <c r="B29" s="16"/>
       <c r="C29" t="s">
         <v>95</v>
       </c>
       <c r="D29">
         <v>18</v>
       </c>
-      <c r="E29" s="17"/>
+      <c r="E29" s="18"/>
       <c r="F29" t="s">
         <v>109</v>
       </c>
       <c r="G29">
         <v>71</v>
       </c>
-      <c r="H29" s="15"/>
+      <c r="H29" s="16"/>
       <c r="I29" t="s">
         <v>118</v>
       </c>
       <c r="J29" s="6">
         <v>12</v>
       </c>
-      <c r="K29" s="15"/>
+      <c r="K29" s="16"/>
       <c r="L29" t="s">
         <v>37</v>
       </c>
@@ -2360,21 +2360,21 @@
       </c>
     </row>
     <row r="30" spans="2:13">
-      <c r="B30" s="15"/>
+      <c r="B30" s="16"/>
       <c r="C30" t="s">
         <v>96</v>
       </c>
       <c r="D30">
         <v>15</v>
       </c>
-      <c r="H30" s="15"/>
+      <c r="H30" s="16"/>
       <c r="I30" t="s">
         <v>119</v>
       </c>
       <c r="J30" s="6">
         <v>3</v>
       </c>
-      <c r="K30" s="15"/>
+      <c r="K30" s="16"/>
       <c r="L30" t="s">
         <v>38</v>
       </c>
@@ -2383,21 +2383,21 @@
       </c>
     </row>
     <row r="31" spans="2:13">
-      <c r="B31" s="15"/>
+      <c r="B31" s="16"/>
       <c r="C31" t="s">
         <v>97</v>
       </c>
       <c r="D31">
         <v>17</v>
       </c>
-      <c r="H31" s="15"/>
+      <c r="H31" s="16"/>
       <c r="I31" t="s">
         <v>120</v>
       </c>
       <c r="J31" s="6">
         <v>6</v>
       </c>
-      <c r="K31" s="15"/>
+      <c r="K31" s="16"/>
       <c r="L31" t="s">
         <v>39</v>
       </c>
@@ -2406,21 +2406,21 @@
       </c>
     </row>
     <row r="32" spans="2:13">
-      <c r="B32" s="15"/>
+      <c r="B32" s="16"/>
       <c r="C32" t="s">
         <v>98</v>
       </c>
       <c r="D32">
         <v>44</v>
       </c>
-      <c r="H32" s="15"/>
+      <c r="H32" s="16"/>
       <c r="I32" t="s">
         <v>121</v>
       </c>
       <c r="J32" s="6">
         <v>2</v>
       </c>
-      <c r="K32" s="15"/>
+      <c r="K32" s="16"/>
       <c r="L32" s="5" t="s">
         <v>40</v>
       </c>
@@ -2429,21 +2429,21 @@
       </c>
     </row>
     <row r="33" spans="2:13">
-      <c r="B33" s="15"/>
+      <c r="B33" s="16"/>
       <c r="C33" t="s">
         <v>99</v>
       </c>
       <c r="D33">
         <v>43</v>
       </c>
-      <c r="H33" s="15"/>
+      <c r="H33" s="16"/>
       <c r="I33" t="s">
         <v>122</v>
       </c>
       <c r="J33" s="6">
         <v>4</v>
       </c>
-      <c r="K33" s="15"/>
+      <c r="K33" s="16"/>
       <c r="L33" t="s">
         <v>41</v>
       </c>
@@ -2452,21 +2452,21 @@
       </c>
     </row>
     <row r="34" spans="2:13">
-      <c r="B34" s="15"/>
+      <c r="B34" s="16"/>
       <c r="C34" t="s">
         <v>100</v>
       </c>
       <c r="D34">
         <v>28</v>
       </c>
-      <c r="H34" s="15"/>
+      <c r="H34" s="16"/>
       <c r="I34" t="s">
         <v>123</v>
       </c>
       <c r="J34" s="6">
         <v>8</v>
       </c>
-      <c r="K34" s="15"/>
+      <c r="K34" s="16"/>
       <c r="L34" t="s">
         <v>42</v>
       </c>
@@ -2475,7 +2475,7 @@
       </c>
     </row>
     <row r="35" spans="2:13">
-      <c r="B35" s="15">
+      <c r="B35" s="16">
         <v>45907</v>
       </c>
       <c r="C35" t="s">
@@ -2490,7 +2490,7 @@
       <c r="G35">
         <v>300</v>
       </c>
-      <c r="H35" s="15">
+      <c r="H35" s="16">
         <v>45908</v>
       </c>
       <c r="I35" s="12" t="s">
@@ -2499,7 +2499,7 @@
       <c r="J35" s="6">
         <v>17</v>
       </c>
-      <c r="K35" s="15"/>
+      <c r="K35" s="16"/>
       <c r="L35" t="s">
         <v>43</v>
       </c>
@@ -2508,7 +2508,7 @@
       </c>
     </row>
     <row r="36" spans="2:13">
-      <c r="B36" s="17"/>
+      <c r="B36" s="18"/>
       <c r="C36" t="s">
         <v>255</v>
       </c>
@@ -2521,14 +2521,14 @@
       <c r="G36">
         <v>5</v>
       </c>
-      <c r="H36" s="15"/>
+      <c r="H36" s="16"/>
       <c r="I36" s="7" t="s">
         <v>125</v>
       </c>
       <c r="J36" s="6">
         <v>8</v>
       </c>
-      <c r="K36" s="15"/>
+      <c r="K36" s="16"/>
       <c r="L36" t="s">
         <v>44</v>
       </c>
@@ -2537,7 +2537,7 @@
       </c>
     </row>
     <row r="37" spans="2:13">
-      <c r="B37" s="17"/>
+      <c r="B37" s="18"/>
       <c r="C37" t="s">
         <v>256</v>
       </c>
@@ -2550,14 +2550,14 @@
       <c r="G37">
         <v>3</v>
       </c>
-      <c r="H37" s="15"/>
+      <c r="H37" s="16"/>
       <c r="I37" t="s">
         <v>127</v>
       </c>
       <c r="J37" s="6">
         <v>9</v>
       </c>
-      <c r="K37" s="15"/>
+      <c r="K37" s="16"/>
       <c r="L37" t="s">
         <v>45</v>
       </c>
@@ -2566,7 +2566,7 @@
       </c>
     </row>
     <row r="38" spans="2:13">
-      <c r="B38" s="17"/>
+      <c r="B38" s="18"/>
       <c r="C38" t="s">
         <v>257</v>
       </c>
@@ -2579,14 +2579,14 @@
       <c r="G38">
         <v>2</v>
       </c>
-      <c r="H38" s="15"/>
+      <c r="H38" s="16"/>
       <c r="I38" t="s">
         <v>128</v>
       </c>
       <c r="J38" s="6">
         <v>36</v>
       </c>
-      <c r="K38" s="15"/>
+      <c r="K38" s="16"/>
       <c r="L38" t="s">
         <v>46</v>
       </c>
@@ -2595,7 +2595,7 @@
       </c>
     </row>
     <row r="39" spans="2:13">
-      <c r="B39" s="17"/>
+      <c r="B39" s="18"/>
       <c r="C39" t="s">
         <v>258</v>
       </c>
@@ -2608,14 +2608,14 @@
       <c r="G39">
         <v>1</v>
       </c>
-      <c r="H39" s="15"/>
+      <c r="H39" s="16"/>
       <c r="I39" t="s">
         <v>129</v>
       </c>
       <c r="J39" s="6">
         <v>9</v>
       </c>
-      <c r="K39" s="15"/>
+      <c r="K39" s="16"/>
       <c r="L39" t="s">
         <v>47</v>
       </c>
@@ -2624,7 +2624,7 @@
       </c>
     </row>
     <row r="40" spans="2:13">
-      <c r="B40" s="17"/>
+      <c r="B40" s="18"/>
       <c r="C40" t="s">
         <v>259</v>
       </c>
@@ -2637,14 +2637,14 @@
       <c r="G40">
         <v>7</v>
       </c>
-      <c r="H40" s="15"/>
+      <c r="H40" s="16"/>
       <c r="I40" t="s">
         <v>130</v>
       </c>
       <c r="J40" s="6">
         <v>37</v>
       </c>
-      <c r="K40" s="15"/>
+      <c r="K40" s="16"/>
       <c r="L40" s="5" t="s">
         <v>48</v>
       </c>
@@ -2653,21 +2653,21 @@
       </c>
     </row>
     <row r="41" spans="2:13">
-      <c r="B41" s="17"/>
+      <c r="B41" s="18"/>
       <c r="C41" t="s">
         <v>260</v>
       </c>
       <c r="D41">
         <v>23</v>
       </c>
-      <c r="H41" s="15"/>
+      <c r="H41" s="16"/>
       <c r="I41" t="s">
         <v>131</v>
       </c>
       <c r="J41" s="6">
         <v>67</v>
       </c>
-      <c r="K41" s="15"/>
+      <c r="K41" s="16"/>
       <c r="L41" s="5" t="s">
         <v>49</v>
       </c>
@@ -2676,21 +2676,21 @@
       </c>
     </row>
     <row r="42" spans="2:13">
-      <c r="B42" s="17"/>
+      <c r="B42" s="18"/>
       <c r="C42" t="s">
         <v>261</v>
       </c>
       <c r="D42">
         <v>55</v>
       </c>
-      <c r="H42" s="15"/>
+      <c r="H42" s="16"/>
       <c r="I42" t="s">
         <v>134</v>
       </c>
       <c r="J42" s="6">
         <v>1</v>
       </c>
-      <c r="K42" s="15"/>
+      <c r="K42" s="16"/>
       <c r="L42" t="s">
         <v>50</v>
       </c>
@@ -2699,21 +2699,21 @@
       </c>
     </row>
     <row r="43" spans="2:13">
-      <c r="B43" s="17"/>
+      <c r="B43" s="18"/>
       <c r="C43" t="s">
         <v>262</v>
       </c>
       <c r="D43">
         <v>60</v>
       </c>
-      <c r="H43" s="15"/>
+      <c r="H43" s="16"/>
       <c r="I43" t="s">
         <v>139</v>
       </c>
       <c r="J43" s="6">
         <v>9</v>
       </c>
-      <c r="K43" s="15"/>
+      <c r="K43" s="16"/>
       <c r="L43" t="s">
         <v>51</v>
       </c>
@@ -2722,21 +2722,21 @@
       </c>
     </row>
     <row r="44" spans="2:13">
-      <c r="B44" s="17"/>
+      <c r="B44" s="18"/>
       <c r="C44" t="s">
         <v>263</v>
       </c>
       <c r="D44">
         <v>57</v>
       </c>
-      <c r="H44" s="15"/>
+      <c r="H44" s="16"/>
       <c r="I44" t="s">
         <v>140</v>
       </c>
       <c r="J44" s="6">
         <v>21</v>
       </c>
-      <c r="K44" s="15"/>
+      <c r="K44" s="16"/>
       <c r="L44" t="s">
         <v>52</v>
       </c>
@@ -2745,21 +2745,21 @@
       </c>
     </row>
     <row r="45" spans="2:13">
-      <c r="B45" s="17"/>
+      <c r="B45" s="18"/>
       <c r="C45" t="s">
         <v>264</v>
       </c>
       <c r="D45">
         <v>61</v>
       </c>
-      <c r="H45" s="15"/>
+      <c r="H45" s="16"/>
       <c r="I45" t="s">
         <v>147</v>
       </c>
       <c r="J45" s="6">
         <v>2</v>
       </c>
-      <c r="K45" s="15">
+      <c r="K45" s="16">
         <v>45898</v>
       </c>
       <c r="L45" s="12" t="s">
@@ -2770,21 +2770,21 @@
       </c>
     </row>
     <row r="46" spans="2:13">
-      <c r="B46" s="17"/>
+      <c r="B46" s="18"/>
       <c r="C46" t="s">
         <v>265</v>
       </c>
       <c r="D46">
         <v>69</v>
       </c>
-      <c r="H46" s="15"/>
+      <c r="H46" s="16"/>
       <c r="I46" s="13" t="s">
         <v>225</v>
       </c>
       <c r="J46" s="6">
         <v>1</v>
       </c>
-      <c r="K46" s="15"/>
+      <c r="K46" s="16"/>
       <c r="L46" s="7" t="s">
         <v>125</v>
       </c>
@@ -2793,21 +2793,21 @@
       </c>
     </row>
     <row r="47" spans="2:13">
-      <c r="B47" s="17"/>
+      <c r="B47" s="18"/>
       <c r="C47" t="s">
         <v>266</v>
       </c>
       <c r="D47">
         <v>23</v>
       </c>
-      <c r="H47" s="15"/>
+      <c r="H47" s="16"/>
       <c r="I47" s="13" t="s">
         <v>253</v>
       </c>
       <c r="J47" s="6">
         <v>15</v>
       </c>
-      <c r="K47" s="15"/>
+      <c r="K47" s="16"/>
       <c r="L47" t="s">
         <v>126</v>
       </c>
@@ -2816,21 +2816,21 @@
       </c>
     </row>
     <row r="48" spans="2:13">
-      <c r="B48" s="17"/>
+      <c r="B48" s="18"/>
       <c r="C48" t="s">
         <v>267</v>
       </c>
       <c r="D48">
         <v>55</v>
       </c>
-      <c r="H48" s="15"/>
+      <c r="H48" s="16"/>
       <c r="I48" s="13" t="s">
         <v>245</v>
       </c>
       <c r="J48" s="6">
         <v>5</v>
       </c>
-      <c r="K48" s="15"/>
+      <c r="K48" s="16"/>
       <c r="L48" t="s">
         <v>127</v>
       </c>
@@ -2846,16 +2846,16 @@
         <v>268</v>
       </c>
       <c r="D49">
-        <v>131</v>
-      </c>
-      <c r="H49" s="15"/>
+        <v>220</v>
+      </c>
+      <c r="H49" s="16"/>
       <c r="I49" s="13" t="s">
         <v>246</v>
       </c>
       <c r="J49" s="6">
         <v>5</v>
       </c>
-      <c r="K49" s="15"/>
+      <c r="K49" s="16"/>
       <c r="L49" t="s">
         <v>128</v>
       </c>
@@ -2864,14 +2864,14 @@
       </c>
     </row>
     <row r="50" spans="2:13">
-      <c r="H50" s="15"/>
+      <c r="H50" s="16"/>
       <c r="I50" s="13" t="s">
         <v>227</v>
       </c>
       <c r="J50" s="6">
         <v>45</v>
       </c>
-      <c r="K50" s="15"/>
+      <c r="K50" s="16"/>
       <c r="L50" t="s">
         <v>129</v>
       </c>
@@ -2880,14 +2880,14 @@
       </c>
     </row>
     <row r="51" spans="2:13">
-      <c r="H51" s="15"/>
+      <c r="H51" s="16"/>
       <c r="I51" s="13" t="s">
         <v>228</v>
       </c>
       <c r="J51" s="11">
         <v>24</v>
       </c>
-      <c r="K51" s="15"/>
+      <c r="K51" s="16"/>
       <c r="L51" t="s">
         <v>130</v>
       </c>
@@ -2896,14 +2896,14 @@
       </c>
     </row>
     <row r="52" spans="2:13">
-      <c r="H52" s="15"/>
+      <c r="H52" s="16"/>
       <c r="I52" s="13" t="s">
         <v>229</v>
       </c>
       <c r="J52" s="6">
         <v>26</v>
       </c>
-      <c r="K52" s="15"/>
+      <c r="K52" s="16"/>
       <c r="L52" t="s">
         <v>131</v>
       </c>
@@ -2912,14 +2912,14 @@
       </c>
     </row>
     <row r="53" spans="2:13">
-      <c r="H53" s="15"/>
+      <c r="H53" s="16"/>
       <c r="I53" s="13" t="s">
         <v>230</v>
       </c>
       <c r="J53" s="9">
         <v>1</v>
       </c>
-      <c r="K53" s="15"/>
+      <c r="K53" s="16"/>
       <c r="L53" s="8" t="s">
         <v>132</v>
       </c>
@@ -2928,14 +2928,14 @@
       </c>
     </row>
     <row r="54" spans="2:13">
-      <c r="H54" s="15"/>
+      <c r="H54" s="16"/>
       <c r="I54" s="13" t="s">
         <v>231</v>
       </c>
       <c r="J54" s="6">
         <v>18</v>
       </c>
-      <c r="K54" s="15"/>
+      <c r="K54" s="16"/>
       <c r="L54" t="s">
         <v>133</v>
       </c>
@@ -2944,14 +2944,14 @@
       </c>
     </row>
     <row r="55" spans="2:13">
-      <c r="H55" s="15"/>
+      <c r="H55" s="16"/>
       <c r="I55" s="13" t="s">
         <v>232</v>
       </c>
       <c r="J55" s="6">
         <v>1</v>
       </c>
-      <c r="K55" s="15"/>
+      <c r="K55" s="16"/>
       <c r="L55" t="s">
         <v>134</v>
       </c>
@@ -2960,14 +2960,14 @@
       </c>
     </row>
     <row r="56" spans="2:13">
-      <c r="H56" s="15"/>
+      <c r="H56" s="16"/>
       <c r="I56" s="13" t="s">
         <v>233</v>
       </c>
       <c r="J56" s="10">
         <v>32</v>
       </c>
-      <c r="K56" s="15"/>
+      <c r="K56" s="16"/>
       <c r="L56" t="s">
         <v>135</v>
       </c>
@@ -2976,14 +2976,14 @@
       </c>
     </row>
     <row r="57" spans="2:13">
-      <c r="H57" s="15"/>
+      <c r="H57" s="16"/>
       <c r="I57" s="13" t="s">
         <v>234</v>
       </c>
       <c r="J57" s="11">
         <v>1</v>
       </c>
-      <c r="K57" s="15"/>
+      <c r="K57" s="16"/>
       <c r="L57" t="s">
         <v>136</v>
       </c>
@@ -2992,14 +2992,14 @@
       </c>
     </row>
     <row r="58" spans="2:13">
-      <c r="H58" s="15"/>
+      <c r="H58" s="16"/>
       <c r="I58" s="13" t="s">
         <v>235</v>
       </c>
       <c r="J58" s="11">
         <v>18</v>
       </c>
-      <c r="K58" s="15"/>
+      <c r="K58" s="16"/>
       <c r="L58" t="s">
         <v>137</v>
       </c>
@@ -3008,14 +3008,14 @@
       </c>
     </row>
     <row r="59" spans="2:13">
-      <c r="H59" s="15"/>
+      <c r="H59" s="16"/>
       <c r="I59" s="13" t="s">
         <v>236</v>
       </c>
       <c r="J59" s="10">
         <v>1</v>
       </c>
-      <c r="K59" s="15"/>
+      <c r="K59" s="16"/>
       <c r="L59" t="s">
         <v>138</v>
       </c>
@@ -3024,14 +3024,14 @@
       </c>
     </row>
     <row r="60" spans="2:13">
-      <c r="H60" s="15"/>
+      <c r="H60" s="16"/>
       <c r="I60" s="13" t="s">
         <v>237</v>
       </c>
       <c r="J60" s="10">
         <v>14</v>
       </c>
-      <c r="K60" s="15"/>
+      <c r="K60" s="16"/>
       <c r="L60" t="s">
         <v>139</v>
       </c>
@@ -3040,14 +3040,14 @@
       </c>
     </row>
     <row r="61" spans="2:13">
-      <c r="H61" s="15"/>
+      <c r="H61" s="16"/>
       <c r="I61" s="13" t="s">
         <v>238</v>
       </c>
       <c r="J61" s="11">
         <v>2</v>
       </c>
-      <c r="K61" s="15"/>
+      <c r="K61" s="16"/>
       <c r="L61" t="s">
         <v>140</v>
       </c>
@@ -3056,14 +3056,14 @@
       </c>
     </row>
     <row r="62" spans="2:13">
-      <c r="H62" s="15"/>
+      <c r="H62" s="16"/>
       <c r="I62" s="13" t="s">
         <v>239</v>
       </c>
       <c r="J62" s="11">
         <v>17</v>
       </c>
-      <c r="K62" s="15"/>
+      <c r="K62" s="16"/>
       <c r="L62" t="s">
         <v>141</v>
       </c>
@@ -3072,14 +3072,14 @@
       </c>
     </row>
     <row r="63" spans="2:13">
-      <c r="H63" s="15"/>
+      <c r="H63" s="16"/>
       <c r="I63" s="13" t="s">
         <v>240</v>
       </c>
       <c r="J63" s="11">
         <v>1</v>
       </c>
-      <c r="K63" s="15"/>
+      <c r="K63" s="16"/>
       <c r="L63" t="s">
         <v>142</v>
       </c>
@@ -3088,14 +3088,14 @@
       </c>
     </row>
     <row r="64" spans="2:13">
-      <c r="H64" s="15"/>
+      <c r="H64" s="16"/>
       <c r="I64" s="13" t="s">
         <v>241</v>
       </c>
       <c r="J64" s="11">
         <v>12</v>
       </c>
-      <c r="K64" s="15"/>
+      <c r="K64" s="16"/>
       <c r="L64" t="s">
         <v>143</v>
       </c>
@@ -3104,14 +3104,14 @@
       </c>
     </row>
     <row r="65" spans="8:13">
-      <c r="H65" s="15"/>
+      <c r="H65" s="16"/>
       <c r="I65" s="13" t="s">
         <v>242</v>
       </c>
       <c r="J65" s="11">
         <v>43</v>
       </c>
-      <c r="K65" s="15"/>
+      <c r="K65" s="16"/>
       <c r="L65" t="s">
         <v>144</v>
       </c>
@@ -3120,14 +3120,14 @@
       </c>
     </row>
     <row r="66" spans="8:13">
-      <c r="H66" s="15"/>
+      <c r="H66" s="16"/>
       <c r="I66" s="13" t="s">
         <v>243</v>
       </c>
       <c r="J66" s="11">
         <v>53</v>
       </c>
-      <c r="K66" s="15"/>
+      <c r="K66" s="16"/>
       <c r="L66" t="s">
         <v>145</v>
       </c>
@@ -3136,14 +3136,14 @@
       </c>
     </row>
     <row r="67" spans="8:13">
-      <c r="H67" s="15"/>
+      <c r="H67" s="16"/>
       <c r="I67" s="13" t="s">
         <v>244</v>
       </c>
       <c r="J67" s="11">
         <v>66</v>
       </c>
-      <c r="K67" s="15"/>
+      <c r="K67" s="16"/>
       <c r="L67" t="s">
         <v>146</v>
       </c>
@@ -3152,14 +3152,14 @@
       </c>
     </row>
     <row r="68" spans="8:13">
-      <c r="H68" s="15"/>
+      <c r="H68" s="16"/>
       <c r="I68" s="13" t="s">
         <v>247</v>
       </c>
       <c r="J68" s="11">
         <v>13</v>
       </c>
-      <c r="K68" s="15"/>
+      <c r="K68" s="16"/>
       <c r="L68" t="s">
         <v>147</v>
       </c>
@@ -3168,14 +3168,14 @@
       </c>
     </row>
     <row r="69" spans="8:13">
-      <c r="H69" s="15"/>
+      <c r="H69" s="16"/>
       <c r="I69" s="13" t="s">
         <v>203</v>
       </c>
       <c r="J69" s="11">
         <v>10</v>
       </c>
-      <c r="K69" s="15"/>
+      <c r="K69" s="16"/>
       <c r="L69" t="s">
         <v>148</v>
       </c>
@@ -3184,14 +3184,14 @@
       </c>
     </row>
     <row r="70" spans="8:13">
-      <c r="H70" s="15"/>
+      <c r="H70" s="16"/>
       <c r="I70" s="13" t="s">
         <v>204</v>
       </c>
       <c r="J70" s="11">
         <v>40</v>
       </c>
-      <c r="K70" s="15"/>
+      <c r="K70" s="16"/>
       <c r="L70" t="s">
         <v>149</v>
       </c>
@@ -3200,14 +3200,14 @@
       </c>
     </row>
     <row r="71" spans="8:13">
-      <c r="H71" s="15"/>
+      <c r="H71" s="16"/>
       <c r="I71" s="13" t="s">
         <v>248</v>
       </c>
       <c r="J71" s="11">
         <v>15</v>
       </c>
-      <c r="K71" s="15"/>
+      <c r="K71" s="16"/>
       <c r="L71" t="s">
         <v>150</v>
       </c>
@@ -3216,14 +3216,14 @@
       </c>
     </row>
     <row r="72" spans="8:13">
-      <c r="H72" s="15"/>
+      <c r="H72" s="16"/>
       <c r="I72" s="13" t="s">
         <v>208</v>
       </c>
       <c r="J72" s="11">
         <v>8</v>
       </c>
-      <c r="K72" s="15"/>
+      <c r="K72" s="16"/>
       <c r="L72" t="s">
         <v>151</v>
       </c>
@@ -3232,14 +3232,14 @@
       </c>
     </row>
     <row r="73" spans="8:13">
-      <c r="H73" s="15"/>
+      <c r="H73" s="16"/>
       <c r="I73" s="13" t="s">
         <v>209</v>
       </c>
       <c r="J73" s="11">
         <v>19</v>
       </c>
-      <c r="K73" s="15"/>
+      <c r="K73" s="16"/>
       <c r="L73" t="s">
         <v>152</v>
       </c>
@@ -3248,14 +3248,14 @@
       </c>
     </row>
     <row r="74" spans="8:13">
-      <c r="H74" s="15"/>
+      <c r="H74" s="16"/>
       <c r="I74" s="13" t="s">
         <v>210</v>
       </c>
       <c r="J74" s="11">
         <v>14</v>
       </c>
-      <c r="K74" s="15"/>
+      <c r="K74" s="16"/>
       <c r="L74" t="s">
         <v>153</v>
       </c>
@@ -3264,14 +3264,14 @@
       </c>
     </row>
     <row r="75" spans="8:13">
-      <c r="H75" s="15"/>
+      <c r="H75" s="16"/>
       <c r="I75" t="s">
         <v>211</v>
       </c>
       <c r="J75" s="11">
         <v>2</v>
       </c>
-      <c r="K75" s="15"/>
+      <c r="K75" s="16"/>
       <c r="L75" t="s">
         <v>154</v>
       </c>
@@ -3280,14 +3280,14 @@
       </c>
     </row>
     <row r="76" spans="8:13">
-      <c r="H76" s="15"/>
+      <c r="H76" s="16"/>
       <c r="I76" t="s">
         <v>212</v>
       </c>
       <c r="J76" s="11">
         <v>22</v>
       </c>
-      <c r="K76" s="15"/>
+      <c r="K76" s="16"/>
       <c r="L76" t="s">
         <v>155</v>
       </c>
@@ -3296,14 +3296,14 @@
       </c>
     </row>
     <row r="77" spans="8:13">
-      <c r="H77" s="15"/>
+      <c r="H77" s="16"/>
       <c r="I77" s="13" t="s">
         <v>213</v>
       </c>
       <c r="J77" s="11">
         <v>11</v>
       </c>
-      <c r="K77" s="15"/>
+      <c r="K77" s="16"/>
       <c r="L77" t="s">
         <v>156</v>
       </c>
@@ -3312,14 +3312,14 @@
       </c>
     </row>
     <row r="78" spans="8:13">
-      <c r="H78" s="15"/>
+      <c r="H78" s="16"/>
       <c r="I78" t="s">
         <v>214</v>
       </c>
       <c r="J78" s="11">
         <v>9</v>
       </c>
-      <c r="K78" s="15"/>
+      <c r="K78" s="16"/>
       <c r="L78" t="s">
         <v>157</v>
       </c>
@@ -3328,14 +3328,14 @@
       </c>
     </row>
     <row r="79" spans="8:13">
-      <c r="H79" s="15"/>
+      <c r="H79" s="16"/>
       <c r="I79" t="s">
         <v>215</v>
       </c>
       <c r="J79" s="11">
         <v>33</v>
       </c>
-      <c r="K79" s="15"/>
+      <c r="K79" s="16"/>
       <c r="L79" t="s">
         <v>158</v>
       </c>
@@ -3344,14 +3344,14 @@
       </c>
     </row>
     <row r="80" spans="8:13">
-      <c r="H80" s="15"/>
+      <c r="H80" s="16"/>
       <c r="I80" s="13" t="s">
         <v>218</v>
       </c>
       <c r="J80" s="11">
         <v>15</v>
       </c>
-      <c r="K80" s="15"/>
+      <c r="K80" s="16"/>
       <c r="L80" t="s">
         <v>159</v>
       </c>
@@ -3360,14 +3360,14 @@
       </c>
     </row>
     <row r="81" spans="8:13">
-      <c r="H81" s="15"/>
+      <c r="H81" s="16"/>
       <c r="I81" s="13" t="s">
         <v>249</v>
       </c>
       <c r="J81" s="11">
         <v>7</v>
       </c>
-      <c r="K81" s="15"/>
+      <c r="K81" s="16"/>
       <c r="L81" s="8" t="s">
         <v>160</v>
       </c>
@@ -3376,14 +3376,14 @@
       </c>
     </row>
     <row r="82" spans="8:13">
-      <c r="H82" s="15"/>
+      <c r="H82" s="16"/>
       <c r="I82" s="13" t="s">
         <v>219</v>
       </c>
       <c r="J82" s="11">
         <v>12</v>
       </c>
-      <c r="K82" s="15"/>
+      <c r="K82" s="16"/>
       <c r="L82" t="s">
         <v>161</v>
       </c>
@@ -3392,14 +3392,14 @@
       </c>
     </row>
     <row r="83" spans="8:13">
-      <c r="H83" s="15"/>
+      <c r="H83" s="16"/>
       <c r="I83" s="13" t="s">
         <v>220</v>
       </c>
       <c r="J83" s="11">
         <v>107</v>
       </c>
-      <c r="K83" s="15"/>
+      <c r="K83" s="16"/>
       <c r="L83" t="s">
         <v>162</v>
       </c>
@@ -3408,14 +3408,14 @@
       </c>
     </row>
     <row r="84" spans="8:13">
-      <c r="H84" s="15"/>
+      <c r="H84" s="16"/>
       <c r="I84" s="13" t="s">
         <v>222</v>
       </c>
       <c r="J84" s="11">
         <v>12</v>
       </c>
-      <c r="K84" s="15"/>
+      <c r="K84" s="16"/>
       <c r="L84" t="s">
         <v>163</v>
       </c>
@@ -3424,14 +3424,14 @@
       </c>
     </row>
     <row r="85" spans="8:13">
-      <c r="H85" s="15"/>
+      <c r="H85" s="16"/>
       <c r="I85" t="s">
         <v>223</v>
       </c>
       <c r="J85" s="11">
         <v>6</v>
       </c>
-      <c r="K85" s="15"/>
+      <c r="K85" s="16"/>
       <c r="L85" t="s">
         <v>164</v>
       </c>
@@ -3440,14 +3440,14 @@
       </c>
     </row>
     <row r="86" spans="8:13">
-      <c r="H86" s="15"/>
+      <c r="H86" s="16"/>
       <c r="I86" s="13" t="s">
         <v>224</v>
       </c>
       <c r="J86" s="11">
         <v>24</v>
       </c>
-      <c r="K86" s="15"/>
+      <c r="K86" s="16"/>
       <c r="L86" t="s">
         <v>165</v>
       </c>
@@ -3456,14 +3456,14 @@
       </c>
     </row>
     <row r="87" spans="8:13">
-      <c r="H87" s="15"/>
+      <c r="H87" s="16"/>
       <c r="I87" s="13" t="s">
         <v>250</v>
       </c>
       <c r="J87" s="11">
         <v>64</v>
       </c>
-      <c r="K87" s="15"/>
+      <c r="K87" s="16"/>
       <c r="L87" t="s">
         <v>166</v>
       </c>
@@ -3472,14 +3472,14 @@
       </c>
     </row>
     <row r="88" spans="8:13">
-      <c r="H88" s="15"/>
+      <c r="H88" s="16"/>
       <c r="I88" s="13" t="s">
         <v>251</v>
       </c>
       <c r="J88" s="11">
         <v>38</v>
       </c>
-      <c r="K88" s="15"/>
+      <c r="K88" s="16"/>
       <c r="L88" t="s">
         <v>167</v>
       </c>
@@ -3488,14 +3488,14 @@
       </c>
     </row>
     <row r="89" spans="8:13">
-      <c r="H89" s="15"/>
+      <c r="H89" s="16"/>
       <c r="I89" s="13" t="s">
         <v>252</v>
       </c>
       <c r="J89" s="11">
         <v>42</v>
       </c>
-      <c r="K89" s="15"/>
+      <c r="K89" s="16"/>
       <c r="L89" t="s">
         <v>168</v>
       </c>
@@ -3504,14 +3504,14 @@
       </c>
     </row>
     <row r="90" spans="8:13">
-      <c r="H90" s="15"/>
+      <c r="H90" s="16"/>
       <c r="I90" t="s">
         <v>196</v>
       </c>
       <c r="J90" s="11">
         <v>2</v>
       </c>
-      <c r="K90" s="15"/>
+      <c r="K90" s="16"/>
       <c r="L90" t="s">
         <v>169</v>
       </c>
@@ -3526,10 +3526,10 @@
       <c r="I91" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="J91" s="18">
+      <c r="J91" s="15">
         <v>418</v>
       </c>
-      <c r="K91" s="15"/>
+      <c r="K91" s="16"/>
       <c r="L91" t="s">
         <v>170</v>
       </c>
@@ -3539,7 +3539,7 @@
     </row>
     <row r="92" spans="8:13">
       <c r="J92" s="6"/>
-      <c r="K92" s="15"/>
+      <c r="K92" s="16"/>
       <c r="L92" t="s">
         <v>171</v>
       </c>
@@ -3549,7 +3549,7 @@
     </row>
     <row r="93" spans="8:13">
       <c r="J93" s="6"/>
-      <c r="K93" s="15"/>
+      <c r="K93" s="16"/>
       <c r="L93" t="s">
         <v>172</v>
       </c>
@@ -3559,7 +3559,7 @@
     </row>
     <row r="94" spans="8:13">
       <c r="J94" s="6"/>
-      <c r="K94" s="15"/>
+      <c r="K94" s="16"/>
       <c r="L94" t="s">
         <v>173</v>
       </c>
@@ -3569,7 +3569,7 @@
     </row>
     <row r="95" spans="8:13">
       <c r="J95" s="6"/>
-      <c r="K95" s="15"/>
+      <c r="K95" s="16"/>
       <c r="L95" t="s">
         <v>174</v>
       </c>
@@ -3578,7 +3578,7 @@
       </c>
     </row>
     <row r="96" spans="8:13">
-      <c r="K96" s="15"/>
+      <c r="K96" s="16"/>
       <c r="L96" t="s">
         <v>175</v>
       </c>
@@ -3587,7 +3587,7 @@
       </c>
     </row>
     <row r="97" spans="11:13">
-      <c r="K97" s="15"/>
+      <c r="K97" s="16"/>
       <c r="L97" t="s">
         <v>176</v>
       </c>
@@ -3596,7 +3596,7 @@
       </c>
     </row>
     <row r="98" spans="11:13">
-      <c r="K98" s="15"/>
+      <c r="K98" s="16"/>
       <c r="L98" t="s">
         <v>177</v>
       </c>
@@ -3605,7 +3605,7 @@
       </c>
     </row>
     <row r="99" spans="11:13">
-      <c r="K99" s="15"/>
+      <c r="K99" s="16"/>
       <c r="L99" t="s">
         <v>178</v>
       </c>
@@ -3614,7 +3614,7 @@
       </c>
     </row>
     <row r="100" spans="11:13">
-      <c r="K100" s="15"/>
+      <c r="K100" s="16"/>
       <c r="L100" t="s">
         <v>179</v>
       </c>
@@ -3623,7 +3623,7 @@
       </c>
     </row>
     <row r="101" spans="11:13">
-      <c r="K101" s="15"/>
+      <c r="K101" s="16"/>
       <c r="L101" t="s">
         <v>180</v>
       </c>
@@ -3632,7 +3632,7 @@
       </c>
     </row>
     <row r="102" spans="11:13">
-      <c r="K102" s="15"/>
+      <c r="K102" s="16"/>
       <c r="L102" t="s">
         <v>181</v>
       </c>
@@ -3641,7 +3641,7 @@
       </c>
     </row>
     <row r="103" spans="11:13">
-      <c r="K103" s="15"/>
+      <c r="K103" s="16"/>
       <c r="L103" s="13" t="s">
         <v>182</v>
       </c>
@@ -3650,7 +3650,7 @@
       </c>
     </row>
     <row r="104" spans="11:13">
-      <c r="K104" s="15"/>
+      <c r="K104" s="16"/>
       <c r="L104" t="s">
         <v>183</v>
       </c>
@@ -3659,7 +3659,7 @@
       </c>
     </row>
     <row r="105" spans="11:13">
-      <c r="K105" s="15"/>
+      <c r="K105" s="16"/>
       <c r="L105" t="s">
         <v>184</v>
       </c>
@@ -3668,7 +3668,7 @@
       </c>
     </row>
     <row r="106" spans="11:13">
-      <c r="K106" s="15"/>
+      <c r="K106" s="16"/>
       <c r="L106" t="s">
         <v>185</v>
       </c>
@@ -3677,7 +3677,7 @@
       </c>
     </row>
     <row r="107" spans="11:13">
-      <c r="K107" s="15"/>
+      <c r="K107" s="16"/>
       <c r="L107" t="s">
         <v>186</v>
       </c>
@@ -3686,7 +3686,7 @@
       </c>
     </row>
     <row r="108" spans="11:13">
-      <c r="K108" s="15"/>
+      <c r="K108" s="16"/>
       <c r="L108" t="s">
         <v>187</v>
       </c>
@@ -3695,7 +3695,7 @@
       </c>
     </row>
     <row r="109" spans="11:13">
-      <c r="K109" s="15"/>
+      <c r="K109" s="16"/>
       <c r="L109" t="s">
         <v>188</v>
       </c>
@@ -3704,7 +3704,7 @@
       </c>
     </row>
     <row r="110" spans="11:13">
-      <c r="K110" s="15"/>
+      <c r="K110" s="16"/>
       <c r="L110" t="s">
         <v>189</v>
       </c>
@@ -3713,7 +3713,7 @@
       </c>
     </row>
     <row r="111" spans="11:13">
-      <c r="K111" s="15"/>
+      <c r="K111" s="16"/>
       <c r="L111" t="s">
         <v>190</v>
       </c>
@@ -3722,7 +3722,7 @@
       </c>
     </row>
     <row r="112" spans="11:13">
-      <c r="K112" s="15"/>
+      <c r="K112" s="16"/>
       <c r="L112" t="s">
         <v>191</v>
       </c>
@@ -3731,7 +3731,7 @@
       </c>
     </row>
     <row r="113" spans="11:13">
-      <c r="K113" s="15"/>
+      <c r="K113" s="16"/>
       <c r="L113" t="s">
         <v>192</v>
       </c>
@@ -3740,7 +3740,7 @@
       </c>
     </row>
     <row r="114" spans="11:13">
-      <c r="K114" s="15"/>
+      <c r="K114" s="16"/>
       <c r="L114" t="s">
         <v>193</v>
       </c>
@@ -3749,7 +3749,7 @@
       </c>
     </row>
     <row r="115" spans="11:13">
-      <c r="K115" s="15"/>
+      <c r="K115" s="16"/>
       <c r="L115" t="s">
         <v>194</v>
       </c>
@@ -3758,7 +3758,7 @@
       </c>
     </row>
     <row r="116" spans="11:13">
-      <c r="K116" s="15"/>
+      <c r="K116" s="16"/>
       <c r="L116" t="s">
         <v>195</v>
       </c>
@@ -3767,7 +3767,7 @@
       </c>
     </row>
     <row r="117" spans="11:13">
-      <c r="K117" s="15"/>
+      <c r="K117" s="16"/>
       <c r="L117" t="s">
         <v>196</v>
       </c>
@@ -3776,7 +3776,7 @@
       </c>
     </row>
     <row r="118" spans="11:13">
-      <c r="K118" s="15"/>
+      <c r="K118" s="16"/>
       <c r="L118" t="s">
         <v>197</v>
       </c>
@@ -3785,7 +3785,7 @@
       </c>
     </row>
     <row r="119" spans="11:13">
-      <c r="K119" s="15"/>
+      <c r="K119" s="16"/>
       <c r="L119" t="s">
         <v>198</v>
       </c>
@@ -3794,7 +3794,7 @@
       </c>
     </row>
     <row r="120" spans="11:13">
-      <c r="K120" s="15"/>
+      <c r="K120" s="16"/>
       <c r="L120" t="s">
         <v>199</v>
       </c>
@@ -3803,7 +3803,7 @@
       </c>
     </row>
     <row r="121" spans="11:13">
-      <c r="K121" s="15"/>
+      <c r="K121" s="16"/>
       <c r="L121" t="s">
         <v>200</v>
       </c>
@@ -3812,7 +3812,7 @@
       </c>
     </row>
     <row r="122" spans="11:13">
-      <c r="K122" s="15"/>
+      <c r="K122" s="16"/>
       <c r="L122" s="13" t="s">
         <v>201</v>
       </c>
@@ -3821,7 +3821,7 @@
       </c>
     </row>
     <row r="123" spans="11:13">
-      <c r="K123" s="15"/>
+      <c r="K123" s="16"/>
       <c r="L123" t="s">
         <v>202</v>
       </c>
@@ -3830,7 +3830,7 @@
       </c>
     </row>
     <row r="124" spans="11:13">
-      <c r="K124" s="15"/>
+      <c r="K124" s="16"/>
       <c r="L124" t="s">
         <v>203</v>
       </c>
@@ -3839,7 +3839,7 @@
       </c>
     </row>
     <row r="125" spans="11:13">
-      <c r="K125" s="15"/>
+      <c r="K125" s="16"/>
       <c r="L125" t="s">
         <v>204</v>
       </c>
@@ -3848,7 +3848,7 @@
       </c>
     </row>
     <row r="126" spans="11:13">
-      <c r="K126" s="15"/>
+      <c r="K126" s="16"/>
       <c r="L126" t="s">
         <v>205</v>
       </c>
@@ -3857,7 +3857,7 @@
       </c>
     </row>
     <row r="127" spans="11:13">
-      <c r="K127" s="15"/>
+      <c r="K127" s="16"/>
       <c r="L127" t="s">
         <v>206</v>
       </c>
@@ -3866,7 +3866,7 @@
       </c>
     </row>
     <row r="128" spans="11:13">
-      <c r="K128" s="15"/>
+      <c r="K128" s="16"/>
       <c r="L128" t="s">
         <v>207</v>
       </c>
@@ -3875,7 +3875,7 @@
       </c>
     </row>
     <row r="129" spans="11:13">
-      <c r="K129" s="15"/>
+      <c r="K129" s="16"/>
       <c r="L129" t="s">
         <v>208</v>
       </c>
@@ -3884,7 +3884,7 @@
       </c>
     </row>
     <row r="130" spans="11:13">
-      <c r="K130" s="15"/>
+      <c r="K130" s="16"/>
       <c r="L130" t="s">
         <v>209</v>
       </c>
@@ -3893,7 +3893,7 @@
       </c>
     </row>
     <row r="131" spans="11:13">
-      <c r="K131" s="15"/>
+      <c r="K131" s="16"/>
       <c r="L131" t="s">
         <v>210</v>
       </c>
@@ -3902,7 +3902,7 @@
       </c>
     </row>
     <row r="132" spans="11:13">
-      <c r="K132" s="15"/>
+      <c r="K132" s="16"/>
       <c r="L132" t="s">
         <v>211</v>
       </c>
@@ -3911,7 +3911,7 @@
       </c>
     </row>
     <row r="133" spans="11:13">
-      <c r="K133" s="15"/>
+      <c r="K133" s="16"/>
       <c r="L133" t="s">
         <v>212</v>
       </c>
@@ -3920,7 +3920,7 @@
       </c>
     </row>
     <row r="134" spans="11:13">
-      <c r="K134" s="15"/>
+      <c r="K134" s="16"/>
       <c r="L134" t="s">
         <v>213</v>
       </c>
@@ -3929,7 +3929,7 @@
       </c>
     </row>
     <row r="135" spans="11:13">
-      <c r="K135" s="15"/>
+      <c r="K135" s="16"/>
       <c r="L135" t="s">
         <v>214</v>
       </c>
@@ -3938,7 +3938,7 @@
       </c>
     </row>
     <row r="136" spans="11:13">
-      <c r="K136" s="15"/>
+      <c r="K136" s="16"/>
       <c r="L136" t="s">
         <v>215</v>
       </c>
@@ -3947,7 +3947,7 @@
       </c>
     </row>
     <row r="137" spans="11:13">
-      <c r="K137" s="15"/>
+      <c r="K137" s="16"/>
       <c r="L137" t="s">
         <v>216</v>
       </c>
@@ -3956,7 +3956,7 @@
       </c>
     </row>
     <row r="138" spans="11:13">
-      <c r="K138" s="15"/>
+      <c r="K138" s="16"/>
       <c r="L138" t="s">
         <v>217</v>
       </c>
@@ -3965,7 +3965,7 @@
       </c>
     </row>
     <row r="139" spans="11:13">
-      <c r="K139" s="15"/>
+      <c r="K139" s="16"/>
       <c r="L139" t="s">
         <v>218</v>
       </c>
@@ -3974,7 +3974,7 @@
       </c>
     </row>
     <row r="140" spans="11:13">
-      <c r="K140" s="15"/>
+      <c r="K140" s="16"/>
       <c r="L140" t="s">
         <v>219</v>
       </c>
@@ -3983,7 +3983,7 @@
       </c>
     </row>
     <row r="141" spans="11:13">
-      <c r="K141" s="15"/>
+      <c r="K141" s="16"/>
       <c r="L141" t="s">
         <v>220</v>
       </c>
@@ -3992,7 +3992,7 @@
       </c>
     </row>
     <row r="142" spans="11:13">
-      <c r="K142" s="15"/>
+      <c r="K142" s="16"/>
       <c r="L142" t="s">
         <v>221</v>
       </c>
@@ -4001,7 +4001,7 @@
       </c>
     </row>
     <row r="143" spans="11:13">
-      <c r="K143" s="15"/>
+      <c r="K143" s="16"/>
       <c r="L143" t="s">
         <v>222</v>
       </c>
@@ -4010,7 +4010,7 @@
       </c>
     </row>
     <row r="144" spans="11:13">
-      <c r="K144" s="15"/>
+      <c r="K144" s="16"/>
       <c r="L144" t="s">
         <v>223</v>
       </c>
@@ -4019,7 +4019,7 @@
       </c>
     </row>
     <row r="145" spans="11:13">
-      <c r="K145" s="15"/>
+      <c r="K145" s="16"/>
       <c r="L145" t="s">
         <v>224</v>
       </c>
@@ -4028,7 +4028,7 @@
       </c>
     </row>
     <row r="146" spans="11:13">
-      <c r="K146" s="15"/>
+      <c r="K146" s="16"/>
       <c r="L146" s="13" t="s">
         <v>225</v>
       </c>
@@ -4037,7 +4037,7 @@
       </c>
     </row>
     <row r="147" spans="11:13">
-      <c r="K147" s="15"/>
+      <c r="K147" s="16"/>
       <c r="L147" t="s">
         <v>226</v>
       </c>

--- a/Raport.xlsx
+++ b/Raport.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dominik\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\ttt\Tokyo-Garden-Restaurant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CDB98F2-AE72-4A17-ADE5-D0FDC754929D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A98E514-3701-4B05-BD0E-C838726BFD52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="280">
   <si>
     <t>Liczba członków zespołu</t>
   </si>
@@ -856,18 +856,41 @@
   </si>
   <si>
     <t>angular.json</t>
+  </si>
+  <si>
+    <t>environment.prod.ts</t>
+  </si>
+  <si>
+    <t>credential.interceptor.ts</t>
+  </si>
+  <si>
+    <t>main.ts</t>
+  </si>
+  <si>
+    <t>UzytkownicyController.cs</t>
+  </si>
+  <si>
+    <t>Program.cs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -981,14 +1004,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -997,11 +1020,14 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1013,10 +1039,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1034,7 +1060,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1527,8 +1559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10:H20"/>
+    <sheetView tabSelected="1" topLeftCell="B20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -1569,7 +1601,7 @@
       </c>
       <c r="G3">
         <f>SUM(G7:G1001)</f>
-        <v>1857</v>
+        <v>1951</v>
       </c>
       <c r="J3">
         <f>SUM(J7:J1001)</f>
@@ -1587,42 +1619,42 @@
       <c r="B4" s="1"/>
       <c r="D4">
         <f>($B$2*D$3)/SUM($D$3:$AK$3)</f>
-        <v>0.92383187540004263</v>
+        <v>0.91465990705534428</v>
       </c>
       <c r="G4">
         <f>($B$2*G$3)/SUM($D$3:$AK$3)</f>
-        <v>0.7924045231491359</v>
+        <v>0.82425010561892686</v>
       </c>
       <c r="J4">
         <f>($B$2*J$3)/SUM($D$3:$AK$3)</f>
-        <v>0.94303392361851934</v>
+        <v>0.93367131389945079</v>
       </c>
       <c r="M4">
         <f>($B$2*M$3)/SUM($D$3:$AK$3)</f>
-        <v>1.3407296778323021</v>
+        <v>1.3274186734262781</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="17" t="s">
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17" t="s">
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17" t="s">
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
     </row>
     <row r="6" spans="1:13">
       <c r="B6" t="s">
@@ -1728,7 +1760,7 @@
       <c r="J8">
         <v>100</v>
       </c>
-      <c r="K8" s="15">
+      <c r="K8" s="16">
         <v>45772</v>
       </c>
       <c r="L8" t="s">
@@ -1739,7 +1771,7 @@
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="B9" s="15">
+      <c r="B9" s="16">
         <v>45785</v>
       </c>
       <c r="C9" t="s">
@@ -1766,7 +1798,7 @@
       <c r="J9">
         <v>118</v>
       </c>
-      <c r="K9" s="15"/>
+      <c r="K9" s="16"/>
       <c r="L9" s="5" t="s">
         <v>17</v>
       </c>
@@ -1775,7 +1807,7 @@
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="B10" s="15"/>
+      <c r="B10" s="16"/>
       <c r="C10" t="s">
         <v>64</v>
       </c>
@@ -1788,7 +1820,7 @@
       <c r="G10">
         <v>57</v>
       </c>
-      <c r="H10" s="15">
+      <c r="H10" s="16">
         <v>45803</v>
       </c>
       <c r="I10" t="s">
@@ -1797,7 +1829,7 @@
       <c r="J10">
         <v>70</v>
       </c>
-      <c r="K10" s="15"/>
+      <c r="K10" s="16"/>
       <c r="L10" t="s">
         <v>18</v>
       </c>
@@ -1806,7 +1838,7 @@
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="B11" s="15"/>
+      <c r="B11" s="16"/>
       <c r="C11" t="s">
         <v>65</v>
       </c>
@@ -1819,14 +1851,14 @@
       <c r="G11">
         <v>59</v>
       </c>
-      <c r="H11" s="15"/>
+      <c r="H11" s="16"/>
       <c r="I11" t="s">
         <v>75</v>
       </c>
       <c r="J11">
         <v>23</v>
       </c>
-      <c r="K11" s="15"/>
+      <c r="K11" s="16"/>
       <c r="L11" t="s">
         <v>19</v>
       </c>
@@ -1835,7 +1867,7 @@
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="B12" s="15"/>
+      <c r="B12" s="16"/>
       <c r="C12" t="s">
         <v>66</v>
       </c>
@@ -1848,14 +1880,14 @@
       <c r="G12">
         <v>58</v>
       </c>
-      <c r="H12" s="15"/>
+      <c r="H12" s="16"/>
       <c r="I12" t="s">
         <v>77</v>
       </c>
       <c r="J12">
         <v>23</v>
       </c>
-      <c r="K12" s="15"/>
+      <c r="K12" s="16"/>
       <c r="L12" t="s">
         <v>20</v>
       </c>
@@ -1864,7 +1896,7 @@
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="B13" s="15"/>
+      <c r="B13" s="16"/>
       <c r="C13" t="s">
         <v>67</v>
       </c>
@@ -1877,14 +1909,14 @@
       <c r="G13">
         <v>57</v>
       </c>
-      <c r="H13" s="15"/>
+      <c r="H13" s="16"/>
       <c r="I13" t="s">
         <v>76</v>
       </c>
       <c r="J13">
         <v>27</v>
       </c>
-      <c r="K13" s="15"/>
+      <c r="K13" s="16"/>
       <c r="L13" s="5" t="s">
         <v>21</v>
       </c>
@@ -1893,7 +1925,7 @@
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="B14" s="15"/>
+      <c r="B14" s="16"/>
       <c r="C14" t="s">
         <v>68</v>
       </c>
@@ -1906,14 +1938,14 @@
       <c r="G14">
         <v>61</v>
       </c>
-      <c r="H14" s="15"/>
+      <c r="H14" s="16"/>
       <c r="I14" t="s">
         <v>74</v>
       </c>
       <c r="J14">
         <v>24</v>
       </c>
-      <c r="K14" s="15"/>
+      <c r="K14" s="16"/>
       <c r="L14" t="s">
         <v>22</v>
       </c>
@@ -1922,7 +1954,7 @@
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="B15" s="15"/>
+      <c r="B15" s="16"/>
       <c r="C15" t="s">
         <v>69</v>
       </c>
@@ -1935,14 +1967,14 @@
       <c r="G15">
         <v>60</v>
       </c>
-      <c r="H15" s="15"/>
+      <c r="H15" s="16"/>
       <c r="I15" t="s">
         <v>78</v>
       </c>
       <c r="J15">
         <v>27</v>
       </c>
-      <c r="K15" s="15"/>
+      <c r="K15" s="16"/>
       <c r="L15" s="5" t="s">
         <v>23</v>
       </c>
@@ -1951,7 +1983,7 @@
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="B16" s="15"/>
+      <c r="B16" s="16"/>
       <c r="C16" t="s">
         <v>70</v>
       </c>
@@ -1964,14 +1996,14 @@
       <c r="G16">
         <v>16</v>
       </c>
-      <c r="H16" s="15"/>
+      <c r="H16" s="16"/>
       <c r="I16" t="s">
         <v>79</v>
       </c>
       <c r="J16">
         <v>27</v>
       </c>
-      <c r="K16" s="15"/>
+      <c r="K16" s="16"/>
       <c r="L16" t="s">
         <v>24</v>
       </c>
@@ -1980,7 +2012,7 @@
       </c>
     </row>
     <row r="17" spans="2:13">
-      <c r="B17" s="15"/>
+      <c r="B17" s="16"/>
       <c r="C17" t="s">
         <v>71</v>
       </c>
@@ -1993,14 +2025,14 @@
       <c r="G17">
         <v>59</v>
       </c>
-      <c r="H17" s="15"/>
+      <c r="H17" s="16"/>
       <c r="I17" t="s">
         <v>80</v>
       </c>
       <c r="J17">
         <v>27</v>
       </c>
-      <c r="K17" s="15"/>
+      <c r="K17" s="16"/>
       <c r="L17" t="s">
         <v>25</v>
       </c>
@@ -2009,7 +2041,7 @@
       </c>
     </row>
     <row r="18" spans="2:13">
-      <c r="B18" s="15">
+      <c r="B18" s="16">
         <v>45803</v>
       </c>
       <c r="C18" t="s">
@@ -2024,14 +2056,14 @@
       <c r="G18">
         <v>64</v>
       </c>
-      <c r="H18" s="15"/>
+      <c r="H18" s="16"/>
       <c r="I18" t="s">
         <v>81</v>
       </c>
       <c r="J18">
         <v>27</v>
       </c>
-      <c r="K18" s="15"/>
+      <c r="K18" s="16"/>
       <c r="L18" t="s">
         <v>26</v>
       </c>
@@ -2040,21 +2072,21 @@
       </c>
     </row>
     <row r="19" spans="2:13">
-      <c r="B19" s="15"/>
+      <c r="B19" s="16"/>
       <c r="C19" t="s">
         <v>85</v>
       </c>
       <c r="D19">
         <v>144</v>
       </c>
-      <c r="H19" s="15"/>
+      <c r="H19" s="16"/>
       <c r="I19" t="s">
         <v>82</v>
       </c>
       <c r="J19">
         <v>28</v>
       </c>
-      <c r="K19" s="15"/>
+      <c r="K19" s="16"/>
       <c r="L19" t="s">
         <v>27</v>
       </c>
@@ -2063,21 +2095,21 @@
       </c>
     </row>
     <row r="20" spans="2:13">
-      <c r="B20" s="15"/>
+      <c r="B20" s="16"/>
       <c r="C20" t="s">
         <v>86</v>
       </c>
       <c r="D20">
         <v>164</v>
       </c>
-      <c r="H20" s="15"/>
+      <c r="H20" s="16"/>
       <c r="I20" t="s">
         <v>83</v>
       </c>
       <c r="J20">
         <v>34</v>
       </c>
-      <c r="K20" s="15"/>
+      <c r="K20" s="16"/>
       <c r="L20" t="s">
         <v>28</v>
       </c>
@@ -2086,14 +2118,14 @@
       </c>
     </row>
     <row r="21" spans="2:13">
-      <c r="B21" s="15"/>
+      <c r="B21" s="16"/>
       <c r="C21" t="s">
         <v>87</v>
       </c>
       <c r="D21">
         <v>58</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E21" s="16">
         <v>45804</v>
       </c>
       <c r="F21" t="s">
@@ -2102,7 +2134,7 @@
       <c r="G21">
         <v>81</v>
       </c>
-      <c r="H21" s="15">
+      <c r="H21" s="16">
         <v>45817</v>
       </c>
       <c r="I21" s="10" t="s">
@@ -2111,7 +2143,7 @@
       <c r="J21" s="6">
         <v>3</v>
       </c>
-      <c r="K21" s="15"/>
+      <c r="K21" s="16"/>
       <c r="L21" t="s">
         <v>29</v>
       </c>
@@ -2120,28 +2152,28 @@
       </c>
     </row>
     <row r="22" spans="2:13">
-      <c r="B22" s="15"/>
+      <c r="B22" s="16"/>
       <c r="C22" t="s">
         <v>88</v>
       </c>
       <c r="D22">
         <v>92</v>
       </c>
-      <c r="E22" s="17"/>
+      <c r="E22" s="18"/>
       <c r="F22" t="s">
         <v>102</v>
       </c>
       <c r="G22">
         <v>69</v>
       </c>
-      <c r="H22" s="15"/>
+      <c r="H22" s="16"/>
       <c r="I22" t="s">
         <v>111</v>
       </c>
       <c r="J22" s="6">
         <v>6</v>
       </c>
-      <c r="K22" s="15"/>
+      <c r="K22" s="16"/>
       <c r="L22" t="s">
         <v>30</v>
       </c>
@@ -2150,28 +2182,28 @@
       </c>
     </row>
     <row r="23" spans="2:13">
-      <c r="B23" s="15"/>
+      <c r="B23" s="16"/>
       <c r="C23" t="s">
         <v>89</v>
       </c>
       <c r="D23">
         <v>64</v>
       </c>
-      <c r="E23" s="17"/>
+      <c r="E23" s="18"/>
       <c r="F23" t="s">
         <v>103</v>
       </c>
       <c r="G23">
         <v>75</v>
       </c>
-      <c r="H23" s="15"/>
+      <c r="H23" s="16"/>
       <c r="I23" t="s">
         <v>112</v>
       </c>
       <c r="J23" s="6">
         <v>3</v>
       </c>
-      <c r="K23" s="15"/>
+      <c r="K23" s="16"/>
       <c r="L23" t="s">
         <v>31</v>
       </c>
@@ -2180,28 +2212,28 @@
       </c>
     </row>
     <row r="24" spans="2:13">
-      <c r="B24" s="15"/>
+      <c r="B24" s="16"/>
       <c r="C24" t="s">
         <v>90</v>
       </c>
       <c r="D24">
         <v>20</v>
       </c>
-      <c r="E24" s="17"/>
+      <c r="E24" s="18"/>
       <c r="F24" t="s">
         <v>104</v>
       </c>
       <c r="G24">
         <v>126</v>
       </c>
-      <c r="H24" s="15"/>
+      <c r="H24" s="16"/>
       <c r="I24" t="s">
         <v>113</v>
       </c>
       <c r="J24" s="6">
         <v>6</v>
       </c>
-      <c r="K24" s="15"/>
+      <c r="K24" s="16"/>
       <c r="L24" t="s">
         <v>32</v>
       </c>
@@ -2210,28 +2242,28 @@
       </c>
     </row>
     <row r="25" spans="2:13">
-      <c r="B25" s="15"/>
+      <c r="B25" s="16"/>
       <c r="C25" t="s">
         <v>91</v>
       </c>
       <c r="D25">
         <v>57</v>
       </c>
-      <c r="E25" s="17"/>
+      <c r="E25" s="18"/>
       <c r="F25" t="s">
         <v>105</v>
       </c>
       <c r="G25">
         <v>65</v>
       </c>
-      <c r="H25" s="15"/>
+      <c r="H25" s="16"/>
       <c r="I25" t="s">
         <v>114</v>
       </c>
       <c r="J25" s="6">
         <v>4</v>
       </c>
-      <c r="K25" s="15"/>
+      <c r="K25" s="16"/>
       <c r="L25" t="s">
         <v>33</v>
       </c>
@@ -2240,28 +2272,28 @@
       </c>
     </row>
     <row r="26" spans="2:13">
-      <c r="B26" s="15"/>
+      <c r="B26" s="16"/>
       <c r="C26" t="s">
         <v>92</v>
       </c>
       <c r="D26">
         <v>28</v>
       </c>
-      <c r="E26" s="17"/>
+      <c r="E26" s="18"/>
       <c r="F26" t="s">
         <v>106</v>
       </c>
       <c r="G26">
         <v>82</v>
       </c>
-      <c r="H26" s="15"/>
+      <c r="H26" s="16"/>
       <c r="I26" s="10" t="s">
         <v>115</v>
       </c>
       <c r="J26" s="6">
         <v>2</v>
       </c>
-      <c r="K26" s="15"/>
+      <c r="K26" s="16"/>
       <c r="L26" t="s">
         <v>34</v>
       </c>
@@ -2270,28 +2302,28 @@
       </c>
     </row>
     <row r="27" spans="2:13">
-      <c r="B27" s="15"/>
+      <c r="B27" s="16"/>
       <c r="C27" t="s">
         <v>93</v>
       </c>
       <c r="D27">
         <v>26</v>
       </c>
-      <c r="E27" s="17"/>
+      <c r="E27" s="18"/>
       <c r="F27" t="s">
         <v>107</v>
       </c>
       <c r="G27">
         <v>75</v>
       </c>
-      <c r="H27" s="15"/>
+      <c r="H27" s="16"/>
       <c r="I27" t="s">
         <v>116</v>
       </c>
       <c r="J27" s="6">
         <v>8</v>
       </c>
-      <c r="K27" s="15"/>
+      <c r="K27" s="16"/>
       <c r="L27" t="s">
         <v>35</v>
       </c>
@@ -2300,28 +2332,28 @@
       </c>
     </row>
     <row r="28" spans="2:13">
-      <c r="B28" s="15"/>
+      <c r="B28" s="16"/>
       <c r="C28" t="s">
         <v>94</v>
       </c>
       <c r="D28">
         <v>16</v>
       </c>
-      <c r="E28" s="17"/>
+      <c r="E28" s="18"/>
       <c r="F28" t="s">
         <v>108</v>
       </c>
       <c r="G28">
         <v>266</v>
       </c>
-      <c r="H28" s="15"/>
+      <c r="H28" s="16"/>
       <c r="I28" t="s">
         <v>117</v>
       </c>
       <c r="J28" s="6">
         <v>3</v>
       </c>
-      <c r="K28" s="15"/>
+      <c r="K28" s="16"/>
       <c r="L28" t="s">
         <v>36</v>
       </c>
@@ -2330,28 +2362,28 @@
       </c>
     </row>
     <row r="29" spans="2:13">
-      <c r="B29" s="15"/>
+      <c r="B29" s="16"/>
       <c r="C29" t="s">
         <v>95</v>
       </c>
       <c r="D29">
         <v>18</v>
       </c>
-      <c r="E29" s="17"/>
+      <c r="E29" s="18"/>
       <c r="F29" t="s">
         <v>109</v>
       </c>
       <c r="G29">
         <v>71</v>
       </c>
-      <c r="H29" s="15"/>
+      <c r="H29" s="16"/>
       <c r="I29" t="s">
         <v>118</v>
       </c>
       <c r="J29" s="6">
         <v>12</v>
       </c>
-      <c r="K29" s="15"/>
+      <c r="K29" s="16"/>
       <c r="L29" t="s">
         <v>37</v>
       </c>
@@ -2360,21 +2392,21 @@
       </c>
     </row>
     <row r="30" spans="2:13">
-      <c r="B30" s="15"/>
+      <c r="B30" s="16"/>
       <c r="C30" t="s">
         <v>96</v>
       </c>
       <c r="D30">
         <v>15</v>
       </c>
-      <c r="H30" s="15"/>
+      <c r="H30" s="16"/>
       <c r="I30" t="s">
         <v>119</v>
       </c>
       <c r="J30" s="6">
         <v>3</v>
       </c>
-      <c r="K30" s="15"/>
+      <c r="K30" s="16"/>
       <c r="L30" t="s">
         <v>38</v>
       </c>
@@ -2383,21 +2415,21 @@
       </c>
     </row>
     <row r="31" spans="2:13">
-      <c r="B31" s="15"/>
+      <c r="B31" s="16"/>
       <c r="C31" t="s">
         <v>97</v>
       </c>
       <c r="D31">
         <v>17</v>
       </c>
-      <c r="H31" s="15"/>
+      <c r="H31" s="16"/>
       <c r="I31" t="s">
         <v>120</v>
       </c>
       <c r="J31" s="6">
         <v>6</v>
       </c>
-      <c r="K31" s="15"/>
+      <c r="K31" s="16"/>
       <c r="L31" t="s">
         <v>39</v>
       </c>
@@ -2406,21 +2438,21 @@
       </c>
     </row>
     <row r="32" spans="2:13">
-      <c r="B32" s="15"/>
+      <c r="B32" s="16"/>
       <c r="C32" t="s">
         <v>98</v>
       </c>
       <c r="D32">
         <v>44</v>
       </c>
-      <c r="H32" s="15"/>
+      <c r="H32" s="16"/>
       <c r="I32" t="s">
         <v>121</v>
       </c>
       <c r="J32" s="6">
         <v>2</v>
       </c>
-      <c r="K32" s="15"/>
+      <c r="K32" s="16"/>
       <c r="L32" s="5" t="s">
         <v>40</v>
       </c>
@@ -2429,21 +2461,21 @@
       </c>
     </row>
     <row r="33" spans="2:13">
-      <c r="B33" s="15"/>
+      <c r="B33" s="16"/>
       <c r="C33" t="s">
         <v>99</v>
       </c>
       <c r="D33">
         <v>43</v>
       </c>
-      <c r="H33" s="15"/>
+      <c r="H33" s="16"/>
       <c r="I33" t="s">
         <v>122</v>
       </c>
       <c r="J33" s="6">
         <v>4</v>
       </c>
-      <c r="K33" s="15"/>
+      <c r="K33" s="16"/>
       <c r="L33" t="s">
         <v>41</v>
       </c>
@@ -2452,21 +2484,21 @@
       </c>
     </row>
     <row r="34" spans="2:13">
-      <c r="B34" s="15"/>
+      <c r="B34" s="16"/>
       <c r="C34" t="s">
         <v>100</v>
       </c>
       <c r="D34">
         <v>28</v>
       </c>
-      <c r="H34" s="15"/>
+      <c r="H34" s="16"/>
       <c r="I34" t="s">
         <v>123</v>
       </c>
       <c r="J34" s="6">
         <v>8</v>
       </c>
-      <c r="K34" s="15"/>
+      <c r="K34" s="16"/>
       <c r="L34" t="s">
         <v>42</v>
       </c>
@@ -2475,7 +2507,7 @@
       </c>
     </row>
     <row r="35" spans="2:13">
-      <c r="B35" s="15">
+      <c r="B35" s="16">
         <v>45907</v>
       </c>
       <c r="C35" t="s">
@@ -2490,7 +2522,7 @@
       <c r="G35">
         <v>300</v>
       </c>
-      <c r="H35" s="15">
+      <c r="H35" s="3">
         <v>45908</v>
       </c>
       <c r="I35" s="12" t="s">
@@ -2499,7 +2531,7 @@
       <c r="J35" s="6">
         <v>17</v>
       </c>
-      <c r="K35" s="15"/>
+      <c r="K35" s="16"/>
       <c r="L35" t="s">
         <v>43</v>
       </c>
@@ -2508,7 +2540,7 @@
       </c>
     </row>
     <row r="36" spans="2:13">
-      <c r="B36" s="17"/>
+      <c r="B36" s="18"/>
       <c r="C36" t="s">
         <v>255</v>
       </c>
@@ -2521,14 +2553,16 @@
       <c r="G36">
         <v>5</v>
       </c>
-      <c r="H36" s="15"/>
+      <c r="H36" s="20">
+        <v>45916</v>
+      </c>
       <c r="I36" s="7" t="s">
         <v>125</v>
       </c>
       <c r="J36" s="6">
         <v>8</v>
       </c>
-      <c r="K36" s="15"/>
+      <c r="K36" s="16"/>
       <c r="L36" t="s">
         <v>44</v>
       </c>
@@ -2537,7 +2571,7 @@
       </c>
     </row>
     <row r="37" spans="2:13">
-      <c r="B37" s="17"/>
+      <c r="B37" s="18"/>
       <c r="C37" t="s">
         <v>256</v>
       </c>
@@ -2550,14 +2584,14 @@
       <c r="G37">
         <v>3</v>
       </c>
-      <c r="H37" s="15"/>
+      <c r="H37" s="19"/>
       <c r="I37" t="s">
         <v>127</v>
       </c>
       <c r="J37" s="6">
         <v>9</v>
       </c>
-      <c r="K37" s="15"/>
+      <c r="K37" s="16"/>
       <c r="L37" t="s">
         <v>45</v>
       </c>
@@ -2566,7 +2600,7 @@
       </c>
     </row>
     <row r="38" spans="2:13">
-      <c r="B38" s="17"/>
+      <c r="B38" s="18"/>
       <c r="C38" t="s">
         <v>257</v>
       </c>
@@ -2579,14 +2613,14 @@
       <c r="G38">
         <v>2</v>
       </c>
-      <c r="H38" s="15"/>
+      <c r="H38" s="19"/>
       <c r="I38" t="s">
         <v>128</v>
       </c>
       <c r="J38" s="6">
         <v>36</v>
       </c>
-      <c r="K38" s="15"/>
+      <c r="K38" s="16"/>
       <c r="L38" t="s">
         <v>46</v>
       </c>
@@ -2595,7 +2629,7 @@
       </c>
     </row>
     <row r="39" spans="2:13">
-      <c r="B39" s="17"/>
+      <c r="B39" s="18"/>
       <c r="C39" t="s">
         <v>258</v>
       </c>
@@ -2608,14 +2642,14 @@
       <c r="G39">
         <v>1</v>
       </c>
-      <c r="H39" s="15"/>
+      <c r="H39" s="19"/>
       <c r="I39" t="s">
         <v>129</v>
       </c>
       <c r="J39" s="6">
         <v>9</v>
       </c>
-      <c r="K39" s="15"/>
+      <c r="K39" s="16"/>
       <c r="L39" t="s">
         <v>47</v>
       </c>
@@ -2624,7 +2658,7 @@
       </c>
     </row>
     <row r="40" spans="2:13">
-      <c r="B40" s="17"/>
+      <c r="B40" s="18"/>
       <c r="C40" t="s">
         <v>259</v>
       </c>
@@ -2637,14 +2671,14 @@
       <c r="G40">
         <v>7</v>
       </c>
-      <c r="H40" s="15"/>
+      <c r="H40" s="19"/>
       <c r="I40" t="s">
         <v>130</v>
       </c>
       <c r="J40" s="6">
         <v>37</v>
       </c>
-      <c r="K40" s="15"/>
+      <c r="K40" s="16"/>
       <c r="L40" s="5" t="s">
         <v>48</v>
       </c>
@@ -2653,21 +2687,27 @@
       </c>
     </row>
     <row r="41" spans="2:13">
-      <c r="B41" s="17"/>
+      <c r="B41" s="18"/>
       <c r="C41" t="s">
         <v>260</v>
       </c>
       <c r="D41">
         <v>23</v>
       </c>
-      <c r="H41" s="15"/>
+      <c r="F41" t="s">
+        <v>275</v>
+      </c>
+      <c r="G41">
+        <v>3</v>
+      </c>
+      <c r="H41" s="19"/>
       <c r="I41" t="s">
         <v>131</v>
       </c>
       <c r="J41" s="6">
         <v>67</v>
       </c>
-      <c r="K41" s="15"/>
+      <c r="K41" s="16"/>
       <c r="L41" s="5" t="s">
         <v>49</v>
       </c>
@@ -2676,21 +2716,29 @@
       </c>
     </row>
     <row r="42" spans="2:13">
-      <c r="B42" s="17"/>
+      <c r="B42" s="18"/>
       <c r="C42" t="s">
         <v>261</v>
       </c>
       <c r="D42">
         <v>55</v>
       </c>
-      <c r="H42" s="15"/>
+      <c r="F42" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="G42">
+        <v>8</v>
+      </c>
+      <c r="H42" s="20">
+        <v>45917</v>
+      </c>
       <c r="I42" t="s">
         <v>134</v>
       </c>
       <c r="J42" s="6">
         <v>1</v>
       </c>
-      <c r="K42" s="15"/>
+      <c r="K42" s="16"/>
       <c r="L42" t="s">
         <v>50</v>
       </c>
@@ -2699,21 +2747,27 @@
       </c>
     </row>
     <row r="43" spans="2:13">
-      <c r="B43" s="17"/>
+      <c r="B43" s="18"/>
       <c r="C43" t="s">
         <v>262</v>
       </c>
       <c r="D43">
         <v>60</v>
       </c>
-      <c r="H43" s="15"/>
+      <c r="F43" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="G43">
+        <v>10</v>
+      </c>
+      <c r="H43" s="19"/>
       <c r="I43" t="s">
         <v>139</v>
       </c>
       <c r="J43" s="6">
         <v>9</v>
       </c>
-      <c r="K43" s="15"/>
+      <c r="K43" s="16"/>
       <c r="L43" t="s">
         <v>51</v>
       </c>
@@ -2722,21 +2776,27 @@
       </c>
     </row>
     <row r="44" spans="2:13">
-      <c r="B44" s="17"/>
+      <c r="B44" s="18"/>
       <c r="C44" t="s">
         <v>263</v>
       </c>
       <c r="D44">
         <v>57</v>
       </c>
-      <c r="H44" s="15"/>
+      <c r="F44" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="G44">
+        <v>46</v>
+      </c>
+      <c r="H44" s="19"/>
       <c r="I44" t="s">
         <v>140</v>
       </c>
       <c r="J44" s="6">
         <v>21</v>
       </c>
-      <c r="K44" s="15"/>
+      <c r="K44" s="16"/>
       <c r="L44" t="s">
         <v>52</v>
       </c>
@@ -2745,21 +2805,27 @@
       </c>
     </row>
     <row r="45" spans="2:13">
-      <c r="B45" s="17"/>
+      <c r="B45" s="18"/>
       <c r="C45" t="s">
         <v>264</v>
       </c>
       <c r="D45">
         <v>61</v>
       </c>
-      <c r="H45" s="15"/>
+      <c r="F45" s="21" t="s">
+        <v>279</v>
+      </c>
+      <c r="G45">
+        <v>27</v>
+      </c>
+      <c r="H45" s="19"/>
       <c r="I45" t="s">
         <v>147</v>
       </c>
       <c r="J45" s="6">
         <v>2</v>
       </c>
-      <c r="K45" s="15">
+      <c r="K45" s="16">
         <v>45898</v>
       </c>
       <c r="L45" s="12" t="s">
@@ -2770,21 +2836,21 @@
       </c>
     </row>
     <row r="46" spans="2:13">
-      <c r="B46" s="17"/>
+      <c r="B46" s="18"/>
       <c r="C46" t="s">
         <v>265</v>
       </c>
       <c r="D46">
         <v>69</v>
       </c>
-      <c r="H46" s="15"/>
+      <c r="H46" s="19"/>
       <c r="I46" s="13" t="s">
         <v>225</v>
       </c>
       <c r="J46" s="6">
         <v>1</v>
       </c>
-      <c r="K46" s="15"/>
+      <c r="K46" s="16"/>
       <c r="L46" s="7" t="s">
         <v>125</v>
       </c>
@@ -2793,21 +2859,21 @@
       </c>
     </row>
     <row r="47" spans="2:13">
-      <c r="B47" s="17"/>
+      <c r="B47" s="18"/>
       <c r="C47" t="s">
         <v>266</v>
       </c>
       <c r="D47">
         <v>23</v>
       </c>
-      <c r="H47" s="15"/>
+      <c r="H47" s="19"/>
       <c r="I47" s="13" t="s">
         <v>253</v>
       </c>
       <c r="J47" s="6">
         <v>15</v>
       </c>
-      <c r="K47" s="15"/>
+      <c r="K47" s="16"/>
       <c r="L47" t="s">
         <v>126</v>
       </c>
@@ -2816,21 +2882,21 @@
       </c>
     </row>
     <row r="48" spans="2:13">
-      <c r="B48" s="17"/>
+      <c r="B48" s="18"/>
       <c r="C48" t="s">
         <v>267</v>
       </c>
       <c r="D48">
         <v>55</v>
       </c>
-      <c r="H48" s="15"/>
+      <c r="H48" s="19"/>
       <c r="I48" s="13" t="s">
         <v>245</v>
       </c>
       <c r="J48" s="6">
         <v>5</v>
       </c>
-      <c r="K48" s="15"/>
+      <c r="K48" s="16"/>
       <c r="L48" t="s">
         <v>127</v>
       </c>
@@ -2848,14 +2914,14 @@
       <c r="D49">
         <v>131</v>
       </c>
-      <c r="H49" s="15"/>
+      <c r="H49" s="19"/>
       <c r="I49" s="13" t="s">
         <v>246</v>
       </c>
       <c r="J49" s="6">
         <v>5</v>
       </c>
-      <c r="K49" s="15"/>
+      <c r="K49" s="16"/>
       <c r="L49" t="s">
         <v>128</v>
       </c>
@@ -2864,14 +2930,14 @@
       </c>
     </row>
     <row r="50" spans="2:13">
-      <c r="H50" s="15"/>
+      <c r="H50" s="19"/>
       <c r="I50" s="13" t="s">
         <v>227</v>
       </c>
       <c r="J50" s="6">
         <v>45</v>
       </c>
-      <c r="K50" s="15"/>
+      <c r="K50" s="16"/>
       <c r="L50" t="s">
         <v>129</v>
       </c>
@@ -2880,14 +2946,14 @@
       </c>
     </row>
     <row r="51" spans="2:13">
-      <c r="H51" s="15"/>
+      <c r="H51" s="19"/>
       <c r="I51" s="13" t="s">
         <v>228</v>
       </c>
       <c r="J51" s="11">
         <v>24</v>
       </c>
-      <c r="K51" s="15"/>
+      <c r="K51" s="16"/>
       <c r="L51" t="s">
         <v>130</v>
       </c>
@@ -2896,14 +2962,14 @@
       </c>
     </row>
     <row r="52" spans="2:13">
-      <c r="H52" s="15"/>
+      <c r="H52" s="19"/>
       <c r="I52" s="13" t="s">
         <v>229</v>
       </c>
       <c r="J52" s="6">
         <v>26</v>
       </c>
-      <c r="K52" s="15"/>
+      <c r="K52" s="16"/>
       <c r="L52" t="s">
         <v>131</v>
       </c>
@@ -2912,14 +2978,14 @@
       </c>
     </row>
     <row r="53" spans="2:13">
-      <c r="H53" s="15"/>
+      <c r="H53" s="19"/>
       <c r="I53" s="13" t="s">
         <v>230</v>
       </c>
       <c r="J53" s="9">
         <v>1</v>
       </c>
-      <c r="K53" s="15"/>
+      <c r="K53" s="16"/>
       <c r="L53" s="8" t="s">
         <v>132</v>
       </c>
@@ -2928,14 +2994,14 @@
       </c>
     </row>
     <row r="54" spans="2:13">
-      <c r="H54" s="15"/>
+      <c r="H54" s="19"/>
       <c r="I54" s="13" t="s">
         <v>231</v>
       </c>
       <c r="J54" s="6">
         <v>18</v>
       </c>
-      <c r="K54" s="15"/>
+      <c r="K54" s="16"/>
       <c r="L54" t="s">
         <v>133</v>
       </c>
@@ -2944,14 +3010,14 @@
       </c>
     </row>
     <row r="55" spans="2:13">
-      <c r="H55" s="15"/>
+      <c r="H55" s="19"/>
       <c r="I55" s="13" t="s">
         <v>232</v>
       </c>
       <c r="J55" s="6">
         <v>1</v>
       </c>
-      <c r="K55" s="15"/>
+      <c r="K55" s="16"/>
       <c r="L55" t="s">
         <v>134</v>
       </c>
@@ -2960,14 +3026,14 @@
       </c>
     </row>
     <row r="56" spans="2:13">
-      <c r="H56" s="15"/>
+      <c r="H56" s="19"/>
       <c r="I56" s="13" t="s">
         <v>233</v>
       </c>
       <c r="J56" s="10">
         <v>32</v>
       </c>
-      <c r="K56" s="15"/>
+      <c r="K56" s="16"/>
       <c r="L56" t="s">
         <v>135</v>
       </c>
@@ -2976,14 +3042,14 @@
       </c>
     </row>
     <row r="57" spans="2:13">
-      <c r="H57" s="15"/>
+      <c r="H57" s="19"/>
       <c r="I57" s="13" t="s">
         <v>234</v>
       </c>
       <c r="J57" s="11">
         <v>1</v>
       </c>
-      <c r="K57" s="15"/>
+      <c r="K57" s="16"/>
       <c r="L57" t="s">
         <v>136</v>
       </c>
@@ -2992,14 +3058,14 @@
       </c>
     </row>
     <row r="58" spans="2:13">
-      <c r="H58" s="15"/>
+      <c r="H58" s="19"/>
       <c r="I58" s="13" t="s">
         <v>235</v>
       </c>
       <c r="J58" s="11">
         <v>18</v>
       </c>
-      <c r="K58" s="15"/>
+      <c r="K58" s="16"/>
       <c r="L58" t="s">
         <v>137</v>
       </c>
@@ -3008,14 +3074,14 @@
       </c>
     </row>
     <row r="59" spans="2:13">
-      <c r="H59" s="15"/>
+      <c r="H59" s="19"/>
       <c r="I59" s="13" t="s">
         <v>236</v>
       </c>
       <c r="J59" s="10">
         <v>1</v>
       </c>
-      <c r="K59" s="15"/>
+      <c r="K59" s="16"/>
       <c r="L59" t="s">
         <v>138</v>
       </c>
@@ -3024,14 +3090,14 @@
       </c>
     </row>
     <row r="60" spans="2:13">
-      <c r="H60" s="15"/>
+      <c r="H60" s="19"/>
       <c r="I60" s="13" t="s">
         <v>237</v>
       </c>
       <c r="J60" s="10">
         <v>14</v>
       </c>
-      <c r="K60" s="15"/>
+      <c r="K60" s="16"/>
       <c r="L60" t="s">
         <v>139</v>
       </c>
@@ -3040,14 +3106,14 @@
       </c>
     </row>
     <row r="61" spans="2:13">
-      <c r="H61" s="15"/>
+      <c r="H61" s="19"/>
       <c r="I61" s="13" t="s">
         <v>238</v>
       </c>
       <c r="J61" s="11">
         <v>2</v>
       </c>
-      <c r="K61" s="15"/>
+      <c r="K61" s="16"/>
       <c r="L61" t="s">
         <v>140</v>
       </c>
@@ -3056,14 +3122,14 @@
       </c>
     </row>
     <row r="62" spans="2:13">
-      <c r="H62" s="15"/>
+      <c r="H62" s="19"/>
       <c r="I62" s="13" t="s">
         <v>239</v>
       </c>
       <c r="J62" s="11">
         <v>17</v>
       </c>
-      <c r="K62" s="15"/>
+      <c r="K62" s="16"/>
       <c r="L62" t="s">
         <v>141</v>
       </c>
@@ -3072,14 +3138,14 @@
       </c>
     </row>
     <row r="63" spans="2:13">
-      <c r="H63" s="15"/>
+      <c r="H63" s="19"/>
       <c r="I63" s="13" t="s">
         <v>240</v>
       </c>
       <c r="J63" s="11">
         <v>1</v>
       </c>
-      <c r="K63" s="15"/>
+      <c r="K63" s="16"/>
       <c r="L63" t="s">
         <v>142</v>
       </c>
@@ -3088,14 +3154,14 @@
       </c>
     </row>
     <row r="64" spans="2:13">
-      <c r="H64" s="15"/>
+      <c r="H64" s="19"/>
       <c r="I64" s="13" t="s">
         <v>241</v>
       </c>
       <c r="J64" s="11">
         <v>12</v>
       </c>
-      <c r="K64" s="15"/>
+      <c r="K64" s="16"/>
       <c r="L64" t="s">
         <v>143</v>
       </c>
@@ -3104,14 +3170,14 @@
       </c>
     </row>
     <row r="65" spans="8:13">
-      <c r="H65" s="15"/>
+      <c r="H65" s="19"/>
       <c r="I65" s="13" t="s">
         <v>242</v>
       </c>
       <c r="J65" s="11">
         <v>43</v>
       </c>
-      <c r="K65" s="15"/>
+      <c r="K65" s="16"/>
       <c r="L65" t="s">
         <v>144</v>
       </c>
@@ -3120,14 +3186,14 @@
       </c>
     </row>
     <row r="66" spans="8:13">
-      <c r="H66" s="15"/>
+      <c r="H66" s="19"/>
       <c r="I66" s="13" t="s">
         <v>243</v>
       </c>
       <c r="J66" s="11">
         <v>53</v>
       </c>
-      <c r="K66" s="15"/>
+      <c r="K66" s="16"/>
       <c r="L66" t="s">
         <v>145</v>
       </c>
@@ -3136,14 +3202,14 @@
       </c>
     </row>
     <row r="67" spans="8:13">
-      <c r="H67" s="15"/>
+      <c r="H67" s="19"/>
       <c r="I67" s="13" t="s">
         <v>244</v>
       </c>
       <c r="J67" s="11">
         <v>66</v>
       </c>
-      <c r="K67" s="15"/>
+      <c r="K67" s="16"/>
       <c r="L67" t="s">
         <v>146</v>
       </c>
@@ -3152,14 +3218,14 @@
       </c>
     </row>
     <row r="68" spans="8:13">
-      <c r="H68" s="15"/>
+      <c r="H68" s="19"/>
       <c r="I68" s="13" t="s">
         <v>247</v>
       </c>
       <c r="J68" s="11">
         <v>13</v>
       </c>
-      <c r="K68" s="15"/>
+      <c r="K68" s="16"/>
       <c r="L68" t="s">
         <v>147</v>
       </c>
@@ -3168,14 +3234,14 @@
       </c>
     </row>
     <row r="69" spans="8:13">
-      <c r="H69" s="15"/>
+      <c r="H69" s="19"/>
       <c r="I69" s="13" t="s">
         <v>203</v>
       </c>
       <c r="J69" s="11">
         <v>10</v>
       </c>
-      <c r="K69" s="15"/>
+      <c r="K69" s="16"/>
       <c r="L69" t="s">
         <v>148</v>
       </c>
@@ -3184,14 +3250,14 @@
       </c>
     </row>
     <row r="70" spans="8:13">
-      <c r="H70" s="15"/>
+      <c r="H70" s="19"/>
       <c r="I70" s="13" t="s">
         <v>204</v>
       </c>
       <c r="J70" s="11">
         <v>40</v>
       </c>
-      <c r="K70" s="15"/>
+      <c r="K70" s="16"/>
       <c r="L70" t="s">
         <v>149</v>
       </c>
@@ -3200,14 +3266,14 @@
       </c>
     </row>
     <row r="71" spans="8:13">
-      <c r="H71" s="15"/>
+      <c r="H71" s="19"/>
       <c r="I71" s="13" t="s">
         <v>248</v>
       </c>
       <c r="J71" s="11">
         <v>15</v>
       </c>
-      <c r="K71" s="15"/>
+      <c r="K71" s="16"/>
       <c r="L71" t="s">
         <v>150</v>
       </c>
@@ -3216,14 +3282,14 @@
       </c>
     </row>
     <row r="72" spans="8:13">
-      <c r="H72" s="15"/>
+      <c r="H72" s="19"/>
       <c r="I72" s="13" t="s">
         <v>208</v>
       </c>
       <c r="J72" s="11">
         <v>8</v>
       </c>
-      <c r="K72" s="15"/>
+      <c r="K72" s="16"/>
       <c r="L72" t="s">
         <v>151</v>
       </c>
@@ -3232,14 +3298,14 @@
       </c>
     </row>
     <row r="73" spans="8:13">
-      <c r="H73" s="15"/>
+      <c r="H73" s="19"/>
       <c r="I73" s="13" t="s">
         <v>209</v>
       </c>
       <c r="J73" s="11">
         <v>19</v>
       </c>
-      <c r="K73" s="15"/>
+      <c r="K73" s="16"/>
       <c r="L73" t="s">
         <v>152</v>
       </c>
@@ -3248,14 +3314,14 @@
       </c>
     </row>
     <row r="74" spans="8:13">
-      <c r="H74" s="15"/>
+      <c r="H74" s="19"/>
       <c r="I74" s="13" t="s">
         <v>210</v>
       </c>
       <c r="J74" s="11">
         <v>14</v>
       </c>
-      <c r="K74" s="15"/>
+      <c r="K74" s="16"/>
       <c r="L74" t="s">
         <v>153</v>
       </c>
@@ -3264,14 +3330,13 @@
       </c>
     </row>
     <row r="75" spans="8:13">
-      <c r="H75" s="15"/>
       <c r="I75" t="s">
         <v>211</v>
       </c>
       <c r="J75" s="11">
         <v>2</v>
       </c>
-      <c r="K75" s="15"/>
+      <c r="K75" s="16"/>
       <c r="L75" t="s">
         <v>154</v>
       </c>
@@ -3280,14 +3345,13 @@
       </c>
     </row>
     <row r="76" spans="8:13">
-      <c r="H76" s="15"/>
       <c r="I76" t="s">
         <v>212</v>
       </c>
       <c r="J76" s="11">
         <v>22</v>
       </c>
-      <c r="K76" s="15"/>
+      <c r="K76" s="16"/>
       <c r="L76" t="s">
         <v>155</v>
       </c>
@@ -3296,14 +3360,13 @@
       </c>
     </row>
     <row r="77" spans="8:13">
-      <c r="H77" s="15"/>
       <c r="I77" s="13" t="s">
         <v>213</v>
       </c>
       <c r="J77" s="11">
         <v>11</v>
       </c>
-      <c r="K77" s="15"/>
+      <c r="K77" s="16"/>
       <c r="L77" t="s">
         <v>156</v>
       </c>
@@ -3312,14 +3375,13 @@
       </c>
     </row>
     <row r="78" spans="8:13">
-      <c r="H78" s="15"/>
       <c r="I78" t="s">
         <v>214</v>
       </c>
       <c r="J78" s="11">
         <v>9</v>
       </c>
-      <c r="K78" s="15"/>
+      <c r="K78" s="16"/>
       <c r="L78" t="s">
         <v>157</v>
       </c>
@@ -3328,14 +3390,13 @@
       </c>
     </row>
     <row r="79" spans="8:13">
-      <c r="H79" s="15"/>
       <c r="I79" t="s">
         <v>215</v>
       </c>
       <c r="J79" s="11">
         <v>33</v>
       </c>
-      <c r="K79" s="15"/>
+      <c r="K79" s="16"/>
       <c r="L79" t="s">
         <v>158</v>
       </c>
@@ -3344,14 +3405,13 @@
       </c>
     </row>
     <row r="80" spans="8:13">
-      <c r="H80" s="15"/>
       <c r="I80" s="13" t="s">
         <v>218</v>
       </c>
       <c r="J80" s="11">
         <v>15</v>
       </c>
-      <c r="K80" s="15"/>
+      <c r="K80" s="16"/>
       <c r="L80" t="s">
         <v>159</v>
       </c>
@@ -3359,15 +3419,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="8:13">
-      <c r="H81" s="15"/>
+    <row r="81" spans="9:13">
       <c r="I81" s="13" t="s">
         <v>249</v>
       </c>
       <c r="J81" s="11">
         <v>7</v>
       </c>
-      <c r="K81" s="15"/>
+      <c r="K81" s="16"/>
       <c r="L81" s="8" t="s">
         <v>160</v>
       </c>
@@ -3375,15 +3434,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="8:13">
-      <c r="H82" s="15"/>
+    <row r="82" spans="9:13">
       <c r="I82" s="13" t="s">
         <v>219</v>
       </c>
       <c r="J82" s="11">
         <v>12</v>
       </c>
-      <c r="K82" s="15"/>
+      <c r="K82" s="16"/>
       <c r="L82" t="s">
         <v>161</v>
       </c>
@@ -3391,15 +3449,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="8:13">
-      <c r="H83" s="15"/>
+    <row r="83" spans="9:13">
       <c r="I83" s="13" t="s">
         <v>220</v>
       </c>
       <c r="J83" s="11">
         <v>107</v>
       </c>
-      <c r="K83" s="15"/>
+      <c r="K83" s="16"/>
       <c r="L83" t="s">
         <v>162</v>
       </c>
@@ -3407,15 +3464,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="8:13">
-      <c r="H84" s="15"/>
+    <row r="84" spans="9:13">
       <c r="I84" s="13" t="s">
         <v>222</v>
       </c>
       <c r="J84" s="11">
         <v>12</v>
       </c>
-      <c r="K84" s="15"/>
+      <c r="K84" s="16"/>
       <c r="L84" t="s">
         <v>163</v>
       </c>
@@ -3423,15 +3479,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="8:13">
-      <c r="H85" s="15"/>
+    <row r="85" spans="9:13">
       <c r="I85" t="s">
         <v>223</v>
       </c>
       <c r="J85" s="11">
         <v>6</v>
       </c>
-      <c r="K85" s="15"/>
+      <c r="K85" s="16"/>
       <c r="L85" t="s">
         <v>164</v>
       </c>
@@ -3439,15 +3494,14 @@
         <v>12</v>
       </c>
     </row>
-    <row r="86" spans="8:13">
-      <c r="H86" s="15"/>
+    <row r="86" spans="9:13">
       <c r="I86" s="13" t="s">
         <v>224</v>
       </c>
       <c r="J86" s="11">
         <v>24</v>
       </c>
-      <c r="K86" s="15"/>
+      <c r="K86" s="16"/>
       <c r="L86" t="s">
         <v>165</v>
       </c>
@@ -3455,15 +3509,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="8:13">
-      <c r="H87" s="15"/>
+    <row r="87" spans="9:13">
       <c r="I87" s="13" t="s">
         <v>250</v>
       </c>
       <c r="J87" s="11">
         <v>64</v>
       </c>
-      <c r="K87" s="15"/>
+      <c r="K87" s="16"/>
       <c r="L87" t="s">
         <v>166</v>
       </c>
@@ -3471,15 +3524,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="8:13">
-      <c r="H88" s="15"/>
+    <row r="88" spans="9:13">
       <c r="I88" s="13" t="s">
         <v>251</v>
       </c>
       <c r="J88" s="11">
         <v>38</v>
       </c>
-      <c r="K88" s="15"/>
+      <c r="K88" s="16"/>
       <c r="L88" t="s">
         <v>167</v>
       </c>
@@ -3487,15 +3539,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="8:13">
-      <c r="H89" s="15"/>
+    <row r="89" spans="9:13">
       <c r="I89" s="13" t="s">
         <v>252</v>
       </c>
       <c r="J89" s="11">
         <v>42</v>
       </c>
-      <c r="K89" s="15"/>
+      <c r="K89" s="16"/>
       <c r="L89" t="s">
         <v>168</v>
       </c>
@@ -3503,15 +3554,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="8:13">
-      <c r="H90" s="15"/>
+    <row r="90" spans="9:13">
       <c r="I90" t="s">
         <v>196</v>
       </c>
       <c r="J90" s="11">
         <v>2</v>
       </c>
-      <c r="K90" s="15"/>
+      <c r="K90" s="16"/>
       <c r="L90" t="s">
         <v>169</v>
       </c>
@@ -3519,17 +3569,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="8:13">
-      <c r="H91" s="3">
-        <v>45916</v>
-      </c>
+    <row r="91" spans="9:13">
       <c r="I91" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="J91" s="18">
+      <c r="J91" s="15">
         <v>418</v>
       </c>
-      <c r="K91" s="15"/>
+      <c r="K91" s="16"/>
       <c r="L91" t="s">
         <v>170</v>
       </c>
@@ -3537,9 +3584,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="8:13">
+    <row r="92" spans="9:13">
       <c r="J92" s="6"/>
-      <c r="K92" s="15"/>
+      <c r="K92" s="16"/>
       <c r="L92" t="s">
         <v>171</v>
       </c>
@@ -3547,9 +3594,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="8:13">
+    <row r="93" spans="9:13">
       <c r="J93" s="6"/>
-      <c r="K93" s="15"/>
+      <c r="K93" s="16"/>
       <c r="L93" t="s">
         <v>172</v>
       </c>
@@ -3557,9 +3604,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="8:13">
+    <row r="94" spans="9:13">
       <c r="J94" s="6"/>
-      <c r="K94" s="15"/>
+      <c r="K94" s="16"/>
       <c r="L94" t="s">
         <v>173</v>
       </c>
@@ -3567,9 +3614,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="8:13">
+    <row r="95" spans="9:13">
       <c r="J95" s="6"/>
-      <c r="K95" s="15"/>
+      <c r="K95" s="16"/>
       <c r="L95" t="s">
         <v>174</v>
       </c>
@@ -3577,8 +3624,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="8:13">
-      <c r="K96" s="15"/>
+    <row r="96" spans="9:13">
+      <c r="K96" s="16"/>
       <c r="L96" t="s">
         <v>175</v>
       </c>
@@ -3587,7 +3634,7 @@
       </c>
     </row>
     <row r="97" spans="11:13">
-      <c r="K97" s="15"/>
+      <c r="K97" s="16"/>
       <c r="L97" t="s">
         <v>176</v>
       </c>
@@ -3596,7 +3643,7 @@
       </c>
     </row>
     <row r="98" spans="11:13">
-      <c r="K98" s="15"/>
+      <c r="K98" s="16"/>
       <c r="L98" t="s">
         <v>177</v>
       </c>
@@ -3605,7 +3652,7 @@
       </c>
     </row>
     <row r="99" spans="11:13">
-      <c r="K99" s="15"/>
+      <c r="K99" s="16"/>
       <c r="L99" t="s">
         <v>178</v>
       </c>
@@ -3614,7 +3661,7 @@
       </c>
     </row>
     <row r="100" spans="11:13">
-      <c r="K100" s="15"/>
+      <c r="K100" s="16"/>
       <c r="L100" t="s">
         <v>179</v>
       </c>
@@ -3623,7 +3670,7 @@
       </c>
     </row>
     <row r="101" spans="11:13">
-      <c r="K101" s="15"/>
+      <c r="K101" s="16"/>
       <c r="L101" t="s">
         <v>180</v>
       </c>
@@ -3632,7 +3679,7 @@
       </c>
     </row>
     <row r="102" spans="11:13">
-      <c r="K102" s="15"/>
+      <c r="K102" s="16"/>
       <c r="L102" t="s">
         <v>181</v>
       </c>
@@ -3641,7 +3688,7 @@
       </c>
     </row>
     <row r="103" spans="11:13">
-      <c r="K103" s="15"/>
+      <c r="K103" s="16"/>
       <c r="L103" s="13" t="s">
         <v>182</v>
       </c>
@@ -3650,7 +3697,7 @@
       </c>
     </row>
     <row r="104" spans="11:13">
-      <c r="K104" s="15"/>
+      <c r="K104" s="16"/>
       <c r="L104" t="s">
         <v>183</v>
       </c>
@@ -3659,7 +3706,7 @@
       </c>
     </row>
     <row r="105" spans="11:13">
-      <c r="K105" s="15"/>
+      <c r="K105" s="16"/>
       <c r="L105" t="s">
         <v>184</v>
       </c>
@@ -3668,7 +3715,7 @@
       </c>
     </row>
     <row r="106" spans="11:13">
-      <c r="K106" s="15"/>
+      <c r="K106" s="16"/>
       <c r="L106" t="s">
         <v>185</v>
       </c>
@@ -3677,7 +3724,7 @@
       </c>
     </row>
     <row r="107" spans="11:13">
-      <c r="K107" s="15"/>
+      <c r="K107" s="16"/>
       <c r="L107" t="s">
         <v>186</v>
       </c>
@@ -3686,7 +3733,7 @@
       </c>
     </row>
     <row r="108" spans="11:13">
-      <c r="K108" s="15"/>
+      <c r="K108" s="16"/>
       <c r="L108" t="s">
         <v>187</v>
       </c>
@@ -3695,7 +3742,7 @@
       </c>
     </row>
     <row r="109" spans="11:13">
-      <c r="K109" s="15"/>
+      <c r="K109" s="16"/>
       <c r="L109" t="s">
         <v>188</v>
       </c>
@@ -3704,7 +3751,7 @@
       </c>
     </row>
     <row r="110" spans="11:13">
-      <c r="K110" s="15"/>
+      <c r="K110" s="16"/>
       <c r="L110" t="s">
         <v>189</v>
       </c>
@@ -3713,7 +3760,7 @@
       </c>
     </row>
     <row r="111" spans="11:13">
-      <c r="K111" s="15"/>
+      <c r="K111" s="16"/>
       <c r="L111" t="s">
         <v>190</v>
       </c>
@@ -3722,7 +3769,7 @@
       </c>
     </row>
     <row r="112" spans="11:13">
-      <c r="K112" s="15"/>
+      <c r="K112" s="16"/>
       <c r="L112" t="s">
         <v>191</v>
       </c>
@@ -3731,7 +3778,7 @@
       </c>
     </row>
     <row r="113" spans="11:13">
-      <c r="K113" s="15"/>
+      <c r="K113" s="16"/>
       <c r="L113" t="s">
         <v>192</v>
       </c>
@@ -3740,7 +3787,7 @@
       </c>
     </row>
     <row r="114" spans="11:13">
-      <c r="K114" s="15"/>
+      <c r="K114" s="16"/>
       <c r="L114" t="s">
         <v>193</v>
       </c>
@@ -3749,7 +3796,7 @@
       </c>
     </row>
     <row r="115" spans="11:13">
-      <c r="K115" s="15"/>
+      <c r="K115" s="16"/>
       <c r="L115" t="s">
         <v>194</v>
       </c>
@@ -3758,7 +3805,7 @@
       </c>
     </row>
     <row r="116" spans="11:13">
-      <c r="K116" s="15"/>
+      <c r="K116" s="16"/>
       <c r="L116" t="s">
         <v>195</v>
       </c>
@@ -3767,7 +3814,7 @@
       </c>
     </row>
     <row r="117" spans="11:13">
-      <c r="K117" s="15"/>
+      <c r="K117" s="16"/>
       <c r="L117" t="s">
         <v>196</v>
       </c>
@@ -3776,7 +3823,7 @@
       </c>
     </row>
     <row r="118" spans="11:13">
-      <c r="K118" s="15"/>
+      <c r="K118" s="16"/>
       <c r="L118" t="s">
         <v>197</v>
       </c>
@@ -3785,7 +3832,7 @@
       </c>
     </row>
     <row r="119" spans="11:13">
-      <c r="K119" s="15"/>
+      <c r="K119" s="16"/>
       <c r="L119" t="s">
         <v>198</v>
       </c>
@@ -3794,7 +3841,7 @@
       </c>
     </row>
     <row r="120" spans="11:13">
-      <c r="K120" s="15"/>
+      <c r="K120" s="16"/>
       <c r="L120" t="s">
         <v>199</v>
       </c>
@@ -3803,7 +3850,7 @@
       </c>
     </row>
     <row r="121" spans="11:13">
-      <c r="K121" s="15"/>
+      <c r="K121" s="16"/>
       <c r="L121" t="s">
         <v>200</v>
       </c>
@@ -3812,7 +3859,7 @@
       </c>
     </row>
     <row r="122" spans="11:13">
-      <c r="K122" s="15"/>
+      <c r="K122" s="16"/>
       <c r="L122" s="13" t="s">
         <v>201</v>
       </c>
@@ -3821,7 +3868,7 @@
       </c>
     </row>
     <row r="123" spans="11:13">
-      <c r="K123" s="15"/>
+      <c r="K123" s="16"/>
       <c r="L123" t="s">
         <v>202</v>
       </c>
@@ -3830,7 +3877,7 @@
       </c>
     </row>
     <row r="124" spans="11:13">
-      <c r="K124" s="15"/>
+      <c r="K124" s="16"/>
       <c r="L124" t="s">
         <v>203</v>
       </c>
@@ -3839,7 +3886,7 @@
       </c>
     </row>
     <row r="125" spans="11:13">
-      <c r="K125" s="15"/>
+      <c r="K125" s="16"/>
       <c r="L125" t="s">
         <v>204</v>
       </c>
@@ -3848,7 +3895,7 @@
       </c>
     </row>
     <row r="126" spans="11:13">
-      <c r="K126" s="15"/>
+      <c r="K126" s="16"/>
       <c r="L126" t="s">
         <v>205</v>
       </c>
@@ -3857,7 +3904,7 @@
       </c>
     </row>
     <row r="127" spans="11:13">
-      <c r="K127" s="15"/>
+      <c r="K127" s="16"/>
       <c r="L127" t="s">
         <v>206</v>
       </c>
@@ -3866,7 +3913,7 @@
       </c>
     </row>
     <row r="128" spans="11:13">
-      <c r="K128" s="15"/>
+      <c r="K128" s="16"/>
       <c r="L128" t="s">
         <v>207</v>
       </c>
@@ -3875,7 +3922,7 @@
       </c>
     </row>
     <row r="129" spans="11:13">
-      <c r="K129" s="15"/>
+      <c r="K129" s="16"/>
       <c r="L129" t="s">
         <v>208</v>
       </c>
@@ -3884,7 +3931,7 @@
       </c>
     </row>
     <row r="130" spans="11:13">
-      <c r="K130" s="15"/>
+      <c r="K130" s="16"/>
       <c r="L130" t="s">
         <v>209</v>
       </c>
@@ -3893,7 +3940,7 @@
       </c>
     </row>
     <row r="131" spans="11:13">
-      <c r="K131" s="15"/>
+      <c r="K131" s="16"/>
       <c r="L131" t="s">
         <v>210</v>
       </c>
@@ -3902,7 +3949,7 @@
       </c>
     </row>
     <row r="132" spans="11:13">
-      <c r="K132" s="15"/>
+      <c r="K132" s="16"/>
       <c r="L132" t="s">
         <v>211</v>
       </c>
@@ -3911,7 +3958,7 @@
       </c>
     </row>
     <row r="133" spans="11:13">
-      <c r="K133" s="15"/>
+      <c r="K133" s="16"/>
       <c r="L133" t="s">
         <v>212</v>
       </c>
@@ -3920,7 +3967,7 @@
       </c>
     </row>
     <row r="134" spans="11:13">
-      <c r="K134" s="15"/>
+      <c r="K134" s="16"/>
       <c r="L134" t="s">
         <v>213</v>
       </c>
@@ -3929,7 +3976,7 @@
       </c>
     </row>
     <row r="135" spans="11:13">
-      <c r="K135" s="15"/>
+      <c r="K135" s="16"/>
       <c r="L135" t="s">
         <v>214</v>
       </c>
@@ -3938,7 +3985,7 @@
       </c>
     </row>
     <row r="136" spans="11:13">
-      <c r="K136" s="15"/>
+      <c r="K136" s="16"/>
       <c r="L136" t="s">
         <v>215</v>
       </c>
@@ -3947,7 +3994,7 @@
       </c>
     </row>
     <row r="137" spans="11:13">
-      <c r="K137" s="15"/>
+      <c r="K137" s="16"/>
       <c r="L137" t="s">
         <v>216</v>
       </c>
@@ -3956,7 +4003,7 @@
       </c>
     </row>
     <row r="138" spans="11:13">
-      <c r="K138" s="15"/>
+      <c r="K138" s="16"/>
       <c r="L138" t="s">
         <v>217</v>
       </c>
@@ -3965,7 +4012,7 @@
       </c>
     </row>
     <row r="139" spans="11:13">
-      <c r="K139" s="15"/>
+      <c r="K139" s="16"/>
       <c r="L139" t="s">
         <v>218</v>
       </c>
@@ -3974,7 +4021,7 @@
       </c>
     </row>
     <row r="140" spans="11:13">
-      <c r="K140" s="15"/>
+      <c r="K140" s="16"/>
       <c r="L140" t="s">
         <v>219</v>
       </c>
@@ -3983,7 +4030,7 @@
       </c>
     </row>
     <row r="141" spans="11:13">
-      <c r="K141" s="15"/>
+      <c r="K141" s="16"/>
       <c r="L141" t="s">
         <v>220</v>
       </c>
@@ -3992,7 +4039,7 @@
       </c>
     </row>
     <row r="142" spans="11:13">
-      <c r="K142" s="15"/>
+      <c r="K142" s="16"/>
       <c r="L142" t="s">
         <v>221</v>
       </c>
@@ -4001,7 +4048,7 @@
       </c>
     </row>
     <row r="143" spans="11:13">
-      <c r="K143" s="15"/>
+      <c r="K143" s="16"/>
       <c r="L143" t="s">
         <v>222</v>
       </c>
@@ -4010,7 +4057,7 @@
       </c>
     </row>
     <row r="144" spans="11:13">
-      <c r="K144" s="15"/>
+      <c r="K144" s="16"/>
       <c r="L144" t="s">
         <v>223</v>
       </c>
@@ -4019,7 +4066,7 @@
       </c>
     </row>
     <row r="145" spans="11:13">
-      <c r="K145" s="15"/>
+      <c r="K145" s="16"/>
       <c r="L145" t="s">
         <v>224</v>
       </c>
@@ -4028,7 +4075,7 @@
       </c>
     </row>
     <row r="146" spans="11:13">
-      <c r="K146" s="15"/>
+      <c r="K146" s="16"/>
       <c r="L146" s="13" t="s">
         <v>225</v>
       </c>
@@ -4037,7 +4084,7 @@
       </c>
     </row>
     <row r="147" spans="11:13">
-      <c r="K147" s="15"/>
+      <c r="K147" s="16"/>
       <c r="L147" t="s">
         <v>226</v>
       </c>
@@ -4046,7 +4093,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
     <mergeCell ref="K8:K44"/>
     <mergeCell ref="K45:K147"/>
     <mergeCell ref="B5:D5"/>
@@ -4059,7 +4106,8 @@
     <mergeCell ref="H21:H34"/>
     <mergeCell ref="E21:E29"/>
     <mergeCell ref="B35:B48"/>
-    <mergeCell ref="H35:H90"/>
+    <mergeCell ref="H36:H41"/>
+    <mergeCell ref="H42:H74"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Raport.xlsx
+++ b/Raport.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\majer\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\ttt\Tokyo-Garden-Restaurant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37048A8F-4FBE-4B76-98B7-A2DB7E3B38D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB5AC7E-2BA7-4B4A-BED1-9910A4F9D56B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="279">
   <si>
     <t>Liczba członków zespołu</t>
   </si>
@@ -856,18 +856,38 @@
   </si>
   <si>
     <t>angular.json</t>
+  </si>
+  <si>
+    <t>UzytkownicyController.cs</t>
+  </si>
+  <si>
+    <t>main.ts</t>
+  </si>
+  <si>
+    <t>environment.prod.ts</t>
+  </si>
+  <si>
+    <t>credentials.interceptor.ts</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -981,14 +1001,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -997,11 +1017,14 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1013,19 +1036,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1036,6 +1056,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1527,8 +1556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -1569,7 +1598,7 @@
       </c>
       <c r="G3">
         <f>SUM(G7:G1001)</f>
-        <v>1857</v>
+        <v>1933</v>
       </c>
       <c r="J3">
         <f>SUM(J7:J1001)</f>
@@ -1587,19 +1616,19 @@
       <c r="B4" s="1"/>
       <c r="D4">
         <f>($B$2*D$3)/SUM($D$3:$AK$3)</f>
-        <v>0.95276339427242951</v>
+        <v>0.94517244994234195</v>
       </c>
       <c r="G4">
         <f>($B$2*G$3)/SUM($D$3:$AK$3)</f>
-        <v>0.78495191799640707</v>
+        <v>0.81056714540308206</v>
       </c>
       <c r="J4">
         <f>($B$2*J$3)/SUM($D$3:$AK$3)</f>
-        <v>0.93416464123428089</v>
+        <v>0.9267218786036272</v>
       </c>
       <c r="M4">
         <f>($B$2*M$3)/SUM($D$3:$AK$3)</f>
-        <v>1.3281200464968825</v>
+        <v>1.3175385260509487</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -2490,7 +2519,7 @@
       <c r="G35">
         <v>300</v>
       </c>
-      <c r="H35" s="16">
+      <c r="H35" s="3">
         <v>45908</v>
       </c>
       <c r="I35" s="12" t="s">
@@ -2521,7 +2550,9 @@
       <c r="G36">
         <v>5</v>
       </c>
-      <c r="H36" s="16"/>
+      <c r="H36" s="20">
+        <v>45916</v>
+      </c>
       <c r="I36" s="7" t="s">
         <v>125</v>
       </c>
@@ -2550,7 +2581,7 @@
       <c r="G37">
         <v>3</v>
       </c>
-      <c r="H37" s="16"/>
+      <c r="H37" s="19"/>
       <c r="I37" t="s">
         <v>127</v>
       </c>
@@ -2579,7 +2610,7 @@
       <c r="G38">
         <v>2</v>
       </c>
-      <c r="H38" s="16"/>
+      <c r="H38" s="19"/>
       <c r="I38" t="s">
         <v>128</v>
       </c>
@@ -2608,7 +2639,7 @@
       <c r="G39">
         <v>1</v>
       </c>
-      <c r="H39" s="16"/>
+      <c r="H39" s="19"/>
       <c r="I39" t="s">
         <v>129</v>
       </c>
@@ -2637,7 +2668,7 @@
       <c r="G40">
         <v>7</v>
       </c>
-      <c r="H40" s="16"/>
+      <c r="H40" s="19"/>
       <c r="I40" t="s">
         <v>130</v>
       </c>
@@ -2660,7 +2691,15 @@
       <c r="D41">
         <v>23</v>
       </c>
-      <c r="H41" s="16"/>
+      <c r="F41" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="G41">
+        <v>46</v>
+      </c>
+      <c r="H41" s="20">
+        <v>45917</v>
+      </c>
       <c r="I41" t="s">
         <v>131</v>
       </c>
@@ -2683,7 +2722,13 @@
       <c r="D42">
         <v>55</v>
       </c>
-      <c r="H42" s="16"/>
+      <c r="F42" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="G42">
+        <v>16</v>
+      </c>
+      <c r="H42" s="19"/>
       <c r="I42" t="s">
         <v>134</v>
       </c>
@@ -2706,7 +2751,13 @@
       <c r="D43">
         <v>60</v>
       </c>
-      <c r="H43" s="16"/>
+      <c r="F43" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="G43">
+        <v>4</v>
+      </c>
+      <c r="H43" s="19"/>
       <c r="I43" t="s">
         <v>139</v>
       </c>
@@ -2729,7 +2780,13 @@
       <c r="D44">
         <v>57</v>
       </c>
-      <c r="H44" s="16"/>
+      <c r="F44" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="G44">
+        <v>10</v>
+      </c>
+      <c r="H44" s="19"/>
       <c r="I44" t="s">
         <v>140</v>
       </c>
@@ -2752,7 +2809,7 @@
       <c r="D45">
         <v>61</v>
       </c>
-      <c r="H45" s="16"/>
+      <c r="H45" s="19"/>
       <c r="I45" t="s">
         <v>147</v>
       </c>
@@ -2777,7 +2834,7 @@
       <c r="D46">
         <v>69</v>
       </c>
-      <c r="H46" s="16"/>
+      <c r="H46" s="19"/>
       <c r="I46" s="13" t="s">
         <v>225</v>
       </c>
@@ -2800,7 +2857,7 @@
       <c r="D47">
         <v>23</v>
       </c>
-      <c r="H47" s="16"/>
+      <c r="H47" s="19"/>
       <c r="I47" s="13" t="s">
         <v>253</v>
       </c>
@@ -2823,7 +2880,7 @@
       <c r="D48">
         <v>55</v>
       </c>
-      <c r="H48" s="16"/>
+      <c r="H48" s="19"/>
       <c r="I48" s="13" t="s">
         <v>245</v>
       </c>
@@ -2848,7 +2905,7 @@
       <c r="D49">
         <v>220</v>
       </c>
-      <c r="H49" s="16"/>
+      <c r="H49" s="19"/>
       <c r="I49" s="13" t="s">
         <v>246</v>
       </c>
@@ -2864,7 +2921,7 @@
       </c>
     </row>
     <row r="50" spans="2:13">
-      <c r="H50" s="16"/>
+      <c r="H50" s="19"/>
       <c r="I50" s="13" t="s">
         <v>227</v>
       </c>
@@ -2880,7 +2937,7 @@
       </c>
     </row>
     <row r="51" spans="2:13">
-      <c r="H51" s="16"/>
+      <c r="H51" s="19"/>
       <c r="I51" s="13" t="s">
         <v>228</v>
       </c>
@@ -2896,7 +2953,7 @@
       </c>
     </row>
     <row r="52" spans="2:13">
-      <c r="H52" s="16"/>
+      <c r="H52" s="19"/>
       <c r="I52" s="13" t="s">
         <v>229</v>
       </c>
@@ -2912,7 +2969,7 @@
       </c>
     </row>
     <row r="53" spans="2:13">
-      <c r="H53" s="16"/>
+      <c r="H53" s="19"/>
       <c r="I53" s="13" t="s">
         <v>230</v>
       </c>
@@ -2928,7 +2985,7 @@
       </c>
     </row>
     <row r="54" spans="2:13">
-      <c r="H54" s="16"/>
+      <c r="H54" s="19"/>
       <c r="I54" s="13" t="s">
         <v>231</v>
       </c>
@@ -2944,7 +3001,7 @@
       </c>
     </row>
     <row r="55" spans="2:13">
-      <c r="H55" s="16"/>
+      <c r="H55" s="19"/>
       <c r="I55" s="13" t="s">
         <v>232</v>
       </c>
@@ -2960,7 +3017,7 @@
       </c>
     </row>
     <row r="56" spans="2:13">
-      <c r="H56" s="16"/>
+      <c r="H56" s="19"/>
       <c r="I56" s="13" t="s">
         <v>233</v>
       </c>
@@ -2976,7 +3033,7 @@
       </c>
     </row>
     <row r="57" spans="2:13">
-      <c r="H57" s="16"/>
+      <c r="H57" s="19"/>
       <c r="I57" s="13" t="s">
         <v>234</v>
       </c>
@@ -2992,7 +3049,7 @@
       </c>
     </row>
     <row r="58" spans="2:13">
-      <c r="H58" s="16"/>
+      <c r="H58" s="19"/>
       <c r="I58" s="13" t="s">
         <v>235</v>
       </c>
@@ -3008,7 +3065,7 @@
       </c>
     </row>
     <row r="59" spans="2:13">
-      <c r="H59" s="16"/>
+      <c r="H59" s="19"/>
       <c r="I59" s="13" t="s">
         <v>236</v>
       </c>
@@ -3024,7 +3081,7 @@
       </c>
     </row>
     <row r="60" spans="2:13">
-      <c r="H60" s="16"/>
+      <c r="H60" s="19"/>
       <c r="I60" s="13" t="s">
         <v>237</v>
       </c>
@@ -3040,7 +3097,7 @@
       </c>
     </row>
     <row r="61" spans="2:13">
-      <c r="H61" s="16"/>
+      <c r="H61" s="19"/>
       <c r="I61" s="13" t="s">
         <v>238</v>
       </c>
@@ -3056,7 +3113,7 @@
       </c>
     </row>
     <row r="62" spans="2:13">
-      <c r="H62" s="16"/>
+      <c r="H62" s="19"/>
       <c r="I62" s="13" t="s">
         <v>239</v>
       </c>
@@ -3072,7 +3129,7 @@
       </c>
     </row>
     <row r="63" spans="2:13">
-      <c r="H63" s="16"/>
+      <c r="H63" s="19"/>
       <c r="I63" s="13" t="s">
         <v>240</v>
       </c>
@@ -3088,7 +3145,7 @@
       </c>
     </row>
     <row r="64" spans="2:13">
-      <c r="H64" s="16"/>
+      <c r="H64" s="19"/>
       <c r="I64" s="13" t="s">
         <v>241</v>
       </c>
@@ -3104,7 +3161,7 @@
       </c>
     </row>
     <row r="65" spans="8:13">
-      <c r="H65" s="16"/>
+      <c r="H65" s="19"/>
       <c r="I65" s="13" t="s">
         <v>242</v>
       </c>
@@ -3120,7 +3177,7 @@
       </c>
     </row>
     <row r="66" spans="8:13">
-      <c r="H66" s="16"/>
+      <c r="H66" s="19"/>
       <c r="I66" s="13" t="s">
         <v>243</v>
       </c>
@@ -3136,7 +3193,7 @@
       </c>
     </row>
     <row r="67" spans="8:13">
-      <c r="H67" s="16"/>
+      <c r="H67" s="19"/>
       <c r="I67" s="13" t="s">
         <v>244</v>
       </c>
@@ -3152,7 +3209,7 @@
       </c>
     </row>
     <row r="68" spans="8:13">
-      <c r="H68" s="16"/>
+      <c r="H68" s="19"/>
       <c r="I68" s="13" t="s">
         <v>247</v>
       </c>
@@ -3168,7 +3225,7 @@
       </c>
     </row>
     <row r="69" spans="8:13">
-      <c r="H69" s="16"/>
+      <c r="H69" s="19"/>
       <c r="I69" s="13" t="s">
         <v>203</v>
       </c>
@@ -3184,7 +3241,7 @@
       </c>
     </row>
     <row r="70" spans="8:13">
-      <c r="H70" s="16"/>
+      <c r="H70" s="19"/>
       <c r="I70" s="13" t="s">
         <v>204</v>
       </c>
@@ -3200,7 +3257,7 @@
       </c>
     </row>
     <row r="71" spans="8:13">
-      <c r="H71" s="16"/>
+      <c r="H71" s="19"/>
       <c r="I71" s="13" t="s">
         <v>248</v>
       </c>
@@ -3216,7 +3273,7 @@
       </c>
     </row>
     <row r="72" spans="8:13">
-      <c r="H72" s="16"/>
+      <c r="H72" s="19"/>
       <c r="I72" s="13" t="s">
         <v>208</v>
       </c>
@@ -3232,7 +3289,7 @@
       </c>
     </row>
     <row r="73" spans="8:13">
-      <c r="H73" s="16"/>
+      <c r="H73" s="19"/>
       <c r="I73" s="13" t="s">
         <v>209</v>
       </c>
@@ -3248,7 +3305,7 @@
       </c>
     </row>
     <row r="74" spans="8:13">
-      <c r="H74" s="16"/>
+      <c r="H74" s="19"/>
       <c r="I74" s="13" t="s">
         <v>210</v>
       </c>
@@ -3264,7 +3321,7 @@
       </c>
     </row>
     <row r="75" spans="8:13">
-      <c r="H75" s="16"/>
+      <c r="H75" s="19"/>
       <c r="I75" t="s">
         <v>211</v>
       </c>
@@ -3280,7 +3337,7 @@
       </c>
     </row>
     <row r="76" spans="8:13">
-      <c r="H76" s="16"/>
+      <c r="H76" s="19"/>
       <c r="I76" t="s">
         <v>212</v>
       </c>
@@ -3296,7 +3353,7 @@
       </c>
     </row>
     <row r="77" spans="8:13">
-      <c r="H77" s="16"/>
+      <c r="H77" s="19"/>
       <c r="I77" s="13" t="s">
         <v>213</v>
       </c>
@@ -3312,7 +3369,7 @@
       </c>
     </row>
     <row r="78" spans="8:13">
-      <c r="H78" s="16"/>
+      <c r="H78" s="19"/>
       <c r="I78" t="s">
         <v>214</v>
       </c>
@@ -3328,7 +3385,7 @@
       </c>
     </row>
     <row r="79" spans="8:13">
-      <c r="H79" s="16"/>
+      <c r="H79" s="19"/>
       <c r="I79" t="s">
         <v>215</v>
       </c>
@@ -3344,7 +3401,7 @@
       </c>
     </row>
     <row r="80" spans="8:13">
-      <c r="H80" s="16"/>
+      <c r="H80" s="19"/>
       <c r="I80" s="13" t="s">
         <v>218</v>
       </c>
@@ -3360,7 +3417,7 @@
       </c>
     </row>
     <row r="81" spans="8:13">
-      <c r="H81" s="16"/>
+      <c r="H81" s="19"/>
       <c r="I81" s="13" t="s">
         <v>249</v>
       </c>
@@ -3376,7 +3433,7 @@
       </c>
     </row>
     <row r="82" spans="8:13">
-      <c r="H82" s="16"/>
+      <c r="H82" s="19"/>
       <c r="I82" s="13" t="s">
         <v>219</v>
       </c>
@@ -3392,7 +3449,7 @@
       </c>
     </row>
     <row r="83" spans="8:13">
-      <c r="H83" s="16"/>
+      <c r="H83" s="19"/>
       <c r="I83" s="13" t="s">
         <v>220</v>
       </c>
@@ -3408,7 +3465,7 @@
       </c>
     </row>
     <row r="84" spans="8:13">
-      <c r="H84" s="16"/>
+      <c r="H84" s="19"/>
       <c r="I84" s="13" t="s">
         <v>222</v>
       </c>
@@ -3424,7 +3481,7 @@
       </c>
     </row>
     <row r="85" spans="8:13">
-      <c r="H85" s="16"/>
+      <c r="H85" s="19"/>
       <c r="I85" t="s">
         <v>223</v>
       </c>
@@ -3440,7 +3497,7 @@
       </c>
     </row>
     <row r="86" spans="8:13">
-      <c r="H86" s="16"/>
+      <c r="H86" s="19"/>
       <c r="I86" s="13" t="s">
         <v>224</v>
       </c>
@@ -3456,7 +3513,7 @@
       </c>
     </row>
     <row r="87" spans="8:13">
-      <c r="H87" s="16"/>
+      <c r="H87" s="19"/>
       <c r="I87" s="13" t="s">
         <v>250</v>
       </c>
@@ -3472,7 +3529,7 @@
       </c>
     </row>
     <row r="88" spans="8:13">
-      <c r="H88" s="16"/>
+      <c r="H88" s="19"/>
       <c r="I88" s="13" t="s">
         <v>251</v>
       </c>
@@ -3488,7 +3545,7 @@
       </c>
     </row>
     <row r="89" spans="8:13">
-      <c r="H89" s="16"/>
+      <c r="H89" s="19"/>
       <c r="I89" s="13" t="s">
         <v>252</v>
       </c>
@@ -3504,7 +3561,7 @@
       </c>
     </row>
     <row r="90" spans="8:13">
-      <c r="H90" s="16"/>
+      <c r="H90" s="19"/>
       <c r="I90" t="s">
         <v>196</v>
       </c>
@@ -3520,9 +3577,7 @@
       </c>
     </row>
     <row r="91" spans="8:13">
-      <c r="H91" s="3">
-        <v>45916</v>
-      </c>
+      <c r="H91" s="19"/>
       <c r="I91" s="14" t="s">
         <v>268</v>
       </c>
@@ -4046,7 +4101,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
     <mergeCell ref="K8:K44"/>
     <mergeCell ref="K45:K147"/>
     <mergeCell ref="B5:D5"/>
@@ -4059,7 +4114,8 @@
     <mergeCell ref="H21:H34"/>
     <mergeCell ref="E21:E29"/>
     <mergeCell ref="B35:B48"/>
-    <mergeCell ref="H35:H90"/>
+    <mergeCell ref="H36:H40"/>
+    <mergeCell ref="H41:H91"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Raport.xlsx
+++ b/Raport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\ttt\Tokyo-Garden-Restaurant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB5AC7E-2BA7-4B4A-BED1-9910A4F9D56B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CEAB524-9065-4B81-B722-6C1B26C03B3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="286">
   <si>
     <t>Liczba członków zespołu</t>
   </si>
@@ -868,6 +868,27 @@
   </si>
   <si>
     <t>credentials.interceptor.ts</t>
+  </si>
+  <si>
+    <t>app.component.ts</t>
+  </si>
+  <si>
+    <t>auth.service.ts</t>
+  </si>
+  <si>
+    <t>user.ts</t>
+  </si>
+  <si>
+    <t>Tokyo-Garden-Restaurant\zrobione na nowo\tokyo-garden-frontend\src\app\user\register\register.component.html</t>
+  </si>
+  <si>
+    <t>Tokyo-Garden-Restaurant\zrobione na nowo\tokyo-garden-frontend\src\app\user\register\register.component.css</t>
+  </si>
+  <si>
+    <t>Tokyo-Garden-Restaurant\zrobione na nowo\tokyo-garden-frontend\src\app\user\login\login.component.html</t>
+  </si>
+  <si>
+    <t>Tokyo-Garden-Restaurant\zrobione na nowo\tokyo-garden-frontend\src\app\user\login\login.component.css</t>
   </si>
 </sst>
 </file>
@@ -1556,8 +1577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView tabSelected="1" topLeftCell="B25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -1598,7 +1619,7 @@
       </c>
       <c r="G3">
         <f>SUM(G7:G1001)</f>
-        <v>1933</v>
+        <v>2217</v>
       </c>
       <c r="J3">
         <f>SUM(J7:J1001)</f>
@@ -1616,19 +1637,19 @@
       <c r="B4" s="1"/>
       <c r="D4">
         <f>($B$2*D$3)/SUM($D$3:$AK$3)</f>
-        <v>0.94517244994234195</v>
+        <v>0.91784587193321798</v>
       </c>
       <c r="G4">
         <f>($B$2*G$3)/SUM($D$3:$AK$3)</f>
-        <v>0.81056714540308206</v>
+        <v>0.9027791916929655</v>
       </c>
       <c r="J4">
         <f>($B$2*J$3)/SUM($D$3:$AK$3)</f>
-        <v>0.9267218786036272</v>
+        <v>0.89992873867453937</v>
       </c>
       <c r="M4">
         <f>($B$2*M$3)/SUM($D$3:$AK$3)</f>
-        <v>1.3175385260509487</v>
+        <v>1.2794461976992773</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -2809,6 +2830,12 @@
       <c r="D45">
         <v>61</v>
       </c>
+      <c r="F45" s="21" t="s">
+        <v>279</v>
+      </c>
+      <c r="G45">
+        <v>7</v>
+      </c>
       <c r="H45" s="19"/>
       <c r="I45" t="s">
         <v>147</v>
@@ -2834,6 +2861,12 @@
       <c r="D46">
         <v>69</v>
       </c>
+      <c r="F46" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="G46">
+        <v>51</v>
+      </c>
       <c r="H46" s="19"/>
       <c r="I46" s="13" t="s">
         <v>225</v>
@@ -2857,6 +2890,12 @@
       <c r="D47">
         <v>23</v>
       </c>
+      <c r="F47" s="21" t="s">
+        <v>281</v>
+      </c>
+      <c r="G47">
+        <v>5</v>
+      </c>
       <c r="H47" s="19"/>
       <c r="I47" s="13" t="s">
         <v>253</v>
@@ -2880,6 +2919,12 @@
       <c r="D48">
         <v>55</v>
       </c>
+      <c r="F48" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="G48">
+        <v>29</v>
+      </c>
       <c r="H48" s="19"/>
       <c r="I48" s="13" t="s">
         <v>245</v>
@@ -2905,6 +2950,12 @@
       <c r="D49">
         <v>220</v>
       </c>
+      <c r="F49" s="21" t="s">
+        <v>282</v>
+      </c>
+      <c r="G49">
+        <v>29</v>
+      </c>
       <c r="H49" s="19"/>
       <c r="I49" s="13" t="s">
         <v>246</v>
@@ -2921,6 +2972,12 @@
       </c>
     </row>
     <row r="50" spans="2:13">
+      <c r="F50" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="G50">
+        <v>75</v>
+      </c>
       <c r="H50" s="19"/>
       <c r="I50" s="13" t="s">
         <v>227</v>
@@ -2937,6 +2994,12 @@
       </c>
     </row>
     <row r="51" spans="2:13">
+      <c r="F51" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="G51">
+        <v>14</v>
+      </c>
       <c r="H51" s="19"/>
       <c r="I51" s="13" t="s">
         <v>228</v>
@@ -2953,6 +3016,12 @@
       </c>
     </row>
     <row r="52" spans="2:13">
+      <c r="F52" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="G52">
+        <v>74</v>
+      </c>
       <c r="H52" s="19"/>
       <c r="I52" s="13" t="s">
         <v>229</v>

--- a/Raport.xlsx
+++ b/Raport.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\ttt\Tokyo-Garden-Restaurant\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dominik\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CEAB524-9065-4B81-B722-6C1B26C03B3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B7B26C8-1C79-499B-8D43-49723C1FC1DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="286">
   <si>
     <t>Liczba członków zespołu</t>
   </si>
@@ -895,12 +895,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1022,14 +1030,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1038,11 +1046,14 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1054,10 +1065,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1065,6 +1076,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1078,13 +1092,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1577,8 +1597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -1587,7 +1607,7 @@
     <col min="2" max="2" width="12.5703125" customWidth="1"/>
     <col min="3" max="3" width="97" customWidth="1"/>
     <col min="4" max="5" width="12.5703125" customWidth="1"/>
-    <col min="6" max="6" width="37" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="111" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="12.5703125" customWidth="1"/>
     <col min="9" max="9" width="90.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="12.5703125" customWidth="1"/>
@@ -1623,7 +1643,7 @@
       </c>
       <c r="J3">
         <f>SUM(J7:J1001)</f>
-        <v>2210</v>
+        <v>2237</v>
       </c>
       <c r="M3">
         <f>SUM(M7:M1001)</f>
@@ -1637,42 +1657,42 @@
       <c r="B4" s="1"/>
       <c r="D4">
         <f>($B$2*D$3)/SUM($D$3:$AK$3)</f>
-        <v>0.91784587193321798</v>
+        <v>0.91532994923857869</v>
       </c>
       <c r="G4">
         <f>($B$2*G$3)/SUM($D$3:$AK$3)</f>
-        <v>0.9027791916929655</v>
+        <v>0.90030456852791874</v>
       </c>
       <c r="J4">
         <f>($B$2*J$3)/SUM($D$3:$AK$3)</f>
-        <v>0.89992873867453937</v>
+        <v>0.90842639593908625</v>
       </c>
       <c r="M4">
         <f>($B$2*M$3)/SUM($D$3:$AK$3)</f>
-        <v>1.2794461976992773</v>
+        <v>1.2759390862944162</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="18" t="s">
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18" t="s">
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18" t="s">
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
     </row>
     <row r="6" spans="1:13">
       <c r="B6" t="s">
@@ -1778,7 +1798,7 @@
       <c r="J8">
         <v>100</v>
       </c>
-      <c r="K8" s="16">
+      <c r="K8" s="18">
         <v>45772</v>
       </c>
       <c r="L8" t="s">
@@ -1789,7 +1809,7 @@
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="B9" s="16">
+      <c r="B9" s="18">
         <v>45785</v>
       </c>
       <c r="C9" t="s">
@@ -1816,7 +1836,7 @@
       <c r="J9">
         <v>118</v>
       </c>
-      <c r="K9" s="16"/>
+      <c r="K9" s="18"/>
       <c r="L9" s="5" t="s">
         <v>17</v>
       </c>
@@ -1825,7 +1845,7 @@
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="B10" s="16"/>
+      <c r="B10" s="18"/>
       <c r="C10" t="s">
         <v>64</v>
       </c>
@@ -1838,7 +1858,7 @@
       <c r="G10">
         <v>57</v>
       </c>
-      <c r="H10" s="16">
+      <c r="H10" s="18">
         <v>45803</v>
       </c>
       <c r="I10" t="s">
@@ -1847,7 +1867,7 @@
       <c r="J10">
         <v>70</v>
       </c>
-      <c r="K10" s="16"/>
+      <c r="K10" s="18"/>
       <c r="L10" t="s">
         <v>18</v>
       </c>
@@ -1856,7 +1876,7 @@
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="B11" s="16"/>
+      <c r="B11" s="18"/>
       <c r="C11" t="s">
         <v>65</v>
       </c>
@@ -1869,14 +1889,14 @@
       <c r="G11">
         <v>59</v>
       </c>
-      <c r="H11" s="16"/>
+      <c r="H11" s="18"/>
       <c r="I11" t="s">
         <v>75</v>
       </c>
       <c r="J11">
         <v>23</v>
       </c>
-      <c r="K11" s="16"/>
+      <c r="K11" s="18"/>
       <c r="L11" t="s">
         <v>19</v>
       </c>
@@ -1885,7 +1905,7 @@
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="B12" s="16"/>
+      <c r="B12" s="18"/>
       <c r="C12" t="s">
         <v>66</v>
       </c>
@@ -1898,14 +1918,14 @@
       <c r="G12">
         <v>58</v>
       </c>
-      <c r="H12" s="16"/>
+      <c r="H12" s="18"/>
       <c r="I12" t="s">
         <v>77</v>
       </c>
       <c r="J12">
         <v>23</v>
       </c>
-      <c r="K12" s="16"/>
+      <c r="K12" s="18"/>
       <c r="L12" t="s">
         <v>20</v>
       </c>
@@ -1914,7 +1934,7 @@
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="B13" s="16"/>
+      <c r="B13" s="18"/>
       <c r="C13" t="s">
         <v>67</v>
       </c>
@@ -1927,14 +1947,14 @@
       <c r="G13">
         <v>57</v>
       </c>
-      <c r="H13" s="16"/>
+      <c r="H13" s="18"/>
       <c r="I13" t="s">
         <v>76</v>
       </c>
       <c r="J13">
         <v>27</v>
       </c>
-      <c r="K13" s="16"/>
+      <c r="K13" s="18"/>
       <c r="L13" s="5" t="s">
         <v>21</v>
       </c>
@@ -1943,7 +1963,7 @@
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="B14" s="16"/>
+      <c r="B14" s="18"/>
       <c r="C14" t="s">
         <v>68</v>
       </c>
@@ -1956,14 +1976,14 @@
       <c r="G14">
         <v>61</v>
       </c>
-      <c r="H14" s="16"/>
+      <c r="H14" s="18"/>
       <c r="I14" t="s">
         <v>74</v>
       </c>
       <c r="J14">
         <v>24</v>
       </c>
-      <c r="K14" s="16"/>
+      <c r="K14" s="18"/>
       <c r="L14" t="s">
         <v>22</v>
       </c>
@@ -1972,7 +1992,7 @@
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="B15" s="16"/>
+      <c r="B15" s="18"/>
       <c r="C15" t="s">
         <v>69</v>
       </c>
@@ -1985,14 +2005,14 @@
       <c r="G15">
         <v>60</v>
       </c>
-      <c r="H15" s="16"/>
+      <c r="H15" s="18"/>
       <c r="I15" t="s">
         <v>78</v>
       </c>
       <c r="J15">
         <v>27</v>
       </c>
-      <c r="K15" s="16"/>
+      <c r="K15" s="18"/>
       <c r="L15" s="5" t="s">
         <v>23</v>
       </c>
@@ -2001,7 +2021,7 @@
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="B16" s="16"/>
+      <c r="B16" s="18"/>
       <c r="C16" t="s">
         <v>70</v>
       </c>
@@ -2014,14 +2034,14 @@
       <c r="G16">
         <v>16</v>
       </c>
-      <c r="H16" s="16"/>
+      <c r="H16" s="18"/>
       <c r="I16" t="s">
         <v>79</v>
       </c>
       <c r="J16">
         <v>27</v>
       </c>
-      <c r="K16" s="16"/>
+      <c r="K16" s="18"/>
       <c r="L16" t="s">
         <v>24</v>
       </c>
@@ -2030,7 +2050,7 @@
       </c>
     </row>
     <row r="17" spans="2:13">
-      <c r="B17" s="16"/>
+      <c r="B17" s="18"/>
       <c r="C17" t="s">
         <v>71</v>
       </c>
@@ -2043,14 +2063,14 @@
       <c r="G17">
         <v>59</v>
       </c>
-      <c r="H17" s="16"/>
+      <c r="H17" s="18"/>
       <c r="I17" t="s">
         <v>80</v>
       </c>
       <c r="J17">
         <v>27</v>
       </c>
-      <c r="K17" s="16"/>
+      <c r="K17" s="18"/>
       <c r="L17" t="s">
         <v>25</v>
       </c>
@@ -2059,7 +2079,7 @@
       </c>
     </row>
     <row r="18" spans="2:13">
-      <c r="B18" s="16">
+      <c r="B18" s="18">
         <v>45803</v>
       </c>
       <c r="C18" t="s">
@@ -2074,14 +2094,14 @@
       <c r="G18">
         <v>64</v>
       </c>
-      <c r="H18" s="16"/>
+      <c r="H18" s="18"/>
       <c r="I18" t="s">
         <v>81</v>
       </c>
       <c r="J18">
         <v>27</v>
       </c>
-      <c r="K18" s="16"/>
+      <c r="K18" s="18"/>
       <c r="L18" t="s">
         <v>26</v>
       </c>
@@ -2090,21 +2110,21 @@
       </c>
     </row>
     <row r="19" spans="2:13">
-      <c r="B19" s="16"/>
+      <c r="B19" s="18"/>
       <c r="C19" t="s">
         <v>85</v>
       </c>
       <c r="D19">
         <v>144</v>
       </c>
-      <c r="H19" s="16"/>
+      <c r="H19" s="18"/>
       <c r="I19" t="s">
         <v>82</v>
       </c>
       <c r="J19">
         <v>28</v>
       </c>
-      <c r="K19" s="16"/>
+      <c r="K19" s="18"/>
       <c r="L19" t="s">
         <v>27</v>
       </c>
@@ -2113,21 +2133,21 @@
       </c>
     </row>
     <row r="20" spans="2:13">
-      <c r="B20" s="16"/>
+      <c r="B20" s="18"/>
       <c r="C20" t="s">
         <v>86</v>
       </c>
       <c r="D20">
         <v>164</v>
       </c>
-      <c r="H20" s="16"/>
+      <c r="H20" s="18"/>
       <c r="I20" t="s">
         <v>83</v>
       </c>
       <c r="J20">
         <v>34</v>
       </c>
-      <c r="K20" s="16"/>
+      <c r="K20" s="18"/>
       <c r="L20" t="s">
         <v>28</v>
       </c>
@@ -2136,14 +2156,14 @@
       </c>
     </row>
     <row r="21" spans="2:13">
-      <c r="B21" s="16"/>
+      <c r="B21" s="18"/>
       <c r="C21" t="s">
         <v>87</v>
       </c>
       <c r="D21">
         <v>58</v>
       </c>
-      <c r="E21" s="16">
+      <c r="E21" s="18">
         <v>45804</v>
       </c>
       <c r="F21" t="s">
@@ -2152,7 +2172,7 @@
       <c r="G21">
         <v>81</v>
       </c>
-      <c r="H21" s="16">
+      <c r="H21" s="18">
         <v>45817</v>
       </c>
       <c r="I21" s="10" t="s">
@@ -2161,7 +2181,7 @@
       <c r="J21" s="6">
         <v>3</v>
       </c>
-      <c r="K21" s="16"/>
+      <c r="K21" s="18"/>
       <c r="L21" t="s">
         <v>29</v>
       </c>
@@ -2170,28 +2190,28 @@
       </c>
     </row>
     <row r="22" spans="2:13">
-      <c r="B22" s="16"/>
+      <c r="B22" s="18"/>
       <c r="C22" t="s">
         <v>88</v>
       </c>
       <c r="D22">
         <v>92</v>
       </c>
-      <c r="E22" s="18"/>
+      <c r="E22" s="20"/>
       <c r="F22" t="s">
         <v>102</v>
       </c>
       <c r="G22">
         <v>69</v>
       </c>
-      <c r="H22" s="16"/>
+      <c r="H22" s="18"/>
       <c r="I22" t="s">
         <v>111</v>
       </c>
       <c r="J22" s="6">
         <v>6</v>
       </c>
-      <c r="K22" s="16"/>
+      <c r="K22" s="18"/>
       <c r="L22" t="s">
         <v>30</v>
       </c>
@@ -2200,28 +2220,28 @@
       </c>
     </row>
     <row r="23" spans="2:13">
-      <c r="B23" s="16"/>
+      <c r="B23" s="18"/>
       <c r="C23" t="s">
         <v>89</v>
       </c>
       <c r="D23">
         <v>64</v>
       </c>
-      <c r="E23" s="18"/>
+      <c r="E23" s="20"/>
       <c r="F23" t="s">
         <v>103</v>
       </c>
       <c r="G23">
         <v>75</v>
       </c>
-      <c r="H23" s="16"/>
+      <c r="H23" s="18"/>
       <c r="I23" t="s">
         <v>112</v>
       </c>
       <c r="J23" s="6">
         <v>3</v>
       </c>
-      <c r="K23" s="16"/>
+      <c r="K23" s="18"/>
       <c r="L23" t="s">
         <v>31</v>
       </c>
@@ -2230,28 +2250,28 @@
       </c>
     </row>
     <row r="24" spans="2:13">
-      <c r="B24" s="16"/>
+      <c r="B24" s="18"/>
       <c r="C24" t="s">
         <v>90</v>
       </c>
       <c r="D24">
         <v>20</v>
       </c>
-      <c r="E24" s="18"/>
+      <c r="E24" s="20"/>
       <c r="F24" t="s">
         <v>104</v>
       </c>
       <c r="G24">
         <v>126</v>
       </c>
-      <c r="H24" s="16"/>
+      <c r="H24" s="18"/>
       <c r="I24" t="s">
         <v>113</v>
       </c>
       <c r="J24" s="6">
         <v>6</v>
       </c>
-      <c r="K24" s="16"/>
+      <c r="K24" s="18"/>
       <c r="L24" t="s">
         <v>32</v>
       </c>
@@ -2260,28 +2280,28 @@
       </c>
     </row>
     <row r="25" spans="2:13">
-      <c r="B25" s="16"/>
+      <c r="B25" s="18"/>
       <c r="C25" t="s">
         <v>91</v>
       </c>
       <c r="D25">
         <v>57</v>
       </c>
-      <c r="E25" s="18"/>
+      <c r="E25" s="20"/>
       <c r="F25" t="s">
         <v>105</v>
       </c>
       <c r="G25">
         <v>65</v>
       </c>
-      <c r="H25" s="16"/>
+      <c r="H25" s="18"/>
       <c r="I25" t="s">
         <v>114</v>
       </c>
       <c r="J25" s="6">
         <v>4</v>
       </c>
-      <c r="K25" s="16"/>
+      <c r="K25" s="18"/>
       <c r="L25" t="s">
         <v>33</v>
       </c>
@@ -2290,28 +2310,28 @@
       </c>
     </row>
     <row r="26" spans="2:13">
-      <c r="B26" s="16"/>
+      <c r="B26" s="18"/>
       <c r="C26" t="s">
         <v>92</v>
       </c>
       <c r="D26">
         <v>28</v>
       </c>
-      <c r="E26" s="18"/>
+      <c r="E26" s="20"/>
       <c r="F26" t="s">
         <v>106</v>
       </c>
       <c r="G26">
         <v>82</v>
       </c>
-      <c r="H26" s="16"/>
+      <c r="H26" s="18"/>
       <c r="I26" s="10" t="s">
         <v>115</v>
       </c>
       <c r="J26" s="6">
         <v>2</v>
       </c>
-      <c r="K26" s="16"/>
+      <c r="K26" s="18"/>
       <c r="L26" t="s">
         <v>34</v>
       </c>
@@ -2320,28 +2340,28 @@
       </c>
     </row>
     <row r="27" spans="2:13">
-      <c r="B27" s="16"/>
+      <c r="B27" s="18"/>
       <c r="C27" t="s">
         <v>93</v>
       </c>
       <c r="D27">
         <v>26</v>
       </c>
-      <c r="E27" s="18"/>
+      <c r="E27" s="20"/>
       <c r="F27" t="s">
         <v>107</v>
       </c>
       <c r="G27">
         <v>75</v>
       </c>
-      <c r="H27" s="16"/>
+      <c r="H27" s="18"/>
       <c r="I27" t="s">
         <v>116</v>
       </c>
       <c r="J27" s="6">
         <v>8</v>
       </c>
-      <c r="K27" s="16"/>
+      <c r="K27" s="18"/>
       <c r="L27" t="s">
         <v>35</v>
       </c>
@@ -2350,28 +2370,28 @@
       </c>
     </row>
     <row r="28" spans="2:13">
-      <c r="B28" s="16"/>
+      <c r="B28" s="18"/>
       <c r="C28" t="s">
         <v>94</v>
       </c>
       <c r="D28">
         <v>16</v>
       </c>
-      <c r="E28" s="18"/>
+      <c r="E28" s="20"/>
       <c r="F28" t="s">
         <v>108</v>
       </c>
       <c r="G28">
         <v>266</v>
       </c>
-      <c r="H28" s="16"/>
+      <c r="H28" s="18"/>
       <c r="I28" t="s">
         <v>117</v>
       </c>
       <c r="J28" s="6">
         <v>3</v>
       </c>
-      <c r="K28" s="16"/>
+      <c r="K28" s="18"/>
       <c r="L28" t="s">
         <v>36</v>
       </c>
@@ -2380,28 +2400,28 @@
       </c>
     </row>
     <row r="29" spans="2:13">
-      <c r="B29" s="16"/>
+      <c r="B29" s="18"/>
       <c r="C29" t="s">
         <v>95</v>
       </c>
       <c r="D29">
         <v>18</v>
       </c>
-      <c r="E29" s="18"/>
+      <c r="E29" s="20"/>
       <c r="F29" t="s">
         <v>109</v>
       </c>
       <c r="G29">
         <v>71</v>
       </c>
-      <c r="H29" s="16"/>
+      <c r="H29" s="18"/>
       <c r="I29" t="s">
         <v>118</v>
       </c>
       <c r="J29" s="6">
         <v>12</v>
       </c>
-      <c r="K29" s="16"/>
+      <c r="K29" s="18"/>
       <c r="L29" t="s">
         <v>37</v>
       </c>
@@ -2410,21 +2430,30 @@
       </c>
     </row>
     <row r="30" spans="2:13">
-      <c r="B30" s="16"/>
+      <c r="B30" s="18"/>
       <c r="C30" t="s">
         <v>96</v>
       </c>
       <c r="D30">
         <v>15</v>
       </c>
-      <c r="H30" s="16"/>
+      <c r="E30" s="18">
+        <v>45917</v>
+      </c>
+      <c r="F30" t="s">
+        <v>269</v>
+      </c>
+      <c r="G30">
+        <v>300</v>
+      </c>
+      <c r="H30" s="18"/>
       <c r="I30" t="s">
         <v>119</v>
       </c>
       <c r="J30" s="6">
         <v>3</v>
       </c>
-      <c r="K30" s="16"/>
+      <c r="K30" s="18"/>
       <c r="L30" t="s">
         <v>38</v>
       </c>
@@ -2433,21 +2462,28 @@
       </c>
     </row>
     <row r="31" spans="2:13">
-      <c r="B31" s="16"/>
+      <c r="B31" s="18"/>
       <c r="C31" t="s">
         <v>97</v>
       </c>
       <c r="D31">
         <v>17</v>
       </c>
-      <c r="H31" s="16"/>
+      <c r="E31" s="18"/>
+      <c r="F31" t="s">
+        <v>270</v>
+      </c>
+      <c r="G31">
+        <v>5</v>
+      </c>
+      <c r="H31" s="18"/>
       <c r="I31" t="s">
         <v>120</v>
       </c>
       <c r="J31" s="6">
         <v>6</v>
       </c>
-      <c r="K31" s="16"/>
+      <c r="K31" s="18"/>
       <c r="L31" t="s">
         <v>39</v>
       </c>
@@ -2456,21 +2492,28 @@
       </c>
     </row>
     <row r="32" spans="2:13">
-      <c r="B32" s="16"/>
+      <c r="B32" s="18"/>
       <c r="C32" t="s">
         <v>98</v>
       </c>
       <c r="D32">
         <v>44</v>
       </c>
-      <c r="H32" s="16"/>
+      <c r="E32" s="18"/>
+      <c r="F32" t="s">
+        <v>271</v>
+      </c>
+      <c r="G32">
+        <v>3</v>
+      </c>
+      <c r="H32" s="18"/>
       <c r="I32" t="s">
         <v>121</v>
       </c>
       <c r="J32" s="6">
         <v>2</v>
       </c>
-      <c r="K32" s="16"/>
+      <c r="K32" s="18"/>
       <c r="L32" s="5" t="s">
         <v>40</v>
       </c>
@@ -2479,21 +2522,28 @@
       </c>
     </row>
     <row r="33" spans="2:13">
-      <c r="B33" s="16"/>
+      <c r="B33" s="18"/>
       <c r="C33" t="s">
         <v>99</v>
       </c>
       <c r="D33">
         <v>43</v>
       </c>
-      <c r="H33" s="16"/>
+      <c r="E33" s="18"/>
+      <c r="F33" t="s">
+        <v>272</v>
+      </c>
+      <c r="G33">
+        <v>2</v>
+      </c>
+      <c r="H33" s="18"/>
       <c r="I33" t="s">
         <v>122</v>
       </c>
       <c r="J33" s="6">
         <v>4</v>
       </c>
-      <c r="K33" s="16"/>
+      <c r="K33" s="18"/>
       <c r="L33" t="s">
         <v>41</v>
       </c>
@@ -2502,21 +2552,28 @@
       </c>
     </row>
     <row r="34" spans="2:13">
-      <c r="B34" s="16"/>
+      <c r="B34" s="18"/>
       <c r="C34" t="s">
         <v>100</v>
       </c>
       <c r="D34">
         <v>28</v>
       </c>
-      <c r="H34" s="16"/>
+      <c r="E34" s="18"/>
+      <c r="F34" t="s">
+        <v>273</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34" s="18"/>
       <c r="I34" t="s">
         <v>123</v>
       </c>
       <c r="J34" s="6">
         <v>8</v>
       </c>
-      <c r="K34" s="16"/>
+      <c r="K34" s="18"/>
       <c r="L34" t="s">
         <v>42</v>
       </c>
@@ -2525,7 +2582,7 @@
       </c>
     </row>
     <row r="35" spans="2:13">
-      <c r="B35" s="16">
+      <c r="B35" s="18">
         <v>45907</v>
       </c>
       <c r="C35" t="s">
@@ -2534,11 +2591,12 @@
       <c r="D35">
         <v>65</v>
       </c>
+      <c r="E35" s="18"/>
       <c r="F35" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="G35">
-        <v>300</v>
+        <v>7</v>
       </c>
       <c r="H35" s="3">
         <v>45908</v>
@@ -2549,7 +2607,7 @@
       <c r="J35" s="6">
         <v>17</v>
       </c>
-      <c r="K35" s="16"/>
+      <c r="K35" s="18"/>
       <c r="L35" t="s">
         <v>43</v>
       </c>
@@ -2558,20 +2616,21 @@
       </c>
     </row>
     <row r="36" spans="2:13">
-      <c r="B36" s="18"/>
+      <c r="B36" s="20"/>
       <c r="C36" t="s">
         <v>255</v>
       </c>
       <c r="D36">
         <v>54</v>
       </c>
-      <c r="F36" t="s">
-        <v>270</v>
+      <c r="E36" s="18"/>
+      <c r="F36" s="17" t="s">
+        <v>275</v>
       </c>
       <c r="G36">
-        <v>5</v>
-      </c>
-      <c r="H36" s="20">
+        <v>46</v>
+      </c>
+      <c r="H36" s="21">
         <v>45916</v>
       </c>
       <c r="I36" s="7" t="s">
@@ -2580,7 +2639,7 @@
       <c r="J36" s="6">
         <v>8</v>
       </c>
-      <c r="K36" s="16"/>
+      <c r="K36" s="18"/>
       <c r="L36" t="s">
         <v>44</v>
       </c>
@@ -2589,27 +2648,28 @@
       </c>
     </row>
     <row r="37" spans="2:13">
-      <c r="B37" s="18"/>
+      <c r="B37" s="20"/>
       <c r="C37" t="s">
         <v>256</v>
       </c>
       <c r="D37">
         <v>23</v>
       </c>
-      <c r="F37" t="s">
-        <v>271</v>
+      <c r="E37" s="18"/>
+      <c r="F37" s="17" t="s">
+        <v>276</v>
       </c>
       <c r="G37">
-        <v>3</v>
-      </c>
-      <c r="H37" s="19"/>
+        <v>16</v>
+      </c>
+      <c r="H37" s="22"/>
       <c r="I37" t="s">
         <v>127</v>
       </c>
       <c r="J37" s="6">
         <v>9</v>
       </c>
-      <c r="K37" s="16"/>
+      <c r="K37" s="18"/>
       <c r="L37" t="s">
         <v>45</v>
       </c>
@@ -2618,27 +2678,28 @@
       </c>
     </row>
     <row r="38" spans="2:13">
-      <c r="B38" s="18"/>
+      <c r="B38" s="20"/>
       <c r="C38" t="s">
         <v>257</v>
       </c>
       <c r="D38">
         <v>60</v>
       </c>
-      <c r="F38" t="s">
-        <v>272</v>
+      <c r="E38" s="18"/>
+      <c r="F38" s="17" t="s">
+        <v>277</v>
       </c>
       <c r="G38">
-        <v>2</v>
-      </c>
-      <c r="H38" s="19"/>
+        <v>4</v>
+      </c>
+      <c r="H38" s="22"/>
       <c r="I38" t="s">
         <v>128</v>
       </c>
       <c r="J38" s="6">
         <v>36</v>
       </c>
-      <c r="K38" s="16"/>
+      <c r="K38" s="18"/>
       <c r="L38" t="s">
         <v>46</v>
       </c>
@@ -2647,27 +2708,28 @@
       </c>
     </row>
     <row r="39" spans="2:13">
-      <c r="B39" s="18"/>
+      <c r="B39" s="20"/>
       <c r="C39" t="s">
         <v>258</v>
       </c>
       <c r="D39">
         <v>55</v>
       </c>
-      <c r="F39" t="s">
-        <v>273</v>
+      <c r="E39" s="18"/>
+      <c r="F39" s="17" t="s">
+        <v>278</v>
       </c>
       <c r="G39">
-        <v>1</v>
-      </c>
-      <c r="H39" s="19"/>
+        <v>10</v>
+      </c>
+      <c r="H39" s="22"/>
       <c r="I39" t="s">
         <v>129</v>
       </c>
       <c r="J39" s="6">
         <v>9</v>
       </c>
-      <c r="K39" s="16"/>
+      <c r="K39" s="18"/>
       <c r="L39" t="s">
         <v>47</v>
       </c>
@@ -2676,27 +2738,28 @@
       </c>
     </row>
     <row r="40" spans="2:13">
-      <c r="B40" s="18"/>
+      <c r="B40" s="20"/>
       <c r="C40" t="s">
         <v>259</v>
       </c>
       <c r="D40">
         <v>87</v>
       </c>
-      <c r="F40" t="s">
-        <v>274</v>
+      <c r="E40" s="18"/>
+      <c r="F40" s="17" t="s">
+        <v>279</v>
       </c>
       <c r="G40">
         <v>7</v>
       </c>
-      <c r="H40" s="19"/>
+      <c r="H40" s="22"/>
       <c r="I40" t="s">
         <v>130</v>
       </c>
       <c r="J40" s="6">
         <v>37</v>
       </c>
-      <c r="K40" s="16"/>
+      <c r="K40" s="18"/>
       <c r="L40" s="5" t="s">
         <v>48</v>
       </c>
@@ -2705,21 +2768,22 @@
       </c>
     </row>
     <row r="41" spans="2:13">
-      <c r="B41" s="18"/>
+      <c r="B41" s="20"/>
       <c r="C41" t="s">
         <v>260</v>
       </c>
       <c r="D41">
         <v>23</v>
       </c>
-      <c r="F41" s="21" t="s">
-        <v>275</v>
+      <c r="E41" s="18"/>
+      <c r="F41" s="17" t="s">
+        <v>280</v>
       </c>
       <c r="G41">
-        <v>46</v>
-      </c>
-      <c r="H41" s="20">
-        <v>45917</v>
+        <v>51</v>
+      </c>
+      <c r="H41" s="18">
+        <v>45906</v>
       </c>
       <c r="I41" t="s">
         <v>131</v>
@@ -2727,7 +2791,7 @@
       <c r="J41" s="6">
         <v>67</v>
       </c>
-      <c r="K41" s="16"/>
+      <c r="K41" s="18"/>
       <c r="L41" s="5" t="s">
         <v>49</v>
       </c>
@@ -2736,27 +2800,28 @@
       </c>
     </row>
     <row r="42" spans="2:13">
-      <c r="B42" s="18"/>
+      <c r="B42" s="20"/>
       <c r="C42" t="s">
         <v>261</v>
       </c>
       <c r="D42">
         <v>55</v>
       </c>
-      <c r="F42" s="21" t="s">
-        <v>276</v>
+      <c r="E42" s="18"/>
+      <c r="F42" s="17" t="s">
+        <v>281</v>
       </c>
       <c r="G42">
-        <v>16</v>
-      </c>
-      <c r="H42" s="19"/>
+        <v>5</v>
+      </c>
+      <c r="H42" s="18"/>
       <c r="I42" t="s">
         <v>134</v>
       </c>
       <c r="J42" s="6">
         <v>1</v>
       </c>
-      <c r="K42" s="16"/>
+      <c r="K42" s="18"/>
       <c r="L42" t="s">
         <v>50</v>
       </c>
@@ -2765,27 +2830,28 @@
       </c>
     </row>
     <row r="43" spans="2:13">
-      <c r="B43" s="18"/>
+      <c r="B43" s="20"/>
       <c r="C43" t="s">
         <v>262</v>
       </c>
       <c r="D43">
         <v>60</v>
       </c>
-      <c r="F43" s="21" t="s">
-        <v>277</v>
+      <c r="E43" s="18"/>
+      <c r="F43" s="17" t="s">
+        <v>280</v>
       </c>
       <c r="G43">
-        <v>4</v>
-      </c>
-      <c r="H43" s="19"/>
+        <v>29</v>
+      </c>
+      <c r="H43" s="18"/>
       <c r="I43" t="s">
         <v>139</v>
       </c>
       <c r="J43" s="6">
         <v>9</v>
       </c>
-      <c r="K43" s="16"/>
+      <c r="K43" s="18"/>
       <c r="L43" t="s">
         <v>51</v>
       </c>
@@ -2794,27 +2860,28 @@
       </c>
     </row>
     <row r="44" spans="2:13">
-      <c r="B44" s="18"/>
+      <c r="B44" s="20"/>
       <c r="C44" t="s">
         <v>263</v>
       </c>
       <c r="D44">
         <v>57</v>
       </c>
-      <c r="F44" s="21" t="s">
-        <v>278</v>
+      <c r="E44" s="18"/>
+      <c r="F44" s="17" t="s">
+        <v>282</v>
       </c>
       <c r="G44">
-        <v>10</v>
-      </c>
-      <c r="H44" s="19"/>
+        <v>29</v>
+      </c>
+      <c r="H44" s="18"/>
       <c r="I44" t="s">
         <v>140</v>
       </c>
       <c r="J44" s="6">
         <v>21</v>
       </c>
-      <c r="K44" s="16"/>
+      <c r="K44" s="18"/>
       <c r="L44" t="s">
         <v>52</v>
       </c>
@@ -2823,27 +2890,28 @@
       </c>
     </row>
     <row r="45" spans="2:13">
-      <c r="B45" s="18"/>
+      <c r="B45" s="20"/>
       <c r="C45" t="s">
         <v>264</v>
       </c>
       <c r="D45">
         <v>61</v>
       </c>
-      <c r="F45" s="21" t="s">
-        <v>279</v>
+      <c r="E45" s="18"/>
+      <c r="F45" s="17" t="s">
+        <v>283</v>
       </c>
       <c r="G45">
-        <v>7</v>
-      </c>
-      <c r="H45" s="19"/>
+        <v>75</v>
+      </c>
+      <c r="H45" s="18"/>
       <c r="I45" t="s">
         <v>147</v>
       </c>
       <c r="J45" s="6">
         <v>2</v>
       </c>
-      <c r="K45" s="16">
+      <c r="K45" s="18">
         <v>45898</v>
       </c>
       <c r="L45" s="12" t="s">
@@ -2854,27 +2922,28 @@
       </c>
     </row>
     <row r="46" spans="2:13">
-      <c r="B46" s="18"/>
+      <c r="B46" s="20"/>
       <c r="C46" t="s">
         <v>265</v>
       </c>
       <c r="D46">
         <v>69</v>
       </c>
-      <c r="F46" s="21" t="s">
-        <v>280</v>
+      <c r="E46" s="18"/>
+      <c r="F46" s="17" t="s">
+        <v>284</v>
       </c>
       <c r="G46">
-        <v>51</v>
-      </c>
-      <c r="H46" s="19"/>
+        <v>14</v>
+      </c>
+      <c r="H46" s="18"/>
       <c r="I46" s="13" t="s">
         <v>225</v>
       </c>
       <c r="J46" s="6">
         <v>1</v>
       </c>
-      <c r="K46" s="16"/>
+      <c r="K46" s="18"/>
       <c r="L46" s="7" t="s">
         <v>125</v>
       </c>
@@ -2883,27 +2952,28 @@
       </c>
     </row>
     <row r="47" spans="2:13">
-      <c r="B47" s="18"/>
+      <c r="B47" s="20"/>
       <c r="C47" t="s">
         <v>266</v>
       </c>
       <c r="D47">
         <v>23</v>
       </c>
-      <c r="F47" s="21" t="s">
-        <v>281</v>
+      <c r="E47" s="18"/>
+      <c r="F47" s="17" t="s">
+        <v>285</v>
       </c>
       <c r="G47">
-        <v>5</v>
-      </c>
-      <c r="H47" s="19"/>
+        <v>74</v>
+      </c>
+      <c r="H47" s="18"/>
       <c r="I47" s="13" t="s">
         <v>253</v>
       </c>
       <c r="J47" s="6">
         <v>15</v>
       </c>
-      <c r="K47" s="16"/>
+      <c r="K47" s="18"/>
       <c r="L47" t="s">
         <v>126</v>
       </c>
@@ -2912,27 +2982,21 @@
       </c>
     </row>
     <row r="48" spans="2:13">
-      <c r="B48" s="18"/>
+      <c r="B48" s="20"/>
       <c r="C48" t="s">
         <v>267</v>
       </c>
       <c r="D48">
         <v>55</v>
       </c>
-      <c r="F48" s="21" t="s">
-        <v>280</v>
-      </c>
-      <c r="G48">
-        <v>29</v>
-      </c>
-      <c r="H48" s="19"/>
+      <c r="H48" s="18"/>
       <c r="I48" s="13" t="s">
         <v>245</v>
       </c>
       <c r="J48" s="6">
         <v>5</v>
       </c>
-      <c r="K48" s="16"/>
+      <c r="K48" s="18"/>
       <c r="L48" t="s">
         <v>127</v>
       </c>
@@ -2941,7 +3005,7 @@
       </c>
     </row>
     <row r="49" spans="2:13">
-      <c r="B49" s="3">
+      <c r="B49" s="16">
         <v>45916</v>
       </c>
       <c r="C49" s="14" t="s">
@@ -2950,20 +3014,14 @@
       <c r="D49">
         <v>220</v>
       </c>
-      <c r="F49" s="21" t="s">
-        <v>282</v>
-      </c>
-      <c r="G49">
-        <v>29</v>
-      </c>
-      <c r="H49" s="19"/>
+      <c r="H49" s="18"/>
       <c r="I49" s="13" t="s">
         <v>246</v>
       </c>
       <c r="J49" s="6">
         <v>5</v>
       </c>
-      <c r="K49" s="16"/>
+      <c r="K49" s="18"/>
       <c r="L49" t="s">
         <v>128</v>
       </c>
@@ -2972,20 +3030,14 @@
       </c>
     </row>
     <row r="50" spans="2:13">
-      <c r="F50" s="21" t="s">
-        <v>283</v>
-      </c>
-      <c r="G50">
-        <v>75</v>
-      </c>
-      <c r="H50" s="19"/>
+      <c r="H50" s="18"/>
       <c r="I50" s="13" t="s">
         <v>227</v>
       </c>
       <c r="J50" s="6">
         <v>45</v>
       </c>
-      <c r="K50" s="16"/>
+      <c r="K50" s="18"/>
       <c r="L50" t="s">
         <v>129</v>
       </c>
@@ -2994,20 +3046,14 @@
       </c>
     </row>
     <row r="51" spans="2:13">
-      <c r="F51" s="21" t="s">
-        <v>284</v>
-      </c>
-      <c r="G51">
-        <v>14</v>
-      </c>
-      <c r="H51" s="19"/>
+      <c r="H51" s="18"/>
       <c r="I51" s="13" t="s">
         <v>228</v>
       </c>
       <c r="J51" s="11">
         <v>24</v>
       </c>
-      <c r="K51" s="16"/>
+      <c r="K51" s="18"/>
       <c r="L51" t="s">
         <v>130</v>
       </c>
@@ -3016,20 +3062,14 @@
       </c>
     </row>
     <row r="52" spans="2:13">
-      <c r="F52" s="21" t="s">
-        <v>285</v>
-      </c>
-      <c r="G52">
-        <v>74</v>
-      </c>
-      <c r="H52" s="19"/>
+      <c r="H52" s="18"/>
       <c r="I52" s="13" t="s">
         <v>229</v>
       </c>
       <c r="J52" s="6">
         <v>26</v>
       </c>
-      <c r="K52" s="16"/>
+      <c r="K52" s="18"/>
       <c r="L52" t="s">
         <v>131</v>
       </c>
@@ -3038,14 +3078,15 @@
       </c>
     </row>
     <row r="53" spans="2:13">
-      <c r="H53" s="19"/>
+      <c r="E53" s="23"/>
+      <c r="H53" s="18"/>
       <c r="I53" s="13" t="s">
         <v>230</v>
       </c>
       <c r="J53" s="9">
         <v>1</v>
       </c>
-      <c r="K53" s="16"/>
+      <c r="K53" s="18"/>
       <c r="L53" s="8" t="s">
         <v>132</v>
       </c>
@@ -3054,14 +3095,15 @@
       </c>
     </row>
     <row r="54" spans="2:13">
-      <c r="H54" s="19"/>
+      <c r="E54" s="23"/>
+      <c r="H54" s="18"/>
       <c r="I54" s="13" t="s">
         <v>231</v>
       </c>
       <c r="J54" s="6">
         <v>18</v>
       </c>
-      <c r="K54" s="16"/>
+      <c r="K54" s="18"/>
       <c r="L54" t="s">
         <v>133</v>
       </c>
@@ -3070,14 +3112,15 @@
       </c>
     </row>
     <row r="55" spans="2:13">
-      <c r="H55" s="19"/>
+      <c r="E55" s="23"/>
+      <c r="H55" s="18"/>
       <c r="I55" s="13" t="s">
         <v>232</v>
       </c>
       <c r="J55" s="6">
         <v>1</v>
       </c>
-      <c r="K55" s="16"/>
+      <c r="K55" s="18"/>
       <c r="L55" t="s">
         <v>134</v>
       </c>
@@ -3086,14 +3129,15 @@
       </c>
     </row>
     <row r="56" spans="2:13">
-      <c r="H56" s="19"/>
+      <c r="E56" s="23"/>
+      <c r="H56" s="18"/>
       <c r="I56" s="13" t="s">
         <v>233</v>
       </c>
       <c r="J56" s="10">
         <v>32</v>
       </c>
-      <c r="K56" s="16"/>
+      <c r="K56" s="18"/>
       <c r="L56" t="s">
         <v>135</v>
       </c>
@@ -3102,14 +3146,15 @@
       </c>
     </row>
     <row r="57" spans="2:13">
-      <c r="H57" s="19"/>
+      <c r="E57" s="23"/>
+      <c r="H57" s="18"/>
       <c r="I57" s="13" t="s">
         <v>234</v>
       </c>
       <c r="J57" s="11">
         <v>1</v>
       </c>
-      <c r="K57" s="16"/>
+      <c r="K57" s="18"/>
       <c r="L57" t="s">
         <v>136</v>
       </c>
@@ -3118,14 +3163,15 @@
       </c>
     </row>
     <row r="58" spans="2:13">
-      <c r="H58" s="19"/>
+      <c r="E58" s="23"/>
+      <c r="H58" s="18"/>
       <c r="I58" s="13" t="s">
         <v>235</v>
       </c>
       <c r="J58" s="11">
         <v>18</v>
       </c>
-      <c r="K58" s="16"/>
+      <c r="K58" s="18"/>
       <c r="L58" t="s">
         <v>137</v>
       </c>
@@ -3134,14 +3180,15 @@
       </c>
     </row>
     <row r="59" spans="2:13">
-      <c r="H59" s="19"/>
+      <c r="E59" s="23"/>
+      <c r="H59" s="18"/>
       <c r="I59" s="13" t="s">
         <v>236</v>
       </c>
       <c r="J59" s="10">
         <v>1</v>
       </c>
-      <c r="K59" s="16"/>
+      <c r="K59" s="18"/>
       <c r="L59" t="s">
         <v>138</v>
       </c>
@@ -3150,14 +3197,15 @@
       </c>
     </row>
     <row r="60" spans="2:13">
-      <c r="H60" s="19"/>
+      <c r="E60" s="23"/>
+      <c r="H60" s="18"/>
       <c r="I60" s="13" t="s">
         <v>237</v>
       </c>
       <c r="J60" s="10">
         <v>14</v>
       </c>
-      <c r="K60" s="16"/>
+      <c r="K60" s="18"/>
       <c r="L60" t="s">
         <v>139</v>
       </c>
@@ -3166,14 +3214,15 @@
       </c>
     </row>
     <row r="61" spans="2:13">
-      <c r="H61" s="19"/>
+      <c r="E61" s="23"/>
+      <c r="H61" s="18"/>
       <c r="I61" s="13" t="s">
         <v>238</v>
       </c>
       <c r="J61" s="11">
         <v>2</v>
       </c>
-      <c r="K61" s="16"/>
+      <c r="K61" s="18"/>
       <c r="L61" t="s">
         <v>140</v>
       </c>
@@ -3182,14 +3231,15 @@
       </c>
     </row>
     <row r="62" spans="2:13">
-      <c r="H62" s="19"/>
+      <c r="E62" s="23"/>
+      <c r="H62" s="18"/>
       <c r="I62" s="13" t="s">
         <v>239</v>
       </c>
       <c r="J62" s="11">
         <v>17</v>
       </c>
-      <c r="K62" s="16"/>
+      <c r="K62" s="18"/>
       <c r="L62" t="s">
         <v>141</v>
       </c>
@@ -3198,14 +3248,15 @@
       </c>
     </row>
     <row r="63" spans="2:13">
-      <c r="H63" s="19"/>
+      <c r="E63" s="23"/>
+      <c r="H63" s="18"/>
       <c r="I63" s="13" t="s">
         <v>240</v>
       </c>
       <c r="J63" s="11">
         <v>1</v>
       </c>
-      <c r="K63" s="16"/>
+      <c r="K63" s="18"/>
       <c r="L63" t="s">
         <v>142</v>
       </c>
@@ -3214,14 +3265,15 @@
       </c>
     </row>
     <row r="64" spans="2:13">
-      <c r="H64" s="19"/>
+      <c r="E64" s="23"/>
+      <c r="H64" s="18"/>
       <c r="I64" s="13" t="s">
         <v>241</v>
       </c>
       <c r="J64" s="11">
         <v>12</v>
       </c>
-      <c r="K64" s="16"/>
+      <c r="K64" s="18"/>
       <c r="L64" t="s">
         <v>143</v>
       </c>
@@ -3229,15 +3281,16 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="8:13">
-      <c r="H65" s="19"/>
+    <row r="65" spans="5:13">
+      <c r="E65" s="23"/>
+      <c r="H65" s="18"/>
       <c r="I65" s="13" t="s">
         <v>242</v>
       </c>
       <c r="J65" s="11">
         <v>43</v>
       </c>
-      <c r="K65" s="16"/>
+      <c r="K65" s="18"/>
       <c r="L65" t="s">
         <v>144</v>
       </c>
@@ -3245,15 +3298,16 @@
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="8:13">
-      <c r="H66" s="19"/>
+    <row r="66" spans="5:13">
+      <c r="E66" s="23"/>
+      <c r="H66" s="18"/>
       <c r="I66" s="13" t="s">
         <v>243</v>
       </c>
       <c r="J66" s="11">
         <v>53</v>
       </c>
-      <c r="K66" s="16"/>
+      <c r="K66" s="18"/>
       <c r="L66" t="s">
         <v>145</v>
       </c>
@@ -3261,15 +3315,16 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="8:13">
-      <c r="H67" s="19"/>
+    <row r="67" spans="5:13">
+      <c r="E67" s="23"/>
+      <c r="H67" s="18"/>
       <c r="I67" s="13" t="s">
         <v>244</v>
       </c>
       <c r="J67" s="11">
         <v>66</v>
       </c>
-      <c r="K67" s="16"/>
+      <c r="K67" s="18"/>
       <c r="L67" t="s">
         <v>146</v>
       </c>
@@ -3277,15 +3332,16 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="8:13">
-      <c r="H68" s="19"/>
+    <row r="68" spans="5:13">
+      <c r="E68" s="23"/>
+      <c r="H68" s="18"/>
       <c r="I68" s="13" t="s">
         <v>247</v>
       </c>
       <c r="J68" s="11">
         <v>13</v>
       </c>
-      <c r="K68" s="16"/>
+      <c r="K68" s="18"/>
       <c r="L68" t="s">
         <v>147</v>
       </c>
@@ -3293,15 +3349,16 @@
         <v>22</v>
       </c>
     </row>
-    <row r="69" spans="8:13">
-      <c r="H69" s="19"/>
+    <row r="69" spans="5:13">
+      <c r="E69" s="23"/>
+      <c r="H69" s="18"/>
       <c r="I69" s="13" t="s">
         <v>203</v>
       </c>
       <c r="J69" s="11">
         <v>10</v>
       </c>
-      <c r="K69" s="16"/>
+      <c r="K69" s="18"/>
       <c r="L69" t="s">
         <v>148</v>
       </c>
@@ -3309,15 +3366,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="8:13">
-      <c r="H70" s="19"/>
+    <row r="70" spans="5:13">
+      <c r="E70" s="23"/>
+      <c r="H70" s="18"/>
       <c r="I70" s="13" t="s">
         <v>204</v>
       </c>
       <c r="J70" s="11">
         <v>40</v>
       </c>
-      <c r="K70" s="16"/>
+      <c r="K70" s="18"/>
       <c r="L70" t="s">
         <v>149</v>
       </c>
@@ -3325,15 +3383,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="8:13">
-      <c r="H71" s="19"/>
+    <row r="71" spans="5:13">
+      <c r="E71" s="23"/>
+      <c r="H71" s="18"/>
       <c r="I71" s="13" t="s">
         <v>248</v>
       </c>
       <c r="J71" s="11">
         <v>15</v>
       </c>
-      <c r="K71" s="16"/>
+      <c r="K71" s="18"/>
       <c r="L71" t="s">
         <v>150</v>
       </c>
@@ -3341,15 +3400,16 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="8:13">
-      <c r="H72" s="19"/>
+    <row r="72" spans="5:13">
+      <c r="E72" s="23"/>
+      <c r="H72" s="18"/>
       <c r="I72" s="13" t="s">
         <v>208</v>
       </c>
       <c r="J72" s="11">
         <v>8</v>
       </c>
-      <c r="K72" s="16"/>
+      <c r="K72" s="18"/>
       <c r="L72" t="s">
         <v>151</v>
       </c>
@@ -3357,15 +3417,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="8:13">
-      <c r="H73" s="19"/>
+    <row r="73" spans="5:13">
+      <c r="E73" s="23"/>
+      <c r="H73" s="18"/>
       <c r="I73" s="13" t="s">
         <v>209</v>
       </c>
       <c r="J73" s="11">
         <v>19</v>
       </c>
-      <c r="K73" s="16"/>
+      <c r="K73" s="18"/>
       <c r="L73" t="s">
         <v>152</v>
       </c>
@@ -3373,15 +3434,16 @@
         <v>24</v>
       </c>
     </row>
-    <row r="74" spans="8:13">
-      <c r="H74" s="19"/>
+    <row r="74" spans="5:13">
+      <c r="E74" s="23"/>
+      <c r="H74" s="18"/>
       <c r="I74" s="13" t="s">
         <v>210</v>
       </c>
       <c r="J74" s="11">
         <v>14</v>
       </c>
-      <c r="K74" s="16"/>
+      <c r="K74" s="18"/>
       <c r="L74" t="s">
         <v>153</v>
       </c>
@@ -3389,15 +3451,16 @@
         <v>16</v>
       </c>
     </row>
-    <row r="75" spans="8:13">
-      <c r="H75" s="19"/>
+    <row r="75" spans="5:13">
+      <c r="E75" s="23"/>
+      <c r="H75" s="18"/>
       <c r="I75" t="s">
         <v>211</v>
       </c>
       <c r="J75" s="11">
         <v>2</v>
       </c>
-      <c r="K75" s="16"/>
+      <c r="K75" s="18"/>
       <c r="L75" t="s">
         <v>154</v>
       </c>
@@ -3405,15 +3468,16 @@
         <v>22</v>
       </c>
     </row>
-    <row r="76" spans="8:13">
-      <c r="H76" s="19"/>
+    <row r="76" spans="5:13">
+      <c r="E76" s="23"/>
+      <c r="H76" s="18"/>
       <c r="I76" t="s">
         <v>212</v>
       </c>
       <c r="J76" s="11">
         <v>22</v>
       </c>
-      <c r="K76" s="16"/>
+      <c r="K76" s="18"/>
       <c r="L76" t="s">
         <v>155</v>
       </c>
@@ -3421,15 +3485,16 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="8:13">
-      <c r="H77" s="19"/>
+    <row r="77" spans="5:13">
+      <c r="E77" s="23"/>
+      <c r="H77" s="18"/>
       <c r="I77" s="13" t="s">
         <v>213</v>
       </c>
       <c r="J77" s="11">
         <v>11</v>
       </c>
-      <c r="K77" s="16"/>
+      <c r="K77" s="18"/>
       <c r="L77" t="s">
         <v>156</v>
       </c>
@@ -3437,15 +3502,16 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="8:13">
-      <c r="H78" s="19"/>
+    <row r="78" spans="5:13">
+      <c r="E78" s="23"/>
+      <c r="H78" s="18"/>
       <c r="I78" t="s">
         <v>214</v>
       </c>
       <c r="J78" s="11">
         <v>9</v>
       </c>
-      <c r="K78" s="16"/>
+      <c r="K78" s="18"/>
       <c r="L78" t="s">
         <v>157</v>
       </c>
@@ -3453,15 +3519,16 @@
         <v>26</v>
       </c>
     </row>
-    <row r="79" spans="8:13">
-      <c r="H79" s="19"/>
+    <row r="79" spans="5:13">
+      <c r="E79" s="23"/>
+      <c r="H79" s="18"/>
       <c r="I79" t="s">
         <v>215</v>
       </c>
       <c r="J79" s="11">
         <v>33</v>
       </c>
-      <c r="K79" s="16"/>
+      <c r="K79" s="18"/>
       <c r="L79" t="s">
         <v>158</v>
       </c>
@@ -3469,15 +3536,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="8:13">
-      <c r="H80" s="19"/>
+    <row r="80" spans="5:13">
+      <c r="E80" s="23"/>
+      <c r="H80" s="18"/>
       <c r="I80" s="13" t="s">
         <v>218</v>
       </c>
       <c r="J80" s="11">
         <v>15</v>
       </c>
-      <c r="K80" s="16"/>
+      <c r="K80" s="18"/>
       <c r="L80" t="s">
         <v>159</v>
       </c>
@@ -3485,15 +3553,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="8:13">
-      <c r="H81" s="19"/>
+    <row r="81" spans="5:13">
+      <c r="E81" s="23"/>
+      <c r="H81" s="18"/>
       <c r="I81" s="13" t="s">
         <v>249</v>
       </c>
       <c r="J81" s="11">
         <v>7</v>
       </c>
-      <c r="K81" s="16"/>
+      <c r="K81" s="18"/>
       <c r="L81" s="8" t="s">
         <v>160</v>
       </c>
@@ -3501,15 +3570,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="8:13">
-      <c r="H82" s="19"/>
+    <row r="82" spans="5:13">
+      <c r="E82" s="23"/>
+      <c r="H82" s="18"/>
       <c r="I82" s="13" t="s">
         <v>219</v>
       </c>
       <c r="J82" s="11">
         <v>12</v>
       </c>
-      <c r="K82" s="16"/>
+      <c r="K82" s="18"/>
       <c r="L82" t="s">
         <v>161</v>
       </c>
@@ -3517,15 +3587,16 @@
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="8:13">
-      <c r="H83" s="19"/>
+    <row r="83" spans="5:13">
+      <c r="E83" s="23"/>
+      <c r="H83" s="18"/>
       <c r="I83" s="13" t="s">
         <v>220</v>
       </c>
       <c r="J83" s="11">
         <v>107</v>
       </c>
-      <c r="K83" s="16"/>
+      <c r="K83" s="18"/>
       <c r="L83" t="s">
         <v>162</v>
       </c>
@@ -3533,15 +3604,16 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="8:13">
-      <c r="H84" s="19"/>
+    <row r="84" spans="5:13">
+      <c r="E84" s="23"/>
+      <c r="H84" s="18"/>
       <c r="I84" s="13" t="s">
         <v>222</v>
       </c>
       <c r="J84" s="11">
         <v>12</v>
       </c>
-      <c r="K84" s="16"/>
+      <c r="K84" s="18"/>
       <c r="L84" t="s">
         <v>163</v>
       </c>
@@ -3549,15 +3621,16 @@
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="8:13">
-      <c r="H85" s="19"/>
+    <row r="85" spans="5:13">
+      <c r="E85" s="23"/>
+      <c r="H85" s="18"/>
       <c r="I85" t="s">
         <v>223</v>
       </c>
       <c r="J85" s="11">
         <v>6</v>
       </c>
-      <c r="K85" s="16"/>
+      <c r="K85" s="18"/>
       <c r="L85" t="s">
         <v>164</v>
       </c>
@@ -3565,15 +3638,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="86" spans="8:13">
-      <c r="H86" s="19"/>
+    <row r="86" spans="5:13">
+      <c r="H86" s="18"/>
       <c r="I86" s="13" t="s">
         <v>224</v>
       </c>
       <c r="J86" s="11">
         <v>24</v>
       </c>
-      <c r="K86" s="16"/>
+      <c r="K86" s="18"/>
       <c r="L86" t="s">
         <v>165</v>
       </c>
@@ -3581,15 +3654,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="8:13">
-      <c r="H87" s="19"/>
+    <row r="87" spans="5:13">
+      <c r="H87" s="18"/>
       <c r="I87" s="13" t="s">
         <v>250</v>
       </c>
       <c r="J87" s="11">
         <v>64</v>
       </c>
-      <c r="K87" s="16"/>
+      <c r="K87" s="18"/>
       <c r="L87" t="s">
         <v>166</v>
       </c>
@@ -3597,15 +3670,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="8:13">
-      <c r="H88" s="19"/>
+    <row r="88" spans="5:13">
+      <c r="H88" s="18"/>
       <c r="I88" s="13" t="s">
         <v>251</v>
       </c>
       <c r="J88" s="11">
         <v>38</v>
       </c>
-      <c r="K88" s="16"/>
+      <c r="K88" s="18"/>
       <c r="L88" t="s">
         <v>167</v>
       </c>
@@ -3613,15 +3686,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="8:13">
-      <c r="H89" s="19"/>
+    <row r="89" spans="5:13">
+      <c r="H89" s="18"/>
       <c r="I89" s="13" t="s">
         <v>252</v>
       </c>
       <c r="J89" s="11">
         <v>42</v>
       </c>
-      <c r="K89" s="16"/>
+      <c r="K89" s="18"/>
       <c r="L89" t="s">
         <v>168</v>
       </c>
@@ -3629,15 +3702,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="8:13">
-      <c r="H90" s="19"/>
+    <row r="90" spans="5:13">
+      <c r="H90" s="18"/>
       <c r="I90" t="s">
         <v>196</v>
       </c>
       <c r="J90" s="11">
         <v>2</v>
       </c>
-      <c r="K90" s="16"/>
+      <c r="K90" s="18"/>
       <c r="L90" t="s">
         <v>169</v>
       </c>
@@ -3645,15 +3718,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="8:13">
-      <c r="H91" s="19"/>
+    <row r="91" spans="5:13">
+      <c r="H91" s="16">
+        <v>45916</v>
+      </c>
       <c r="I91" s="14" t="s">
         <v>268</v>
       </c>
       <c r="J91" s="15">
         <v>418</v>
       </c>
-      <c r="K91" s="16"/>
+      <c r="K91" s="18"/>
       <c r="L91" t="s">
         <v>170</v>
       </c>
@@ -3661,9 +3736,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="8:13">
-      <c r="J92" s="6"/>
-      <c r="K92" s="16"/>
+    <row r="92" spans="5:13">
+      <c r="H92" s="18">
+        <v>45917</v>
+      </c>
+      <c r="I92" t="s">
+        <v>130</v>
+      </c>
+      <c r="J92" s="25">
+        <v>3</v>
+      </c>
+      <c r="K92" s="18"/>
       <c r="L92" t="s">
         <v>171</v>
       </c>
@@ -3671,9 +3754,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="8:13">
-      <c r="J93" s="6"/>
-      <c r="K93" s="16"/>
+    <row r="93" spans="5:13">
+      <c r="H93" s="18"/>
+      <c r="I93" t="s">
+        <v>131</v>
+      </c>
+      <c r="J93" s="25">
+        <v>8</v>
+      </c>
+      <c r="K93" s="18"/>
       <c r="L93" t="s">
         <v>172</v>
       </c>
@@ -3681,9 +3770,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="8:13">
-      <c r="J94" s="6"/>
-      <c r="K94" s="16"/>
+    <row r="94" spans="5:13">
+      <c r="H94" s="18"/>
+      <c r="I94" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="J94" s="25">
+        <v>1</v>
+      </c>
+      <c r="K94" s="18"/>
       <c r="L94" t="s">
         <v>173</v>
       </c>
@@ -3691,9 +3786,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="8:13">
-      <c r="J95" s="6"/>
-      <c r="K95" s="16"/>
+    <row r="95" spans="5:13">
+      <c r="H95" s="18"/>
+      <c r="I95" t="s">
+        <v>224</v>
+      </c>
+      <c r="J95" s="25">
+        <v>9</v>
+      </c>
+      <c r="K95" s="18"/>
       <c r="L95" t="s">
         <v>174</v>
       </c>
@@ -3701,8 +3802,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="8:13">
-      <c r="K96" s="16"/>
+    <row r="96" spans="5:13">
+      <c r="H96" s="18"/>
+      <c r="I96" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="J96" s="25">
+        <v>1</v>
+      </c>
+      <c r="K96" s="18"/>
       <c r="L96" t="s">
         <v>175</v>
       </c>
@@ -3710,8 +3818,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="11:13">
-      <c r="K97" s="16"/>
+    <row r="97" spans="8:13">
+      <c r="H97" s="18"/>
+      <c r="I97" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="J97" s="25">
+        <v>5</v>
+      </c>
+      <c r="K97" s="18"/>
       <c r="L97" t="s">
         <v>176</v>
       </c>
@@ -3719,8 +3834,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="11:13">
-      <c r="K98" s="16"/>
+    <row r="98" spans="8:13">
+      <c r="K98" s="18"/>
       <c r="L98" t="s">
         <v>177</v>
       </c>
@@ -3728,8 +3843,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="99" spans="11:13">
-      <c r="K99" s="16"/>
+    <row r="99" spans="8:13">
+      <c r="K99" s="18"/>
       <c r="L99" t="s">
         <v>178</v>
       </c>
@@ -3737,8 +3852,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="11:13">
-      <c r="K100" s="16"/>
+    <row r="100" spans="8:13">
+      <c r="K100" s="18"/>
       <c r="L100" t="s">
         <v>179</v>
       </c>
@@ -3746,8 +3861,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="11:13">
-      <c r="K101" s="16"/>
+    <row r="101" spans="8:13">
+      <c r="K101" s="18"/>
       <c r="L101" t="s">
         <v>180</v>
       </c>
@@ -3755,8 +3870,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="102" spans="11:13">
-      <c r="K102" s="16"/>
+    <row r="102" spans="8:13">
+      <c r="K102" s="18"/>
       <c r="L102" t="s">
         <v>181</v>
       </c>
@@ -3764,8 +3879,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="11:13">
-      <c r="K103" s="16"/>
+    <row r="103" spans="8:13">
+      <c r="K103" s="18"/>
       <c r="L103" s="13" t="s">
         <v>182</v>
       </c>
@@ -3773,8 +3888,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="104" spans="11:13">
-      <c r="K104" s="16"/>
+    <row r="104" spans="8:13">
+      <c r="K104" s="18"/>
       <c r="L104" t="s">
         <v>183</v>
       </c>
@@ -3782,8 +3897,8 @@
         <v>64</v>
       </c>
     </row>
-    <row r="105" spans="11:13">
-      <c r="K105" s="16"/>
+    <row r="105" spans="8:13">
+      <c r="K105" s="18"/>
       <c r="L105" t="s">
         <v>184</v>
       </c>
@@ -3791,8 +3906,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="106" spans="11:13">
-      <c r="K106" s="16"/>
+    <row r="106" spans="8:13">
+      <c r="K106" s="18"/>
       <c r="L106" t="s">
         <v>185</v>
       </c>
@@ -3800,8 +3915,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="107" spans="11:13">
-      <c r="K107" s="16"/>
+    <row r="107" spans="8:13">
+      <c r="K107" s="18"/>
       <c r="L107" t="s">
         <v>186</v>
       </c>
@@ -3809,8 +3924,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="108" spans="11:13">
-      <c r="K108" s="16"/>
+    <row r="108" spans="8:13">
+      <c r="K108" s="18"/>
       <c r="L108" t="s">
         <v>187</v>
       </c>
@@ -3818,8 +3933,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="109" spans="11:13">
-      <c r="K109" s="16"/>
+    <row r="109" spans="8:13">
+      <c r="K109" s="18"/>
       <c r="L109" t="s">
         <v>188</v>
       </c>
@@ -3827,8 +3942,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="110" spans="11:13">
-      <c r="K110" s="16"/>
+    <row r="110" spans="8:13">
+      <c r="K110" s="18"/>
       <c r="L110" t="s">
         <v>189</v>
       </c>
@@ -3836,8 +3951,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="111" spans="11:13">
-      <c r="K111" s="16"/>
+    <row r="111" spans="8:13">
+      <c r="K111" s="18"/>
       <c r="L111" t="s">
         <v>190</v>
       </c>
@@ -3845,8 +3960,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="112" spans="11:13">
-      <c r="K112" s="16"/>
+    <row r="112" spans="8:13">
+      <c r="K112" s="18"/>
       <c r="L112" t="s">
         <v>191</v>
       </c>
@@ -3855,7 +3970,7 @@
       </c>
     </row>
     <row r="113" spans="11:13">
-      <c r="K113" s="16"/>
+      <c r="K113" s="18"/>
       <c r="L113" t="s">
         <v>192</v>
       </c>
@@ -3864,7 +3979,7 @@
       </c>
     </row>
     <row r="114" spans="11:13">
-      <c r="K114" s="16"/>
+      <c r="K114" s="18"/>
       <c r="L114" t="s">
         <v>193</v>
       </c>
@@ -3873,7 +3988,7 @@
       </c>
     </row>
     <row r="115" spans="11:13">
-      <c r="K115" s="16"/>
+      <c r="K115" s="18"/>
       <c r="L115" t="s">
         <v>194</v>
       </c>
@@ -3882,7 +3997,7 @@
       </c>
     </row>
     <row r="116" spans="11:13">
-      <c r="K116" s="16"/>
+      <c r="K116" s="18"/>
       <c r="L116" t="s">
         <v>195</v>
       </c>
@@ -3891,7 +4006,7 @@
       </c>
     </row>
     <row r="117" spans="11:13">
-      <c r="K117" s="16"/>
+      <c r="K117" s="18"/>
       <c r="L117" t="s">
         <v>196</v>
       </c>
@@ -3900,7 +4015,7 @@
       </c>
     </row>
     <row r="118" spans="11:13">
-      <c r="K118" s="16"/>
+      <c r="K118" s="18"/>
       <c r="L118" t="s">
         <v>197</v>
       </c>
@@ -3909,7 +4024,7 @@
       </c>
     </row>
     <row r="119" spans="11:13">
-      <c r="K119" s="16"/>
+      <c r="K119" s="18"/>
       <c r="L119" t="s">
         <v>198</v>
       </c>
@@ -3918,7 +4033,7 @@
       </c>
     </row>
     <row r="120" spans="11:13">
-      <c r="K120" s="16"/>
+      <c r="K120" s="18"/>
       <c r="L120" t="s">
         <v>199</v>
       </c>
@@ -3927,7 +4042,7 @@
       </c>
     </row>
     <row r="121" spans="11:13">
-      <c r="K121" s="16"/>
+      <c r="K121" s="18"/>
       <c r="L121" t="s">
         <v>200</v>
       </c>
@@ -3936,7 +4051,7 @@
       </c>
     </row>
     <row r="122" spans="11:13">
-      <c r="K122" s="16"/>
+      <c r="K122" s="18"/>
       <c r="L122" s="13" t="s">
         <v>201</v>
       </c>
@@ -3945,7 +4060,7 @@
       </c>
     </row>
     <row r="123" spans="11:13">
-      <c r="K123" s="16"/>
+      <c r="K123" s="18"/>
       <c r="L123" t="s">
         <v>202</v>
       </c>
@@ -3954,7 +4069,7 @@
       </c>
     </row>
     <row r="124" spans="11:13">
-      <c r="K124" s="16"/>
+      <c r="K124" s="18"/>
       <c r="L124" t="s">
         <v>203</v>
       </c>
@@ -3963,7 +4078,7 @@
       </c>
     </row>
     <row r="125" spans="11:13">
-      <c r="K125" s="16"/>
+      <c r="K125" s="18"/>
       <c r="L125" t="s">
         <v>204</v>
       </c>
@@ -3972,7 +4087,7 @@
       </c>
     </row>
     <row r="126" spans="11:13">
-      <c r="K126" s="16"/>
+      <c r="K126" s="18"/>
       <c r="L126" t="s">
         <v>205</v>
       </c>
@@ -3981,7 +4096,7 @@
       </c>
     </row>
     <row r="127" spans="11:13">
-      <c r="K127" s="16"/>
+      <c r="K127" s="18"/>
       <c r="L127" t="s">
         <v>206</v>
       </c>
@@ -3990,7 +4105,7 @@
       </c>
     </row>
     <row r="128" spans="11:13">
-      <c r="K128" s="16"/>
+      <c r="K128" s="18"/>
       <c r="L128" t="s">
         <v>207</v>
       </c>
@@ -3999,7 +4114,7 @@
       </c>
     </row>
     <row r="129" spans="11:13">
-      <c r="K129" s="16"/>
+      <c r="K129" s="18"/>
       <c r="L129" t="s">
         <v>208</v>
       </c>
@@ -4008,7 +4123,7 @@
       </c>
     </row>
     <row r="130" spans="11:13">
-      <c r="K130" s="16"/>
+      <c r="K130" s="18"/>
       <c r="L130" t="s">
         <v>209</v>
       </c>
@@ -4017,7 +4132,7 @@
       </c>
     </row>
     <row r="131" spans="11:13">
-      <c r="K131" s="16"/>
+      <c r="K131" s="18"/>
       <c r="L131" t="s">
         <v>210</v>
       </c>
@@ -4026,7 +4141,7 @@
       </c>
     </row>
     <row r="132" spans="11:13">
-      <c r="K132" s="16"/>
+      <c r="K132" s="18"/>
       <c r="L132" t="s">
         <v>211</v>
       </c>
@@ -4035,7 +4150,7 @@
       </c>
     </row>
     <row r="133" spans="11:13">
-      <c r="K133" s="16"/>
+      <c r="K133" s="18"/>
       <c r="L133" t="s">
         <v>212</v>
       </c>
@@ -4044,7 +4159,7 @@
       </c>
     </row>
     <row r="134" spans="11:13">
-      <c r="K134" s="16"/>
+      <c r="K134" s="18"/>
       <c r="L134" t="s">
         <v>213</v>
       </c>
@@ -4053,7 +4168,7 @@
       </c>
     </row>
     <row r="135" spans="11:13">
-      <c r="K135" s="16"/>
+      <c r="K135" s="18"/>
       <c r="L135" t="s">
         <v>214</v>
       </c>
@@ -4062,7 +4177,7 @@
       </c>
     </row>
     <row r="136" spans="11:13">
-      <c r="K136" s="16"/>
+      <c r="K136" s="18"/>
       <c r="L136" t="s">
         <v>215</v>
       </c>
@@ -4071,7 +4186,7 @@
       </c>
     </row>
     <row r="137" spans="11:13">
-      <c r="K137" s="16"/>
+      <c r="K137" s="18"/>
       <c r="L137" t="s">
         <v>216</v>
       </c>
@@ -4080,7 +4195,7 @@
       </c>
     </row>
     <row r="138" spans="11:13">
-      <c r="K138" s="16"/>
+      <c r="K138" s="18"/>
       <c r="L138" t="s">
         <v>217</v>
       </c>
@@ -4089,7 +4204,7 @@
       </c>
     </row>
     <row r="139" spans="11:13">
-      <c r="K139" s="16"/>
+      <c r="K139" s="18"/>
       <c r="L139" t="s">
         <v>218</v>
       </c>
@@ -4098,7 +4213,7 @@
       </c>
     </row>
     <row r="140" spans="11:13">
-      <c r="K140" s="16"/>
+      <c r="K140" s="18"/>
       <c r="L140" t="s">
         <v>219</v>
       </c>
@@ -4107,7 +4222,7 @@
       </c>
     </row>
     <row r="141" spans="11:13">
-      <c r="K141" s="16"/>
+      <c r="K141" s="18"/>
       <c r="L141" t="s">
         <v>220</v>
       </c>
@@ -4116,7 +4231,7 @@
       </c>
     </row>
     <row r="142" spans="11:13">
-      <c r="K142" s="16"/>
+      <c r="K142" s="18"/>
       <c r="L142" t="s">
         <v>221</v>
       </c>
@@ -4125,7 +4240,7 @@
       </c>
     </row>
     <row r="143" spans="11:13">
-      <c r="K143" s="16"/>
+      <c r="K143" s="18"/>
       <c r="L143" t="s">
         <v>222</v>
       </c>
@@ -4134,7 +4249,7 @@
       </c>
     </row>
     <row r="144" spans="11:13">
-      <c r="K144" s="16"/>
+      <c r="K144" s="18"/>
       <c r="L144" t="s">
         <v>223</v>
       </c>
@@ -4143,7 +4258,7 @@
       </c>
     </row>
     <row r="145" spans="11:13">
-      <c r="K145" s="16"/>
+      <c r="K145" s="18"/>
       <c r="L145" t="s">
         <v>224</v>
       </c>
@@ -4152,7 +4267,7 @@
       </c>
     </row>
     <row r="146" spans="11:13">
-      <c r="K146" s="16"/>
+      <c r="K146" s="18"/>
       <c r="L146" s="13" t="s">
         <v>225</v>
       </c>
@@ -4161,7 +4276,7 @@
       </c>
     </row>
     <row r="147" spans="11:13">
-      <c r="K147" s="16"/>
+      <c r="K147" s="18"/>
       <c r="L147" t="s">
         <v>226</v>
       </c>
@@ -4170,7 +4285,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="16">
+    <mergeCell ref="E30:E47"/>
+    <mergeCell ref="H41:H90"/>
+    <mergeCell ref="H92:H97"/>
     <mergeCell ref="K8:K44"/>
     <mergeCell ref="K45:K147"/>
     <mergeCell ref="B5:D5"/>
@@ -4184,7 +4302,6 @@
     <mergeCell ref="E21:E29"/>
     <mergeCell ref="B35:B48"/>
     <mergeCell ref="H36:H40"/>
-    <mergeCell ref="H41:H91"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Raport.xlsx
+++ b/Raport.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dominik\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Pobrane\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B7B26C8-1C79-499B-8D43-49723C1FC1DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8EE78C1-4213-492E-8662-3DA15E4C07F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="287">
   <si>
     <t>Liczba członków zespołu</t>
   </si>
@@ -889,6 +889,9 @@
   </si>
   <si>
     <t>Tokyo-Garden-Restaurant\zrobione na nowo\tokyo-garden-frontend\src\app\user\login\login.component.css</t>
+  </si>
+  <si>
+    <t>ocena za projekt</t>
   </si>
 </sst>
 </file>
@@ -1030,7 +1033,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1083,6 +1086,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1096,15 +1102,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1595,10 +1592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M147"/>
+  <dimension ref="A1:M149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -1628,2680 +1625,2674 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="61.5">
-      <c r="A3" t="s">
+    <row r="3" spans="1:13" ht="23.25">
+      <c r="A3" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B3" s="2">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="61.5">
+      <c r="A4" t="s">
         <v>1</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="D3">
-        <f>SUM(D7:D1001)</f>
-        <v>2254</v>
-      </c>
-      <c r="G3">
-        <f>SUM(G7:G1001)</f>
-        <v>2217</v>
-      </c>
-      <c r="J3">
-        <f>SUM(J7:J1001)</f>
-        <v>2237</v>
-      </c>
-      <c r="M3">
-        <f>SUM(M7:M1001)</f>
-        <v>3142</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="24.95" customHeight="1">
-      <c r="A4" t="s">
-        <v>2</v>
       </c>
       <c r="B4" s="1"/>
       <c r="D4">
-        <f>($B$2*D$3)/SUM($D$3:$AK$3)</f>
+        <f>SUM(D9:D1003)</f>
+        <v>2254</v>
+      </c>
+      <c r="G4">
+        <f>SUM(G9:G1003)</f>
+        <v>2217</v>
+      </c>
+      <c r="J4">
+        <f>SUM(J9:J1003)</f>
+        <v>2237</v>
+      </c>
+      <c r="M4">
+        <f>SUM(M9:M1003)</f>
+        <v>3142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="61.5">
+      <c r="B5" s="1"/>
+      <c r="D5">
+        <f>$B$3*D6</f>
+        <v>3.2036548223350252</v>
+      </c>
+      <c r="G5">
+        <f>$B$3*G6</f>
+        <v>3.1510659898477158</v>
+      </c>
+      <c r="J5">
+        <f>$B$3*J6</f>
+        <v>3.1794923857868018</v>
+      </c>
+      <c r="M5">
+        <f>$B$3*M6</f>
+        <v>4.4657868020304567</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="24.95" customHeight="1">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="D6">
+        <f>($B$2*D$4)/SUM($D$4:$AK$4)</f>
         <v>0.91532994923857869</v>
       </c>
-      <c r="G4">
-        <f>($B$2*G$3)/SUM($D$3:$AK$3)</f>
+      <c r="G6">
+        <f>($B$2*G$4)/SUM($D$4:$AK$4)</f>
         <v>0.90030456852791874</v>
       </c>
-      <c r="J4">
-        <f>($B$2*J$3)/SUM($D$3:$AK$3)</f>
+      <c r="J6">
+        <f>($B$2*J$4)/SUM($D$4:$AK$4)</f>
         <v>0.90842639593908625</v>
       </c>
-      <c r="M4">
-        <f>($B$2*M$3)/SUM($D$3:$AK$3)</f>
+      <c r="M6">
+        <f>($B$2*M$4)/SUM($D$4:$AK$4)</f>
         <v>1.2759390862944162</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
-      <c r="B5" s="19" t="s">
+    <row r="7" spans="1:13">
+      <c r="B7" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="20" t="s">
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20" t="s">
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20" t="s">
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="B6" t="s">
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="B8" t="s">
         <v>3</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C8" t="s">
         <v>4</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D8" t="s">
         <v>5</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E8" t="s">
         <v>3</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F8" t="s">
         <v>4</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G8" t="s">
         <v>5</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H8" t="s">
         <v>3</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I8" t="s">
         <v>4</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J8" t="s">
         <v>5</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K8" t="s">
         <v>3</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L8" t="s">
         <v>4</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
-      <c r="B7" s="3">
+    <row r="9" spans="1:13">
+      <c r="B9" s="3">
         <v>45754</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C9" t="s">
         <v>11</v>
       </c>
-      <c r="D7">
+      <c r="D9">
         <v>25</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E9" t="s">
         <v>6</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G7">
+      <c r="G9">
         <v>25</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H9" t="s">
         <v>6</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I9" t="s">
         <v>11</v>
       </c>
-      <c r="J7">
+      <c r="J9">
         <v>25</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K9" t="s">
         <v>6</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L9" t="s">
         <v>11</v>
       </c>
-      <c r="M7">
+      <c r="M9">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
-      <c r="B8" s="3">
+    <row r="10" spans="1:13">
+      <c r="B10" s="3">
         <v>45754</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C10" t="s">
         <v>12</v>
       </c>
-      <c r="D8">
+      <c r="D10">
         <v>100</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E10" t="s">
         <v>6</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F10" t="s">
         <v>13</v>
       </c>
-      <c r="G8">
+      <c r="G10">
         <v>100</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H10" s="4">
         <v>45754</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I10" t="s">
         <v>14</v>
       </c>
-      <c r="J8">
+      <c r="J10">
         <v>100</v>
       </c>
-      <c r="K8" s="18">
+      <c r="K10" s="19">
         <v>45772</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L10" t="s">
         <v>16</v>
       </c>
-      <c r="M8">
+      <c r="M10">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
-      <c r="B9" s="18">
+    <row r="11" spans="1:13">
+      <c r="B11" s="19">
         <v>45785</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C11" t="s">
         <v>63</v>
       </c>
-      <c r="D9">
+      <c r="D11">
         <v>37</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E11" s="3">
         <v>45785</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F11" t="s">
         <v>53</v>
       </c>
-      <c r="G9">
+      <c r="G11">
         <v>13</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H11" s="3">
         <v>45770</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I11" t="s">
         <v>15</v>
       </c>
-      <c r="J9">
+      <c r="J11">
         <v>118</v>
       </c>
-      <c r="K9" s="18"/>
-      <c r="L9" s="5" t="s">
+      <c r="K11" s="19"/>
+      <c r="L11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="M9">
+      <c r="M11">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
-      <c r="B10" s="18"/>
-      <c r="C10" t="s">
+    <row r="12" spans="1:13">
+      <c r="B12" s="19"/>
+      <c r="C12" t="s">
         <v>64</v>
       </c>
-      <c r="D10">
+      <c r="D12">
         <v>41</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F12" t="s">
         <v>54</v>
       </c>
-      <c r="G10">
+      <c r="G12">
         <v>57</v>
       </c>
-      <c r="H10" s="18">
+      <c r="H12" s="19">
         <v>45803</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I12" t="s">
         <v>73</v>
       </c>
-      <c r="J10">
+      <c r="J12">
         <v>70</v>
       </c>
-      <c r="K10" s="18"/>
-      <c r="L10" t="s">
+      <c r="K12" s="19"/>
+      <c r="L12" t="s">
         <v>18</v>
-      </c>
-      <c r="M10">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="B11" s="18"/>
-      <c r="C11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D11">
-        <v>43</v>
-      </c>
-      <c r="F11" t="s">
-        <v>55</v>
-      </c>
-      <c r="G11">
-        <v>59</v>
-      </c>
-      <c r="H11" s="18"/>
-      <c r="I11" t="s">
-        <v>75</v>
-      </c>
-      <c r="J11">
-        <v>23</v>
-      </c>
-      <c r="K11" s="18"/>
-      <c r="L11" t="s">
-        <v>19</v>
-      </c>
-      <c r="M11">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="B12" s="18"/>
-      <c r="C12" t="s">
-        <v>66</v>
-      </c>
-      <c r="D12">
-        <v>44</v>
-      </c>
-      <c r="F12" t="s">
-        <v>56</v>
-      </c>
-      <c r="G12">
-        <v>58</v>
-      </c>
-      <c r="H12" s="18"/>
-      <c r="I12" t="s">
-        <v>77</v>
-      </c>
-      <c r="J12">
-        <v>23</v>
-      </c>
-      <c r="K12" s="18"/>
-      <c r="L12" t="s">
-        <v>20</v>
       </c>
       <c r="M12">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="B13" s="18"/>
+      <c r="B13" s="19"/>
       <c r="C13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D13">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G13">
-        <v>57</v>
-      </c>
-      <c r="H13" s="18"/>
+        <v>59</v>
+      </c>
+      <c r="H13" s="19"/>
       <c r="I13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J13">
-        <v>27</v>
-      </c>
-      <c r="K13" s="18"/>
-      <c r="L13" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="K13" s="19"/>
+      <c r="L13" t="s">
+        <v>19</v>
       </c>
       <c r="M13">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="B14" s="18"/>
+      <c r="B14" s="19"/>
       <c r="C14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D14">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14">
         <v>58</v>
       </c>
-      <c r="G14">
-        <v>61</v>
-      </c>
-      <c r="H14" s="18"/>
+      <c r="H14" s="19"/>
       <c r="I14" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="J14">
-        <v>24</v>
-      </c>
-      <c r="K14" s="18"/>
+        <v>23</v>
+      </c>
+      <c r="K14" s="19"/>
       <c r="L14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M14">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="B15" s="18"/>
+      <c r="B15" s="19"/>
       <c r="C15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D15">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="F15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G15">
-        <v>60</v>
-      </c>
-      <c r="H15" s="18"/>
+        <v>57</v>
+      </c>
+      <c r="H15" s="19"/>
       <c r="I15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J15">
         <v>27</v>
       </c>
-      <c r="K15" s="18"/>
+      <c r="K15" s="19"/>
       <c r="L15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="B16" s="19"/>
+      <c r="C16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16">
+        <v>22</v>
+      </c>
+      <c r="F16" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16">
+        <v>61</v>
+      </c>
+      <c r="H16" s="19"/>
+      <c r="I16" t="s">
+        <v>74</v>
+      </c>
+      <c r="J16">
+        <v>24</v>
+      </c>
+      <c r="K16" s="19"/>
+      <c r="L16" t="s">
+        <v>22</v>
+      </c>
+      <c r="M16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13">
+      <c r="B17" s="19"/>
+      <c r="C17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17">
         <v>23</v>
       </c>
-      <c r="M15">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="B16" s="18"/>
-      <c r="C16" t="s">
-        <v>70</v>
-      </c>
-      <c r="D16">
-        <v>26</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="F17" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17">
         <v>60</v>
       </c>
-      <c r="G16">
-        <v>16</v>
-      </c>
-      <c r="H16" s="18"/>
-      <c r="I16" t="s">
-        <v>79</v>
-      </c>
-      <c r="J16">
-        <v>27</v>
-      </c>
-      <c r="K16" s="18"/>
-      <c r="L16" t="s">
-        <v>24</v>
-      </c>
-      <c r="M16">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13">
-      <c r="B17" s="18"/>
-      <c r="C17" t="s">
-        <v>71</v>
-      </c>
-      <c r="D17">
-        <v>30</v>
-      </c>
-      <c r="F17" t="s">
-        <v>61</v>
-      </c>
-      <c r="G17">
-        <v>59</v>
-      </c>
-      <c r="H17" s="18"/>
+      <c r="H17" s="19"/>
       <c r="I17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J17">
         <v>27</v>
       </c>
-      <c r="K17" s="18"/>
-      <c r="L17" t="s">
-        <v>25</v>
+      <c r="K17" s="19"/>
+      <c r="L17" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="M17">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="2:13">
-      <c r="B18" s="18">
-        <v>45803</v>
-      </c>
+      <c r="B18" s="19"/>
       <c r="C18" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="D18">
         <v>26</v>
       </c>
       <c r="F18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G18">
-        <v>64</v>
-      </c>
-      <c r="H18" s="18"/>
+        <v>16</v>
+      </c>
+      <c r="H18" s="19"/>
       <c r="I18" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J18">
         <v>27</v>
       </c>
-      <c r="K18" s="18"/>
+      <c r="K18" s="19"/>
       <c r="L18" t="s">
+        <v>24</v>
+      </c>
+      <c r="M18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13">
+      <c r="B19" s="19"/>
+      <c r="C19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19">
+        <v>30</v>
+      </c>
+      <c r="F19" t="s">
+        <v>61</v>
+      </c>
+      <c r="G19">
+        <v>59</v>
+      </c>
+      <c r="H19" s="19"/>
+      <c r="I19" t="s">
+        <v>80</v>
+      </c>
+      <c r="J19">
+        <v>27</v>
+      </c>
+      <c r="K19" s="19"/>
+      <c r="L19" t="s">
+        <v>25</v>
+      </c>
+      <c r="M19">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13">
+      <c r="B20" s="19">
+        <v>45803</v>
+      </c>
+      <c r="C20" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20">
         <v>26</v>
       </c>
-      <c r="M18">
+      <c r="F20" t="s">
+        <v>62</v>
+      </c>
+      <c r="G20">
+        <v>64</v>
+      </c>
+      <c r="H20" s="19"/>
+      <c r="I20" t="s">
+        <v>81</v>
+      </c>
+      <c r="J20">
+        <v>27</v>
+      </c>
+      <c r="K20" s="19"/>
+      <c r="L20" t="s">
+        <v>26</v>
+      </c>
+      <c r="M20">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="2:13">
-      <c r="B19" s="18"/>
-      <c r="C19" t="s">
+    <row r="21" spans="2:13">
+      <c r="B21" s="19"/>
+      <c r="C21" t="s">
         <v>85</v>
       </c>
-      <c r="D19">
+      <c r="D21">
         <v>144</v>
       </c>
-      <c r="H19" s="18"/>
-      <c r="I19" t="s">
+      <c r="H21" s="19"/>
+      <c r="I21" t="s">
         <v>82</v>
       </c>
-      <c r="J19">
+      <c r="J21">
         <v>28</v>
       </c>
-      <c r="K19" s="18"/>
-      <c r="L19" t="s">
+      <c r="K21" s="19"/>
+      <c r="L21" t="s">
         <v>27</v>
       </c>
-      <c r="M19">
+      <c r="M21">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="2:13">
-      <c r="B20" s="18"/>
-      <c r="C20" t="s">
+    <row r="22" spans="2:13">
+      <c r="B22" s="19"/>
+      <c r="C22" t="s">
         <v>86</v>
       </c>
-      <c r="D20">
+      <c r="D22">
         <v>164</v>
       </c>
-      <c r="H20" s="18"/>
-      <c r="I20" t="s">
+      <c r="H22" s="19"/>
+      <c r="I22" t="s">
         <v>83</v>
       </c>
-      <c r="J20">
+      <c r="J22">
         <v>34</v>
       </c>
-      <c r="K20" s="18"/>
-      <c r="L20" t="s">
+      <c r="K22" s="19"/>
+      <c r="L22" t="s">
         <v>28</v>
-      </c>
-      <c r="M20">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13">
-      <c r="B21" s="18"/>
-      <c r="C21" t="s">
-        <v>87</v>
-      </c>
-      <c r="D21">
-        <v>58</v>
-      </c>
-      <c r="E21" s="18">
-        <v>45804</v>
-      </c>
-      <c r="F21" t="s">
-        <v>101</v>
-      </c>
-      <c r="G21">
-        <v>81</v>
-      </c>
-      <c r="H21" s="18">
-        <v>45817</v>
-      </c>
-      <c r="I21" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="J21" s="6">
-        <v>3</v>
-      </c>
-      <c r="K21" s="18"/>
-      <c r="L21" t="s">
-        <v>29</v>
-      </c>
-      <c r="M21">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13">
-      <c r="B22" s="18"/>
-      <c r="C22" t="s">
-        <v>88</v>
-      </c>
-      <c r="D22">
-        <v>92</v>
-      </c>
-      <c r="E22" s="20"/>
-      <c r="F22" t="s">
-        <v>102</v>
-      </c>
-      <c r="G22">
-        <v>69</v>
-      </c>
-      <c r="H22" s="18"/>
-      <c r="I22" t="s">
-        <v>111</v>
-      </c>
-      <c r="J22" s="6">
-        <v>6</v>
-      </c>
-      <c r="K22" s="18"/>
-      <c r="L22" t="s">
-        <v>30</v>
       </c>
       <c r="M22">
         <v>24</v>
       </c>
     </row>
     <row r="23" spans="2:13">
-      <c r="B23" s="18"/>
+      <c r="B23" s="19"/>
       <c r="C23" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D23">
-        <v>64</v>
-      </c>
-      <c r="E23" s="20"/>
+        <v>58</v>
+      </c>
+      <c r="E23" s="19">
+        <v>45804</v>
+      </c>
       <c r="F23" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G23">
-        <v>75</v>
-      </c>
-      <c r="H23" s="18"/>
-      <c r="I23" t="s">
-        <v>112</v>
+        <v>81</v>
+      </c>
+      <c r="H23" s="19">
+        <v>45817</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>110</v>
       </c>
       <c r="J23" s="6">
         <v>3</v>
       </c>
-      <c r="K23" s="18"/>
+      <c r="K23" s="19"/>
       <c r="L23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M23">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="2:13">
-      <c r="B24" s="18"/>
+      <c r="B24" s="19"/>
       <c r="C24" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D24">
-        <v>20</v>
-      </c>
-      <c r="E24" s="20"/>
+        <v>92</v>
+      </c>
+      <c r="E24" s="21"/>
       <c r="F24" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G24">
-        <v>126</v>
-      </c>
-      <c r="H24" s="18"/>
+        <v>69</v>
+      </c>
+      <c r="H24" s="19"/>
       <c r="I24" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J24" s="6">
         <v>6</v>
       </c>
-      <c r="K24" s="18"/>
+      <c r="K24" s="19"/>
       <c r="L24" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13">
+      <c r="B25" s="19"/>
+      <c r="C25" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25">
+        <v>64</v>
+      </c>
+      <c r="E25" s="21"/>
+      <c r="F25" t="s">
+        <v>103</v>
+      </c>
+      <c r="G25">
+        <v>75</v>
+      </c>
+      <c r="H25" s="19"/>
+      <c r="I25" t="s">
+        <v>112</v>
+      </c>
+      <c r="J25" s="6">
+        <v>3</v>
+      </c>
+      <c r="K25" s="19"/>
+      <c r="L25" t="s">
+        <v>31</v>
+      </c>
+      <c r="M25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13">
+      <c r="B26" s="19"/>
+      <c r="C26" t="s">
+        <v>90</v>
+      </c>
+      <c r="D26">
+        <v>20</v>
+      </c>
+      <c r="E26" s="21"/>
+      <c r="F26" t="s">
+        <v>104</v>
+      </c>
+      <c r="G26">
+        <v>126</v>
+      </c>
+      <c r="H26" s="19"/>
+      <c r="I26" t="s">
+        <v>113</v>
+      </c>
+      <c r="J26" s="6">
+        <v>6</v>
+      </c>
+      <c r="K26" s="19"/>
+      <c r="L26" t="s">
         <v>32</v>
       </c>
-      <c r="M24">
+      <c r="M26">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="2:13">
-      <c r="B25" s="18"/>
-      <c r="C25" t="s">
+    <row r="27" spans="2:13">
+      <c r="B27" s="19"/>
+      <c r="C27" t="s">
         <v>91</v>
       </c>
-      <c r="D25">
+      <c r="D27">
         <v>57</v>
       </c>
-      <c r="E25" s="20"/>
-      <c r="F25" t="s">
+      <c r="E27" s="21"/>
+      <c r="F27" t="s">
         <v>105</v>
       </c>
-      <c r="G25">
+      <c r="G27">
         <v>65</v>
       </c>
-      <c r="H25" s="18"/>
-      <c r="I25" t="s">
+      <c r="H27" s="19"/>
+      <c r="I27" t="s">
         <v>114</v>
       </c>
-      <c r="J25" s="6">
+      <c r="J27" s="6">
         <v>4</v>
       </c>
-      <c r="K25" s="18"/>
-      <c r="L25" t="s">
+      <c r="K27" s="19"/>
+      <c r="L27" t="s">
         <v>33</v>
       </c>
-      <c r="M25">
+      <c r="M27">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="2:13">
-      <c r="B26" s="18"/>
-      <c r="C26" t="s">
+    <row r="28" spans="2:13">
+      <c r="B28" s="19"/>
+      <c r="C28" t="s">
         <v>92</v>
       </c>
-      <c r="D26">
+      <c r="D28">
         <v>28</v>
       </c>
-      <c r="E26" s="20"/>
-      <c r="F26" t="s">
+      <c r="E28" s="21"/>
+      <c r="F28" t="s">
         <v>106</v>
       </c>
-      <c r="G26">
+      <c r="G28">
         <v>82</v>
       </c>
-      <c r="H26" s="18"/>
-      <c r="I26" s="10" t="s">
+      <c r="H28" s="19"/>
+      <c r="I28" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="J26" s="6">
+      <c r="J28" s="6">
         <v>2</v>
       </c>
-      <c r="K26" s="18"/>
-      <c r="L26" t="s">
+      <c r="K28" s="19"/>
+      <c r="L28" t="s">
         <v>34</v>
-      </c>
-      <c r="M26">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13">
-      <c r="B27" s="18"/>
-      <c r="C27" t="s">
-        <v>93</v>
-      </c>
-      <c r="D27">
-        <v>26</v>
-      </c>
-      <c r="E27" s="20"/>
-      <c r="F27" t="s">
-        <v>107</v>
-      </c>
-      <c r="G27">
-        <v>75</v>
-      </c>
-      <c r="H27" s="18"/>
-      <c r="I27" t="s">
-        <v>116</v>
-      </c>
-      <c r="J27" s="6">
-        <v>8</v>
-      </c>
-      <c r="K27" s="18"/>
-      <c r="L27" t="s">
-        <v>35</v>
-      </c>
-      <c r="M27">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13">
-      <c r="B28" s="18"/>
-      <c r="C28" t="s">
-        <v>94</v>
-      </c>
-      <c r="D28">
-        <v>16</v>
-      </c>
-      <c r="E28" s="20"/>
-      <c r="F28" t="s">
-        <v>108</v>
-      </c>
-      <c r="G28">
-        <v>266</v>
-      </c>
-      <c r="H28" s="18"/>
-      <c r="I28" t="s">
-        <v>117</v>
-      </c>
-      <c r="J28" s="6">
-        <v>3</v>
-      </c>
-      <c r="K28" s="18"/>
-      <c r="L28" t="s">
-        <v>36</v>
       </c>
       <c r="M28">
         <v>6</v>
       </c>
     </row>
     <row r="29" spans="2:13">
-      <c r="B29" s="18"/>
+      <c r="B29" s="19"/>
       <c r="C29" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D29">
-        <v>18</v>
-      </c>
-      <c r="E29" s="20"/>
+        <v>26</v>
+      </c>
+      <c r="E29" s="21"/>
       <c r="F29" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G29">
-        <v>71</v>
-      </c>
-      <c r="H29" s="18"/>
+        <v>75</v>
+      </c>
+      <c r="H29" s="19"/>
       <c r="I29" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J29" s="6">
-        <v>12</v>
-      </c>
-      <c r="K29" s="18"/>
+        <v>8</v>
+      </c>
+      <c r="K29" s="19"/>
       <c r="L29" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M29">
         <v>6</v>
       </c>
     </row>
     <row r="30" spans="2:13">
-      <c r="B30" s="18"/>
+      <c r="B30" s="19"/>
       <c r="C30" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D30">
-        <v>15</v>
-      </c>
-      <c r="E30" s="18">
-        <v>45917</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="E30" s="21"/>
       <c r="F30" t="s">
-        <v>269</v>
+        <v>108</v>
       </c>
       <c r="G30">
-        <v>300</v>
-      </c>
-      <c r="H30" s="18"/>
+        <v>266</v>
+      </c>
+      <c r="H30" s="19"/>
       <c r="I30" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J30" s="6">
         <v>3</v>
       </c>
-      <c r="K30" s="18"/>
+      <c r="K30" s="19"/>
       <c r="L30" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M30">
         <v>6</v>
       </c>
     </row>
     <row r="31" spans="2:13">
-      <c r="B31" s="18"/>
+      <c r="B31" s="19"/>
       <c r="C31" t="s">
+        <v>95</v>
+      </c>
+      <c r="D31">
+        <v>18</v>
+      </c>
+      <c r="E31" s="21"/>
+      <c r="F31" t="s">
+        <v>109</v>
+      </c>
+      <c r="G31">
+        <v>71</v>
+      </c>
+      <c r="H31" s="19"/>
+      <c r="I31" t="s">
+        <v>118</v>
+      </c>
+      <c r="J31" s="6">
+        <v>12</v>
+      </c>
+      <c r="K31" s="19"/>
+      <c r="L31" t="s">
+        <v>37</v>
+      </c>
+      <c r="M31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13">
+      <c r="B32" s="19"/>
+      <c r="C32" t="s">
+        <v>96</v>
+      </c>
+      <c r="D32">
+        <v>15</v>
+      </c>
+      <c r="E32" s="19">
+        <v>45917</v>
+      </c>
+      <c r="F32" t="s">
+        <v>269</v>
+      </c>
+      <c r="G32">
+        <v>300</v>
+      </c>
+      <c r="H32" s="19"/>
+      <c r="I32" t="s">
+        <v>119</v>
+      </c>
+      <c r="J32" s="6">
+        <v>3</v>
+      </c>
+      <c r="K32" s="19"/>
+      <c r="L32" t="s">
+        <v>38</v>
+      </c>
+      <c r="M32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13">
+      <c r="B33" s="19"/>
+      <c r="C33" t="s">
         <v>97</v>
       </c>
-      <c r="D31">
+      <c r="D33">
         <v>17</v>
       </c>
-      <c r="E31" s="18"/>
-      <c r="F31" t="s">
+      <c r="E33" s="19"/>
+      <c r="F33" t="s">
         <v>270</v>
       </c>
-      <c r="G31">
+      <c r="G33">
         <v>5</v>
       </c>
-      <c r="H31" s="18"/>
-      <c r="I31" t="s">
+      <c r="H33" s="19"/>
+      <c r="I33" t="s">
         <v>120</v>
       </c>
-      <c r="J31" s="6">
+      <c r="J33" s="6">
         <v>6</v>
       </c>
-      <c r="K31" s="18"/>
-      <c r="L31" t="s">
+      <c r="K33" s="19"/>
+      <c r="L33" t="s">
         <v>39</v>
       </c>
-      <c r="M31">
+      <c r="M33">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="2:13">
-      <c r="B32" s="18"/>
-      <c r="C32" t="s">
+    <row r="34" spans="2:13">
+      <c r="B34" s="19"/>
+      <c r="C34" t="s">
         <v>98</v>
       </c>
-      <c r="D32">
+      <c r="D34">
         <v>44</v>
       </c>
-      <c r="E32" s="18"/>
-      <c r="F32" t="s">
+      <c r="E34" s="19"/>
+      <c r="F34" t="s">
         <v>271</v>
       </c>
-      <c r="G32">
+      <c r="G34">
         <v>3</v>
       </c>
-      <c r="H32" s="18"/>
-      <c r="I32" t="s">
+      <c r="H34" s="19"/>
+      <c r="I34" t="s">
         <v>121</v>
       </c>
-      <c r="J32" s="6">
+      <c r="J34" s="6">
         <v>2</v>
       </c>
-      <c r="K32" s="18"/>
-      <c r="L32" s="5" t="s">
+      <c r="K34" s="19"/>
+      <c r="L34" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="M32">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13">
-      <c r="B33" s="18"/>
-      <c r="C33" t="s">
-        <v>99</v>
-      </c>
-      <c r="D33">
-        <v>43</v>
-      </c>
-      <c r="E33" s="18"/>
-      <c r="F33" t="s">
-        <v>272</v>
-      </c>
-      <c r="G33">
-        <v>2</v>
-      </c>
-      <c r="H33" s="18"/>
-      <c r="I33" t="s">
-        <v>122</v>
-      </c>
-      <c r="J33" s="6">
-        <v>4</v>
-      </c>
-      <c r="K33" s="18"/>
-      <c r="L33" t="s">
-        <v>41</v>
-      </c>
-      <c r="M33">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13">
-      <c r="B34" s="18"/>
-      <c r="C34" t="s">
-        <v>100</v>
-      </c>
-      <c r="D34">
-        <v>28</v>
-      </c>
-      <c r="E34" s="18"/>
-      <c r="F34" t="s">
-        <v>273</v>
-      </c>
-      <c r="G34">
-        <v>1</v>
-      </c>
-      <c r="H34" s="18"/>
-      <c r="I34" t="s">
-        <v>123</v>
-      </c>
-      <c r="J34" s="6">
-        <v>8</v>
-      </c>
-      <c r="K34" s="18"/>
-      <c r="L34" t="s">
-        <v>42</v>
       </c>
       <c r="M34">
         <v>11</v>
       </c>
     </row>
     <row r="35" spans="2:13">
-      <c r="B35" s="18">
-        <v>45907</v>
-      </c>
+      <c r="B35" s="19"/>
       <c r="C35" t="s">
-        <v>254</v>
+        <v>99</v>
       </c>
       <c r="D35">
-        <v>65</v>
-      </c>
-      <c r="E35" s="18"/>
+        <v>43</v>
+      </c>
+      <c r="E35" s="19"/>
       <c r="F35" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G35">
-        <v>7</v>
-      </c>
-      <c r="H35" s="3">
-        <v>45908</v>
-      </c>
-      <c r="I35" s="12" t="s">
-        <v>124</v>
+        <v>2</v>
+      </c>
+      <c r="H35" s="19"/>
+      <c r="I35" t="s">
+        <v>122</v>
       </c>
       <c r="J35" s="6">
-        <v>17</v>
-      </c>
-      <c r="K35" s="18"/>
+        <v>4</v>
+      </c>
+      <c r="K35" s="19"/>
       <c r="L35" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M35">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="2:13">
-      <c r="B36" s="20"/>
+      <c r="B36" s="19"/>
       <c r="C36" t="s">
-        <v>255</v>
+        <v>100</v>
       </c>
       <c r="D36">
-        <v>54</v>
-      </c>
-      <c r="E36" s="18"/>
-      <c r="F36" s="17" t="s">
-        <v>275</v>
+        <v>28</v>
+      </c>
+      <c r="E36" s="19"/>
+      <c r="F36" t="s">
+        <v>273</v>
       </c>
       <c r="G36">
-        <v>46</v>
-      </c>
-      <c r="H36" s="21">
-        <v>45916</v>
-      </c>
-      <c r="I36" s="7" t="s">
-        <v>125</v>
+        <v>1</v>
+      </c>
+      <c r="H36" s="19"/>
+      <c r="I36" t="s">
+        <v>123</v>
       </c>
       <c r="J36" s="6">
         <v>8</v>
       </c>
-      <c r="K36" s="18"/>
+      <c r="K36" s="19"/>
       <c r="L36" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M36">
         <v>11</v>
       </c>
     </row>
     <row r="37" spans="2:13">
-      <c r="B37" s="20"/>
+      <c r="B37" s="19">
+        <v>45907</v>
+      </c>
       <c r="C37" t="s">
+        <v>254</v>
+      </c>
+      <c r="D37">
+        <v>65</v>
+      </c>
+      <c r="E37" s="19"/>
+      <c r="F37" t="s">
+        <v>274</v>
+      </c>
+      <c r="G37">
+        <v>7</v>
+      </c>
+      <c r="H37" s="3">
+        <v>45908</v>
+      </c>
+      <c r="I37" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="J37" s="6">
+        <v>17</v>
+      </c>
+      <c r="K37" s="19"/>
+      <c r="L37" t="s">
+        <v>43</v>
+      </c>
+      <c r="M37">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13">
+      <c r="B38" s="21"/>
+      <c r="C38" t="s">
+        <v>255</v>
+      </c>
+      <c r="D38">
+        <v>54</v>
+      </c>
+      <c r="E38" s="19"/>
+      <c r="F38" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="G38">
+        <v>46</v>
+      </c>
+      <c r="H38" s="22">
+        <v>45916</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="J38" s="6">
+        <v>8</v>
+      </c>
+      <c r="K38" s="19"/>
+      <c r="L38" t="s">
+        <v>44</v>
+      </c>
+      <c r="M38">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13">
+      <c r="B39" s="21"/>
+      <c r="C39" t="s">
         <v>256</v>
       </c>
-      <c r="D37">
+      <c r="D39">
         <v>23</v>
       </c>
-      <c r="E37" s="18"/>
-      <c r="F37" s="17" t="s">
+      <c r="E39" s="19"/>
+      <c r="F39" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="G37">
+      <c r="G39">
         <v>16</v>
       </c>
-      <c r="H37" s="22"/>
-      <c r="I37" t="s">
+      <c r="H39" s="23"/>
+      <c r="I39" t="s">
         <v>127</v>
-      </c>
-      <c r="J37" s="6">
-        <v>9</v>
-      </c>
-      <c r="K37" s="18"/>
-      <c r="L37" t="s">
-        <v>45</v>
-      </c>
-      <c r="M37">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="2:13">
-      <c r="B38" s="20"/>
-      <c r="C38" t="s">
-        <v>257</v>
-      </c>
-      <c r="D38">
-        <v>60</v>
-      </c>
-      <c r="E38" s="18"/>
-      <c r="F38" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="G38">
-        <v>4</v>
-      </c>
-      <c r="H38" s="22"/>
-      <c r="I38" t="s">
-        <v>128</v>
-      </c>
-      <c r="J38" s="6">
-        <v>36</v>
-      </c>
-      <c r="K38" s="18"/>
-      <c r="L38" t="s">
-        <v>46</v>
-      </c>
-      <c r="M38">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13">
-      <c r="B39" s="20"/>
-      <c r="C39" t="s">
-        <v>258</v>
-      </c>
-      <c r="D39">
-        <v>55</v>
-      </c>
-      <c r="E39" s="18"/>
-      <c r="F39" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="G39">
-        <v>10</v>
-      </c>
-      <c r="H39" s="22"/>
-      <c r="I39" t="s">
-        <v>129</v>
       </c>
       <c r="J39" s="6">
         <v>9</v>
       </c>
-      <c r="K39" s="18"/>
+      <c r="K39" s="19"/>
       <c r="L39" t="s">
+        <v>45</v>
+      </c>
+      <c r="M39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13">
+      <c r="B40" s="21"/>
+      <c r="C40" t="s">
+        <v>257</v>
+      </c>
+      <c r="D40">
+        <v>60</v>
+      </c>
+      <c r="E40" s="19"/>
+      <c r="F40" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="G40">
+        <v>4</v>
+      </c>
+      <c r="H40" s="23"/>
+      <c r="I40" t="s">
+        <v>128</v>
+      </c>
+      <c r="J40" s="6">
+        <v>36</v>
+      </c>
+      <c r="K40" s="19"/>
+      <c r="L40" t="s">
+        <v>46</v>
+      </c>
+      <c r="M40">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13">
+      <c r="B41" s="21"/>
+      <c r="C41" t="s">
+        <v>258</v>
+      </c>
+      <c r="D41">
+        <v>55</v>
+      </c>
+      <c r="E41" s="19"/>
+      <c r="F41" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="G41">
+        <v>10</v>
+      </c>
+      <c r="H41" s="23"/>
+      <c r="I41" t="s">
+        <v>129</v>
+      </c>
+      <c r="J41" s="6">
+        <v>9</v>
+      </c>
+      <c r="K41" s="19"/>
+      <c r="L41" t="s">
         <v>47</v>
       </c>
-      <c r="M39">
+      <c r="M41">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:13">
-      <c r="B40" s="20"/>
-      <c r="C40" t="s">
+    <row r="42" spans="2:13">
+      <c r="B42" s="21"/>
+      <c r="C42" t="s">
         <v>259</v>
       </c>
-      <c r="D40">
+      <c r="D42">
         <v>87</v>
       </c>
-      <c r="E40" s="18"/>
-      <c r="F40" s="17" t="s">
+      <c r="E42" s="19"/>
+      <c r="F42" s="17" t="s">
         <v>279</v>
       </c>
-      <c r="G40">
+      <c r="G42">
         <v>7</v>
       </c>
-      <c r="H40" s="22"/>
-      <c r="I40" t="s">
+      <c r="H42" s="23"/>
+      <c r="I42" t="s">
         <v>130</v>
       </c>
-      <c r="J40" s="6">
+      <c r="J42" s="6">
         <v>37</v>
       </c>
-      <c r="K40" s="18"/>
-      <c r="L40" s="5" t="s">
+      <c r="K42" s="19"/>
+      <c r="L42" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="M40">
+      <c r="M42">
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="2:13">
-      <c r="B41" s="20"/>
-      <c r="C41" t="s">
+    <row r="43" spans="2:13">
+      <c r="B43" s="21"/>
+      <c r="C43" t="s">
         <v>260</v>
       </c>
-      <c r="D41">
+      <c r="D43">
         <v>23</v>
       </c>
-      <c r="E41" s="18"/>
-      <c r="F41" s="17" t="s">
-        <v>280</v>
-      </c>
-      <c r="G41">
-        <v>51</v>
-      </c>
-      <c r="H41" s="18">
-        <v>45906</v>
-      </c>
-      <c r="I41" t="s">
-        <v>131</v>
-      </c>
-      <c r="J41" s="6">
-        <v>67</v>
-      </c>
-      <c r="K41" s="18"/>
-      <c r="L41" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="M41">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13">
-      <c r="B42" s="20"/>
-      <c r="C42" t="s">
-        <v>261</v>
-      </c>
-      <c r="D42">
-        <v>55</v>
-      </c>
-      <c r="E42" s="18"/>
-      <c r="F42" s="17" t="s">
-        <v>281</v>
-      </c>
-      <c r="G42">
-        <v>5</v>
-      </c>
-      <c r="H42" s="18"/>
-      <c r="I42" t="s">
-        <v>134</v>
-      </c>
-      <c r="J42" s="6">
-        <v>1</v>
-      </c>
-      <c r="K42" s="18"/>
-      <c r="L42" t="s">
-        <v>50</v>
-      </c>
-      <c r="M42">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="43" spans="2:13">
-      <c r="B43" s="20"/>
-      <c r="C43" t="s">
-        <v>262</v>
-      </c>
-      <c r="D43">
-        <v>60</v>
-      </c>
-      <c r="E43" s="18"/>
+      <c r="E43" s="19"/>
       <c r="F43" s="17" t="s">
         <v>280</v>
       </c>
       <c r="G43">
+        <v>51</v>
+      </c>
+      <c r="H43" s="19">
+        <v>45906</v>
+      </c>
+      <c r="I43" t="s">
+        <v>131</v>
+      </c>
+      <c r="J43" s="6">
+        <v>67</v>
+      </c>
+      <c r="K43" s="19"/>
+      <c r="L43" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="M43">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13">
+      <c r="B44" s="21"/>
+      <c r="C44" t="s">
+        <v>261</v>
+      </c>
+      <c r="D44">
+        <v>55</v>
+      </c>
+      <c r="E44" s="19"/>
+      <c r="F44" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="G44">
+        <v>5</v>
+      </c>
+      <c r="H44" s="19"/>
+      <c r="I44" t="s">
+        <v>134</v>
+      </c>
+      <c r="J44" s="6">
+        <v>1</v>
+      </c>
+      <c r="K44" s="19"/>
+      <c r="L44" t="s">
+        <v>50</v>
+      </c>
+      <c r="M44">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13">
+      <c r="B45" s="21"/>
+      <c r="C45" t="s">
+        <v>262</v>
+      </c>
+      <c r="D45">
+        <v>60</v>
+      </c>
+      <c r="E45" s="19"/>
+      <c r="F45" s="17" t="s">
+        <v>280</v>
+      </c>
+      <c r="G45">
         <v>29</v>
       </c>
-      <c r="H43" s="18"/>
-      <c r="I43" t="s">
+      <c r="H45" s="19"/>
+      <c r="I45" t="s">
         <v>139</v>
       </c>
-      <c r="J43" s="6">
+      <c r="J45" s="6">
         <v>9</v>
       </c>
-      <c r="K43" s="18"/>
-      <c r="L43" t="s">
+      <c r="K45" s="19"/>
+      <c r="L45" t="s">
         <v>51</v>
       </c>
-      <c r="M43">
+      <c r="M45">
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="2:13">
-      <c r="B44" s="20"/>
-      <c r="C44" t="s">
+    <row r="46" spans="2:13">
+      <c r="B46" s="21"/>
+      <c r="C46" t="s">
         <v>263</v>
       </c>
-      <c r="D44">
+      <c r="D46">
         <v>57</v>
       </c>
-      <c r="E44" s="18"/>
-      <c r="F44" s="17" t="s">
+      <c r="E46" s="19"/>
+      <c r="F46" s="17" t="s">
         <v>282</v>
       </c>
-      <c r="G44">
+      <c r="G46">
         <v>29</v>
       </c>
-      <c r="H44" s="18"/>
-      <c r="I44" t="s">
+      <c r="H46" s="19"/>
+      <c r="I46" t="s">
         <v>140</v>
       </c>
-      <c r="J44" s="6">
+      <c r="J46" s="6">
         <v>21</v>
       </c>
-      <c r="K44" s="18"/>
-      <c r="L44" t="s">
+      <c r="K46" s="19"/>
+      <c r="L46" t="s">
         <v>52</v>
       </c>
-      <c r="M44">
+      <c r="M46">
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="2:13">
-      <c r="B45" s="20"/>
-      <c r="C45" t="s">
+    <row r="47" spans="2:13">
+      <c r="B47" s="21"/>
+      <c r="C47" t="s">
         <v>264</v>
       </c>
-      <c r="D45">
+      <c r="D47">
         <v>61</v>
       </c>
-      <c r="E45" s="18"/>
-      <c r="F45" s="17" t="s">
+      <c r="E47" s="19"/>
+      <c r="F47" s="17" t="s">
         <v>283</v>
       </c>
-      <c r="G45">
+      <c r="G47">
         <v>75</v>
       </c>
-      <c r="H45" s="18"/>
-      <c r="I45" t="s">
+      <c r="H47" s="19"/>
+      <c r="I47" t="s">
         <v>147</v>
       </c>
-      <c r="J45" s="6">
+      <c r="J47" s="6">
         <v>2</v>
       </c>
-      <c r="K45" s="18">
+      <c r="K47" s="19">
         <v>45898</v>
       </c>
-      <c r="L45" s="12" t="s">
+      <c r="L47" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="M45">
+      <c r="M47">
         <v>33</v>
       </c>
     </row>
-    <row r="46" spans="2:13">
-      <c r="B46" s="20"/>
-      <c r="C46" t="s">
+    <row r="48" spans="2:13">
+      <c r="B48" s="21"/>
+      <c r="C48" t="s">
         <v>265</v>
       </c>
-      <c r="D46">
+      <c r="D48">
         <v>69</v>
       </c>
-      <c r="E46" s="18"/>
-      <c r="F46" s="17" t="s">
+      <c r="E48" s="19"/>
+      <c r="F48" s="17" t="s">
         <v>284</v>
       </c>
-      <c r="G46">
+      <c r="G48">
         <v>14</v>
       </c>
-      <c r="H46" s="18"/>
-      <c r="I46" s="13" t="s">
+      <c r="H48" s="19"/>
+      <c r="I48" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="J46" s="6">
+      <c r="J48" s="6">
         <v>1</v>
       </c>
-      <c r="K46" s="18"/>
-      <c r="L46" s="7" t="s">
+      <c r="K48" s="19"/>
+      <c r="L48" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="M46">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="47" spans="2:13">
-      <c r="B47" s="20"/>
-      <c r="C47" t="s">
-        <v>266</v>
-      </c>
-      <c r="D47">
-        <v>23</v>
-      </c>
-      <c r="E47" s="18"/>
-      <c r="F47" s="17" t="s">
-        <v>285</v>
-      </c>
-      <c r="G47">
-        <v>74</v>
-      </c>
-      <c r="H47" s="18"/>
-      <c r="I47" s="13" t="s">
-        <v>253</v>
-      </c>
-      <c r="J47" s="6">
-        <v>15</v>
-      </c>
-      <c r="K47" s="18"/>
-      <c r="L47" t="s">
-        <v>126</v>
-      </c>
-      <c r="M47">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="2:13">
-      <c r="B48" s="20"/>
-      <c r="C48" t="s">
-        <v>267</v>
-      </c>
-      <c r="D48">
-        <v>55</v>
-      </c>
-      <c r="H48" s="18"/>
-      <c r="I48" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="J48" s="6">
-        <v>5</v>
-      </c>
-      <c r="K48" s="18"/>
-      <c r="L48" t="s">
-        <v>127</v>
       </c>
       <c r="M48">
         <v>31</v>
       </c>
     </row>
     <row r="49" spans="2:13">
-      <c r="B49" s="16">
+      <c r="B49" s="21"/>
+      <c r="C49" t="s">
+        <v>266</v>
+      </c>
+      <c r="D49">
+        <v>23</v>
+      </c>
+      <c r="E49" s="19"/>
+      <c r="F49" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="G49">
+        <v>74</v>
+      </c>
+      <c r="H49" s="19"/>
+      <c r="I49" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="J49" s="6">
+        <v>15</v>
+      </c>
+      <c r="K49" s="19"/>
+      <c r="L49" t="s">
+        <v>126</v>
+      </c>
+      <c r="M49">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13">
+      <c r="B50" s="21"/>
+      <c r="C50" t="s">
+        <v>267</v>
+      </c>
+      <c r="D50">
+        <v>55</v>
+      </c>
+      <c r="H50" s="19"/>
+      <c r="I50" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="J50" s="6">
+        <v>5</v>
+      </c>
+      <c r="K50" s="19"/>
+      <c r="L50" t="s">
+        <v>127</v>
+      </c>
+      <c r="M50">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13">
+      <c r="B51" s="16">
         <v>45916</v>
       </c>
-      <c r="C49" s="14" t="s">
+      <c r="C51" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="D49">
+      <c r="D51">
         <v>220</v>
       </c>
-      <c r="H49" s="18"/>
-      <c r="I49" s="13" t="s">
+      <c r="H51" s="19"/>
+      <c r="I51" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="J49" s="6">
+      <c r="J51" s="6">
         <v>5</v>
       </c>
-      <c r="K49" s="18"/>
-      <c r="L49" t="s">
+      <c r="K51" s="19"/>
+      <c r="L51" t="s">
         <v>128</v>
       </c>
-      <c r="M49">
+      <c r="M51">
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="2:13">
-      <c r="H50" s="18"/>
-      <c r="I50" s="13" t="s">
+    <row r="52" spans="2:13">
+      <c r="H52" s="19"/>
+      <c r="I52" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="J50" s="6">
+      <c r="J52" s="6">
         <v>45</v>
       </c>
-      <c r="K50" s="18"/>
-      <c r="L50" t="s">
+      <c r="K52" s="19"/>
+      <c r="L52" t="s">
         <v>129</v>
       </c>
-      <c r="M50">
+      <c r="M52">
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="2:13">
-      <c r="H51" s="18"/>
-      <c r="I51" s="13" t="s">
+    <row r="53" spans="2:13">
+      <c r="H53" s="19"/>
+      <c r="I53" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="J51" s="11">
+      <c r="J53" s="11">
         <v>24</v>
       </c>
-      <c r="K51" s="18"/>
-      <c r="L51" t="s">
+      <c r="K53" s="19"/>
+      <c r="L53" t="s">
         <v>130</v>
       </c>
-      <c r="M51">
+      <c r="M53">
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="2:13">
-      <c r="H52" s="18"/>
-      <c r="I52" s="13" t="s">
+    <row r="54" spans="2:13">
+      <c r="H54" s="19"/>
+      <c r="I54" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="J52" s="6">
+      <c r="J54" s="6">
         <v>26</v>
       </c>
-      <c r="K52" s="18"/>
-      <c r="L52" t="s">
+      <c r="K54" s="19"/>
+      <c r="L54" t="s">
         <v>131</v>
       </c>
-      <c r="M52">
+      <c r="M54">
         <v>41</v>
       </c>
     </row>
-    <row r="53" spans="2:13">
-      <c r="E53" s="23"/>
-      <c r="H53" s="18"/>
-      <c r="I53" s="13" t="s">
+    <row r="55" spans="2:13">
+      <c r="H55" s="19"/>
+      <c r="I55" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="J53" s="9">
+      <c r="J55" s="9">
         <v>1</v>
       </c>
-      <c r="K53" s="18"/>
-      <c r="L53" s="8" t="s">
+      <c r="K55" s="19"/>
+      <c r="L55" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="M53">
+      <c r="M55">
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="2:13">
-      <c r="E54" s="23"/>
-      <c r="H54" s="18"/>
-      <c r="I54" s="13" t="s">
+    <row r="56" spans="2:13">
+      <c r="H56" s="19"/>
+      <c r="I56" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="J54" s="6">
+      <c r="J56" s="6">
         <v>18</v>
       </c>
-      <c r="K54" s="18"/>
-      <c r="L54" t="s">
+      <c r="K56" s="19"/>
+      <c r="L56" t="s">
         <v>133</v>
       </c>
-      <c r="M54">
+      <c r="M56">
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="2:13">
-      <c r="E55" s="23"/>
-      <c r="H55" s="18"/>
-      <c r="I55" s="13" t="s">
+    <row r="57" spans="2:13">
+      <c r="H57" s="19"/>
+      <c r="I57" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="J55" s="6">
+      <c r="J57" s="6">
         <v>1</v>
       </c>
-      <c r="K55" s="18"/>
-      <c r="L55" t="s">
+      <c r="K57" s="19"/>
+      <c r="L57" t="s">
         <v>134</v>
       </c>
-      <c r="M55">
+      <c r="M57">
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="2:13">
-      <c r="E56" s="23"/>
-      <c r="H56" s="18"/>
-      <c r="I56" s="13" t="s">
+    <row r="58" spans="2:13">
+      <c r="H58" s="19"/>
+      <c r="I58" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="J56" s="10">
+      <c r="J58" s="10">
         <v>32</v>
       </c>
-      <c r="K56" s="18"/>
-      <c r="L56" t="s">
+      <c r="K58" s="19"/>
+      <c r="L58" t="s">
         <v>135</v>
       </c>
-      <c r="M56">
+      <c r="M58">
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="2:13">
-      <c r="E57" s="23"/>
-      <c r="H57" s="18"/>
-      <c r="I57" s="13" t="s">
+    <row r="59" spans="2:13">
+      <c r="H59" s="19"/>
+      <c r="I59" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="J57" s="11">
+      <c r="J59" s="11">
         <v>1</v>
       </c>
-      <c r="K57" s="18"/>
-      <c r="L57" t="s">
+      <c r="K59" s="19"/>
+      <c r="L59" t="s">
         <v>136</v>
       </c>
-      <c r="M57">
+      <c r="M59">
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="2:13">
-      <c r="E58" s="23"/>
-      <c r="H58" s="18"/>
-      <c r="I58" s="13" t="s">
+    <row r="60" spans="2:13">
+      <c r="H60" s="19"/>
+      <c r="I60" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="J58" s="11">
+      <c r="J60" s="11">
         <v>18</v>
       </c>
-      <c r="K58" s="18"/>
-      <c r="L58" t="s">
+      <c r="K60" s="19"/>
+      <c r="L60" t="s">
         <v>137</v>
       </c>
-      <c r="M58">
+      <c r="M60">
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="2:13">
-      <c r="E59" s="23"/>
-      <c r="H59" s="18"/>
-      <c r="I59" s="13" t="s">
+    <row r="61" spans="2:13">
+      <c r="H61" s="19"/>
+      <c r="I61" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="J59" s="10">
+      <c r="J61" s="10">
         <v>1</v>
       </c>
-      <c r="K59" s="18"/>
-      <c r="L59" t="s">
+      <c r="K61" s="19"/>
+      <c r="L61" t="s">
         <v>138</v>
       </c>
-      <c r="M59">
+      <c r="M61">
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="2:13">
-      <c r="E60" s="23"/>
-      <c r="H60" s="18"/>
-      <c r="I60" s="13" t="s">
+    <row r="62" spans="2:13">
+      <c r="H62" s="19"/>
+      <c r="I62" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="J60" s="10">
+      <c r="J62" s="10">
         <v>14</v>
       </c>
-      <c r="K60" s="18"/>
-      <c r="L60" t="s">
+      <c r="K62" s="19"/>
+      <c r="L62" t="s">
         <v>139</v>
       </c>
-      <c r="M60">
+      <c r="M62">
         <v>48</v>
       </c>
     </row>
-    <row r="61" spans="2:13">
-      <c r="E61" s="23"/>
-      <c r="H61" s="18"/>
-      <c r="I61" s="13" t="s">
+    <row r="63" spans="2:13">
+      <c r="H63" s="19"/>
+      <c r="I63" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="J61" s="11">
+      <c r="J63" s="11">
         <v>2</v>
       </c>
-      <c r="K61" s="18"/>
-      <c r="L61" t="s">
+      <c r="K63" s="19"/>
+      <c r="L63" t="s">
         <v>140</v>
       </c>
-      <c r="M61">
+      <c r="M63">
         <v>73</v>
       </c>
     </row>
-    <row r="62" spans="2:13">
-      <c r="E62" s="23"/>
-      <c r="H62" s="18"/>
-      <c r="I62" s="13" t="s">
+    <row r="64" spans="2:13">
+      <c r="H64" s="19"/>
+      <c r="I64" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="J62" s="11">
+      <c r="J64" s="11">
         <v>17</v>
       </c>
-      <c r="K62" s="18"/>
-      <c r="L62" t="s">
+      <c r="K64" s="19"/>
+      <c r="L64" t="s">
         <v>141</v>
       </c>
-      <c r="M62">
+      <c r="M64">
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="2:13">
-      <c r="E63" s="23"/>
-      <c r="H63" s="18"/>
-      <c r="I63" s="13" t="s">
+    <row r="65" spans="8:13">
+      <c r="H65" s="19"/>
+      <c r="I65" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="J63" s="11">
+      <c r="J65" s="11">
         <v>1</v>
       </c>
-      <c r="K63" s="18"/>
-      <c r="L63" t="s">
+      <c r="K65" s="19"/>
+      <c r="L65" t="s">
         <v>142</v>
       </c>
-      <c r="M63">
+      <c r="M65">
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="2:13">
-      <c r="E64" s="23"/>
-      <c r="H64" s="18"/>
-      <c r="I64" s="13" t="s">
+    <row r="66" spans="8:13">
+      <c r="H66" s="19"/>
+      <c r="I66" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="J64" s="11">
+      <c r="J66" s="11">
         <v>12</v>
       </c>
-      <c r="K64" s="18"/>
-      <c r="L64" t="s">
+      <c r="K66" s="19"/>
+      <c r="L66" t="s">
         <v>143</v>
       </c>
-      <c r="M64">
+      <c r="M66">
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="5:13">
-      <c r="E65" s="23"/>
-      <c r="H65" s="18"/>
-      <c r="I65" s="13" t="s">
+    <row r="67" spans="8:13">
+      <c r="H67" s="19"/>
+      <c r="I67" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="J65" s="11">
+      <c r="J67" s="11">
         <v>43</v>
       </c>
-      <c r="K65" s="18"/>
-      <c r="L65" t="s">
+      <c r="K67" s="19"/>
+      <c r="L67" t="s">
         <v>144</v>
       </c>
-      <c r="M65">
+      <c r="M67">
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="5:13">
-      <c r="E66" s="23"/>
-      <c r="H66" s="18"/>
-      <c r="I66" s="13" t="s">
+    <row r="68" spans="8:13">
+      <c r="H68" s="19"/>
+      <c r="I68" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="J66" s="11">
+      <c r="J68" s="11">
         <v>53</v>
       </c>
-      <c r="K66" s="18"/>
-      <c r="L66" t="s">
+      <c r="K68" s="19"/>
+      <c r="L68" t="s">
         <v>145</v>
       </c>
-      <c r="M66">
+      <c r="M68">
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="5:13">
-      <c r="E67" s="23"/>
-      <c r="H67" s="18"/>
-      <c r="I67" s="13" t="s">
+    <row r="69" spans="8:13">
+      <c r="H69" s="19"/>
+      <c r="I69" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="J67" s="11">
+      <c r="J69" s="11">
         <v>66</v>
       </c>
-      <c r="K67" s="18"/>
-      <c r="L67" t="s">
+      <c r="K69" s="19"/>
+      <c r="L69" t="s">
         <v>146</v>
       </c>
-      <c r="M67">
+      <c r="M69">
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="5:13">
-      <c r="E68" s="23"/>
-      <c r="H68" s="18"/>
-      <c r="I68" s="13" t="s">
+    <row r="70" spans="8:13">
+      <c r="H70" s="19"/>
+      <c r="I70" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="J68" s="11">
+      <c r="J70" s="11">
         <v>13</v>
       </c>
-      <c r="K68" s="18"/>
-      <c r="L68" t="s">
+      <c r="K70" s="19"/>
+      <c r="L70" t="s">
         <v>147</v>
       </c>
-      <c r="M68">
+      <c r="M70">
         <v>22</v>
       </c>
     </row>
-    <row r="69" spans="5:13">
-      <c r="E69" s="23"/>
-      <c r="H69" s="18"/>
-      <c r="I69" s="13" t="s">
+    <row r="71" spans="8:13">
+      <c r="H71" s="19"/>
+      <c r="I71" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="J69" s="11">
+      <c r="J71" s="11">
         <v>10</v>
       </c>
-      <c r="K69" s="18"/>
-      <c r="L69" t="s">
+      <c r="K71" s="19"/>
+      <c r="L71" t="s">
         <v>148</v>
       </c>
-      <c r="M69">
+      <c r="M71">
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="5:13">
-      <c r="E70" s="23"/>
-      <c r="H70" s="18"/>
-      <c r="I70" s="13" t="s">
+    <row r="72" spans="8:13">
+      <c r="H72" s="19"/>
+      <c r="I72" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="J70" s="11">
+      <c r="J72" s="11">
         <v>40</v>
       </c>
-      <c r="K70" s="18"/>
-      <c r="L70" t="s">
+      <c r="K72" s="19"/>
+      <c r="L72" t="s">
         <v>149</v>
-      </c>
-      <c r="M70">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="71" spans="5:13">
-      <c r="E71" s="23"/>
-      <c r="H71" s="18"/>
-      <c r="I71" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="J71" s="11">
-        <v>15</v>
-      </c>
-      <c r="K71" s="18"/>
-      <c r="L71" t="s">
-        <v>150</v>
-      </c>
-      <c r="M71">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="72" spans="5:13">
-      <c r="E72" s="23"/>
-      <c r="H72" s="18"/>
-      <c r="I72" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="J72" s="11">
-        <v>8</v>
-      </c>
-      <c r="K72" s="18"/>
-      <c r="L72" t="s">
-        <v>151</v>
       </c>
       <c r="M72">
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="5:13">
-      <c r="E73" s="23"/>
-      <c r="H73" s="18"/>
+    <row r="73" spans="8:13">
+      <c r="H73" s="19"/>
       <c r="I73" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="J73" s="11">
+        <v>15</v>
+      </c>
+      <c r="K73" s="19"/>
+      <c r="L73" t="s">
+        <v>150</v>
+      </c>
+      <c r="M73">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="8:13">
+      <c r="H74" s="19"/>
+      <c r="I74" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="J74" s="11">
+        <v>8</v>
+      </c>
+      <c r="K74" s="19"/>
+      <c r="L74" t="s">
+        <v>151</v>
+      </c>
+      <c r="M74">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="8:13">
+      <c r="H75" s="19"/>
+      <c r="I75" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="J73" s="11">
+      <c r="J75" s="11">
         <v>19</v>
       </c>
-      <c r="K73" s="18"/>
-      <c r="L73" t="s">
+      <c r="K75" s="19"/>
+      <c r="L75" t="s">
         <v>152</v>
       </c>
-      <c r="M73">
+      <c r="M75">
         <v>24</v>
       </c>
     </row>
-    <row r="74" spans="5:13">
-      <c r="E74" s="23"/>
-      <c r="H74" s="18"/>
-      <c r="I74" s="13" t="s">
+    <row r="76" spans="8:13">
+      <c r="H76" s="19"/>
+      <c r="I76" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="J74" s="11">
+      <c r="J76" s="11">
         <v>14</v>
       </c>
-      <c r="K74" s="18"/>
-      <c r="L74" t="s">
+      <c r="K76" s="19"/>
+      <c r="L76" t="s">
         <v>153</v>
       </c>
-      <c r="M74">
+      <c r="M76">
         <v>16</v>
       </c>
     </row>
-    <row r="75" spans="5:13">
-      <c r="E75" s="23"/>
-      <c r="H75" s="18"/>
-      <c r="I75" t="s">
+    <row r="77" spans="8:13">
+      <c r="H77" s="19"/>
+      <c r="I77" t="s">
         <v>211</v>
       </c>
-      <c r="J75" s="11">
+      <c r="J77" s="11">
         <v>2</v>
       </c>
-      <c r="K75" s="18"/>
-      <c r="L75" t="s">
+      <c r="K77" s="19"/>
+      <c r="L77" t="s">
         <v>154</v>
       </c>
-      <c r="M75">
+      <c r="M77">
         <v>22</v>
       </c>
     </row>
-    <row r="76" spans="5:13">
-      <c r="E76" s="23"/>
-      <c r="H76" s="18"/>
-      <c r="I76" t="s">
+    <row r="78" spans="8:13">
+      <c r="H78" s="19"/>
+      <c r="I78" t="s">
         <v>212</v>
       </c>
-      <c r="J76" s="11">
+      <c r="J78" s="11">
         <v>22</v>
       </c>
-      <c r="K76" s="18"/>
-      <c r="L76" t="s">
+      <c r="K78" s="19"/>
+      <c r="L78" t="s">
         <v>155</v>
       </c>
-      <c r="M76">
+      <c r="M78">
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="5:13">
-      <c r="E77" s="23"/>
-      <c r="H77" s="18"/>
-      <c r="I77" s="13" t="s">
+    <row r="79" spans="8:13">
+      <c r="H79" s="19"/>
+      <c r="I79" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="J77" s="11">
+      <c r="J79" s="11">
         <v>11</v>
       </c>
-      <c r="K77" s="18"/>
-      <c r="L77" t="s">
+      <c r="K79" s="19"/>
+      <c r="L79" t="s">
         <v>156</v>
       </c>
-      <c r="M77">
+      <c r="M79">
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="5:13">
-      <c r="E78" s="23"/>
-      <c r="H78" s="18"/>
-      <c r="I78" t="s">
+    <row r="80" spans="8:13">
+      <c r="H80" s="19"/>
+      <c r="I80" t="s">
         <v>214</v>
       </c>
-      <c r="J78" s="11">
+      <c r="J80" s="11">
         <v>9</v>
       </c>
-      <c r="K78" s="18"/>
-      <c r="L78" t="s">
+      <c r="K80" s="19"/>
+      <c r="L80" t="s">
         <v>157</v>
       </c>
-      <c r="M78">
+      <c r="M80">
         <v>26</v>
       </c>
     </row>
-    <row r="79" spans="5:13">
-      <c r="E79" s="23"/>
-      <c r="H79" s="18"/>
-      <c r="I79" t="s">
+    <row r="81" spans="8:13">
+      <c r="H81" s="19"/>
+      <c r="I81" t="s">
         <v>215</v>
       </c>
-      <c r="J79" s="11">
+      <c r="J81" s="11">
         <v>33</v>
       </c>
-      <c r="K79" s="18"/>
-      <c r="L79" t="s">
+      <c r="K81" s="19"/>
+      <c r="L81" t="s">
         <v>158</v>
-      </c>
-      <c r="M79">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="80" spans="5:13">
-      <c r="E80" s="23"/>
-      <c r="H80" s="18"/>
-      <c r="I80" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="J80" s="11">
-        <v>15</v>
-      </c>
-      <c r="K80" s="18"/>
-      <c r="L80" t="s">
-        <v>159</v>
-      </c>
-      <c r="M80">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="81" spans="5:13">
-      <c r="E81" s="23"/>
-      <c r="H81" s="18"/>
-      <c r="I81" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="J81" s="11">
-        <v>7</v>
-      </c>
-      <c r="K81" s="18"/>
-      <c r="L81" s="8" t="s">
-        <v>160</v>
       </c>
       <c r="M81">
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="5:13">
-      <c r="E82" s="23"/>
-      <c r="H82" s="18"/>
+    <row r="82" spans="8:13">
+      <c r="H82" s="19"/>
       <c r="I82" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="J82" s="11">
+        <v>15</v>
+      </c>
+      <c r="K82" s="19"/>
+      <c r="L82" t="s">
+        <v>159</v>
+      </c>
+      <c r="M82">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="8:13">
+      <c r="H83" s="19"/>
+      <c r="I83" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="J83" s="11">
+        <v>7</v>
+      </c>
+      <c r="K83" s="19"/>
+      <c r="L83" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="M83">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="8:13">
+      <c r="H84" s="19"/>
+      <c r="I84" s="13" t="s">
         <v>219</v>
-      </c>
-      <c r="J82" s="11">
-        <v>12</v>
-      </c>
-      <c r="K82" s="18"/>
-      <c r="L82" t="s">
-        <v>161</v>
-      </c>
-      <c r="M82">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="83" spans="5:13">
-      <c r="E83" s="23"/>
-      <c r="H83" s="18"/>
-      <c r="I83" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="J83" s="11">
-        <v>107</v>
-      </c>
-      <c r="K83" s="18"/>
-      <c r="L83" t="s">
-        <v>162</v>
-      </c>
-      <c r="M83">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="84" spans="5:13">
-      <c r="E84" s="23"/>
-      <c r="H84" s="18"/>
-      <c r="I84" s="13" t="s">
-        <v>222</v>
       </c>
       <c r="J84" s="11">
         <v>12</v>
       </c>
-      <c r="K84" s="18"/>
+      <c r="K84" s="19"/>
       <c r="L84" t="s">
+        <v>161</v>
+      </c>
+      <c r="M84">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" spans="8:13">
+      <c r="H85" s="19"/>
+      <c r="I85" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="J85" s="11">
+        <v>107</v>
+      </c>
+      <c r="K85" s="19"/>
+      <c r="L85" t="s">
+        <v>162</v>
+      </c>
+      <c r="M85">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" spans="8:13">
+      <c r="H86" s="19"/>
+      <c r="I86" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="J86" s="11">
+        <v>12</v>
+      </c>
+      <c r="K86" s="19"/>
+      <c r="L86" t="s">
         <v>163</v>
       </c>
-      <c r="M84">
+      <c r="M86">
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="5:13">
-      <c r="E85" s="23"/>
-      <c r="H85" s="18"/>
-      <c r="I85" t="s">
+    <row r="87" spans="8:13">
+      <c r="H87" s="19"/>
+      <c r="I87" t="s">
         <v>223</v>
       </c>
-      <c r="J85" s="11">
+      <c r="J87" s="11">
         <v>6</v>
       </c>
-      <c r="K85" s="18"/>
-      <c r="L85" t="s">
+      <c r="K87" s="19"/>
+      <c r="L87" t="s">
         <v>164</v>
       </c>
-      <c r="M85">
+      <c r="M87">
         <v>12</v>
       </c>
     </row>
-    <row r="86" spans="5:13">
-      <c r="H86" s="18"/>
-      <c r="I86" s="13" t="s">
+    <row r="88" spans="8:13">
+      <c r="H88" s="19"/>
+      <c r="I88" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="J86" s="11">
+      <c r="J88" s="11">
         <v>24</v>
       </c>
-      <c r="K86" s="18"/>
-      <c r="L86" t="s">
+      <c r="K88" s="19"/>
+      <c r="L88" t="s">
         <v>165</v>
-      </c>
-      <c r="M86">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="87" spans="5:13">
-      <c r="H87" s="18"/>
-      <c r="I87" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="J87" s="11">
-        <v>64</v>
-      </c>
-      <c r="K87" s="18"/>
-      <c r="L87" t="s">
-        <v>166</v>
-      </c>
-      <c r="M87">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="88" spans="5:13">
-      <c r="H88" s="18"/>
-      <c r="I88" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="J88" s="11">
-        <v>38</v>
-      </c>
-      <c r="K88" s="18"/>
-      <c r="L88" t="s">
-        <v>167</v>
       </c>
       <c r="M88">
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="5:13">
-      <c r="H89" s="18"/>
+    <row r="89" spans="8:13">
+      <c r="H89" s="19"/>
       <c r="I89" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="J89" s="11">
+        <v>64</v>
+      </c>
+      <c r="K89" s="19"/>
+      <c r="L89" t="s">
+        <v>166</v>
+      </c>
+      <c r="M89">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="8:13">
+      <c r="H90" s="19"/>
+      <c r="I90" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="J90" s="11">
+        <v>38</v>
+      </c>
+      <c r="K90" s="19"/>
+      <c r="L90" t="s">
+        <v>167</v>
+      </c>
+      <c r="M90">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="8:13">
+      <c r="H91" s="19"/>
+      <c r="I91" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="J89" s="11">
+      <c r="J91" s="11">
         <v>42</v>
       </c>
-      <c r="K89" s="18"/>
-      <c r="L89" t="s">
+      <c r="K91" s="19"/>
+      <c r="L91" t="s">
         <v>168</v>
       </c>
-      <c r="M89">
+      <c r="M91">
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="5:13">
-      <c r="H90" s="18"/>
-      <c r="I90" t="s">
+    <row r="92" spans="8:13">
+      <c r="H92" s="19"/>
+      <c r="I92" t="s">
         <v>196</v>
       </c>
-      <c r="J90" s="11">
+      <c r="J92" s="11">
         <v>2</v>
       </c>
-      <c r="K90" s="18"/>
-      <c r="L90" t="s">
+      <c r="K92" s="19"/>
+      <c r="L92" t="s">
         <v>169</v>
       </c>
-      <c r="M90">
+      <c r="M92">
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="5:13">
-      <c r="H91" s="16">
+    <row r="93" spans="8:13">
+      <c r="H93" s="16">
         <v>45916</v>
       </c>
-      <c r="I91" s="14" t="s">
+      <c r="I93" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="J91" s="15">
+      <c r="J93" s="15">
         <v>418</v>
       </c>
-      <c r="K91" s="18"/>
-      <c r="L91" t="s">
+      <c r="K93" s="19"/>
+      <c r="L93" t="s">
         <v>170</v>
       </c>
-      <c r="M91">
+      <c r="M93">
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="5:13">
-      <c r="H92" s="18">
+    <row r="94" spans="8:13">
+      <c r="H94" s="19">
         <v>45917</v>
       </c>
-      <c r="I92" t="s">
+      <c r="I94" t="s">
         <v>130</v>
       </c>
-      <c r="J92" s="25">
+      <c r="J94" s="18">
         <v>3</v>
       </c>
-      <c r="K92" s="18"/>
-      <c r="L92" t="s">
+      <c r="K94" s="19"/>
+      <c r="L94" t="s">
         <v>171</v>
       </c>
-      <c r="M92">
+      <c r="M94">
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="5:13">
-      <c r="H93" s="18"/>
-      <c r="I93" t="s">
+    <row r="95" spans="8:13">
+      <c r="H95" s="19"/>
+      <c r="I95" t="s">
         <v>131</v>
       </c>
-      <c r="J93" s="25">
+      <c r="J95" s="18">
         <v>8</v>
       </c>
-      <c r="K93" s="18"/>
-      <c r="L93" t="s">
+      <c r="K95" s="19"/>
+      <c r="L95" t="s">
         <v>172</v>
       </c>
-      <c r="M93">
+      <c r="M95">
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="5:13">
-      <c r="H94" s="18"/>
-      <c r="I94" s="13" t="s">
+    <row r="96" spans="8:13">
+      <c r="H96" s="19"/>
+      <c r="I96" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="J94" s="25">
+      <c r="J96" s="18">
         <v>1</v>
       </c>
-      <c r="K94" s="18"/>
-      <c r="L94" t="s">
+      <c r="K96" s="19"/>
+      <c r="L96" t="s">
         <v>173</v>
-      </c>
-      <c r="M94">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="95" spans="5:13">
-      <c r="H95" s="18"/>
-      <c r="I95" t="s">
-        <v>224</v>
-      </c>
-      <c r="J95" s="25">
-        <v>9</v>
-      </c>
-      <c r="K95" s="18"/>
-      <c r="L95" t="s">
-        <v>174</v>
-      </c>
-      <c r="M95">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="96" spans="5:13">
-      <c r="H96" s="18"/>
-      <c r="I96" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="J96" s="25">
-        <v>1</v>
-      </c>
-      <c r="K96" s="18"/>
-      <c r="L96" t="s">
-        <v>175</v>
       </c>
       <c r="M96">
         <v>6</v>
       </c>
     </row>
     <row r="97" spans="8:13">
-      <c r="H97" s="18"/>
-      <c r="I97" s="24" t="s">
+      <c r="H97" s="19"/>
+      <c r="I97" t="s">
+        <v>224</v>
+      </c>
+      <c r="J97" s="18">
+        <v>9</v>
+      </c>
+      <c r="K97" s="19"/>
+      <c r="L97" t="s">
+        <v>174</v>
+      </c>
+      <c r="M97">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="8:13">
+      <c r="H98" s="19"/>
+      <c r="I98" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="J98" s="18">
+        <v>1</v>
+      </c>
+      <c r="K98" s="19"/>
+      <c r="L98" t="s">
+        <v>175</v>
+      </c>
+      <c r="M98">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="8:13">
+      <c r="H99" s="19"/>
+      <c r="I99" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="J97" s="25">
+      <c r="J99" s="18">
         <v>5</v>
       </c>
-      <c r="K97" s="18"/>
-      <c r="L97" t="s">
+      <c r="K99" s="19"/>
+      <c r="L99" t="s">
         <v>176</v>
       </c>
-      <c r="M97">
+      <c r="M99">
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="8:13">
-      <c r="K98" s="18"/>
-      <c r="L98" t="s">
+    <row r="100" spans="8:13">
+      <c r="K100" s="19"/>
+      <c r="L100" t="s">
         <v>177</v>
       </c>
-      <c r="M98">
+      <c r="M100">
         <v>11</v>
       </c>
     </row>
-    <row r="99" spans="8:13">
-      <c r="K99" s="18"/>
-      <c r="L99" t="s">
+    <row r="101" spans="8:13">
+      <c r="K101" s="19"/>
+      <c r="L101" t="s">
         <v>178</v>
       </c>
-      <c r="M99">
+      <c r="M101">
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="8:13">
-      <c r="K100" s="18"/>
-      <c r="L100" t="s">
+    <row r="102" spans="8:13">
+      <c r="K102" s="19"/>
+      <c r="L102" t="s">
         <v>179</v>
       </c>
-      <c r="M100">
+      <c r="M102">
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="8:13">
-      <c r="K101" s="18"/>
-      <c r="L101" t="s">
+    <row r="103" spans="8:13">
+      <c r="K103" s="19"/>
+      <c r="L103" t="s">
         <v>180</v>
       </c>
-      <c r="M101">
+      <c r="M103">
         <v>12</v>
       </c>
     </row>
-    <row r="102" spans="8:13">
-      <c r="K102" s="18"/>
-      <c r="L102" t="s">
+    <row r="104" spans="8:13">
+      <c r="K104" s="19"/>
+      <c r="L104" t="s">
         <v>181</v>
       </c>
-      <c r="M102">
+      <c r="M104">
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="8:13">
-      <c r="K103" s="18"/>
-      <c r="L103" s="13" t="s">
+    <row r="105" spans="8:13">
+      <c r="K105" s="19"/>
+      <c r="L105" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="M103">
+      <c r="M105">
         <v>20</v>
       </c>
     </row>
-    <row r="104" spans="8:13">
-      <c r="K104" s="18"/>
-      <c r="L104" t="s">
+    <row r="106" spans="8:13">
+      <c r="K106" s="19"/>
+      <c r="L106" t="s">
         <v>183</v>
       </c>
-      <c r="M104">
+      <c r="M106">
         <v>64</v>
       </c>
     </row>
-    <row r="105" spans="8:13">
-      <c r="K105" s="18"/>
-      <c r="L105" t="s">
+    <row r="107" spans="8:13">
+      <c r="K107" s="19"/>
+      <c r="L107" t="s">
         <v>184</v>
       </c>
-      <c r="M105">
+      <c r="M107">
         <v>16</v>
       </c>
     </row>
-    <row r="106" spans="8:13">
-      <c r="K106" s="18"/>
-      <c r="L106" t="s">
+    <row r="108" spans="8:13">
+      <c r="K108" s="19"/>
+      <c r="L108" t="s">
         <v>185</v>
       </c>
-      <c r="M106">
+      <c r="M108">
         <v>38</v>
       </c>
     </row>
-    <row r="107" spans="8:13">
-      <c r="K107" s="18"/>
-      <c r="L107" t="s">
+    <row r="109" spans="8:13">
+      <c r="K109" s="19"/>
+      <c r="L109" t="s">
         <v>186</v>
       </c>
-      <c r="M107">
+      <c r="M109">
         <v>15</v>
       </c>
     </row>
-    <row r="108" spans="8:13">
-      <c r="K108" s="18"/>
-      <c r="L108" t="s">
+    <row r="110" spans="8:13">
+      <c r="K110" s="19"/>
+      <c r="L110" t="s">
         <v>187</v>
       </c>
-      <c r="M108">
+      <c r="M110">
         <v>50</v>
       </c>
     </row>
-    <row r="109" spans="8:13">
-      <c r="K109" s="18"/>
-      <c r="L109" t="s">
+    <row r="111" spans="8:13">
+      <c r="K111" s="19"/>
+      <c r="L111" t="s">
         <v>188</v>
       </c>
-      <c r="M109">
+      <c r="M111">
         <v>16</v>
       </c>
     </row>
-    <row r="110" spans="8:13">
-      <c r="K110" s="18"/>
-      <c r="L110" t="s">
+    <row r="112" spans="8:13">
+      <c r="K112" s="19"/>
+      <c r="L112" t="s">
         <v>189</v>
       </c>
-      <c r="M110">
+      <c r="M112">
         <v>42</v>
       </c>
     </row>
-    <row r="111" spans="8:13">
-      <c r="K111" s="18"/>
-      <c r="L111" t="s">
+    <row r="113" spans="11:13">
+      <c r="K113" s="19"/>
+      <c r="L113" t="s">
         <v>190</v>
       </c>
-      <c r="M111">
+      <c r="M113">
         <v>52</v>
       </c>
     </row>
-    <row r="112" spans="8:13">
-      <c r="K112" s="18"/>
-      <c r="L112" t="s">
+    <row r="114" spans="11:13">
+      <c r="K114" s="19"/>
+      <c r="L114" t="s">
         <v>191</v>
       </c>
-      <c r="M112">
+      <c r="M114">
         <v>129</v>
       </c>
     </row>
-    <row r="113" spans="11:13">
-      <c r="K113" s="18"/>
-      <c r="L113" t="s">
+    <row r="115" spans="11:13">
+      <c r="K115" s="19"/>
+      <c r="L115" t="s">
         <v>192</v>
       </c>
-      <c r="M113">
+      <c r="M115">
         <v>34</v>
       </c>
     </row>
-    <row r="114" spans="11:13">
-      <c r="K114" s="18"/>
-      <c r="L114" t="s">
+    <row r="116" spans="11:13">
+      <c r="K116" s="19"/>
+      <c r="L116" t="s">
         <v>193</v>
       </c>
-      <c r="M114">
+      <c r="M116">
         <v>74</v>
       </c>
     </row>
-    <row r="115" spans="11:13">
-      <c r="K115" s="18"/>
-      <c r="L115" t="s">
+    <row r="117" spans="11:13">
+      <c r="K117" s="19"/>
+      <c r="L117" t="s">
         <v>194</v>
       </c>
-      <c r="M115">
+      <c r="M117">
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="11:13">
-      <c r="K116" s="18"/>
-      <c r="L116" t="s">
+    <row r="118" spans="11:13">
+      <c r="K118" s="19"/>
+      <c r="L118" t="s">
         <v>195</v>
       </c>
-      <c r="M116">
+      <c r="M118">
         <v>12</v>
       </c>
     </row>
-    <row r="117" spans="11:13">
-      <c r="K117" s="18"/>
-      <c r="L117" t="s">
+    <row r="119" spans="11:13">
+      <c r="K119" s="19"/>
+      <c r="L119" t="s">
         <v>196</v>
       </c>
-      <c r="M117">
+      <c r="M119">
         <v>40</v>
       </c>
     </row>
-    <row r="118" spans="11:13">
-      <c r="K118" s="18"/>
-      <c r="L118" t="s">
+    <row r="120" spans="11:13">
+      <c r="K120" s="19"/>
+      <c r="L120" t="s">
         <v>197</v>
       </c>
-      <c r="M118">
+      <c r="M120">
         <v>11</v>
       </c>
     </row>
-    <row r="119" spans="11:13">
-      <c r="K119" s="18"/>
-      <c r="L119" t="s">
+    <row r="121" spans="11:13">
+      <c r="K121" s="19"/>
+      <c r="L121" t="s">
         <v>198</v>
       </c>
-      <c r="M119">
+      <c r="M121">
         <v>12</v>
       </c>
     </row>
-    <row r="120" spans="11:13">
-      <c r="K120" s="18"/>
-      <c r="L120" t="s">
+    <row r="122" spans="11:13">
+      <c r="K122" s="19"/>
+      <c r="L122" t="s">
         <v>199</v>
       </c>
-      <c r="M120">
+      <c r="M122">
         <v>14</v>
       </c>
     </row>
-    <row r="121" spans="11:13">
-      <c r="K121" s="18"/>
-      <c r="L121" t="s">
+    <row r="123" spans="11:13">
+      <c r="K123" s="19"/>
+      <c r="L123" t="s">
         <v>200</v>
       </c>
-      <c r="M121">
+      <c r="M123">
         <v>38</v>
       </c>
     </row>
-    <row r="122" spans="11:13">
-      <c r="K122" s="18"/>
-      <c r="L122" s="13" t="s">
+    <row r="124" spans="11:13">
+      <c r="K124" s="19"/>
+      <c r="L124" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="M122">
+      <c r="M124">
         <v>32</v>
       </c>
     </row>
-    <row r="123" spans="11:13">
-      <c r="K123" s="18"/>
-      <c r="L123" t="s">
+    <row r="125" spans="11:13">
+      <c r="K125" s="19"/>
+      <c r="L125" t="s">
         <v>202</v>
       </c>
-      <c r="M123">
+      <c r="M125">
         <v>12</v>
       </c>
     </row>
-    <row r="124" spans="11:13">
-      <c r="K124" s="18"/>
-      <c r="L124" t="s">
+    <row r="126" spans="11:13">
+      <c r="K126" s="19"/>
+      <c r="L126" t="s">
         <v>203</v>
       </c>
-      <c r="M124">
+      <c r="M126">
         <v>20</v>
       </c>
     </row>
-    <row r="125" spans="11:13">
-      <c r="K125" s="18"/>
-      <c r="L125" t="s">
+    <row r="127" spans="11:13">
+      <c r="K127" s="19"/>
+      <c r="L127" t="s">
         <v>204</v>
       </c>
-      <c r="M125">
+      <c r="M127">
         <v>24</v>
       </c>
     </row>
-    <row r="126" spans="11:13">
-      <c r="K126" s="18"/>
-      <c r="L126" t="s">
+    <row r="128" spans="11:13">
+      <c r="K128" s="19"/>
+      <c r="L128" t="s">
         <v>205</v>
-      </c>
-      <c r="M126">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="127" spans="11:13">
-      <c r="K127" s="18"/>
-      <c r="L127" t="s">
-        <v>206</v>
-      </c>
-      <c r="M127">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="128" spans="11:13">
-      <c r="K128" s="18"/>
-      <c r="L128" t="s">
-        <v>207</v>
       </c>
       <c r="M128">
         <v>32</v>
       </c>
     </row>
     <row r="129" spans="11:13">
-      <c r="K129" s="18"/>
+      <c r="K129" s="19"/>
       <c r="L129" t="s">
+        <v>206</v>
+      </c>
+      <c r="M129">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="130" spans="11:13">
+      <c r="K130" s="19"/>
+      <c r="L130" t="s">
+        <v>207</v>
+      </c>
+      <c r="M130">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="131" spans="11:13">
+      <c r="K131" s="19"/>
+      <c r="L131" t="s">
         <v>208</v>
       </c>
-      <c r="M129">
+      <c r="M131">
         <v>65</v>
       </c>
     </row>
-    <row r="130" spans="11:13">
-      <c r="K130" s="18"/>
-      <c r="L130" t="s">
+    <row r="132" spans="11:13">
+      <c r="K132" s="19"/>
+      <c r="L132" t="s">
         <v>209</v>
       </c>
-      <c r="M130">
+      <c r="M132">
         <v>36</v>
       </c>
     </row>
-    <row r="131" spans="11:13">
-      <c r="K131" s="18"/>
-      <c r="L131" t="s">
+    <row r="133" spans="11:13">
+      <c r="K133" s="19"/>
+      <c r="L133" t="s">
         <v>210</v>
       </c>
-      <c r="M131">
+      <c r="M133">
         <v>32</v>
       </c>
     </row>
-    <row r="132" spans="11:13">
-      <c r="K132" s="18"/>
-      <c r="L132" t="s">
+    <row r="134" spans="11:13">
+      <c r="K134" s="19"/>
+      <c r="L134" t="s">
         <v>211</v>
       </c>
-      <c r="M132">
+      <c r="M134">
         <v>41</v>
       </c>
     </row>
-    <row r="133" spans="11:13">
-      <c r="K133" s="18"/>
-      <c r="L133" t="s">
+    <row r="135" spans="11:13">
+      <c r="K135" s="19"/>
+      <c r="L135" t="s">
         <v>212</v>
       </c>
-      <c r="M133">
+      <c r="M135">
         <v>55</v>
       </c>
     </row>
-    <row r="134" spans="11:13">
-      <c r="K134" s="18"/>
-      <c r="L134" t="s">
+    <row r="136" spans="11:13">
+      <c r="K136" s="19"/>
+      <c r="L136" t="s">
         <v>213</v>
       </c>
-      <c r="M134">
+      <c r="M136">
         <v>31</v>
       </c>
     </row>
-    <row r="135" spans="11:13">
-      <c r="K135" s="18"/>
-      <c r="L135" t="s">
+    <row r="137" spans="11:13">
+      <c r="K137" s="19"/>
+      <c r="L137" t="s">
         <v>214</v>
       </c>
-      <c r="M135">
+      <c r="M137">
         <v>66</v>
       </c>
     </row>
-    <row r="136" spans="11:13">
-      <c r="K136" s="18"/>
-      <c r="L136" t="s">
+    <row r="138" spans="11:13">
+      <c r="K138" s="19"/>
+      <c r="L138" t="s">
         <v>215</v>
       </c>
-      <c r="M136">
+      <c r="M138">
         <v>58</v>
       </c>
     </row>
-    <row r="137" spans="11:13">
-      <c r="K137" s="18"/>
-      <c r="L137" t="s">
+    <row r="139" spans="11:13">
+      <c r="K139" s="19"/>
+      <c r="L139" t="s">
         <v>216</v>
       </c>
-      <c r="M137">
+      <c r="M139">
         <v>72</v>
       </c>
     </row>
-    <row r="138" spans="11:13">
-      <c r="K138" s="18"/>
-      <c r="L138" t="s">
+    <row r="140" spans="11:13">
+      <c r="K140" s="19"/>
+      <c r="L140" t="s">
         <v>217</v>
       </c>
-      <c r="M138">
+      <c r="M140">
         <v>30</v>
       </c>
     </row>
-    <row r="139" spans="11:13">
-      <c r="K139" s="18"/>
-      <c r="L139" t="s">
+    <row r="141" spans="11:13">
+      <c r="K141" s="19"/>
+      <c r="L141" t="s">
         <v>218</v>
       </c>
-      <c r="M139">
+      <c r="M141">
         <v>54</v>
       </c>
     </row>
-    <row r="140" spans="11:13">
-      <c r="K140" s="18"/>
-      <c r="L140" t="s">
+    <row r="142" spans="11:13">
+      <c r="K142" s="19"/>
+      <c r="L142" t="s">
         <v>219</v>
       </c>
-      <c r="M140">
+      <c r="M142">
         <v>67</v>
       </c>
     </row>
-    <row r="141" spans="11:13">
-      <c r="K141" s="18"/>
-      <c r="L141" t="s">
+    <row r="143" spans="11:13">
+      <c r="K143" s="19"/>
+      <c r="L143" t="s">
         <v>220</v>
       </c>
-      <c r="M141">
+      <c r="M143">
         <v>114</v>
       </c>
     </row>
-    <row r="142" spans="11:13">
-      <c r="K142" s="18"/>
-      <c r="L142" t="s">
+    <row r="144" spans="11:13">
+      <c r="K144" s="19"/>
+      <c r="L144" t="s">
         <v>221</v>
-      </c>
-      <c r="M142">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="143" spans="11:13">
-      <c r="K143" s="18"/>
-      <c r="L143" t="s">
-        <v>222</v>
-      </c>
-      <c r="M143">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="144" spans="11:13">
-      <c r="K144" s="18"/>
-      <c r="L144" t="s">
-        <v>223</v>
       </c>
       <c r="M144">
         <v>34</v>
       </c>
     </row>
     <row r="145" spans="11:13">
-      <c r="K145" s="18"/>
+      <c r="K145" s="19"/>
       <c r="L145" t="s">
+        <v>222</v>
+      </c>
+      <c r="M145">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="146" spans="11:13">
+      <c r="K146" s="19"/>
+      <c r="L146" t="s">
+        <v>223</v>
+      </c>
+      <c r="M146">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="147" spans="11:13">
+      <c r="K147" s="19"/>
+      <c r="L147" t="s">
         <v>224</v>
       </c>
-      <c r="M145">
+      <c r="M147">
         <v>79</v>
       </c>
     </row>
-    <row r="146" spans="11:13">
-      <c r="K146" s="18"/>
-      <c r="L146" s="13" t="s">
+    <row r="148" spans="11:13">
+      <c r="K148" s="19"/>
+      <c r="L148" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="M146">
+      <c r="M148">
         <v>12</v>
       </c>
     </row>
-    <row r="147" spans="11:13">
-      <c r="K147" s="18"/>
-      <c r="L147" t="s">
+    <row r="149" spans="11:13">
+      <c r="K149" s="19"/>
+      <c r="L149" t="s">
         <v>226</v>
       </c>
-      <c r="M147">
+      <c r="M149">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="E30:E47"/>
-    <mergeCell ref="H41:H90"/>
-    <mergeCell ref="H92:H97"/>
-    <mergeCell ref="K8:K44"/>
-    <mergeCell ref="K45:K147"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="B9:B17"/>
-    <mergeCell ref="H10:H20"/>
-    <mergeCell ref="B18:B34"/>
-    <mergeCell ref="H21:H34"/>
-    <mergeCell ref="E21:E29"/>
-    <mergeCell ref="B35:B48"/>
-    <mergeCell ref="H36:H40"/>
+    <mergeCell ref="B37:B50"/>
+    <mergeCell ref="H38:H42"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="B11:B19"/>
+    <mergeCell ref="H12:H22"/>
+    <mergeCell ref="B20:B36"/>
+    <mergeCell ref="H23:H36"/>
+    <mergeCell ref="E23:E31"/>
+    <mergeCell ref="E32:E49"/>
+    <mergeCell ref="H43:H92"/>
+    <mergeCell ref="H94:H99"/>
+    <mergeCell ref="K10:K46"/>
+    <mergeCell ref="K47:K149"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
